--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{73AA0D79-A317-42B6-BF79-7AE2EAD561B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{39183B24-9D21-4A50-A218-FFE27B6C8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="1572" windowWidth="22332" windowHeight="10692" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="732" windowWidth="21372" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -463,10 +463,7 @@
     <t>2021</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  31 May 2021</t>
+    <t xml:space="preserve"> Run Date:  27 January 2022</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3009,8 @@
   </sheetPr>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="4" spans="2:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="B4" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="5"/>
@@ -3129,44 +3126,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11192417.9</v>
+        <v>11191887.1</v>
       </c>
       <c r="E7" s="19">
-        <v>11471359.4</v>
+        <v>11471218.9</v>
       </c>
       <c r="F7" s="19">
-        <v>10910014.6</v>
+        <v>10909444.699999999</v>
       </c>
       <c r="G7" s="19">
-        <v>11671681.800000001</v>
+        <v>11671234.300000001</v>
       </c>
       <c r="H7" s="19">
-        <v>0</v>
+        <v>11856739.300000001</v>
       </c>
       <c r="I7" s="19">
-        <v>0</v>
+        <v>11772886.300000001</v>
       </c>
       <c r="J7" s="19">
-        <v>0</v>
+        <v>11705237.699999999</v>
       </c>
       <c r="K7" s="19">
-        <v>0</v>
+        <v>11964291.300000001</v>
       </c>
       <c r="L7" s="19">
-        <v>0</v>
+        <v>11917285.1</v>
       </c>
       <c r="M7" s="19">
-        <v>0</v>
+        <v>12182564.199999999</v>
       </c>
       <c r="N7" s="19">
-        <v>0</v>
+        <v>12816470.199999999</v>
       </c>
       <c r="O7" s="19">
-        <v>0</v>
+        <v>12683422.5</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11192417.9</v>
+        <v>11191887.1</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,44 +3227,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1191813.1000000001</v>
+        <v>1173328.5</v>
       </c>
       <c r="E11" s="62">
-        <v>1051060.3</v>
+        <v>1026043.5</v>
       </c>
       <c r="F11" s="62">
-        <v>1254463.3</v>
+        <v>1206010.6000000001</v>
       </c>
       <c r="G11" s="62">
-        <v>1258004.2</v>
+        <v>1184370.3</v>
       </c>
       <c r="H11" s="62">
-        <v>0</v>
+        <v>1171442.3999999999</v>
       </c>
       <c r="I11" s="62">
-        <v>0</v>
+        <v>1099401.1000000001</v>
       </c>
       <c r="J11" s="62">
-        <v>0</v>
+        <v>1171536.3</v>
       </c>
       <c r="K11" s="62">
-        <v>0</v>
+        <v>1230847.1000000001</v>
       </c>
       <c r="L11" s="62">
-        <v>0</v>
+        <v>1199735.8</v>
       </c>
       <c r="M11" s="62">
-        <v>0</v>
+        <v>1322792.8</v>
       </c>
       <c r="N11" s="62">
-        <v>0</v>
+        <v>1314922.6000000001</v>
       </c>
       <c r="O11" s="62">
-        <v>0</v>
+        <v>1352367.2</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>4755340.9000000004</v>
+        <v>14452798.200000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,44 +3273,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>358920.3</v>
+        <v>365687.6</v>
       </c>
       <c r="E12" s="19">
-        <v>310222.5</v>
+        <v>318429.09999999998</v>
       </c>
       <c r="F12" s="19">
-        <v>359991.2</v>
+        <v>378949</v>
       </c>
       <c r="G12" s="19">
-        <v>350298.6</v>
+        <v>378907</v>
       </c>
       <c r="H12" s="19">
-        <v>0</v>
+        <v>386628.8</v>
       </c>
       <c r="I12" s="19">
-        <v>0</v>
+        <v>369446.9</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>384595.3</v>
       </c>
       <c r="K12" s="19">
-        <v>0</v>
+        <v>394340.7</v>
       </c>
       <c r="L12" s="19">
-        <v>0</v>
+        <v>374366.5</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>378517.7</v>
       </c>
       <c r="N12" s="19">
-        <v>0</v>
+        <v>364248.8</v>
       </c>
       <c r="O12" s="19">
-        <v>0</v>
+        <v>365299.9</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>1379432.6</v>
+        <v>4459417.3</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3322,44 +3319,44 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="62">
-        <v>163698.6</v>
+        <v>166287.70000000001</v>
       </c>
       <c r="E13" s="62">
-        <v>144515.9</v>
+        <v>148986.20000000001</v>
       </c>
       <c r="F13" s="62">
-        <v>160842</v>
+        <v>167139.9</v>
       </c>
       <c r="G13" s="62">
-        <v>155410.29999999999</v>
+        <v>165733.29999999999</v>
       </c>
       <c r="H13" s="62">
-        <v>0</v>
+        <v>171221.8</v>
       </c>
       <c r="I13" s="62">
-        <v>0</v>
+        <v>160213.6</v>
       </c>
       <c r="J13" s="62">
-        <v>0</v>
+        <v>164998.70000000001</v>
       </c>
       <c r="K13" s="62">
-        <v>0</v>
+        <v>168682.9</v>
       </c>
       <c r="L13" s="62">
-        <v>0</v>
+        <v>156277.1</v>
       </c>
       <c r="M13" s="62">
-        <v>0</v>
+        <v>162467.20000000001</v>
       </c>
       <c r="N13" s="62">
-        <v>0</v>
+        <v>159069.20000000001</v>
       </c>
       <c r="O13" s="62">
-        <v>0</v>
+        <v>159440</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>624466.80000000005</v>
+        <v>1950517.6</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,44 +3365,44 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>347021</v>
+        <v>354921.4</v>
       </c>
       <c r="E14" s="106">
-        <v>306323.5</v>
+        <v>317071.3</v>
       </c>
       <c r="F14" s="106">
-        <v>340453.2</v>
+        <v>362079.1</v>
       </c>
       <c r="G14" s="105">
-        <v>335950.9</v>
+        <v>368144.4</v>
       </c>
       <c r="H14" s="105">
-        <v>0</v>
+        <v>382776</v>
       </c>
       <c r="I14" s="105">
-        <v>0</v>
+        <v>373432.1</v>
       </c>
       <c r="J14" s="105">
-        <v>0</v>
+        <v>392232.6</v>
       </c>
       <c r="K14" s="105">
-        <v>0</v>
+        <v>395106.7</v>
       </c>
       <c r="L14" s="105">
-        <v>0</v>
+        <v>377391.9</v>
       </c>
       <c r="M14" s="105">
-        <v>0</v>
+        <v>390863.6</v>
       </c>
       <c r="N14" s="105">
-        <v>0</v>
+        <v>372203.9</v>
       </c>
       <c r="O14" s="105">
-        <v>0</v>
+        <v>374929.3</v>
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>1329748.6000000001</v>
+        <v>4461152.3</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,44 +3410,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2061453.0000000002</v>
+        <v>2060225.2000000002</v>
       </c>
       <c r="E15" s="62">
-        <v>1812122.2</v>
+        <v>1810530.1</v>
       </c>
       <c r="F15" s="62">
-        <v>2115749.7000000002</v>
+        <v>2114178.6</v>
       </c>
       <c r="G15" s="62">
-        <v>2099664</v>
+        <v>2097155</v>
       </c>
       <c r="H15" s="62">
-        <v>0</v>
+        <v>2112069</v>
       </c>
       <c r="I15" s="62">
-        <v>0</v>
+        <v>2002493.7000000002</v>
       </c>
       <c r="J15" s="62">
-        <v>0</v>
+        <v>2113362.9</v>
       </c>
       <c r="K15" s="62">
-        <v>0</v>
+        <v>2188977.4</v>
       </c>
       <c r="L15" s="62">
-        <v>0</v>
+        <v>2107771.3000000003</v>
       </c>
       <c r="M15" s="62">
-        <v>0</v>
+        <v>2254641.2999999998</v>
       </c>
       <c r="N15" s="62">
-        <v>0</v>
+        <v>2210444.5</v>
       </c>
       <c r="O15" s="62">
-        <v>0</v>
+        <v>2252036.4</v>
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>8088988.9000000004</v>
+        <v>25323885.400000002</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,44 +3472,44 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>340935.8</v>
+        <v>342560.8</v>
       </c>
       <c r="E17" s="62">
-        <v>293337.40000000002</v>
+        <v>294295.09999999998</v>
       </c>
       <c r="F17" s="62">
-        <v>333891.40000000002</v>
+        <v>335227.90000000002</v>
       </c>
       <c r="G17" s="62">
-        <v>341892.2</v>
+        <v>343924.1</v>
       </c>
       <c r="H17" s="62">
-        <v>0</v>
+        <v>353809.5</v>
       </c>
       <c r="I17" s="62">
-        <v>0</v>
+        <v>350592.3</v>
       </c>
       <c r="J17" s="62">
-        <v>0</v>
+        <v>396141.1</v>
       </c>
       <c r="K17" s="62">
-        <v>0</v>
+        <v>394658.6</v>
       </c>
       <c r="L17" s="62">
-        <v>0</v>
+        <v>341113.7</v>
       </c>
       <c r="M17" s="62">
-        <v>0</v>
+        <v>381841.6</v>
       </c>
       <c r="N17" s="62">
-        <v>0</v>
+        <v>349824.5</v>
       </c>
       <c r="O17" s="62">
-        <v>0</v>
+        <v>339159.8</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>1310056.8</v>
+        <v>4223149</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3579,41 +3576,41 @@
         <v>8198547.5999999996</v>
       </c>
       <c r="E21" s="62">
-        <v>7359722</v>
+        <v>7359714.5</v>
       </c>
       <c r="F21" s="62">
-        <v>8272406.4000000004</v>
+        <v>8272295.5999999996</v>
       </c>
       <c r="G21" s="62">
-        <v>8070152.0999999996</v>
+        <v>8069558.2999999998</v>
       </c>
       <c r="H21" s="62">
-        <v>0</v>
+        <v>8180222.4000000004</v>
       </c>
       <c r="I21" s="62">
-        <v>0</v>
+        <v>7721307.0999999996</v>
       </c>
       <c r="J21" s="62">
-        <v>0</v>
+        <v>8163106.5999999996</v>
       </c>
       <c r="K21" s="62">
-        <v>0</v>
+        <v>8165909.2999999998</v>
       </c>
       <c r="L21" s="62">
-        <v>0</v>
+        <v>7939198.4000000004</v>
       </c>
       <c r="M21" s="62">
-        <v>0</v>
+        <v>8609807.9000000004</v>
       </c>
       <c r="N21" s="62">
-        <v>0</v>
+        <v>8384958.4000000004</v>
       </c>
       <c r="O21" s="62">
-        <v>0</v>
+        <v>8452996.8000000007</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>31900828.100000001</v>
+        <v>97517622.900000006</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3634,32 +3631,32 @@
         <v>5832680.7000000002</v>
       </c>
       <c r="H22" s="62">
-        <v>0</v>
+        <v>6648687.2999999998</v>
       </c>
       <c r="I22" s="62">
-        <v>0</v>
+        <v>7903194.4000000004</v>
       </c>
       <c r="J22" s="62">
-        <v>0</v>
+        <v>8248279.0999999996</v>
       </c>
       <c r="K22" s="62">
-        <v>0</v>
+        <v>7711611.5</v>
       </c>
       <c r="L22" s="62">
-        <v>0</v>
+        <v>7272440.5</v>
       </c>
       <c r="M22" s="62">
-        <v>0</v>
+        <v>8786603.0999999996</v>
       </c>
       <c r="N22" s="62">
-        <v>0</v>
+        <v>8217908.7000000002</v>
       </c>
       <c r="O22" s="62">
-        <v>0</v>
+        <v>7806448.7999999998</v>
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>29719912.300000001</v>
+        <v>92315085.699999988</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3680,32 +3677,32 @@
         <v>-4528837.2</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>-6025951.0999999996</v>
       </c>
       <c r="I23" s="62">
-        <v>0</v>
+        <v>-6518806.7999999998</v>
       </c>
       <c r="J23" s="62">
-        <v>0</v>
+        <v>-7042458.2999999998</v>
       </c>
       <c r="K23" s="62">
-        <v>0</v>
+        <v>-6082474.4000000004</v>
       </c>
       <c r="L23" s="62">
-        <v>0</v>
+        <v>-5992757.5</v>
       </c>
       <c r="M23" s="62">
-        <v>0</v>
+        <v>-7598338</v>
       </c>
       <c r="N23" s="62">
-        <v>0</v>
+        <v>-7005155</v>
       </c>
       <c r="O23" s="62">
-        <v>0</v>
+        <v>-6938315.7999999998</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-25165376.300000001</v>
+        <v>-78369633.199999988</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3717,41 +3714,41 @@
         <v>9454080.4000000022</v>
       </c>
       <c r="E24" s="62">
-        <v>8062200.7000000002</v>
+        <v>8062193.2000000002</v>
       </c>
       <c r="F24" s="62">
-        <v>9565087.4000000004</v>
+        <v>9564976.5999999996</v>
       </c>
       <c r="G24" s="62">
-        <v>9373995.6000000015</v>
+        <v>9373401.8000000007</v>
       </c>
       <c r="H24" s="62">
-        <v>0</v>
+        <v>8802958.5999999996</v>
       </c>
       <c r="I24" s="62">
-        <v>0</v>
+        <v>9105694.6999999993</v>
       </c>
       <c r="J24" s="62">
-        <v>0</v>
+        <v>9368927.3999999985</v>
       </c>
       <c r="K24" s="62">
-        <v>0</v>
+        <v>9795046.4000000004</v>
       </c>
       <c r="L24" s="62">
-        <v>0</v>
+        <v>9218881.4000000004</v>
       </c>
       <c r="M24" s="62">
-        <v>0</v>
+        <v>9798073</v>
       </c>
       <c r="N24" s="62">
-        <v>0</v>
+        <v>9597712.1000000015</v>
       </c>
       <c r="O24" s="62">
-        <v>0</v>
+        <v>9321129.8000000007</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>36455364.100000009</v>
+        <v>111463075.40000001</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3771,32 +3768,32 @@
         <v>3961511.9</v>
       </c>
       <c r="H25" s="61">
-        <v>0</v>
+        <v>5212273.0999999996</v>
       </c>
       <c r="I25" s="61">
-        <v>0</v>
+        <v>5683705.5999999996</v>
       </c>
       <c r="J25" s="61">
-        <v>0</v>
+        <v>6171403</v>
       </c>
       <c r="K25" s="61">
-        <v>0</v>
+        <v>5411753</v>
       </c>
       <c r="L25" s="61">
-        <v>0</v>
+        <v>5208956.2</v>
       </c>
       <c r="M25" s="61">
-        <v>0</v>
+        <v>6482468.2999999998</v>
       </c>
       <c r="N25" s="61">
-        <v>0</v>
+        <v>6185790.5</v>
       </c>
       <c r="O25" s="61">
-        <v>0</v>
+        <v>6061187.5999999996</v>
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>22100275.199999999</v>
+        <v>68517812.5</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3807,41 +3804,41 @@
         <v>16011452.400000002</v>
       </c>
       <c r="E26" s="62">
-        <v>13794452.699999999</v>
+        <v>13794445.199999999</v>
       </c>
       <c r="F26" s="62">
-        <v>15414226.699999999</v>
+        <v>15414115.899999999</v>
       </c>
       <c r="G26" s="62">
-        <v>13335507.500000002</v>
+        <v>13334913.700000001</v>
       </c>
       <c r="H26" s="62">
-        <v>0</v>
+        <v>14015231.699999999</v>
       </c>
       <c r="I26" s="62">
-        <v>0</v>
+        <v>14789400.299999999</v>
       </c>
       <c r="J26" s="62">
-        <v>0</v>
+        <v>15540330.399999999</v>
       </c>
       <c r="K26" s="62">
-        <v>0</v>
+        <v>15206799.4</v>
       </c>
       <c r="L26" s="62">
-        <v>0</v>
+        <v>14427837.600000001</v>
       </c>
       <c r="M26" s="62">
-        <v>0</v>
+        <v>16280541.300000001</v>
       </c>
       <c r="N26" s="62">
-        <v>0</v>
+        <v>15783502.600000001</v>
       </c>
       <c r="O26" s="62">
-        <v>0</v>
+        <v>15382317.4</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>58555639.300000012</v>
+        <v>179980887.90000001</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,44 +3864,44 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>18413841.200000003</v>
+        <v>18414238.400000002</v>
       </c>
       <c r="E28" s="62">
-        <v>15899912.299999999</v>
+        <v>15899270.399999999</v>
       </c>
       <c r="F28" s="62">
-        <v>17863867.799999997</v>
+        <v>17863522.399999999</v>
       </c>
       <c r="G28" s="62">
-        <v>15777063.700000001</v>
+        <v>15775992.800000001</v>
       </c>
       <c r="H28" s="62">
-        <v>0</v>
+        <v>16481110.199999999</v>
       </c>
       <c r="I28" s="62">
-        <v>0</v>
+        <v>17142486.300000001</v>
       </c>
       <c r="J28" s="62">
-        <v>0</v>
+        <v>18049834.399999999</v>
       </c>
       <c r="K28" s="62">
-        <v>0</v>
+        <v>17790435.400000002</v>
       </c>
       <c r="L28" s="62">
-        <v>0</v>
+        <v>16876722.600000001</v>
       </c>
       <c r="M28" s="62">
-        <v>0</v>
+        <v>18917024.200000003</v>
       </c>
       <c r="N28" s="62">
-        <v>0</v>
+        <v>18343771.600000001</v>
       </c>
       <c r="O28" s="62">
-        <v>0</v>
+        <v>17973513.600000001</v>
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>67954685.000000015</v>
+        <v>209527922.30000001</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,44 +3945,44 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>986732.8</v>
+        <v>986732.6</v>
       </c>
       <c r="E31" s="62">
-        <v>886062.5</v>
+        <v>886083.9</v>
       </c>
       <c r="F31" s="62">
-        <v>1079140.1000000001</v>
+        <v>1079290</v>
       </c>
       <c r="G31" s="62">
-        <v>1054795.5</v>
+        <v>1057312.6000000001</v>
       </c>
       <c r="H31" s="62">
-        <v>0</v>
+        <v>1055981.7</v>
       </c>
       <c r="I31" s="62">
-        <v>0</v>
+        <v>961469.5</v>
       </c>
       <c r="J31" s="62">
-        <v>0</v>
+        <v>990030.2</v>
       </c>
       <c r="K31" s="62">
-        <v>0</v>
+        <v>1027034.1</v>
       </c>
       <c r="L31" s="62">
-        <v>0</v>
+        <v>1001702.2</v>
       </c>
       <c r="M31" s="62">
-        <v>0</v>
+        <v>1044781.5</v>
       </c>
       <c r="N31" s="62">
-        <v>0</v>
+        <v>1036681.4</v>
       </c>
       <c r="O31" s="62">
-        <v>0</v>
+        <v>1008972.5</v>
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>4006730.9000000004</v>
+        <v>12136072.199999999</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4002,35 +3999,35 @@
         <v>309803.3</v>
       </c>
       <c r="G32" s="62">
-        <v>291508.3</v>
+        <v>291523</v>
       </c>
       <c r="H32" s="62">
-        <v>0</v>
+        <v>298638.2</v>
       </c>
       <c r="I32" s="62">
-        <v>0</v>
+        <v>272139.40000000002</v>
       </c>
       <c r="J32" s="62">
-        <v>0</v>
+        <v>327736.90000000002</v>
       </c>
       <c r="K32" s="62">
-        <v>0</v>
+        <v>305046.2</v>
       </c>
       <c r="L32" s="62">
-        <v>0</v>
+        <v>273211.8</v>
       </c>
       <c r="M32" s="62">
-        <v>0</v>
+        <v>298100.3</v>
       </c>
       <c r="N32" s="62">
-        <v>0</v>
+        <v>298934.8</v>
       </c>
       <c r="O32" s="62">
-        <v>0</v>
+        <v>306185</v>
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>1172169.7000000002</v>
+        <v>3552176.9999999995</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4068,32 +4065,32 @@
         <v>9787</v>
       </c>
       <c r="H34" s="62">
-        <v>0</v>
+        <v>8969.4</v>
       </c>
       <c r="I34" s="62">
-        <v>0</v>
+        <v>9305.4</v>
       </c>
       <c r="J34" s="62">
-        <v>0</v>
+        <v>8891.9</v>
       </c>
       <c r="K34" s="62">
-        <v>0</v>
+        <v>9120.6</v>
       </c>
       <c r="L34" s="62">
-        <v>0</v>
+        <v>12407.6</v>
       </c>
       <c r="M34" s="62">
-        <v>0</v>
+        <v>9771.5</v>
       </c>
       <c r="N34" s="62">
-        <v>0</v>
+        <v>9423.7000000000007</v>
       </c>
       <c r="O34" s="62">
-        <v>0</v>
+        <v>10109.200000000001</v>
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>38682</v>
+        <v>116681.3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4102,7 +4099,7 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="62">
-        <v>14471.3</v>
+        <v>14531.2</v>
       </c>
       <c r="E35" s="62">
         <v>13590.5</v>
@@ -4114,32 +4111,32 @@
         <v>14681.8</v>
       </c>
       <c r="H35" s="62">
-        <v>0</v>
+        <v>14586.6</v>
       </c>
       <c r="I35" s="62">
-        <v>0</v>
+        <v>15860.8</v>
       </c>
       <c r="J35" s="62">
-        <v>0</v>
+        <v>12694.4</v>
       </c>
       <c r="K35" s="62">
-        <v>0</v>
+        <v>16689.900000000001</v>
       </c>
       <c r="L35" s="62">
-        <v>0</v>
+        <v>18144.5</v>
       </c>
       <c r="M35" s="62">
-        <v>0</v>
+        <v>15640.3</v>
       </c>
       <c r="N35" s="62">
-        <v>0</v>
+        <v>11165</v>
       </c>
       <c r="O35" s="62">
-        <v>0</v>
+        <v>14238.3</v>
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>57904.800000000003</v>
+        <v>176984.49999999997</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4148,44 +4145,44 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="62">
-        <v>255896</v>
+        <v>255896.3</v>
       </c>
       <c r="E36" s="62">
-        <v>213795.5</v>
+        <v>213983</v>
       </c>
       <c r="F36" s="62">
-        <v>190185.7</v>
+        <v>190286.8</v>
       </c>
       <c r="G36" s="62">
-        <v>118560.4</v>
+        <v>119022.6</v>
       </c>
       <c r="H36" s="62">
-        <v>0</v>
+        <v>134058.1</v>
       </c>
       <c r="I36" s="62">
-        <v>0</v>
+        <v>187858.6</v>
       </c>
       <c r="J36" s="62">
-        <v>0</v>
+        <v>274858.2</v>
       </c>
       <c r="K36" s="62">
-        <v>0</v>
+        <v>340254</v>
       </c>
       <c r="L36" s="62">
-        <v>0</v>
+        <v>385830.2</v>
       </c>
       <c r="M36" s="62">
-        <v>0</v>
+        <v>429287</v>
       </c>
       <c r="N36" s="62">
-        <v>0</v>
+        <v>370870.6</v>
       </c>
       <c r="O36" s="62">
-        <v>0</v>
+        <v>513032.2</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>778437.6</v>
+        <v>3415237.6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4212,44 +4209,44 @@
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="62">
-        <v>223331.20000000001</v>
+        <v>223674.7</v>
       </c>
       <c r="E38" s="62">
-        <v>193164.7</v>
+        <v>193458.8</v>
       </c>
       <c r="F38" s="62">
-        <v>219970.5</v>
+        <v>220254.6</v>
       </c>
       <c r="G38" s="62">
-        <v>204303</v>
+        <v>205255.2</v>
       </c>
       <c r="H38" s="62">
-        <v>0</v>
+        <v>184999.4</v>
       </c>
       <c r="I38" s="62">
-        <v>0</v>
+        <v>204900</v>
       </c>
       <c r="J38" s="62">
-        <v>0</v>
+        <v>201464.9</v>
       </c>
       <c r="K38" s="62">
-        <v>0</v>
+        <v>223268.9</v>
       </c>
       <c r="L38" s="62">
-        <v>0</v>
+        <v>208690</v>
       </c>
       <c r="M38" s="62">
-        <v>0</v>
+        <v>205730.5</v>
       </c>
       <c r="N38" s="62">
-        <v>0</v>
+        <v>195567.2</v>
       </c>
       <c r="O38" s="62">
-        <v>0</v>
+        <v>222469.6</v>
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>840769.4</v>
+        <v>2489733.8000000003</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4258,44 +4255,44 @@
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="62">
-        <v>433</v>
+        <v>89.5</v>
       </c>
       <c r="E39" s="62">
-        <v>347.3</v>
+        <v>53.2</v>
       </c>
       <c r="F39" s="62">
-        <v>343.2</v>
+        <v>59.1</v>
       </c>
       <c r="G39" s="62">
-        <v>333.4</v>
+        <v>101.1</v>
       </c>
       <c r="H39" s="62">
-        <v>0</v>
+        <v>86.1</v>
       </c>
       <c r="I39" s="62">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="J39" s="62">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="K39" s="62">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="L39" s="62">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="M39" s="62">
-        <v>0</v>
+        <v>231.5</v>
       </c>
       <c r="N39" s="62">
-        <v>0</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="O39" s="62">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>1456.9</v>
+        <v>956.2</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4343,7 +4340,7 @@
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="110">
-        <v>442328.7</v>
+        <v>442448.4</v>
       </c>
       <c r="E42" s="110">
         <v>338254</v>
@@ -4355,32 +4352,32 @@
         <v>460867.8</v>
       </c>
       <c r="H42" s="110">
-        <v>0</v>
+        <v>506844</v>
       </c>
       <c r="I42" s="110">
-        <v>0</v>
+        <v>356840.6</v>
       </c>
       <c r="J42" s="110">
-        <v>0</v>
+        <v>456899.2</v>
       </c>
       <c r="K42" s="110">
-        <v>0</v>
+        <v>410160.1</v>
       </c>
       <c r="L42" s="110">
-        <v>0</v>
+        <v>372247.7</v>
       </c>
       <c r="M42" s="110">
-        <v>0</v>
+        <v>393570.5</v>
       </c>
       <c r="N42" s="110">
-        <v>0</v>
+        <v>444433.2</v>
       </c>
       <c r="O42" s="110">
-        <v>0</v>
+        <v>458918.2</v>
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>1718948.3</v>
+        <v>5118981.5000000009</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4401,32 +4398,32 @@
         <v>1129846.7999999998</v>
       </c>
       <c r="H43" s="110">
-        <v>0</v>
+        <v>999622.7</v>
       </c>
       <c r="I43" s="110">
-        <v>0</v>
+        <v>924727.5</v>
       </c>
       <c r="J43" s="110">
-        <v>0</v>
+        <v>783473.4</v>
       </c>
       <c r="K43" s="110">
-        <v>0</v>
+        <v>836112.5</v>
       </c>
       <c r="L43" s="110">
-        <v>0</v>
+        <v>765527.8</v>
       </c>
       <c r="M43" s="110">
-        <v>0</v>
+        <v>898821.8</v>
       </c>
       <c r="N43" s="110">
-        <v>0</v>
+        <v>978175.39999999991</v>
       </c>
       <c r="O43" s="110">
-        <v>0</v>
+        <v>1101567.8999999999</v>
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>4136600.5</v>
+        <v>11424629.500000002</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4435,7 +4432,7 @@
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="110">
-        <v>754996.8</v>
+        <v>754877.1</v>
       </c>
       <c r="E44" s="110">
         <v>680026.3</v>
@@ -4447,32 +4444,32 @@
         <v>732117.9</v>
       </c>
       <c r="H44" s="110">
-        <v>0</v>
+        <v>743017.9</v>
       </c>
       <c r="I44" s="110">
-        <v>0</v>
+        <v>755395.3</v>
       </c>
       <c r="J44" s="110">
-        <v>0</v>
+        <v>740245.4</v>
       </c>
       <c r="K44" s="110">
-        <v>0</v>
+        <v>735880.4</v>
       </c>
       <c r="L44" s="110">
-        <v>0</v>
+        <v>714003.8</v>
       </c>
       <c r="M44" s="110">
-        <v>0</v>
+        <v>762031.7</v>
       </c>
       <c r="N44" s="110">
-        <v>0</v>
+        <v>753158.4</v>
       </c>
       <c r="O44" s="110">
-        <v>0</v>
+        <v>782150.9</v>
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>2927090.9</v>
+        <v>8912855</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4493,32 +4490,32 @@
         <v>287540.5</v>
       </c>
       <c r="H45" s="112">
-        <v>0</v>
+        <v>276378.90000000002</v>
       </c>
       <c r="I45" s="112">
-        <v>0</v>
+        <v>210535.4</v>
       </c>
       <c r="J45" s="112">
-        <v>0</v>
+        <v>270429.7</v>
       </c>
       <c r="K45" s="112">
-        <v>0</v>
+        <v>277020.5</v>
       </c>
       <c r="L45" s="112">
-        <v>0</v>
+        <v>275499.7</v>
       </c>
       <c r="M45" s="112">
-        <v>0</v>
+        <v>276588.5</v>
       </c>
       <c r="N45" s="112">
-        <v>0</v>
+        <v>242716.2</v>
       </c>
       <c r="O45" s="112">
-        <v>0</v>
+        <v>276294.59999999998</v>
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>1070431.1000000001</v>
+        <v>3175894.6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4539,32 +4536,32 @@
         <v>2610373</v>
       </c>
       <c r="H46" s="110">
-        <v>0</v>
+        <v>2525863.5</v>
       </c>
       <c r="I46" s="110">
-        <v>0</v>
+        <v>2247498.8000000003</v>
       </c>
       <c r="J46" s="110">
-        <v>0</v>
+        <v>2251047.7000000002</v>
       </c>
       <c r="K46" s="110">
-        <v>0</v>
+        <v>2259173.5</v>
       </c>
       <c r="L46" s="110">
-        <v>0</v>
+        <v>2127279</v>
       </c>
       <c r="M46" s="110">
-        <v>0</v>
+        <v>2331012.5</v>
       </c>
       <c r="N46" s="110">
-        <v>0</v>
+        <v>2418483.2000000002</v>
       </c>
       <c r="O46" s="110">
-        <v>0</v>
+        <v>2618931.6</v>
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>9853070.8000000007</v>
+        <v>28632360.600000001</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,44 +4588,44 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4306920.1000000006</v>
+        <v>4306980.1000000006</v>
       </c>
       <c r="E48" s="110">
-        <v>3785472.2</v>
+        <v>3785681.1</v>
       </c>
       <c r="F48" s="110">
-        <v>4352487.4000000004</v>
+        <v>4352738.4000000004</v>
       </c>
       <c r="G48" s="110">
-        <v>4304342.4000000004</v>
+        <v>4308056.3000000007</v>
       </c>
       <c r="H48" s="110">
-        <v>0</v>
+        <v>4223183</v>
       </c>
       <c r="I48" s="110">
-        <v>0</v>
+        <v>3899068.9000000004</v>
       </c>
       <c r="J48" s="110">
-        <v>0</v>
+        <v>4066779.5999999996</v>
       </c>
       <c r="K48" s="110">
-        <v>0</v>
+        <v>4180616.8</v>
       </c>
       <c r="L48" s="110">
-        <v>0</v>
+        <v>4027295.6</v>
       </c>
       <c r="M48" s="110">
-        <v>0</v>
+        <v>4334555.0999999996</v>
       </c>
       <c r="N48" s="110">
-        <v>0</v>
+        <v>4341256.2</v>
       </c>
       <c r="O48" s="110">
-        <v>0</v>
+        <v>4693992.0999999996</v>
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>16749222.100000001</v>
+        <v>50520203.20000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4665,32 +4662,32 @@
         <v>171667</v>
       </c>
       <c r="H50" s="110">
-        <v>0</v>
+        <v>158921.9</v>
       </c>
       <c r="I50" s="110">
-        <v>0</v>
+        <v>221009.2</v>
       </c>
       <c r="J50" s="110">
-        <v>0</v>
+        <v>215117.9</v>
       </c>
       <c r="K50" s="110">
-        <v>0</v>
+        <v>215435.2</v>
       </c>
       <c r="L50" s="110">
-        <v>0</v>
+        <v>200486</v>
       </c>
       <c r="M50" s="110">
-        <v>0</v>
+        <v>224154.5</v>
       </c>
       <c r="N50" s="110">
-        <v>0</v>
+        <v>220256.6</v>
       </c>
       <c r="O50" s="110">
-        <v>0</v>
+        <v>219146</v>
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>770943.3</v>
+        <v>2445470.6</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4710,32 +4707,32 @@
         <v>88223.1</v>
       </c>
       <c r="H51" s="110">
-        <v>0</v>
+        <v>84458.7</v>
       </c>
       <c r="I51" s="110">
-        <v>0</v>
+        <v>93697.600000000006</v>
       </c>
       <c r="J51" s="110">
-        <v>0</v>
+        <v>87296.2</v>
       </c>
       <c r="K51" s="110">
-        <v>0</v>
+        <v>91106.8</v>
       </c>
       <c r="L51" s="110">
-        <v>0</v>
+        <v>76453.5</v>
       </c>
       <c r="M51" s="110">
-        <v>0</v>
+        <v>97929.9</v>
       </c>
       <c r="N51" s="110">
-        <v>0</v>
+        <v>97040.3</v>
       </c>
       <c r="O51" s="110">
-        <v>0</v>
+        <v>94452.1</v>
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>340422</v>
+        <v>1062857.1000000001</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,44 +4740,44 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>292141.5</v>
+        <v>292141.40000000002</v>
       </c>
       <c r="E52" s="110">
-        <v>262704.7</v>
+        <v>262714.7</v>
       </c>
       <c r="F52" s="110">
-        <v>313376.3</v>
+        <v>313409.2</v>
       </c>
       <c r="G52" s="110">
-        <v>303919.59999999998</v>
+        <v>304442.2</v>
       </c>
       <c r="H52" s="110">
-        <v>0</v>
+        <v>303524.8</v>
       </c>
       <c r="I52" s="110">
-        <v>0</v>
+        <v>280454.5</v>
       </c>
       <c r="J52" s="110">
-        <v>0</v>
+        <v>287321.59999999998</v>
       </c>
       <c r="K52" s="110">
-        <v>0</v>
+        <v>292277.90000000002</v>
       </c>
       <c r="L52" s="110">
-        <v>0</v>
+        <v>284487.59999999998</v>
       </c>
       <c r="M52" s="110">
-        <v>0</v>
+        <v>303618.40000000002</v>
       </c>
       <c r="N52" s="110">
-        <v>0</v>
+        <v>300060.40000000002</v>
       </c>
       <c r="O52" s="110">
-        <v>0</v>
+        <v>303127.7</v>
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>1172142.1000000001</v>
+        <v>3527580.4</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,44 +4804,44 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>11471359.4</v>
+        <v>11471218.9</v>
       </c>
       <c r="E54" s="116">
-        <v>10910023.5</v>
+        <v>10909453.6</v>
       </c>
       <c r="F54" s="116">
-        <v>11671808.9</v>
+        <v>11671234.300000001</v>
       </c>
       <c r="G54" s="116">
-        <v>11854275.1</v>
+        <v>11856739.300000001</v>
       </c>
       <c r="H54" s="116">
-        <v>0</v>
+        <v>11772897.300000001</v>
       </c>
       <c r="I54" s="116">
-        <v>0</v>
+        <v>11705237.699999999</v>
       </c>
       <c r="J54" s="116">
-        <v>0</v>
+        <v>11964291.300000001</v>
       </c>
       <c r="K54" s="116">
-        <v>0</v>
+        <v>11917285.1</v>
       </c>
       <c r="L54" s="116">
-        <v>0</v>
+        <v>12182564.199999999</v>
       </c>
       <c r="M54" s="116">
-        <v>0</v>
+        <v>12816524</v>
       </c>
       <c r="N54" s="116">
-        <v>0</v>
+        <v>12683422.800000001</v>
       </c>
       <c r="O54" s="116">
-        <v>0</v>
+        <v>11759965.199999999</v>
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>11854275.1</v>
+        <v>11759965.199999999</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,44 +4849,44 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-34586.9</v>
+        <v>-34586.699999999997</v>
       </c>
       <c r="E55" s="110">
-        <v>17147.5</v>
+        <v>12143.3</v>
       </c>
       <c r="F55" s="110">
-        <v>-79775.3</v>
+        <v>-79796</v>
       </c>
       <c r="G55" s="110">
-        <v>8029.1</v>
+        <v>7437.1</v>
       </c>
       <c r="H55" s="110">
-        <v>0</v>
+        <v>-39808.1</v>
       </c>
       <c r="I55" s="110">
-        <v>0</v>
+        <v>55993.4</v>
       </c>
       <c r="J55" s="110">
-        <v>0</v>
+        <v>-125441.8</v>
       </c>
       <c r="K55" s="110">
-        <v>0</v>
+        <v>18728.8</v>
       </c>
       <c r="L55" s="110">
-        <v>0</v>
+        <v>-309.8</v>
       </c>
       <c r="M55" s="110">
-        <v>0</v>
+        <v>-25301.7</v>
       </c>
       <c r="N55" s="110">
-        <v>0</v>
+        <v>-6444.6</v>
       </c>
       <c r="O55" s="110">
-        <v>0</v>
+        <v>25833.7</v>
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-89185.600000000006</v>
+        <v>-191552.4</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,44 +4912,44 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>21815987.500000007</v>
+        <v>21816054.700000003</v>
       </c>
       <c r="E57" s="110">
-        <v>19733426.099999998</v>
+        <v>19728408.300000001</v>
       </c>
       <c r="F57" s="110">
-        <v>20776775.099999994</v>
+        <v>20776631.799999997</v>
       </c>
       <c r="G57" s="110">
-        <v>19343032.200000007</v>
+        <v>19341648.900000002</v>
       </c>
       <c r="H57" s="110">
-        <v>0</v>
+        <v>20201421.699999999</v>
       </c>
       <c r="I57" s="110">
-        <v>0</v>
+        <v>20570035.900000002</v>
       </c>
       <c r="J57" s="110">
-        <v>0</v>
+        <v>21142382.899999999</v>
       </c>
       <c r="K57" s="110">
-        <v>0</v>
+        <v>21437967.300000008</v>
       </c>
       <c r="L57" s="110">
-        <v>0</v>
+        <v>20077002.199999999</v>
       </c>
       <c r="M57" s="110">
-        <v>0</v>
+        <v>21966615.000000004</v>
       </c>
       <c r="N57" s="110">
-        <v>0</v>
+        <v>22194273.299999997</v>
       </c>
       <c r="O57" s="110">
-        <v>0</v>
+        <v>23000070.900000002</v>
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>81669220.900000006</v>
+        <v>252252512.90000001</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4974,7 +4971,7 @@
     </row>
     <row r="59" spans="2:17" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="67"/>
@@ -5034,7 +5031,7 @@
       </c>
       <c r="P60" s="59"/>
       <c r="Q60" s="42">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="5" customFormat="1">
@@ -5093,32 +5090,32 @@
         <v>5940</v>
       </c>
       <c r="H63" s="62">
-        <v>0</v>
+        <v>4280.8999999999996</v>
       </c>
       <c r="I63" s="62">
-        <v>0</v>
+        <v>25421.9</v>
       </c>
       <c r="J63" s="62">
-        <v>0</v>
+        <v>52742.8</v>
       </c>
       <c r="K63" s="62">
-        <v>0</v>
+        <v>25798.699999999997</v>
       </c>
       <c r="L63" s="62">
-        <v>0</v>
+        <v>34058</v>
       </c>
       <c r="M63" s="62">
-        <v>0</v>
+        <v>36392.400000000001</v>
       </c>
       <c r="N63" s="62">
-        <v>0</v>
+        <v>30277.7</v>
       </c>
       <c r="O63" s="62">
-        <v>0</v>
+        <v>42722.5</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>6342</v>
+        <v>258036.9</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5138,32 +5135,32 @@
         <v>1709501.5</v>
       </c>
       <c r="H64" s="62">
-        <v>0</v>
+        <v>1513444.1</v>
       </c>
       <c r="I64" s="62">
-        <v>0</v>
+        <v>2180975.1</v>
       </c>
       <c r="J64" s="62">
-        <v>0</v>
+        <v>2364386.1</v>
       </c>
       <c r="K64" s="62">
-        <v>0</v>
+        <v>2366421.4</v>
       </c>
       <c r="L64" s="62">
-        <v>0</v>
+        <v>1790701.7</v>
       </c>
       <c r="M64" s="62">
-        <v>0</v>
+        <v>1931901.9</v>
       </c>
       <c r="N64" s="62">
-        <v>0</v>
+        <v>2280849.4</v>
       </c>
       <c r="O64" s="62">
-        <v>0</v>
+        <v>2531308.2999999998</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>8465269.0999999996</v>
+        <v>25425257.099999994</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5171,44 +5168,44 @@
         <v>53</v>
       </c>
       <c r="D65" s="62">
-        <v>12986.2</v>
+        <v>13046.4</v>
       </c>
       <c r="E65" s="62">
         <v>11666.6</v>
       </c>
       <c r="F65" s="62">
-        <v>13242.6</v>
+        <v>13242.9</v>
       </c>
       <c r="G65" s="62">
-        <v>13980.1</v>
+        <v>14117.9</v>
       </c>
       <c r="H65" s="62">
-        <v>0</v>
+        <v>12861.2</v>
       </c>
       <c r="I65" s="62">
-        <v>0</v>
+        <v>13566.3</v>
       </c>
       <c r="J65" s="62">
-        <v>0</v>
+        <v>10368.1</v>
       </c>
       <c r="K65" s="62">
-        <v>0</v>
+        <v>17260.400000000001</v>
       </c>
       <c r="L65" s="62">
-        <v>0</v>
+        <v>16741.599999999999</v>
       </c>
       <c r="M65" s="62">
-        <v>0</v>
+        <v>15472.7</v>
       </c>
       <c r="N65" s="62">
-        <v>0</v>
+        <v>12567.4</v>
       </c>
       <c r="O65" s="62">
-        <v>0</v>
+        <v>14326.8</v>
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>51875.5</v>
+        <v>165238.30000000002</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5228,32 +5225,32 @@
         <v>6451.5</v>
       </c>
       <c r="H66" s="62">
-        <v>0</v>
+        <v>15549.3</v>
       </c>
       <c r="I66" s="62">
-        <v>0</v>
+        <v>11864.1</v>
       </c>
       <c r="J66" s="62">
-        <v>0</v>
+        <v>-15098.2</v>
       </c>
       <c r="K66" s="62">
-        <v>0</v>
+        <v>14861.5</v>
       </c>
       <c r="L66" s="62">
-        <v>0</v>
+        <v>25392.7</v>
       </c>
       <c r="M66" s="62">
-        <v>0</v>
+        <v>10026.200000000001</v>
       </c>
       <c r="N66" s="62">
-        <v>0</v>
+        <v>14327.1</v>
       </c>
       <c r="O66" s="62">
-        <v>0</v>
+        <v>2298.5</v>
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>55198.700000000004</v>
+        <v>134419.9</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5277,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="62">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="J67" s="62">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K67" s="62">
         <v>0</v>
@@ -5289,17 +5286,17 @@
         <v>0</v>
       </c>
       <c r="M67" s="62">
-        <v>0</v>
+        <v>742.9</v>
       </c>
       <c r="N67" s="62">
-        <v>0</v>
+        <v>89.9</v>
       </c>
       <c r="O67" s="62">
         <v>0</v>
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>1192.6000000000001</v>
+        <v>2080.7000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5314,38 +5311,38 @@
         <v>793.2</v>
       </c>
       <c r="F68" s="62">
-        <v>-237.6</v>
+        <v>-16.2</v>
       </c>
       <c r="G68" s="62">
-        <v>1608.6</v>
+        <v>1643.8</v>
       </c>
       <c r="H68" s="62">
-        <v>0</v>
+        <v>1337.8</v>
       </c>
       <c r="I68" s="62">
-        <v>0</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="J68" s="62">
-        <v>0</v>
+        <v>111.5</v>
       </c>
       <c r="K68" s="62">
-        <v>0</v>
+        <v>3593.4</v>
       </c>
       <c r="L68" s="62">
-        <v>0</v>
+        <v>-1938.2</v>
       </c>
       <c r="M68" s="62">
-        <v>0</v>
+        <v>3244.6</v>
       </c>
       <c r="N68" s="62">
-        <v>0</v>
+        <v>-3162.4</v>
       </c>
       <c r="O68" s="62">
-        <v>0</v>
+        <v>2148.8000000000002</v>
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>1850.2</v>
+        <v>7698.9000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5354,44 +5351,44 @@
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="62">
-        <v>162251.4</v>
+        <v>162258.29999999999</v>
       </c>
       <c r="E69" s="62">
-        <v>167946.6</v>
+        <v>167941.1</v>
       </c>
       <c r="F69" s="62">
-        <v>176738.2</v>
+        <v>176736.2</v>
       </c>
       <c r="G69" s="62">
-        <v>156914.79999999999</v>
+        <v>156840.4</v>
       </c>
       <c r="H69" s="62">
-        <v>0</v>
+        <v>115819.7</v>
       </c>
       <c r="I69" s="62">
-        <v>0</v>
+        <v>141356.5</v>
       </c>
       <c r="J69" s="62">
-        <v>0</v>
+        <v>166490.5</v>
       </c>
       <c r="K69" s="62">
-        <v>0</v>
+        <v>250467.5</v>
       </c>
       <c r="L69" s="62">
-        <v>0</v>
+        <v>303757.5</v>
       </c>
       <c r="M69" s="62">
-        <v>0</v>
+        <v>373381.9</v>
       </c>
       <c r="N69" s="62">
-        <v>0</v>
+        <v>254023.3</v>
       </c>
       <c r="O69" s="62">
-        <v>0</v>
+        <v>254346.8</v>
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>663851</v>
+        <v>2523419.6999999997</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5400,44 +5397,44 @@
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="62">
-        <v>2475807.9000000004</v>
+        <v>2475875</v>
       </c>
       <c r="E70" s="62">
-        <v>2250886.7000000002</v>
+        <v>2250881.2000000002</v>
       </c>
       <c r="F70" s="62">
-        <v>2624412.2000000002</v>
+        <v>2624631.9</v>
       </c>
       <c r="G70" s="62">
-        <v>1894472.3000000003</v>
+        <v>1894570.9</v>
       </c>
       <c r="H70" s="62">
-        <v>0</v>
+        <v>1663293</v>
       </c>
       <c r="I70" s="62">
-        <v>0</v>
+        <v>2373470.7999999998</v>
       </c>
       <c r="J70" s="62">
-        <v>0</v>
+        <v>2579025.7999999998</v>
       </c>
       <c r="K70" s="62">
-        <v>0</v>
+        <v>2678402.9</v>
       </c>
       <c r="L70" s="62">
-        <v>0</v>
+        <v>2168713.2999999998</v>
       </c>
       <c r="M70" s="62">
-        <v>0</v>
+        <v>2371162.5999999996</v>
       </c>
       <c r="N70" s="62">
-        <v>0</v>
+        <v>2588972.4</v>
       </c>
       <c r="O70" s="62">
-        <v>0</v>
+        <v>2847151.6999999993</v>
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>9245579.1000000015</v>
+        <v>28516151.499999996</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5467,7 +5464,7 @@
         <v>18674302.800000001</v>
       </c>
       <c r="E72" s="110">
-        <v>16766128.6</v>
+        <v>16771136.4</v>
       </c>
       <c r="F72" s="110">
         <v>17829227.199999999</v>
@@ -5476,32 +5473,32 @@
         <v>16773022.9</v>
       </c>
       <c r="H72" s="110">
-        <v>0</v>
+        <v>17761697</v>
       </c>
       <c r="I72" s="110">
-        <v>0</v>
+        <v>17524841.600000001</v>
       </c>
       <c r="J72" s="110">
-        <v>0</v>
+        <v>18039137.100000001</v>
       </c>
       <c r="K72" s="110">
-        <v>0</v>
+        <v>18398038.600000001</v>
       </c>
       <c r="L72" s="110">
-        <v>0</v>
+        <v>17513447.899999999</v>
       </c>
       <c r="M72" s="110">
-        <v>0</v>
+        <v>19238115.600000001</v>
       </c>
       <c r="N72" s="110">
-        <v>0</v>
+        <v>19214214.699999999</v>
       </c>
       <c r="O72" s="110">
-        <v>0</v>
+        <v>19422452.699999999</v>
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>70042681.5</v>
+        <v>217159634.49999997</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5513,7 +5510,7 @@
         <v>602396.86451612902</v>
       </c>
       <c r="E73" s="110">
-        <v>598790.30714285711</v>
+        <v>598969.15714285721</v>
       </c>
       <c r="F73" s="110">
         <v>575136.3612903225</v>
@@ -5522,32 +5519,32 @@
         <v>559100.76333333331</v>
       </c>
       <c r="H73" s="110">
-        <v>0</v>
+        <v>572957.96774193551</v>
       </c>
       <c r="I73" s="110">
-        <v>0</v>
+        <v>584161.38666666672</v>
       </c>
       <c r="J73" s="110">
-        <v>0</v>
+        <v>581907.64838709682</v>
       </c>
       <c r="K73" s="110">
-        <v>0</v>
+        <v>593485.11612903234</v>
       </c>
       <c r="L73" s="110">
-        <v>0</v>
+        <v>583781.59666666656</v>
       </c>
       <c r="M73" s="110">
-        <v>0</v>
+        <v>620584.37419354846</v>
       </c>
       <c r="N73" s="110">
-        <v>0</v>
+        <v>640473.82333333336</v>
       </c>
       <c r="O73" s="110">
-        <v>0</v>
+        <v>626530.73225806444</v>
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>583856.07407066051</v>
+        <v>594957.14930491557</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,44 +5571,44 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>665876.80000000447</v>
+        <v>665876.90000000224</v>
       </c>
       <c r="E75" s="110">
-        <v>716410.79999999702</v>
+        <v>706390.69999999925</v>
       </c>
       <c r="F75" s="110">
-        <v>323135.69999999553</v>
+        <v>322772.69999999925</v>
       </c>
       <c r="G75" s="110">
-        <v>675537.00000000745</v>
+        <v>674055.10000000149</v>
       </c>
       <c r="H75" s="110">
-        <v>0</v>
+        <v>776431.69999999925</v>
       </c>
       <c r="I75" s="110">
-        <v>0</v>
+        <v>671723.5</v>
       </c>
       <c r="J75" s="110">
-        <v>0</v>
+        <v>524219.99999999627</v>
       </c>
       <c r="K75" s="110">
-        <v>0</v>
+        <v>361525.8000000082</v>
       </c>
       <c r="L75" s="110">
-        <v>0</v>
+        <v>394841</v>
       </c>
       <c r="M75" s="110">
-        <v>0</v>
+        <v>357336.80000000075</v>
       </c>
       <c r="N75" s="110">
-        <v>0</v>
+        <v>391086.19999999925</v>
       </c>
       <c r="O75" s="110">
-        <v>0</v>
+        <v>730466.50000000373</v>
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>2380960.3000000045</v>
+        <v>6576726.9000000097</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,44 +5617,44 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>3.5584226539595236E-3</v>
+        <v>3.558416099360424E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>1.0191825419401607E-2</v>
+        <v>9.6728199323782987E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>-1.2814066841984903E-2</v>
+        <v>-1.283213276691595E-2</v>
       </c>
       <c r="G76" s="110">
-        <v>-7.0915144264724198E-4</v>
-      </c>
-      <c r="H76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="J76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="K76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="L76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="M76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="N76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="O76" s="110" t="s">
-        <v>128</v>
+        <v>-7.8865019644779434E-4</v>
+      </c>
+      <c r="H76" s="110">
+        <v>1.2596519820047199E-2</v>
+      </c>
+      <c r="I76" s="110">
+        <v>8.0579198140627965E-3</v>
+      </c>
+      <c r="J76" s="110">
+        <v>8.8375152411416628E-3</v>
+      </c>
+      <c r="K76" s="110">
+        <v>-1.833593716199093E-3</v>
+      </c>
+      <c r="L76" s="110">
+        <v>3.0067443290801182E-3</v>
+      </c>
+      <c r="M76" s="110">
+        <v>-3.9394207643773651E-3</v>
+      </c>
+      <c r="N76" s="110">
+        <v>-4.852201280542737E-3</v>
+      </c>
+      <c r="O76" s="110">
+        <v>6.0687920087331218E-3</v>
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-8.3670085035977771E-6</v>
+        <v>2.2233523890904465E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,44 +5680,44 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>21815987.500000007</v>
+        <v>21816054.700000003</v>
       </c>
       <c r="E78" s="110">
-        <v>19733426.099999998</v>
+        <v>19728408.300000001</v>
       </c>
       <c r="F78" s="110">
-        <v>20776775.099999994</v>
+        <v>20776631.799999997</v>
       </c>
       <c r="G78" s="110">
-        <v>19343032.200000007</v>
+        <v>19341648.900000002</v>
       </c>
       <c r="H78" s="110">
-        <v>0</v>
+        <v>20201421.699999999</v>
       </c>
       <c r="I78" s="110">
-        <v>0</v>
+        <v>20570035.900000002</v>
       </c>
       <c r="J78" s="110">
-        <v>0</v>
+        <v>21142382.899999999</v>
       </c>
       <c r="K78" s="110">
-        <v>0</v>
+        <v>21437967.300000008</v>
       </c>
       <c r="L78" s="110">
-        <v>0</v>
+        <v>20077002.199999999</v>
       </c>
       <c r="M78" s="110">
-        <v>0</v>
+        <v>21966615.000000004</v>
       </c>
       <c r="N78" s="110">
-        <v>0</v>
+        <v>22194273.299999997</v>
       </c>
       <c r="O78" s="110">
-        <v>0</v>
+        <v>23000070.900000002</v>
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>81669220.900000006</v>
+        <v>252252512.90000001</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{39183B24-9D21-4A50-A218-FFE27B6C8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EFFB7D22-A933-4790-A342-8815C05B0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="732" windowWidth="21372" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="756" yWindow="5412" windowWidth="21780" windowHeight="6828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -460,10 +460,13 @@
     <t>Nonupgraded</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  27 January 2022</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Run Date:  28 March 2022</t>
   </si>
 </sst>
 </file>
@@ -3009,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3050,7 +3053,7 @@
     </row>
     <row r="4" spans="2:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="B4" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="5"/>
@@ -3126,44 +3129,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11191887.1</v>
+        <v>11759853.699999999</v>
       </c>
       <c r="E7" s="19">
-        <v>11471218.9</v>
+        <v>10517640</v>
       </c>
       <c r="F7" s="19">
-        <v>10909444.699999999</v>
+        <v>0</v>
       </c>
       <c r="G7" s="19">
-        <v>11671234.300000001</v>
+        <v>0</v>
       </c>
       <c r="H7" s="19">
-        <v>11856739.300000001</v>
+        <v>0</v>
       </c>
       <c r="I7" s="19">
-        <v>11772886.300000001</v>
+        <v>0</v>
       </c>
       <c r="J7" s="19">
-        <v>11705237.699999999</v>
+        <v>0</v>
       </c>
       <c r="K7" s="19">
-        <v>11964291.300000001</v>
+        <v>0</v>
       </c>
       <c r="L7" s="19">
-        <v>11917285.1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="19">
-        <v>12182564.199999999</v>
+        <v>0</v>
       </c>
       <c r="N7" s="19">
-        <v>12816470.199999999</v>
+        <v>0</v>
       </c>
       <c r="O7" s="19">
-        <v>12683422.5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11191887.1</v>
+        <v>11759853.699999999</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3227,44 +3230,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1173328.5</v>
+        <v>1313163</v>
       </c>
       <c r="E11" s="62">
-        <v>1026043.5</v>
+        <v>1232205.3</v>
       </c>
       <c r="F11" s="62">
-        <v>1206010.6000000001</v>
+        <v>0</v>
       </c>
       <c r="G11" s="62">
-        <v>1184370.3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="62">
-        <v>1171442.3999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" s="62">
-        <v>1099401.1000000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="62">
-        <v>1171536.3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="62">
-        <v>1230847.1000000001</v>
+        <v>0</v>
       </c>
       <c r="L11" s="62">
-        <v>1199735.8</v>
+        <v>0</v>
       </c>
       <c r="M11" s="62">
-        <v>1322792.8</v>
+        <v>0</v>
       </c>
       <c r="N11" s="62">
-        <v>1314922.6000000001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="62">
-        <v>1352367.2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>14452798.200000001</v>
+        <v>2545368.2999999998</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3273,44 +3276,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>365687.6</v>
+        <v>357675.4</v>
       </c>
       <c r="E12" s="19">
-        <v>318429.09999999998</v>
+        <v>337245.6</v>
       </c>
       <c r="F12" s="19">
-        <v>378949</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19">
-        <v>378907</v>
+        <v>0</v>
       </c>
       <c r="H12" s="19">
-        <v>386628.8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
-        <v>369446.9</v>
+        <v>0</v>
       </c>
       <c r="J12" s="19">
-        <v>384595.3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="19">
-        <v>394340.7</v>
+        <v>0</v>
       </c>
       <c r="L12" s="19">
-        <v>374366.5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>378517.7</v>
+        <v>0</v>
       </c>
       <c r="N12" s="19">
-        <v>364248.8</v>
+        <v>0</v>
       </c>
       <c r="O12" s="19">
-        <v>365299.9</v>
+        <v>0</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>4459417.3</v>
+        <v>694921</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3319,44 +3322,44 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="62">
-        <v>166287.70000000001</v>
+        <v>158127.29999999999</v>
       </c>
       <c r="E13" s="62">
-        <v>148986.20000000001</v>
+        <v>145676.79999999999</v>
       </c>
       <c r="F13" s="62">
-        <v>167139.9</v>
+        <v>0</v>
       </c>
       <c r="G13" s="62">
-        <v>165733.29999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" s="62">
-        <v>171221.8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="62">
-        <v>160213.6</v>
+        <v>0</v>
       </c>
       <c r="J13" s="62">
-        <v>164998.70000000001</v>
+        <v>0</v>
       </c>
       <c r="K13" s="62">
-        <v>168682.9</v>
+        <v>0</v>
       </c>
       <c r="L13" s="62">
-        <v>156277.1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="62">
-        <v>162467.20000000001</v>
+        <v>0</v>
       </c>
       <c r="N13" s="62">
-        <v>159069.20000000001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="62">
-        <v>159440</v>
+        <v>0</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1950517.6</v>
+        <v>303804.09999999998</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3365,44 +3368,44 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>354921.4</v>
+        <v>386276.5</v>
       </c>
       <c r="E14" s="106">
-        <v>317071.3</v>
+        <v>363643.1</v>
       </c>
       <c r="F14" s="106">
-        <v>362079.1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="105">
-        <v>368144.4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="105">
-        <v>382776</v>
+        <v>0</v>
       </c>
       <c r="I14" s="105">
-        <v>373432.1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="105">
-        <v>392232.6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="105">
-        <v>395106.7</v>
+        <v>0</v>
       </c>
       <c r="L14" s="105">
-        <v>377391.9</v>
+        <v>0</v>
       </c>
       <c r="M14" s="105">
-        <v>390863.6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="105">
-        <v>372203.9</v>
+        <v>0</v>
       </c>
       <c r="O14" s="105">
-        <v>374929.3</v>
+        <v>0</v>
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>4461152.3</v>
+        <v>749919.6</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3410,44 +3413,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2060225.2000000002</v>
+        <v>2215242.2000000002</v>
       </c>
       <c r="E15" s="62">
-        <v>1810530.1</v>
+        <v>2078770.7999999998</v>
       </c>
       <c r="F15" s="62">
-        <v>2114178.6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="62">
-        <v>2097155</v>
+        <v>0</v>
       </c>
       <c r="H15" s="62">
-        <v>2112069</v>
+        <v>0</v>
       </c>
       <c r="I15" s="62">
-        <v>2002493.7000000002</v>
+        <v>0</v>
       </c>
       <c r="J15" s="62">
-        <v>2113362.9</v>
+        <v>0</v>
       </c>
       <c r="K15" s="62">
-        <v>2188977.4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="62">
-        <v>2107771.3000000003</v>
+        <v>0</v>
       </c>
       <c r="M15" s="62">
-        <v>2254641.2999999998</v>
+        <v>0</v>
       </c>
       <c r="N15" s="62">
-        <v>2210444.5</v>
+        <v>0</v>
       </c>
       <c r="O15" s="62">
-        <v>2252036.4</v>
+        <v>0</v>
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>25323885.400000002</v>
+        <v>4294013</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3472,44 +3475,44 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>342560.8</v>
+        <v>342132.7</v>
       </c>
       <c r="E17" s="62">
-        <v>294295.09999999998</v>
+        <v>320460.79999999999</v>
       </c>
       <c r="F17" s="62">
-        <v>335227.90000000002</v>
+        <v>0</v>
       </c>
       <c r="G17" s="62">
-        <v>343924.1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="62">
-        <v>353809.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="62">
-        <v>350592.3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="62">
-        <v>396141.1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="62">
-        <v>394658.6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="62">
-        <v>341113.7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="62">
-        <v>381841.6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="62">
-        <v>349824.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="62">
-        <v>339159.8</v>
+        <v>0</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>4223149</v>
+        <v>662593.5</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3573,44 +3576,44 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="62">
-        <v>8198547.5999999996</v>
+        <v>8548408.6999999993</v>
       </c>
       <c r="E21" s="62">
-        <v>7359714.5</v>
+        <v>7757998.0999999996</v>
       </c>
       <c r="F21" s="62">
-        <v>8272295.5999999996</v>
+        <v>0</v>
       </c>
       <c r="G21" s="62">
-        <v>8069558.2999999998</v>
+        <v>0</v>
       </c>
       <c r="H21" s="62">
-        <v>8180222.4000000004</v>
+        <v>0</v>
       </c>
       <c r="I21" s="62">
-        <v>7721307.0999999996</v>
+        <v>0</v>
       </c>
       <c r="J21" s="62">
-        <v>8163106.5999999996</v>
+        <v>0</v>
       </c>
       <c r="K21" s="62">
-        <v>8165909.2999999998</v>
+        <v>0</v>
       </c>
       <c r="L21" s="62">
-        <v>7939198.4000000004</v>
+        <v>0</v>
       </c>
       <c r="M21" s="62">
-        <v>8609807.9000000004</v>
+        <v>0</v>
       </c>
       <c r="N21" s="62">
-        <v>8384958.4000000004</v>
+        <v>0</v>
       </c>
       <c r="O21" s="62">
-        <v>8452996.8000000007</v>
+        <v>0</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>97517622.900000006</v>
+        <v>16306406.799999999</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3619,44 +3622,44 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="62">
-        <v>8709268</v>
+        <v>7331113.5</v>
       </c>
       <c r="E22" s="62">
-        <v>7241715</v>
+        <v>7374358.7999999998</v>
       </c>
       <c r="F22" s="62">
-        <v>7936248.5999999996</v>
+        <v>0</v>
       </c>
       <c r="G22" s="62">
-        <v>5832680.7000000002</v>
+        <v>0</v>
       </c>
       <c r="H22" s="62">
-        <v>6648687.2999999998</v>
+        <v>0</v>
       </c>
       <c r="I22" s="62">
-        <v>7903194.4000000004</v>
+        <v>0</v>
       </c>
       <c r="J22" s="62">
-        <v>8248279.0999999996</v>
+        <v>0</v>
       </c>
       <c r="K22" s="62">
-        <v>7711611.5</v>
+        <v>0</v>
       </c>
       <c r="L22" s="62">
-        <v>7272440.5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="62">
-        <v>8786603.0999999996</v>
+        <v>0</v>
       </c>
       <c r="N22" s="62">
-        <v>8217908.7000000002</v>
+        <v>0</v>
       </c>
       <c r="O22" s="62">
-        <v>7806448.7999999998</v>
+        <v>0</v>
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>92315085.699999988</v>
+        <v>14705472.300000001</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3665,44 +3668,44 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="62">
-        <v>-7453735.2000000002</v>
+        <v>-6658368.2000000002</v>
       </c>
       <c r="E23" s="62">
-        <v>-6539236.2999999998</v>
+        <v>-6430015.5</v>
       </c>
       <c r="F23" s="62">
-        <v>-6643567.5999999996</v>
+        <v>0</v>
       </c>
       <c r="G23" s="62">
-        <v>-4528837.2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="62">
-        <v>-6025951.0999999996</v>
+        <v>0</v>
       </c>
       <c r="I23" s="62">
-        <v>-6518806.7999999998</v>
+        <v>0</v>
       </c>
       <c r="J23" s="62">
-        <v>-7042458.2999999998</v>
+        <v>0</v>
       </c>
       <c r="K23" s="62">
-        <v>-6082474.4000000004</v>
+        <v>0</v>
       </c>
       <c r="L23" s="62">
-        <v>-5992757.5</v>
+        <v>0</v>
       </c>
       <c r="M23" s="62">
-        <v>-7598338</v>
+        <v>0</v>
       </c>
       <c r="N23" s="62">
-        <v>-7005155</v>
+        <v>0</v>
       </c>
       <c r="O23" s="62">
-        <v>-6938315.7999999998</v>
+        <v>0</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-78369633.199999988</v>
+        <v>-13088383.699999999</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3711,44 +3714,44 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="62">
-        <v>9454080.4000000022</v>
+        <v>9221154</v>
       </c>
       <c r="E24" s="62">
-        <v>8062193.2000000002</v>
+        <v>8702341.3999999985</v>
       </c>
       <c r="F24" s="62">
-        <v>9564976.5999999996</v>
+        <v>0</v>
       </c>
       <c r="G24" s="62">
-        <v>9373401.8000000007</v>
+        <v>0</v>
       </c>
       <c r="H24" s="62">
-        <v>8802958.5999999996</v>
+        <v>0</v>
       </c>
       <c r="I24" s="62">
-        <v>9105694.6999999993</v>
+        <v>0</v>
       </c>
       <c r="J24" s="62">
-        <v>9368927.3999999985</v>
+        <v>0</v>
       </c>
       <c r="K24" s="62">
-        <v>9795046.4000000004</v>
+        <v>0</v>
       </c>
       <c r="L24" s="62">
-        <v>9218881.4000000004</v>
+        <v>0</v>
       </c>
       <c r="M24" s="62">
-        <v>9798073</v>
+        <v>0</v>
       </c>
       <c r="N24" s="62">
-        <v>9597712.1000000015</v>
+        <v>0</v>
       </c>
       <c r="O24" s="62">
-        <v>9321129.8000000007</v>
+        <v>0</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>111463075.40000001</v>
+        <v>17923495.400000002</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3756,44 +3759,44 @@
         <v>28</v>
       </c>
       <c r="D25" s="61">
-        <v>6557372</v>
+        <v>5760698.7000000002</v>
       </c>
       <c r="E25" s="61">
-        <v>5732252</v>
+        <v>5545483.2000000002</v>
       </c>
       <c r="F25" s="61">
-        <v>5849139.2999999998</v>
+        <v>0</v>
       </c>
       <c r="G25" s="61">
-        <v>3961511.9</v>
+        <v>0</v>
       </c>
       <c r="H25" s="61">
-        <v>5212273.0999999996</v>
+        <v>0</v>
       </c>
       <c r="I25" s="61">
-        <v>5683705.5999999996</v>
+        <v>0</v>
       </c>
       <c r="J25" s="61">
-        <v>6171403</v>
+        <v>0</v>
       </c>
       <c r="K25" s="61">
-        <v>5411753</v>
+        <v>0</v>
       </c>
       <c r="L25" s="61">
-        <v>5208956.2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="61">
-        <v>6482468.2999999998</v>
+        <v>0</v>
       </c>
       <c r="N25" s="61">
-        <v>6185790.5</v>
+        <v>0</v>
       </c>
       <c r="O25" s="61">
-        <v>6061187.5999999996</v>
+        <v>0</v>
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>68517812.5</v>
+        <v>11306181.9</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3801,44 +3804,44 @@
         <v>46</v>
       </c>
       <c r="D26" s="62">
-        <v>16011452.400000002</v>
+        <v>14981852.699999999</v>
       </c>
       <c r="E26" s="62">
-        <v>13794445.199999999</v>
+        <v>14247824.599999998</v>
       </c>
       <c r="F26" s="62">
-        <v>15414115.899999999</v>
+        <v>0</v>
       </c>
       <c r="G26" s="62">
-        <v>13334913.700000001</v>
+        <v>0</v>
       </c>
       <c r="H26" s="62">
-        <v>14015231.699999999</v>
+        <v>0</v>
       </c>
       <c r="I26" s="62">
-        <v>14789400.299999999</v>
+        <v>0</v>
       </c>
       <c r="J26" s="62">
-        <v>15540330.399999999</v>
+        <v>0</v>
       </c>
       <c r="K26" s="62">
-        <v>15206799.4</v>
+        <v>0</v>
       </c>
       <c r="L26" s="62">
-        <v>14427837.600000001</v>
+        <v>0</v>
       </c>
       <c r="M26" s="62">
-        <v>16280541.300000001</v>
+        <v>0</v>
       </c>
       <c r="N26" s="62">
-        <v>15783502.600000001</v>
+        <v>0</v>
       </c>
       <c r="O26" s="62">
-        <v>15382317.4</v>
+        <v>0</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>179980887.90000001</v>
+        <v>29229677.300000004</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3864,44 +3867,44 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>18414238.400000002</v>
+        <v>17539227.599999998</v>
       </c>
       <c r="E28" s="62">
-        <v>15899270.399999999</v>
+        <v>16647056.199999999</v>
       </c>
       <c r="F28" s="62">
-        <v>17863522.399999999</v>
+        <v>0</v>
       </c>
       <c r="G28" s="62">
-        <v>15775992.800000001</v>
+        <v>0</v>
       </c>
       <c r="H28" s="62">
-        <v>16481110.199999999</v>
+        <v>0</v>
       </c>
       <c r="I28" s="62">
-        <v>17142486.300000001</v>
+        <v>0</v>
       </c>
       <c r="J28" s="62">
-        <v>18049834.399999999</v>
+        <v>0</v>
       </c>
       <c r="K28" s="62">
-        <v>17790435.400000002</v>
+        <v>0</v>
       </c>
       <c r="L28" s="62">
-        <v>16876722.600000001</v>
+        <v>0</v>
       </c>
       <c r="M28" s="62">
-        <v>18917024.200000003</v>
+        <v>0</v>
       </c>
       <c r="N28" s="62">
-        <v>18343771.600000001</v>
+        <v>0</v>
       </c>
       <c r="O28" s="62">
-        <v>17973513.600000001</v>
+        <v>0</v>
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>209527922.30000001</v>
+        <v>34186283.800000004</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3945,44 +3948,44 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>986732.6</v>
+        <v>1017995.5</v>
       </c>
       <c r="E31" s="62">
-        <v>886083.9</v>
+        <v>965998.2</v>
       </c>
       <c r="F31" s="62">
-        <v>1079290</v>
+        <v>0</v>
       </c>
       <c r="G31" s="62">
-        <v>1057312.6000000001</v>
+        <v>0</v>
       </c>
       <c r="H31" s="62">
-        <v>1055981.7</v>
+        <v>0</v>
       </c>
       <c r="I31" s="62">
-        <v>961469.5</v>
+        <v>0</v>
       </c>
       <c r="J31" s="62">
-        <v>990030.2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="62">
-        <v>1027034.1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="62">
-        <v>1001702.2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="62">
-        <v>1044781.5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="62">
-        <v>1036681.4</v>
+        <v>0</v>
       </c>
       <c r="O31" s="62">
-        <v>1008972.5</v>
+        <v>0</v>
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>12136072.199999999</v>
+        <v>1983993.7</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3990,44 +3993,44 @@
         <v>48</v>
       </c>
       <c r="D32" s="62">
-        <v>305312.7</v>
+        <v>319178.59999999998</v>
       </c>
       <c r="E32" s="62">
-        <v>265545.40000000002</v>
+        <v>286752</v>
       </c>
       <c r="F32" s="62">
-        <v>309803.3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="62">
-        <v>291523</v>
+        <v>0</v>
       </c>
       <c r="H32" s="62">
-        <v>298638.2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="62">
-        <v>272139.40000000002</v>
+        <v>0</v>
       </c>
       <c r="J32" s="62">
-        <v>327736.90000000002</v>
+        <v>0</v>
       </c>
       <c r="K32" s="62">
-        <v>305046.2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="62">
-        <v>273211.8</v>
+        <v>0</v>
       </c>
       <c r="M32" s="62">
-        <v>298100.3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="62">
-        <v>298934.8</v>
+        <v>0</v>
       </c>
       <c r="O32" s="62">
-        <v>306185</v>
+        <v>0</v>
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>3552176.9999999995</v>
+        <v>605930.6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4053,44 +4056,44 @@
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="62">
-        <v>9474.7999999999993</v>
+        <v>9673.5</v>
       </c>
       <c r="E34" s="62">
-        <v>9042.7999999999993</v>
+        <v>8587.2000000000007</v>
       </c>
       <c r="F34" s="62">
-        <v>10377.4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="62">
-        <v>9787</v>
+        <v>0</v>
       </c>
       <c r="H34" s="62">
-        <v>8969.4</v>
+        <v>0</v>
       </c>
       <c r="I34" s="62">
-        <v>9305.4</v>
+        <v>0</v>
       </c>
       <c r="J34" s="62">
-        <v>8891.9</v>
+        <v>0</v>
       </c>
       <c r="K34" s="62">
-        <v>9120.6</v>
+        <v>0</v>
       </c>
       <c r="L34" s="62">
-        <v>12407.6</v>
+        <v>0</v>
       </c>
       <c r="M34" s="62">
-        <v>9771.5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="62">
-        <v>9423.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="O34" s="62">
-        <v>10109.200000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>116681.3</v>
+        <v>18260.7</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4099,44 +4102,44 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="62">
-        <v>14531.2</v>
+        <v>14299.9</v>
       </c>
       <c r="E35" s="62">
-        <v>13590.5</v>
+        <v>12885.8</v>
       </c>
       <c r="F35" s="62">
-        <v>15161.2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="62">
-        <v>14681.8</v>
+        <v>0</v>
       </c>
       <c r="H35" s="62">
-        <v>14586.6</v>
+        <v>0</v>
       </c>
       <c r="I35" s="62">
-        <v>15860.8</v>
+        <v>0</v>
       </c>
       <c r="J35" s="62">
-        <v>12694.4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="62">
-        <v>16689.900000000001</v>
+        <v>0</v>
       </c>
       <c r="L35" s="62">
-        <v>18144.5</v>
+        <v>0</v>
       </c>
       <c r="M35" s="62">
-        <v>15640.3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="62">
-        <v>11165</v>
+        <v>0</v>
       </c>
       <c r="O35" s="62">
-        <v>14238.3</v>
+        <v>0</v>
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>176984.49999999997</v>
+        <v>27185.699999999997</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4145,44 +4148,44 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="62">
-        <v>255896.3</v>
+        <v>536119.6</v>
       </c>
       <c r="E36" s="62">
-        <v>213983</v>
+        <v>543275.19999999995</v>
       </c>
       <c r="F36" s="62">
-        <v>190286.8</v>
+        <v>0</v>
       </c>
       <c r="G36" s="62">
-        <v>119022.6</v>
+        <v>0</v>
       </c>
       <c r="H36" s="62">
-        <v>134058.1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="62">
-        <v>187858.6</v>
+        <v>0</v>
       </c>
       <c r="J36" s="62">
-        <v>274858.2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="62">
-        <v>340254</v>
+        <v>0</v>
       </c>
       <c r="L36" s="62">
-        <v>385830.2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="62">
-        <v>429287</v>
+        <v>0</v>
       </c>
       <c r="N36" s="62">
-        <v>370870.6</v>
+        <v>0</v>
       </c>
       <c r="O36" s="62">
-        <v>513032.2</v>
+        <v>0</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>3415237.6</v>
+        <v>1079394.7999999998</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4209,44 +4212,44 @@
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="62">
-        <v>223674.7</v>
+        <v>222513.3</v>
       </c>
       <c r="E38" s="62">
-        <v>193458.8</v>
+        <v>210076.4</v>
       </c>
       <c r="F38" s="62">
-        <v>220254.6</v>
+        <v>0</v>
       </c>
       <c r="G38" s="62">
-        <v>205255.2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="62">
-        <v>184999.4</v>
+        <v>0</v>
       </c>
       <c r="I38" s="62">
-        <v>204900</v>
+        <v>0</v>
       </c>
       <c r="J38" s="62">
-        <v>201464.9</v>
+        <v>0</v>
       </c>
       <c r="K38" s="62">
-        <v>223268.9</v>
+        <v>0</v>
       </c>
       <c r="L38" s="62">
-        <v>208690</v>
+        <v>0</v>
       </c>
       <c r="M38" s="62">
-        <v>205730.5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="62">
-        <v>195567.2</v>
+        <v>0</v>
       </c>
       <c r="O38" s="62">
-        <v>222469.6</v>
+        <v>0</v>
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>2489733.8000000003</v>
+        <v>432589.69999999995</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4255,44 +4258,44 @@
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="62">
-        <v>89.5</v>
+        <v>30.1</v>
       </c>
       <c r="E39" s="62">
-        <v>53.2</v>
+        <v>51.7</v>
       </c>
       <c r="F39" s="62">
-        <v>59.1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="62">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="62">
-        <v>86.1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="62">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="J39" s="62">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="K39" s="62">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="L39" s="62">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="62">
-        <v>231.5</v>
+        <v>0</v>
       </c>
       <c r="N39" s="62">
-        <v>130.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="O39" s="62">
-        <v>53.7</v>
+        <v>0</v>
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>956.2</v>
+        <v>81.800000000000011</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4340,44 +4343,44 @@
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="110">
-        <v>442448.4</v>
+        <v>482534.1</v>
       </c>
       <c r="E42" s="110">
-        <v>338254</v>
+        <v>416428.79999999999</v>
       </c>
       <c r="F42" s="110">
-        <v>477497.8</v>
+        <v>0</v>
       </c>
       <c r="G42" s="110">
-        <v>460867.8</v>
+        <v>0</v>
       </c>
       <c r="H42" s="110">
-        <v>506844</v>
+        <v>0</v>
       </c>
       <c r="I42" s="110">
-        <v>356840.6</v>
+        <v>0</v>
       </c>
       <c r="J42" s="110">
-        <v>456899.2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="110">
-        <v>410160.1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="110">
-        <v>372247.7</v>
+        <v>0</v>
       </c>
       <c r="M42" s="110">
-        <v>393570.5</v>
+        <v>0</v>
       </c>
       <c r="N42" s="110">
-        <v>444433.2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="110">
-        <v>458918.2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>5118981.5000000009</v>
+        <v>898962.89999999991</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4386,44 +4389,44 @@
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="110">
-        <v>1049912.1000000001</v>
+        <v>944742.9</v>
       </c>
       <c r="E43" s="110">
-        <v>923086.1</v>
+        <v>993778.1</v>
       </c>
       <c r="F43" s="110">
-        <v>1033755.5</v>
+        <v>0</v>
       </c>
       <c r="G43" s="110">
-        <v>1129846.7999999998</v>
+        <v>0</v>
       </c>
       <c r="H43" s="110">
-        <v>999622.7</v>
+        <v>0</v>
       </c>
       <c r="I43" s="110">
-        <v>924727.5</v>
+        <v>0</v>
       </c>
       <c r="J43" s="110">
-        <v>783473.4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="110">
-        <v>836112.5</v>
+        <v>0</v>
       </c>
       <c r="L43" s="110">
-        <v>765527.8</v>
+        <v>0</v>
       </c>
       <c r="M43" s="110">
-        <v>898821.8</v>
+        <v>0</v>
       </c>
       <c r="N43" s="110">
-        <v>978175.39999999991</v>
+        <v>0</v>
       </c>
       <c r="O43" s="110">
-        <v>1101567.8999999999</v>
+        <v>0</v>
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>11424629.500000002</v>
+        <v>1938521</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4432,44 +4435,44 @@
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="110">
-        <v>754877.1</v>
+        <v>792712.9</v>
       </c>
       <c r="E44" s="110">
-        <v>680026.3</v>
+        <v>718127.7</v>
       </c>
       <c r="F44" s="110">
-        <v>759949.9</v>
+        <v>0</v>
       </c>
       <c r="G44" s="110">
-        <v>732117.9</v>
+        <v>0</v>
       </c>
       <c r="H44" s="110">
-        <v>743017.9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="110">
-        <v>755395.3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="110">
-        <v>740245.4</v>
+        <v>0</v>
       </c>
       <c r="K44" s="110">
-        <v>735880.4</v>
+        <v>0</v>
       </c>
       <c r="L44" s="110">
-        <v>714003.8</v>
+        <v>0</v>
       </c>
       <c r="M44" s="110">
-        <v>762031.7</v>
+        <v>0</v>
       </c>
       <c r="N44" s="110">
-        <v>753158.4</v>
+        <v>0</v>
       </c>
       <c r="O44" s="110">
-        <v>782150.9</v>
+        <v>0</v>
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>8912855</v>
+        <v>1510840.6</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4478,44 +4481,44 @@
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="112">
-        <v>264030.7</v>
+        <v>300673.5</v>
       </c>
       <c r="E45" s="112">
-        <v>262557.09999999998</v>
+        <v>243463</v>
       </c>
       <c r="F45" s="112">
-        <v>256302.8</v>
+        <v>0</v>
       </c>
       <c r="G45" s="112">
-        <v>287540.5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="112">
-        <v>276378.90000000002</v>
+        <v>0</v>
       </c>
       <c r="I45" s="112">
-        <v>210535.4</v>
+        <v>0</v>
       </c>
       <c r="J45" s="112">
-        <v>270429.7</v>
+        <v>0</v>
       </c>
       <c r="K45" s="112">
-        <v>277020.5</v>
+        <v>0</v>
       </c>
       <c r="L45" s="112">
-        <v>275499.7</v>
+        <v>0</v>
       </c>
       <c r="M45" s="112">
-        <v>276588.5</v>
+        <v>0</v>
       </c>
       <c r="N45" s="112">
-        <v>242716.2</v>
+        <v>0</v>
       </c>
       <c r="O45" s="112">
-        <v>276294.59999999998</v>
+        <v>0</v>
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>3175894.6</v>
+        <v>544136.5</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4524,44 +4527,44 @@
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="110">
-        <v>2511268.3000000003</v>
+        <v>2520663.4</v>
       </c>
       <c r="E46" s="110">
-        <v>2203923.5</v>
+        <v>2371797.5999999996</v>
       </c>
       <c r="F46" s="110">
-        <v>2527506</v>
+        <v>0</v>
       </c>
       <c r="G46" s="110">
-        <v>2610373</v>
+        <v>0</v>
       </c>
       <c r="H46" s="110">
-        <v>2525863.5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="110">
-        <v>2247498.8000000003</v>
+        <v>0</v>
       </c>
       <c r="J46" s="110">
-        <v>2251047.7000000002</v>
+        <v>0</v>
       </c>
       <c r="K46" s="110">
-        <v>2259173.5</v>
+        <v>0</v>
       </c>
       <c r="L46" s="110">
-        <v>2127279</v>
+        <v>0</v>
       </c>
       <c r="M46" s="110">
-        <v>2331012.5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="110">
-        <v>2418483.2000000002</v>
+        <v>0</v>
       </c>
       <c r="O46" s="110">
-        <v>2618931.6</v>
+        <v>0</v>
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>28632360.600000001</v>
+        <v>4892461</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4588,44 +4591,44 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4306980.1000000006</v>
+        <v>4640473.9000000004</v>
       </c>
       <c r="E48" s="110">
-        <v>3785681.1</v>
+        <v>4399424.0999999996</v>
       </c>
       <c r="F48" s="110">
-        <v>4352738.4000000004</v>
+        <v>0</v>
       </c>
       <c r="G48" s="110">
-        <v>4308056.3000000007</v>
+        <v>0</v>
       </c>
       <c r="H48" s="110">
-        <v>4223183</v>
+        <v>0</v>
       </c>
       <c r="I48" s="110">
-        <v>3899068.9000000004</v>
+        <v>0</v>
       </c>
       <c r="J48" s="110">
-        <v>4066779.5999999996</v>
+        <v>0</v>
       </c>
       <c r="K48" s="110">
-        <v>4180616.8</v>
+        <v>0</v>
       </c>
       <c r="L48" s="110">
-        <v>4027295.6</v>
+        <v>0</v>
       </c>
       <c r="M48" s="110">
-        <v>4334555.0999999996</v>
+        <v>0</v>
       </c>
       <c r="N48" s="110">
-        <v>4341256.2</v>
+        <v>0</v>
       </c>
       <c r="O48" s="110">
-        <v>4693992.0999999996</v>
+        <v>0</v>
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>50520203.20000001</v>
+        <v>9039898</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4650,44 +4653,44 @@
         <v>54</v>
       </c>
       <c r="D50" s="110">
-        <v>211512.8</v>
+        <v>174725.7</v>
       </c>
       <c r="E50" s="110">
-        <v>187171.1</v>
+        <v>176661.3</v>
       </c>
       <c r="F50" s="110">
-        <v>200592.4</v>
+        <v>0</v>
       </c>
       <c r="G50" s="110">
-        <v>171667</v>
+        <v>0</v>
       </c>
       <c r="H50" s="110">
-        <v>158921.9</v>
+        <v>0</v>
       </c>
       <c r="I50" s="110">
-        <v>221009.2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="110">
-        <v>215117.9</v>
+        <v>0</v>
       </c>
       <c r="K50" s="110">
-        <v>215435.2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="110">
-        <v>200486</v>
+        <v>0</v>
       </c>
       <c r="M50" s="110">
-        <v>224154.5</v>
+        <v>0</v>
       </c>
       <c r="N50" s="110">
-        <v>220256.6</v>
+        <v>0</v>
       </c>
       <c r="O50" s="110">
-        <v>219146</v>
+        <v>0</v>
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>2445470.6</v>
+        <v>351387</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4695,44 +4698,44 @@
         <v>22</v>
       </c>
       <c r="D51" s="110">
-        <v>87591.1</v>
+        <v>84543.5</v>
       </c>
       <c r="E51" s="110">
-        <v>80566</v>
+        <v>78221.3</v>
       </c>
       <c r="F51" s="110">
-        <v>84041.8</v>
+        <v>0</v>
       </c>
       <c r="G51" s="110">
-        <v>88223.1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="110">
-        <v>84458.7</v>
+        <v>0</v>
       </c>
       <c r="I51" s="110">
-        <v>93697.600000000006</v>
+        <v>0</v>
       </c>
       <c r="J51" s="110">
-        <v>87296.2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="110">
-        <v>91106.8</v>
+        <v>0</v>
       </c>
       <c r="L51" s="110">
-        <v>76453.5</v>
+        <v>0</v>
       </c>
       <c r="M51" s="110">
-        <v>97929.9</v>
+        <v>0</v>
       </c>
       <c r="N51" s="110">
-        <v>97040.3</v>
+        <v>0</v>
       </c>
       <c r="O51" s="110">
-        <v>94452.1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>1062857.1000000001</v>
+        <v>162764.79999999999</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4740,44 +4743,44 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>292141.40000000002</v>
+        <v>305895.40000000002</v>
       </c>
       <c r="E52" s="110">
-        <v>262714.7</v>
+        <v>284705.40000000002</v>
       </c>
       <c r="F52" s="110">
-        <v>313409.2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="110">
-        <v>304442.2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="110">
-        <v>303524.8</v>
+        <v>0</v>
       </c>
       <c r="I52" s="110">
-        <v>280454.5</v>
+        <v>0</v>
       </c>
       <c r="J52" s="110">
-        <v>287321.59999999998</v>
+        <v>0</v>
       </c>
       <c r="K52" s="110">
-        <v>292277.90000000002</v>
+        <v>0</v>
       </c>
       <c r="L52" s="110">
-        <v>284487.59999999998</v>
+        <v>0</v>
       </c>
       <c r="M52" s="110">
-        <v>303618.40000000002</v>
+        <v>0</v>
       </c>
       <c r="N52" s="110">
-        <v>300060.40000000002</v>
+        <v>0</v>
       </c>
       <c r="O52" s="110">
-        <v>303127.7</v>
+        <v>0</v>
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>3527580.4</v>
+        <v>590600.80000000005</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4804,44 +4807,44 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>11471218.9</v>
+        <v>10517640</v>
       </c>
       <c r="E54" s="116">
-        <v>10909453.6</v>
+        <v>10411372.6</v>
       </c>
       <c r="F54" s="116">
-        <v>11671234.300000001</v>
+        <v>0</v>
       </c>
       <c r="G54" s="116">
-        <v>11856739.300000001</v>
+        <v>0</v>
       </c>
       <c r="H54" s="116">
-        <v>11772897.300000001</v>
+        <v>0</v>
       </c>
       <c r="I54" s="116">
-        <v>11705237.699999999</v>
+        <v>0</v>
       </c>
       <c r="J54" s="116">
-        <v>11964291.300000001</v>
+        <v>0</v>
       </c>
       <c r="K54" s="116">
-        <v>11917285.1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="116">
-        <v>12182564.199999999</v>
+        <v>0</v>
       </c>
       <c r="M54" s="116">
-        <v>12816524</v>
+        <v>0</v>
       </c>
       <c r="N54" s="116">
-        <v>12683422.800000001</v>
+        <v>0</v>
       </c>
       <c r="O54" s="116">
-        <v>11759965.199999999</v>
+        <v>0</v>
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>11759965.199999999</v>
+        <v>10411372.6</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4849,44 +4852,44 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-34586.699999999997</v>
+        <v>-41571.699999999997</v>
       </c>
       <c r="E55" s="110">
-        <v>12143.3</v>
+        <v>2654.7</v>
       </c>
       <c r="F55" s="110">
-        <v>-79796</v>
+        <v>0</v>
       </c>
       <c r="G55" s="110">
-        <v>7437.1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="110">
-        <v>-39808.1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="110">
-        <v>55993.4</v>
+        <v>0</v>
       </c>
       <c r="J55" s="110">
-        <v>-125441.8</v>
+        <v>0</v>
       </c>
       <c r="K55" s="110">
-        <v>18728.8</v>
+        <v>0</v>
       </c>
       <c r="L55" s="110">
-        <v>-309.8</v>
+        <v>0</v>
       </c>
       <c r="M55" s="110">
-        <v>-25301.7</v>
+        <v>0</v>
       </c>
       <c r="N55" s="110">
-        <v>-6444.6</v>
+        <v>0</v>
       </c>
       <c r="O55" s="110">
-        <v>25833.7</v>
+        <v>0</v>
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-191552.4</v>
+        <v>-38917</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4912,44 +4915,44 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>21816054.700000003</v>
+        <v>22815178.899999999</v>
       </c>
       <c r="E57" s="110">
-        <v>19728408.300000001</v>
+        <v>20615814.399999995</v>
       </c>
       <c r="F57" s="110">
-        <v>20776631.799999997</v>
+        <v>0</v>
       </c>
       <c r="G57" s="110">
-        <v>19341648.900000002</v>
+        <v>0</v>
       </c>
       <c r="H57" s="110">
-        <v>20201421.699999999</v>
+        <v>0</v>
       </c>
       <c r="I57" s="110">
-        <v>20570035.900000002</v>
+        <v>0</v>
       </c>
       <c r="J57" s="110">
-        <v>21142382.899999999</v>
+        <v>0</v>
       </c>
       <c r="K57" s="110">
-        <v>21437967.300000008</v>
+        <v>0</v>
       </c>
       <c r="L57" s="110">
-        <v>20077002.199999999</v>
+        <v>0</v>
       </c>
       <c r="M57" s="110">
-        <v>21966615.000000004</v>
+        <v>0</v>
       </c>
       <c r="N57" s="110">
-        <v>22194273.299999997</v>
+        <v>0</v>
       </c>
       <c r="O57" s="110">
-        <v>23000070.900000002</v>
+        <v>0</v>
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>252252512.90000001</v>
+        <v>43430993.299999997</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4971,7 +4974,7 @@
     </row>
     <row r="59" spans="2:17" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="67"/>
@@ -5031,7 +5034,7 @@
       </c>
       <c r="P60" s="59"/>
       <c r="Q60" s="42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="5" customFormat="1">
@@ -5078,44 +5081,44 @@
         <v>125</v>
       </c>
       <c r="D63" s="62">
-        <v>0</v>
+        <v>32683.5</v>
       </c>
       <c r="E63" s="62">
-        <v>0</v>
+        <v>55168.4</v>
       </c>
       <c r="F63" s="62">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="G63" s="62">
-        <v>5940</v>
+        <v>0</v>
       </c>
       <c r="H63" s="62">
-        <v>4280.8999999999996</v>
+        <v>0</v>
       </c>
       <c r="I63" s="62">
-        <v>25421.9</v>
+        <v>0</v>
       </c>
       <c r="J63" s="62">
-        <v>52742.8</v>
+        <v>0</v>
       </c>
       <c r="K63" s="62">
-        <v>25798.699999999997</v>
+        <v>0</v>
       </c>
       <c r="L63" s="62">
-        <v>34058</v>
+        <v>0</v>
       </c>
       <c r="M63" s="62">
-        <v>36392.400000000001</v>
+        <v>0</v>
       </c>
       <c r="N63" s="62">
-        <v>30277.7</v>
+        <v>0</v>
       </c>
       <c r="O63" s="62">
-        <v>42722.5</v>
+        <v>0</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>258036.9</v>
+        <v>87851.9</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5123,44 +5126,44 @@
         <v>32</v>
       </c>
       <c r="D64" s="62">
-        <v>2279154.2000000002</v>
+        <v>2353032</v>
       </c>
       <c r="E64" s="62">
-        <v>2054646.4</v>
+        <v>2237277.2999999998</v>
       </c>
       <c r="F64" s="62">
-        <v>2421967</v>
+        <v>0</v>
       </c>
       <c r="G64" s="62">
-        <v>1709501.5</v>
+        <v>0</v>
       </c>
       <c r="H64" s="62">
-        <v>1513444.1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="62">
-        <v>2180975.1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="62">
-        <v>2364386.1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="62">
-        <v>2366421.4</v>
+        <v>0</v>
       </c>
       <c r="L64" s="62">
-        <v>1790701.7</v>
+        <v>0</v>
       </c>
       <c r="M64" s="62">
-        <v>1931901.9</v>
+        <v>0</v>
       </c>
       <c r="N64" s="62">
-        <v>2280849.4</v>
+        <v>0</v>
       </c>
       <c r="O64" s="62">
-        <v>2531308.2999999998</v>
+        <v>0</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>25425257.099999994</v>
+        <v>4590309.3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5168,44 +5171,44 @@
         <v>53</v>
       </c>
       <c r="D65" s="62">
-        <v>13046.4</v>
+        <v>14558.1</v>
       </c>
       <c r="E65" s="62">
-        <v>11666.6</v>
+        <v>12178.7</v>
       </c>
       <c r="F65" s="62">
-        <v>13242.9</v>
+        <v>0</v>
       </c>
       <c r="G65" s="62">
-        <v>14117.9</v>
+        <v>0</v>
       </c>
       <c r="H65" s="62">
-        <v>12861.2</v>
+        <v>0</v>
       </c>
       <c r="I65" s="62">
-        <v>13566.3</v>
+        <v>0</v>
       </c>
       <c r="J65" s="62">
-        <v>10368.1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="62">
-        <v>17260.400000000001</v>
+        <v>0</v>
       </c>
       <c r="L65" s="62">
-        <v>16741.599999999999</v>
+        <v>0</v>
       </c>
       <c r="M65" s="62">
-        <v>15472.7</v>
+        <v>0</v>
       </c>
       <c r="N65" s="62">
-        <v>12567.4</v>
+        <v>0</v>
       </c>
       <c r="O65" s="62">
-        <v>14326.8</v>
+        <v>0</v>
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>165238.30000000002</v>
+        <v>26736.800000000003</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5213,44 +5216,44 @@
         <v>39</v>
       </c>
       <c r="D66" s="62">
-        <v>20950.5</v>
+        <v>9600.4</v>
       </c>
       <c r="E66" s="62">
-        <v>15777.8</v>
+        <v>11939.6</v>
       </c>
       <c r="F66" s="62">
-        <v>12018.9</v>
+        <v>0</v>
       </c>
       <c r="G66" s="62">
-        <v>6451.5</v>
+        <v>0</v>
       </c>
       <c r="H66" s="62">
-        <v>15549.3</v>
+        <v>0</v>
       </c>
       <c r="I66" s="62">
-        <v>11864.1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="62">
-        <v>-15098.2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="62">
-        <v>14861.5</v>
+        <v>0</v>
       </c>
       <c r="L66" s="62">
-        <v>25392.7</v>
+        <v>0</v>
       </c>
       <c r="M66" s="62">
-        <v>10026.200000000001</v>
+        <v>0</v>
       </c>
       <c r="N66" s="62">
-        <v>14327.1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="62">
-        <v>2298.5</v>
+        <v>0</v>
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>134419.9</v>
+        <v>21540</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5259,25 +5262,25 @@
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="62">
-        <v>779.6</v>
+        <v>12.7</v>
       </c>
       <c r="E67" s="62">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="62">
-        <v>281.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G67" s="62">
-        <v>75.8</v>
+        <v>0</v>
       </c>
       <c r="H67" s="62">
         <v>0</v>
       </c>
       <c r="I67" s="62">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="J67" s="62">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K67" s="62">
         <v>0</v>
@@ -5286,17 +5289,17 @@
         <v>0</v>
       </c>
       <c r="M67" s="62">
-        <v>742.9</v>
+        <v>0</v>
       </c>
       <c r="N67" s="62">
-        <v>89.9</v>
+        <v>0</v>
       </c>
       <c r="O67" s="62">
         <v>0</v>
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>2080.7000000000003</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5305,44 +5308,44 @@
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="62">
-        <v>-314</v>
+        <v>1222</v>
       </c>
       <c r="E68" s="62">
-        <v>793.2</v>
+        <v>2437.8000000000002</v>
       </c>
       <c r="F68" s="62">
-        <v>-16.2</v>
+        <v>0</v>
       </c>
       <c r="G68" s="62">
-        <v>1643.8</v>
+        <v>0</v>
       </c>
       <c r="H68" s="62">
-        <v>1337.8</v>
+        <v>0</v>
       </c>
       <c r="I68" s="62">
-        <v>256.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="J68" s="62">
-        <v>111.5</v>
+        <v>0</v>
       </c>
       <c r="K68" s="62">
-        <v>3593.4</v>
+        <v>0</v>
       </c>
       <c r="L68" s="62">
-        <v>-1938.2</v>
+        <v>0</v>
       </c>
       <c r="M68" s="62">
-        <v>3244.6</v>
+        <v>0</v>
       </c>
       <c r="N68" s="62">
-        <v>-3162.4</v>
+        <v>0</v>
       </c>
       <c r="O68" s="62">
-        <v>2148.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>7698.9000000000005</v>
+        <v>3659.8</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5351,44 +5354,44 @@
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="62">
-        <v>162258.29999999999</v>
+        <v>341242.4</v>
       </c>
       <c r="E69" s="62">
-        <v>167941.1</v>
+        <v>339602.6</v>
       </c>
       <c r="F69" s="62">
-        <v>176736.2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="62">
-        <v>156840.4</v>
+        <v>0</v>
       </c>
       <c r="H69" s="62">
-        <v>115819.7</v>
+        <v>0</v>
       </c>
       <c r="I69" s="62">
-        <v>141356.5</v>
+        <v>0</v>
       </c>
       <c r="J69" s="62">
-        <v>166490.5</v>
+        <v>0</v>
       </c>
       <c r="K69" s="62">
-        <v>250467.5</v>
+        <v>0</v>
       </c>
       <c r="L69" s="62">
-        <v>303757.5</v>
+        <v>0</v>
       </c>
       <c r="M69" s="62">
-        <v>373381.9</v>
+        <v>0</v>
       </c>
       <c r="N69" s="62">
-        <v>254023.3</v>
+        <v>0</v>
       </c>
       <c r="O69" s="62">
-        <v>254346.8</v>
+        <v>0</v>
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>2523419.6999999997</v>
+        <v>680845</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5397,44 +5400,44 @@
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="62">
-        <v>2475875</v>
+        <v>2752351.1</v>
       </c>
       <c r="E70" s="62">
-        <v>2250881.2000000002</v>
+        <v>2658604.4</v>
       </c>
       <c r="F70" s="62">
-        <v>2624631.9</v>
+        <v>0</v>
       </c>
       <c r="G70" s="62">
-        <v>1894570.9</v>
+        <v>0</v>
       </c>
       <c r="H70" s="62">
-        <v>1663293</v>
+        <v>0</v>
       </c>
       <c r="I70" s="62">
-        <v>2373470.7999999998</v>
+        <v>0</v>
       </c>
       <c r="J70" s="62">
-        <v>2579025.7999999998</v>
+        <v>0</v>
       </c>
       <c r="K70" s="62">
-        <v>2678402.9</v>
+        <v>0</v>
       </c>
       <c r="L70" s="62">
-        <v>2168713.2999999998</v>
+        <v>0</v>
       </c>
       <c r="M70" s="62">
-        <v>2371162.5999999996</v>
+        <v>0</v>
       </c>
       <c r="N70" s="62">
-        <v>2588972.4</v>
+        <v>0</v>
       </c>
       <c r="O70" s="62">
-        <v>2847151.6999999993</v>
+        <v>0</v>
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>28516151.499999996</v>
+        <v>5410955.5</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5461,44 +5464,44 @@
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="110">
-        <v>18674302.800000001</v>
+        <v>19641330.800000001</v>
       </c>
       <c r="E72" s="110">
-        <v>16771136.4</v>
+        <v>17318144</v>
       </c>
       <c r="F72" s="110">
-        <v>17829227.199999999</v>
+        <v>0</v>
       </c>
       <c r="G72" s="110">
-        <v>16773022.9</v>
+        <v>0</v>
       </c>
       <c r="H72" s="110">
-        <v>17761697</v>
+        <v>0</v>
       </c>
       <c r="I72" s="110">
-        <v>17524841.600000001</v>
+        <v>0</v>
       </c>
       <c r="J72" s="110">
-        <v>18039137.100000001</v>
+        <v>0</v>
       </c>
       <c r="K72" s="110">
-        <v>18398038.600000001</v>
+        <v>0</v>
       </c>
       <c r="L72" s="110">
-        <v>17513447.899999999</v>
+        <v>0</v>
       </c>
       <c r="M72" s="110">
-        <v>19238115.600000001</v>
+        <v>0</v>
       </c>
       <c r="N72" s="110">
-        <v>19214214.699999999</v>
+        <v>0</v>
       </c>
       <c r="O72" s="110">
-        <v>19422452.699999999</v>
+        <v>0</v>
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>217159634.49999997</v>
+        <v>36959474.799999997</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5507,44 +5510,44 @@
       </c>
       <c r="C73" s="40"/>
       <c r="D73" s="110">
-        <v>602396.86451612902</v>
+        <v>633591.31612903229</v>
       </c>
       <c r="E73" s="110">
-        <v>598969.15714285721</v>
+        <v>618505.14285714284</v>
       </c>
       <c r="F73" s="110">
-        <v>575136.3612903225</v>
+        <v>0</v>
       </c>
       <c r="G73" s="110">
-        <v>559100.76333333331</v>
+        <v>0</v>
       </c>
       <c r="H73" s="110">
-        <v>572957.96774193551</v>
+        <v>0</v>
       </c>
       <c r="I73" s="110">
-        <v>584161.38666666672</v>
+        <v>0</v>
       </c>
       <c r="J73" s="110">
-        <v>581907.64838709682</v>
+        <v>0</v>
       </c>
       <c r="K73" s="110">
-        <v>593485.11612903234</v>
+        <v>0</v>
       </c>
       <c r="L73" s="110">
-        <v>583781.59666666656</v>
+        <v>0</v>
       </c>
       <c r="M73" s="110">
-        <v>620584.37419354846</v>
+        <v>0</v>
       </c>
       <c r="N73" s="110">
-        <v>640473.82333333336</v>
+        <v>0</v>
       </c>
       <c r="O73" s="110">
-        <v>626530.73225806444</v>
+        <v>0</v>
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>594957.14930491557</v>
+        <v>626048.22949308762</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5571,44 +5574,44 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>665876.90000000224</v>
+        <v>421496.99999999627</v>
       </c>
       <c r="E75" s="110">
-        <v>706390.69999999925</v>
+        <v>639065.99999999627</v>
       </c>
       <c r="F75" s="110">
-        <v>322772.69999999925</v>
+        <v>0</v>
       </c>
       <c r="G75" s="110">
-        <v>674055.10000000149</v>
+        <v>0</v>
       </c>
       <c r="H75" s="110">
-        <v>776431.69999999925</v>
+        <v>0</v>
       </c>
       <c r="I75" s="110">
-        <v>671723.5</v>
+        <v>0</v>
       </c>
       <c r="J75" s="110">
-        <v>524219.99999999627</v>
+        <v>0</v>
       </c>
       <c r="K75" s="110">
-        <v>361525.8000000082</v>
+        <v>0</v>
       </c>
       <c r="L75" s="110">
-        <v>394841</v>
+        <v>0</v>
       </c>
       <c r="M75" s="110">
-        <v>357336.80000000075</v>
+        <v>0</v>
       </c>
       <c r="N75" s="110">
-        <v>391086.19999999925</v>
+        <v>0</v>
       </c>
       <c r="O75" s="110">
-        <v>730466.50000000373</v>
+        <v>0</v>
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>6576726.9000000097</v>
+        <v>1060562.9999999925</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5617,44 +5620,44 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>3.558416099360424E-3</v>
+        <v>-1.0855231097533949E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>9.6728199323782987E-3</v>
-      </c>
-      <c r="F76" s="110">
-        <v>-1.283213276691595E-2</v>
-      </c>
-      <c r="G76" s="110">
-        <v>-7.8865019644779434E-4</v>
-      </c>
-      <c r="H76" s="110">
-        <v>1.2596519820047199E-2</v>
-      </c>
-      <c r="I76" s="110">
-        <v>8.0579198140627965E-3</v>
-      </c>
-      <c r="J76" s="110">
-        <v>8.8375152411416628E-3</v>
-      </c>
-      <c r="K76" s="110">
-        <v>-1.833593716199093E-3</v>
-      </c>
-      <c r="L76" s="110">
-        <v>3.0067443290801182E-3</v>
-      </c>
-      <c r="M76" s="110">
-        <v>-3.9394207643773651E-3</v>
-      </c>
-      <c r="N76" s="110">
-        <v>-4.852201280542737E-3</v>
-      </c>
-      <c r="O76" s="110">
-        <v>6.0687920087331218E-3</v>
+        <v>4.1364923377092419E-3</v>
+      </c>
+      <c r="F76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="L76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="M76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="N76" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="O76" s="110" t="s">
+        <v>128</v>
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>2.2233523890904465E-3</v>
+        <v>3.0509692279558471E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5680,44 +5683,44 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>21816054.700000003</v>
+        <v>22815178.899999999</v>
       </c>
       <c r="E78" s="110">
-        <v>19728408.300000001</v>
+        <v>20615814.399999995</v>
       </c>
       <c r="F78" s="110">
-        <v>20776631.799999997</v>
+        <v>0</v>
       </c>
       <c r="G78" s="110">
-        <v>19341648.900000002</v>
+        <v>0</v>
       </c>
       <c r="H78" s="110">
-        <v>20201421.699999999</v>
+        <v>0</v>
       </c>
       <c r="I78" s="110">
-        <v>20570035.900000002</v>
+        <v>0</v>
       </c>
       <c r="J78" s="110">
-        <v>21142382.899999999</v>
+        <v>0</v>
       </c>
       <c r="K78" s="110">
-        <v>21437967.300000008</v>
+        <v>0</v>
       </c>
       <c r="L78" s="110">
-        <v>20077002.199999999</v>
+        <v>0</v>
       </c>
       <c r="M78" s="110">
-        <v>21966615.000000004</v>
+        <v>0</v>
       </c>
       <c r="N78" s="110">
-        <v>22194273.299999997</v>
+        <v>0</v>
       </c>
       <c r="O78" s="110">
-        <v>23000070.900000002</v>
+        <v>0</v>
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>252252512.90000001</v>
+        <v>43430993.299999997</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EFFB7D22-A933-4790-A342-8815C05B0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{890673B6-AF3A-42E5-AE7C-C194073592E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="5412" windowWidth="21780" windowHeight="6828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="516" windowWidth="22680" windowHeight="11532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  28 March 2022</t>
+    <t xml:space="preserve"> Run Date:  30 May 2022</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3129,16 +3129,16 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759853.699999999</v>
+        <v>11759842.699999999</v>
       </c>
       <c r="E7" s="19">
-        <v>10517640</v>
+        <v>10517539.9</v>
       </c>
       <c r="F7" s="19">
-        <v>0</v>
+        <v>10411222.4</v>
       </c>
       <c r="G7" s="19">
-        <v>0</v>
+        <v>10129506.699999999</v>
       </c>
       <c r="H7" s="19">
         <v>0</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759853.699999999</v>
+        <v>11759842.699999999</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,16 +3230,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1313163</v>
+        <v>1287082.2</v>
       </c>
       <c r="E11" s="62">
-        <v>1232205.3</v>
+        <v>1208206.8</v>
       </c>
       <c r="F11" s="62">
-        <v>0</v>
+        <v>1429569</v>
       </c>
       <c r="G11" s="62">
-        <v>0</v>
+        <v>1457654.7</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>2545368.2999999998</v>
+        <v>5382512.7000000002</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,16 +3276,16 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>357675.4</v>
+        <v>365170.3</v>
       </c>
       <c r="E12" s="19">
-        <v>337245.6</v>
+        <v>340517.3</v>
       </c>
       <c r="F12" s="19">
-        <v>0</v>
+        <v>379980.3</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>368177.6</v>
       </c>
       <c r="H12" s="19">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>694921</v>
+        <v>1453845.5</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3322,16 +3322,16 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="62">
-        <v>158127.29999999999</v>
+        <v>164272</v>
       </c>
       <c r="E13" s="62">
-        <v>145676.79999999999</v>
+        <v>151597.9</v>
       </c>
       <c r="F13" s="62">
-        <v>0</v>
+        <v>167401.29999999999</v>
       </c>
       <c r="G13" s="62">
-        <v>0</v>
+        <v>158900.20000000001</v>
       </c>
       <c r="H13" s="62">
         <v>0</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>303804.09999999998</v>
+        <v>642171.4</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,16 +3368,16 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>386276.5</v>
+        <v>404670.9</v>
       </c>
       <c r="E14" s="106">
-        <v>363643.1</v>
+        <v>384519.6</v>
       </c>
       <c r="F14" s="106">
-        <v>0</v>
+        <v>432005.2</v>
       </c>
       <c r="G14" s="105">
-        <v>0</v>
+        <v>426602.9</v>
       </c>
       <c r="H14" s="105">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>749919.6</v>
+        <v>1647798.6</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,16 +3413,16 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2215242.2000000002</v>
+        <v>2221195.4</v>
       </c>
       <c r="E15" s="62">
-        <v>2078770.7999999998</v>
+        <v>2084841.6</v>
       </c>
       <c r="F15" s="62">
-        <v>0</v>
+        <v>2408955.8000000003</v>
       </c>
       <c r="G15" s="62">
-        <v>0</v>
+        <v>2411335.4</v>
       </c>
       <c r="H15" s="62">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>4294013</v>
+        <v>9126328.2000000011</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,16 +3475,16 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>342132.7</v>
+        <v>335998.8</v>
       </c>
       <c r="E17" s="62">
-        <v>320460.79999999999</v>
+        <v>315821</v>
       </c>
       <c r="F17" s="62">
-        <v>0</v>
+        <v>340325.2</v>
       </c>
       <c r="G17" s="62">
-        <v>0</v>
+        <v>364071.5</v>
       </c>
       <c r="H17" s="62">
         <v>0</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>662593.5</v>
+        <v>1356216.5</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3576,16 +3576,16 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="62">
-        <v>8548408.6999999993</v>
+        <v>8548355.9000000004</v>
       </c>
       <c r="E21" s="62">
-        <v>7757998.0999999996</v>
+        <v>7758397.2000000002</v>
       </c>
       <c r="F21" s="62">
-        <v>0</v>
+        <v>8622012.9000000004</v>
       </c>
       <c r="G21" s="62">
-        <v>0</v>
+        <v>8280233.9000000004</v>
       </c>
       <c r="H21" s="62">
         <v>0</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>16306406.799999999</v>
+        <v>33208999.899999999</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3622,16 +3622,16 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="62">
-        <v>7331113.5</v>
+        <v>7331422.5</v>
       </c>
       <c r="E22" s="62">
-        <v>7374358.7999999998</v>
+        <v>7374436.7999999998</v>
       </c>
       <c r="F22" s="62">
-        <v>0</v>
+        <v>7913598.5</v>
       </c>
       <c r="G22" s="62">
-        <v>0</v>
+        <v>7172061.2000000002</v>
       </c>
       <c r="H22" s="62">
         <v>0</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>14705472.300000001</v>
+        <v>29791519</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3674,10 +3674,10 @@
         <v>-6430015.5</v>
       </c>
       <c r="F23" s="62">
-        <v>0</v>
+        <v>-6899097.4000000004</v>
       </c>
       <c r="G23" s="62">
-        <v>0</v>
+        <v>-6286138</v>
       </c>
       <c r="H23" s="62">
         <v>0</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-13088383.699999999</v>
+        <v>-26273619.100000001</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="62">
-        <v>9221154</v>
+        <v>9221410.1999999993</v>
       </c>
       <c r="E24" s="62">
-        <v>8702341.3999999985</v>
+        <v>8702818.5</v>
       </c>
       <c r="F24" s="62">
-        <v>0</v>
+        <v>9636514</v>
       </c>
       <c r="G24" s="62">
-        <v>0</v>
+        <v>9166157.1000000015</v>
       </c>
       <c r="H24" s="62">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>17923495.400000002</v>
+        <v>36726899.799999997</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3759,16 +3759,16 @@
         <v>28</v>
       </c>
       <c r="D25" s="61">
-        <v>5760698.7000000002</v>
+        <v>5760388.7000000002</v>
       </c>
       <c r="E25" s="61">
-        <v>5545483.2000000002</v>
+        <v>5545407.2000000002</v>
       </c>
       <c r="F25" s="61">
-        <v>0</v>
+        <v>6003886.9000000004</v>
       </c>
       <c r="G25" s="61">
-        <v>0</v>
+        <v>5394307.0999999996</v>
       </c>
       <c r="H25" s="61">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>11306181.9</v>
+        <v>22703989.899999999</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3804,16 +3804,16 @@
         <v>46</v>
       </c>
       <c r="D26" s="62">
-        <v>14981852.699999999</v>
+        <v>14981798.899999999</v>
       </c>
       <c r="E26" s="62">
-        <v>14247824.599999998</v>
+        <v>14248225.699999999</v>
       </c>
       <c r="F26" s="62">
-        <v>0</v>
+        <v>15640400.9</v>
       </c>
       <c r="G26" s="62">
-        <v>0</v>
+        <v>14560464.200000001</v>
       </c>
       <c r="H26" s="62">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>29229677.300000004</v>
+        <v>59430889.699999996</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,16 +3867,16 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>17539227.599999998</v>
+        <v>17538993.099999998</v>
       </c>
       <c r="E28" s="62">
-        <v>16647056.199999999</v>
+        <v>16648888.299999999</v>
       </c>
       <c r="F28" s="62">
-        <v>0</v>
+        <v>18389681.899999999</v>
       </c>
       <c r="G28" s="62">
-        <v>0</v>
+        <v>17335871.100000001</v>
       </c>
       <c r="H28" s="62">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>34186283.800000004</v>
+        <v>69913434.399999991</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,16 +3948,16 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017995.5</v>
+        <v>1017743.6</v>
       </c>
       <c r="E31" s="62">
-        <v>965998.2</v>
+        <v>964909.2</v>
       </c>
       <c r="F31" s="62">
-        <v>0</v>
+        <v>1105325.8999999999</v>
       </c>
       <c r="G31" s="62">
-        <v>0</v>
+        <v>1066943.3999999999</v>
       </c>
       <c r="H31" s="62">
         <v>0</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>1983993.7</v>
+        <v>4154922.0999999996</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3999,10 +3999,10 @@
         <v>286752</v>
       </c>
       <c r="F32" s="62">
-        <v>0</v>
+        <v>323817.5</v>
       </c>
       <c r="G32" s="62">
-        <v>0</v>
+        <v>307610.2</v>
       </c>
       <c r="H32" s="62">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>605930.6</v>
+        <v>1237358.3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4059,13 +4059,13 @@
         <v>9673.5</v>
       </c>
       <c r="E34" s="62">
-        <v>8587.2000000000007</v>
+        <v>8587.1</v>
       </c>
       <c r="F34" s="62">
-        <v>0</v>
+        <v>11100.4</v>
       </c>
       <c r="G34" s="62">
-        <v>0</v>
+        <v>9042.5</v>
       </c>
       <c r="H34" s="62">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>18260.7</v>
+        <v>38403.5</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4105,13 +4105,13 @@
         <v>14299.9</v>
       </c>
       <c r="E35" s="62">
-        <v>12885.8</v>
+        <v>12890.7</v>
       </c>
       <c r="F35" s="62">
-        <v>0</v>
+        <v>15965.6</v>
       </c>
       <c r="G35" s="62">
-        <v>0</v>
+        <v>16010.9</v>
       </c>
       <c r="H35" s="62">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>27185.699999999997</v>
+        <v>59167.1</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4148,16 +4148,16 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="62">
-        <v>536119.6</v>
+        <v>536537.19999999995</v>
       </c>
       <c r="E36" s="62">
-        <v>543275.19999999995</v>
+        <v>541986.19999999995</v>
       </c>
       <c r="F36" s="62">
-        <v>0</v>
+        <v>524929.1</v>
       </c>
       <c r="G36" s="62">
-        <v>0</v>
+        <v>478294.1</v>
       </c>
       <c r="H36" s="62">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>1079394.7999999998</v>
+        <v>2081746.6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4215,13 +4215,13 @@
         <v>222513.3</v>
       </c>
       <c r="E38" s="62">
-        <v>210076.4</v>
+        <v>210082.9</v>
       </c>
       <c r="F38" s="62">
-        <v>0</v>
+        <v>236206</v>
       </c>
       <c r="G38" s="62">
-        <v>0</v>
+        <v>225226</v>
       </c>
       <c r="H38" s="62">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>432589.69999999995</v>
+        <v>894028.2</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4264,10 +4264,10 @@
         <v>51.7</v>
       </c>
       <c r="F39" s="62">
-        <v>0</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G39" s="62">
-        <v>0</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H39" s="62">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>81.800000000000011</v>
+        <v>221.3</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4346,13 +4346,13 @@
         <v>482534.1</v>
       </c>
       <c r="E42" s="110">
-        <v>416428.79999999999</v>
+        <v>415284.3</v>
       </c>
       <c r="F42" s="110">
-        <v>0</v>
+        <v>443292.3</v>
       </c>
       <c r="G42" s="110">
-        <v>0</v>
+        <v>423454.7</v>
       </c>
       <c r="H42" s="110">
         <v>0</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>898962.89999999991</v>
+        <v>1764565.4</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4395,10 +4395,10 @@
         <v>993778.1</v>
       </c>
       <c r="F43" s="110">
-        <v>0</v>
+        <v>928639.3</v>
       </c>
       <c r="G43" s="110">
-        <v>0</v>
+        <v>983403.3</v>
       </c>
       <c r="H43" s="110">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>1938521</v>
+        <v>3850563.5999999996</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4441,10 +4441,10 @@
         <v>718127.7</v>
       </c>
       <c r="F44" s="110">
-        <v>0</v>
+        <v>789558.1</v>
       </c>
       <c r="G44" s="110">
-        <v>0</v>
+        <v>782406.4</v>
       </c>
       <c r="H44" s="110">
         <v>0</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>1510840.6</v>
+        <v>3082805.1</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4487,10 +4487,10 @@
         <v>243463</v>
       </c>
       <c r="F45" s="112">
-        <v>0</v>
+        <v>147070.79999999999</v>
       </c>
       <c r="G45" s="112">
-        <v>0</v>
+        <v>179160.3</v>
       </c>
       <c r="H45" s="112">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>544136.5</v>
+        <v>870367.60000000009</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4530,13 +4530,13 @@
         <v>2520663.4</v>
       </c>
       <c r="E46" s="110">
-        <v>2371797.5999999996</v>
+        <v>2370653.0999999996</v>
       </c>
       <c r="F46" s="110">
-        <v>0</v>
+        <v>2308560.5</v>
       </c>
       <c r="G46" s="110">
-        <v>0</v>
+        <v>2368424.6999999997</v>
       </c>
       <c r="H46" s="110">
         <v>0</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>4892461</v>
+        <v>9568301.6999999993</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,16 +4591,16 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4640473.9000000004</v>
+        <v>4640639.5999999996</v>
       </c>
       <c r="E48" s="110">
-        <v>4399424.0999999996</v>
+        <v>4395912.8999999994</v>
       </c>
       <c r="F48" s="110">
-        <v>0</v>
+        <v>4525977.5999999996</v>
       </c>
       <c r="G48" s="110">
-        <v>0</v>
+        <v>4471618.6999999993</v>
       </c>
       <c r="H48" s="110">
         <v>0</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>9039898</v>
+        <v>18034148.799999997</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4659,10 +4659,10 @@
         <v>176661.3</v>
       </c>
       <c r="F50" s="110">
-        <v>0</v>
+        <v>179608.3</v>
       </c>
       <c r="G50" s="110">
-        <v>0</v>
+        <v>163762.6</v>
       </c>
       <c r="H50" s="110">
         <v>0</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>351387</v>
+        <v>694757.9</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4704,10 +4704,10 @@
         <v>78221.3</v>
       </c>
       <c r="F51" s="110">
-        <v>0</v>
+        <v>83108.399999999994</v>
       </c>
       <c r="G51" s="110">
-        <v>0</v>
+        <v>87158.399999999994</v>
       </c>
       <c r="H51" s="110">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>162764.79999999999</v>
+        <v>333031.59999999998</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,16 +4743,16 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305895.40000000002</v>
+        <v>305842.40000000002</v>
       </c>
       <c r="E52" s="110">
-        <v>284705.40000000002</v>
+        <v>284486.90000000002</v>
       </c>
       <c r="F52" s="110">
-        <v>0</v>
+        <v>322811.7</v>
       </c>
       <c r="G52" s="110">
-        <v>0</v>
+        <v>309881</v>
       </c>
       <c r="H52" s="110">
         <v>0</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>590600.80000000005</v>
+        <v>1223022</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,16 +4807,16 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517640</v>
+        <v>10517539.9</v>
       </c>
       <c r="E54" s="116">
-        <v>10411372.6</v>
+        <v>10411457.6</v>
       </c>
       <c r="F54" s="116">
-        <v>0</v>
+        <v>10129728.699999999</v>
       </c>
       <c r="G54" s="116">
-        <v>0</v>
+        <v>10222517.1</v>
       </c>
       <c r="H54" s="116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10411372.6</v>
+        <v>10222517.1</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,16 +4852,16 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-41571.699999999997</v>
+        <v>-41534.699999999997</v>
       </c>
       <c r="E55" s="110">
-        <v>2654.7</v>
+        <v>2626.6</v>
       </c>
       <c r="F55" s="110">
-        <v>0</v>
+        <v>-71562.7</v>
       </c>
       <c r="G55" s="110">
-        <v>0</v>
+        <v>-49796.6</v>
       </c>
       <c r="H55" s="110">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-38917</v>
+        <v>-160267.4</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,16 +4915,16 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815178.899999999</v>
+        <v>22815289.199999992</v>
       </c>
       <c r="E57" s="110">
-        <v>20615814.399999995</v>
+        <v>20614140.600000001</v>
       </c>
       <c r="F57" s="110">
-        <v>0</v>
+        <v>22540062.100000005</v>
       </c>
       <c r="G57" s="110">
-        <v>0</v>
+        <v>21103880.799999997</v>
       </c>
       <c r="H57" s="110">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>43430993.299999997</v>
+        <v>87073372.700000003</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5081,16 +5081,16 @@
         <v>125</v>
       </c>
       <c r="D63" s="62">
-        <v>32683.5</v>
+        <v>32772.6</v>
       </c>
       <c r="E63" s="62">
-        <v>55168.4</v>
+        <v>55300.6</v>
       </c>
       <c r="F63" s="62">
-        <v>0</v>
+        <v>65314.8</v>
       </c>
       <c r="G63" s="62">
-        <v>0</v>
+        <v>18739.8</v>
       </c>
       <c r="H63" s="62">
         <v>0</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>87851.9</v>
+        <v>172127.8</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5132,10 +5132,10 @@
         <v>2237277.2999999998</v>
       </c>
       <c r="F64" s="62">
-        <v>0</v>
+        <v>2499114.5</v>
       </c>
       <c r="G64" s="62">
-        <v>0</v>
+        <v>2144363.7999999998</v>
       </c>
       <c r="H64" s="62">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>4590309.3</v>
+        <v>9233787.5999999996</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5171,16 +5171,16 @@
         <v>53</v>
       </c>
       <c r="D65" s="62">
-        <v>14558.1</v>
+        <v>14601.4</v>
       </c>
       <c r="E65" s="62">
-        <v>12178.7</v>
+        <v>12183.7</v>
       </c>
       <c r="F65" s="62">
-        <v>0</v>
+        <v>16768.900000000001</v>
       </c>
       <c r="G65" s="62">
-        <v>0</v>
+        <v>17610.099999999999</v>
       </c>
       <c r="H65" s="62">
         <v>0</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>26736.800000000003</v>
+        <v>61164.1</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5222,10 +5222,10 @@
         <v>11939.6</v>
       </c>
       <c r="F66" s="62">
-        <v>0</v>
+        <v>24301.3</v>
       </c>
       <c r="G66" s="62">
-        <v>0</v>
+        <v>-1316.5</v>
       </c>
       <c r="H66" s="62">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>21540</v>
+        <v>44524.800000000003</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5268,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="62">
-        <v>0</v>
+        <v>213.2</v>
       </c>
       <c r="G67" s="62">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H67" s="62">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>12.7</v>
+        <v>231.09999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5308,16 +5308,16 @@
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="62">
-        <v>1222</v>
+        <v>1325.6</v>
       </c>
       <c r="E68" s="62">
-        <v>2437.8000000000002</v>
+        <v>2237.1999999999998</v>
       </c>
       <c r="F68" s="62">
-        <v>0</v>
+        <v>-3616.4</v>
       </c>
       <c r="G68" s="62">
-        <v>0</v>
+        <v>5525</v>
       </c>
       <c r="H68" s="62">
         <v>0</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>3659.8</v>
+        <v>5471.4</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5354,16 +5354,16 @@
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="62">
-        <v>341242.4</v>
+        <v>341223.9</v>
       </c>
       <c r="E69" s="62">
-        <v>339602.6</v>
+        <v>338316.3</v>
       </c>
       <c r="F69" s="62">
-        <v>0</v>
+        <v>379753.7</v>
       </c>
       <c r="G69" s="62">
-        <v>0</v>
+        <v>379928.6</v>
       </c>
       <c r="H69" s="62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>680845</v>
+        <v>1439222.5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5400,16 +5400,16 @@
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="62">
-        <v>2752351.1</v>
+        <v>2752568.6</v>
       </c>
       <c r="E70" s="62">
-        <v>2658604.4</v>
+        <v>2657254.7000000002</v>
       </c>
       <c r="F70" s="62">
-        <v>0</v>
+        <v>2981850</v>
       </c>
       <c r="G70" s="62">
-        <v>0</v>
+        <v>2564856</v>
       </c>
       <c r="H70" s="62">
         <v>0</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>5410955.5</v>
+        <v>10956529.300000001</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5467,13 +5467,13 @@
         <v>19641330.800000001</v>
       </c>
       <c r="E72" s="110">
-        <v>17318144</v>
+        <v>17318439</v>
       </c>
       <c r="F72" s="110">
-        <v>0</v>
+        <v>19021141.800000001</v>
       </c>
       <c r="G72" s="110">
-        <v>0</v>
+        <v>18043444.399999999</v>
       </c>
       <c r="H72" s="110">
         <v>0</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>36959474.799999997</v>
+        <v>74024356</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5513,13 +5513,13 @@
         <v>633591.31612903229</v>
       </c>
       <c r="E73" s="110">
-        <v>618505.14285714284</v>
+        <v>618515.67857142852</v>
       </c>
       <c r="F73" s="110">
-        <v>0</v>
+        <v>613585.21935483871</v>
       </c>
       <c r="G73" s="110">
-        <v>0</v>
+        <v>601448.14666666661</v>
       </c>
       <c r="H73" s="110">
         <v>0</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>626048.22949308762</v>
+        <v>616785.09018049145</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,16 +5574,16 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421496.99999999627</v>
+        <v>421389.79999998957</v>
       </c>
       <c r="E75" s="110">
-        <v>639065.99999999627</v>
+        <v>638446.90000000224</v>
       </c>
       <c r="F75" s="110">
-        <v>0</v>
+        <v>537070.30000000447</v>
       </c>
       <c r="G75" s="110">
-        <v>0</v>
+        <v>495580.39999999851</v>
       </c>
       <c r="H75" s="110">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>1060562.9999999925</v>
+        <v>2092487.3999999948</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,16 +5620,16 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0855231097533949E-3</v>
+        <v>-1.0903099945906718E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1364923377092419E-3</v>
-      </c>
-      <c r="F76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" s="110" t="s">
-        <v>128</v>
+        <v>4.1627939624300364E-3</v>
+      </c>
+      <c r="F76" s="110">
+        <v>3.4870809363945605E-3</v>
+      </c>
+      <c r="G76" s="110">
+        <v>-1.1766228646782845E-3</v>
       </c>
       <c r="H76" s="110" t="s">
         <v>128</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>3.0509692279558471E-3</v>
+        <v>1.3148895750698239E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,16 +5683,16 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815178.899999999</v>
+        <v>22815289.199999992</v>
       </c>
       <c r="E78" s="110">
-        <v>20615814.399999995</v>
+        <v>20614140.600000001</v>
       </c>
       <c r="F78" s="110">
-        <v>0</v>
+        <v>22540062.100000005</v>
       </c>
       <c r="G78" s="110">
-        <v>0</v>
+        <v>21103880.799999997</v>
       </c>
       <c r="H78" s="110">
         <v>0</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>43430993.299999997</v>
+        <v>87073372.700000003</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2022\07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{890673B6-AF3A-42E5-AE7C-C194073592E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FCEC3-2304-4901-B820-E95F41968643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="516" windowWidth="22680" windowHeight="11532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="22260" windowHeight="9732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  30 May 2022</t>
+    <t xml:space="preserve"> Run Date:  29 August 2022</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3129,25 +3129,25 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759842.699999999</v>
+        <v>11759379.699999999</v>
       </c>
       <c r="E7" s="19">
-        <v>10517539.9</v>
+        <v>10517098.6</v>
       </c>
       <c r="F7" s="19">
-        <v>10411222.4</v>
+        <v>10411047.1</v>
       </c>
       <c r="G7" s="19">
-        <v>10129506.699999999</v>
+        <v>10129429.4</v>
       </c>
       <c r="H7" s="19">
-        <v>0</v>
+        <v>10220532.199999999</v>
       </c>
       <c r="I7" s="19">
-        <v>0</v>
+        <v>10550960.5</v>
       </c>
       <c r="J7" s="19">
-        <v>0</v>
+        <v>10145620</v>
       </c>
       <c r="K7" s="19">
         <v>0</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759842.699999999</v>
+        <v>11759379.699999999</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,25 +3230,25 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1287082.2</v>
+        <v>1266386.7</v>
       </c>
       <c r="E11" s="62">
-        <v>1208206.8</v>
+        <v>1182610.5</v>
       </c>
       <c r="F11" s="62">
-        <v>1429569</v>
+        <v>1385661.3</v>
       </c>
       <c r="G11" s="62">
-        <v>1457654.7</v>
+        <v>1406346.8</v>
       </c>
       <c r="H11" s="62">
-        <v>0</v>
+        <v>1408331.1</v>
       </c>
       <c r="I11" s="62">
-        <v>0</v>
+        <v>1358965.7</v>
       </c>
       <c r="J11" s="62">
-        <v>0</v>
+        <v>1418448.9</v>
       </c>
       <c r="K11" s="62">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>5382512.7000000002</v>
+        <v>9426751</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,25 +3276,25 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>365170.3</v>
+        <v>370916.3</v>
       </c>
       <c r="E12" s="19">
-        <v>340517.3</v>
+        <v>347521.2</v>
       </c>
       <c r="F12" s="19">
-        <v>379980.3</v>
+        <v>392401.7</v>
       </c>
       <c r="G12" s="19">
-        <v>368177.6</v>
+        <v>383790</v>
       </c>
       <c r="H12" s="19">
-        <v>0</v>
+        <v>383079.6</v>
       </c>
       <c r="I12" s="19">
-        <v>0</v>
+        <v>361775.6</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>374061.3</v>
       </c>
       <c r="K12" s="19">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>1453845.5</v>
+        <v>2613545.6999999997</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3322,25 +3322,25 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="62">
-        <v>164272</v>
+        <v>167767</v>
       </c>
       <c r="E13" s="62">
-        <v>151597.9</v>
+        <v>155419.20000000001</v>
       </c>
       <c r="F13" s="62">
-        <v>167401.29999999999</v>
+        <v>173375.3</v>
       </c>
       <c r="G13" s="62">
-        <v>158900.20000000001</v>
+        <v>165739.79999999999</v>
       </c>
       <c r="H13" s="62">
-        <v>0</v>
+        <v>171128.3</v>
       </c>
       <c r="I13" s="62">
-        <v>0</v>
+        <v>160885.6</v>
       </c>
       <c r="J13" s="62">
-        <v>0</v>
+        <v>163267.5</v>
       </c>
       <c r="K13" s="62">
         <v>0</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>642171.4</v>
+        <v>1157582.7000000002</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,25 +3368,25 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>404670.9</v>
+        <v>416491.3</v>
       </c>
       <c r="E14" s="106">
-        <v>384519.6</v>
+        <v>399532.2</v>
       </c>
       <c r="F14" s="106">
-        <v>432005.2</v>
+        <v>457362.9</v>
       </c>
       <c r="G14" s="105">
-        <v>426602.9</v>
+        <v>454824.9</v>
       </c>
       <c r="H14" s="105">
-        <v>0</v>
+        <v>476274.5</v>
       </c>
       <c r="I14" s="105">
-        <v>0</v>
+        <v>458993.9</v>
       </c>
       <c r="J14" s="105">
-        <v>0</v>
+        <v>472195</v>
       </c>
       <c r="K14" s="105">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>1647798.6</v>
+        <v>3135674.6999999997</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,25 +3413,25 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2221195.4</v>
+        <v>2221561.2999999998</v>
       </c>
       <c r="E15" s="62">
-        <v>2084841.6</v>
+        <v>2085083.0999999999</v>
       </c>
       <c r="F15" s="62">
-        <v>2408955.8000000003</v>
+        <v>2408801.2000000002</v>
       </c>
       <c r="G15" s="62">
-        <v>2411335.4</v>
+        <v>2410701.5</v>
       </c>
       <c r="H15" s="62">
-        <v>0</v>
+        <v>2438813.5</v>
       </c>
       <c r="I15" s="62">
-        <v>0</v>
+        <v>2340620.7999999998</v>
       </c>
       <c r="J15" s="62">
-        <v>0</v>
+        <v>2427972.7000000002</v>
       </c>
       <c r="K15" s="62">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>9126328.2000000011</v>
+        <v>16333554.099999998</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,25 +3475,25 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>335998.8</v>
+        <v>335698.7</v>
       </c>
       <c r="E17" s="62">
-        <v>315821</v>
+        <v>315629</v>
       </c>
       <c r="F17" s="62">
-        <v>340325.2</v>
+        <v>340184.9</v>
       </c>
       <c r="G17" s="62">
-        <v>364071.5</v>
+        <v>363850.3</v>
       </c>
       <c r="H17" s="62">
-        <v>0</v>
+        <v>359258.3</v>
       </c>
       <c r="I17" s="62">
-        <v>0</v>
+        <v>369846.6</v>
       </c>
       <c r="J17" s="62">
-        <v>0</v>
+        <v>394021.9</v>
       </c>
       <c r="K17" s="62">
         <v>0</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>1356216.5</v>
+        <v>2478489.6999999997</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3582,19 +3582,19 @@
         <v>7758397.2000000002</v>
       </c>
       <c r="F21" s="62">
-        <v>8622012.9000000004</v>
+        <v>8622526.9000000004</v>
       </c>
       <c r="G21" s="62">
-        <v>8280233.9000000004</v>
+        <v>8280404.0999999996</v>
       </c>
       <c r="H21" s="62">
-        <v>0</v>
+        <v>7779983.7000000002</v>
       </c>
       <c r="I21" s="62">
-        <v>0</v>
+        <v>7218825.5999999996</v>
       </c>
       <c r="J21" s="62">
-        <v>0</v>
+        <v>8496673.4000000004</v>
       </c>
       <c r="K21" s="62">
         <v>0</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>33208999.899999999</v>
+        <v>56705166.800000004</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3634,13 +3634,13 @@
         <v>7172061.2000000002</v>
       </c>
       <c r="H22" s="62">
-        <v>0</v>
+        <v>7290967.5999999996</v>
       </c>
       <c r="I22" s="62">
-        <v>0</v>
+        <v>7908691.4000000004</v>
       </c>
       <c r="J22" s="62">
-        <v>0</v>
+        <v>8138475.2999999998</v>
       </c>
       <c r="K22" s="62">
         <v>0</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>29791519</v>
+        <v>53129653.299999997</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3680,13 +3680,13 @@
         <v>-6286138</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>-5911161.5999999996</v>
       </c>
       <c r="I23" s="62">
-        <v>0</v>
+        <v>-6217850.9000000004</v>
       </c>
       <c r="J23" s="62">
-        <v>0</v>
+        <v>-6598635.9000000004</v>
       </c>
       <c r="K23" s="62">
         <v>0</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-26273619.100000001</v>
+        <v>-45001267.5</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3720,19 +3720,19 @@
         <v>8702818.5</v>
       </c>
       <c r="F24" s="62">
-        <v>9636514</v>
+        <v>9637028</v>
       </c>
       <c r="G24" s="62">
-        <v>9166157.1000000015</v>
+        <v>9166327.3000000007</v>
       </c>
       <c r="H24" s="62">
-        <v>0</v>
+        <v>9159789.7000000011</v>
       </c>
       <c r="I24" s="62">
-        <v>0</v>
+        <v>8909666.0999999996</v>
       </c>
       <c r="J24" s="62">
-        <v>0</v>
+        <v>10036512.799999999</v>
       </c>
       <c r="K24" s="62">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>36726899.799999997</v>
+        <v>64833552.599999994</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3771,13 +3771,13 @@
         <v>5394307.0999999996</v>
       </c>
       <c r="H25" s="61">
-        <v>0</v>
+        <v>5110425.5</v>
       </c>
       <c r="I25" s="61">
-        <v>0</v>
+        <v>5430495.0999999996</v>
       </c>
       <c r="J25" s="61">
-        <v>0</v>
+        <v>5779829.2000000002</v>
       </c>
       <c r="K25" s="61">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>22703989.899999999</v>
+        <v>39024739.700000003</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3810,19 +3810,19 @@
         <v>14248225.699999999</v>
       </c>
       <c r="F26" s="62">
-        <v>15640400.9</v>
+        <v>15640914.9</v>
       </c>
       <c r="G26" s="62">
-        <v>14560464.200000001</v>
+        <v>14560634.4</v>
       </c>
       <c r="H26" s="62">
-        <v>0</v>
+        <v>14270215.200000001</v>
       </c>
       <c r="I26" s="62">
-        <v>0</v>
+        <v>14340161.199999999</v>
       </c>
       <c r="J26" s="62">
-        <v>0</v>
+        <v>15816342</v>
       </c>
       <c r="K26" s="62">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>59430889.699999996</v>
+        <v>103858292.3</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,25 +3867,25 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>17538993.099999998</v>
+        <v>17539058.899999999</v>
       </c>
       <c r="E28" s="62">
-        <v>16648888.299999999</v>
+        <v>16648937.799999999</v>
       </c>
       <c r="F28" s="62">
-        <v>18389681.899999999</v>
+        <v>18389901</v>
       </c>
       <c r="G28" s="62">
-        <v>17335871.100000001</v>
+        <v>17335186.199999999</v>
       </c>
       <c r="H28" s="62">
-        <v>0</v>
+        <v>17068287</v>
       </c>
       <c r="I28" s="62">
-        <v>0</v>
+        <v>17050628.600000001</v>
       </c>
       <c r="J28" s="62">
-        <v>0</v>
+        <v>18638336.599999998</v>
       </c>
       <c r="K28" s="62">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>69913434.399999991</v>
+        <v>122670336.09999999</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,25 +3948,25 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017743.6</v>
+        <v>1017748.1</v>
       </c>
       <c r="E31" s="62">
-        <v>964909.2</v>
+        <v>964915.6</v>
       </c>
       <c r="F31" s="62">
-        <v>1105325.8999999999</v>
+        <v>1105413.3</v>
       </c>
       <c r="G31" s="62">
-        <v>1066943.3999999999</v>
+        <v>1066606.5</v>
       </c>
       <c r="H31" s="62">
-        <v>0</v>
+        <v>1052691.3</v>
       </c>
       <c r="I31" s="62">
-        <v>0</v>
+        <v>941331</v>
       </c>
       <c r="J31" s="62">
-        <v>0</v>
+        <v>1105277.8999999999</v>
       </c>
       <c r="K31" s="62">
         <v>0</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>4154922.0999999996</v>
+        <v>7253983.6999999993</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4005,13 +4005,13 @@
         <v>307610.2</v>
       </c>
       <c r="H32" s="62">
-        <v>0</v>
+        <v>315157.8</v>
       </c>
       <c r="I32" s="62">
-        <v>0</v>
+        <v>334515.8</v>
       </c>
       <c r="J32" s="62">
-        <v>0</v>
+        <v>355508</v>
       </c>
       <c r="K32" s="62">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>1237358.3</v>
+        <v>2242539.9000000004</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4068,13 +4068,13 @@
         <v>9042.5</v>
       </c>
       <c r="H34" s="62">
-        <v>0</v>
+        <v>9828.6</v>
       </c>
       <c r="I34" s="62">
-        <v>0</v>
+        <v>8375.6</v>
       </c>
       <c r="J34" s="62">
-        <v>0</v>
+        <v>10641.7</v>
       </c>
       <c r="K34" s="62">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>38403.5</v>
+        <v>67249.399999999994</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4114,13 +4114,13 @@
         <v>16010.9</v>
       </c>
       <c r="H35" s="62">
-        <v>0</v>
+        <v>14147.4</v>
       </c>
       <c r="I35" s="62">
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="J35" s="62">
-        <v>0</v>
+        <v>10459.6</v>
       </c>
       <c r="K35" s="62">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>59167.1</v>
+        <v>95214.1</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4148,25 +4148,25 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="62">
-        <v>536537.19999999995</v>
+        <v>534803.1</v>
       </c>
       <c r="E36" s="62">
-        <v>541986.19999999995</v>
+        <v>541985.9</v>
       </c>
       <c r="F36" s="62">
-        <v>524929.1</v>
+        <v>522657.9</v>
       </c>
       <c r="G36" s="62">
-        <v>478294.1</v>
+        <v>476258.3</v>
       </c>
       <c r="H36" s="62">
-        <v>0</v>
+        <v>413908.5</v>
       </c>
       <c r="I36" s="62">
-        <v>0</v>
+        <v>338378.1</v>
       </c>
       <c r="J36" s="62">
-        <v>0</v>
+        <v>409721.4</v>
       </c>
       <c r="K36" s="62">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>2081746.6</v>
+        <v>3237713.2</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4221,16 +4221,16 @@
         <v>236206</v>
       </c>
       <c r="G38" s="62">
-        <v>225226</v>
+        <v>226971.8</v>
       </c>
       <c r="H38" s="62">
-        <v>0</v>
+        <v>215460.6</v>
       </c>
       <c r="I38" s="62">
-        <v>0</v>
+        <v>214618.8</v>
       </c>
       <c r="J38" s="62">
-        <v>0</v>
+        <v>224903.8</v>
       </c>
       <c r="K38" s="62">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>894028.2</v>
+        <v>1550757.2000000002</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4270,13 +4270,13 @@
         <v>66.900000000000006</v>
       </c>
       <c r="H39" s="62">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I39" s="62">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="J39" s="62">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="K39" s="62">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>221.3</v>
+        <v>399.8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4355,13 +4355,13 @@
         <v>423454.7</v>
       </c>
       <c r="H42" s="110">
-        <v>0</v>
+        <v>438977.2</v>
       </c>
       <c r="I42" s="110">
-        <v>0</v>
+        <v>446606.3</v>
       </c>
       <c r="J42" s="110">
-        <v>0</v>
+        <v>484818</v>
       </c>
       <c r="K42" s="110">
         <v>0</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>1764565.4</v>
+        <v>3134966.9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4401,13 +4401,13 @@
         <v>983403.3</v>
       </c>
       <c r="H43" s="110">
-        <v>0</v>
+        <v>1162798.7</v>
       </c>
       <c r="I43" s="110">
-        <v>0</v>
+        <v>1081658.7</v>
       </c>
       <c r="J43" s="110">
-        <v>0</v>
+        <v>1046230.2</v>
       </c>
       <c r="K43" s="110">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>3850563.5999999996</v>
+        <v>7141251.2000000002</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4444,16 +4444,16 @@
         <v>789558.1</v>
       </c>
       <c r="G44" s="110">
-        <v>782406.4</v>
+        <v>780944.9</v>
       </c>
       <c r="H44" s="110">
-        <v>0</v>
+        <v>774785.6</v>
       </c>
       <c r="I44" s="110">
-        <v>0</v>
+        <v>754394.2</v>
       </c>
       <c r="J44" s="110">
-        <v>0</v>
+        <v>769785.4</v>
       </c>
       <c r="K44" s="110">
         <v>0</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>3082805.1</v>
+        <v>5380308.8000000007</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4493,13 +4493,13 @@
         <v>179160.3</v>
       </c>
       <c r="H45" s="112">
-        <v>0</v>
+        <v>217783.4</v>
       </c>
       <c r="I45" s="112">
-        <v>0</v>
+        <v>265929.59999999998</v>
       </c>
       <c r="J45" s="112">
-        <v>0</v>
+        <v>290379.2</v>
       </c>
       <c r="K45" s="112">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>870367.60000000009</v>
+        <v>1644459.8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4536,16 +4536,16 @@
         <v>2308560.5</v>
       </c>
       <c r="G46" s="110">
-        <v>2368424.6999999997</v>
+        <v>2366963.1999999997</v>
       </c>
       <c r="H46" s="110">
-        <v>0</v>
+        <v>2594344.9</v>
       </c>
       <c r="I46" s="110">
-        <v>0</v>
+        <v>2548588.8000000003</v>
       </c>
       <c r="J46" s="110">
-        <v>0</v>
+        <v>2591212.8000000003</v>
       </c>
       <c r="K46" s="110">
         <v>0</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>9568301.6999999993</v>
+        <v>17300986.699999999</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,25 +4591,25 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4640639.5999999996</v>
+        <v>4638910</v>
       </c>
       <c r="E48" s="110">
-        <v>4395912.8999999994</v>
+        <v>4395919</v>
       </c>
       <c r="F48" s="110">
-        <v>4525977.5999999996</v>
+        <v>4523793.8000000007</v>
       </c>
       <c r="G48" s="110">
-        <v>4471618.6999999993</v>
+        <v>4469530.2999999989</v>
       </c>
       <c r="H48" s="110">
-        <v>0</v>
+        <v>4615629.0999999996</v>
       </c>
       <c r="I48" s="110">
-        <v>0</v>
+        <v>4397279.5</v>
       </c>
       <c r="J48" s="110">
-        <v>0</v>
+        <v>4707782.3000000007</v>
       </c>
       <c r="K48" s="110">
         <v>0</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>18034148.799999997</v>
+        <v>31748844.000000004</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4665,13 +4665,13 @@
         <v>163762.6</v>
       </c>
       <c r="H50" s="110">
-        <v>0</v>
+        <v>215542.6</v>
       </c>
       <c r="I50" s="110">
-        <v>0</v>
+        <v>222353.9</v>
       </c>
       <c r="J50" s="110">
-        <v>0</v>
+        <v>237876.2</v>
       </c>
       <c r="K50" s="110">
         <v>0</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>694757.9</v>
+        <v>1370530.5999999999</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4710,13 +4710,13 @@
         <v>87158.399999999994</v>
       </c>
       <c r="H51" s="110">
-        <v>0</v>
+        <v>93410.6</v>
       </c>
       <c r="I51" s="110">
-        <v>0</v>
+        <v>89840.6</v>
       </c>
       <c r="J51" s="110">
-        <v>0</v>
+        <v>83895.5</v>
       </c>
       <c r="K51" s="110">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>333031.59999999998</v>
+        <v>600178.29999999993</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,25 +4743,25 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305842.40000000002</v>
+        <v>305843.3</v>
       </c>
       <c r="E52" s="110">
-        <v>284486.90000000002</v>
+        <v>284493.59999999998</v>
       </c>
       <c r="F52" s="110">
-        <v>322811.7</v>
+        <v>322841.90000000002</v>
       </c>
       <c r="G52" s="110">
-        <v>309881</v>
+        <v>309897.5</v>
       </c>
       <c r="H52" s="110">
-        <v>0</v>
+        <v>297505.5</v>
       </c>
       <c r="I52" s="110">
-        <v>0</v>
+        <v>276342.40000000002</v>
       </c>
       <c r="J52" s="110">
-        <v>0</v>
+        <v>318880.09999999998</v>
       </c>
       <c r="K52" s="110">
         <v>0</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>1223022</v>
+        <v>2115804.2999999998</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517539.9</v>
+        <v>10517098.6</v>
       </c>
       <c r="E54" s="116">
-        <v>10411457.6</v>
+        <v>10411047.1</v>
       </c>
       <c r="F54" s="116">
-        <v>10129728.699999999</v>
+        <v>10129620.800000001</v>
       </c>
       <c r="G54" s="116">
-        <v>10222517.1</v>
+        <v>10220532.199999999</v>
       </c>
       <c r="H54" s="116">
-        <v>0</v>
+        <v>10550960.5</v>
       </c>
       <c r="I54" s="116">
-        <v>0</v>
+        <v>10145834.300000001</v>
       </c>
       <c r="J54" s="116">
-        <v>0</v>
+        <v>10204179</v>
       </c>
       <c r="K54" s="116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10222517.1</v>
+        <v>10204179</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,25 +4852,25 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-41534.699999999997</v>
+        <v>-39806.400000000001</v>
       </c>
       <c r="E55" s="110">
-        <v>2626.6</v>
+        <v>388.9</v>
       </c>
       <c r="F55" s="110">
-        <v>-71562.7</v>
+        <v>-69266.2</v>
       </c>
       <c r="G55" s="110">
-        <v>-49796.6</v>
+        <v>-49729.599999999999</v>
       </c>
       <c r="H55" s="110">
-        <v>0</v>
+        <v>8959</v>
       </c>
       <c r="I55" s="110">
-        <v>0</v>
+        <v>-102395.6</v>
       </c>
       <c r="J55" s="110">
-        <v>0</v>
+        <v>45902.8</v>
       </c>
       <c r="K55" s="110">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-160267.4</v>
+        <v>-205947.09999999998</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,25 +4915,25 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815289.199999992</v>
+        <v>22815331.100000001</v>
       </c>
       <c r="E57" s="110">
-        <v>20614140.600000001</v>
+        <v>20611920.999999996</v>
       </c>
       <c r="F57" s="110">
-        <v>22540062.100000005</v>
+        <v>22540296.300000001</v>
       </c>
       <c r="G57" s="110">
-        <v>21103880.799999997</v>
+        <v>21103065.600000001</v>
       </c>
       <c r="H57" s="110">
-        <v>0</v>
+        <v>20755988.100000001</v>
       </c>
       <c r="I57" s="110">
-        <v>0</v>
+        <v>21162101.800000001</v>
       </c>
       <c r="J57" s="110">
-        <v>0</v>
+        <v>22692810.899999999</v>
       </c>
       <c r="K57" s="110">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>87073372.700000003</v>
+        <v>151681514.79999998</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5087,10 +5087,10 @@
         <v>55300.6</v>
       </c>
       <c r="F63" s="62">
-        <v>65314.8</v>
+        <v>65346.8</v>
       </c>
       <c r="G63" s="62">
-        <v>18739.8</v>
+        <v>18804.399999999998</v>
       </c>
       <c r="H63" s="62">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="62">
-        <v>0</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="K63" s="62">
         <v>0</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>172127.8</v>
+        <v>172529</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5135,16 +5135,16 @@
         <v>2499114.5</v>
       </c>
       <c r="G64" s="62">
-        <v>2144363.7999999998</v>
+        <v>2142799.7999999998</v>
       </c>
       <c r="H64" s="62">
-        <v>0</v>
+        <v>2109926.9</v>
       </c>
       <c r="I64" s="62">
-        <v>0</v>
+        <v>2260905.2999999998</v>
       </c>
       <c r="J64" s="62">
-        <v>0</v>
+        <v>2523278.5</v>
       </c>
       <c r="K64" s="62">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>9233787.5999999996</v>
+        <v>16126334.300000001</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5180,16 +5180,16 @@
         <v>16768.900000000001</v>
       </c>
       <c r="G65" s="62">
-        <v>17610.099999999999</v>
+        <v>17610.3</v>
       </c>
       <c r="H65" s="62">
-        <v>0</v>
+        <v>16046.5</v>
       </c>
       <c r="I65" s="62">
-        <v>0</v>
+        <v>12802.7</v>
       </c>
       <c r="J65" s="62">
-        <v>0</v>
+        <v>12211.3</v>
       </c>
       <c r="K65" s="62">
         <v>0</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>61164.1</v>
+        <v>102224.8</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5228,13 +5228,13 @@
         <v>-1316.5</v>
       </c>
       <c r="H66" s="62">
-        <v>0</v>
+        <v>10511.7</v>
       </c>
       <c r="I66" s="62">
-        <v>0</v>
+        <v>11567.2</v>
       </c>
       <c r="J66" s="62">
-        <v>0</v>
+        <v>11894.8</v>
       </c>
       <c r="K66" s="62">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>44524.800000000003</v>
+        <v>78498.5</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="62">
-        <v>0</v>
+        <v>79.3</v>
       </c>
       <c r="J67" s="62">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>231.09999999999997</v>
+        <v>310.39999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5314,19 +5314,19 @@
         <v>2237.1999999999998</v>
       </c>
       <c r="F68" s="62">
-        <v>-3616.4</v>
+        <v>-3601</v>
       </c>
       <c r="G68" s="62">
-        <v>5525</v>
+        <v>5516.2</v>
       </c>
       <c r="H68" s="62">
-        <v>0</v>
+        <v>210.1</v>
       </c>
       <c r="I68" s="62">
-        <v>0</v>
+        <v>-812.4</v>
       </c>
       <c r="J68" s="62">
-        <v>0</v>
+        <v>-1572.8</v>
       </c>
       <c r="K68" s="62">
         <v>0</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>5471.4</v>
+        <v>3302.9000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5354,25 +5354,25 @@
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="62">
-        <v>341223.9</v>
+        <v>341224.9</v>
       </c>
       <c r="E69" s="62">
-        <v>338316.3</v>
+        <v>336075.2</v>
       </c>
       <c r="F69" s="62">
-        <v>379753.7</v>
+        <v>379784.9</v>
       </c>
       <c r="G69" s="62">
-        <v>379928.6</v>
+        <v>380256.9</v>
       </c>
       <c r="H69" s="62">
-        <v>0</v>
+        <v>329516.7</v>
       </c>
       <c r="I69" s="62">
-        <v>0</v>
+        <v>330560.3</v>
       </c>
       <c r="J69" s="62">
-        <v>0</v>
+        <v>391751.5</v>
       </c>
       <c r="K69" s="62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>1439222.5</v>
+        <v>2489170.4</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5400,25 +5400,25 @@
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="62">
-        <v>2752568.6</v>
+        <v>2752569.6</v>
       </c>
       <c r="E70" s="62">
-        <v>2657254.7000000002</v>
+        <v>2655013.6000000006</v>
       </c>
       <c r="F70" s="62">
-        <v>2981850</v>
+        <v>2981928.5999999996</v>
       </c>
       <c r="G70" s="62">
-        <v>2564856</v>
+        <v>2563676.2999999998</v>
       </c>
       <c r="H70" s="62">
-        <v>0</v>
+        <v>2466211.9000000004</v>
       </c>
       <c r="I70" s="62">
-        <v>0</v>
+        <v>2615102.4</v>
       </c>
       <c r="J70" s="62">
-        <v>0</v>
+        <v>2937867.9</v>
       </c>
       <c r="K70" s="62">
         <v>0</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>10956529.300000001</v>
+        <v>18972370.300000001</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5473,16 +5473,16 @@
         <v>19021141.800000001</v>
       </c>
       <c r="G72" s="110">
-        <v>18043444.399999999</v>
+        <v>18043447.899999999</v>
       </c>
       <c r="H72" s="110">
-        <v>0</v>
+        <v>17664004.600000001</v>
       </c>
       <c r="I72" s="110">
-        <v>0</v>
+        <v>17970575.100000001</v>
       </c>
       <c r="J72" s="110">
-        <v>0</v>
+        <v>19202903.100000001</v>
       </c>
       <c r="K72" s="110">
         <v>0</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>74024356</v>
+        <v>128861842.29999998</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5519,16 +5519,16 @@
         <v>613585.21935483871</v>
       </c>
       <c r="G73" s="110">
-        <v>601448.14666666661</v>
+        <v>601448.26333333331</v>
       </c>
       <c r="H73" s="110">
-        <v>0</v>
+        <v>569806.60000000009</v>
       </c>
       <c r="I73" s="110">
-        <v>0</v>
+        <v>599019.17000000004</v>
       </c>
       <c r="J73" s="110">
-        <v>0</v>
+        <v>619448.48709677428</v>
       </c>
       <c r="K73" s="110">
         <v>0</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>616785.09018049145</v>
+        <v>607916.3906407723</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,25 +5574,25 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421389.79999998957</v>
+        <v>421430.69999999925</v>
       </c>
       <c r="E75" s="110">
-        <v>638446.90000000224</v>
+        <v>638468.39999999478</v>
       </c>
       <c r="F75" s="110">
-        <v>537070.30000000447</v>
+        <v>537225.90000000224</v>
       </c>
       <c r="G75" s="110">
-        <v>495580.39999999851</v>
+        <v>495941.40000000224</v>
       </c>
       <c r="H75" s="110">
-        <v>0</v>
+        <v>625771.60000000149</v>
       </c>
       <c r="I75" s="110">
-        <v>0</v>
+        <v>576424.30000000075</v>
       </c>
       <c r="J75" s="110">
-        <v>0</v>
+        <v>552039.89999999851</v>
       </c>
       <c r="K75" s="110">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>2092487.3999999948</v>
+        <v>3847302.1999999993</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,25 +5620,25 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0903099945906718E-3</v>
+        <v>-1.0884795741726331E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1627939624300364E-3</v>
+        <v>4.1643265831428911E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.4870809363945605E-3</v>
+        <v>3.4940909807120151E-3</v>
       </c>
       <c r="G76" s="110">
-        <v>-1.1766228646782845E-3</v>
-      </c>
-      <c r="H76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="J76" s="110" t="s">
-        <v>128</v>
+        <v>-1.1591309454760351E-3</v>
+      </c>
+      <c r="H76" s="110">
+        <v>-4.4501152325914185E-3</v>
+      </c>
+      <c r="I76" s="110">
+        <v>-5.3279602743799377E-3</v>
+      </c>
+      <c r="J76" s="110">
+        <v>-3.6151187911195553E-3</v>
       </c>
       <c r="K76" s="110" t="s">
         <v>128</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>1.3148895750698239E-3</v>
+        <v>-1.121225853862454E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,25 +5683,25 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815289.199999992</v>
+        <v>22815331.100000001</v>
       </c>
       <c r="E78" s="110">
-        <v>20614140.600000001</v>
+        <v>20611920.999999996</v>
       </c>
       <c r="F78" s="110">
-        <v>22540062.100000005</v>
+        <v>22540296.300000001</v>
       </c>
       <c r="G78" s="110">
-        <v>21103880.799999997</v>
+        <v>21103065.600000001</v>
       </c>
       <c r="H78" s="110">
-        <v>0</v>
+        <v>20755988.100000001</v>
       </c>
       <c r="I78" s="110">
-        <v>0</v>
+        <v>21162101.800000001</v>
       </c>
       <c r="J78" s="110">
-        <v>0</v>
+        <v>22692810.899999999</v>
       </c>
       <c r="K78" s="110">
         <v>0</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>87073372.700000003</v>
+        <v>151681514.79999998</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2022\07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FCEC3-2304-4901-B820-E95F41968643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BB240-F7B6-4692-A35F-A0AE705740A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="22260" windowHeight="9732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="432" yWindow="1092" windowWidth="22752" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 August 2022</t>
+    <t xml:space="preserve"> Run Date:  29 September 2022</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3129,28 +3129,28 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759379.699999999</v>
+        <v>11759402.1</v>
       </c>
       <c r="E7" s="19">
-        <v>10517098.6</v>
+        <v>10517133.5</v>
       </c>
       <c r="F7" s="19">
-        <v>10411047.1</v>
+        <v>10411076.800000001</v>
       </c>
       <c r="G7" s="19">
-        <v>10129429.4</v>
+        <v>10129420.9</v>
       </c>
       <c r="H7" s="19">
-        <v>10220532.199999999</v>
+        <v>10220772.9</v>
       </c>
       <c r="I7" s="19">
-        <v>10550960.5</v>
+        <v>10551041.5</v>
       </c>
       <c r="J7" s="19">
-        <v>10145620</v>
+        <v>10144974.4</v>
       </c>
       <c r="K7" s="19">
-        <v>0</v>
+        <v>10203445.4</v>
       </c>
       <c r="L7" s="19">
         <v>0</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759379.699999999</v>
+        <v>11759402.1</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,28 +3230,28 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1266386.7</v>
+        <v>1263684.8</v>
       </c>
       <c r="E11" s="62">
-        <v>1182610.5</v>
+        <v>1179326.7</v>
       </c>
       <c r="F11" s="62">
-        <v>1385661.3</v>
+        <v>1377583.2</v>
       </c>
       <c r="G11" s="62">
-        <v>1406346.8</v>
+        <v>1396333.9</v>
       </c>
       <c r="H11" s="62">
-        <v>1408331.1</v>
+        <v>1395547.7</v>
       </c>
       <c r="I11" s="62">
-        <v>1358965.7</v>
+        <v>1345102.2</v>
       </c>
       <c r="J11" s="62">
-        <v>1418448.9</v>
+        <v>1404240</v>
       </c>
       <c r="K11" s="62">
-        <v>0</v>
+        <v>1446204.5</v>
       </c>
       <c r="L11" s="62">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>9426751</v>
+        <v>10808023</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,28 +3276,28 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>370916.3</v>
+        <v>372114.2</v>
       </c>
       <c r="E12" s="19">
-        <v>347521.2</v>
+        <v>349123.9</v>
       </c>
       <c r="F12" s="19">
-        <v>392401.7</v>
+        <v>396229.8</v>
       </c>
       <c r="G12" s="19">
-        <v>383790</v>
+        <v>388410.8</v>
       </c>
       <c r="H12" s="19">
-        <v>383079.6</v>
+        <v>389562.4</v>
       </c>
       <c r="I12" s="19">
-        <v>361775.6</v>
+        <v>369126.1</v>
       </c>
       <c r="J12" s="19">
-        <v>374061.3</v>
+        <v>381494.9</v>
       </c>
       <c r="K12" s="19">
-        <v>0</v>
+        <v>379174.2</v>
       </c>
       <c r="L12" s="19">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>2613545.6999999997</v>
+        <v>3025236.3000000003</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3325,25 +3325,25 @@
         <v>167767</v>
       </c>
       <c r="E13" s="62">
-        <v>155419.20000000001</v>
+        <v>155850.79999999999</v>
       </c>
       <c r="F13" s="62">
-        <v>173375.3</v>
+        <v>174894.9</v>
       </c>
       <c r="G13" s="62">
-        <v>165739.79999999999</v>
+        <v>168019.1</v>
       </c>
       <c r="H13" s="62">
-        <v>171128.3</v>
+        <v>173107.8</v>
       </c>
       <c r="I13" s="62">
-        <v>160885.6</v>
+        <v>162509.29999999999</v>
       </c>
       <c r="J13" s="62">
-        <v>163267.5</v>
+        <v>165169.9</v>
       </c>
       <c r="K13" s="62">
-        <v>0</v>
+        <v>166794.79999999999</v>
       </c>
       <c r="L13" s="62">
         <v>0</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1157582.7000000002</v>
+        <v>1334113.5999999999</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,28 +3368,28 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>416491.3</v>
+        <v>417994.8</v>
       </c>
       <c r="E14" s="106">
-        <v>399532.2</v>
+        <v>400780.5</v>
       </c>
       <c r="F14" s="106">
-        <v>457362.9</v>
+        <v>460043.6</v>
       </c>
       <c r="G14" s="105">
-        <v>454824.9</v>
+        <v>457963.9</v>
       </c>
       <c r="H14" s="105">
-        <v>476274.5</v>
+        <v>480623.3</v>
       </c>
       <c r="I14" s="105">
-        <v>458993.9</v>
+        <v>463922.3</v>
       </c>
       <c r="J14" s="105">
-        <v>472195</v>
+        <v>477525.3</v>
       </c>
       <c r="K14" s="105">
-        <v>0</v>
+        <v>478797.5</v>
       </c>
       <c r="L14" s="105">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>3135674.6999999997</v>
+        <v>3637651.1999999993</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,28 +3413,28 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2221561.2999999998</v>
+        <v>2221560.7999999998</v>
       </c>
       <c r="E15" s="62">
-        <v>2085083.0999999999</v>
+        <v>2085081.9000000001</v>
       </c>
       <c r="F15" s="62">
-        <v>2408801.2000000002</v>
+        <v>2408751.5</v>
       </c>
       <c r="G15" s="62">
-        <v>2410701.5</v>
+        <v>2410727.7000000002</v>
       </c>
       <c r="H15" s="62">
-        <v>2438813.5</v>
+        <v>2438841.2000000002</v>
       </c>
       <c r="I15" s="62">
-        <v>2340620.7999999998</v>
+        <v>2340659.9</v>
       </c>
       <c r="J15" s="62">
-        <v>2427972.7000000002</v>
+        <v>2428430.0999999996</v>
       </c>
       <c r="K15" s="62">
-        <v>0</v>
+        <v>2470971</v>
       </c>
       <c r="L15" s="62">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>16333554.099999998</v>
+        <v>18805024.100000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3490,13 +3490,13 @@
         <v>359258.3</v>
       </c>
       <c r="I17" s="62">
-        <v>369846.6</v>
+        <v>369849.8</v>
       </c>
       <c r="J17" s="62">
-        <v>394021.9</v>
+        <v>394040.2</v>
       </c>
       <c r="K17" s="62">
-        <v>0</v>
+        <v>408635.6</v>
       </c>
       <c r="L17" s="62">
         <v>0</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>2478489.6999999997</v>
+        <v>2887146.8000000003</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3591,13 +3591,13 @@
         <v>7779983.7000000002</v>
       </c>
       <c r="I21" s="62">
-        <v>7218825.5999999996</v>
+        <v>7218805.7000000002</v>
       </c>
       <c r="J21" s="62">
-        <v>8496673.4000000004</v>
+        <v>8496884.8000000007</v>
       </c>
       <c r="K21" s="62">
-        <v>0</v>
+        <v>8525958.8000000007</v>
       </c>
       <c r="L21" s="62">
         <v>0</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>56705166.800000004</v>
+        <v>65231317.100000009</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3640,10 +3640,10 @@
         <v>7908691.4000000004</v>
       </c>
       <c r="J22" s="62">
-        <v>8138475.2999999998</v>
+        <v>8138101.2999999998</v>
       </c>
       <c r="K22" s="62">
-        <v>0</v>
+        <v>8213165</v>
       </c>
       <c r="L22" s="62">
         <v>0</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>53129653.299999997</v>
+        <v>61342444.299999997</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3689,7 +3689,7 @@
         <v>-6598635.9000000004</v>
       </c>
       <c r="K23" s="62">
-        <v>0</v>
+        <v>-6375689.0999999996</v>
       </c>
       <c r="L23" s="62">
         <v>0</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-45001267.5</v>
+        <v>-51376956.600000001</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3729,13 +3729,13 @@
         <v>9159789.7000000011</v>
       </c>
       <c r="I24" s="62">
-        <v>8909666.0999999996</v>
+        <v>8909646.2000000011</v>
       </c>
       <c r="J24" s="62">
-        <v>10036512.799999999</v>
+        <v>10036350.200000001</v>
       </c>
       <c r="K24" s="62">
-        <v>0</v>
+        <v>10363434.700000001</v>
       </c>
       <c r="L24" s="62">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>64833552.599999994</v>
+        <v>75196804.800000012</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3777,10 +3777,10 @@
         <v>5430495.0999999996</v>
       </c>
       <c r="J25" s="61">
-        <v>5779829.2000000002</v>
+        <v>5785935.2000000002</v>
       </c>
       <c r="K25" s="61">
-        <v>0</v>
+        <v>5590118.9000000004</v>
       </c>
       <c r="L25" s="61">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>39024739.700000003</v>
+        <v>44620964.600000001</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3819,13 +3819,13 @@
         <v>14270215.200000001</v>
       </c>
       <c r="I26" s="62">
-        <v>14340161.199999999</v>
+        <v>14340141.300000001</v>
       </c>
       <c r="J26" s="62">
-        <v>15816342</v>
+        <v>15822285.400000002</v>
       </c>
       <c r="K26" s="62">
-        <v>0</v>
+        <v>15953553.600000001</v>
       </c>
       <c r="L26" s="62">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>103858292.3</v>
+        <v>119817769.40000001</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,28 +3867,28 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>17539058.899999999</v>
+        <v>17539058.399999999</v>
       </c>
       <c r="E28" s="62">
-        <v>16648937.799999999</v>
+        <v>16648936.6</v>
       </c>
       <c r="F28" s="62">
-        <v>18389901</v>
+        <v>18389851.299999997</v>
       </c>
       <c r="G28" s="62">
-        <v>17335186.199999999</v>
+        <v>17335212.400000002</v>
       </c>
       <c r="H28" s="62">
-        <v>17068287</v>
+        <v>17068314.700000003</v>
       </c>
       <c r="I28" s="62">
-        <v>17050628.600000001</v>
+        <v>17050651</v>
       </c>
       <c r="J28" s="62">
-        <v>18638336.599999998</v>
+        <v>18644755.699999999</v>
       </c>
       <c r="K28" s="62">
-        <v>0</v>
+        <v>18833160.200000003</v>
       </c>
       <c r="L28" s="62">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>122670336.09999999</v>
+        <v>141509940.30000001</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,28 +3948,28 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017748.1</v>
+        <v>1017761.1</v>
       </c>
       <c r="E31" s="62">
-        <v>964915.6</v>
+        <v>964911.6</v>
       </c>
       <c r="F31" s="62">
-        <v>1105413.3</v>
+        <v>1105428.3</v>
       </c>
       <c r="G31" s="62">
-        <v>1066606.5</v>
+        <v>1066596.5</v>
       </c>
       <c r="H31" s="62">
-        <v>1052691.3</v>
+        <v>1052527.3</v>
       </c>
       <c r="I31" s="62">
         <v>941331</v>
       </c>
       <c r="J31" s="62">
-        <v>1105277.8999999999</v>
+        <v>1104730.3</v>
       </c>
       <c r="K31" s="62">
-        <v>0</v>
+        <v>1059826.6000000001</v>
       </c>
       <c r="L31" s="62">
         <v>0</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>7253983.6999999993</v>
+        <v>8313112.6999999993</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4014,7 +4014,7 @@
         <v>355508</v>
       </c>
       <c r="K32" s="62">
-        <v>0</v>
+        <v>355178.7</v>
       </c>
       <c r="L32" s="62">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>2242539.9000000004</v>
+        <v>2597718.6000000006</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4074,10 +4074,10 @@
         <v>8375.6</v>
       </c>
       <c r="J34" s="62">
-        <v>10641.7</v>
+        <v>10639.6</v>
       </c>
       <c r="K34" s="62">
-        <v>0</v>
+        <v>9045.5</v>
       </c>
       <c r="L34" s="62">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>67249.399999999994</v>
+        <v>76292.800000000003</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4123,7 +4123,7 @@
         <v>10459.6</v>
       </c>
       <c r="K35" s="62">
-        <v>0</v>
+        <v>10852.1</v>
       </c>
       <c r="L35" s="62">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>95214.1</v>
+        <v>106066.20000000001</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4154,22 +4154,22 @@
         <v>541985.9</v>
       </c>
       <c r="F36" s="62">
-        <v>522657.9</v>
+        <v>522654.4</v>
       </c>
       <c r="G36" s="62">
-        <v>476258.3</v>
+        <v>476437.8</v>
       </c>
       <c r="H36" s="62">
-        <v>413908.5</v>
+        <v>413885.1</v>
       </c>
       <c r="I36" s="62">
-        <v>338378.1</v>
+        <v>338219.5</v>
       </c>
       <c r="J36" s="62">
-        <v>409721.4</v>
+        <v>409382.7</v>
       </c>
       <c r="K36" s="62">
-        <v>0</v>
+        <v>471154.8</v>
       </c>
       <c r="L36" s="62">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>3237713.2</v>
+        <v>3708523.3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4233,7 +4233,7 @@
         <v>224903.8</v>
       </c>
       <c r="K38" s="62">
-        <v>0</v>
+        <v>217745.4</v>
       </c>
       <c r="L38" s="62">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>1550757.2000000002</v>
+        <v>1768502.6</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4279,7 +4279,7 @@
         <v>57.1</v>
       </c>
       <c r="K39" s="62">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="L39" s="62">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>399.8</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4361,10 +4361,10 @@
         <v>446606.3</v>
       </c>
       <c r="J42" s="110">
-        <v>484818</v>
+        <v>484817.9</v>
       </c>
       <c r="K42" s="110">
-        <v>0</v>
+        <v>458210.7</v>
       </c>
       <c r="L42" s="110">
         <v>0</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>3134966.9</v>
+        <v>3593177.5</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4410,7 +4410,7 @@
         <v>1046230.2</v>
       </c>
       <c r="K43" s="110">
-        <v>0</v>
+        <v>1060106.5</v>
       </c>
       <c r="L43" s="110">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>7141251.2000000002</v>
+        <v>8201357.7000000002</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4456,7 +4456,7 @@
         <v>769785.4</v>
       </c>
       <c r="K44" s="110">
-        <v>0</v>
+        <v>793088.5</v>
       </c>
       <c r="L44" s="110">
         <v>0</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>5380308.8000000007</v>
+        <v>6173397.3000000007</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4502,7 +4502,7 @@
         <v>290379.2</v>
       </c>
       <c r="K45" s="112">
-        <v>0</v>
+        <v>230578.5</v>
       </c>
       <c r="L45" s="112">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>1644459.8</v>
+        <v>1875038.3</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4545,10 +4545,10 @@
         <v>2548588.8000000003</v>
       </c>
       <c r="J46" s="110">
-        <v>2591212.8000000003</v>
+        <v>2591212.7000000002</v>
       </c>
       <c r="K46" s="110">
-        <v>0</v>
+        <v>2541984.2000000002</v>
       </c>
       <c r="L46" s="110">
         <v>0</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>17300986.699999999</v>
+        <v>19842970.800000001</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,28 +4591,28 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4638910</v>
+        <v>4638923</v>
       </c>
       <c r="E48" s="110">
-        <v>4395919</v>
+        <v>4395915</v>
       </c>
       <c r="F48" s="110">
-        <v>4523793.8000000007</v>
+        <v>4523805.3000000007</v>
       </c>
       <c r="G48" s="110">
-        <v>4469530.2999999989</v>
+        <v>4469699.7999999989</v>
       </c>
       <c r="H48" s="110">
-        <v>4615629.0999999996</v>
+        <v>4615441.7</v>
       </c>
       <c r="I48" s="110">
-        <v>4397279.5</v>
+        <v>4397120.9000000004</v>
       </c>
       <c r="J48" s="110">
-        <v>4707782.3000000007</v>
+        <v>4706893.8000000007</v>
       </c>
       <c r="K48" s="110">
-        <v>0</v>
+        <v>4665803.5</v>
       </c>
       <c r="L48" s="110">
         <v>0</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>31748844.000000004</v>
+        <v>36413603</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4674,7 +4674,7 @@
         <v>237876.2</v>
       </c>
       <c r="K50" s="110">
-        <v>0</v>
+        <v>242065.4</v>
       </c>
       <c r="L50" s="110">
         <v>0</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>1370530.5999999999</v>
+        <v>1612595.9999999998</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4716,10 +4716,10 @@
         <v>89840.6</v>
       </c>
       <c r="J51" s="110">
-        <v>83895.5</v>
+        <v>83846.5</v>
       </c>
       <c r="K51" s="110">
-        <v>0</v>
+        <v>65062.6</v>
       </c>
       <c r="L51" s="110">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>600178.29999999993</v>
+        <v>665191.89999999991</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,28 +4743,28 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305843.3</v>
+        <v>305846</v>
       </c>
       <c r="E52" s="110">
-        <v>284493.59999999998</v>
+        <v>284499.09999999998</v>
       </c>
       <c r="F52" s="110">
-        <v>322841.90000000002</v>
+        <v>322681</v>
       </c>
       <c r="G52" s="110">
-        <v>309897.5</v>
+        <v>309873.8</v>
       </c>
       <c r="H52" s="110">
-        <v>297505.5</v>
+        <v>297469.2</v>
       </c>
       <c r="I52" s="110">
-        <v>276342.40000000002</v>
+        <v>276316.3</v>
       </c>
       <c r="J52" s="110">
-        <v>318880.09999999998</v>
+        <v>318720.90000000002</v>
       </c>
       <c r="K52" s="110">
-        <v>0</v>
+        <v>308989.59999999998</v>
       </c>
       <c r="L52" s="110">
         <v>0</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>2115804.2999999998</v>
+        <v>2424395.9</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,28 +4807,28 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517098.6</v>
+        <v>10517133.5</v>
       </c>
       <c r="E54" s="116">
-        <v>10411047.1</v>
+        <v>10411076.800000001</v>
       </c>
       <c r="F54" s="116">
-        <v>10129620.800000001</v>
+        <v>10129612.300000001</v>
       </c>
       <c r="G54" s="116">
-        <v>10220532.199999999</v>
+        <v>10220772.9</v>
       </c>
       <c r="H54" s="116">
-        <v>10550960.5</v>
+        <v>10551041.5</v>
       </c>
       <c r="I54" s="116">
-        <v>10145834.300000001</v>
+        <v>10145032.6</v>
       </c>
       <c r="J54" s="116">
-        <v>10204179</v>
+        <v>10203450</v>
       </c>
       <c r="K54" s="116">
-        <v>0</v>
+        <v>10407058</v>
       </c>
       <c r="L54" s="116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10204179</v>
+        <v>10407058</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,7 +4852,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-39806.400000000001</v>
+        <v>-39811.800000000003</v>
       </c>
       <c r="E55" s="110">
         <v>388.9</v>
@@ -4861,19 +4861,19 @@
         <v>-69266.2</v>
       </c>
       <c r="G55" s="110">
-        <v>-49729.599999999999</v>
+        <v>-49676.1</v>
       </c>
       <c r="H55" s="110">
         <v>8959</v>
       </c>
       <c r="I55" s="110">
-        <v>-102395.6</v>
+        <v>-103136.3</v>
       </c>
       <c r="J55" s="110">
-        <v>45902.8</v>
+        <v>46380.9</v>
       </c>
       <c r="K55" s="110">
-        <v>0</v>
+        <v>-22227.1</v>
       </c>
       <c r="L55" s="110">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-205947.09999999998</v>
+        <v>-228388.7</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,28 +4915,28 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815331.100000001</v>
+        <v>22815323</v>
       </c>
       <c r="E57" s="110">
-        <v>20611920.999999996</v>
+        <v>20611915.5</v>
       </c>
       <c r="F57" s="110">
-        <v>22540296.300000001</v>
+        <v>22540457.199999999</v>
       </c>
       <c r="G57" s="110">
-        <v>21103065.600000001</v>
+        <v>21103089.300000001</v>
       </c>
       <c r="H57" s="110">
-        <v>20755988.100000001</v>
+        <v>20756024.400000006</v>
       </c>
       <c r="I57" s="110">
-        <v>21162101.800000001</v>
+        <v>21162133.699999996</v>
       </c>
       <c r="J57" s="110">
-        <v>22692810.899999999</v>
+        <v>22699111.199999996</v>
       </c>
       <c r="K57" s="110">
-        <v>0</v>
+        <v>22657006.399999999</v>
       </c>
       <c r="L57" s="110">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>151681514.79999998</v>
+        <v>174345060.69999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5102,7 +5102,7 @@
         <v>304.60000000000002</v>
       </c>
       <c r="K63" s="62">
-        <v>0</v>
+        <v>436.6</v>
       </c>
       <c r="L63" s="62">
         <v>0</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>172529</v>
+        <v>172965.6</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5147,7 +5147,7 @@
         <v>2523278.5</v>
       </c>
       <c r="K64" s="62">
-        <v>0</v>
+        <v>2541851.4</v>
       </c>
       <c r="L64" s="62">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>16126334.300000001</v>
+        <v>18668185.699999999</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5189,10 +5189,10 @@
         <v>12802.7</v>
       </c>
       <c r="J65" s="62">
-        <v>12211.3</v>
+        <v>12257.8</v>
       </c>
       <c r="K65" s="62">
-        <v>0</v>
+        <v>12666.1</v>
       </c>
       <c r="L65" s="62">
         <v>0</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>102224.8</v>
+        <v>114937.40000000001</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5237,7 +5237,7 @@
         <v>11894.8</v>
       </c>
       <c r="K66" s="62">
-        <v>0</v>
+        <v>20045.8</v>
       </c>
       <c r="L66" s="62">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>78498.5</v>
+        <v>98544.3</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5323,13 +5323,13 @@
         <v>210.1</v>
       </c>
       <c r="I68" s="62">
-        <v>-812.4</v>
+        <v>-824.4</v>
       </c>
       <c r="J68" s="62">
-        <v>-1572.8</v>
+        <v>-1353.2</v>
       </c>
       <c r="K68" s="62">
-        <v>0</v>
+        <v>2213.1999999999998</v>
       </c>
       <c r="L68" s="62">
         <v>0</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>3302.9000000000005</v>
+        <v>5723.7000000000007</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5372,10 +5372,10 @@
         <v>330560.3</v>
       </c>
       <c r="J69" s="62">
-        <v>391751.5</v>
+        <v>391116.5</v>
       </c>
       <c r="K69" s="62">
-        <v>0</v>
+        <v>410029.1</v>
       </c>
       <c r="L69" s="62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>2489170.4</v>
+        <v>2898564.5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5415,13 +5415,13 @@
         <v>2466211.9000000004</v>
       </c>
       <c r="I70" s="62">
-        <v>2615102.4</v>
+        <v>2615090.4</v>
       </c>
       <c r="J70" s="62">
-        <v>2937867.9</v>
+        <v>2937498.9999999995</v>
       </c>
       <c r="K70" s="62">
-        <v>0</v>
+        <v>2987242.2</v>
       </c>
       <c r="L70" s="62">
         <v>0</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>18972370.300000001</v>
+        <v>21959231.600000001</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5482,10 +5482,10 @@
         <v>17970575.100000001</v>
       </c>
       <c r="J72" s="110">
-        <v>19202903.100000001</v>
+        <v>19202911.899999999</v>
       </c>
       <c r="K72" s="110">
-        <v>0</v>
+        <v>19079101.699999999</v>
       </c>
       <c r="L72" s="110">
         <v>0</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>128861842.29999998</v>
+        <v>147940952.79999998</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5528,10 +5528,10 @@
         <v>599019.17000000004</v>
       </c>
       <c r="J73" s="110">
-        <v>619448.48709677428</v>
+        <v>619448.77096774185</v>
       </c>
       <c r="K73" s="110">
-        <v>0</v>
+        <v>615454.8935483871</v>
       </c>
       <c r="L73" s="110">
         <v>0</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>607916.3906407723</v>
+        <v>608858.7389880952</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,28 +5574,28 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421430.69999999925</v>
+        <v>421422.59999999776</v>
       </c>
       <c r="E75" s="110">
-        <v>638468.39999999478</v>
+        <v>638462.89999999851</v>
       </c>
       <c r="F75" s="110">
-        <v>537225.90000000224</v>
+        <v>537386.80000000075</v>
       </c>
       <c r="G75" s="110">
-        <v>495941.40000000224</v>
+        <v>495965.10000000149</v>
       </c>
       <c r="H75" s="110">
-        <v>625771.60000000149</v>
+        <v>625807.90000000596</v>
       </c>
       <c r="I75" s="110">
-        <v>576424.30000000075</v>
+        <v>576468.19999999553</v>
       </c>
       <c r="J75" s="110">
-        <v>552039.89999999851</v>
+        <v>558700.29999999702</v>
       </c>
       <c r="K75" s="110">
-        <v>0</v>
+        <v>590662.5</v>
       </c>
       <c r="L75" s="110">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>3847302.1999999993</v>
+        <v>4444876.299999997</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,28 +5620,28 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0884795741726331E-3</v>
+        <v>-1.0888420677874914E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1643265831428911E-3</v>
+        <v>4.1640535062048333E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.4940909807120151E-3</v>
+        <v>3.5013525309725291E-3</v>
       </c>
       <c r="G76" s="110">
-        <v>-1.1591309454760351E-3</v>
+        <v>-1.1579781913571069E-3</v>
       </c>
       <c r="H76" s="110">
-        <v>-4.4501152325914185E-3</v>
+        <v>-4.4482958914580347E-3</v>
       </c>
       <c r="I76" s="110">
-        <v>-5.3279602743799377E-3</v>
+        <v>-5.325808064625721E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>-3.6151187911195553E-3</v>
-      </c>
-      <c r="K76" s="110" t="s">
-        <v>128</v>
+        <v>-3.3122647559060206E-3</v>
+      </c>
+      <c r="K76" s="110">
+        <v>-3.4652070369617419E-3</v>
       </c>
       <c r="L76" s="110" t="s">
         <v>128</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-1.121225853862454E-3</v>
+        <v>-1.1132989970918755E-2</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,28 +5683,28 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815331.100000001</v>
+        <v>22815323</v>
       </c>
       <c r="E78" s="110">
-        <v>20611920.999999996</v>
+        <v>20611915.5</v>
       </c>
       <c r="F78" s="110">
-        <v>22540296.300000001</v>
+        <v>22540457.199999999</v>
       </c>
       <c r="G78" s="110">
-        <v>21103065.600000001</v>
+        <v>21103089.300000001</v>
       </c>
       <c r="H78" s="110">
-        <v>20755988.100000001</v>
+        <v>20756024.400000006</v>
       </c>
       <c r="I78" s="110">
-        <v>21162101.800000001</v>
+        <v>21162133.699999996</v>
       </c>
       <c r="J78" s="110">
-        <v>22692810.899999999</v>
+        <v>22699111.199999996</v>
       </c>
       <c r="K78" s="110">
-        <v>0</v>
+        <v>22657006.399999999</v>
       </c>
       <c r="L78" s="110">
         <v>0</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>151681514.79999998</v>
+        <v>174345060.69999999</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103BB240-F7B6-4692-A35F-A0AE705740A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8E6BE-DD64-457F-A1CA-F30E1DAD09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="1092" windowWidth="22752" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="900" windowWidth="21756" windowHeight="11256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 September 2022</t>
+    <t xml:space="preserve"> Run Date:  27 October 2022</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3129,31 +3129,31 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759402.1</v>
+        <v>11759311.6</v>
       </c>
       <c r="E7" s="19">
-        <v>10517133.5</v>
+        <v>10517043</v>
       </c>
       <c r="F7" s="19">
-        <v>10411076.800000001</v>
+        <v>10410986.300000001</v>
       </c>
       <c r="G7" s="19">
-        <v>10129420.9</v>
+        <v>10129330.4</v>
       </c>
       <c r="H7" s="19">
-        <v>10220772.9</v>
+        <v>10217233.6</v>
       </c>
       <c r="I7" s="19">
-        <v>10551041.5</v>
+        <v>10548738.5</v>
       </c>
       <c r="J7" s="19">
-        <v>10144974.4</v>
+        <v>10143463</v>
       </c>
       <c r="K7" s="19">
-        <v>10203445.4</v>
+        <v>10201271.9</v>
       </c>
       <c r="L7" s="19">
-        <v>0</v>
+        <v>10392862.5</v>
       </c>
       <c r="M7" s="19">
         <v>0</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759402.1</v>
+        <v>11759311.6</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,31 +3230,31 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1263684.8</v>
+        <v>1259513.8999999999</v>
       </c>
       <c r="E11" s="62">
-        <v>1179326.7</v>
+        <v>1175771.8999999999</v>
       </c>
       <c r="F11" s="62">
-        <v>1377583.2</v>
+        <v>1373653</v>
       </c>
       <c r="G11" s="62">
-        <v>1396333.9</v>
+        <v>1393746.8</v>
       </c>
       <c r="H11" s="62">
-        <v>1395547.7</v>
+        <v>1392305</v>
       </c>
       <c r="I11" s="62">
-        <v>1345102.2</v>
+        <v>1341248.8999999999</v>
       </c>
       <c r="J11" s="62">
-        <v>1404240</v>
+        <v>1401588.9</v>
       </c>
       <c r="K11" s="62">
-        <v>1446204.5</v>
+        <v>1445107.3</v>
       </c>
       <c r="L11" s="62">
-        <v>0</v>
+        <v>1375776.6</v>
       </c>
       <c r="M11" s="62">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>10808023</v>
+        <v>12158712.300000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3282,25 +3282,25 @@
         <v>349123.9</v>
       </c>
       <c r="F12" s="19">
-        <v>396229.8</v>
+        <v>396230.8</v>
       </c>
       <c r="G12" s="19">
         <v>388410.8</v>
       </c>
       <c r="H12" s="19">
-        <v>389562.4</v>
+        <v>389653.9</v>
       </c>
       <c r="I12" s="19">
-        <v>369126.1</v>
+        <v>369567.1</v>
       </c>
       <c r="J12" s="19">
-        <v>381494.9</v>
+        <v>381023.7</v>
       </c>
       <c r="K12" s="19">
-        <v>379174.2</v>
+        <v>376743.3</v>
       </c>
       <c r="L12" s="19">
-        <v>0</v>
+        <v>362663.5</v>
       </c>
       <c r="M12" s="19">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>3025236.3000000003</v>
+        <v>3385531.2</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3340,13 +3340,13 @@
         <v>162509.29999999999</v>
       </c>
       <c r="J13" s="62">
-        <v>165169.9</v>
+        <v>165282.5</v>
       </c>
       <c r="K13" s="62">
-        <v>166794.79999999999</v>
+        <v>167443.70000000001</v>
       </c>
       <c r="L13" s="62">
-        <v>0</v>
+        <v>164932.70000000001</v>
       </c>
       <c r="M13" s="62">
         <v>0</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1334113.5999999999</v>
+        <v>1499807.7999999998</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,31 +3368,31 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>417994.8</v>
+        <v>421787.2</v>
       </c>
       <c r="E14" s="106">
-        <v>400780.5</v>
+        <v>404130.9</v>
       </c>
       <c r="F14" s="106">
-        <v>460043.6</v>
+        <v>463629.9</v>
       </c>
       <c r="G14" s="105">
-        <v>457963.9</v>
+        <v>460293.6</v>
       </c>
       <c r="H14" s="105">
-        <v>480623.3</v>
+        <v>483546</v>
       </c>
       <c r="I14" s="105">
-        <v>463922.3</v>
+        <v>467087.3</v>
       </c>
       <c r="J14" s="105">
-        <v>477525.3</v>
+        <v>480539.7</v>
       </c>
       <c r="K14" s="105">
-        <v>478797.5</v>
+        <v>481350.40000000002</v>
       </c>
       <c r="L14" s="105">
-        <v>0</v>
+        <v>457926.8</v>
       </c>
       <c r="M14" s="105">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>3637651.1999999993</v>
+        <v>4120291.8</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,31 +3413,31 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2221560.7999999998</v>
+        <v>2221182.2999999998</v>
       </c>
       <c r="E15" s="62">
-        <v>2085081.9000000001</v>
+        <v>2084877.5</v>
       </c>
       <c r="F15" s="62">
-        <v>2408751.5</v>
+        <v>2408408.6</v>
       </c>
       <c r="G15" s="62">
-        <v>2410727.7000000002</v>
+        <v>2410470.3000000003</v>
       </c>
       <c r="H15" s="62">
-        <v>2438841.2000000002</v>
+        <v>2438612.7000000002</v>
       </c>
       <c r="I15" s="62">
-        <v>2340659.9</v>
+        <v>2340412.6</v>
       </c>
       <c r="J15" s="62">
-        <v>2428430.0999999996</v>
+        <v>2428434.7999999998</v>
       </c>
       <c r="K15" s="62">
-        <v>2470971</v>
+        <v>2470644.7000000002</v>
       </c>
       <c r="L15" s="62">
-        <v>0</v>
+        <v>2361299.6</v>
       </c>
       <c r="M15" s="62">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>18805024.100000001</v>
+        <v>21164343.100000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,31 +3475,31 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>335698.7</v>
+        <v>336033.9</v>
       </c>
       <c r="E17" s="62">
-        <v>315629</v>
+        <v>315801.3</v>
       </c>
       <c r="F17" s="62">
-        <v>340184.9</v>
+        <v>340498.8</v>
       </c>
       <c r="G17" s="62">
-        <v>363850.3</v>
+        <v>364097.8</v>
       </c>
       <c r="H17" s="62">
-        <v>359258.3</v>
+        <v>359466.9</v>
       </c>
       <c r="I17" s="62">
-        <v>369849.8</v>
+        <v>370087</v>
       </c>
       <c r="J17" s="62">
-        <v>394040.2</v>
+        <v>394220.3</v>
       </c>
       <c r="K17" s="62">
-        <v>408635.6</v>
+        <v>408707.1</v>
       </c>
       <c r="L17" s="62">
-        <v>0</v>
+        <v>406549.9</v>
       </c>
       <c r="M17" s="62">
         <v>0</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>2887146.8000000003</v>
+        <v>3295463</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3582,25 +3582,25 @@
         <v>7758397.2000000002</v>
       </c>
       <c r="F21" s="62">
-        <v>8622526.9000000004</v>
+        <v>8622523.4000000004</v>
       </c>
       <c r="G21" s="62">
-        <v>8280404.0999999996</v>
+        <v>8276955.2999999998</v>
       </c>
       <c r="H21" s="62">
-        <v>7779983.7000000002</v>
+        <v>7779718.2000000002</v>
       </c>
       <c r="I21" s="62">
-        <v>7218805.7000000002</v>
+        <v>7219188.0999999996</v>
       </c>
       <c r="J21" s="62">
-        <v>8496884.8000000007</v>
+        <v>8496488.1999999993</v>
       </c>
       <c r="K21" s="62">
-        <v>8525958.8000000007</v>
+        <v>8525378.8000000007</v>
       </c>
       <c r="L21" s="62">
-        <v>0</v>
+        <v>8215018.4000000004</v>
       </c>
       <c r="M21" s="62">
         <v>0</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>65231317.100000009</v>
+        <v>73442023.5</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3643,10 +3643,10 @@
         <v>8138101.2999999998</v>
       </c>
       <c r="K22" s="62">
-        <v>8213165</v>
+        <v>8212270</v>
       </c>
       <c r="L22" s="62">
-        <v>0</v>
+        <v>8098834.7000000002</v>
       </c>
       <c r="M22" s="62">
         <v>0</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>61342444.299999997</v>
+        <v>69440384</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3689,10 +3689,10 @@
         <v>-6598635.9000000004</v>
       </c>
       <c r="K23" s="62">
-        <v>-6375689.0999999996</v>
+        <v>-6374794.0999999996</v>
       </c>
       <c r="L23" s="62">
-        <v>0</v>
+        <v>-5887658.2999999998</v>
       </c>
       <c r="M23" s="62">
         <v>0</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-51376956.600000001</v>
+        <v>-57263719.899999999</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3720,25 +3720,25 @@
         <v>8702818.5</v>
       </c>
       <c r="F24" s="62">
-        <v>9637028</v>
+        <v>9637024.5</v>
       </c>
       <c r="G24" s="62">
-        <v>9166327.3000000007</v>
+        <v>9162878.5</v>
       </c>
       <c r="H24" s="62">
-        <v>9159789.7000000011</v>
+        <v>9159524.2000000011</v>
       </c>
       <c r="I24" s="62">
-        <v>8909646.2000000011</v>
+        <v>8910028.5999999996</v>
       </c>
       <c r="J24" s="62">
-        <v>10036350.200000001</v>
+        <v>10035953.6</v>
       </c>
       <c r="K24" s="62">
-        <v>10363434.700000001</v>
+        <v>10362854.700000001</v>
       </c>
       <c r="L24" s="62">
-        <v>0</v>
+        <v>10426194.800000001</v>
       </c>
       <c r="M24" s="62">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>75196804.800000012</v>
+        <v>85618687.599999994</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3780,10 +3780,10 @@
         <v>5785935.2000000002</v>
       </c>
       <c r="K25" s="61">
-        <v>5590118.9000000004</v>
+        <v>5587508.7999999998</v>
       </c>
       <c r="L25" s="61">
-        <v>0</v>
+        <v>5301334.5999999996</v>
       </c>
       <c r="M25" s="61">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>44620964.600000001</v>
+        <v>49919689.100000001</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3810,25 +3810,25 @@
         <v>14248225.699999999</v>
       </c>
       <c r="F26" s="62">
-        <v>15640914.9</v>
+        <v>15640911.4</v>
       </c>
       <c r="G26" s="62">
-        <v>14560634.4</v>
+        <v>14557185.6</v>
       </c>
       <c r="H26" s="62">
-        <v>14270215.200000001</v>
+        <v>14269949.700000001</v>
       </c>
       <c r="I26" s="62">
-        <v>14340141.300000001</v>
+        <v>14340523.699999999</v>
       </c>
       <c r="J26" s="62">
-        <v>15822285.400000002</v>
+        <v>15821888.800000001</v>
       </c>
       <c r="K26" s="62">
-        <v>15953553.600000001</v>
+        <v>15950363.5</v>
       </c>
       <c r="L26" s="62">
-        <v>0</v>
+        <v>15727529.4</v>
       </c>
       <c r="M26" s="62">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>119817769.40000001</v>
+        <v>135538376.69999999</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,31 +3867,31 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>17539058.399999999</v>
+        <v>17539015.099999998</v>
       </c>
       <c r="E28" s="62">
-        <v>16648936.6</v>
+        <v>16648904.5</v>
       </c>
       <c r="F28" s="62">
-        <v>18389851.299999997</v>
+        <v>18389818.800000001</v>
       </c>
       <c r="G28" s="62">
-        <v>17335212.400000002</v>
+        <v>17331753.699999999</v>
       </c>
       <c r="H28" s="62">
-        <v>17068314.700000003</v>
+        <v>17068029.300000001</v>
       </c>
       <c r="I28" s="62">
-        <v>17050651</v>
+        <v>17051023.299999997</v>
       </c>
       <c r="J28" s="62">
-        <v>18644755.699999999</v>
+        <v>18644543.900000002</v>
       </c>
       <c r="K28" s="62">
-        <v>18833160.200000003</v>
+        <v>18829715.300000001</v>
       </c>
       <c r="L28" s="62">
-        <v>0</v>
+        <v>18495378.899999999</v>
       </c>
       <c r="M28" s="62">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>141509940.30000001</v>
+        <v>159998182.79999998</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,31 +3948,31 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017761.1</v>
+        <v>1017777.6</v>
       </c>
       <c r="E31" s="62">
-        <v>964911.6</v>
+        <v>964922.6</v>
       </c>
       <c r="F31" s="62">
-        <v>1105428.3</v>
+        <v>1105437.7</v>
       </c>
       <c r="G31" s="62">
-        <v>1066596.5</v>
+        <v>1066586.1000000001</v>
       </c>
       <c r="H31" s="62">
-        <v>1052527.3</v>
+        <v>1054026.6000000001</v>
       </c>
       <c r="I31" s="62">
-        <v>941331</v>
+        <v>924834.5</v>
       </c>
       <c r="J31" s="62">
-        <v>1104730.3</v>
+        <v>1104316.8999999999</v>
       </c>
       <c r="K31" s="62">
-        <v>1059826.6000000001</v>
+        <v>1059776.8999999999</v>
       </c>
       <c r="L31" s="62">
-        <v>0</v>
+        <v>1074622.6000000001</v>
       </c>
       <c r="M31" s="62">
         <v>0</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>8313112.6999999993</v>
+        <v>9372301.5</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4008,7 +4008,7 @@
         <v>315157.8</v>
       </c>
       <c r="I32" s="62">
-        <v>334515.8</v>
+        <v>334516.09999999998</v>
       </c>
       <c r="J32" s="62">
         <v>355508</v>
@@ -4017,7 +4017,7 @@
         <v>355178.7</v>
       </c>
       <c r="L32" s="62">
-        <v>0</v>
+        <v>301456.8</v>
       </c>
       <c r="M32" s="62">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>2597718.6000000006</v>
+        <v>2899175.7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4080,7 +4080,7 @@
         <v>9045.5</v>
       </c>
       <c r="L34" s="62">
-        <v>0</v>
+        <v>9297.1</v>
       </c>
       <c r="M34" s="62">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>76292.800000000003</v>
+        <v>85589.900000000009</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4126,7 +4126,7 @@
         <v>10852.1</v>
       </c>
       <c r="L35" s="62">
-        <v>0</v>
+        <v>6997.5</v>
       </c>
       <c r="M35" s="62">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>106066.20000000001</v>
+        <v>113063.70000000001</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4148,31 +4148,31 @@
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="62">
-        <v>534803.1</v>
+        <v>534829.9</v>
       </c>
       <c r="E36" s="62">
-        <v>541985.9</v>
+        <v>542007.5</v>
       </c>
       <c r="F36" s="62">
-        <v>522654.4</v>
+        <v>522675.8</v>
       </c>
       <c r="G36" s="62">
-        <v>476437.8</v>
+        <v>476458.1</v>
       </c>
       <c r="H36" s="62">
-        <v>413885.1</v>
+        <v>413908.5</v>
       </c>
       <c r="I36" s="62">
-        <v>338219.5</v>
+        <v>338240.4</v>
       </c>
       <c r="J36" s="62">
-        <v>409382.7</v>
+        <v>409403.4</v>
       </c>
       <c r="K36" s="62">
-        <v>471154.8</v>
+        <v>471523.7</v>
       </c>
       <c r="L36" s="62">
-        <v>0</v>
+        <v>447939.5</v>
       </c>
       <c r="M36" s="62">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>3708523.3</v>
+        <v>4156986.8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4233,10 +4233,10 @@
         <v>224903.8</v>
       </c>
       <c r="K38" s="62">
-        <v>217745.4</v>
+        <v>218651</v>
       </c>
       <c r="L38" s="62">
-        <v>0</v>
+        <v>211903.1</v>
       </c>
       <c r="M38" s="62">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>1768502.6</v>
+        <v>1981311.3000000003</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4282,7 +4282,7 @@
         <v>16.2</v>
       </c>
       <c r="L39" s="62">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="M39" s="62">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>416</v>
+        <v>442.6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4358,7 +4358,7 @@
         <v>438977.2</v>
       </c>
       <c r="I42" s="110">
-        <v>446606.3</v>
+        <v>457777</v>
       </c>
       <c r="J42" s="110">
         <v>484817.9</v>
@@ -4367,7 +4367,7 @@
         <v>458210.7</v>
       </c>
       <c r="L42" s="110">
-        <v>0</v>
+        <v>456884.9</v>
       </c>
       <c r="M42" s="110">
         <v>0</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>3593177.5</v>
+        <v>4061233.1</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4413,7 +4413,7 @@
         <v>1060106.5</v>
       </c>
       <c r="L43" s="110">
-        <v>0</v>
+        <v>993636.5</v>
       </c>
       <c r="M43" s="110">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>8201357.7000000002</v>
+        <v>9194994.1999999993</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4459,7 +4459,7 @@
         <v>793088.5</v>
       </c>
       <c r="L44" s="110">
-        <v>0</v>
+        <v>738729.9</v>
       </c>
       <c r="M44" s="110">
         <v>0</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>6173397.3000000007</v>
+        <v>6912127.2000000011</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4505,7 +4505,7 @@
         <v>230578.5</v>
       </c>
       <c r="L45" s="112">
-        <v>0</v>
+        <v>247944.9</v>
       </c>
       <c r="M45" s="112">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>1875038.3</v>
+        <v>2122983.2000000002</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4542,7 +4542,7 @@
         <v>2594344.9</v>
       </c>
       <c r="I46" s="110">
-        <v>2548588.8000000003</v>
+        <v>2559759.5</v>
       </c>
       <c r="J46" s="110">
         <v>2591212.7000000002</v>
@@ -4551,7 +4551,7 @@
         <v>2541984.2000000002</v>
       </c>
       <c r="L46" s="110">
-        <v>0</v>
+        <v>2437196.1999999997</v>
       </c>
       <c r="M46" s="110">
         <v>0</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>19842970.800000001</v>
+        <v>22291337.699999999</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,31 +4591,31 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4638923</v>
+        <v>4638966.3</v>
       </c>
       <c r="E48" s="110">
-        <v>4395915</v>
+        <v>4395947.5999999996</v>
       </c>
       <c r="F48" s="110">
-        <v>4523805.3000000007</v>
+        <v>4523836.0999999996</v>
       </c>
       <c r="G48" s="110">
-        <v>4469699.7999999989</v>
+        <v>4469709.6999999993</v>
       </c>
       <c r="H48" s="110">
-        <v>4615441.7</v>
+        <v>4616964.4000000004</v>
       </c>
       <c r="I48" s="110">
-        <v>4397120.9000000004</v>
+        <v>4391816.3</v>
       </c>
       <c r="J48" s="110">
-        <v>4706893.8000000007</v>
+        <v>4706501.0999999996</v>
       </c>
       <c r="K48" s="110">
-        <v>4665803.5</v>
+        <v>4667028.3000000007</v>
       </c>
       <c r="L48" s="110">
-        <v>0</v>
+        <v>4489439.4000000004</v>
       </c>
       <c r="M48" s="110">
         <v>0</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>36413603</v>
+        <v>40900209.199999996</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4677,7 +4677,7 @@
         <v>242065.4</v>
       </c>
       <c r="L50" s="110">
-        <v>0</v>
+        <v>226192.3</v>
       </c>
       <c r="M50" s="110">
         <v>0</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>1612595.9999999998</v>
+        <v>1838788.2999999998</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4722,7 +4722,7 @@
         <v>65062.6</v>
       </c>
       <c r="L51" s="110">
-        <v>0</v>
+        <v>82216.100000000006</v>
       </c>
       <c r="M51" s="110">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>665191.89999999991</v>
+        <v>747407.99999999988</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,31 +4743,31 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305846</v>
+        <v>305849.40000000002</v>
       </c>
       <c r="E52" s="110">
-        <v>284499.09999999998</v>
+        <v>284501.40000000002</v>
       </c>
       <c r="F52" s="110">
-        <v>322681</v>
+        <v>322683</v>
       </c>
       <c r="G52" s="110">
-        <v>309873.8</v>
+        <v>309871.5</v>
       </c>
       <c r="H52" s="110">
-        <v>297469.2</v>
+        <v>297780.09999999998</v>
       </c>
       <c r="I52" s="110">
-        <v>276316.3</v>
+        <v>272907</v>
       </c>
       <c r="J52" s="110">
-        <v>318720.90000000002</v>
+        <v>318640.8</v>
       </c>
       <c r="K52" s="110">
-        <v>308989.59999999998</v>
+        <v>309009.5</v>
       </c>
       <c r="L52" s="110">
-        <v>0</v>
+        <v>307595.09999999998</v>
       </c>
       <c r="M52" s="110">
         <v>0</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>2424395.9</v>
+        <v>2728837.8</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,31 +4807,31 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517133.5</v>
+        <v>10517043</v>
       </c>
       <c r="E54" s="116">
-        <v>10411076.800000001</v>
+        <v>10410986.300000001</v>
       </c>
       <c r="F54" s="116">
-        <v>10129612.300000001</v>
+        <v>10129521.800000001</v>
       </c>
       <c r="G54" s="116">
-        <v>10220772.9</v>
+        <v>10217233.6</v>
       </c>
       <c r="H54" s="116">
-        <v>10551041.5</v>
+        <v>10548738.5</v>
       </c>
       <c r="I54" s="116">
-        <v>10145032.6</v>
+        <v>10143521.199999999</v>
       </c>
       <c r="J54" s="116">
-        <v>10203450</v>
+        <v>10201276.5</v>
       </c>
       <c r="K54" s="116">
-        <v>10407058</v>
+        <v>10393050.6</v>
       </c>
       <c r="L54" s="116">
-        <v>0</v>
+        <v>10386216.9</v>
       </c>
       <c r="M54" s="116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10407058</v>
+        <v>10386216.9</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,7 +4852,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-39811.800000000003</v>
+        <v>-39806.400000000001</v>
       </c>
       <c r="E55" s="110">
         <v>388.9</v>
@@ -4864,19 +4864,19 @@
         <v>-49676.1</v>
       </c>
       <c r="H55" s="110">
-        <v>8959</v>
+        <v>8999.6</v>
       </c>
       <c r="I55" s="110">
         <v>-103136.3</v>
       </c>
       <c r="J55" s="110">
-        <v>46380.9</v>
+        <v>46386.2</v>
       </c>
       <c r="K55" s="110">
-        <v>-22227.1</v>
+        <v>-31014.7</v>
       </c>
       <c r="L55" s="110">
-        <v>0</v>
+        <v>33093.4</v>
       </c>
       <c r="M55" s="110">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-228388.7</v>
+        <v>-204031.6</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,31 +4915,31 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815323</v>
+        <v>22815325</v>
       </c>
       <c r="E57" s="110">
-        <v>20611915.5</v>
+        <v>20611913.699999999</v>
       </c>
       <c r="F57" s="110">
-        <v>22540457.199999999</v>
+        <v>22540453.5</v>
       </c>
       <c r="G57" s="110">
-        <v>21103089.300000001</v>
+        <v>21103091.599999998</v>
       </c>
       <c r="H57" s="110">
-        <v>20756024.400000006</v>
+        <v>20755755.100000005</v>
       </c>
       <c r="I57" s="110">
-        <v>21162133.699999996</v>
+        <v>21159819.099999998</v>
       </c>
       <c r="J57" s="110">
-        <v>22699111.199999996</v>
+        <v>22699254.199999999</v>
       </c>
       <c r="K57" s="110">
-        <v>22657006.399999999</v>
+        <v>22657812.700000003</v>
       </c>
       <c r="L57" s="110">
-        <v>0</v>
+        <v>22408553.799999997</v>
       </c>
       <c r="M57" s="110">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>174345060.69999999</v>
+        <v>196751978.69999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5087,7 +5087,7 @@
         <v>55300.6</v>
       </c>
       <c r="F63" s="62">
-        <v>65346.8</v>
+        <v>65342.8</v>
       </c>
       <c r="G63" s="62">
         <v>18804.399999999998</v>
@@ -5105,7 +5105,7 @@
         <v>436.6</v>
       </c>
       <c r="L63" s="62">
-        <v>0</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="M63" s="62">
         <v>0</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>172965.6</v>
+        <v>172998.30000000002</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5150,7 +5150,7 @@
         <v>2541851.4</v>
       </c>
       <c r="L64" s="62">
-        <v>0</v>
+        <v>2448730.9</v>
       </c>
       <c r="M64" s="62">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>18668185.699999999</v>
+        <v>21116916.599999998</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5174,16 +5174,16 @@
         <v>14601.4</v>
       </c>
       <c r="E65" s="62">
-        <v>12183.7</v>
+        <v>12184.2</v>
       </c>
       <c r="F65" s="62">
-        <v>16768.900000000001</v>
+        <v>16770.7</v>
       </c>
       <c r="G65" s="62">
         <v>17610.3</v>
       </c>
       <c r="H65" s="62">
-        <v>16046.5</v>
+        <v>16087.1</v>
       </c>
       <c r="I65" s="62">
         <v>12802.7</v>
@@ -5195,7 +5195,7 @@
         <v>12666.1</v>
       </c>
       <c r="L65" s="62">
-        <v>0</v>
+        <v>10943.6</v>
       </c>
       <c r="M65" s="62">
         <v>0</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>114937.40000000001</v>
+        <v>125923.90000000002</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5240,7 +5240,7 @@
         <v>20045.8</v>
       </c>
       <c r="L66" s="62">
-        <v>0</v>
+        <v>26695.599999999999</v>
       </c>
       <c r="M66" s="62">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>98544.3</v>
+        <v>125239.9</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="62">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M67" s="62">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>310.39999999999998</v>
+        <v>312.7</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5314,7 +5314,7 @@
         <v>2237.1999999999998</v>
       </c>
       <c r="F68" s="62">
-        <v>-3601</v>
+        <v>-3594</v>
       </c>
       <c r="G68" s="62">
         <v>5516.2</v>
@@ -5323,16 +5323,16 @@
         <v>210.1</v>
       </c>
       <c r="I68" s="62">
-        <v>-824.4</v>
+        <v>-825</v>
       </c>
       <c r="J68" s="62">
         <v>-1353.2</v>
       </c>
       <c r="K68" s="62">
-        <v>2213.1999999999998</v>
+        <v>2212.8000000000002</v>
       </c>
       <c r="L68" s="62">
-        <v>0</v>
+        <v>-229.6</v>
       </c>
       <c r="M68" s="62">
         <v>0</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>5723.7000000000007</v>
+        <v>5500.1</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5360,7 +5360,7 @@
         <v>336075.2</v>
       </c>
       <c r="F69" s="62">
-        <v>379784.9</v>
+        <v>379788.9</v>
       </c>
       <c r="G69" s="62">
         <v>380256.9</v>
@@ -5369,16 +5369,16 @@
         <v>329516.7</v>
       </c>
       <c r="I69" s="62">
-        <v>330560.3</v>
+        <v>324836.09999999998</v>
       </c>
       <c r="J69" s="62">
         <v>391116.5</v>
       </c>
       <c r="K69" s="62">
-        <v>410029.1</v>
+        <v>410108.1</v>
       </c>
       <c r="L69" s="62">
-        <v>0</v>
+        <v>354286.7</v>
       </c>
       <c r="M69" s="62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>2898564.5</v>
+        <v>3247210</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5403,28 +5403,28 @@
         <v>2752569.6</v>
       </c>
       <c r="E70" s="62">
-        <v>2655013.6000000006</v>
+        <v>2655014.1000000006</v>
       </c>
       <c r="F70" s="62">
-        <v>2981928.5999999996</v>
+        <v>2981937.4</v>
       </c>
       <c r="G70" s="62">
         <v>2563676.2999999998</v>
       </c>
       <c r="H70" s="62">
-        <v>2466211.9000000004</v>
+        <v>2466252.5000000005</v>
       </c>
       <c r="I70" s="62">
-        <v>2615090.4</v>
+        <v>2609365.6</v>
       </c>
       <c r="J70" s="62">
         <v>2937498.9999999995</v>
       </c>
       <c r="K70" s="62">
-        <v>2987242.2</v>
+        <v>2987320.8</v>
       </c>
       <c r="L70" s="62">
-        <v>0</v>
+        <v>2840466.2</v>
       </c>
       <c r="M70" s="62">
         <v>0</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>21959231.600000001</v>
+        <v>24794101.5</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5485,10 +5485,10 @@
         <v>19202911.899999999</v>
       </c>
       <c r="K72" s="110">
-        <v>19079101.699999999</v>
+        <v>19079114.199999999</v>
       </c>
       <c r="L72" s="110">
-        <v>0</v>
+        <v>18887512.300000001</v>
       </c>
       <c r="M72" s="110">
         <v>0</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>147940952.79999998</v>
+        <v>166828477.59999999</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5531,10 +5531,10 @@
         <v>619448.77096774185</v>
       </c>
       <c r="K73" s="110">
-        <v>615454.8935483871</v>
+        <v>615455.29677419353</v>
       </c>
       <c r="L73" s="110">
-        <v>0</v>
+        <v>629583.7433333334</v>
       </c>
       <c r="M73" s="110">
         <v>0</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>608858.7389880952</v>
+        <v>611161.56205154455</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,31 +5574,31 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421422.59999999776</v>
+        <v>421424.59999999776</v>
       </c>
       <c r="E75" s="110">
-        <v>638462.89999999851</v>
+        <v>638460.59999999776</v>
       </c>
       <c r="F75" s="110">
-        <v>537386.80000000075</v>
+        <v>537374.30000000075</v>
       </c>
       <c r="G75" s="110">
-        <v>495965.10000000149</v>
+        <v>495967.39999999851</v>
       </c>
       <c r="H75" s="110">
-        <v>625807.90000000596</v>
+        <v>625498.00000000373</v>
       </c>
       <c r="I75" s="110">
-        <v>576468.19999999553</v>
+        <v>579878.39999999478</v>
       </c>
       <c r="J75" s="110">
-        <v>558700.29999999702</v>
+        <v>558843.30000000075</v>
       </c>
       <c r="K75" s="110">
-        <v>590662.5</v>
+        <v>591377.70000000298</v>
       </c>
       <c r="L75" s="110">
-        <v>0</v>
+        <v>680575.29999999702</v>
       </c>
       <c r="M75" s="110">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>4444876.299999997</v>
+        <v>5129399.599999994</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,31 +5620,31 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0888420677874914E-3</v>
+        <v>-1.0887525631668392E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1640535062048333E-3</v>
+        <v>4.1639392065472283E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.5013525309725291E-3</v>
+        <v>3.500787004193573E-3</v>
       </c>
       <c r="G76" s="110">
-        <v>-1.1579781913571069E-3</v>
+        <v>-1.1578663208456847E-3</v>
       </c>
       <c r="H76" s="110">
-        <v>-4.4482958914580347E-3</v>
+        <v>-4.4638191214599341E-3</v>
       </c>
       <c r="I76" s="110">
-        <v>-5.325808064625721E-3</v>
+        <v>-5.1598500840304568E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>-3.3122647559060206E-3</v>
+        <v>-3.3057631627589914E-3</v>
       </c>
       <c r="K76" s="110">
-        <v>-3.4652070369617419E-3</v>
-      </c>
-      <c r="L76" s="110" t="s">
-        <v>128</v>
+        <v>-3.4325575150919246E-3</v>
+      </c>
+      <c r="L76" s="110">
+        <v>1.3186256641488701E-3</v>
       </c>
       <c r="M76" s="110" t="s">
         <v>128</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-1.1132989970918755E-2</v>
+        <v>-9.6252568924641603E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,31 +5683,31 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815323</v>
+        <v>22815325</v>
       </c>
       <c r="E78" s="110">
-        <v>20611915.5</v>
+        <v>20611913.699999999</v>
       </c>
       <c r="F78" s="110">
-        <v>22540457.199999999</v>
+        <v>22540453.5</v>
       </c>
       <c r="G78" s="110">
-        <v>21103089.300000001</v>
+        <v>21103091.599999998</v>
       </c>
       <c r="H78" s="110">
-        <v>20756024.400000006</v>
+        <v>20755755.100000005</v>
       </c>
       <c r="I78" s="110">
-        <v>21162133.699999996</v>
+        <v>21159819.099999998</v>
       </c>
       <c r="J78" s="110">
-        <v>22699111.199999996</v>
+        <v>22699254.199999999</v>
       </c>
       <c r="K78" s="110">
-        <v>22657006.399999999</v>
+        <v>22657812.700000003</v>
       </c>
       <c r="L78" s="110">
-        <v>0</v>
+        <v>22408553.799999997</v>
       </c>
       <c r="M78" s="110">
         <v>0</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>174345060.69999999</v>
+        <v>196751978.69999999</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8E6BE-DD64-457F-A1CA-F30E1DAD09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80154F62-62F6-4B74-BDA1-AD2CBFE5A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="900" windowWidth="21756" windowHeight="11256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="780" windowWidth="21864" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 October 2022</t>
+    <t xml:space="preserve"> Run Date:  29 November 2022</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +3013,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3129,34 +3129,34 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759311.6</v>
+        <v>11759292.9</v>
       </c>
       <c r="E7" s="19">
-        <v>10517043</v>
+        <v>10517024.300000001</v>
       </c>
       <c r="F7" s="19">
-        <v>10410986.300000001</v>
+        <v>10410967.6</v>
       </c>
       <c r="G7" s="19">
-        <v>10129330.4</v>
+        <v>10129311.699999999</v>
       </c>
       <c r="H7" s="19">
-        <v>10217233.6</v>
+        <v>10217217.9</v>
       </c>
       <c r="I7" s="19">
-        <v>10548738.5</v>
+        <v>10548725.6</v>
       </c>
       <c r="J7" s="19">
-        <v>10143463</v>
+        <v>10143446</v>
       </c>
       <c r="K7" s="19">
-        <v>10201271.9</v>
+        <v>10201252.800000001</v>
       </c>
       <c r="L7" s="19">
-        <v>10392862.5</v>
+        <v>10392855.699999999</v>
       </c>
       <c r="M7" s="19">
-        <v>0</v>
+        <v>10391493.4</v>
       </c>
       <c r="N7" s="19">
         <v>0</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759311.6</v>
+        <v>11759292.9</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,34 +3230,34 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1259513.8999999999</v>
+        <v>1256510.1000000001</v>
       </c>
       <c r="E11" s="62">
-        <v>1175771.8999999999</v>
+        <v>1173592.8999999999</v>
       </c>
       <c r="F11" s="62">
-        <v>1373653</v>
+        <v>1370487.1</v>
       </c>
       <c r="G11" s="62">
-        <v>1393746.8</v>
+        <v>1384677.1</v>
       </c>
       <c r="H11" s="62">
-        <v>1392305</v>
+        <v>1379390.6</v>
       </c>
       <c r="I11" s="62">
-        <v>1341248.8999999999</v>
+        <v>1325726.1000000001</v>
       </c>
       <c r="J11" s="62">
-        <v>1401588.9</v>
+        <v>1384205.4</v>
       </c>
       <c r="K11" s="62">
-        <v>1445107.3</v>
+        <v>1423516.8</v>
       </c>
       <c r="L11" s="62">
-        <v>1375776.6</v>
+        <v>1356031.7</v>
       </c>
       <c r="M11" s="62">
-        <v>0</v>
+        <v>1466322.9</v>
       </c>
       <c r="N11" s="62">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>12158712.300000001</v>
+        <v>13520460.700000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,34 +3276,34 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>372114.2</v>
+        <v>372279.5</v>
       </c>
       <c r="E12" s="19">
-        <v>349123.9</v>
+        <v>349260.6</v>
       </c>
       <c r="F12" s="19">
-        <v>396230.8</v>
+        <v>396560.4</v>
       </c>
       <c r="G12" s="19">
-        <v>388410.8</v>
+        <v>389776.7</v>
       </c>
       <c r="H12" s="19">
-        <v>389653.9</v>
+        <v>393520</v>
       </c>
       <c r="I12" s="19">
-        <v>369567.1</v>
+        <v>374249</v>
       </c>
       <c r="J12" s="19">
-        <v>381023.7</v>
+        <v>386801.7</v>
       </c>
       <c r="K12" s="19">
-        <v>376743.3</v>
+        <v>383854.7</v>
       </c>
       <c r="L12" s="19">
-        <v>362663.5</v>
+        <v>368634</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>384337.3</v>
       </c>
       <c r="N12" s="19">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>3385531.2</v>
+        <v>3799273.9000000004</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3328,28 +3328,28 @@
         <v>155850.79999999999</v>
       </c>
       <c r="F13" s="62">
-        <v>174894.9</v>
+        <v>175474.6</v>
       </c>
       <c r="G13" s="62">
-        <v>168019.1</v>
+        <v>170492.7</v>
       </c>
       <c r="H13" s="62">
-        <v>173107.8</v>
+        <v>175429.8</v>
       </c>
       <c r="I13" s="62">
-        <v>162509.29999999999</v>
+        <v>164204.20000000001</v>
       </c>
       <c r="J13" s="62">
-        <v>165282.5</v>
+        <v>166730.6</v>
       </c>
       <c r="K13" s="62">
-        <v>167443.70000000001</v>
+        <v>167878.8</v>
       </c>
       <c r="L13" s="62">
-        <v>164932.70000000001</v>
+        <v>163608</v>
       </c>
       <c r="M13" s="62">
-        <v>0</v>
+        <v>170554.9</v>
       </c>
       <c r="N13" s="62">
         <v>0</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1499807.7999999998</v>
+        <v>1677991.4000000001</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,34 +3368,34 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>421787.2</v>
+        <v>423006.6</v>
       </c>
       <c r="E14" s="106">
-        <v>404130.9</v>
+        <v>405164.3</v>
       </c>
       <c r="F14" s="106">
-        <v>463629.9</v>
+        <v>464644.5</v>
       </c>
       <c r="G14" s="105">
-        <v>460293.6</v>
+        <v>464242.3</v>
       </c>
       <c r="H14" s="105">
-        <v>483546</v>
+        <v>489295.6</v>
       </c>
       <c r="I14" s="105">
-        <v>467087.3</v>
+        <v>475729.1</v>
       </c>
       <c r="J14" s="105">
-        <v>480539.7</v>
+        <v>490047.4</v>
       </c>
       <c r="K14" s="105">
-        <v>481350.40000000002</v>
+        <v>494723.1</v>
       </c>
       <c r="L14" s="105">
-        <v>457926.8</v>
+        <v>472094.6</v>
       </c>
       <c r="M14" s="105">
-        <v>0</v>
+        <v>483199.4</v>
       </c>
       <c r="N14" s="105">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>4120291.8</v>
+        <v>4662146.9000000004</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,34 +3413,34 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2221182.2999999998</v>
+        <v>2219563.2000000002</v>
       </c>
       <c r="E15" s="62">
-        <v>2084877.5</v>
+        <v>2083868.6</v>
       </c>
       <c r="F15" s="62">
-        <v>2408408.6</v>
+        <v>2407166.6</v>
       </c>
       <c r="G15" s="62">
-        <v>2410470.3000000003</v>
+        <v>2409188.7999999998</v>
       </c>
       <c r="H15" s="62">
-        <v>2438612.7000000002</v>
+        <v>2437636</v>
       </c>
       <c r="I15" s="62">
-        <v>2340412.6</v>
+        <v>2339908.4</v>
       </c>
       <c r="J15" s="62">
-        <v>2428434.7999999998</v>
+        <v>2427785.1</v>
       </c>
       <c r="K15" s="62">
-        <v>2470644.7000000002</v>
+        <v>2469973.4</v>
       </c>
       <c r="L15" s="62">
-        <v>2361299.6</v>
+        <v>2360368.2999999998</v>
       </c>
       <c r="M15" s="62">
-        <v>0</v>
+        <v>2504414.5</v>
       </c>
       <c r="N15" s="62">
         <v>0</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>21164343.100000001</v>
+        <v>23659872.899999999</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,34 +3475,34 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>336033.9</v>
+        <v>337653</v>
       </c>
       <c r="E17" s="62">
-        <v>315801.3</v>
+        <v>316810.2</v>
       </c>
       <c r="F17" s="62">
-        <v>340498.8</v>
+        <v>341725.1</v>
       </c>
       <c r="G17" s="62">
-        <v>364097.8</v>
+        <v>365051.6</v>
       </c>
       <c r="H17" s="62">
-        <v>359466.9</v>
+        <v>360307.1</v>
       </c>
       <c r="I17" s="62">
-        <v>370087</v>
+        <v>370432.2</v>
       </c>
       <c r="J17" s="62">
-        <v>394220.3</v>
+        <v>394779.3</v>
       </c>
       <c r="K17" s="62">
-        <v>408707.1</v>
+        <v>408845.5</v>
       </c>
       <c r="L17" s="62">
-        <v>406549.9</v>
+        <v>406970.2</v>
       </c>
       <c r="M17" s="62">
-        <v>0</v>
+        <v>432463</v>
       </c>
       <c r="N17" s="62">
         <v>0</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>3295463</v>
+        <v>3735037.2</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3597,13 +3597,13 @@
         <v>8496488.1999999993</v>
       </c>
       <c r="K21" s="62">
-        <v>8525378.8000000007</v>
+        <v>8525436</v>
       </c>
       <c r="L21" s="62">
-        <v>8215018.4000000004</v>
+        <v>8214974.4000000004</v>
       </c>
       <c r="M21" s="62">
-        <v>0</v>
+        <v>8803374.5</v>
       </c>
       <c r="N21" s="62">
         <v>0</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>73442023.5</v>
+        <v>82245411.200000003</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3646,10 +3646,10 @@
         <v>8212270</v>
       </c>
       <c r="L22" s="62">
-        <v>8098834.7000000002</v>
+        <v>8080701.7000000002</v>
       </c>
       <c r="M22" s="62">
-        <v>0</v>
+        <v>8020598.2000000002</v>
       </c>
       <c r="N22" s="62">
         <v>0</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>69440384</v>
+        <v>77442849.200000003</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3692,10 +3692,10 @@
         <v>-6374794.0999999996</v>
       </c>
       <c r="L23" s="62">
-        <v>-5887658.2999999998</v>
+        <v>-5869420.2999999998</v>
       </c>
       <c r="M23" s="62">
-        <v>0</v>
+        <v>-6229922.7000000002</v>
       </c>
       <c r="N23" s="62">
         <v>0</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-57263719.899999999</v>
+        <v>-63475404.600000001</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3735,13 +3735,13 @@
         <v>10035953.6</v>
       </c>
       <c r="K24" s="62">
-        <v>10362854.700000001</v>
+        <v>10362911.9</v>
       </c>
       <c r="L24" s="62">
-        <v>10426194.800000001</v>
+        <v>10426255.800000001</v>
       </c>
       <c r="M24" s="62">
-        <v>0</v>
+        <v>10594050</v>
       </c>
       <c r="N24" s="62">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>85618687.599999994</v>
+        <v>96212855.800000012</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3783,10 +3783,10 @@
         <v>5587508.7999999998</v>
       </c>
       <c r="L25" s="61">
-        <v>5301334.5999999996</v>
+        <v>5301619.5999999996</v>
       </c>
       <c r="M25" s="61">
-        <v>0</v>
+        <v>5408811.7999999998</v>
       </c>
       <c r="N25" s="61">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>49919689.100000001</v>
+        <v>55328785.899999999</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3825,13 +3825,13 @@
         <v>15821888.800000001</v>
       </c>
       <c r="K26" s="62">
-        <v>15950363.5</v>
+        <v>15950420.699999999</v>
       </c>
       <c r="L26" s="62">
-        <v>15727529.4</v>
+        <v>15727875.4</v>
       </c>
       <c r="M26" s="62">
-        <v>0</v>
+        <v>16002861.800000001</v>
       </c>
       <c r="N26" s="62">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>135538376.69999999</v>
+        <v>151541641.70000002</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3870,31 +3870,31 @@
         <v>17539015.099999998</v>
       </c>
       <c r="E28" s="62">
-        <v>16648904.5</v>
+        <v>16648904.499999998</v>
       </c>
       <c r="F28" s="62">
-        <v>18389818.800000001</v>
+        <v>18389803.100000001</v>
       </c>
       <c r="G28" s="62">
-        <v>17331753.699999999</v>
+        <v>17331426</v>
       </c>
       <c r="H28" s="62">
-        <v>17068029.300000001</v>
+        <v>17067892.800000001</v>
       </c>
       <c r="I28" s="62">
-        <v>17051023.299999997</v>
+        <v>17050864.300000001</v>
       </c>
       <c r="J28" s="62">
-        <v>18644543.900000002</v>
+        <v>18644453.200000003</v>
       </c>
       <c r="K28" s="62">
-        <v>18829715.300000001</v>
+        <v>18829239.599999998</v>
       </c>
       <c r="L28" s="62">
-        <v>18495378.899999999</v>
+        <v>18495213.899999999</v>
       </c>
       <c r="M28" s="62">
-        <v>0</v>
+        <v>18939739.300000001</v>
       </c>
       <c r="N28" s="62">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>159998182.79999998</v>
+        <v>178936551.80000001</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3951,31 +3951,31 @@
         <v>1017777.6</v>
       </c>
       <c r="E31" s="62">
-        <v>964922.6</v>
+        <v>964932.6</v>
       </c>
       <c r="F31" s="62">
-        <v>1105437.7</v>
+        <v>1105382.5</v>
       </c>
       <c r="G31" s="62">
         <v>1066586.1000000001</v>
       </c>
       <c r="H31" s="62">
-        <v>1054026.6000000001</v>
+        <v>1054026.5</v>
       </c>
       <c r="I31" s="62">
         <v>924834.5</v>
       </c>
       <c r="J31" s="62">
-        <v>1104316.8999999999</v>
+        <v>1104389.1000000001</v>
       </c>
       <c r="K31" s="62">
-        <v>1059776.8999999999</v>
+        <v>1059904.8999999999</v>
       </c>
       <c r="L31" s="62">
-        <v>1074622.6000000001</v>
+        <v>1075455.2</v>
       </c>
       <c r="M31" s="62">
-        <v>0</v>
+        <v>1175145.8999999999</v>
       </c>
       <c r="N31" s="62">
         <v>0</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>9372301.5</v>
+        <v>10548434.9</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4020,7 +4020,7 @@
         <v>301456.8</v>
       </c>
       <c r="M32" s="62">
-        <v>0</v>
+        <v>355415.1</v>
       </c>
       <c r="N32" s="62">
         <v>0</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>2899175.7</v>
+        <v>3254590.8000000003</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4068,22 +4068,22 @@
         <v>9042.5</v>
       </c>
       <c r="H34" s="62">
-        <v>9828.6</v>
+        <v>9829.2000000000007</v>
       </c>
       <c r="I34" s="62">
-        <v>8375.6</v>
+        <v>8373.7999999999993</v>
       </c>
       <c r="J34" s="62">
         <v>10639.6</v>
       </c>
       <c r="K34" s="62">
-        <v>9045.5</v>
+        <v>9045.2999999999993</v>
       </c>
       <c r="L34" s="62">
-        <v>9297.1</v>
+        <v>9298.7000000000007</v>
       </c>
       <c r="M34" s="62">
-        <v>0</v>
+        <v>10431.4</v>
       </c>
       <c r="N34" s="62">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>85589.900000000009</v>
+        <v>96021.5</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4114,22 +4114,22 @@
         <v>16010.9</v>
       </c>
       <c r="H35" s="62">
-        <v>14147.4</v>
+        <v>13919.9</v>
       </c>
       <c r="I35" s="62">
-        <v>11440</v>
+        <v>11120.4</v>
       </c>
       <c r="J35" s="62">
-        <v>10459.6</v>
+        <v>10182</v>
       </c>
       <c r="K35" s="62">
-        <v>10852.1</v>
+        <v>10651.9</v>
       </c>
       <c r="L35" s="62">
-        <v>6997.5</v>
+        <v>6643.3</v>
       </c>
       <c r="M35" s="62">
-        <v>0</v>
+        <v>9634</v>
       </c>
       <c r="N35" s="62">
         <v>0</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>113063.70000000001</v>
+        <v>121318.59999999999</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4151,31 +4151,31 @@
         <v>534829.9</v>
       </c>
       <c r="E36" s="62">
-        <v>542007.5</v>
+        <v>541997.5</v>
       </c>
       <c r="F36" s="62">
-        <v>522675.8</v>
+        <v>522691.5</v>
       </c>
       <c r="G36" s="62">
-        <v>476458.1</v>
+        <v>476788.8</v>
       </c>
       <c r="H36" s="62">
-        <v>413908.5</v>
+        <v>414047.9</v>
       </c>
       <c r="I36" s="62">
-        <v>338240.4</v>
+        <v>338398</v>
       </c>
       <c r="J36" s="62">
-        <v>409403.4</v>
+        <v>409402</v>
       </c>
       <c r="K36" s="62">
-        <v>471523.7</v>
+        <v>471822.8</v>
       </c>
       <c r="L36" s="62">
-        <v>447939.5</v>
+        <v>448072.3</v>
       </c>
       <c r="M36" s="62">
-        <v>0</v>
+        <v>527163.6</v>
       </c>
       <c r="N36" s="62">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>4156986.8</v>
+        <v>4685214.3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4218,7 +4218,7 @@
         <v>210082.9</v>
       </c>
       <c r="F38" s="62">
-        <v>236206</v>
+        <v>236261.2</v>
       </c>
       <c r="G38" s="62">
         <v>226971.8</v>
@@ -4236,10 +4236,10 @@
         <v>218651</v>
       </c>
       <c r="L38" s="62">
-        <v>211903.1</v>
+        <v>211080.9</v>
       </c>
       <c r="M38" s="62">
-        <v>0</v>
+        <v>216655</v>
       </c>
       <c r="N38" s="62">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>1981311.3000000003</v>
+        <v>2197199.2999999998</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4285,7 +4285,7 @@
         <v>26.6</v>
       </c>
       <c r="M39" s="62">
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="N39" s="62">
         <v>0</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>442.6</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4370,7 +4370,7 @@
         <v>456884.9</v>
       </c>
       <c r="M42" s="110">
-        <v>0</v>
+        <v>463848.2</v>
       </c>
       <c r="N42" s="110">
         <v>0</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>4061233.1</v>
+        <v>4525081.3</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4416,7 +4416,7 @@
         <v>993636.5</v>
       </c>
       <c r="M43" s="110">
-        <v>0</v>
+        <v>1119491.5</v>
       </c>
       <c r="N43" s="110">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>9194994.1999999993</v>
+        <v>10314485.699999999</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4459,10 +4459,10 @@
         <v>793088.5</v>
       </c>
       <c r="L44" s="110">
-        <v>738729.9</v>
+        <v>740281.7</v>
       </c>
       <c r="M44" s="110">
-        <v>0</v>
+        <v>747854.7</v>
       </c>
       <c r="N44" s="110">
         <v>0</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>6912127.2000000011</v>
+        <v>7661533.7000000011</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4508,7 +4508,7 @@
         <v>247944.9</v>
       </c>
       <c r="M45" s="112">
-        <v>0</v>
+        <v>311280.5</v>
       </c>
       <c r="N45" s="112">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>2122983.2000000002</v>
+        <v>2434263.7000000002</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4551,10 +4551,10 @@
         <v>2541984.2000000002</v>
       </c>
       <c r="L46" s="110">
-        <v>2437196.1999999997</v>
+        <v>2438747.9999999995</v>
       </c>
       <c r="M46" s="110">
-        <v>0</v>
+        <v>2642474.9</v>
       </c>
       <c r="N46" s="110">
         <v>0</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>22291337.699999999</v>
+        <v>24935364.399999999</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4597,28 +4597,28 @@
         <v>4395947.5999999996</v>
       </c>
       <c r="F48" s="110">
-        <v>4523836.0999999996</v>
+        <v>4523851.8000000007</v>
       </c>
       <c r="G48" s="110">
-        <v>4469709.6999999993</v>
+        <v>4470040.3999999994</v>
       </c>
       <c r="H48" s="110">
-        <v>4616964.4000000004</v>
+        <v>4616876.8</v>
       </c>
       <c r="I48" s="110">
-        <v>4391816.3</v>
+        <v>4391652.5</v>
       </c>
       <c r="J48" s="110">
-        <v>4706501.0999999996</v>
+        <v>4706294.3000000007</v>
       </c>
       <c r="K48" s="110">
-        <v>4667028.3000000007</v>
+        <v>4667255</v>
       </c>
       <c r="L48" s="110">
-        <v>4489439.4000000004</v>
+        <v>4490781.8</v>
       </c>
       <c r="M48" s="110">
-        <v>0</v>
+        <v>4936983.8</v>
       </c>
       <c r="N48" s="110">
         <v>0</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>40900209.199999996</v>
+        <v>45838650.299999997</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4680,7 +4680,7 @@
         <v>226192.3</v>
       </c>
       <c r="M50" s="110">
-        <v>0</v>
+        <v>233221.9</v>
       </c>
       <c r="N50" s="110">
         <v>0</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>1838788.2999999998</v>
+        <v>2072010.1999999997</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4725,7 +4725,7 @@
         <v>82216.100000000006</v>
       </c>
       <c r="M51" s="110">
-        <v>0</v>
+        <v>95545.3</v>
       </c>
       <c r="N51" s="110">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>747407.99999999988</v>
+        <v>842953.29999999993</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4746,10 +4746,10 @@
         <v>305849.40000000002</v>
       </c>
       <c r="E52" s="110">
-        <v>284501.40000000002</v>
+        <v>284503.5</v>
       </c>
       <c r="F52" s="110">
-        <v>322683</v>
+        <v>322671.59999999998</v>
       </c>
       <c r="G52" s="110">
         <v>309871.5</v>
@@ -4761,16 +4761,16 @@
         <v>272907</v>
       </c>
       <c r="J52" s="110">
-        <v>318640.8</v>
+        <v>318657.90000000002</v>
       </c>
       <c r="K52" s="110">
-        <v>309009.5</v>
+        <v>309037</v>
       </c>
       <c r="L52" s="110">
-        <v>307595.09999999998</v>
+        <v>307688.8</v>
       </c>
       <c r="M52" s="110">
-        <v>0</v>
+        <v>332713.40000000002</v>
       </c>
       <c r="N52" s="110">
         <v>0</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>2728837.8</v>
+        <v>3061680.1999999997</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,34 +4807,34 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517043</v>
+        <v>10517024.300000001</v>
       </c>
       <c r="E54" s="116">
-        <v>10410986.300000001</v>
+        <v>10410967.6</v>
       </c>
       <c r="F54" s="116">
-        <v>10129521.800000001</v>
+        <v>10129503.1</v>
       </c>
       <c r="G54" s="116">
-        <v>10217233.6</v>
+        <v>10217217.9</v>
       </c>
       <c r="H54" s="116">
-        <v>10548738.5</v>
+        <v>10548725.6</v>
       </c>
       <c r="I54" s="116">
-        <v>10143521.199999999</v>
+        <v>10143506.9</v>
       </c>
       <c r="J54" s="116">
-        <v>10201276.5</v>
+        <v>10201257.4</v>
       </c>
       <c r="K54" s="116">
-        <v>10393050.6</v>
+        <v>10392961.9</v>
       </c>
       <c r="L54" s="116">
-        <v>10386216.9</v>
+        <v>10391627.699999999</v>
       </c>
       <c r="M54" s="116">
-        <v>0</v>
+        <v>10551326</v>
       </c>
       <c r="N54" s="116">
         <v>0</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10386216.9</v>
+        <v>10551326</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4876,10 +4876,10 @@
         <v>-31014.7</v>
       </c>
       <c r="L55" s="110">
-        <v>33093.4</v>
+        <v>39131.599999999999</v>
       </c>
       <c r="M55" s="110">
-        <v>0</v>
+        <v>-28645.5</v>
       </c>
       <c r="N55" s="110">
         <v>0</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-204031.6</v>
+        <v>-226638.9</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4918,31 +4918,31 @@
         <v>22815325</v>
       </c>
       <c r="E57" s="110">
-        <v>20611913.699999999</v>
+        <v>20611911.599999994</v>
       </c>
       <c r="F57" s="110">
-        <v>22540453.5</v>
+        <v>22540464.900000002</v>
       </c>
       <c r="G57" s="110">
-        <v>21103091.599999998</v>
+        <v>21103091.599999994</v>
       </c>
       <c r="H57" s="110">
-        <v>20755755.100000005</v>
+        <v>20755528.200000003</v>
       </c>
       <c r="I57" s="110">
-        <v>21159819.099999998</v>
+        <v>21159497.699999999</v>
       </c>
       <c r="J57" s="110">
-        <v>22699254.199999999</v>
+        <v>22698941.699999999</v>
       </c>
       <c r="K57" s="110">
-        <v>22657812.700000003</v>
+        <v>22657605.800000001</v>
       </c>
       <c r="L57" s="110">
-        <v>22408553.799999997</v>
+        <v>22410258.100000001</v>
       </c>
       <c r="M57" s="110">
-        <v>0</v>
+        <v>23026764.399999999</v>
       </c>
       <c r="N57" s="110">
         <v>0</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>196751978.69999999</v>
+        <v>219779389</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5108,7 +5108,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="M63" s="62">
-        <v>0</v>
+        <v>4219.8</v>
       </c>
       <c r="N63" s="62">
         <v>0</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>172998.30000000002</v>
+        <v>177218.1</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5153,7 +5153,7 @@
         <v>2448730.9</v>
       </c>
       <c r="M64" s="62">
-        <v>0</v>
+        <v>2472202.9</v>
       </c>
       <c r="N64" s="62">
         <v>0</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>21116916.599999998</v>
+        <v>23589119.499999996</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5183,22 +5183,22 @@
         <v>17610.3</v>
       </c>
       <c r="H65" s="62">
-        <v>16087.1</v>
+        <v>15860.2</v>
       </c>
       <c r="I65" s="62">
-        <v>12802.7</v>
+        <v>12481.3</v>
       </c>
       <c r="J65" s="62">
-        <v>12257.8</v>
+        <v>11980.2</v>
       </c>
       <c r="K65" s="62">
-        <v>12666.1</v>
+        <v>12465.7</v>
       </c>
       <c r="L65" s="62">
-        <v>10943.6</v>
+        <v>10605.8</v>
       </c>
       <c r="M65" s="62">
-        <v>0</v>
+        <v>11967.1</v>
       </c>
       <c r="N65" s="62">
         <v>0</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>125923.90000000002</v>
+        <v>136526.9</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5243,7 +5243,7 @@
         <v>26695.599999999999</v>
       </c>
       <c r="M66" s="62">
-        <v>0</v>
+        <v>1582.1</v>
       </c>
       <c r="N66" s="62">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>125239.9</v>
+        <v>126822</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5289,7 +5289,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M67" s="62">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="N67" s="62">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>312.7</v>
+        <v>1055.7</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5326,16 +5326,16 @@
         <v>-825</v>
       </c>
       <c r="J68" s="62">
-        <v>-1353.2</v>
+        <v>-1313.2</v>
       </c>
       <c r="K68" s="62">
-        <v>2212.8000000000002</v>
+        <v>2172.8000000000002</v>
       </c>
       <c r="L68" s="62">
-        <v>-229.6</v>
+        <v>-707.2</v>
       </c>
       <c r="M68" s="62">
-        <v>0</v>
+        <v>-9944.2000000000007</v>
       </c>
       <c r="N68" s="62">
         <v>0</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>5500.1</v>
+        <v>-4921.7</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5378,10 +5378,10 @@
         <v>410108.1</v>
       </c>
       <c r="L69" s="62">
-        <v>354286.7</v>
+        <v>354287.7</v>
       </c>
       <c r="M69" s="62">
-        <v>0</v>
+        <v>420915.4</v>
       </c>
       <c r="N69" s="62">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>3247210</v>
+        <v>3668126.4</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5412,22 +5412,22 @@
         <v>2563676.2999999998</v>
       </c>
       <c r="H70" s="62">
-        <v>2466252.5000000005</v>
+        <v>2466025.6000000006</v>
       </c>
       <c r="I70" s="62">
-        <v>2609365.6</v>
+        <v>2609044.1999999997</v>
       </c>
       <c r="J70" s="62">
-        <v>2937498.9999999995</v>
+        <v>2937261.4</v>
       </c>
       <c r="K70" s="62">
-        <v>2987320.8</v>
+        <v>2987080.4</v>
       </c>
       <c r="L70" s="62">
-        <v>2840466.2</v>
+        <v>2839651.8</v>
       </c>
       <c r="M70" s="62">
-        <v>0</v>
+        <v>2901686.0999999996</v>
       </c>
       <c r="N70" s="62">
         <v>0</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>24794101.5</v>
+        <v>27693946.899999999</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5491,7 +5491,7 @@
         <v>18887512.300000001</v>
       </c>
       <c r="M72" s="110">
-        <v>0</v>
+        <v>19302664.300000001</v>
       </c>
       <c r="N72" s="110">
         <v>0</v>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>166828477.59999999</v>
+        <v>186131141.90000001</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5537,7 +5537,7 @@
         <v>629583.7433333334</v>
       </c>
       <c r="M73" s="110">
-        <v>0</v>
+        <v>622666.59032258065</v>
       </c>
       <c r="N73" s="110">
         <v>0</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>611161.56205154455</v>
+        <v>612312.06487864815</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5577,31 +5577,31 @@
         <v>421424.59999999776</v>
       </c>
       <c r="E75" s="110">
-        <v>638460.59999999776</v>
+        <v>638458.49999999255</v>
       </c>
       <c r="F75" s="110">
-        <v>537374.30000000075</v>
+        <v>537385.70000000298</v>
       </c>
       <c r="G75" s="110">
-        <v>495967.39999999851</v>
+        <v>495967.39999999478</v>
       </c>
       <c r="H75" s="110">
-        <v>625498.00000000373</v>
+        <v>625498</v>
       </c>
       <c r="I75" s="110">
-        <v>579878.39999999478</v>
+        <v>579878.39999999851</v>
       </c>
       <c r="J75" s="110">
-        <v>558843.30000000075</v>
+        <v>558768.40000000224</v>
       </c>
       <c r="K75" s="110">
-        <v>591377.70000000298</v>
+        <v>591411.20000000298</v>
       </c>
       <c r="L75" s="110">
-        <v>680575.29999999702</v>
+        <v>683094</v>
       </c>
       <c r="M75" s="110">
-        <v>0</v>
+        <v>822414</v>
       </c>
       <c r="N75" s="110">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>5129399.599999994</v>
+        <v>5954300.1999999918</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,34 +5620,34 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0887525631668392E-3</v>
+        <v>-1.0887525631666725E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1639392065472283E-3</v>
+        <v>4.1638349407460808E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.500787004193573E-3</v>
+        <v>3.501301491998671E-3</v>
       </c>
       <c r="G76" s="110">
         <v>-1.1578663208456847E-3</v>
       </c>
       <c r="H76" s="110">
-        <v>-4.4638191214599341E-3</v>
+        <v>-4.4638696609638128E-3</v>
       </c>
       <c r="I76" s="110">
-        <v>-5.1598500840304568E-3</v>
+        <v>-5.1599310832412607E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>-3.3057631627589914E-3</v>
+        <v>-3.3092041624259417E-3</v>
       </c>
       <c r="K76" s="110">
-        <v>-3.4325575150919246E-3</v>
+        <v>-3.4310664420525569E-3</v>
       </c>
       <c r="L76" s="110">
-        <v>1.3186256641488701E-3</v>
-      </c>
-      <c r="M76" s="110" t="s">
-        <v>128</v>
+        <v>1.3630576589916535E-3</v>
+      </c>
+      <c r="M76" s="110">
+        <v>6.0366518693030858E-3</v>
       </c>
       <c r="N76" s="110" t="s">
         <v>128</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-9.6252568924641603E-3</v>
+        <v>-3.5458442716564389E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5686,31 +5686,31 @@
         <v>22815325</v>
       </c>
       <c r="E78" s="110">
-        <v>20611913.699999999</v>
+        <v>20611911.599999994</v>
       </c>
       <c r="F78" s="110">
-        <v>22540453.5</v>
+        <v>22540464.900000002</v>
       </c>
       <c r="G78" s="110">
-        <v>21103091.599999998</v>
+        <v>21103091.599999994</v>
       </c>
       <c r="H78" s="110">
-        <v>20755755.100000005</v>
+        <v>20755528.200000003</v>
       </c>
       <c r="I78" s="110">
-        <v>21159819.099999998</v>
+        <v>21159497.699999999</v>
       </c>
       <c r="J78" s="110">
-        <v>22699254.199999999</v>
+        <v>22698941.699999999</v>
       </c>
       <c r="K78" s="110">
-        <v>22657812.700000003</v>
+        <v>22657605.800000001</v>
       </c>
       <c r="L78" s="110">
-        <v>22408553.799999997</v>
+        <v>22410258.100000001</v>
       </c>
       <c r="M78" s="110">
-        <v>0</v>
+        <v>23026764.399999999</v>
       </c>
       <c r="N78" s="110">
         <v>0</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>196751978.69999999</v>
+        <v>219779389</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2022\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80154F62-62F6-4B74-BDA1-AD2CBFE5A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92812FB-F6BD-4772-AD60-B310CC4A05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="780" windowWidth="21864" windowHeight="10608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="60" windowWidth="22176" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,7 +466,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 November 2022</t>
+    <t xml:space="preserve"> Run Date:  30 December 2022</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3138,28 +3138,28 @@
         <v>10410967.6</v>
       </c>
       <c r="G7" s="19">
-        <v>10129311.699999999</v>
+        <v>10129311.9</v>
       </c>
       <c r="H7" s="19">
-        <v>10217217.9</v>
+        <v>10217226.300000001</v>
       </c>
       <c r="I7" s="19">
-        <v>10548725.6</v>
+        <v>10548724.300000001</v>
       </c>
       <c r="J7" s="19">
-        <v>10143446</v>
+        <v>10143438.800000001</v>
       </c>
       <c r="K7" s="19">
-        <v>10201252.800000001</v>
+        <v>10201225.4</v>
       </c>
       <c r="L7" s="19">
-        <v>10392855.699999999</v>
+        <v>10392618.5</v>
       </c>
       <c r="M7" s="19">
-        <v>10391493.4</v>
+        <v>10381699.1</v>
       </c>
       <c r="N7" s="19">
-        <v>0</v>
+        <v>10540313.6</v>
       </c>
       <c r="O7" s="19">
         <v>0</v>
@@ -3230,44 +3230,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1256510.1000000001</v>
+        <v>1254460.6000000001</v>
       </c>
       <c r="E11" s="62">
-        <v>1173592.8999999999</v>
+        <v>1172071.8</v>
       </c>
       <c r="F11" s="62">
-        <v>1370487.1</v>
+        <v>1368501.8</v>
       </c>
       <c r="G11" s="62">
-        <v>1384677.1</v>
+        <v>1380957.4</v>
       </c>
       <c r="H11" s="62">
-        <v>1379390.6</v>
+        <v>1372216.6</v>
       </c>
       <c r="I11" s="62">
-        <v>1325726.1000000001</v>
+        <v>1315824.5</v>
       </c>
       <c r="J11" s="62">
-        <v>1384205.4</v>
+        <v>1371308.3</v>
       </c>
       <c r="K11" s="62">
-        <v>1423516.8</v>
+        <v>1405169.3</v>
       </c>
       <c r="L11" s="62">
-        <v>1356031.7</v>
+        <v>1340100</v>
       </c>
       <c r="M11" s="62">
-        <v>1466322.9</v>
+        <v>1449361</v>
       </c>
       <c r="N11" s="62">
-        <v>0</v>
+        <v>1416086.2</v>
       </c>
       <c r="O11" s="62">
         <v>0</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>13520460.700000001</v>
+        <v>14846057.5</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,44 +3276,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>372279.5</v>
+        <v>372286.8</v>
       </c>
       <c r="E12" s="19">
         <v>349260.6</v>
       </c>
       <c r="F12" s="19">
-        <v>396560.4</v>
+        <v>396628.2</v>
       </c>
       <c r="G12" s="19">
-        <v>389776.7</v>
+        <v>390001.7</v>
       </c>
       <c r="H12" s="19">
-        <v>393520</v>
+        <v>395637.2</v>
       </c>
       <c r="I12" s="19">
-        <v>374249</v>
+        <v>376811.4</v>
       </c>
       <c r="J12" s="19">
-        <v>386801.7</v>
+        <v>390255.8</v>
       </c>
       <c r="K12" s="19">
-        <v>383854.7</v>
+        <v>391624.4</v>
       </c>
       <c r="L12" s="19">
-        <v>368634</v>
+        <v>374971.9</v>
       </c>
       <c r="M12" s="19">
-        <v>384337.3</v>
+        <v>389705.4</v>
       </c>
       <c r="N12" s="19">
-        <v>0</v>
+        <v>359453.2</v>
       </c>
       <c r="O12" s="19">
         <v>0</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>3799273.9000000004</v>
+        <v>4186636.5999999996</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3325,41 +3325,41 @@
         <v>167767</v>
       </c>
       <c r="E13" s="62">
-        <v>155850.79999999999</v>
+        <v>155851</v>
       </c>
       <c r="F13" s="62">
-        <v>175474.6</v>
+        <v>175753.7</v>
       </c>
       <c r="G13" s="62">
-        <v>170492.7</v>
+        <v>171593.4</v>
       </c>
       <c r="H13" s="62">
-        <v>175429.8</v>
+        <v>177678.1</v>
       </c>
       <c r="I13" s="62">
-        <v>164204.20000000001</v>
+        <v>166760.1</v>
       </c>
       <c r="J13" s="62">
-        <v>166730.6</v>
+        <v>169544.9</v>
       </c>
       <c r="K13" s="62">
-        <v>167878.8</v>
+        <v>170173.4</v>
       </c>
       <c r="L13" s="62">
-        <v>163608</v>
+        <v>167882</v>
       </c>
       <c r="M13" s="62">
-        <v>170554.9</v>
+        <v>176588.7</v>
       </c>
       <c r="N13" s="62">
-        <v>0</v>
+        <v>163128.5</v>
       </c>
       <c r="O13" s="62">
         <v>0</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1677991.4000000001</v>
+        <v>1862720.7999999998</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3368,44 +3368,44 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="106">
-        <v>423006.6</v>
+        <v>425228.6</v>
       </c>
       <c r="E14" s="106">
-        <v>405164.3</v>
+        <v>406805.4</v>
       </c>
       <c r="F14" s="106">
-        <v>464644.5</v>
+        <v>466286</v>
       </c>
       <c r="G14" s="105">
-        <v>464242.3</v>
+        <v>466734.4</v>
       </c>
       <c r="H14" s="105">
-        <v>489295.6</v>
+        <v>492220.9</v>
       </c>
       <c r="I14" s="105">
-        <v>475729.1</v>
+        <v>480653.2</v>
       </c>
       <c r="J14" s="105">
-        <v>490047.4</v>
+        <v>496806.40000000002</v>
       </c>
       <c r="K14" s="105">
-        <v>494723.1</v>
+        <v>503177.2</v>
       </c>
       <c r="L14" s="105">
-        <v>472094.6</v>
+        <v>477683.20000000001</v>
       </c>
       <c r="M14" s="105">
-        <v>483199.4</v>
+        <v>489352.8</v>
       </c>
       <c r="N14" s="105">
-        <v>0</v>
+        <v>464238.2</v>
       </c>
       <c r="O14" s="105">
         <v>0</v>
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>4662146.9000000004</v>
+        <v>5169186.3</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3413,44 +3413,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="62">
-        <v>2219563.2000000002</v>
+        <v>2219743</v>
       </c>
       <c r="E15" s="62">
-        <v>2083868.6</v>
+        <v>2083988.7999999998</v>
       </c>
       <c r="F15" s="62">
-        <v>2407166.6</v>
+        <v>2407169.7000000002</v>
       </c>
       <c r="G15" s="62">
-        <v>2409188.7999999998</v>
+        <v>2409286.9</v>
       </c>
       <c r="H15" s="62">
-        <v>2437636</v>
+        <v>2437752.8000000003</v>
       </c>
       <c r="I15" s="62">
-        <v>2339908.4</v>
+        <v>2340049.2000000002</v>
       </c>
       <c r="J15" s="62">
-        <v>2427785.1</v>
+        <v>2427915.4</v>
       </c>
       <c r="K15" s="62">
-        <v>2469973.4</v>
+        <v>2470144.3000000003</v>
       </c>
       <c r="L15" s="62">
-        <v>2360368.2999999998</v>
+        <v>2360637.1</v>
       </c>
       <c r="M15" s="62">
-        <v>2504414.5</v>
+        <v>2505007.9</v>
       </c>
       <c r="N15" s="62">
-        <v>0</v>
+        <v>2402906.1</v>
       </c>
       <c r="O15" s="62">
         <v>0</v>
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>23659872.899999999</v>
+        <v>26064601.200000003</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3475,19 +3475,19 @@
         <v>30</v>
       </c>
       <c r="D17" s="62">
-        <v>337653</v>
+        <v>337671.8</v>
       </c>
       <c r="E17" s="62">
-        <v>316810.2</v>
+        <v>316822.7</v>
       </c>
       <c r="F17" s="62">
-        <v>341725.1</v>
+        <v>341725.7</v>
       </c>
       <c r="G17" s="62">
-        <v>365051.6</v>
+        <v>365056.7</v>
       </c>
       <c r="H17" s="62">
-        <v>360307.1</v>
+        <v>360308.1</v>
       </c>
       <c r="I17" s="62">
         <v>370432.2</v>
@@ -3496,23 +3496,23 @@
         <v>394779.3</v>
       </c>
       <c r="K17" s="62">
-        <v>408845.5</v>
+        <v>408846.8</v>
       </c>
       <c r="L17" s="62">
-        <v>406970.2</v>
+        <v>406973.8</v>
       </c>
       <c r="M17" s="62">
-        <v>432463</v>
+        <v>432275.4</v>
       </c>
       <c r="N17" s="62">
-        <v>0</v>
+        <v>430174.1</v>
       </c>
       <c r="O17" s="62">
         <v>0</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>3735037.2</v>
+        <v>4165066.5999999996</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3585,35 +3585,35 @@
         <v>8622523.4000000004</v>
       </c>
       <c r="G21" s="62">
-        <v>8276955.2999999998</v>
+        <v>8276962.7999999998</v>
       </c>
       <c r="H21" s="62">
-        <v>7779718.2000000002</v>
+        <v>7779714</v>
       </c>
       <c r="I21" s="62">
-        <v>7219188.0999999996</v>
+        <v>7219185.7999999998</v>
       </c>
       <c r="J21" s="62">
-        <v>8496488.1999999993</v>
+        <v>8496497.5</v>
       </c>
       <c r="K21" s="62">
-        <v>8525436</v>
+        <v>8525435.0999999996</v>
       </c>
       <c r="L21" s="62">
-        <v>8214974.4000000004</v>
+        <v>8215137.7999999998</v>
       </c>
       <c r="M21" s="62">
-        <v>8803374.5</v>
+        <v>8805223.0999999996</v>
       </c>
       <c r="N21" s="62">
-        <v>0</v>
+        <v>8540889.8000000007</v>
       </c>
       <c r="O21" s="62">
         <v>0</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>82245411.200000003</v>
+        <v>90788322.399999991</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3652,14 +3652,14 @@
         <v>8020598.2000000002</v>
       </c>
       <c r="N22" s="62">
-        <v>0</v>
+        <v>8373982.5</v>
       </c>
       <c r="O22" s="62">
         <v>0</v>
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>77442849.200000003</v>
+        <v>85816831.700000003</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3698,14 +3698,14 @@
         <v>-6229922.7000000002</v>
       </c>
       <c r="N23" s="62">
-        <v>0</v>
+        <v>-7197759.0999999996</v>
       </c>
       <c r="O23" s="62">
         <v>0</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-63475404.600000001</v>
+        <v>-70673163.700000003</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3723,35 +3723,35 @@
         <v>9637024.5</v>
       </c>
       <c r="G24" s="62">
-        <v>9162878.5</v>
+        <v>9162886</v>
       </c>
       <c r="H24" s="62">
-        <v>9159524.2000000011</v>
+        <v>9159520</v>
       </c>
       <c r="I24" s="62">
-        <v>8910028.5999999996</v>
+        <v>8910026.2999999989</v>
       </c>
       <c r="J24" s="62">
-        <v>10035953.6</v>
+        <v>10035962.9</v>
       </c>
       <c r="K24" s="62">
-        <v>10362911.9</v>
+        <v>10362911</v>
       </c>
       <c r="L24" s="62">
-        <v>10426255.800000001</v>
+        <v>10426419.199999999</v>
       </c>
       <c r="M24" s="62">
-        <v>10594050</v>
+        <v>10595898.600000001</v>
       </c>
       <c r="N24" s="62">
-        <v>0</v>
+        <v>9717113.2000000011</v>
       </c>
       <c r="O24" s="62">
         <v>0</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>96212855.800000012</v>
+        <v>105931990.39999999</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3780,23 +3780,23 @@
         <v>5785935.2000000002</v>
       </c>
       <c r="K25" s="61">
-        <v>5587508.7999999998</v>
+        <v>5587199.2999999998</v>
       </c>
       <c r="L25" s="61">
-        <v>5301619.5999999996</v>
+        <v>5291674.5999999996</v>
       </c>
       <c r="M25" s="61">
-        <v>5408811.7999999998</v>
+        <v>5407600</v>
       </c>
       <c r="N25" s="61">
-        <v>0</v>
+        <v>6338575.4000000004</v>
       </c>
       <c r="O25" s="61">
         <v>0</v>
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>55328785.899999999</v>
+        <v>61655895</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3813,35 +3813,35 @@
         <v>15640911.4</v>
       </c>
       <c r="G26" s="62">
-        <v>14557185.6</v>
+        <v>14557193.1</v>
       </c>
       <c r="H26" s="62">
-        <v>14269949.700000001</v>
+        <v>14269945.5</v>
       </c>
       <c r="I26" s="62">
-        <v>14340523.699999999</v>
+        <v>14340521.399999999</v>
       </c>
       <c r="J26" s="62">
-        <v>15821888.800000001</v>
+        <v>15821898.100000001</v>
       </c>
       <c r="K26" s="62">
-        <v>15950420.699999999</v>
+        <v>15950110.300000001</v>
       </c>
       <c r="L26" s="62">
-        <v>15727875.4</v>
+        <v>15718093.799999999</v>
       </c>
       <c r="M26" s="62">
-        <v>16002861.800000001</v>
+        <v>16003498.600000001</v>
       </c>
       <c r="N26" s="62">
-        <v>0</v>
+        <v>16055688.600000001</v>
       </c>
       <c r="O26" s="62">
         <v>0</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>151541641.70000002</v>
+        <v>167587885.39999998</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3867,44 +3867,44 @@
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="62">
-        <v>17539015.099999998</v>
+        <v>17539213.699999999</v>
       </c>
       <c r="E28" s="62">
-        <v>16648904.499999998</v>
+        <v>16649037.199999999</v>
       </c>
       <c r="F28" s="62">
-        <v>18389803.100000001</v>
+        <v>18389806.800000001</v>
       </c>
       <c r="G28" s="62">
-        <v>17331426</v>
+        <v>17331536.699999999</v>
       </c>
       <c r="H28" s="62">
-        <v>17067892.800000001</v>
+        <v>17068006.400000002</v>
       </c>
       <c r="I28" s="62">
-        <v>17050864.300000001</v>
+        <v>17051002.799999997</v>
       </c>
       <c r="J28" s="62">
-        <v>18644453.200000003</v>
+        <v>18644592.800000001</v>
       </c>
       <c r="K28" s="62">
-        <v>18829239.599999998</v>
+        <v>18829101.400000002</v>
       </c>
       <c r="L28" s="62">
-        <v>18495213.899999999</v>
+        <v>18485704.699999999</v>
       </c>
       <c r="M28" s="62">
-        <v>18939739.300000001</v>
+        <v>18940781.899999999</v>
       </c>
       <c r="N28" s="62">
-        <v>0</v>
+        <v>18888768.800000004</v>
       </c>
       <c r="O28" s="62">
         <v>0</v>
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>178936551.80000001</v>
+        <v>197817553.19999996</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,44 +3948,44 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017777.6</v>
+        <v>1017578.5</v>
       </c>
       <c r="E31" s="62">
-        <v>964932.6</v>
+        <v>964799.9</v>
       </c>
       <c r="F31" s="62">
-        <v>1105382.5</v>
+        <v>1105374.5</v>
       </c>
       <c r="G31" s="62">
-        <v>1066586.1000000001</v>
+        <v>1066495.3</v>
       </c>
       <c r="H31" s="62">
-        <v>1054026.5</v>
+        <v>1053903.1000000001</v>
       </c>
       <c r="I31" s="62">
-        <v>924834.5</v>
+        <v>924698.4</v>
       </c>
       <c r="J31" s="62">
-        <v>1104389.1000000001</v>
+        <v>1104227.8</v>
       </c>
       <c r="K31" s="62">
-        <v>1059904.8999999999</v>
+        <v>1059733.3</v>
       </c>
       <c r="L31" s="62">
-        <v>1075455.2</v>
+        <v>1075302.5</v>
       </c>
       <c r="M31" s="62">
-        <v>1175145.8999999999</v>
+        <v>1092725.7</v>
       </c>
       <c r="N31" s="62">
-        <v>0</v>
+        <v>1059901.6000000001</v>
       </c>
       <c r="O31" s="62">
         <v>0</v>
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>10548434.9</v>
+        <v>11524740.6</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4020,17 +4020,17 @@
         <v>301456.8</v>
       </c>
       <c r="M32" s="62">
-        <v>355415.1</v>
+        <v>360227.9</v>
       </c>
       <c r="N32" s="62">
-        <v>0</v>
+        <v>346018.9</v>
       </c>
       <c r="O32" s="62">
         <v>0</v>
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>3254590.8000000003</v>
+        <v>3605422.5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4086,14 +4086,14 @@
         <v>10431.4</v>
       </c>
       <c r="N34" s="62">
-        <v>0</v>
+        <v>9408.5</v>
       </c>
       <c r="O34" s="62">
         <v>0</v>
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>96021.5</v>
+        <v>105430</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4132,14 +4132,14 @@
         <v>9634</v>
       </c>
       <c r="N35" s="62">
-        <v>0</v>
+        <v>7798</v>
       </c>
       <c r="O35" s="62">
         <v>0</v>
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>121318.59999999999</v>
+        <v>129116.59999999999</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4166,7 +4166,7 @@
         <v>338398</v>
       </c>
       <c r="J36" s="62">
-        <v>409402</v>
+        <v>409395.7</v>
       </c>
       <c r="K36" s="62">
         <v>471822.8</v>
@@ -4175,17 +4175,17 @@
         <v>448072.3</v>
       </c>
       <c r="M36" s="62">
-        <v>527163.6</v>
+        <v>527083.1</v>
       </c>
       <c r="N36" s="62">
-        <v>0</v>
+        <v>498856.6</v>
       </c>
       <c r="O36" s="62">
         <v>0</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>4685214.3</v>
+        <v>5183984.0999999996</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4224,13 +4224,13 @@
         <v>226971.8</v>
       </c>
       <c r="H38" s="62">
-        <v>215460.6</v>
+        <v>215460.7</v>
       </c>
       <c r="I38" s="62">
-        <v>214618.8</v>
+        <v>214610.5</v>
       </c>
       <c r="J38" s="62">
-        <v>224903.8</v>
+        <v>224911.6</v>
       </c>
       <c r="K38" s="62">
         <v>218651</v>
@@ -4239,17 +4239,17 @@
         <v>211080.9</v>
       </c>
       <c r="M38" s="62">
-        <v>216655</v>
+        <v>217278.8</v>
       </c>
       <c r="N38" s="62">
-        <v>0</v>
+        <v>231459.1</v>
       </c>
       <c r="O38" s="62">
         <v>0</v>
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>2197199.2999999998</v>
+        <v>2429281.7999999998</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4288,14 +4288,14 @@
         <v>63.9</v>
       </c>
       <c r="N39" s="62">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="O39" s="62">
         <v>0</v>
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>506.5</v>
+        <v>544.4</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4361,7 +4361,7 @@
         <v>457777</v>
       </c>
       <c r="J42" s="110">
-        <v>484817.9</v>
+        <v>485056.2</v>
       </c>
       <c r="K42" s="110">
         <v>458210.7</v>
@@ -4370,17 +4370,17 @@
         <v>456884.9</v>
       </c>
       <c r="M42" s="110">
-        <v>463848.2</v>
+        <v>463498.6</v>
       </c>
       <c r="N42" s="110">
-        <v>0</v>
+        <v>440190.2</v>
       </c>
       <c r="O42" s="110">
         <v>0</v>
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>4525081.3</v>
+        <v>4965160.2</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4419,14 +4419,14 @@
         <v>1119491.5</v>
       </c>
       <c r="N43" s="110">
-        <v>0</v>
+        <v>1087166.5</v>
       </c>
       <c r="O43" s="110">
         <v>0</v>
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>10314485.699999999</v>
+        <v>11401652.199999999</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4453,7 +4453,7 @@
         <v>754394.2</v>
       </c>
       <c r="J44" s="110">
-        <v>769785.4</v>
+        <v>769547.1</v>
       </c>
       <c r="K44" s="110">
         <v>793088.5</v>
@@ -4462,17 +4462,17 @@
         <v>740281.7</v>
       </c>
       <c r="M44" s="110">
-        <v>747854.7</v>
+        <v>747852.6</v>
       </c>
       <c r="N44" s="110">
-        <v>0</v>
+        <v>779208.2</v>
       </c>
       <c r="O44" s="110">
         <v>0</v>
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>7661533.7000000011</v>
+        <v>8440501.5</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4511,14 +4511,14 @@
         <v>311280.5</v>
       </c>
       <c r="N45" s="112">
-        <v>0</v>
+        <v>271094.5</v>
       </c>
       <c r="O45" s="112">
         <v>0</v>
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>2434263.7000000002</v>
+        <v>2705358.2</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4554,17 +4554,17 @@
         <v>2438747.9999999995</v>
       </c>
       <c r="M46" s="110">
-        <v>2642474.9</v>
+        <v>2642123.2000000002</v>
       </c>
       <c r="N46" s="110">
-        <v>0</v>
+        <v>2577659.4</v>
       </c>
       <c r="O46" s="110">
         <v>0</v>
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>24935364.399999999</v>
+        <v>27512672.099999998</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,44 +4591,44 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4638966.3</v>
+        <v>4638767.1999999993</v>
       </c>
       <c r="E48" s="110">
-        <v>4395947.5999999996</v>
+        <v>4395814.8999999994</v>
       </c>
       <c r="F48" s="110">
-        <v>4523851.8000000007</v>
+        <v>4523843.8000000007</v>
       </c>
       <c r="G48" s="110">
-        <v>4470040.3999999994</v>
+        <v>4469949.5999999996</v>
       </c>
       <c r="H48" s="110">
-        <v>4616876.8</v>
+        <v>4616753.5</v>
       </c>
       <c r="I48" s="110">
-        <v>4391652.5</v>
+        <v>4391508.0999999996</v>
       </c>
       <c r="J48" s="110">
-        <v>4706294.3000000007</v>
+        <v>4706134.5</v>
       </c>
       <c r="K48" s="110">
-        <v>4667255</v>
+        <v>4667083.4000000004</v>
       </c>
       <c r="L48" s="110">
-        <v>4490781.8</v>
+        <v>4490629.0999999996</v>
       </c>
       <c r="M48" s="110">
-        <v>4936983.8</v>
+        <v>4859568</v>
       </c>
       <c r="N48" s="110">
-        <v>0</v>
+        <v>4731140</v>
       </c>
       <c r="O48" s="110">
         <v>0</v>
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>45838650.299999997</v>
+        <v>50491192.100000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4683,14 +4683,14 @@
         <v>233221.9</v>
       </c>
       <c r="N50" s="110">
-        <v>0</v>
+        <v>212727.9</v>
       </c>
       <c r="O50" s="110">
         <v>0</v>
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>2072010.1999999997</v>
+        <v>2284738.0999999996</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4728,14 +4728,14 @@
         <v>95545.3</v>
       </c>
       <c r="N51" s="110">
-        <v>0</v>
+        <v>94729.5</v>
       </c>
       <c r="O51" s="110">
         <v>0</v>
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>842953.29999999993</v>
+        <v>937682.79999999993</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,44 +4743,44 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305849.40000000002</v>
+        <v>305808.3</v>
       </c>
       <c r="E52" s="110">
-        <v>284503.5</v>
+        <v>284476</v>
       </c>
       <c r="F52" s="110">
-        <v>322671.59999999998</v>
+        <v>322669.90000000002</v>
       </c>
       <c r="G52" s="110">
-        <v>309871.5</v>
+        <v>309852.79999999999</v>
       </c>
       <c r="H52" s="110">
-        <v>297780.09999999998</v>
+        <v>297754.5</v>
       </c>
       <c r="I52" s="110">
-        <v>272907</v>
+        <v>272887.2</v>
       </c>
       <c r="J52" s="110">
-        <v>318657.90000000002</v>
+        <v>318616.7</v>
       </c>
       <c r="K52" s="110">
-        <v>309037</v>
+        <v>309001.5</v>
       </c>
       <c r="L52" s="110">
-        <v>307688.8</v>
+        <v>307657.09999999998</v>
       </c>
       <c r="M52" s="110">
-        <v>332713.40000000002</v>
+        <v>315650.2</v>
       </c>
       <c r="N52" s="110">
-        <v>0</v>
+        <v>307125.7</v>
       </c>
       <c r="O52" s="110">
         <v>0</v>
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>3061680.1999999997</v>
+        <v>3351499.9000000004</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4813,38 +4813,38 @@
         <v>10410967.6</v>
       </c>
       <c r="F54" s="116">
-        <v>10129503.1</v>
+        <v>10129503.300000001</v>
       </c>
       <c r="G54" s="116">
-        <v>10217217.9</v>
+        <v>10217226.300000001</v>
       </c>
       <c r="H54" s="116">
-        <v>10548725.6</v>
+        <v>10548724.300000001</v>
       </c>
       <c r="I54" s="116">
-        <v>10143506.9</v>
+        <v>10143499.699999999</v>
       </c>
       <c r="J54" s="116">
-        <v>10201257.4</v>
+        <v>10201230</v>
       </c>
       <c r="K54" s="116">
-        <v>10392961.9</v>
+        <v>10392624.699999999</v>
       </c>
       <c r="L54" s="116">
-        <v>10391627.699999999</v>
+        <v>10381699.1</v>
       </c>
       <c r="M54" s="116">
-        <v>10551326</v>
+        <v>10540395.800000001</v>
       </c>
       <c r="N54" s="116">
-        <v>0</v>
+        <v>11254313.5</v>
       </c>
       <c r="O54" s="116">
         <v>0</v>
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>10551326</v>
+        <v>11254313.5</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4852,7 +4852,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="110">
-        <v>-39806.400000000001</v>
+        <v>-39806.6</v>
       </c>
       <c r="E55" s="110">
         <v>388.9</v>
@@ -4876,20 +4876,20 @@
         <v>-31014.7</v>
       </c>
       <c r="L55" s="110">
-        <v>39131.599999999999</v>
+        <v>39102</v>
       </c>
       <c r="M55" s="110">
-        <v>-28645.5</v>
+        <v>-27045.9</v>
       </c>
       <c r="N55" s="110">
-        <v>0</v>
+        <v>-94745</v>
       </c>
       <c r="O55" s="110">
         <v>0</v>
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-226638.9</v>
+        <v>-319814.09999999998</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,44 +4915,44 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815325</v>
+        <v>22815365.399999999</v>
       </c>
       <c r="E57" s="110">
-        <v>20611911.599999994</v>
+        <v>20611939.099999994</v>
       </c>
       <c r="F57" s="110">
-        <v>22540464.900000002</v>
+        <v>22540462.099999998</v>
       </c>
       <c r="G57" s="110">
-        <v>21103091.599999994</v>
+        <v>21103121.999999996</v>
       </c>
       <c r="H57" s="110">
-        <v>20755528.200000003</v>
+        <v>20755553.800000004</v>
       </c>
       <c r="I57" s="110">
-        <v>21159497.699999999</v>
+        <v>21159517.5</v>
       </c>
       <c r="J57" s="110">
-        <v>22698941.699999999</v>
+        <v>22698982.900000002</v>
       </c>
       <c r="K57" s="110">
-        <v>22657605.800000001</v>
+        <v>22657641.300000008</v>
       </c>
       <c r="L57" s="110">
-        <v>22410258.100000001</v>
+        <v>22410289.699999996</v>
       </c>
       <c r="M57" s="110">
-        <v>23026764.399999999</v>
+        <v>22970189.899999999</v>
       </c>
       <c r="N57" s="110">
-        <v>0</v>
+        <v>22196580.800000004</v>
       </c>
       <c r="O57" s="110">
         <v>0</v>
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>219779389</v>
+        <v>241919644.50000003</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -5108,17 +5108,17 @@
         <v>36.700000000000003</v>
       </c>
       <c r="M63" s="62">
-        <v>4219.8</v>
+        <v>4384</v>
       </c>
       <c r="N63" s="62">
-        <v>0</v>
+        <v>28202.5</v>
       </c>
       <c r="O63" s="62">
         <v>0</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>177218.1</v>
+        <v>205584.80000000002</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5156,14 +5156,14 @@
         <v>2472202.9</v>
       </c>
       <c r="N64" s="62">
-        <v>0</v>
+        <v>2261678.1</v>
       </c>
       <c r="O64" s="62">
         <v>0</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>23589119.499999996</v>
+        <v>25850797.599999998</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5198,17 +5198,17 @@
         <v>10605.8</v>
       </c>
       <c r="M65" s="62">
-        <v>11967.1</v>
+        <v>12049.1</v>
       </c>
       <c r="N65" s="62">
-        <v>0</v>
+        <v>9847</v>
       </c>
       <c r="O65" s="62">
         <v>0</v>
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>136526.9</v>
+        <v>146455.9</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5246,14 +5246,14 @@
         <v>1582.1</v>
       </c>
       <c r="N66" s="62">
-        <v>0</v>
+        <v>4822.2</v>
       </c>
       <c r="O66" s="62">
         <v>0</v>
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>126822</v>
+        <v>131644.20000000001</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5289,7 +5289,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M67" s="62">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="N67" s="62">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="P67" s="59"/>
       <c r="Q67" s="53">
-        <v>1055.7</v>
+        <v>1065.7</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1">
@@ -5308,16 +5308,16 @@
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="62">
-        <v>1325.6</v>
+        <v>1326.6</v>
       </c>
       <c r="E68" s="62">
         <v>2237.1999999999998</v>
       </c>
       <c r="F68" s="62">
-        <v>-3594</v>
+        <v>-3585</v>
       </c>
       <c r="G68" s="62">
-        <v>5516.2</v>
+        <v>5492.8</v>
       </c>
       <c r="H68" s="62">
         <v>210.1</v>
@@ -5335,17 +5335,17 @@
         <v>-707.2</v>
       </c>
       <c r="M68" s="62">
-        <v>-9944.2000000000007</v>
+        <v>-13869.6</v>
       </c>
       <c r="N68" s="62">
-        <v>0</v>
+        <v>-16692.400000000001</v>
       </c>
       <c r="O68" s="62">
         <v>0</v>
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>-4921.7</v>
+        <v>-25552.9</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5381,17 +5381,17 @@
         <v>354287.7</v>
       </c>
       <c r="M69" s="62">
-        <v>420915.4</v>
+        <v>342995.3</v>
       </c>
       <c r="N69" s="62">
-        <v>0</v>
+        <v>325791.8</v>
       </c>
       <c r="O69" s="62">
         <v>0</v>
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>3668126.4</v>
+        <v>3915998.0999999996</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5400,16 +5400,16 @@
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="62">
-        <v>2752569.6</v>
+        <v>2752570.6</v>
       </c>
       <c r="E70" s="62">
         <v>2655014.1000000006</v>
       </c>
       <c r="F70" s="62">
-        <v>2981937.4</v>
+        <v>2981946.4</v>
       </c>
       <c r="G70" s="62">
-        <v>2563676.2999999998</v>
+        <v>2563652.8999999994</v>
       </c>
       <c r="H70" s="62">
         <v>2466025.6000000006</v>
@@ -5427,17 +5427,17 @@
         <v>2839651.8</v>
       </c>
       <c r="M70" s="62">
-        <v>2901686.0999999996</v>
+        <v>2820096.8</v>
       </c>
       <c r="N70" s="62">
-        <v>0</v>
+        <v>2613649.2000000002</v>
       </c>
       <c r="O70" s="62">
         <v>0</v>
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>27693946.899999999</v>
+        <v>30225993.399999999</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5494,14 +5494,14 @@
         <v>19302664.300000001</v>
       </c>
       <c r="N72" s="110">
-        <v>0</v>
+        <v>18948548.600000001</v>
       </c>
       <c r="O72" s="110">
         <v>0</v>
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>186131141.90000001</v>
+        <v>205079690.5</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5540,14 +5540,14 @@
         <v>622666.59032258065</v>
       </c>
       <c r="N73" s="110">
-        <v>0</v>
+        <v>631618.28666666674</v>
       </c>
       <c r="O73" s="110">
         <v>0</v>
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>612312.06487864815</v>
+        <v>614067.17595028621</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,44 +5574,44 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421424.59999999776</v>
+        <v>421463.99999999627</v>
       </c>
       <c r="E75" s="110">
-        <v>638458.49999999255</v>
+        <v>638485.99999999255</v>
       </c>
       <c r="F75" s="110">
-        <v>537385.70000000298</v>
+        <v>537373.89999999851</v>
       </c>
       <c r="G75" s="110">
-        <v>495967.39999999478</v>
+        <v>496021.19999999925</v>
       </c>
       <c r="H75" s="110">
-        <v>625498</v>
+        <v>625523.60000000149</v>
       </c>
       <c r="I75" s="110">
-        <v>579878.39999999851</v>
+        <v>579898.19999999925</v>
       </c>
       <c r="J75" s="110">
-        <v>558768.40000000224</v>
+        <v>558809.60000000522</v>
       </c>
       <c r="K75" s="110">
-        <v>591411.20000000298</v>
+        <v>591446.70000001043</v>
       </c>
       <c r="L75" s="110">
-        <v>683094</v>
+        <v>683125.59999999404</v>
       </c>
       <c r="M75" s="110">
-        <v>822414</v>
+        <v>847428.79999999702</v>
       </c>
       <c r="N75" s="110">
-        <v>0</v>
+        <v>634383.00000000373</v>
       </c>
       <c r="O75" s="110">
         <v>0</v>
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>5954300.1999999918</v>
+        <v>6613960.5999999978</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,44 +5620,44 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.0887525631666725E-3</v>
+        <v>-1.086989276811053E-3</v>
       </c>
       <c r="E76" s="110">
-        <v>4.1638349407460808E-3</v>
+        <v>4.1652003245051753E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.501301491998671E-3</v>
+        <v>3.5007675250612459E-3</v>
       </c>
       <c r="G76" s="110">
-        <v>-1.1578663208456847E-3</v>
+        <v>-1.1552508441311658E-3</v>
       </c>
       <c r="H76" s="110">
-        <v>-4.4638696609638128E-3</v>
+        <v>-4.4625865517492454E-3</v>
       </c>
       <c r="I76" s="110">
-        <v>-5.1599310832412607E-3</v>
+        <v>-5.1589590127278798E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>-3.3092041624259417E-3</v>
+        <v>-3.3073309588333957E-3</v>
       </c>
       <c r="K76" s="110">
-        <v>-3.4310664420525569E-3</v>
+        <v>-3.4294465902121856E-3</v>
       </c>
       <c r="L76" s="110">
-        <v>1.3630576589916535E-3</v>
+        <v>1.3645080953000514E-3</v>
       </c>
       <c r="M76" s="110">
-        <v>6.0366518693030858E-3</v>
-      </c>
-      <c r="N76" s="110" t="s">
-        <v>128</v>
+        <v>7.1745929774654077E-3</v>
+      </c>
+      <c r="N76" s="110">
+        <v>2.0342580895430149E-4</v>
       </c>
       <c r="O76" s="110" t="s">
         <v>128</v>
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-3.5458442716564389E-3</v>
+        <v>-2.1920685031787432E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,44 +5683,44 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815325</v>
+        <v>22815365.399999999</v>
       </c>
       <c r="E78" s="110">
-        <v>20611911.599999994</v>
+        <v>20611939.099999994</v>
       </c>
       <c r="F78" s="110">
-        <v>22540464.900000002</v>
+        <v>22540462.099999998</v>
       </c>
       <c r="G78" s="110">
-        <v>21103091.599999994</v>
+        <v>21103121.999999996</v>
       </c>
       <c r="H78" s="110">
-        <v>20755528.200000003</v>
+        <v>20755553.800000004</v>
       </c>
       <c r="I78" s="110">
-        <v>21159497.699999999</v>
+        <v>21159517.5</v>
       </c>
       <c r="J78" s="110">
-        <v>22698941.699999999</v>
+        <v>22698982.900000002</v>
       </c>
       <c r="K78" s="110">
-        <v>22657605.800000001</v>
+        <v>22657641.300000008</v>
       </c>
       <c r="L78" s="110">
-        <v>22410258.100000001</v>
+        <v>22410289.699999996</v>
       </c>
       <c r="M78" s="110">
-        <v>23026764.399999999</v>
+        <v>22970189.899999999</v>
       </c>
       <c r="N78" s="110">
-        <v>0</v>
+        <v>22196580.800000004</v>
       </c>
       <c r="O78" s="110">
         <v>0</v>
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>219779389</v>
+        <v>241919644.50000003</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2022\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92812FB-F6BD-4772-AD60-B310CC4A05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957ABFAC-ECE1-4396-88E1-A83C0800B31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="22176" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="1836" windowWidth="23124" windowHeight="9972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -463,10 +463,7 @@
     <t>2022</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  30 December 2022</t>
+    <t xml:space="preserve"> Run Date:  27 January 2023</t>
   </si>
 </sst>
 </file>
@@ -3012,8 +3009,8 @@
   </sheetPr>
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="4" spans="2:22" s="4" customFormat="1" ht="22.5" customHeight="1">
       <c r="B4" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="5"/>
@@ -3129,44 +3126,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="19">
-        <v>11759292.9</v>
+        <v>11760098.800000001</v>
       </c>
       <c r="E7" s="19">
-        <v>10517024.300000001</v>
+        <v>10517088.4</v>
       </c>
       <c r="F7" s="19">
-        <v>10410967.6</v>
+        <v>10411031.699999999</v>
       </c>
       <c r="G7" s="19">
-        <v>10129311.9</v>
+        <v>10129376</v>
       </c>
       <c r="H7" s="19">
-        <v>10217226.300000001</v>
+        <v>10217290.4</v>
       </c>
       <c r="I7" s="19">
-        <v>10548724.300000001</v>
+        <v>10548783.4</v>
       </c>
       <c r="J7" s="19">
-        <v>10143438.800000001</v>
+        <v>10143492.300000001</v>
       </c>
       <c r="K7" s="19">
-        <v>10201225.4</v>
+        <v>10201256.1</v>
       </c>
       <c r="L7" s="19">
-        <v>10392618.5</v>
+        <v>10392660.5</v>
       </c>
       <c r="M7" s="19">
-        <v>10381699.1</v>
+        <v>10381738.699999999</v>
       </c>
       <c r="N7" s="19">
-        <v>10540313.6</v>
+        <v>10541244.4</v>
       </c>
       <c r="O7" s="19">
-        <v>0</v>
+        <v>11256266.800000001</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <v>11759292.9</v>
+        <v>11760098.800000001</v>
       </c>
       <c r="V7" s="62"/>
     </row>
@@ -3230,44 +3227,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="62">
-        <v>1254460.6000000001</v>
+        <v>1254553.7</v>
       </c>
       <c r="E11" s="62">
-        <v>1172071.8</v>
+        <v>1172583</v>
       </c>
       <c r="F11" s="62">
-        <v>1368501.8</v>
+        <v>1368608.2</v>
       </c>
       <c r="G11" s="62">
-        <v>1380957.4</v>
+        <v>1381041.6</v>
       </c>
       <c r="H11" s="62">
-        <v>1372216.6</v>
+        <v>1372370.3</v>
       </c>
       <c r="I11" s="62">
-        <v>1315824.5</v>
+        <v>1316809.8</v>
       </c>
       <c r="J11" s="62">
-        <v>1371308.3</v>
+        <v>1372443.4</v>
       </c>
       <c r="K11" s="62">
-        <v>1405169.3</v>
+        <v>1401105</v>
       </c>
       <c r="L11" s="62">
-        <v>1340100</v>
+        <v>1329828.7</v>
       </c>
       <c r="M11" s="62">
-        <v>1449361</v>
+        <v>1439680.3</v>
       </c>
       <c r="N11" s="62">
-        <v>1416086.2</v>
+        <v>1406817.2</v>
       </c>
       <c r="O11" s="62">
-        <v>0</v>
+        <v>1467453.4</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59">
-        <v>14846057.5</v>
+        <v>16283294.6</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1">
@@ -3276,44 +3273,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="19">
-        <v>372286.8</v>
+        <v>372292.8</v>
       </c>
       <c r="E12" s="19">
-        <v>349260.6</v>
+        <v>349268</v>
       </c>
       <c r="F12" s="19">
-        <v>396628.2</v>
+        <v>396631.9</v>
       </c>
       <c r="G12" s="19">
-        <v>390001.7</v>
+        <v>390009.7</v>
       </c>
       <c r="H12" s="19">
-        <v>395637.2</v>
+        <v>395645</v>
       </c>
       <c r="I12" s="19">
-        <v>376811.4</v>
+        <v>376818.5</v>
       </c>
       <c r="J12" s="19">
-        <v>390255.8</v>
+        <v>390262.6</v>
       </c>
       <c r="K12" s="19">
-        <v>391624.4</v>
+        <v>394632.2</v>
       </c>
       <c r="L12" s="19">
-        <v>374971.9</v>
+        <v>380490.4</v>
       </c>
       <c r="M12" s="19">
-        <v>389705.4</v>
+        <v>395287.8</v>
       </c>
       <c r="N12" s="19">
-        <v>359453.2</v>
+        <v>364053.5</v>
       </c>
       <c r="O12" s="19">
-        <v>0</v>
+        <v>353470.3</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11">
-        <v>4186636.5999999996</v>
+        <v>4558862.7</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="55" customFormat="1">
@@ -3322,44 +3319,44 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="62">
-        <v>167767</v>
+        <v>167667.9</v>
       </c>
       <c r="E13" s="62">
-        <v>155851</v>
+        <v>155331.70000000001</v>
       </c>
       <c r="F13" s="62">
-        <v>175753.7</v>
+        <v>175643.6</v>
       </c>
       <c r="G13" s="62">
-        <v>171593.4</v>
+        <v>171536.3</v>
       </c>
       <c r="H13" s="62">
-        <v>177678.1</v>
+        <v>177514.4</v>
       </c>
       <c r="I13" s="62">
-        <v>166760.1</v>
+        <v>165775.6</v>
       </c>
       <c r="J13" s="62">
-        <v>169544.9</v>
+        <v>168243.7</v>
       </c>
       <c r="K13" s="62">
-        <v>170173.4</v>
+        <v>171018.4</v>
       </c>
       <c r="L13" s="62">
-        <v>167882</v>
+        <v>170357.6</v>
       </c>
       <c r="M13" s="62">
-        <v>176588.7</v>
+        <v>178519.2</v>
       </c>
       <c r="N13" s="62">
-        <v>163128.5</v>
+        <v>166536</v>
       </c>
       <c r="O13" s="62">
-        <v>0</v>
+        <v>162132.1</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59">
-        <v>1862720.7999999998</v>
+        <v>2030276.5</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="55" customFormat="1">
@@ -3371,7 +3368,7 @@
         <v>425228.6</v>
       </c>
       <c r="E14" s="106">
-        <v>406805.4</v>
+        <v>406803.3</v>
       </c>
       <c r="F14" s="106">
         <v>466286</v>
@@ -3386,26 +3383,26 @@
         <v>480653.2</v>
       </c>
       <c r="J14" s="105">
-        <v>496806.40000000002</v>
+        <v>496945.4</v>
       </c>
       <c r="K14" s="105">
-        <v>503177.2</v>
+        <v>503419.1</v>
       </c>
       <c r="L14" s="105">
-        <v>477683.20000000001</v>
+        <v>479960.4</v>
       </c>
       <c r="M14" s="105">
-        <v>489352.8</v>
+        <v>491555.4</v>
       </c>
       <c r="N14" s="105">
-        <v>464238.2</v>
+        <v>466067.6</v>
       </c>
       <c r="O14" s="105">
-        <v>0</v>
+        <v>463777.5</v>
       </c>
       <c r="P14" s="106"/>
       <c r="Q14" s="106">
-        <v>5169186.3</v>
+        <v>5639651.7999999998</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="5" customFormat="1">
@@ -3416,41 +3413,41 @@
         <v>2219743</v>
       </c>
       <c r="E15" s="62">
-        <v>2083988.7999999998</v>
+        <v>2083986</v>
       </c>
       <c r="F15" s="62">
         <v>2407169.7000000002</v>
       </c>
       <c r="G15" s="62">
-        <v>2409286.9</v>
+        <v>2409322</v>
       </c>
       <c r="H15" s="62">
-        <v>2437752.8000000003</v>
+        <v>2437750.6</v>
       </c>
       <c r="I15" s="62">
-        <v>2340049.2000000002</v>
+        <v>2340057.1</v>
       </c>
       <c r="J15" s="62">
-        <v>2427915.4</v>
+        <v>2427895.1</v>
       </c>
       <c r="K15" s="62">
-        <v>2470144.3000000003</v>
+        <v>2470174.6999999997</v>
       </c>
       <c r="L15" s="62">
         <v>2360637.1</v>
       </c>
       <c r="M15" s="62">
-        <v>2505007.9</v>
+        <v>2505042.7000000002</v>
       </c>
       <c r="N15" s="62">
-        <v>2402906.1</v>
+        <v>2403474.2999999998</v>
       </c>
       <c r="O15" s="62">
-        <v>0</v>
+        <v>2446833.2999999998</v>
       </c>
       <c r="P15" s="59"/>
       <c r="Q15" s="59">
-        <v>26064601.200000003</v>
+        <v>28512085.600000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="5" customFormat="1">
@@ -3478,41 +3475,41 @@
         <v>337671.8</v>
       </c>
       <c r="E17" s="62">
-        <v>316822.7</v>
+        <v>316825.5</v>
       </c>
       <c r="F17" s="62">
         <v>341725.7</v>
       </c>
       <c r="G17" s="62">
-        <v>365056.7</v>
+        <v>365021.6</v>
       </c>
       <c r="H17" s="62">
-        <v>360308.1</v>
+        <v>360305.3</v>
       </c>
       <c r="I17" s="62">
-        <v>370432.2</v>
+        <v>370418.7</v>
       </c>
       <c r="J17" s="62">
-        <v>394779.3</v>
+        <v>394776.8</v>
       </c>
       <c r="K17" s="62">
-        <v>408846.8</v>
+        <v>408827.7</v>
       </c>
       <c r="L17" s="62">
-        <v>406973.8</v>
+        <v>406971.4</v>
       </c>
       <c r="M17" s="62">
-        <v>432275.4</v>
+        <v>432251.9</v>
       </c>
       <c r="N17" s="62">
-        <v>430174.1</v>
+        <v>430158.1</v>
       </c>
       <c r="O17" s="62">
-        <v>0</v>
+        <v>419587.5</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59">
-        <v>4165066.5999999996</v>
+        <v>4584542</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3609,11 +3606,11 @@
         <v>8540889.8000000007</v>
       </c>
       <c r="O21" s="62">
-        <v>0</v>
+        <v>8755983.4000000004</v>
       </c>
       <c r="P21" s="59"/>
       <c r="Q21" s="59">
-        <v>90788322.399999991</v>
+        <v>99544305.799999997</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="56" customFormat="1">
@@ -3655,11 +3652,11 @@
         <v>8373982.5</v>
       </c>
       <c r="O22" s="62">
-        <v>0</v>
+        <v>8012548.7999999998</v>
       </c>
       <c r="P22" s="59"/>
       <c r="Q22" s="59">
-        <v>85816831.700000003</v>
+        <v>93829380.5</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3701,11 +3698,11 @@
         <v>-7197759.0999999996</v>
       </c>
       <c r="O23" s="62">
-        <v>0</v>
+        <v>-6939429.7000000002</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59">
-        <v>-70673163.700000003</v>
+        <v>-77612593.400000006</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3747,11 +3744,11 @@
         <v>9717113.2000000011</v>
       </c>
       <c r="O24" s="62">
-        <v>0</v>
+        <v>9829102.5</v>
       </c>
       <c r="P24" s="59"/>
       <c r="Q24" s="59">
-        <v>105931990.39999999</v>
+        <v>115761092.90000001</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3789,14 +3786,14 @@
         <v>5407600</v>
       </c>
       <c r="N25" s="61">
-        <v>6338575.4000000004</v>
+        <v>6338582.9000000004</v>
       </c>
       <c r="O25" s="61">
-        <v>0</v>
+        <v>6075629.0999999996</v>
       </c>
       <c r="P25" s="59"/>
       <c r="Q25" s="60">
-        <v>61655895</v>
+        <v>67731531.599999994</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3834,14 +3831,14 @@
         <v>16003498.600000001</v>
       </c>
       <c r="N26" s="62">
-        <v>16055688.600000001</v>
+        <v>16055696.100000001</v>
       </c>
       <c r="O26" s="62">
-        <v>0</v>
+        <v>15904731.6</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59">
-        <v>167587885.39999998</v>
+        <v>183492624.5</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3876,35 +3873,35 @@
         <v>18389806.800000001</v>
       </c>
       <c r="G28" s="62">
-        <v>17331536.699999999</v>
+        <v>17331536.700000003</v>
       </c>
       <c r="H28" s="62">
-        <v>17068006.400000002</v>
+        <v>17068001.399999999</v>
       </c>
       <c r="I28" s="62">
-        <v>17051002.799999997</v>
+        <v>17050997.199999999</v>
       </c>
       <c r="J28" s="62">
-        <v>18644592.800000001</v>
+        <v>18644570.000000004</v>
       </c>
       <c r="K28" s="62">
-        <v>18829101.400000002</v>
+        <v>18829112.699999999</v>
       </c>
       <c r="L28" s="62">
-        <v>18485704.699999999</v>
+        <v>18485702.299999997</v>
       </c>
       <c r="M28" s="62">
-        <v>18940781.899999999</v>
+        <v>18940793.199999999</v>
       </c>
       <c r="N28" s="62">
-        <v>18888768.800000004</v>
+        <v>18889328.500000004</v>
       </c>
       <c r="O28" s="62">
-        <v>0</v>
+        <v>18771152.399999999</v>
       </c>
       <c r="P28" s="59"/>
       <c r="Q28" s="62">
-        <v>197817553.19999996</v>
+        <v>216589252.09999999</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3948,7 +3945,7 @@
         <v>49</v>
       </c>
       <c r="D31" s="62">
-        <v>1017578.5</v>
+        <v>1016836.7</v>
       </c>
       <c r="E31" s="62">
         <v>964799.9</v>
@@ -3975,17 +3972,17 @@
         <v>1075302.5</v>
       </c>
       <c r="M31" s="62">
-        <v>1092725.7</v>
+        <v>1092231.7</v>
       </c>
       <c r="N31" s="62">
-        <v>1059901.6000000001</v>
+        <v>1057849.7</v>
       </c>
       <c r="O31" s="62">
-        <v>0</v>
+        <v>1151350.2</v>
       </c>
       <c r="P31" s="59"/>
       <c r="Q31" s="59">
-        <v>11524740.6</v>
+        <v>12672803.099999998</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -4023,14 +4020,14 @@
         <v>360227.9</v>
       </c>
       <c r="N32" s="62">
-        <v>346018.9</v>
+        <v>349706.7</v>
       </c>
       <c r="O32" s="62">
-        <v>0</v>
+        <v>318774.09999999998</v>
       </c>
       <c r="P32" s="59"/>
       <c r="Q32" s="62">
-        <v>3605422.5</v>
+        <v>3927884.4000000004</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4083,17 +4080,17 @@
         <v>9298.7000000000007</v>
       </c>
       <c r="M34" s="62">
-        <v>10431.4</v>
+        <v>10480.5</v>
       </c>
       <c r="N34" s="62">
         <v>9408.5</v>
       </c>
       <c r="O34" s="62">
-        <v>0</v>
+        <v>10665.1</v>
       </c>
       <c r="P34" s="59"/>
       <c r="Q34" s="59">
-        <v>105430</v>
+        <v>116144.20000000001</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4129,17 +4126,17 @@
         <v>6643.3</v>
       </c>
       <c r="M35" s="62">
-        <v>9634</v>
+        <v>9678.7000000000007</v>
       </c>
       <c r="N35" s="62">
-        <v>7798</v>
+        <v>7815.9</v>
       </c>
       <c r="O35" s="62">
-        <v>0</v>
+        <v>7109</v>
       </c>
       <c r="P35" s="59"/>
       <c r="Q35" s="59">
-        <v>129116.59999999999</v>
+        <v>136288.19999999998</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4169,23 +4166,23 @@
         <v>409395.7</v>
       </c>
       <c r="K36" s="62">
-        <v>471822.8</v>
+        <v>471823.8</v>
       </c>
       <c r="L36" s="62">
         <v>448072.3</v>
       </c>
       <c r="M36" s="62">
-        <v>527083.1</v>
+        <v>527083.5</v>
       </c>
       <c r="N36" s="62">
-        <v>498856.6</v>
+        <v>498800.8</v>
       </c>
       <c r="O36" s="62">
-        <v>0</v>
+        <v>485806.6</v>
       </c>
       <c r="P36" s="59"/>
       <c r="Q36" s="59">
-        <v>5183984.0999999996</v>
+        <v>5669736.2999999998</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4239,17 +4236,17 @@
         <v>211080.9</v>
       </c>
       <c r="M38" s="62">
-        <v>217278.8</v>
+        <v>217226.3</v>
       </c>
       <c r="N38" s="62">
-        <v>231459.1</v>
+        <v>233277.6</v>
       </c>
       <c r="O38" s="62">
-        <v>0</v>
+        <v>234596.3</v>
       </c>
       <c r="P38" s="59"/>
       <c r="Q38" s="59">
-        <v>2429281.7999999998</v>
+        <v>2665644.0999999996</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4291,11 +4288,11 @@
         <v>37.9</v>
       </c>
       <c r="O39" s="62">
-        <v>0</v>
+        <v>1827.7</v>
       </c>
       <c r="P39" s="59"/>
       <c r="Q39" s="59">
-        <v>544.4</v>
+        <v>2372.1</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4376,11 +4373,11 @@
         <v>440190.2</v>
       </c>
       <c r="O42" s="110">
-        <v>0</v>
+        <v>481990.6</v>
       </c>
       <c r="P42" s="111"/>
       <c r="Q42" s="111">
-        <v>4965160.2</v>
+        <v>5447150.7999999998</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4422,11 +4419,11 @@
         <v>1087166.5</v>
       </c>
       <c r="O43" s="110">
-        <v>0</v>
+        <v>1137426.8</v>
       </c>
       <c r="P43" s="111"/>
       <c r="Q43" s="111">
-        <v>11401652.199999999</v>
+        <v>12539079</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4465,14 +4462,14 @@
         <v>747852.6</v>
       </c>
       <c r="N44" s="110">
-        <v>779208.2</v>
+        <v>779398.2</v>
       </c>
       <c r="O44" s="110">
-        <v>0</v>
+        <v>812684.1</v>
       </c>
       <c r="P44" s="111"/>
       <c r="Q44" s="111">
-        <v>8440501.5</v>
+        <v>9253375.5999999996</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4514,11 +4511,11 @@
         <v>271094.5</v>
       </c>
       <c r="O45" s="112">
-        <v>0</v>
+        <v>160405.4</v>
       </c>
       <c r="P45" s="112"/>
       <c r="Q45" s="111">
-        <v>2705358.2</v>
+        <v>2865763.6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4557,14 +4554,14 @@
         <v>2642123.2000000002</v>
       </c>
       <c r="N46" s="110">
-        <v>2577659.4</v>
+        <v>2577849.4</v>
       </c>
       <c r="O46" s="110">
-        <v>0</v>
+        <v>2592506.9</v>
       </c>
       <c r="P46" s="111"/>
       <c r="Q46" s="111">
-        <v>27512672.099999998</v>
+        <v>30105368.999999996</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4591,7 +4588,7 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="110">
-        <v>4638767.1999999993</v>
+        <v>4638025.3999999994</v>
       </c>
       <c r="E48" s="110">
         <v>4395814.8999999994</v>
@@ -4612,23 +4609,23 @@
         <v>4706134.5</v>
       </c>
       <c r="K48" s="110">
-        <v>4667083.4000000004</v>
+        <v>4667084.4000000004</v>
       </c>
       <c r="L48" s="110">
         <v>4490629.0999999996</v>
       </c>
       <c r="M48" s="110">
-        <v>4859568</v>
+        <v>4859115.7</v>
       </c>
       <c r="N48" s="110">
-        <v>4731140</v>
+        <v>4734746.5</v>
       </c>
       <c r="O48" s="110">
-        <v>0</v>
+        <v>4802635.9000000004</v>
       </c>
       <c r="P48" s="111"/>
       <c r="Q48" s="111">
-        <v>50491192.100000001</v>
+        <v>55296241.399999999</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4686,11 +4683,11 @@
         <v>212727.9</v>
       </c>
       <c r="O50" s="110">
-        <v>0</v>
+        <v>225545.60000000001</v>
       </c>
       <c r="P50" s="111"/>
       <c r="Q50" s="111">
-        <v>2284738.0999999996</v>
+        <v>2510283.6999999997</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="56" customFormat="1">
@@ -4731,11 +4728,11 @@
         <v>94729.5</v>
       </c>
       <c r="O51" s="110">
-        <v>0</v>
+        <v>100006.39999999999</v>
       </c>
       <c r="P51" s="111"/>
       <c r="Q51" s="111">
-        <v>937682.79999999993</v>
+        <v>1037689.2</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4743,7 +4740,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="110">
-        <v>305808.3</v>
+        <v>305655</v>
       </c>
       <c r="E52" s="110">
         <v>284476</v>
@@ -4770,17 +4767,17 @@
         <v>307657.09999999998</v>
       </c>
       <c r="M52" s="110">
-        <v>315650.2</v>
+        <v>315548.09999999998</v>
       </c>
       <c r="N52" s="110">
-        <v>307125.7</v>
+        <v>306701.7</v>
       </c>
       <c r="O52" s="110">
-        <v>0</v>
+        <v>334335.59999999998</v>
       </c>
       <c r="P52" s="110"/>
       <c r="Q52" s="110">
-        <v>3351499.9000000004</v>
+        <v>3685156.1000000006</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="4" customFormat="1" ht="14.25" customHeight="1">
@@ -4807,44 +4804,44 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="116">
-        <v>10517024.300000001</v>
+        <v>10517088.4</v>
       </c>
       <c r="E54" s="116">
-        <v>10410967.6</v>
+        <v>10411031.699999999</v>
       </c>
       <c r="F54" s="116">
-        <v>10129503.300000001</v>
+        <v>10129567.4</v>
       </c>
       <c r="G54" s="116">
-        <v>10217226.300000001</v>
+        <v>10217290.4</v>
       </c>
       <c r="H54" s="116">
-        <v>10548724.300000001</v>
+        <v>10548783.4</v>
       </c>
       <c r="I54" s="116">
-        <v>10143499.699999999</v>
+        <v>10143553.199999999</v>
       </c>
       <c r="J54" s="116">
-        <v>10201230</v>
+        <v>10201260.699999999</v>
       </c>
       <c r="K54" s="116">
-        <v>10392624.699999999</v>
+        <v>10392666.699999999</v>
       </c>
       <c r="L54" s="116">
-        <v>10381699.1</v>
+        <v>10381738.699999999</v>
       </c>
       <c r="M54" s="116">
-        <v>10540395.800000001</v>
+        <v>10541297.9</v>
       </c>
       <c r="N54" s="116">
-        <v>11254313.5</v>
+        <v>11256602.9</v>
       </c>
       <c r="O54" s="116">
-        <v>0</v>
+        <v>12066215.699999999</v>
       </c>
       <c r="P54" s="116"/>
       <c r="Q54" s="117">
-        <v>11254313.5</v>
+        <v>12066215.699999999</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4879,17 +4876,17 @@
         <v>39102</v>
       </c>
       <c r="M55" s="110">
-        <v>-27045.9</v>
+        <v>-28394.6</v>
       </c>
       <c r="N55" s="110">
-        <v>-94745</v>
+        <v>-94070.8</v>
       </c>
       <c r="O55" s="110">
-        <v>0</v>
+        <v>-12256.7</v>
       </c>
       <c r="P55" s="111"/>
       <c r="Q55" s="111">
-        <v>-319814.09999999998</v>
+        <v>-332745.30000000005</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15" thickBot="1">
@@ -4915,7 +4912,7 @@
         <v>31</v>
       </c>
       <c r="D57" s="110">
-        <v>22815365.399999999</v>
+        <v>22815518.699999999</v>
       </c>
       <c r="E57" s="110">
         <v>20611939.099999994</v>
@@ -4924,35 +4921,35 @@
         <v>22540462.099999998</v>
       </c>
       <c r="G57" s="110">
-        <v>21103121.999999996</v>
+        <v>21103122.000000004</v>
       </c>
       <c r="H57" s="110">
-        <v>20755553.800000004</v>
+        <v>20755553.800000001</v>
       </c>
       <c r="I57" s="110">
         <v>21159517.5</v>
       </c>
       <c r="J57" s="110">
-        <v>22698982.900000002</v>
+        <v>22698982.900000006</v>
       </c>
       <c r="K57" s="110">
-        <v>22657641.300000008</v>
+        <v>22657642.300000001</v>
       </c>
       <c r="L57" s="110">
-        <v>22410289.699999996</v>
+        <v>22410289.699999999</v>
       </c>
       <c r="M57" s="110">
-        <v>22970189.899999999</v>
+        <v>22967639.799999993</v>
       </c>
       <c r="N57" s="110">
-        <v>22196580.800000004</v>
+        <v>22200486.600000001</v>
       </c>
       <c r="O57" s="110">
-        <v>0</v>
+        <v>22091695.099999998</v>
       </c>
       <c r="P57" s="111"/>
       <c r="Q57" s="111">
-        <v>241919644.50000003</v>
+        <v>264012849.59999996</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4974,7 +4971,7 @@
     </row>
     <row r="59" spans="2:17" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="67"/>
@@ -5114,11 +5111,11 @@
         <v>28202.5</v>
       </c>
       <c r="O63" s="62">
-        <v>0</v>
+        <v>14946.7</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="59">
-        <v>205584.80000000002</v>
+        <v>220531.50000000003</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5156,14 +5153,14 @@
         <v>2472202.9</v>
       </c>
       <c r="N64" s="62">
-        <v>2261678.1</v>
+        <v>2262273.6</v>
       </c>
       <c r="O64" s="62">
-        <v>0</v>
+        <v>2305684.2999999998</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59">
-        <v>25850797.599999998</v>
+        <v>28157077.399999999</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5192,23 +5189,23 @@
         <v>11980.2</v>
       </c>
       <c r="K65" s="62">
-        <v>12465.7</v>
+        <v>12466.7</v>
       </c>
       <c r="L65" s="62">
         <v>10605.8</v>
       </c>
       <c r="M65" s="62">
-        <v>12049.1</v>
+        <v>12098.2</v>
       </c>
       <c r="N65" s="62">
-        <v>9847</v>
+        <v>9897</v>
       </c>
       <c r="O65" s="62">
-        <v>0</v>
+        <v>9273.4</v>
       </c>
       <c r="P65" s="59"/>
       <c r="Q65" s="59">
-        <v>146455.9</v>
+        <v>155829.4</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5249,11 +5246,11 @@
         <v>4822.2</v>
       </c>
       <c r="O66" s="62">
-        <v>0</v>
+        <v>22837.5</v>
       </c>
       <c r="P66" s="59"/>
       <c r="Q66" s="59">
-        <v>131644.20000000001</v>
+        <v>154481.70000000001</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1">
@@ -5335,17 +5332,17 @@
         <v>-707.2</v>
       </c>
       <c r="M68" s="62">
-        <v>-13869.6</v>
+        <v>-13861.8</v>
       </c>
       <c r="N68" s="62">
-        <v>-16692.400000000001</v>
+        <v>-16653.599999999999</v>
       </c>
       <c r="O68" s="62">
-        <v>0</v>
+        <v>22309.8</v>
       </c>
       <c r="P68" s="59"/>
       <c r="Q68" s="62">
-        <v>-25552.9</v>
+        <v>-3196.4999999999964</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5384,14 +5381,14 @@
         <v>342995.3</v>
       </c>
       <c r="N69" s="62">
-        <v>325791.8</v>
+        <v>325676.2</v>
       </c>
       <c r="O69" s="62">
-        <v>0</v>
+        <v>376570.4</v>
       </c>
       <c r="P69" s="59"/>
       <c r="Q69" s="59">
-        <v>3915998.0999999996</v>
+        <v>4292452.9000000004</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5421,23 +5418,23 @@
         <v>2937261.4</v>
       </c>
       <c r="K70" s="62">
-        <v>2987080.4</v>
+        <v>2987081.4</v>
       </c>
       <c r="L70" s="62">
         <v>2839651.8</v>
       </c>
       <c r="M70" s="62">
-        <v>2820096.8</v>
+        <v>2820153.7</v>
       </c>
       <c r="N70" s="62">
-        <v>2613649.2000000002</v>
+        <v>2614217.9000000004</v>
       </c>
       <c r="O70" s="62">
-        <v>0</v>
+        <v>2751622.0999999996</v>
       </c>
       <c r="P70" s="59"/>
       <c r="Q70" s="59">
-        <v>30225993.399999999</v>
+        <v>32978242.100000001</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5494,14 +5491,14 @@
         <v>19302664.300000001</v>
       </c>
       <c r="N72" s="110">
-        <v>18948548.600000001</v>
+        <v>18948546.100000001</v>
       </c>
       <c r="O72" s="110">
-        <v>0</v>
+        <v>18668157.5</v>
       </c>
       <c r="P72" s="111"/>
       <c r="Q72" s="111">
-        <v>205079690.5</v>
+        <v>223747845.5</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5540,14 +5537,14 @@
         <v>622666.59032258065</v>
       </c>
       <c r="N73" s="110">
-        <v>631618.28666666674</v>
+        <v>631618.20333333337</v>
       </c>
       <c r="O73" s="110">
-        <v>0</v>
+        <v>602198.62903225806</v>
       </c>
       <c r="P73" s="111"/>
       <c r="Q73" s="111">
-        <v>614067.17595028621</v>
+        <v>613078.12342933938</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5574,7 +5571,7 @@
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="110">
-        <v>421463.99999999627</v>
+        <v>421617.29999999702</v>
       </c>
       <c r="E75" s="110">
         <v>638485.99999999255</v>
@@ -5583,35 +5580,35 @@
         <v>537373.89999999851</v>
       </c>
       <c r="G75" s="110">
-        <v>496021.19999999925</v>
+        <v>496021.20000000671</v>
       </c>
       <c r="H75" s="110">
-        <v>625523.60000000149</v>
+        <v>625523.59999999776</v>
       </c>
       <c r="I75" s="110">
         <v>579898.19999999925</v>
       </c>
       <c r="J75" s="110">
-        <v>558809.60000000522</v>
+        <v>558809.60000000894</v>
       </c>
       <c r="K75" s="110">
-        <v>591446.70000001043</v>
+        <v>591446.70000000298</v>
       </c>
       <c r="L75" s="110">
-        <v>683125.59999999404</v>
+        <v>683125.59999999776</v>
       </c>
       <c r="M75" s="110">
-        <v>847428.79999999702</v>
+        <v>844821.79999999329</v>
       </c>
       <c r="N75" s="110">
-        <v>634383.00000000373</v>
+        <v>637722.60000000149</v>
       </c>
       <c r="O75" s="110">
-        <v>0</v>
+        <v>671915.49999999627</v>
       </c>
       <c r="P75" s="111"/>
       <c r="Q75" s="111">
-        <v>6613960.5999999978</v>
+        <v>7286761.9999999925</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5620,44 +5617,44 @@
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="110">
-        <v>-1.086989276811053E-3</v>
+        <v>-1.0801288197408538E-3</v>
       </c>
       <c r="E76" s="110">
         <v>4.1652003245051753E-3</v>
       </c>
       <c r="F76" s="110">
-        <v>3.5007675250612459E-3</v>
+        <v>3.5007675250614142E-3</v>
       </c>
       <c r="G76" s="110">
         <v>-1.1552508441311658E-3</v>
       </c>
       <c r="H76" s="110">
-        <v>-4.4625865517492454E-3</v>
+        <v>-4.4625865517494319E-3</v>
       </c>
       <c r="I76" s="110">
-        <v>-5.1589590127278798E-3</v>
+        <v>-5.1589590127276968E-3</v>
       </c>
       <c r="J76" s="110">
-        <v>-3.3073309588333957E-3</v>
+        <v>-3.3073309588332266E-3</v>
       </c>
       <c r="K76" s="110">
-        <v>-3.4294465902121856E-3</v>
+        <v>-3.4294464342632287E-3</v>
       </c>
       <c r="L76" s="110">
         <v>1.3645080953000514E-3</v>
       </c>
       <c r="M76" s="110">
-        <v>7.1745929774654077E-3</v>
+        <v>7.0584038033830133E-3</v>
       </c>
       <c r="N76" s="110">
-        <v>2.0342580895430149E-4</v>
-      </c>
-      <c r="O76" s="110" t="s">
-        <v>128</v>
+        <v>3.4940634671188579E-4</v>
+      </c>
+      <c r="O76" s="110">
+        <v>-6.7917943986205696E-4</v>
       </c>
       <c r="P76" s="111"/>
       <c r="Q76" s="111">
-        <v>-2.1920685031787432E-3</v>
+        <v>-2.8345959663461217E-3</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" thickBot="1">
@@ -5683,7 +5680,7 @@
         <v>36</v>
       </c>
       <c r="D78" s="110">
-        <v>22815365.399999999</v>
+        <v>22815518.699999999</v>
       </c>
       <c r="E78" s="110">
         <v>20611939.099999994</v>
@@ -5692,35 +5689,35 @@
         <v>22540462.099999998</v>
       </c>
       <c r="G78" s="110">
-        <v>21103121.999999996</v>
+        <v>21103122.000000004</v>
       </c>
       <c r="H78" s="110">
-        <v>20755553.800000004</v>
+        <v>20755553.800000001</v>
       </c>
       <c r="I78" s="110">
         <v>21159517.5</v>
       </c>
       <c r="J78" s="110">
-        <v>22698982.900000002</v>
+        <v>22698982.900000006</v>
       </c>
       <c r="K78" s="110">
-        <v>22657641.300000008</v>
+        <v>22657642.300000001</v>
       </c>
       <c r="L78" s="110">
-        <v>22410289.699999996</v>
+        <v>22410289.699999999</v>
       </c>
       <c r="M78" s="110">
-        <v>22970189.899999999</v>
+        <v>22967639.799999993</v>
       </c>
       <c r="N78" s="110">
-        <v>22196580.800000004</v>
+        <v>22200486.600000001</v>
       </c>
       <c r="O78" s="110">
-        <v>0</v>
+        <v>22091695.099999998</v>
       </c>
       <c r="P78" s="111"/>
       <c r="Q78" s="111">
-        <v>241919644.50000003</v>
+        <v>264012849.59999996</v>
       </c>
     </row>
     <row r="79" spans="1:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2023\06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4FC2CE-C4BB-4908-8C02-5AA6762A63C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E8C9A-140A-476D-AD5E-7FAEC6C7762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -21,6 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Documentation!$A$1:$Q$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -466,19 +479,20 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 July 2023</t>
+    <t xml:space="preserve"> Run Date:  28 November 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.00_)"/>
     <numFmt numFmtId="168" formatCode="0____"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -789,7 +803,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,8 +833,9 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -897,9 +912,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,12 +919,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -993,14 +999,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1011,7 +1011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1026,11 +1025,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1040,6 +1065,7 @@
     <cellStyle name="MACRO" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="PROTECTED" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="sideways" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="tons" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -1531,7 +1557,7 @@
     <row r="2" spans="1:63" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="G2" s="31"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="30"/>
@@ -1589,11 +1615,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -1647,7 +1673,7 @@
       <c r="BK3"/>
     </row>
     <row r="4" spans="1:63" ht="24" customHeight="1">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="22"/>
@@ -1671,7 +1697,7 @@
       </c>
     </row>
     <row r="5" spans="1:63" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -1715,17 +1741,17 @@
       </c>
     </row>
     <row r="6" spans="1:63" s="1" customFormat="1">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="1"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="7"/>
@@ -1740,7 +1766,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="R7" s="13"/>
@@ -1748,35 +1774,35 @@
     </row>
     <row r="8" spans="1:63">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
+      <c r="B8" s="50"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:63">
       <c r="A9" s="1"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:63">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1792,11 +1818,11 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:63">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="7"/>
@@ -1814,11 +1840,11 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:63">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="7"/>
@@ -1836,11 +1862,11 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:63">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="7"/>
@@ -1858,29 +1884,29 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:63">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="42"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:63">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="17"/>
@@ -1902,16 +1928,16 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:63">
-      <c r="B16" s="56"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="17"/>
       <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="68" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="8"/>
@@ -1929,13 +1955,13 @@
       <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="B18" s="58"/>
+      <c r="B18" s="55"/>
       <c r="D18" s="38"/>
       <c r="U18" s="14"/>
       <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="17"/>
@@ -1943,7 +1969,7 @@
       <c r="U19" s="14"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>126</v>
       </c>
       <c r="C20" s="17"/>
@@ -1951,7 +1977,7 @@
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="77" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="17"/>
@@ -1960,7 +1986,7 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="17"/>
@@ -1969,7 +1995,7 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="77" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="17"/>
@@ -1978,7 +2004,7 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C24" s="18"/>
@@ -1987,7 +2013,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="18"/>
@@ -2008,7 +2034,7 @@
       <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="56" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="18"/>
@@ -2018,86 +2044,86 @@
     </row>
     <row r="27" spans="1:22" s="1" customFormat="1">
       <c r="A27"/>
-      <c r="B27" s="56"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="18"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
       <c r="T27"/>
       <c r="U27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="17"/>
       <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="70" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="53" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="70" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="56"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="18"/>
       <c r="D33" s="38"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="38" t="s">
@@ -2118,31 +2144,31 @@
       <c r="R34" s="13"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="53" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="41"/>
+      <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="9"/>
@@ -2160,32 +2186,32 @@
       <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="56"/>
+      <c r="B37" s="53"/>
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="21"/>
@@ -2207,137 +2233,137 @@
       <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="56"/>
+      <c r="B40" s="53"/>
       <c r="D40" s="38"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="17"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="51" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="51" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="70" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="51" t="s">
         <v>124</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="70" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="51" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="70" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="53" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="56"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="68"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="65"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="58" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="17"/>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="B49" s="53"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="17"/>
       <c r="D49" s="37"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="70" t="s">
         <v>66</v>
       </c>
       <c r="E50" s="6"/>
@@ -2356,11 +2382,11 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="1"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="70" t="s">
         <v>83</v>
       </c>
       <c r="E51" s="7"/>
@@ -2380,82 +2406,82 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="17"/>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="B53" s="53"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="47" t="s">
+      <c r="Q54" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:19">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="72" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B56" s="53"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="72"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -2470,7 +2496,7 @@
       <c r="Q56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" thickTop="1">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="17"/>
@@ -2492,12 +2518,12 @@
       <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="B58" s="62"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="17"/>
       <c r="D58" s="38"/>
     </row>
     <row r="59" spans="1:19" ht="26.25" customHeight="1">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="22"/>
@@ -2518,9 +2544,9 @@
       </c>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B60" s="51"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -2560,84 +2586,84 @@
       <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="38"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="38"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="53" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:19">
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="19"/>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="70" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="19"/>
-      <c r="D65" s="73" t="s">
+      <c r="D65" s="70" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="53" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="19"/>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="17"/>
-      <c r="D67" s="73" t="s">
+      <c r="D67" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:17">
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="17"/>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="70" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="73" t="s">
+      <c r="D69" s="70" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:17">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="19"/>
@@ -2646,35 +2672,35 @@
       </c>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="63"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="19"/>
       <c r="D71" s="38"/>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="50" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="19"/>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="72" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="17"/>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="72" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="53"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="17"/>
       <c r="D74" s="38"/>
     </row>
     <row r="75" spans="2:17">
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="19"/>
@@ -2683,7 +2709,7 @@
       </c>
     </row>
     <row r="76" spans="2:17">
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="19"/>
@@ -2692,9 +2718,9 @@
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B77" s="53"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="72"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
@@ -2709,7 +2735,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="19"/>
@@ -2718,28 +2744,28 @@
       </c>
     </row>
     <row r="79" spans="2:17">
-      <c r="B79" s="53"/>
+      <c r="B79" s="50"/>
     </row>
     <row r="80" spans="2:17">
-      <c r="B80" s="53"/>
+      <c r="B80" s="50"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="66" t="s">
+      <c r="B81" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="64" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="63" t="s">
+      <c r="B84" s="60" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2760,8 +2786,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2782,7 +2808,7 @@
     <row r="2" spans="2:22" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="G2" s="31"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="30"/>
@@ -2791,16 +2817,16 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="22"/>
@@ -2822,7 +2848,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -2866,45 +2892,45 @@
       </c>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:22" s="1" customFormat="1">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="16">
-        <v>12066472.1</v>
+        <v>12051764.300000001</v>
       </c>
       <c r="E7" s="16">
-        <v>10627981.699999999</v>
+        <v>10608697.300000001</v>
       </c>
       <c r="F7" s="16">
-        <v>10257630</v>
+        <v>10238336.6</v>
       </c>
       <c r="G7" s="16">
-        <v>10431368.300000001</v>
+        <v>10412149.699999999</v>
       </c>
       <c r="H7" s="16">
-        <v>10664519.9</v>
+        <v>10645642.9</v>
       </c>
       <c r="I7" s="16">
-        <v>9842986.1999999993</v>
+        <v>9842986.9000000004</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
+        <v>9119839.9000000004</v>
       </c>
       <c r="K7" s="16">
-        <v>0</v>
+        <v>9335283.8000000007</v>
       </c>
       <c r="L7" s="16">
-        <v>0</v>
+        <v>9602188.5999999996</v>
       </c>
       <c r="M7" s="16">
-        <v>0</v>
+        <v>9515796.3000000007</v>
       </c>
       <c r="N7" s="16">
         <v>0</v>
@@ -2914,12 +2940,12 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8">
-        <v>12066472.1</v>
+        <v>12051764.300000001</v>
       </c>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1">
-      <c r="B8" s="53"/>
+      <c r="B8" s="50"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -2936,7 +2962,7 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="16"/>
@@ -2955,57 +2981,57 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="77" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="16">
-        <v>1429011.4</v>
+        <v>1423287.4</v>
       </c>
       <c r="E11" s="16">
-        <v>1304051.8999999999</v>
+        <v>1293471.8</v>
       </c>
       <c r="F11" s="16">
-        <v>1477891.5</v>
+        <v>1449410.8</v>
       </c>
       <c r="G11" s="16">
-        <v>1467466.6</v>
+        <v>1422207.8</v>
       </c>
       <c r="H11" s="16">
-        <v>1298873.3</v>
+        <v>1237855.3999999999</v>
       </c>
       <c r="I11" s="16">
-        <v>1335600.1000000001</v>
+        <v>1278294.8999999999</v>
       </c>
       <c r="J11" s="16">
-        <v>0</v>
+        <v>1442030.9</v>
       </c>
       <c r="K11" s="16">
-        <v>0</v>
+        <v>1494797.9</v>
       </c>
       <c r="L11" s="16">
-        <v>0</v>
+        <v>1439219.6</v>
       </c>
       <c r="M11" s="16">
-        <v>0</v>
+        <v>1506895.3</v>
       </c>
       <c r="N11" s="16">
         <v>0</v>
@@ -3015,43 +3041,43 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8">
-        <v>8312894.8000000007</v>
+        <v>13987471.800000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="16">
-        <v>401627.5</v>
+        <v>405749.5</v>
       </c>
       <c r="E12" s="16">
-        <v>365144.1</v>
+        <v>370108.2</v>
       </c>
       <c r="F12" s="16">
-        <v>410994.2</v>
+        <v>428340.3</v>
       </c>
       <c r="G12" s="16">
-        <v>381293.7</v>
+        <v>411001.5</v>
       </c>
       <c r="H12" s="16">
-        <v>372828.9</v>
+        <v>407581.5</v>
       </c>
       <c r="I12" s="16">
-        <v>347026.9</v>
+        <v>379128</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
+        <v>401032.6</v>
       </c>
       <c r="K12" s="16">
-        <v>0</v>
+        <v>402265.2</v>
       </c>
       <c r="L12" s="16">
-        <v>0</v>
+        <v>375902.1</v>
       </c>
       <c r="M12" s="16">
-        <v>0</v>
+        <v>383616</v>
       </c>
       <c r="N12" s="16">
         <v>0</v>
@@ -3061,42 +3087,42 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8">
-        <v>2278915.2999999998</v>
+        <v>3964724.9000000004</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="77" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="16">
-        <v>188845.3</v>
+        <v>186410.2</v>
       </c>
       <c r="E13" s="16">
-        <v>173094</v>
+        <v>173590</v>
       </c>
       <c r="F13" s="16">
-        <v>192640.8</v>
+        <v>196997.5</v>
       </c>
       <c r="G13" s="16">
-        <v>179479.7</v>
+        <v>183839</v>
       </c>
       <c r="H13" s="16">
-        <v>175534.8</v>
+        <v>180991.5</v>
       </c>
       <c r="I13" s="16">
-        <v>162381.70000000001</v>
+        <v>166320.6</v>
       </c>
       <c r="J13" s="16">
-        <v>0</v>
+        <v>180533.1</v>
       </c>
       <c r="K13" s="16">
-        <v>0</v>
+        <v>176863.2</v>
       </c>
       <c r="L13" s="16">
-        <v>0</v>
+        <v>166457.79999999999</v>
       </c>
       <c r="M13" s="16">
-        <v>0</v>
+        <v>168748.9</v>
       </c>
       <c r="N13" s="16">
         <v>0</v>
@@ -3106,87 +3132,87 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8">
-        <v>1071976.3</v>
+        <v>1780751.8</v>
       </c>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="79">
-        <v>523761.2</v>
-      </c>
-      <c r="E14" s="79">
-        <v>483963.9</v>
-      </c>
-      <c r="F14" s="79">
-        <v>525772.5</v>
-      </c>
-      <c r="G14" s="78">
-        <v>507335.4</v>
-      </c>
-      <c r="H14" s="78">
-        <v>505996.7</v>
-      </c>
-      <c r="I14" s="78">
-        <v>472184.9</v>
-      </c>
-      <c r="J14" s="78">
-        <v>0</v>
-      </c>
-      <c r="K14" s="78">
-        <v>0</v>
-      </c>
-      <c r="L14" s="78">
-        <v>0</v>
-      </c>
-      <c r="M14" s="78">
-        <v>0</v>
-      </c>
-      <c r="N14" s="78">
-        <v>0</v>
-      </c>
-      <c r="O14" s="78">
-        <v>0</v>
-      </c>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79">
-        <v>3019014.6</v>
+      <c r="D14" s="76">
+        <v>527800.19999999995</v>
+      </c>
+      <c r="E14" s="76">
+        <v>489089.3</v>
+      </c>
+      <c r="F14" s="76">
+        <v>532559.6</v>
+      </c>
+      <c r="G14" s="75">
+        <v>518464.1</v>
+      </c>
+      <c r="H14" s="75">
+        <v>526418.5</v>
+      </c>
+      <c r="I14" s="75">
+        <v>495134.9</v>
+      </c>
+      <c r="J14" s="75">
+        <v>516609.6</v>
+      </c>
+      <c r="K14" s="75">
+        <v>513743.1</v>
+      </c>
+      <c r="L14" s="75">
+        <v>506055.9</v>
+      </c>
+      <c r="M14" s="75">
+        <v>537893.5</v>
+      </c>
+      <c r="N14" s="75">
+        <v>0</v>
+      </c>
+      <c r="O14" s="75">
+        <v>0</v>
+      </c>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76">
+        <v>5163768.7</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>114</v>
       </c>
       <c r="D15" s="16">
-        <v>2543245.4</v>
+        <v>2543247.2999999998</v>
       </c>
       <c r="E15" s="16">
-        <v>2326253.9</v>
+        <v>2326259.2999999998</v>
       </c>
       <c r="F15" s="16">
-        <v>2607299</v>
+        <v>2607308.2000000002</v>
       </c>
       <c r="G15" s="16">
-        <v>2535575.4</v>
+        <v>2535512.4</v>
       </c>
       <c r="H15" s="16">
-        <v>2353233.7000000002</v>
+        <v>2352846.9</v>
       </c>
       <c r="I15" s="16">
-        <v>2317193.6</v>
+        <v>2318878.4</v>
       </c>
       <c r="J15" s="16">
-        <v>0</v>
+        <v>2540206.2000000002</v>
       </c>
       <c r="K15" s="16">
-        <v>0</v>
+        <v>2587669.4</v>
       </c>
       <c r="L15" s="16">
-        <v>0</v>
+        <v>2487635.4000000004</v>
       </c>
       <c r="M15" s="16">
-        <v>0</v>
+        <v>2597153.7000000002</v>
       </c>
       <c r="N15" s="16">
         <v>0</v>
@@ -3196,11 +3222,11 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8">
-        <v>14682801.000000002</v>
+        <v>24896717.200000003</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
-      <c r="B16" s="58"/>
+      <c r="B16" s="55"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -3217,38 +3243,38 @@
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="16">
-        <v>380231.3</v>
+        <v>344418.5</v>
       </c>
       <c r="E17" s="16">
-        <v>313634.59999999998</v>
+        <v>313649.09999999998</v>
       </c>
       <c r="F17" s="16">
-        <v>345879.7</v>
+        <v>345894.6</v>
       </c>
       <c r="G17" s="16">
-        <v>324546.5</v>
+        <v>324570.3</v>
       </c>
       <c r="H17" s="16">
-        <v>345270.4</v>
+        <v>345224.6</v>
       </c>
       <c r="I17" s="16">
-        <v>346614.9</v>
+        <v>346410</v>
       </c>
       <c r="J17" s="16">
-        <v>0</v>
+        <v>356440.6</v>
       </c>
       <c r="K17" s="16">
-        <v>0</v>
+        <v>369574.7</v>
       </c>
       <c r="L17" s="16">
-        <v>0</v>
+        <v>325301.59999999998</v>
       </c>
       <c r="M17" s="16">
-        <v>0</v>
+        <v>355957.7</v>
       </c>
       <c r="N17" s="16">
         <v>0</v>
@@ -3258,11 +3284,11 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8">
-        <v>2056177.4</v>
+        <v>3427441.7000000007</v>
       </c>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="58"/>
+      <c r="B18" s="55"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -3279,7 +3305,7 @@
       <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="16"/>
@@ -3298,7 +3324,7 @@
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="16"/>
@@ -3317,7 +3343,7 @@
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="77" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="18"/>
@@ -3334,22 +3360,22 @@
         <v>8000311.5</v>
       </c>
       <c r="H21" s="16">
-        <v>8309760.7999999998</v>
+        <v>8309973.5</v>
       </c>
       <c r="I21" s="16">
-        <v>7123275.0999999996</v>
+        <v>8347277</v>
       </c>
       <c r="J21" s="16">
-        <v>0</v>
+        <v>8761486.0999999996</v>
       </c>
       <c r="K21" s="16">
-        <v>0</v>
+        <v>8915063.1999999993</v>
       </c>
       <c r="L21" s="16">
-        <v>0</v>
+        <v>8457306.1999999993</v>
       </c>
       <c r="M21" s="16">
-        <v>0</v>
+        <v>8859052</v>
       </c>
       <c r="N21" s="16">
         <v>0</v>
@@ -3359,11 +3385,11 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8">
-        <v>48859285.199999996</v>
+        <v>85076407.299999997</v>
       </c>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="18"/>
@@ -3383,19 +3409,19 @@
         <v>6781336</v>
       </c>
       <c r="I22" s="16">
-        <v>3395271.3</v>
+        <v>7187759.4000000004</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>8652135</v>
       </c>
       <c r="K22" s="16">
-        <v>0</v>
+        <v>8370467.7999999998</v>
       </c>
       <c r="L22" s="16">
-        <v>0</v>
+        <v>7973450</v>
       </c>
       <c r="M22" s="16">
-        <v>0</v>
+        <v>7742719.7999999998</v>
       </c>
       <c r="N22" s="16">
         <v>0</v>
@@ -3405,16 +3431,16 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8">
-        <v>40455826.699999996</v>
+        <v>76987087.399999991</v>
       </c>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="77" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="16">
-        <v>-6537511.5</v>
+        <v>-6537809.9000000004</v>
       </c>
       <c r="E23" s="16">
         <v>-6588769.0999999996</v>
@@ -3429,19 +3455,19 @@
         <v>-6196710.9000000004</v>
       </c>
       <c r="I23" s="16">
-        <v>-2508140.2999999998</v>
+        <v>-6390680.9000000004</v>
       </c>
       <c r="J23" s="16">
-        <v>0</v>
+        <v>-7815239.7000000002</v>
       </c>
       <c r="K23" s="16">
-        <v>0</v>
+        <v>-7583414.9000000004</v>
       </c>
       <c r="L23" s="16">
-        <v>0</v>
+        <v>-5923136.7000000002</v>
       </c>
       <c r="M23" s="16">
-        <v>0</v>
+        <v>-5963584.7999999998</v>
       </c>
       <c r="N23" s="16">
         <v>0</v>
@@ -3451,16 +3477,16 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8">
-        <v>-35541629.799999997</v>
+        <v>-66709844.899999999</v>
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="16">
-        <v>9840045.5</v>
+        <v>9839747.0999999996</v>
       </c>
       <c r="E24" s="16">
         <v>8719677.3000000007</v>
@@ -3472,22 +3498,22 @@
         <v>8611108.5</v>
       </c>
       <c r="H24" s="16">
-        <v>8894385.9000000004</v>
+        <v>8894598.5999999996</v>
       </c>
       <c r="I24" s="16">
-        <v>8010406.0999999987</v>
+        <v>9144355.5</v>
       </c>
       <c r="J24" s="16">
-        <v>0</v>
+        <v>9598381.4000000022</v>
       </c>
       <c r="K24" s="16">
-        <v>0</v>
+        <v>9702116.0999999996</v>
       </c>
       <c r="L24" s="16">
-        <v>0</v>
+        <v>10507619.5</v>
       </c>
       <c r="M24" s="16">
-        <v>0</v>
+        <v>10638187</v>
       </c>
       <c r="N24" s="16">
         <v>0</v>
@@ -3497,60 +3523,60 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8">
-        <v>53773482.099999994</v>
+        <v>95353649.799999982</v>
       </c>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="42">
         <v>5688913.4000000004</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="42">
         <v>5749054.7000000002</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>6356097.2000000002</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="42">
         <v>5352757.5999999996</v>
       </c>
-      <c r="H25" s="43">
-        <v>5306478.2</v>
-      </c>
-      <c r="I25" s="43">
-        <v>2232575.7000000002</v>
-      </c>
-      <c r="J25" s="43">
-        <v>0</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0</v>
-      </c>
-      <c r="L25" s="43">
-        <v>0</v>
-      </c>
-      <c r="M25" s="43">
-        <v>0</v>
-      </c>
-      <c r="N25" s="43">
-        <v>0</v>
-      </c>
-      <c r="O25" s="43">
+      <c r="H25" s="42">
+        <v>5305848.2</v>
+      </c>
+      <c r="I25" s="42">
+        <v>5468245.5999999996</v>
+      </c>
+      <c r="J25" s="42">
+        <v>6727077.9000000004</v>
+      </c>
+      <c r="K25" s="42">
+        <v>6486570.5</v>
+      </c>
+      <c r="L25" s="42">
+        <v>5135239.8</v>
+      </c>
+      <c r="M25" s="42">
+        <v>5195852.3</v>
+      </c>
+      <c r="N25" s="42">
+        <v>0</v>
+      </c>
+      <c r="O25" s="42">
         <v>0</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="42">
-        <v>30685876.799999997</v>
+      <c r="Q25" s="41">
+        <v>57465657.199999988</v>
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="16">
-        <v>15528958.9</v>
+        <v>15528660.5</v>
       </c>
       <c r="E26" s="16">
         <v>14468732</v>
@@ -3562,22 +3588,22 @@
         <v>13963866.1</v>
       </c>
       <c r="H26" s="16">
-        <v>14200864.100000001</v>
+        <v>14200446.800000001</v>
       </c>
       <c r="I26" s="16">
-        <v>10242981.799999999</v>
+        <v>14612601.1</v>
       </c>
       <c r="J26" s="16">
-        <v>0</v>
+        <v>16325459.300000003</v>
       </c>
       <c r="K26" s="16">
-        <v>0</v>
+        <v>16188686.6</v>
       </c>
       <c r="L26" s="16">
-        <v>0</v>
+        <v>15642859.300000001</v>
       </c>
       <c r="M26" s="16">
-        <v>0</v>
+        <v>15834039.300000001</v>
       </c>
       <c r="N26" s="16">
         <v>0</v>
@@ -3587,60 +3613,60 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8">
-        <v>84459358.899999991</v>
+        <v>152819306.99999997</v>
       </c>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="56"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
+      <c r="B27" s="53"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="41"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="16">
-        <v>18452435.600000001</v>
+        <v>18416326.300000001</v>
       </c>
       <c r="E28" s="16">
-        <v>17108620.5</v>
+        <v>17108640.400000002</v>
       </c>
       <c r="F28" s="16">
-        <v>19007134.699999996</v>
+        <v>19007158.799999997</v>
       </c>
       <c r="G28" s="16">
-        <v>16823988</v>
+        <v>16823948.800000001</v>
       </c>
       <c r="H28" s="16">
-        <v>16899368.199999999</v>
+        <v>16898518.300000001</v>
       </c>
       <c r="I28" s="16">
-        <v>12906790.299999999</v>
+        <v>17277889.5</v>
       </c>
       <c r="J28" s="16">
-        <v>0</v>
+        <v>19222106.100000005</v>
       </c>
       <c r="K28" s="16">
-        <v>0</v>
+        <v>19145930.699999999</v>
       </c>
       <c r="L28" s="16">
-        <v>0</v>
+        <v>18455796.300000004</v>
       </c>
       <c r="M28" s="16">
-        <v>0</v>
+        <v>18787150.699999999</v>
       </c>
       <c r="N28" s="16">
         <v>0</v>
@@ -3650,11 +3676,11 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="16">
-        <v>101198337.3</v>
+        <v>181143465.89999998</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="53"/>
+      <c r="B29" s="50"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -3671,7 +3697,7 @@
       <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="74" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="16"/>
@@ -3690,38 +3716,38 @@
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="16">
-        <v>1073667.7</v>
+        <v>1105017.8</v>
       </c>
       <c r="E31" s="16">
-        <v>1008274.8</v>
+        <v>1008284.8</v>
       </c>
       <c r="F31" s="16">
-        <v>1112139.7</v>
+        <v>1112139.1000000001</v>
       </c>
       <c r="G31" s="16">
-        <v>1085619.8</v>
+        <v>1085221.6000000001</v>
       </c>
       <c r="H31" s="16">
-        <v>907946.4</v>
+        <v>906723.5</v>
       </c>
       <c r="I31" s="16">
-        <v>1043000.9</v>
+        <v>984867.5</v>
       </c>
       <c r="J31" s="16">
-        <v>0</v>
+        <v>1090268.3999999999</v>
       </c>
       <c r="K31" s="16">
-        <v>0</v>
+        <v>1135036.2</v>
       </c>
       <c r="L31" s="16">
-        <v>0</v>
+        <v>1081543.6000000001</v>
       </c>
       <c r="M31" s="16">
-        <v>0</v>
+        <v>1210949.8999999999</v>
       </c>
       <c r="N31" s="16">
         <v>0</v>
@@ -3731,11 +3757,11 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8">
-        <v>6230649.3000000007</v>
+        <v>10720052.4</v>
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="16">
@@ -3754,19 +3780,19 @@
         <v>270798.40000000002</v>
       </c>
       <c r="I32" s="16">
-        <v>263313.90000000002</v>
+        <v>318385.5</v>
       </c>
       <c r="J32" s="16">
-        <v>0</v>
+        <v>367462</v>
       </c>
       <c r="K32" s="16">
-        <v>0</v>
+        <v>366359.7</v>
       </c>
       <c r="L32" s="16">
-        <v>0</v>
+        <v>311858</v>
       </c>
       <c r="M32" s="16">
-        <v>0</v>
+        <v>399114.4</v>
       </c>
       <c r="N32" s="16">
         <v>0</v>
@@ -3776,11 +3802,11 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="16">
-        <v>1796313.5</v>
+        <v>3296179.2</v>
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="56"/>
+      <c r="B33" s="53"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -3797,7 +3823,7 @@
       <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="17"/>
@@ -3808,28 +3834,28 @@
         <v>10516</v>
       </c>
       <c r="F34" s="16">
-        <v>13254.2</v>
+        <v>13221.2</v>
       </c>
       <c r="G34" s="16">
-        <v>11037.3</v>
+        <v>11167.7</v>
       </c>
       <c r="H34" s="16">
-        <v>8157.6</v>
+        <v>8180.6</v>
       </c>
       <c r="I34" s="16">
-        <v>9269.5</v>
+        <v>9313.5</v>
       </c>
       <c r="J34" s="16">
-        <v>0</v>
+        <v>9926.7000000000007</v>
       </c>
       <c r="K34" s="16">
-        <v>0</v>
+        <v>9542.1</v>
       </c>
       <c r="L34" s="16">
-        <v>0</v>
+        <v>8071.7</v>
       </c>
       <c r="M34" s="16">
-        <v>0</v>
+        <v>9294.6</v>
       </c>
       <c r="N34" s="16">
         <v>0</v>
@@ -3839,11 +3865,11 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8">
-        <v>65218.200000000004</v>
+        <v>102217.70000000001</v>
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="53" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="18"/>
@@ -3860,22 +3886,22 @@
         <v>8701.1</v>
       </c>
       <c r="H35" s="16">
-        <v>6640.1</v>
+        <v>6650</v>
       </c>
       <c r="I35" s="16">
-        <v>5817.4</v>
+        <v>5828.9</v>
       </c>
       <c r="J35" s="16">
-        <v>0</v>
+        <v>6956.4</v>
       </c>
       <c r="K35" s="16">
-        <v>0</v>
+        <v>7014.6</v>
       </c>
       <c r="L35" s="16">
-        <v>0</v>
+        <v>7517.6</v>
       </c>
       <c r="M35" s="16">
-        <v>0</v>
+        <v>7635.8</v>
       </c>
       <c r="N35" s="16">
         <v>0</v>
@@ -3885,43 +3911,43 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8">
-        <v>45975.9</v>
+        <v>75121.700000000012</v>
       </c>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="53" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="16">
-        <v>549140.4</v>
+        <v>549121.6</v>
       </c>
       <c r="E36" s="16">
-        <v>509527</v>
+        <v>509498.1</v>
       </c>
       <c r="F36" s="16">
-        <v>470195.20000000001</v>
+        <v>470237.8</v>
       </c>
       <c r="G36" s="16">
-        <v>315922.7</v>
+        <v>315930.09999999998</v>
       </c>
       <c r="H36" s="16">
-        <v>291174.09999999998</v>
+        <v>291686</v>
       </c>
       <c r="I36" s="16">
-        <v>246014.8</v>
+        <v>285233.09999999998</v>
       </c>
       <c r="J36" s="16">
-        <v>0</v>
+        <v>347971.3</v>
       </c>
       <c r="K36" s="16">
-        <v>0</v>
+        <v>416137.9</v>
       </c>
       <c r="L36" s="16">
-        <v>0</v>
+        <v>387378.4</v>
       </c>
       <c r="M36" s="16">
-        <v>0</v>
+        <v>465145.59999999998</v>
       </c>
       <c r="N36" s="16">
         <v>0</v>
@@ -3931,11 +3957,11 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
-        <v>2381974.1999999997</v>
+        <v>4038339.9</v>
       </c>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="56"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="17"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -3953,7 +3979,7 @@
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="17"/>
@@ -3964,28 +3990,28 @@
         <v>249832.7</v>
       </c>
       <c r="F38" s="16">
-        <v>272908.5</v>
+        <v>272884.2</v>
       </c>
       <c r="G38" s="16">
-        <v>264247.59999999998</v>
+        <v>264242.90000000002</v>
       </c>
       <c r="H38" s="16">
-        <v>236719.8</v>
+        <v>236808.9</v>
       </c>
       <c r="I38" s="16">
-        <v>237892.1</v>
+        <v>239270</v>
       </c>
       <c r="J38" s="16">
-        <v>0</v>
+        <v>267204.7</v>
       </c>
       <c r="K38" s="16">
-        <v>0</v>
+        <v>270481.2</v>
       </c>
       <c r="L38" s="16">
-        <v>0</v>
+        <v>269548.09999999998</v>
       </c>
       <c r="M38" s="16">
-        <v>0</v>
+        <v>262189.5</v>
       </c>
       <c r="N38" s="16">
         <v>0</v>
@@ -3995,11 +4021,11 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8">
-        <v>1539618.3</v>
+        <v>2610479.7999999998</v>
       </c>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="17"/>
@@ -4022,16 +4048,16 @@
         <v>17.5</v>
       </c>
       <c r="J39" s="16">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K39" s="16">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="L39" s="16">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="M39" s="16">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="N39" s="16">
         <v>0</v>
@@ -4041,11 +4067,11 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8">
-        <v>148.1</v>
+        <v>229.7</v>
       </c>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="56"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="17"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -4063,7 +4089,7 @@
       <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="17"/>
@@ -4083,1392 +4109,1392 @@
       <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="51" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="83">
+      <c r="D42" s="78">
         <v>443342.2</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="78">
         <v>426042.2</v>
       </c>
-      <c r="F42" s="83">
+      <c r="F42" s="78">
         <v>456279.6</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="78">
         <v>473383.4</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="78">
         <v>465105.4</v>
       </c>
-      <c r="I42" s="83">
+      <c r="I42" s="78">
         <v>409075.8</v>
       </c>
-      <c r="J42" s="83">
-        <v>0</v>
-      </c>
-      <c r="K42" s="83">
-        <v>0</v>
-      </c>
-      <c r="L42" s="83">
-        <v>0</v>
-      </c>
-      <c r="M42" s="83">
-        <v>0</v>
-      </c>
-      <c r="N42" s="83">
-        <v>0</v>
-      </c>
-      <c r="O42" s="83">
-        <v>0</v>
-      </c>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84">
-        <v>2673228.5999999996</v>
+      <c r="J42" s="78">
+        <v>424893.9</v>
+      </c>
+      <c r="K42" s="78">
+        <v>496015.4</v>
+      </c>
+      <c r="L42" s="78">
+        <v>471149.5</v>
+      </c>
+      <c r="M42" s="78">
+        <v>506633.8</v>
+      </c>
+      <c r="N42" s="78">
+        <v>0</v>
+      </c>
+      <c r="O42" s="78">
+        <v>0</v>
+      </c>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79">
+        <v>4571921.1999999993</v>
       </c>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="51" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="83">
-        <v>1176475.1000000001</v>
-      </c>
-      <c r="E43" s="83">
-        <v>1077044.2</v>
-      </c>
-      <c r="F43" s="83">
-        <v>1199538.1000000001</v>
-      </c>
-      <c r="G43" s="83">
-        <v>1169856.8999999999</v>
-      </c>
-      <c r="H43" s="83">
-        <v>1125651.3999999999</v>
-      </c>
-      <c r="I43" s="83">
-        <v>1062434.6000000001</v>
-      </c>
-      <c r="J43" s="83">
-        <v>0</v>
-      </c>
-      <c r="K43" s="83">
-        <v>0</v>
-      </c>
-      <c r="L43" s="83">
-        <v>0</v>
-      </c>
-      <c r="M43" s="83">
-        <v>0</v>
-      </c>
-      <c r="N43" s="83">
-        <v>0</v>
-      </c>
-      <c r="O43" s="83">
-        <v>0</v>
-      </c>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84">
-        <v>6811000.2999999998</v>
+      <c r="D43" s="78">
+        <v>426238</v>
+      </c>
+      <c r="E43" s="78">
+        <v>401024</v>
+      </c>
+      <c r="F43" s="78">
+        <v>462176.1</v>
+      </c>
+      <c r="G43" s="78">
+        <v>457553.1</v>
+      </c>
+      <c r="H43" s="78">
+        <v>416776.5</v>
+      </c>
+      <c r="I43" s="78">
+        <v>398306</v>
+      </c>
+      <c r="J43" s="78">
+        <v>392067.2</v>
+      </c>
+      <c r="K43" s="78">
+        <v>448523.2</v>
+      </c>
+      <c r="L43" s="78">
+        <v>418980.5</v>
+      </c>
+      <c r="M43" s="78">
+        <v>474323.8</v>
+      </c>
+      <c r="N43" s="78">
+        <v>0</v>
+      </c>
+      <c r="O43" s="78">
+        <v>0</v>
+      </c>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79">
+        <v>4295968.4000000004</v>
       </c>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="51" t="s">
         <v>124</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="83">
+      <c r="D44" s="78">
         <v>819751.5</v>
       </c>
-      <c r="E44" s="83">
+      <c r="E44" s="78">
         <v>751511.2</v>
       </c>
-      <c r="F44" s="83">
+      <c r="F44" s="78">
         <v>834580.1</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="78">
         <v>828365.9</v>
       </c>
-      <c r="H44" s="83">
+      <c r="H44" s="78">
         <v>872414.8</v>
       </c>
-      <c r="I44" s="83">
-        <v>797698.8</v>
-      </c>
-      <c r="J44" s="83">
-        <v>0</v>
-      </c>
-      <c r="K44" s="83">
-        <v>0</v>
-      </c>
-      <c r="L44" s="83">
-        <v>0</v>
-      </c>
-      <c r="M44" s="83">
-        <v>0</v>
-      </c>
-      <c r="N44" s="83">
-        <v>0</v>
-      </c>
-      <c r="O44" s="83">
-        <v>0</v>
-      </c>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84">
-        <v>4904322.3</v>
+      <c r="I44" s="78">
+        <v>797641.8</v>
+      </c>
+      <c r="J44" s="78">
+        <v>832981.1</v>
+      </c>
+      <c r="K44" s="78">
+        <v>818342.2</v>
+      </c>
+      <c r="L44" s="78">
+        <v>778977.7</v>
+      </c>
+      <c r="M44" s="78">
+        <v>812598.9</v>
+      </c>
+      <c r="N44" s="78">
+        <v>0</v>
+      </c>
+      <c r="O44" s="78">
+        <v>0</v>
+      </c>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79">
+        <v>8147165.2000000002</v>
       </c>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="51" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="85">
+      <c r="D45" s="80">
         <v>252200.6</v>
       </c>
-      <c r="E45" s="85">
+      <c r="E45" s="80">
         <v>203076.6</v>
       </c>
-      <c r="F45" s="85">
+      <c r="F45" s="80">
         <v>260589.4</v>
       </c>
-      <c r="G45" s="85">
+      <c r="G45" s="80">
         <v>183779.4</v>
       </c>
-      <c r="H45" s="85">
+      <c r="H45" s="80">
         <v>222139.2</v>
       </c>
-      <c r="I45" s="85">
+      <c r="I45" s="80">
         <v>277212.3</v>
       </c>
-      <c r="J45" s="85">
-        <v>0</v>
-      </c>
-      <c r="K45" s="85">
-        <v>0</v>
-      </c>
-      <c r="L45" s="85">
-        <v>0</v>
-      </c>
-      <c r="M45" s="85">
-        <v>0</v>
-      </c>
-      <c r="N45" s="85">
-        <v>0</v>
-      </c>
-      <c r="O45" s="85">
-        <v>0</v>
-      </c>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="84">
-        <v>1398997.5</v>
+      <c r="J45" s="80">
+        <v>290731.09999999998</v>
+      </c>
+      <c r="K45" s="80">
+        <v>304011.40000000002</v>
+      </c>
+      <c r="L45" s="80">
+        <v>273352.09999999998</v>
+      </c>
+      <c r="M45" s="80">
+        <v>264080.8</v>
+      </c>
+      <c r="N45" s="80">
+        <v>0</v>
+      </c>
+      <c r="O45" s="80">
+        <v>0</v>
+      </c>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="79">
+        <v>2531172.9</v>
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="53" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="83">
-        <v>2691769.4</v>
-      </c>
-      <c r="E46" s="83">
-        <v>2457674.2000000002</v>
-      </c>
-      <c r="F46" s="83">
-        <v>2750987.2</v>
-      </c>
-      <c r="G46" s="83">
-        <v>2655385.6000000001</v>
-      </c>
-      <c r="H46" s="83">
-        <v>2685310.8</v>
-      </c>
-      <c r="I46" s="83">
-        <v>2546421.5</v>
-      </c>
-      <c r="J46" s="83">
-        <v>0</v>
-      </c>
-      <c r="K46" s="83">
-        <v>0</v>
-      </c>
-      <c r="L46" s="83">
-        <v>0</v>
-      </c>
-      <c r="M46" s="83">
-        <v>0</v>
-      </c>
-      <c r="N46" s="83">
-        <v>0</v>
-      </c>
-      <c r="O46" s="83">
-        <v>0</v>
-      </c>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84">
-        <v>15787548.699999999</v>
+      <c r="D46" s="89">
+        <v>1941532.3</v>
+      </c>
+      <c r="E46" s="89">
+        <v>1781654</v>
+      </c>
+      <c r="F46" s="89">
+        <v>2013625.1999999997</v>
+      </c>
+      <c r="G46" s="89">
+        <v>1943081.7999999998</v>
+      </c>
+      <c r="H46" s="89">
+        <v>1976435.9000000001</v>
+      </c>
+      <c r="I46" s="89">
+        <v>1882235.9000000001</v>
+      </c>
+      <c r="J46" s="89">
+        <v>1940673.3000000003</v>
+      </c>
+      <c r="K46" s="89">
+        <v>2066892.2000000002</v>
+      </c>
+      <c r="L46" s="89">
+        <v>1942459.7999999998</v>
+      </c>
+      <c r="M46" s="78">
+        <v>2057637.3</v>
+      </c>
+      <c r="N46" s="78">
+        <v>0</v>
+      </c>
+      <c r="O46" s="78">
+        <v>0</v>
+      </c>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79">
+        <v>19546227.700000003</v>
       </c>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="53"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="83">
-        <v>4952410.9000000004</v>
-      </c>
-      <c r="E48" s="83">
-        <v>4524231.7</v>
-      </c>
-      <c r="F48" s="83">
-        <v>4963245.3</v>
-      </c>
-      <c r="G48" s="83">
-        <v>4649043.0999999996</v>
-      </c>
-      <c r="H48" s="83">
-        <v>4406767.5999999996</v>
-      </c>
-      <c r="I48" s="83">
-        <v>4351747.5999999996</v>
-      </c>
-      <c r="J48" s="83">
-        <v>0</v>
-      </c>
-      <c r="K48" s="83">
-        <v>0</v>
-      </c>
-      <c r="L48" s="83">
-        <v>0</v>
-      </c>
-      <c r="M48" s="83">
-        <v>0</v>
-      </c>
-      <c r="N48" s="83">
-        <v>0</v>
-      </c>
-      <c r="O48" s="83">
-        <v>0</v>
-      </c>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84">
-        <v>27847446.199999999</v>
+      <c r="D48" s="89">
+        <v>4233505.1000000006</v>
+      </c>
+      <c r="E48" s="89">
+        <v>3848192.6</v>
+      </c>
+      <c r="F48" s="89">
+        <v>4225868.0000000009</v>
+      </c>
+      <c r="G48" s="89">
+        <v>3936474.2</v>
+      </c>
+      <c r="H48" s="89">
+        <v>3697303.7</v>
+      </c>
+      <c r="I48" s="89">
+        <v>3725151.8999999994</v>
+      </c>
+      <c r="J48" s="89">
+        <v>4030497.6</v>
+      </c>
+      <c r="K48" s="89">
+        <v>4271474.5000000009</v>
+      </c>
+      <c r="L48" s="89">
+        <v>4008398.5000000005</v>
+      </c>
+      <c r="M48" s="78">
+        <v>4411981.9999999991</v>
+      </c>
+      <c r="N48" s="78">
+        <v>0</v>
+      </c>
+      <c r="O48" s="78">
+        <v>0</v>
+      </c>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79">
+        <v>40388848.100000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="53"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="87"/>
+      <c r="B49" s="50"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="82"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="83">
+      <c r="D50" s="78">
         <v>206336.1</v>
       </c>
-      <c r="E50" s="83">
+      <c r="E50" s="78">
         <v>190509.1</v>
       </c>
-      <c r="F50" s="83">
+      <c r="F50" s="78">
         <v>216507</v>
       </c>
-      <c r="G50" s="83">
+      <c r="G50" s="78">
         <v>190389.5</v>
       </c>
-      <c r="H50" s="83">
-        <v>190071.2</v>
-      </c>
-      <c r="I50" s="83">
-        <v>142778.79999999999</v>
-      </c>
-      <c r="J50" s="83">
-        <v>0</v>
-      </c>
-      <c r="K50" s="83">
-        <v>0</v>
-      </c>
-      <c r="L50" s="83">
-        <v>0</v>
-      </c>
-      <c r="M50" s="83">
-        <v>0</v>
-      </c>
-      <c r="N50" s="83">
-        <v>0</v>
-      </c>
-      <c r="O50" s="83">
-        <v>0</v>
-      </c>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84">
-        <v>1136591.7</v>
+      <c r="H50" s="78">
+        <v>190088.2</v>
+      </c>
+      <c r="I50" s="78">
+        <v>200935.8</v>
+      </c>
+      <c r="J50" s="78">
+        <v>213838.8</v>
+      </c>
+      <c r="K50" s="78">
+        <v>212218.2</v>
+      </c>
+      <c r="L50" s="78">
+        <v>233762.9</v>
+      </c>
+      <c r="M50" s="78">
+        <v>247240.3</v>
+      </c>
+      <c r="N50" s="78">
+        <v>0</v>
+      </c>
+      <c r="O50" s="78">
+        <v>0</v>
+      </c>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79">
+        <v>2101825.9</v>
       </c>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="83">
+      <c r="D51" s="78">
         <v>81141.399999999994</v>
       </c>
-      <c r="E51" s="83">
+      <c r="E51" s="78">
         <v>91399.4</v>
       </c>
-      <c r="F51" s="83">
+      <c r="F51" s="78">
         <v>111325.1</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="78">
         <v>98943.6</v>
       </c>
-      <c r="H51" s="83">
+      <c r="H51" s="78">
         <v>103284.6</v>
       </c>
-      <c r="I51" s="83">
-        <v>20119.2</v>
-      </c>
-      <c r="J51" s="83">
-        <v>0</v>
-      </c>
-      <c r="K51" s="83">
-        <v>0</v>
-      </c>
-      <c r="L51" s="83">
-        <v>0</v>
-      </c>
-      <c r="M51" s="83">
-        <v>0</v>
-      </c>
-      <c r="N51" s="83">
-        <v>0</v>
-      </c>
-      <c r="O51" s="83">
-        <v>0</v>
-      </c>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84">
-        <v>506213.3</v>
+      <c r="I51" s="78">
+        <v>90043</v>
+      </c>
+      <c r="J51" s="78">
+        <v>96036.4</v>
+      </c>
+      <c r="K51" s="78">
+        <v>104432.5</v>
+      </c>
+      <c r="L51" s="78">
+        <v>96851.7</v>
+      </c>
+      <c r="M51" s="78">
+        <v>88711.3</v>
+      </c>
+      <c r="N51" s="78">
+        <v>0</v>
+      </c>
+      <c r="O51" s="78">
+        <v>0</v>
+      </c>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="79">
+        <v>962169</v>
       </c>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="83">
-        <v>317348.90000000002</v>
-      </c>
-      <c r="E52" s="83">
-        <v>292992</v>
-      </c>
-      <c r="F52" s="83">
-        <v>323337.40000000002</v>
-      </c>
-      <c r="G52" s="83">
-        <v>311480</v>
-      </c>
-      <c r="H52" s="83">
-        <v>276852.09999999998</v>
-      </c>
-      <c r="I52" s="83">
-        <v>298091.90000000002</v>
-      </c>
-      <c r="J52" s="83">
-        <v>0</v>
-      </c>
-      <c r="K52" s="83">
-        <v>0</v>
-      </c>
-      <c r="L52" s="83">
-        <v>0</v>
-      </c>
-      <c r="M52" s="83">
-        <v>0</v>
-      </c>
-      <c r="N52" s="83">
-        <v>0</v>
-      </c>
-      <c r="O52" s="83">
-        <v>0</v>
-      </c>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83">
-        <v>1820102.2999999998</v>
+      <c r="D52" s="78">
+        <v>323828.09999999998</v>
+      </c>
+      <c r="E52" s="78">
+        <v>292994</v>
+      </c>
+      <c r="F52" s="78">
+        <v>323337.3</v>
+      </c>
+      <c r="G52" s="78">
+        <v>310960.2</v>
+      </c>
+      <c r="H52" s="78">
+        <v>276690.7</v>
+      </c>
+      <c r="I52" s="78">
+        <v>288264.90000000002</v>
+      </c>
+      <c r="J52" s="78">
+        <v>312824.8</v>
+      </c>
+      <c r="K52" s="78">
+        <v>320066.40000000002</v>
+      </c>
+      <c r="L52" s="78">
+        <v>305352.09999999998</v>
+      </c>
+      <c r="M52" s="78">
+        <v>344370.5</v>
+      </c>
+      <c r="N52" s="78">
+        <v>0</v>
+      </c>
+      <c r="O52" s="78">
+        <v>0</v>
+      </c>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78">
+        <v>3098688.9999999995</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
-      <c r="B53" s="53"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="82"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="96"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="89">
-        <v>10627981.699999999</v>
-      </c>
-      <c r="E54" s="89">
-        <v>10257630</v>
-      </c>
-      <c r="F54" s="89">
-        <v>10431368.300000001</v>
-      </c>
-      <c r="G54" s="89">
-        <v>10664703.800000001</v>
-      </c>
-      <c r="H54" s="89">
-        <v>9842986.9000000004</v>
-      </c>
-      <c r="I54" s="89">
-        <v>8184952.5</v>
-      </c>
-      <c r="J54" s="89">
-        <v>0</v>
-      </c>
-      <c r="K54" s="89">
-        <v>0</v>
-      </c>
-      <c r="L54" s="89">
-        <v>0</v>
-      </c>
-      <c r="M54" s="89">
-        <v>0</v>
-      </c>
-      <c r="N54" s="89">
-        <v>0</v>
-      </c>
-      <c r="O54" s="89">
-        <v>0</v>
-      </c>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="90">
-        <v>8184952.5</v>
+      <c r="D54" s="83">
+        <v>10608697.300000001</v>
+      </c>
+      <c r="E54" s="83">
+        <v>10238336.6</v>
+      </c>
+      <c r="F54" s="83">
+        <v>10412149.699999999</v>
+      </c>
+      <c r="G54" s="83">
+        <v>10645803.800000001</v>
+      </c>
+      <c r="H54" s="83">
+        <v>9824186.5999999996</v>
+      </c>
+      <c r="I54" s="83">
+        <v>9120148.9000000004</v>
+      </c>
+      <c r="J54" s="83">
+        <v>9335283.8000000007</v>
+      </c>
+      <c r="K54" s="83">
+        <v>9604192.1999999993</v>
+      </c>
+      <c r="L54" s="83">
+        <v>9516797.1999999993</v>
+      </c>
+      <c r="M54" s="83">
+        <v>9770901</v>
+      </c>
+      <c r="N54" s="83">
+        <v>0</v>
+      </c>
+      <c r="O54" s="83">
+        <v>0</v>
+      </c>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="84">
+        <v>9770901</v>
       </c>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="83">
+      <c r="D55" s="78">
         <v>-1178697.3</v>
       </c>
-      <c r="E55" s="83">
+      <c r="E55" s="78">
         <v>-47549.599999999999</v>
       </c>
-      <c r="F55" s="83">
+      <c r="F55" s="78">
         <v>-44608.7</v>
       </c>
-      <c r="G55" s="83">
-        <v>-73931.7</v>
-      </c>
-      <c r="H55" s="83">
-        <v>5861.8</v>
-      </c>
-      <c r="I55" s="83">
-        <v>-94329.1</v>
-      </c>
-      <c r="J55" s="83">
-        <v>0</v>
-      </c>
-      <c r="K55" s="83">
-        <v>0</v>
-      </c>
-      <c r="L55" s="83">
-        <v>0</v>
-      </c>
-      <c r="M55" s="83">
-        <v>0</v>
-      </c>
-      <c r="N55" s="83">
-        <v>0</v>
-      </c>
-      <c r="O55" s="83">
-        <v>0</v>
-      </c>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84">
-        <v>-1433254.6</v>
+      <c r="G55" s="78">
+        <v>-74222.3</v>
+      </c>
+      <c r="H55" s="78">
+        <v>6376.2</v>
+      </c>
+      <c r="I55" s="78">
+        <v>-140687.70000000001</v>
+      </c>
+      <c r="J55" s="78">
+        <v>-39545.4</v>
+      </c>
+      <c r="K55" s="78">
+        <v>-10721.7</v>
+      </c>
+      <c r="L55" s="78">
+        <v>-114054</v>
+      </c>
+      <c r="M55" s="78">
+        <v>-120739.4</v>
+      </c>
+      <c r="N55" s="78">
+        <v>0</v>
+      </c>
+      <c r="O55" s="78">
+        <v>0</v>
+      </c>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79">
+        <v>-1764449.9</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B56" s="53"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="92"/>
-      <c r="Q56" s="92"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="86"/>
+      <c r="Q56" s="86"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="83">
-        <v>23059813.199999999</v>
-      </c>
-      <c r="E57" s="83">
-        <v>21380753.800000001</v>
-      </c>
-      <c r="F57" s="83">
-        <v>23100863.5</v>
-      </c>
-      <c r="G57" s="83">
-        <v>20564950.800000001</v>
-      </c>
-      <c r="H57" s="83">
-        <v>21563322.699999999</v>
-      </c>
-      <c r="I57" s="83">
-        <v>17264217.699999999</v>
-      </c>
-      <c r="J57" s="83">
-        <v>0</v>
-      </c>
-      <c r="K57" s="83">
-        <v>0</v>
-      </c>
-      <c r="L57" s="83">
-        <v>0</v>
-      </c>
-      <c r="M57" s="83">
-        <v>0</v>
-      </c>
-      <c r="N57" s="83">
-        <v>0</v>
-      </c>
-      <c r="O57" s="83">
-        <v>0</v>
-      </c>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84">
-        <v>126933921.7</v>
+      <c r="D57" s="89">
+        <v>22302895.5</v>
+      </c>
+      <c r="E57" s="89">
+        <v>20704741.600000001</v>
+      </c>
+      <c r="F57" s="89">
+        <v>22363435.599999998</v>
+      </c>
+      <c r="G57" s="89">
+        <v>19852253.299999997</v>
+      </c>
+      <c r="H57" s="89">
+        <v>20853591.000000004</v>
+      </c>
+      <c r="I57" s="89">
+        <v>21005947.999999996</v>
+      </c>
+      <c r="J57" s="89">
+        <v>22374914.40000001</v>
+      </c>
+      <c r="K57" s="89">
+        <v>22501058.000000004</v>
+      </c>
+      <c r="L57" s="89">
+        <v>21799565.500000007</v>
+      </c>
+      <c r="M57" s="78">
+        <v>22142966.5</v>
+      </c>
+      <c r="N57" s="78">
+        <v>0</v>
+      </c>
+      <c r="O57" s="78">
+        <v>0</v>
+      </c>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79">
+        <v>215901369.40000001</v>
       </c>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="62"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
+      <c r="B58" s="59"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="47" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="46" t="s">
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="97"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="98" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:17" ht="15.75">
-      <c r="B60" s="51"/>
-      <c r="D60" s="80" t="s">
+      <c r="B60" s="48"/>
+      <c r="D60" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="80" t="s">
+      <c r="E60" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="80" t="s">
+      <c r="G60" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="80" t="s">
+      <c r="H60" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="80" t="s">
+      <c r="I60" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="80" t="s">
+      <c r="J60" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="80" t="s">
+      <c r="L60" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="M60" s="80" t="s">
+      <c r="M60" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="80" t="s">
+      <c r="N60" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O60" s="80" t="s">
+      <c r="O60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="29" t="s">
+      <c r="P60" s="91"/>
+      <c r="Q60" s="98" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C61"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
     </row>
     <row r="62" spans="2:17" s="1" customFormat="1">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="91"/>
     </row>
     <row r="63" spans="2:17" s="1" customFormat="1">
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="90">
         <v>17016.600000000002</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="90">
         <v>39577</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="90">
         <v>20585</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="90">
         <v>949.80000000000007</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H63" s="90">
         <v>493.9</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="90">
         <v>1281.5999999999999</v>
       </c>
-      <c r="J63" s="16">
-        <v>0</v>
-      </c>
-      <c r="K63" s="16">
-        <v>0</v>
-      </c>
-      <c r="L63" s="16">
-        <v>0</v>
-      </c>
-      <c r="M63" s="16">
-        <v>0</v>
-      </c>
-      <c r="N63" s="16">
-        <v>0</v>
-      </c>
-      <c r="O63" s="16">
-        <v>0</v>
-      </c>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8">
-        <v>79903.900000000009</v>
+      <c r="J63" s="90">
+        <v>1053.9000000000001</v>
+      </c>
+      <c r="K63" s="90">
+        <v>1215.4000000000001</v>
+      </c>
+      <c r="L63" s="90">
+        <v>1555.5</v>
+      </c>
+      <c r="M63" s="90">
+        <v>1775.8</v>
+      </c>
+      <c r="N63" s="90">
+        <v>0</v>
+      </c>
+      <c r="O63" s="90">
+        <v>0</v>
+      </c>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91">
+        <v>85504.5</v>
       </c>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="90">
         <v>2411935.1</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="90">
         <v>2187420.7999999998</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="90">
         <v>2415398.2000000002</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="90">
         <v>1992844.4</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="90">
         <v>2047753.8</v>
       </c>
-      <c r="I64" s="16">
-        <v>1712752.4</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0</v>
-      </c>
-      <c r="K64" s="16">
-        <v>0</v>
-      </c>
-      <c r="L64" s="16">
-        <v>0</v>
-      </c>
-      <c r="M64" s="16">
-        <v>0</v>
-      </c>
-      <c r="N64" s="16">
-        <v>0</v>
-      </c>
-      <c r="O64" s="16">
-        <v>0</v>
-      </c>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8">
-        <v>12768104.700000001</v>
+      <c r="I64" s="90">
+        <v>2308502.2999999998</v>
+      </c>
+      <c r="J64" s="90">
+        <v>2490874.7000000002</v>
+      </c>
+      <c r="K64" s="90">
+        <v>2467419.7000000002</v>
+      </c>
+      <c r="L64" s="90">
+        <v>2206898.9</v>
+      </c>
+      <c r="M64" s="90">
+        <v>2112585</v>
+      </c>
+      <c r="N64" s="90">
+        <v>0</v>
+      </c>
+      <c r="O64" s="90">
+        <v>0</v>
+      </c>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91">
+        <v>22641632.899999999</v>
       </c>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="90">
         <v>9684.6</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="90">
         <v>11162</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="90">
         <v>11588.7</v>
       </c>
-      <c r="G65" s="16">
-        <v>10489.6</v>
-      </c>
-      <c r="H65" s="16">
-        <v>8749.4</v>
-      </c>
-      <c r="I65" s="16">
-        <v>8388.2000000000007</v>
-      </c>
-      <c r="J65" s="16">
-        <v>0</v>
-      </c>
-      <c r="K65" s="16">
-        <v>0</v>
-      </c>
-      <c r="L65" s="16">
-        <v>0</v>
-      </c>
-      <c r="M65" s="16">
-        <v>0</v>
-      </c>
-      <c r="N65" s="16">
-        <v>0</v>
-      </c>
-      <c r="O65" s="16">
-        <v>0</v>
-      </c>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8">
-        <v>60062.5</v>
+      <c r="G65" s="90">
+        <v>10620.1</v>
+      </c>
+      <c r="H65" s="90">
+        <v>8753.6</v>
+      </c>
+      <c r="I65" s="90">
+        <v>8388.4</v>
+      </c>
+      <c r="J65" s="90">
+        <v>9481.1</v>
+      </c>
+      <c r="K65" s="90">
+        <v>9788</v>
+      </c>
+      <c r="L65" s="90">
+        <v>12789.3</v>
+      </c>
+      <c r="M65" s="90">
+        <v>9188.2999999999993</v>
+      </c>
+      <c r="N65" s="90">
+        <v>0</v>
+      </c>
+      <c r="O65" s="90">
+        <v>0</v>
+      </c>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91">
+        <v>101444.1</v>
       </c>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="90">
         <v>7600.5</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="90">
         <v>26572.5</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="90">
         <v>22641.599999999999</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="90">
         <v>24431</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="90">
         <v>32438.5</v>
       </c>
-      <c r="I66" s="16">
-        <v>-4468.8</v>
-      </c>
-      <c r="J66" s="16">
-        <v>0</v>
-      </c>
-      <c r="K66" s="16">
-        <v>0</v>
-      </c>
-      <c r="L66" s="16">
-        <v>0</v>
-      </c>
-      <c r="M66" s="16">
-        <v>0</v>
-      </c>
-      <c r="N66" s="16">
-        <v>0</v>
-      </c>
-      <c r="O66" s="16">
-        <v>0</v>
-      </c>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8">
-        <v>109215.3</v>
+      <c r="I66" s="90">
+        <v>12644.2</v>
+      </c>
+      <c r="J66" s="90">
+        <v>24201.200000000001</v>
+      </c>
+      <c r="K66" s="90">
+        <v>28391.4</v>
+      </c>
+      <c r="L66" s="90">
+        <v>7326.8</v>
+      </c>
+      <c r="M66" s="90">
+        <v>11903.9</v>
+      </c>
+      <c r="N66" s="90">
+        <v>0</v>
+      </c>
+      <c r="O66" s="90">
+        <v>0</v>
+      </c>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91">
+        <v>198151.59999999998</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="24"/>
-      <c r="D67" s="16">
-        <v>0</v>
-      </c>
-      <c r="E67" s="16">
-        <v>0</v>
-      </c>
-      <c r="F67" s="16">
-        <v>0</v>
-      </c>
-      <c r="G67" s="16">
-        <v>0</v>
-      </c>
-      <c r="H67" s="16">
-        <v>0</v>
-      </c>
-      <c r="I67" s="16">
-        <v>0</v>
-      </c>
-      <c r="J67" s="16">
-        <v>0</v>
-      </c>
-      <c r="K67" s="16">
-        <v>0</v>
-      </c>
-      <c r="L67" s="16">
-        <v>0</v>
-      </c>
-      <c r="M67" s="16">
-        <v>0</v>
-      </c>
-      <c r="N67" s="16">
-        <v>0</v>
-      </c>
-      <c r="O67" s="16">
-        <v>0</v>
-      </c>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="40">
-        <v>0</v>
+      <c r="D67" s="90">
+        <v>0</v>
+      </c>
+      <c r="E67" s="90">
+        <v>0</v>
+      </c>
+      <c r="F67" s="90">
+        <v>0</v>
+      </c>
+      <c r="G67" s="90">
+        <v>0</v>
+      </c>
+      <c r="H67" s="90">
+        <v>0</v>
+      </c>
+      <c r="I67" s="90">
+        <v>0</v>
+      </c>
+      <c r="J67" s="90">
+        <v>0</v>
+      </c>
+      <c r="K67" s="90">
+        <v>0</v>
+      </c>
+      <c r="L67" s="90">
+        <v>0</v>
+      </c>
+      <c r="M67" s="90">
+        <v>3.2</v>
+      </c>
+      <c r="N67" s="90">
+        <v>0</v>
+      </c>
+      <c r="O67" s="90">
+        <v>0</v>
+      </c>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="93">
+        <v>3.2</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="53" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="24"/>
-      <c r="D68" s="16">
+      <c r="D68" s="90">
         <v>3865</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="90">
         <v>-10608.4</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="90">
         <v>-29370.799999999999</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="90">
         <v>-20376.400000000001</v>
       </c>
-      <c r="H68" s="16">
-        <v>-34365.800000000003</v>
-      </c>
-      <c r="I68" s="16">
-        <v>-2475.1999999999998</v>
-      </c>
-      <c r="J68" s="16">
-        <v>0</v>
-      </c>
-      <c r="K68" s="16">
-        <v>0</v>
-      </c>
-      <c r="L68" s="16">
-        <v>0</v>
-      </c>
-      <c r="M68" s="16">
-        <v>0</v>
-      </c>
-      <c r="N68" s="16">
-        <v>0</v>
-      </c>
-      <c r="O68" s="16">
-        <v>0</v>
-      </c>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="16">
-        <v>-93331.599999999991</v>
+      <c r="H68" s="90">
+        <v>-34365.599999999999</v>
+      </c>
+      <c r="I68" s="90">
+        <v>-32436.2</v>
+      </c>
+      <c r="J68" s="90">
+        <v>-34760.6</v>
+      </c>
+      <c r="K68" s="90">
+        <v>-27871.200000000001</v>
+      </c>
+      <c r="L68" s="90">
+        <v>-29849.200000000001</v>
+      </c>
+      <c r="M68" s="90">
+        <v>-27478</v>
+      </c>
+      <c r="N68" s="90">
+        <v>0</v>
+      </c>
+      <c r="O68" s="90">
+        <v>0</v>
+      </c>
+      <c r="P68" s="91"/>
+      <c r="Q68" s="90">
+        <v>-243251.40000000002</v>
       </c>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="19"/>
-      <c r="D69" s="16">
-        <v>292566.5</v>
-      </c>
-      <c r="E69" s="16">
-        <v>320643.59999999998</v>
-      </c>
-      <c r="F69" s="16">
+      <c r="D69" s="90">
+        <v>292663.5</v>
+      </c>
+      <c r="E69" s="90">
+        <v>320654.2</v>
+      </c>
+      <c r="F69" s="90">
         <v>354683.2</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="90">
         <v>370323.1</v>
       </c>
-      <c r="H69" s="16">
-        <v>372171.4</v>
-      </c>
-      <c r="I69" s="16">
-        <v>247662.6</v>
-      </c>
-      <c r="J69" s="16">
-        <v>0</v>
-      </c>
-      <c r="K69" s="16">
-        <v>0</v>
-      </c>
-      <c r="L69" s="16">
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <v>0</v>
-      </c>
-      <c r="N69" s="16">
-        <v>0</v>
-      </c>
-      <c r="O69" s="16">
-        <v>0</v>
-      </c>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8">
-        <v>1958050.4</v>
+      <c r="H69" s="90">
+        <v>371791.1</v>
+      </c>
+      <c r="I69" s="90">
+        <v>246328</v>
+      </c>
+      <c r="J69" s="90">
+        <v>354147.1</v>
+      </c>
+      <c r="K69" s="90">
+        <v>388788.1</v>
+      </c>
+      <c r="L69" s="90">
+        <v>265731.8</v>
+      </c>
+      <c r="M69" s="90">
+        <v>375449.3</v>
+      </c>
+      <c r="N69" s="90">
+        <v>0</v>
+      </c>
+      <c r="O69" s="90">
+        <v>0</v>
+      </c>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91">
+        <v>3340559.4</v>
       </c>
     </row>
     <row r="70" spans="2:17">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="19"/>
-      <c r="D70" s="16">
-        <v>2742668.3000000003</v>
-      </c>
-      <c r="E70" s="16">
-        <v>2574767.5</v>
-      </c>
-      <c r="F70" s="16">
+      <c r="D70" s="90">
+        <v>2742765.3000000003</v>
+      </c>
+      <c r="E70" s="90">
+        <v>2574778.1</v>
+      </c>
+      <c r="F70" s="90">
         <v>2795525.9000000008</v>
       </c>
-      <c r="G70" s="16">
-        <v>2378661.5</v>
-      </c>
-      <c r="H70" s="16">
-        <v>2427241.1999999997</v>
-      </c>
-      <c r="I70" s="16">
-        <v>1963140.8</v>
-      </c>
-      <c r="J70" s="16">
-        <v>0</v>
-      </c>
-      <c r="K70" s="16">
-        <v>0</v>
-      </c>
-      <c r="L70" s="16">
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <v>0</v>
-      </c>
-      <c r="N70" s="16">
-        <v>0</v>
-      </c>
-      <c r="O70" s="16">
-        <v>0</v>
-      </c>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8">
-        <v>14882005.200000001</v>
+      <c r="G70" s="90">
+        <v>2378792</v>
+      </c>
+      <c r="H70" s="90">
+        <v>2426865.2999999998</v>
+      </c>
+      <c r="I70" s="90">
+        <v>2544708.2999999998</v>
+      </c>
+      <c r="J70" s="90">
+        <v>2844997.4000000004</v>
+      </c>
+      <c r="K70" s="90">
+        <v>2867731.4</v>
+      </c>
+      <c r="L70" s="90">
+        <v>2464453.0999999992</v>
+      </c>
+      <c r="M70" s="90">
+        <v>2483427.4999999995</v>
+      </c>
+      <c r="N70" s="90">
+        <v>0</v>
+      </c>
+      <c r="O70" s="90">
+        <v>0</v>
+      </c>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91">
+        <v>26124044.300000001</v>
       </c>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="63"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="27"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="50" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="19"/>
-      <c r="D72" s="83">
+      <c r="D72" s="78">
         <v>19556595.600000001</v>
       </c>
-      <c r="E72" s="83">
+      <c r="E72" s="78">
         <v>17781198</v>
       </c>
-      <c r="F72" s="83">
+      <c r="F72" s="78">
         <v>19393084.300000001</v>
       </c>
-      <c r="G72" s="83">
+      <c r="G72" s="78">
         <v>17565594.699999999</v>
       </c>
-      <c r="H72" s="83">
-        <v>18365749.300000001</v>
-      </c>
-      <c r="I72" s="83">
-        <v>18558003.5</v>
-      </c>
-      <c r="J72" s="83">
-        <v>0</v>
-      </c>
-      <c r="K72" s="83">
-        <v>0</v>
-      </c>
-      <c r="L72" s="83">
-        <v>0</v>
-      </c>
-      <c r="M72" s="83">
-        <v>0</v>
-      </c>
-      <c r="N72" s="83">
-        <v>0</v>
-      </c>
-      <c r="O72" s="83">
-        <v>0</v>
-      </c>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84">
-        <v>111220225.40000001</v>
+      <c r="H72" s="78">
+        <v>18365699.199999999</v>
+      </c>
+      <c r="I72" s="78">
+        <v>18557954.800000001</v>
+      </c>
+      <c r="J72" s="78">
+        <v>19645522.899999999</v>
+      </c>
+      <c r="K72" s="78">
+        <v>19639663.300000001</v>
+      </c>
+      <c r="L72" s="78">
+        <v>19443299.699999999</v>
+      </c>
+      <c r="M72" s="78">
+        <v>19932460.300000001</v>
+      </c>
+      <c r="N72" s="78">
+        <v>0</v>
+      </c>
+      <c r="O72" s="78">
+        <v>0</v>
+      </c>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79">
+        <v>189881072.80000001</v>
       </c>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C73" s="19"/>
-      <c r="D73" s="83">
+      <c r="D73" s="78">
         <v>630857.92258064519</v>
       </c>
-      <c r="E73" s="83">
+      <c r="E73" s="78">
         <v>635042.78571428568</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="78">
         <v>625583.36451612902</v>
       </c>
-      <c r="G73" s="83">
+      <c r="G73" s="78">
         <v>585519.82333333336</v>
       </c>
-      <c r="H73" s="83">
-        <v>592443.52580645168</v>
-      </c>
-      <c r="I73" s="83">
-        <v>618600.1166666667</v>
-      </c>
-      <c r="J73" s="83">
-        <v>0</v>
-      </c>
-      <c r="K73" s="83">
-        <v>0</v>
-      </c>
-      <c r="L73" s="83">
-        <v>0</v>
-      </c>
-      <c r="M73" s="83">
-        <v>0</v>
-      </c>
-      <c r="N73" s="83">
-        <v>0</v>
-      </c>
-      <c r="O73" s="83">
-        <v>0</v>
-      </c>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84">
-        <v>614674.58976958529</v>
+      <c r="H73" s="78">
+        <v>592441.90967741935</v>
+      </c>
+      <c r="I73" s="78">
+        <v>618598.4933333334</v>
+      </c>
+      <c r="J73" s="78">
+        <v>633726.54516129033</v>
+      </c>
+      <c r="K73" s="78">
+        <v>633537.52580645168</v>
+      </c>
+      <c r="L73" s="78">
+        <v>648109.99</v>
+      </c>
+      <c r="M73" s="78">
+        <v>642982.59032258065</v>
+      </c>
+      <c r="N73" s="78">
+        <v>0</v>
+      </c>
+      <c r="O73" s="78">
+        <v>0</v>
+      </c>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79">
+        <v>624640.09504454676</v>
       </c>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="53"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="17"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
     </row>
     <row r="75" spans="2:17">
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="60" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="17"/>
-      <c r="D75" s="83">
-        <v>10312.199999999255</v>
-      </c>
-      <c r="E75" s="83">
-        <v>348768.09999999776</v>
-      </c>
-      <c r="F75" s="83">
-        <v>174891.29999999329</v>
-      </c>
-      <c r="G75" s="83">
-        <v>-91609.199999999255</v>
-      </c>
-      <c r="H75" s="83">
-        <v>61457.300000000745</v>
-      </c>
-      <c r="I75" s="83">
-        <v>-3921055.1999999974</v>
-      </c>
-      <c r="J75" s="83">
-        <v>0</v>
-      </c>
-      <c r="K75" s="83">
-        <v>0</v>
-      </c>
-      <c r="L75" s="83">
-        <v>0</v>
-      </c>
-      <c r="M75" s="83">
-        <v>0</v>
-      </c>
-      <c r="N75" s="83">
-        <v>0</v>
-      </c>
-      <c r="O75" s="83">
-        <v>0</v>
-      </c>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84">
-        <v>-3417235.5000000056</v>
+      <c r="D75" s="89">
+        <v>3534.5999999977648</v>
+      </c>
+      <c r="E75" s="89">
+        <v>348765.5</v>
+      </c>
+      <c r="F75" s="89">
+        <v>174825.39999999478</v>
+      </c>
+      <c r="G75" s="89">
+        <v>-92133.400000002235</v>
+      </c>
+      <c r="H75" s="89">
+        <v>61026.500000003725</v>
+      </c>
+      <c r="I75" s="89">
+        <v>-96715.100000005215</v>
+      </c>
+      <c r="J75" s="89">
+        <v>-115605.89999999106</v>
+      </c>
+      <c r="K75" s="89">
+        <v>-6336.6999999955297</v>
+      </c>
+      <c r="L75" s="89">
+        <v>-108187.29999998957</v>
+      </c>
+      <c r="M75" s="78">
+        <v>-272921.30000000075</v>
+      </c>
+      <c r="N75" s="78">
+        <v>0</v>
+      </c>
+      <c r="O75" s="78">
+        <v>0</v>
+      </c>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79">
+        <v>-103747.69999998808</v>
       </c>
     </row>
     <row r="76" spans="2:17">
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="83">
-        <v>4.6223200090293309E-4</v>
-      </c>
-      <c r="E76" s="83">
-        <v>1.6844848464990528E-2</v>
-      </c>
-      <c r="F76" s="83">
-        <v>7.8203898436921132E-3</v>
-      </c>
-      <c r="G76" s="83">
-        <v>-4.6144577093421976E-3</v>
-      </c>
-      <c r="H76" s="83">
-        <v>2.9469636688246783E-3</v>
-      </c>
-      <c r="I76" s="83">
-        <v>-0.23620687674501678</v>
-      </c>
-      <c r="J76" s="83" t="s">
+      <c r="D76" s="94">
+        <v>1.5848166440979669E-4</v>
+      </c>
+      <c r="E76" s="78">
+        <v>1.6844716381294995E-2</v>
+      </c>
+      <c r="F76" s="78">
+        <v>7.8174661141955665E-3</v>
+      </c>
+      <c r="G76" s="78">
+        <v>-4.6409542840158222E-3</v>
+      </c>
+      <c r="H76" s="78">
+        <v>2.9264264365788948E-3</v>
+      </c>
+      <c r="I76" s="78">
+        <v>-4.6041768740932437E-3</v>
+      </c>
+      <c r="J76" s="78">
+        <v>-5.1667639005578058E-3</v>
+      </c>
+      <c r="K76" s="78">
+        <v>-2.816178688129033E-4</v>
+      </c>
+      <c r="L76" s="78">
+        <v>-4.9628190983893481E-3</v>
+      </c>
+      <c r="M76" s="78">
+        <v>-1.2325417192858994E-2</v>
+      </c>
+      <c r="N76" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="K76" s="83" t="s">
+      <c r="O76" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="L76" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="M76" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="N76" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="O76" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84">
-        <v>-2.7853736287918762E-2</v>
+      <c r="P76" s="79"/>
+      <c r="Q76" s="79">
+        <v>-4.8053284834787192E-4</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B77" s="53"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="26"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="93"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="94"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="87"/>
+      <c r="L77" s="87"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="87"/>
+      <c r="O77" s="87"/>
+      <c r="P77" s="79"/>
+      <c r="Q77" s="88"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="83">
-        <v>22309576.100000001</v>
-      </c>
-      <c r="E78" s="83">
-        <v>20704733.599999998</v>
-      </c>
-      <c r="F78" s="83">
-        <v>22363501.499999996</v>
-      </c>
-      <c r="G78" s="83">
-        <v>19852647</v>
-      </c>
-      <c r="H78" s="83">
-        <v>20854447.800000001</v>
-      </c>
-      <c r="I78" s="83">
-        <v>16600089.100000003</v>
-      </c>
-      <c r="J78" s="83">
-        <v>0</v>
-      </c>
-      <c r="K78" s="83">
-        <v>0</v>
-      </c>
-      <c r="L78" s="83">
-        <v>0</v>
-      </c>
-      <c r="M78" s="83">
-        <v>0</v>
-      </c>
-      <c r="N78" s="83">
-        <v>0</v>
-      </c>
-      <c r="O78" s="83">
-        <v>0</v>
-      </c>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84">
-        <v>122684995.10000001</v>
+      <c r="D78" s="89">
+        <v>22302895.5</v>
+      </c>
+      <c r="E78" s="89">
+        <v>20704741.600000001</v>
+      </c>
+      <c r="F78" s="89">
+        <v>22363435.599999998</v>
+      </c>
+      <c r="G78" s="89">
+        <v>19852253.299999997</v>
+      </c>
+      <c r="H78" s="89">
+        <v>20853591.000000004</v>
+      </c>
+      <c r="I78" s="89">
+        <v>21005947.999999996</v>
+      </c>
+      <c r="J78" s="89">
+        <v>22374914.40000001</v>
+      </c>
+      <c r="K78" s="89">
+        <v>22501058.000000004</v>
+      </c>
+      <c r="L78" s="89">
+        <v>21799565.500000007</v>
+      </c>
+      <c r="M78" s="78">
+        <v>22142966.5</v>
+      </c>
+      <c r="N78" s="78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="78">
+        <v>0</v>
+      </c>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="79">
+        <v>215901369.40000001</v>
       </c>
     </row>
     <row r="79" spans="2:17">
-      <c r="B79" s="62"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -5486,7 +5512,7 @@
       <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="2:17">
-      <c r="B80" s="53"/>
+      <c r="B80" s="50"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
@@ -5502,7 +5528,7 @@
       <c r="Q80" s="8"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="66" t="s">
+      <c r="B81" s="63" t="s">
         <v>116</v>
       </c>
       <c r="D81" s="16"/>
@@ -5520,7 +5546,7 @@
       <c r="Q81" s="16"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="64" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E8C9A-140A-476D-AD5E-7FAEC6C7762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A6640-34D3-49AE-9DED-17803038FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  28 November 2023</t>
+    <t xml:space="preserve"> Run Date:  08 January 2024</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,10 +1041,6 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1054,6 +1050,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1615,11 +1619,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2787,7 +2791,7 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Q91"/>
+      <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2817,11 +2821,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2903,44 +2907,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="16">
-        <v>12051764.300000001</v>
+        <v>12051728.5</v>
       </c>
       <c r="E7" s="16">
-        <v>10608697.300000001</v>
+        <v>10608650.9</v>
       </c>
       <c r="F7" s="16">
-        <v>10238336.6</v>
+        <v>10238355.9</v>
       </c>
       <c r="G7" s="16">
-        <v>10412149.699999999</v>
+        <v>10412171</v>
       </c>
       <c r="H7" s="16">
-        <v>10645642.9</v>
+        <v>10645666.9</v>
       </c>
       <c r="I7" s="16">
         <v>9842986.9000000004</v>
       </c>
       <c r="J7" s="16">
-        <v>9119839.9000000004</v>
+        <v>9119854.5</v>
       </c>
       <c r="K7" s="16">
-        <v>9335283.8000000007</v>
+        <v>9335298.4000000004</v>
       </c>
       <c r="L7" s="16">
-        <v>9602188.5999999996</v>
+        <v>9604204.8000000007</v>
       </c>
       <c r="M7" s="16">
-        <v>9515796.3000000007</v>
+        <v>9536608.9000000004</v>
       </c>
       <c r="N7" s="16">
-        <v>0</v>
+        <v>9052701.0999999996</v>
       </c>
       <c r="O7" s="16">
         <v>0</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8">
-        <v>12051764.300000001</v>
+        <v>12051728.5</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3004,44 +3008,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="16">
-        <v>1423287.4</v>
+        <v>1422642.3</v>
       </c>
       <c r="E11" s="16">
-        <v>1293471.8</v>
+        <v>1292722.5</v>
       </c>
       <c r="F11" s="16">
-        <v>1449410.8</v>
+        <v>1448136.4</v>
       </c>
       <c r="G11" s="16">
-        <v>1422207.8</v>
+        <v>1420399.5</v>
       </c>
       <c r="H11" s="16">
-        <v>1237855.3999999999</v>
+        <v>1236444.6000000001</v>
       </c>
       <c r="I11" s="16">
-        <v>1278294.8999999999</v>
+        <v>1274163.6000000001</v>
       </c>
       <c r="J11" s="16">
-        <v>1442030.9</v>
+        <v>1431760.6</v>
       </c>
       <c r="K11" s="16">
-        <v>1494797.9</v>
+        <v>1472028.4</v>
       </c>
       <c r="L11" s="16">
-        <v>1439219.6</v>
+        <v>1411903.8</v>
       </c>
       <c r="M11" s="16">
-        <v>1506895.3</v>
+        <v>1483453.8</v>
       </c>
       <c r="N11" s="16">
-        <v>0</v>
+        <v>1472359.5</v>
       </c>
       <c r="O11" s="16">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8">
-        <v>13987471.800000001</v>
+        <v>15366015</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3050,44 +3054,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="16">
-        <v>405749.5</v>
+        <v>405802.5</v>
       </c>
       <c r="E12" s="16">
-        <v>370108.2</v>
+        <v>370187.3</v>
       </c>
       <c r="F12" s="16">
-        <v>428340.3</v>
+        <v>429038.2</v>
       </c>
       <c r="G12" s="16">
-        <v>411001.5</v>
+        <v>412100.8</v>
       </c>
       <c r="H12" s="16">
-        <v>407581.5</v>
+        <v>407995.2</v>
       </c>
       <c r="I12" s="16">
-        <v>379128</v>
+        <v>380033.2</v>
       </c>
       <c r="J12" s="16">
-        <v>401032.6</v>
+        <v>403573.4</v>
       </c>
       <c r="K12" s="16">
-        <v>402265.2</v>
+        <v>414903</v>
       </c>
       <c r="L12" s="16">
-        <v>375902.1</v>
+        <v>390170.7</v>
       </c>
       <c r="M12" s="16">
-        <v>383616</v>
+        <v>393866.9</v>
       </c>
       <c r="N12" s="16">
-        <v>0</v>
+        <v>372945.7</v>
       </c>
       <c r="O12" s="16">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8">
-        <v>3964724.9000000004</v>
+        <v>4380616.9000000004</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3095,44 +3099,44 @@
         <v>27</v>
       </c>
       <c r="D13" s="16">
-        <v>186410.2</v>
+        <v>186049.8</v>
       </c>
       <c r="E13" s="16">
-        <v>173590</v>
+        <v>173539.7</v>
       </c>
       <c r="F13" s="16">
-        <v>196997.5</v>
+        <v>196655</v>
       </c>
       <c r="G13" s="16">
-        <v>183839</v>
+        <v>183662.4</v>
       </c>
       <c r="H13" s="16">
-        <v>180991.5</v>
+        <v>180690.5</v>
       </c>
       <c r="I13" s="16">
-        <v>166320.6</v>
+        <v>167364</v>
       </c>
       <c r="J13" s="16">
-        <v>180533.1</v>
+        <v>182131.3</v>
       </c>
       <c r="K13" s="16">
-        <v>176863.2</v>
+        <v>179152.4</v>
       </c>
       <c r="L13" s="16">
-        <v>166457.79999999999</v>
+        <v>169035.8</v>
       </c>
       <c r="M13" s="16">
-        <v>168748.9</v>
+        <v>170967.1</v>
       </c>
       <c r="N13" s="16">
-        <v>0</v>
+        <v>164253.1</v>
       </c>
       <c r="O13" s="16">
         <v>0</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8">
-        <v>1780751.8</v>
+        <v>1953501.1</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3140,44 +3144,44 @@
         <v>122</v>
       </c>
       <c r="D14" s="76">
-        <v>527800.19999999995</v>
+        <v>528794.6</v>
       </c>
       <c r="E14" s="76">
-        <v>489089.3</v>
+        <v>489928.9</v>
       </c>
       <c r="F14" s="76">
-        <v>532559.6</v>
+        <v>533540.30000000005</v>
       </c>
       <c r="G14" s="75">
-        <v>518464.1</v>
+        <v>519398.40000000002</v>
       </c>
       <c r="H14" s="75">
-        <v>526418.5</v>
+        <v>527771.80000000005</v>
       </c>
       <c r="I14" s="75">
-        <v>495134.9</v>
+        <v>497351.3</v>
       </c>
       <c r="J14" s="75">
-        <v>516609.6</v>
+        <v>522783.8</v>
       </c>
       <c r="K14" s="75">
-        <v>513743.1</v>
+        <v>521629.2</v>
       </c>
       <c r="L14" s="75">
-        <v>506055.9</v>
+        <v>516894.5</v>
       </c>
       <c r="M14" s="75">
-        <v>537893.5</v>
+        <v>552217.69999999995</v>
       </c>
       <c r="N14" s="75">
-        <v>0</v>
+        <v>543243.6</v>
       </c>
       <c r="O14" s="75">
         <v>0</v>
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="76">
-        <v>5163768.7</v>
+        <v>5753554.0999999996</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3185,44 +3189,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="16">
-        <v>2543247.2999999998</v>
+        <v>2543289.2000000002</v>
       </c>
       <c r="E15" s="16">
-        <v>2326259.2999999998</v>
+        <v>2326378.4</v>
       </c>
       <c r="F15" s="16">
-        <v>2607308.2000000002</v>
+        <v>2607369.9</v>
       </c>
       <c r="G15" s="16">
-        <v>2535512.4</v>
+        <v>2535561.1</v>
       </c>
       <c r="H15" s="16">
-        <v>2352846.9</v>
+        <v>2352902.1</v>
       </c>
       <c r="I15" s="16">
-        <v>2318878.4</v>
+        <v>2318912.1</v>
       </c>
       <c r="J15" s="16">
-        <v>2540206.2000000002</v>
+        <v>2540249.1</v>
       </c>
       <c r="K15" s="16">
-        <v>2587669.4</v>
+        <v>2587713</v>
       </c>
       <c r="L15" s="16">
-        <v>2487635.4000000004</v>
+        <v>2488004.7999999998</v>
       </c>
       <c r="M15" s="16">
-        <v>2597153.7000000002</v>
+        <v>2600505.5</v>
       </c>
       <c r="N15" s="16">
-        <v>0</v>
+        <v>2552801.9</v>
       </c>
       <c r="O15" s="16">
         <v>0</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8">
-        <v>24896717.200000003</v>
+        <v>27453687.100000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3247,44 +3251,44 @@
         <v>30</v>
       </c>
       <c r="D17" s="16">
-        <v>344418.5</v>
+        <v>344370.3</v>
       </c>
       <c r="E17" s="16">
-        <v>313649.09999999998</v>
+        <v>313595.7</v>
       </c>
       <c r="F17" s="16">
-        <v>345894.6</v>
+        <v>345841.1</v>
       </c>
       <c r="G17" s="16">
-        <v>324570.3</v>
+        <v>324524.3</v>
       </c>
       <c r="H17" s="16">
-        <v>345224.6</v>
+        <v>345172.8</v>
       </c>
       <c r="I17" s="16">
-        <v>346410</v>
+        <v>346371</v>
       </c>
       <c r="J17" s="16">
-        <v>356440.6</v>
+        <v>356397.7</v>
       </c>
       <c r="K17" s="16">
-        <v>369574.7</v>
+        <v>369531.1</v>
       </c>
       <c r="L17" s="16">
-        <v>325301.59999999998</v>
+        <v>325242.2</v>
       </c>
       <c r="M17" s="16">
-        <v>355957.7</v>
+        <v>354119.1</v>
       </c>
       <c r="N17" s="16">
-        <v>0</v>
+        <v>326549.59999999998</v>
       </c>
       <c r="O17" s="16">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8">
-        <v>3427441.7000000007</v>
+        <v>3751714.9000000004</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3375,17 +3379,17 @@
         <v>8457306.1999999993</v>
       </c>
       <c r="M21" s="16">
-        <v>8859052</v>
+        <v>8859718.0999999996</v>
       </c>
       <c r="N21" s="16">
-        <v>0</v>
+        <v>8744203</v>
       </c>
       <c r="O21" s="16">
         <v>0</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8">
-        <v>85076407.299999997</v>
+        <v>93821276.399999991</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3418,20 +3422,20 @@
         <v>8370467.7999999998</v>
       </c>
       <c r="L22" s="16">
-        <v>7973450</v>
+        <v>7941937</v>
       </c>
       <c r="M22" s="16">
-        <v>7742719.7999999998</v>
+        <v>7747017.7999999998</v>
       </c>
       <c r="N22" s="16">
-        <v>0</v>
+        <v>9273824.9000000004</v>
       </c>
       <c r="O22" s="16">
         <v>0</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8">
-        <v>76987087.399999991</v>
+        <v>86233697.299999997</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3464,20 +3468,20 @@
         <v>-7583414.9000000004</v>
       </c>
       <c r="L23" s="16">
-        <v>-5923136.7000000002</v>
+        <v>-5886775.7000000002</v>
       </c>
       <c r="M23" s="16">
-        <v>-5963584.7999999998</v>
+        <v>-5963581.7999999998</v>
       </c>
       <c r="N23" s="16">
-        <v>0</v>
+        <v>-7583438.5999999996</v>
       </c>
       <c r="O23" s="16">
         <v>0</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8">
-        <v>-66709844.899999999</v>
+        <v>-74256919.5</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3510,20 +3514,20 @@
         <v>9702116.0999999996</v>
       </c>
       <c r="L24" s="16">
-        <v>10507619.5</v>
+        <v>10512467.5</v>
       </c>
       <c r="M24" s="16">
-        <v>10638187</v>
+        <v>10643154.099999998</v>
       </c>
       <c r="N24" s="16">
-        <v>0</v>
+        <v>10434589.299999999</v>
       </c>
       <c r="O24" s="16">
         <v>0</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8">
-        <v>95353649.799999982</v>
+        <v>105798054.19999999</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3555,20 +3559,20 @@
         <v>6486570.5</v>
       </c>
       <c r="L25" s="42">
-        <v>5135239.8</v>
+        <v>5146369.8</v>
       </c>
       <c r="M25" s="42">
-        <v>5195852.3</v>
+        <v>5223621.3</v>
       </c>
       <c r="N25" s="42">
-        <v>0</v>
+        <v>6506779.4000000004</v>
       </c>
       <c r="O25" s="42">
         <v>0</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="41">
-        <v>57465657.199999988</v>
+        <v>64011335.599999987</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3600,20 +3604,20 @@
         <v>16188686.6</v>
       </c>
       <c r="L26" s="16">
-        <v>15642859.300000001</v>
+        <v>15658837.300000001</v>
       </c>
       <c r="M26" s="16">
-        <v>15834039.300000001</v>
+        <v>15866775.399999999</v>
       </c>
       <c r="N26" s="16">
-        <v>0</v>
+        <v>16941368.699999999</v>
       </c>
       <c r="O26" s="16">
         <v>0</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8">
-        <v>152819306.99999997</v>
+        <v>169809389.79999998</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3639,44 +3643,44 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="16">
-        <v>18416326.300000001</v>
+        <v>18416320</v>
       </c>
       <c r="E28" s="16">
-        <v>17108640.400000002</v>
+        <v>17108706.099999998</v>
       </c>
       <c r="F28" s="16">
-        <v>19007158.799999997</v>
+        <v>19007166.999999996</v>
       </c>
       <c r="G28" s="16">
-        <v>16823948.800000001</v>
+        <v>16823951.5</v>
       </c>
       <c r="H28" s="16">
-        <v>16898518.300000001</v>
+        <v>16898521.699999999</v>
       </c>
       <c r="I28" s="16">
-        <v>17277889.5</v>
+        <v>17277884.199999999</v>
       </c>
       <c r="J28" s="16">
-        <v>19222106.100000005</v>
+        <v>19222106.100000001</v>
       </c>
       <c r="K28" s="16">
-        <v>19145930.699999999</v>
+        <v>19145930.700000003</v>
       </c>
       <c r="L28" s="16">
-        <v>18455796.300000004</v>
+        <v>18472084.300000001</v>
       </c>
       <c r="M28" s="16">
-        <v>18787150.699999999</v>
+        <v>18821400</v>
       </c>
       <c r="N28" s="16">
-        <v>0</v>
+        <v>19820720.199999999</v>
       </c>
       <c r="O28" s="16">
         <v>0</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="16">
-        <v>181143465.89999998</v>
+        <v>201014791.79999998</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3735,7 +3739,7 @@
         <v>906723.5</v>
       </c>
       <c r="I31" s="16">
-        <v>984867.5</v>
+        <v>980414</v>
       </c>
       <c r="J31" s="16">
         <v>1090268.3999999999</v>
@@ -3747,17 +3751,17 @@
         <v>1081543.6000000001</v>
       </c>
       <c r="M31" s="16">
-        <v>1210949.8999999999</v>
+        <v>1210430.2</v>
       </c>
       <c r="N31" s="16">
-        <v>0</v>
+        <v>1206490.3999999999</v>
       </c>
       <c r="O31" s="16">
         <v>0</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8">
-        <v>10720052.4</v>
+        <v>11921569.6</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3780,7 +3784,7 @@
         <v>270798.40000000002</v>
       </c>
       <c r="I32" s="16">
-        <v>318385.5</v>
+        <v>322839</v>
       </c>
       <c r="J32" s="16">
         <v>367462</v>
@@ -3795,14 +3799,14 @@
         <v>399114.4</v>
       </c>
       <c r="N32" s="16">
-        <v>0</v>
+        <v>388058.1</v>
       </c>
       <c r="O32" s="16">
         <v>0</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="16">
-        <v>3296179.2</v>
+        <v>3688690.8000000003</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3855,17 +3859,17 @@
         <v>8071.7</v>
       </c>
       <c r="M34" s="16">
-        <v>9294.6</v>
+        <v>9301.6</v>
       </c>
       <c r="N34" s="16">
-        <v>0</v>
+        <v>9211.6</v>
       </c>
       <c r="O34" s="16">
         <v>0</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8">
-        <v>102217.70000000001</v>
+        <v>111436.30000000002</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3901,17 +3905,17 @@
         <v>7517.6</v>
       </c>
       <c r="M35" s="16">
-        <v>7635.8</v>
+        <v>7639.8</v>
       </c>
       <c r="N35" s="16">
-        <v>0</v>
+        <v>8288.7000000000007</v>
       </c>
       <c r="O35" s="16">
         <v>0</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8">
-        <v>75121.700000000012</v>
+        <v>83414.400000000009</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3920,13 +3924,13 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="16">
-        <v>549121.6</v>
+        <v>549117.30000000005</v>
       </c>
       <c r="E36" s="16">
         <v>509498.1</v>
       </c>
       <c r="F36" s="16">
-        <v>470237.8</v>
+        <v>470234.6</v>
       </c>
       <c r="G36" s="16">
         <v>315930.09999999998</v>
@@ -3935,7 +3939,7 @@
         <v>291686</v>
       </c>
       <c r="I36" s="16">
-        <v>285233.09999999998</v>
+        <v>285224.90000000002</v>
       </c>
       <c r="J36" s="16">
         <v>347971.3</v>
@@ -3944,20 +3948,20 @@
         <v>416137.9</v>
       </c>
       <c r="L36" s="16">
-        <v>387378.4</v>
+        <v>387475.1</v>
       </c>
       <c r="M36" s="16">
-        <v>465145.59999999998</v>
+        <v>463556.2</v>
       </c>
       <c r="N36" s="16">
-        <v>0</v>
+        <v>553541.1</v>
       </c>
       <c r="O36" s="16">
         <v>0</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
-        <v>4038339.9</v>
+        <v>4590372.5999999996</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4011,17 +4015,17 @@
         <v>269548.09999999998</v>
       </c>
       <c r="M38" s="16">
-        <v>262189.5</v>
+        <v>262189.59999999998</v>
       </c>
       <c r="N38" s="16">
-        <v>0</v>
+        <v>242067.6</v>
       </c>
       <c r="O38" s="16">
         <v>0</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8">
-        <v>2610479.7999999998</v>
+        <v>2852547.5</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4114,44 +4118,56 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="78">
-        <v>443342.2</v>
+        <f>426238+750237.1</f>
+        <v>1176475.1000000001</v>
       </c>
       <c r="E42" s="78">
-        <v>426042.2</v>
+        <f>401024+676020.2</f>
+        <v>1077044.2</v>
       </c>
       <c r="F42" s="78">
-        <v>456279.6</v>
+        <f>462176.1+737362</f>
+        <v>1199538.1000000001</v>
       </c>
       <c r="G42" s="78">
-        <v>473383.4</v>
+        <f>457553.1+712303.8</f>
+        <v>1169856.8999999999</v>
       </c>
       <c r="H42" s="78">
-        <v>465105.4</v>
+        <f>416776.5+708874.9</f>
+        <v>1125651.3999999999</v>
       </c>
       <c r="I42" s="78">
-        <v>409075.8</v>
+        <f>398306+664128.6</f>
+        <v>1062434.6000000001</v>
       </c>
       <c r="J42" s="78">
-        <v>424893.9</v>
+        <f>392067.2+600644.4</f>
+        <v>992711.60000000009</v>
       </c>
       <c r="K42" s="78">
-        <v>496015.4</v>
+        <f>448523.2+502084.9</f>
+        <v>950608.10000000009</v>
       </c>
       <c r="L42" s="78">
-        <v>471149.5</v>
+        <f>418864.6+531176.7</f>
+        <v>950041.29999999993</v>
       </c>
       <c r="M42" s="78">
-        <v>506633.8</v>
+        <f>474323.8+696834</f>
+        <v>1171157.8</v>
       </c>
       <c r="N42" s="78">
-        <v>0</v>
+        <f>493831.2+675539.1</f>
+        <v>1169370.3</v>
       </c>
       <c r="O42" s="78">
         <v>0</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>4571921.1999999993</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>12044889.4</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4184,20 +4200,21 @@
         <v>448523.2</v>
       </c>
       <c r="L43" s="78">
-        <v>418980.5</v>
+        <v>418760.8</v>
       </c>
       <c r="M43" s="78">
-        <v>474323.8</v>
+        <v>474143.7</v>
       </c>
       <c r="N43" s="78">
-        <v>0</v>
+        <v>491988.3</v>
       </c>
       <c r="O43" s="78">
         <v>0</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <v>4295968.4000000004</v>
+        <f t="shared" si="0"/>
+        <v>4787556.9000000004</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4230,20 +4247,21 @@
         <v>818342.2</v>
       </c>
       <c r="L44" s="78">
-        <v>778977.7</v>
+        <v>779197.4</v>
       </c>
       <c r="M44" s="78">
-        <v>812598.9</v>
+        <v>812931.3</v>
       </c>
       <c r="N44" s="78">
-        <v>0</v>
+        <v>830143.9</v>
       </c>
       <c r="O44" s="78">
         <v>0</v>
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <v>8147165.2000000002</v>
+        <f t="shared" si="0"/>
+        <v>8977861.1999999993</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4282,14 +4300,15 @@
         <v>264080.8</v>
       </c>
       <c r="N45" s="80">
-        <v>0</v>
+        <v>253587.20000000001</v>
       </c>
       <c r="O45" s="80">
         <v>0</v>
       </c>
       <c r="P45" s="80"/>
-      <c r="Q45" s="79">
-        <v>2531172.9</v>
+      <c r="Q45" s="80">
+        <f t="shared" si="0"/>
+        <v>2784760.1</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4298,44 +4317,56 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <v>1941532.3</v>
+        <f t="shared" ref="D46:N46" si="1">SUM(D42:D45)</f>
+        <v>2674665.2000000002</v>
       </c>
       <c r="E46" s="89">
-        <v>1781654</v>
+        <f t="shared" si="1"/>
+        <v>2432656</v>
       </c>
       <c r="F46" s="89">
-        <v>2013625.1999999997</v>
+        <f t="shared" si="1"/>
+        <v>2756883.7</v>
       </c>
       <c r="G46" s="89">
-        <v>1943081.7999999998</v>
+        <f t="shared" si="1"/>
+        <v>2639555.2999999998</v>
       </c>
       <c r="H46" s="89">
-        <v>1976435.9000000001</v>
+        <f t="shared" si="1"/>
+        <v>2636981.9000000004</v>
       </c>
       <c r="I46" s="89">
-        <v>1882235.9000000001</v>
+        <f t="shared" si="1"/>
+        <v>2535594.7000000002</v>
       </c>
       <c r="J46" s="89">
-        <v>1940673.3000000003</v>
+        <f t="shared" si="1"/>
+        <v>2508491</v>
       </c>
       <c r="K46" s="89">
-        <v>2066892.2000000002</v>
+        <f t="shared" si="1"/>
+        <v>2521484.9</v>
       </c>
       <c r="L46" s="89">
-        <v>1942459.7999999998</v>
-      </c>
-      <c r="M46" s="78">
-        <v>2057637.3</v>
-      </c>
-      <c r="N46" s="78">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2421351.6</v>
+      </c>
+      <c r="M46" s="89">
+        <f t="shared" si="1"/>
+        <v>2722313.5999999996</v>
+      </c>
+      <c r="N46" s="89">
+        <f t="shared" si="1"/>
+        <v>2745089.7</v>
       </c>
       <c r="O46" s="78">
         <v>0</v>
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <v>19546227.700000003</v>
+        <f t="shared" si="0"/>
+        <v>28595067.599999998</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4361,44 +4392,56 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <v>4233505.1000000006</v>
+        <f t="shared" ref="D48:N48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>4966633.7000000011</v>
       </c>
       <c r="E48" s="89">
-        <v>3848192.6</v>
+        <f t="shared" si="2"/>
+        <v>4499194.5999999996</v>
       </c>
       <c r="F48" s="89">
-        <v>4225868.0000000009</v>
+        <f t="shared" si="2"/>
+        <v>4969123.3000000007</v>
       </c>
       <c r="G48" s="89">
-        <v>3936474.2</v>
+        <f t="shared" si="2"/>
+        <v>4632947.7</v>
       </c>
       <c r="H48" s="89">
-        <v>3697303.7</v>
+        <f t="shared" si="2"/>
+        <v>4357849.7</v>
       </c>
       <c r="I48" s="89">
-        <v>3725151.8999999994</v>
+        <f t="shared" si="2"/>
+        <v>4378502.5</v>
       </c>
       <c r="J48" s="89">
-        <v>4030497.6</v>
+        <f t="shared" si="2"/>
+        <v>4598315.3</v>
       </c>
       <c r="K48" s="89">
-        <v>4271474.5000000009</v>
+        <f t="shared" si="2"/>
+        <v>4726067.2000000002</v>
       </c>
       <c r="L48" s="89">
-        <v>4008398.5000000005</v>
-      </c>
-      <c r="M48" s="78">
-        <v>4411981.9999999991</v>
-      </c>
-      <c r="N48" s="78">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4487387</v>
+      </c>
+      <c r="M48" s="89">
+        <f t="shared" si="2"/>
+        <v>5074560.3</v>
+      </c>
+      <c r="N48" s="89">
+        <f t="shared" si="2"/>
+        <v>5152747.2</v>
       </c>
       <c r="O48" s="78">
         <v>0</v>
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
-        <v>40388848.100000001</v>
+        <f>SUM(D48:O48)</f>
+        <v>51843328.5</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4453,14 +4496,15 @@
         <v>247240.3</v>
       </c>
       <c r="N50" s="78">
-        <v>0</v>
+        <v>245436.2</v>
       </c>
       <c r="O50" s="78">
         <v>0</v>
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <v>2101825.9</v>
+        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
+        <v>2347262.1</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4498,14 +4542,15 @@
         <v>88711.3</v>
       </c>
       <c r="N51" s="78">
-        <v>0</v>
+        <v>94108.5</v>
       </c>
       <c r="O51" s="78">
         <v>0</v>
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <v>962169</v>
+        <f t="shared" si="3"/>
+        <v>1056277.5</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4528,7 +4573,7 @@
         <v>276690.7</v>
       </c>
       <c r="I52" s="78">
-        <v>288264.90000000002</v>
+        <v>287344.40000000002</v>
       </c>
       <c r="J52" s="78">
         <v>312824.8</v>
@@ -4540,36 +4585,37 @@
         <v>305352.09999999998</v>
       </c>
       <c r="M52" s="78">
-        <v>344370.5</v>
+        <v>344263</v>
       </c>
       <c r="N52" s="78">
-        <v>0</v>
+        <v>337761.6</v>
       </c>
       <c r="O52" s="78">
         <v>0</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <v>3098688.9999999995</v>
+        <f t="shared" si="3"/>
+        <v>3435422.5999999996</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95"/>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="96"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="99"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4577,44 +4623,44 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>10608697.300000001</v>
+        <v>10608650.9</v>
       </c>
       <c r="E54" s="83">
-        <v>10238336.6</v>
+        <v>10238355.9</v>
       </c>
       <c r="F54" s="83">
-        <v>10412149.699999999</v>
+        <v>10412171</v>
       </c>
       <c r="G54" s="83">
-        <v>10645803.800000001</v>
+        <v>10645827.800000001</v>
       </c>
       <c r="H54" s="83">
-        <v>9824186.5999999996</v>
+        <v>9824214</v>
       </c>
       <c r="I54" s="83">
-        <v>9120148.9000000004</v>
+        <v>9120163.5</v>
       </c>
       <c r="J54" s="83">
-        <v>9335283.8000000007</v>
+        <v>9335298.4000000004</v>
       </c>
       <c r="K54" s="83">
-        <v>9604192.1999999993</v>
+        <v>9604206.8000000007</v>
       </c>
       <c r="L54" s="83">
-        <v>9516797.1999999993</v>
+        <v>9537074.9000000004</v>
       </c>
       <c r="M54" s="83">
-        <v>9770901</v>
+        <v>9821292.5</v>
       </c>
       <c r="N54" s="83">
-        <v>0</v>
+        <v>9714933.5999999996</v>
       </c>
       <c r="O54" s="83">
         <v>0</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9770901</v>
+        <v>9714933.5999999996</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4646,20 +4692,21 @@
         <v>-10721.7</v>
       </c>
       <c r="L55" s="78">
-        <v>-114054</v>
+        <v>-110896.2</v>
       </c>
       <c r="M55" s="78">
-        <v>-120739.4</v>
+        <v>-121044.3</v>
       </c>
       <c r="N55" s="78">
-        <v>0</v>
+        <v>-107598.9</v>
       </c>
       <c r="O55" s="78">
         <v>0</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <v>-1764449.9</v>
+        <f>SUM(D55:O55)</f>
+        <v>-1869195.9</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4685,44 +4732,56 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <v>22302895.5</v>
+        <f t="shared" ref="D57:N57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>23036028.400000002</v>
       </c>
       <c r="E57" s="89">
-        <v>20704741.600000001</v>
+        <f t="shared" si="4"/>
+        <v>21355743.599999994</v>
       </c>
       <c r="F57" s="89">
-        <v>22363435.599999998</v>
+        <f t="shared" si="4"/>
+        <v>23106697.099999998</v>
       </c>
       <c r="G57" s="89">
-        <v>19852253.299999997</v>
+        <f t="shared" si="4"/>
+        <v>20548726.799999997</v>
       </c>
       <c r="H57" s="89">
-        <v>20853591.000000004</v>
+        <f t="shared" si="4"/>
+        <v>21514136.999999996</v>
       </c>
       <c r="I57" s="89">
-        <v>21005947.999999996</v>
+        <f t="shared" si="4"/>
+        <v>21660199.200000003</v>
       </c>
       <c r="J57" s="89">
-        <v>22374914.40000001</v>
+        <f t="shared" si="4"/>
+        <v>22942732.100000001</v>
       </c>
       <c r="K57" s="89">
-        <v>22501058.000000004</v>
+        <f t="shared" si="4"/>
+        <v>22955650.699999999</v>
       </c>
       <c r="L57" s="89">
-        <v>21799565.500000007</v>
-      </c>
-      <c r="M57" s="78">
-        <v>22142966.5</v>
-      </c>
-      <c r="N57" s="78">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22279738.300000004</v>
+      </c>
+      <c r="M57" s="89">
+        <f t="shared" si="4"/>
+        <v>22810017.800000001</v>
+      </c>
+      <c r="N57" s="89">
+        <f t="shared" si="4"/>
+        <v>23526329.699999999</v>
       </c>
       <c r="O57" s="78">
         <v>0</v>
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
-        <v>215901369.40000001</v>
+        <f>SUM(D57:O57)</f>
+        <v>245736000.69999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4747,20 +4806,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="98" t="s">
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4803,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="P60" s="91"/>
-      <c r="Q60" s="98" t="s">
+      <c r="Q60" s="96" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4881,14 +4940,14 @@
         <v>1775.8</v>
       </c>
       <c r="N63" s="90">
-        <v>0</v>
+        <v>1566.4</v>
       </c>
       <c r="O63" s="90">
         <v>0</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>85504.5</v>
+        <v>87070.9</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4920,20 +4979,20 @@
         <v>2467419.7000000002</v>
       </c>
       <c r="L64" s="90">
-        <v>2206898.9</v>
+        <v>2206891.7000000002</v>
       </c>
       <c r="M64" s="90">
         <v>2112585</v>
       </c>
       <c r="N64" s="90">
-        <v>0</v>
+        <v>2291610.5</v>
       </c>
       <c r="O64" s="90">
         <v>0</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>22641632.899999999</v>
+        <v>24933236.199999999</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4956,7 +5015,7 @@
         <v>8753.6</v>
       </c>
       <c r="I65" s="90">
-        <v>8388.4</v>
+        <v>8387.7000000000007</v>
       </c>
       <c r="J65" s="90">
         <v>9481.1</v>
@@ -4965,20 +5024,20 @@
         <v>9788</v>
       </c>
       <c r="L65" s="90">
-        <v>12789.3</v>
+        <v>13368.2</v>
       </c>
       <c r="M65" s="90">
-        <v>9188.2999999999993</v>
+        <v>9476.9</v>
       </c>
       <c r="N65" s="90">
-        <v>0</v>
+        <v>12831.3</v>
       </c>
       <c r="O65" s="90">
         <v>0</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>101444.1</v>
+        <v>115142.2</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5010,20 +5069,20 @@
         <v>28391.4</v>
       </c>
       <c r="L66" s="90">
-        <v>7326.8</v>
+        <v>6724.8</v>
       </c>
       <c r="M66" s="90">
         <v>11903.9</v>
       </c>
       <c r="N66" s="90">
-        <v>0</v>
+        <v>33867.9</v>
       </c>
       <c r="O66" s="90">
         <v>0</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>198151.59999999998</v>
+        <v>231417.49999999997</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5062,14 +5121,14 @@
         <v>3.2</v>
       </c>
       <c r="N67" s="90">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="O67" s="90">
         <v>0</v>
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>3.2</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5084,7 +5143,7 @@
         <v>-10608.4</v>
       </c>
       <c r="F68" s="90">
-        <v>-29370.799999999999</v>
+        <v>-29376.799999999999</v>
       </c>
       <c r="G68" s="90">
         <v>-20376.400000000001</v>
@@ -5096,26 +5155,26 @@
         <v>-32436.2</v>
       </c>
       <c r="J68" s="90">
-        <v>-34760.6</v>
+        <v>-34757.599999999999</v>
       </c>
       <c r="K68" s="90">
         <v>-27871.200000000001</v>
       </c>
       <c r="L68" s="90">
-        <v>-29849.200000000001</v>
+        <v>-29857.599999999999</v>
       </c>
       <c r="M68" s="90">
-        <v>-27478</v>
+        <v>-25699.4</v>
       </c>
       <c r="N68" s="90">
-        <v>0</v>
+        <v>-9683</v>
       </c>
       <c r="O68" s="90">
         <v>0</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-243251.40000000002</v>
+        <v>-251167.2</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5151,17 +5210,17 @@
         <v>265731.8</v>
       </c>
       <c r="M69" s="90">
-        <v>375449.3</v>
+        <v>377260.3</v>
       </c>
       <c r="N69" s="90">
-        <v>0</v>
+        <v>245902.2</v>
       </c>
       <c r="O69" s="90">
         <v>0</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>3340559.4</v>
+        <v>3588272.6</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5176,7 +5235,7 @@
         <v>2574778.1</v>
       </c>
       <c r="F70" s="90">
-        <v>2795525.9000000008</v>
+        <v>2795519.9000000008</v>
       </c>
       <c r="G70" s="90">
         <v>2378792</v>
@@ -5185,29 +5244,29 @@
         <v>2426865.2999999998</v>
       </c>
       <c r="I70" s="90">
-        <v>2544708.2999999998</v>
+        <v>2544707.6</v>
       </c>
       <c r="J70" s="90">
-        <v>2844997.4000000004</v>
+        <v>2845000.4000000004</v>
       </c>
       <c r="K70" s="90">
         <v>2867731.4</v>
       </c>
       <c r="L70" s="90">
-        <v>2464453.0999999992</v>
+        <v>2464414.4</v>
       </c>
       <c r="M70" s="90">
-        <v>2483427.4999999995</v>
+        <v>2487305.6999999997</v>
       </c>
       <c r="N70" s="90">
-        <v>0</v>
+        <v>2576178.7999999998</v>
       </c>
       <c r="O70" s="90">
         <v>0</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>26124044.300000001</v>
+        <v>28704058.899999999</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5261,17 +5320,17 @@
         <v>19443299.699999999</v>
       </c>
       <c r="M72" s="78">
-        <v>19932460.300000001</v>
+        <v>19932657.399999999</v>
       </c>
       <c r="N72" s="78">
-        <v>0</v>
+        <v>19832464.899999999</v>
       </c>
       <c r="O72" s="78">
         <v>0</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>189881072.80000001</v>
+        <v>209713734.80000001</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5307,17 +5366,17 @@
         <v>648109.99</v>
       </c>
       <c r="M73" s="78">
-        <v>642982.59032258065</v>
+        <v>642988.94838709675</v>
       </c>
       <c r="N73" s="78">
-        <v>0</v>
+        <v>661082.16333333333</v>
       </c>
       <c r="O73" s="78">
         <v>0</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>624640.09504454676</v>
+        <v>627953.58834939252</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5344,44 +5403,56 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <v>3534.5999999977648</v>
+        <f t="shared" ref="D75:N75" si="5">D57-(D70+D72)</f>
+        <v>736667.5</v>
       </c>
       <c r="E75" s="89">
-        <v>348765.5</v>
+        <f t="shared" si="5"/>
+        <v>999767.49999999255</v>
       </c>
       <c r="F75" s="89">
-        <v>174825.39999999478</v>
+        <f t="shared" si="5"/>
+        <v>918092.89999999478</v>
       </c>
       <c r="G75" s="89">
-        <v>-92133.400000002235</v>
+        <f t="shared" si="5"/>
+        <v>604340.09999999776</v>
       </c>
       <c r="H75" s="89">
-        <v>61026.500000003725</v>
+        <f t="shared" si="5"/>
+        <v>721572.49999999627</v>
       </c>
       <c r="I75" s="89">
-        <v>-96715.100000005215</v>
+        <f t="shared" si="5"/>
+        <v>557536.80000000075</v>
       </c>
       <c r="J75" s="89">
-        <v>-115605.89999999106</v>
+        <f t="shared" si="5"/>
+        <v>452208.80000000447</v>
       </c>
       <c r="K75" s="89">
-        <v>-6336.6999999955297</v>
+        <f t="shared" si="5"/>
+        <v>448256</v>
       </c>
       <c r="L75" s="89">
-        <v>-108187.29999998957</v>
-      </c>
-      <c r="M75" s="78">
-        <v>-272921.30000000075</v>
-      </c>
-      <c r="N75" s="78">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>372024.20000000671</v>
+      </c>
+      <c r="M75" s="89">
+        <f t="shared" si="5"/>
+        <v>390054.70000000298</v>
+      </c>
+      <c r="N75" s="89">
+        <f t="shared" si="5"/>
+        <v>1117686</v>
       </c>
       <c r="O75" s="78">
         <v>0</v>
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <v>-103747.69999998808</v>
+        <f>SUM(D75:O75)</f>
+        <v>7318206.9999999963</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5390,44 +5461,56 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <v>1.5848166440979669E-4</v>
-      </c>
-      <c r="E76" s="78">
-        <v>1.6844716381294995E-2</v>
-      </c>
-      <c r="F76" s="78">
-        <v>7.8174661141955665E-3</v>
-      </c>
-      <c r="G76" s="78">
-        <v>-4.6409542840158222E-3</v>
-      </c>
-      <c r="H76" s="78">
-        <v>2.9264264365788948E-3</v>
-      </c>
-      <c r="I76" s="78">
-        <v>-4.6041768740932437E-3</v>
-      </c>
-      <c r="J76" s="78">
-        <v>-5.1667639005578058E-3</v>
-      </c>
-      <c r="K76" s="78">
-        <v>-2.816178688129033E-4</v>
-      </c>
-      <c r="L76" s="78">
-        <v>-4.9628190983893481E-3</v>
-      </c>
-      <c r="M76" s="78">
-        <v>-1.2325417192858994E-2</v>
-      </c>
-      <c r="N76" s="78" t="s">
+        <f t="shared" ref="D76:N76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>3.1978928277410869E-2</v>
+      </c>
+      <c r="E76" s="100">
+        <f t="shared" si="6"/>
+        <v>4.6814923363286347E-2</v>
+      </c>
+      <c r="F76" s="100">
+        <f t="shared" si="6"/>
+        <v>3.9732762152319676E-2</v>
+      </c>
+      <c r="G76" s="100">
+        <f t="shared" si="6"/>
+        <v>2.941009951039876E-2</v>
+      </c>
+      <c r="H76" s="100">
+        <f t="shared" si="6"/>
+        <v>3.3539458264117049E-2</v>
+      </c>
+      <c r="I76" s="100">
+        <f t="shared" si="6"/>
+        <v>2.5740151087807202E-2</v>
+      </c>
+      <c r="J76" s="100">
+        <f t="shared" si="6"/>
+        <v>1.9710329093717852E-2</v>
+      </c>
+      <c r="K76" s="100">
+        <f t="shared" si="6"/>
+        <v>1.9527043944783495E-2</v>
+      </c>
+      <c r="L76" s="100">
+        <f t="shared" si="6"/>
+        <v>1.669787117741893E-2</v>
+      </c>
+      <c r="M76" s="100">
+        <f t="shared" si="6"/>
+        <v>1.710014886529387E-2</v>
+      </c>
+      <c r="N76" s="100">
+        <f t="shared" si="6"/>
+        <v>4.7507877950039953E-2</v>
+      </c>
+      <c r="O76" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="O76" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79">
-        <v>-4.8053284834787192E-4</v>
+      <c r="P76" s="101"/>
+      <c r="Q76" s="101">
+        <f>AVERAGE(D76:N76)</f>
+        <v>2.9796326698781274E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5453,63 +5536,75 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <v>22302895.5</v>
+        <f t="shared" ref="D78:N78" si="7">(D70+D72)+D75</f>
+        <v>23036028.400000002</v>
       </c>
       <c r="E78" s="89">
-        <v>20704741.600000001</v>
+        <f t="shared" si="7"/>
+        <v>21355743.599999994</v>
       </c>
       <c r="F78" s="89">
-        <v>22363435.599999998</v>
+        <f t="shared" si="7"/>
+        <v>23106697.099999998</v>
       </c>
       <c r="G78" s="89">
-        <v>19852253.299999997</v>
+        <f t="shared" si="7"/>
+        <v>20548726.799999997</v>
       </c>
       <c r="H78" s="89">
-        <v>20853591.000000004</v>
+        <f t="shared" si="7"/>
+        <v>21514136.999999996</v>
       </c>
       <c r="I78" s="89">
-        <v>21005947.999999996</v>
+        <f t="shared" si="7"/>
+        <v>21660199.200000003</v>
       </c>
       <c r="J78" s="89">
-        <v>22374914.40000001</v>
+        <f t="shared" si="7"/>
+        <v>22942732.100000001</v>
       </c>
       <c r="K78" s="89">
-        <v>22501058.000000004</v>
+        <f t="shared" si="7"/>
+        <v>22955650.699999999</v>
       </c>
       <c r="L78" s="89">
-        <v>21799565.500000007</v>
-      </c>
-      <c r="M78" s="78">
-        <v>22142966.5</v>
-      </c>
-      <c r="N78" s="78">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22279738.300000004</v>
+      </c>
+      <c r="M78" s="89">
+        <f t="shared" si="7"/>
+        <v>22810017.800000001</v>
+      </c>
+      <c r="N78" s="89">
+        <f t="shared" si="7"/>
+        <v>23526329.699999999</v>
       </c>
       <c r="O78" s="78">
         <v>0</v>
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <v>215901369.40000001</v>
+        <f>SUM(D78:O78)</f>
+        <v>245736000.69999999</v>
       </c>
     </row>
     <row r="79" spans="2:17">
       <c r="B79" s="59"/>
       <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
     </row>
     <row r="80" spans="2:17">
       <c r="B80" s="50"/>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A6640-34D3-49AE-9DED-17803038FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F7299-C50D-4FE2-BAA6-7F355083FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19215" yWindow="405" windowWidth="19200" windowHeight="20595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="129">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -476,10 +476,7 @@
     <t>2023</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  08 January 2024</t>
+    <t xml:space="preserve"> Run Date:  29 January 2024</t>
   </si>
 </sst>
 </file>
@@ -1047,17 +1044,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1619,11 +1616,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2790,9 +2787,7 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2821,17 +2816,17 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2907,44 +2902,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="16">
-        <v>12051728.5</v>
+        <v>12051734.5</v>
       </c>
       <c r="E7" s="16">
-        <v>10608650.9</v>
+        <v>10608656.9</v>
       </c>
       <c r="F7" s="16">
-        <v>10238355.9</v>
+        <v>10238356.4</v>
       </c>
       <c r="G7" s="16">
-        <v>10412171</v>
+        <v>10412179.1</v>
       </c>
       <c r="H7" s="16">
-        <v>10645666.9</v>
+        <v>10645666.6</v>
       </c>
       <c r="I7" s="16">
         <v>9842986.9000000004</v>
       </c>
       <c r="J7" s="16">
-        <v>9119854.5</v>
+        <v>9120119.1999999993</v>
       </c>
       <c r="K7" s="16">
-        <v>9335298.4000000004</v>
+        <v>9335286.9000000004</v>
       </c>
       <c r="L7" s="16">
-        <v>9604204.8000000007</v>
+        <v>9604100.0999999996</v>
       </c>
       <c r="M7" s="16">
-        <v>9536608.9000000004</v>
+        <v>9536587.9000000004</v>
       </c>
       <c r="N7" s="16">
-        <v>9052701.0999999996</v>
+        <v>9821430</v>
       </c>
       <c r="O7" s="16">
-        <v>0</v>
+        <v>10441559.5</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8">
-        <v>12051728.5</v>
+        <v>12051734.5</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3008,44 +3003,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="16">
-        <v>1422642.3</v>
+        <v>1423566.7</v>
       </c>
       <c r="E11" s="16">
-        <v>1292722.5</v>
+        <v>1293353.3</v>
       </c>
       <c r="F11" s="16">
-        <v>1448136.4</v>
+        <v>1448709.4</v>
       </c>
       <c r="G11" s="16">
-        <v>1420399.5</v>
+        <v>1421031.5</v>
       </c>
       <c r="H11" s="16">
-        <v>1236444.6000000001</v>
+        <v>1237228.1000000001</v>
       </c>
       <c r="I11" s="16">
-        <v>1274163.6000000001</v>
+        <v>1274889.7</v>
       </c>
       <c r="J11" s="16">
-        <v>1431760.6</v>
+        <v>1432463.3</v>
       </c>
       <c r="K11" s="16">
-        <v>1472028.4</v>
+        <v>1472688</v>
       </c>
       <c r="L11" s="16">
-        <v>1411903.8</v>
+        <v>1412544.9</v>
       </c>
       <c r="M11" s="16">
-        <v>1483453.8</v>
+        <v>1484130</v>
       </c>
       <c r="N11" s="16">
-        <v>1472359.5</v>
+        <v>1477442.8</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>1569652.9</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8">
-        <v>15366015</v>
+        <v>16947700.600000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3054,44 +3049,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="16">
-        <v>405802.5</v>
+        <v>404878.1</v>
       </c>
       <c r="E12" s="16">
-        <v>370187.3</v>
+        <v>369551</v>
       </c>
       <c r="F12" s="16">
-        <v>429038.2</v>
+        <v>428472.8</v>
       </c>
       <c r="G12" s="16">
-        <v>412100.8</v>
+        <v>411459.5</v>
       </c>
       <c r="H12" s="16">
-        <v>407995.2</v>
+        <v>407205.8</v>
       </c>
       <c r="I12" s="16">
-        <v>380033.2</v>
+        <v>379304.2</v>
       </c>
       <c r="J12" s="16">
-        <v>403573.4</v>
+        <v>402820.7</v>
       </c>
       <c r="K12" s="16">
-        <v>414903</v>
+        <v>414243.4</v>
       </c>
       <c r="L12" s="16">
-        <v>390170.7</v>
+        <v>389529.59999999998</v>
       </c>
       <c r="M12" s="16">
-        <v>393866.9</v>
+        <v>393257.5</v>
       </c>
       <c r="N12" s="16">
-        <v>372945.7</v>
+        <v>372077.7</v>
       </c>
       <c r="O12" s="16">
-        <v>0</v>
+        <v>373481.6</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8">
-        <v>4380616.9000000004</v>
+        <v>4746281.8999999994</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3117,26 +3112,26 @@
         <v>167364</v>
       </c>
       <c r="J13" s="16">
-        <v>182131.3</v>
+        <v>182128.4</v>
       </c>
       <c r="K13" s="16">
-        <v>179152.4</v>
+        <v>179207.4</v>
       </c>
       <c r="L13" s="16">
-        <v>169035.8</v>
+        <v>168980.9</v>
       </c>
       <c r="M13" s="16">
-        <v>170967.1</v>
+        <v>170940.7</v>
       </c>
       <c r="N13" s="16">
-        <v>164253.1</v>
+        <v>164230.5</v>
       </c>
       <c r="O13" s="16">
-        <v>0</v>
+        <v>167166.29999999999</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8">
-        <v>1953501.1</v>
+        <v>2120615.5999999996</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3162,26 +3157,26 @@
         <v>497351.3</v>
       </c>
       <c r="J14" s="75">
-        <v>522783.8</v>
+        <v>522782.6</v>
       </c>
       <c r="K14" s="75">
         <v>521629.2</v>
       </c>
       <c r="L14" s="75">
-        <v>516894.5</v>
+        <v>516912.4</v>
       </c>
       <c r="M14" s="75">
-        <v>552217.69999999995</v>
+        <v>552316.80000000005</v>
       </c>
       <c r="N14" s="75">
-        <v>543243.6</v>
+        <v>540177.69999999995</v>
       </c>
       <c r="O14" s="75">
-        <v>0</v>
+        <v>562546</v>
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="76">
-        <v>5753554.0999999996</v>
+        <v>6313150</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3189,44 +3184,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="16">
-        <v>2543289.2000000002</v>
+        <v>2543289.1999999997</v>
       </c>
       <c r="E15" s="16">
-        <v>2326378.4</v>
+        <v>2326372.9</v>
       </c>
       <c r="F15" s="16">
-        <v>2607369.9</v>
+        <v>2607377.5</v>
       </c>
       <c r="G15" s="16">
-        <v>2535561.1</v>
+        <v>2535551.7999999998</v>
       </c>
       <c r="H15" s="16">
-        <v>2352902.1</v>
+        <v>2352896.2000000002</v>
       </c>
       <c r="I15" s="16">
-        <v>2318912.1</v>
+        <v>2318909.1999999997</v>
       </c>
       <c r="J15" s="16">
-        <v>2540249.1</v>
+        <v>2540195</v>
       </c>
       <c r="K15" s="16">
-        <v>2587713</v>
+        <v>2587768</v>
       </c>
       <c r="L15" s="16">
-        <v>2488004.7999999998</v>
+        <v>2487967.7999999998</v>
       </c>
       <c r="M15" s="16">
-        <v>2600505.5</v>
+        <v>2600645</v>
       </c>
       <c r="N15" s="16">
-        <v>2552801.9</v>
+        <v>2553928.7000000002</v>
       </c>
       <c r="O15" s="16">
-        <v>0</v>
+        <v>2672846.7999999998</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8">
-        <v>27453687.100000001</v>
+        <v>30127748.100000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3275,20 +3270,20 @@
         <v>369531.1</v>
       </c>
       <c r="L17" s="16">
-        <v>325242.2</v>
+        <v>325222.7</v>
       </c>
       <c r="M17" s="16">
-        <v>354119.1</v>
+        <v>354102.5</v>
       </c>
       <c r="N17" s="16">
-        <v>326549.59999999998</v>
+        <v>326511.3</v>
       </c>
       <c r="O17" s="16">
-        <v>0</v>
+        <v>359904.9</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8">
-        <v>3751714.9000000004</v>
+        <v>4111545.4</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3382,14 +3377,14 @@
         <v>8859718.0999999996</v>
       </c>
       <c r="N21" s="16">
-        <v>8744203</v>
+        <v>8743403.8000000007</v>
       </c>
       <c r="O21" s="16">
-        <v>0</v>
+        <v>9261149.4000000004</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8">
-        <v>93821276.399999991</v>
+        <v>103081626.59999999</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3398,44 +3393,44 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="16">
-        <v>7626933.7999999998</v>
+        <v>7625703.7999999998</v>
       </c>
       <c r="E22" s="16">
-        <v>7387393</v>
+        <v>7386819</v>
       </c>
       <c r="F22" s="16">
-        <v>8288219.0999999996</v>
+        <v>8282575.0999999996</v>
       </c>
       <c r="G22" s="16">
-        <v>6976673.5</v>
+        <v>6969510.5</v>
       </c>
       <c r="H22" s="16">
-        <v>6781336</v>
+        <v>6778601</v>
       </c>
       <c r="I22" s="16">
-        <v>7187759.4000000004</v>
+        <v>7183500.4000000004</v>
       </c>
       <c r="J22" s="16">
-        <v>8652135</v>
+        <v>8647322</v>
       </c>
       <c r="K22" s="16">
-        <v>8370467.7999999998</v>
+        <v>8359987.7999999998</v>
       </c>
       <c r="L22" s="16">
-        <v>7941937</v>
+        <v>7936822</v>
       </c>
       <c r="M22" s="16">
-        <v>7747017.7999999998</v>
+        <v>7740608.7999999998</v>
       </c>
       <c r="N22" s="16">
         <v>9273824.9000000004</v>
       </c>
       <c r="O22" s="16">
-        <v>0</v>
+        <v>9417692.5</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8">
-        <v>86233697.299999997</v>
+        <v>95602967.799999997</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3477,11 +3472,11 @@
         <v>-7583438.5999999996</v>
       </c>
       <c r="O23" s="16">
-        <v>0</v>
+        <v>-7993566.0999999996</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8">
-        <v>-74256919.5</v>
+        <v>-82250485.599999994</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3490,44 +3485,44 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="16">
-        <v>9839747.0999999996</v>
+        <v>9838517.0999999996</v>
       </c>
       <c r="E24" s="16">
-        <v>8719677.3000000007</v>
+        <v>8719103.3000000007</v>
       </c>
       <c r="F24" s="16">
-        <v>9697858.799999997</v>
+        <v>9692214.799999997</v>
       </c>
       <c r="G24" s="16">
-        <v>8611108.5</v>
+        <v>8603945.5</v>
       </c>
       <c r="H24" s="16">
-        <v>8894598.5999999996</v>
+        <v>8891863.5999999996</v>
       </c>
       <c r="I24" s="16">
-        <v>9144355.5</v>
+        <v>9140096.5</v>
       </c>
       <c r="J24" s="16">
-        <v>9598381.4000000022</v>
+        <v>9593568.4000000022</v>
       </c>
       <c r="K24" s="16">
-        <v>9702116.0999999996</v>
+        <v>9691636.0999999996</v>
       </c>
       <c r="L24" s="16">
-        <v>10512467.5</v>
+        <v>10507352.5</v>
       </c>
       <c r="M24" s="16">
-        <v>10643154.099999998</v>
+        <v>10636745.099999998</v>
       </c>
       <c r="N24" s="16">
-        <v>10434589.299999999</v>
+        <v>10433790.100000003</v>
       </c>
       <c r="O24" s="16">
-        <v>0</v>
+        <v>10685275.799999999</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8">
-        <v>105798054.19999999</v>
+        <v>116434108.79999998</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3538,7 +3533,7 @@
         <v>5688913.4000000004</v>
       </c>
       <c r="E25" s="42">
-        <v>5749054.7000000002</v>
+        <v>5748379.7000000002</v>
       </c>
       <c r="F25" s="42">
         <v>6356097.2000000002</v>
@@ -3565,14 +3560,14 @@
         <v>5223621.3</v>
       </c>
       <c r="N25" s="42">
-        <v>6506779.4000000004</v>
+        <v>6491330.0999999996</v>
       </c>
       <c r="O25" s="42">
-        <v>0</v>
+        <v>6918536.4000000004</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="41">
-        <v>64011335.599999987</v>
+        <v>70913747.699999988</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3580,44 +3575,44 @@
         <v>46</v>
       </c>
       <c r="D26" s="16">
-        <v>15528660.5</v>
+        <v>15527430.5</v>
       </c>
       <c r="E26" s="16">
-        <v>14468732</v>
+        <v>14467483</v>
       </c>
       <c r="F26" s="16">
-        <v>16053955.999999996</v>
+        <v>16048311.999999996</v>
       </c>
       <c r="G26" s="16">
-        <v>13963866.1</v>
+        <v>13956703.1</v>
       </c>
       <c r="H26" s="16">
-        <v>14200446.800000001</v>
+        <v>14197711.800000001</v>
       </c>
       <c r="I26" s="16">
-        <v>14612601.1</v>
+        <v>14608342.1</v>
       </c>
       <c r="J26" s="16">
-        <v>16325459.300000003</v>
+        <v>16320646.300000003</v>
       </c>
       <c r="K26" s="16">
-        <v>16188686.6</v>
+        <v>16178206.6</v>
       </c>
       <c r="L26" s="16">
-        <v>15658837.300000001</v>
+        <v>15653722.300000001</v>
       </c>
       <c r="M26" s="16">
-        <v>15866775.399999999</v>
+        <v>15860366.399999999</v>
       </c>
       <c r="N26" s="16">
-        <v>16941368.699999999</v>
+        <v>16925120.200000003</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>17603812.199999999</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8">
-        <v>169809389.79999998</v>
+        <v>187347856.49999997</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3643,44 +3638,44 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="16">
-        <v>18416320</v>
+        <v>18415090</v>
       </c>
       <c r="E28" s="16">
-        <v>17108706.099999998</v>
+        <v>17107451.599999998</v>
       </c>
       <c r="F28" s="16">
-        <v>19007166.999999996</v>
+        <v>19001530.599999998</v>
       </c>
       <c r="G28" s="16">
-        <v>16823951.5</v>
+        <v>16816779.199999999</v>
       </c>
       <c r="H28" s="16">
-        <v>16898521.699999999</v>
+        <v>16895780.800000001</v>
       </c>
       <c r="I28" s="16">
-        <v>17277884.199999999</v>
+        <v>17273622.300000001</v>
       </c>
       <c r="J28" s="16">
-        <v>19222106.100000001</v>
+        <v>19217239.000000004</v>
       </c>
       <c r="K28" s="16">
-        <v>19145930.700000003</v>
+        <v>19135505.700000003</v>
       </c>
       <c r="L28" s="16">
-        <v>18472084.300000001</v>
+        <v>18466912.800000001</v>
       </c>
       <c r="M28" s="16">
-        <v>18821400</v>
+        <v>18815113.899999999</v>
       </c>
       <c r="N28" s="16">
-        <v>19820720.199999999</v>
+        <v>19805560.200000003</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>20636563.899999999</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="16">
-        <v>201014791.79999998</v>
+        <v>221587149.99999997</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3733,35 +3728,35 @@
         <v>1112139.1000000001</v>
       </c>
       <c r="G31" s="16">
-        <v>1085221.6000000001</v>
+        <v>1085222.5</v>
       </c>
       <c r="H31" s="16">
-        <v>906723.5</v>
+        <v>906762.6</v>
       </c>
       <c r="I31" s="16">
-        <v>980414</v>
+        <v>980636.7</v>
       </c>
       <c r="J31" s="16">
-        <v>1090268.3999999999</v>
+        <v>1089920.6000000001</v>
       </c>
       <c r="K31" s="16">
-        <v>1135036.2</v>
+        <v>1134947</v>
       </c>
       <c r="L31" s="16">
-        <v>1081543.6000000001</v>
+        <v>1081481.5</v>
       </c>
       <c r="M31" s="16">
-        <v>1210430.2</v>
+        <v>1210433.8999999999</v>
       </c>
       <c r="N31" s="16">
-        <v>1206490.3999999999</v>
+        <v>1205724.8999999999</v>
       </c>
       <c r="O31" s="16">
-        <v>0</v>
+        <v>1310995.6000000001</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8">
-        <v>11921569.6</v>
+        <v>13231567</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3802,11 +3797,11 @@
         <v>388058.1</v>
       </c>
       <c r="O32" s="16">
-        <v>0</v>
+        <v>383532.9</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="16">
-        <v>3688690.8000000003</v>
+        <v>4072223.7</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3865,11 +3860,11 @@
         <v>9211.6</v>
       </c>
       <c r="O34" s="16">
-        <v>0</v>
+        <v>10541</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8">
-        <v>111436.30000000002</v>
+        <v>121977.30000000002</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3911,11 +3906,11 @@
         <v>8288.7000000000007</v>
       </c>
       <c r="O35" s="16">
-        <v>0</v>
+        <v>8131.4</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8">
-        <v>83414.400000000009</v>
+        <v>91545.8</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3945,23 +3940,23 @@
         <v>347971.3</v>
       </c>
       <c r="K36" s="16">
-        <v>416137.9</v>
+        <v>416137.8</v>
       </c>
       <c r="L36" s="16">
-        <v>387475.1</v>
+        <v>387488.4</v>
       </c>
       <c r="M36" s="16">
-        <v>463556.2</v>
+        <v>463755.9</v>
       </c>
       <c r="N36" s="16">
-        <v>553541.1</v>
+        <v>553584.80000000005</v>
       </c>
       <c r="O36" s="16">
-        <v>0</v>
+        <v>609811.5</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
-        <v>4590372.5999999996</v>
+        <v>5200440.6999999993</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4018,14 +4013,14 @@
         <v>262189.59999999998</v>
       </c>
       <c r="N38" s="16">
-        <v>242067.6</v>
+        <v>270593.59999999998</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>295582.7</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8">
-        <v>2852547.5</v>
+        <v>3176656.2</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4067,11 +4062,11 @@
         <v>0</v>
       </c>
       <c r="O39" s="16">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8">
-        <v>229.7</v>
+        <v>259.59999999999997</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4118,56 +4113,44 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="78">
-        <f>426238+750237.1</f>
-        <v>1176475.1000000001</v>
+        <v>443342.2</v>
       </c>
       <c r="E42" s="78">
-        <f>401024+676020.2</f>
-        <v>1077044.2</v>
+        <v>426042.2</v>
       </c>
       <c r="F42" s="78">
-        <f>462176.1+737362</f>
-        <v>1199538.1000000001</v>
+        <v>456279.6</v>
       </c>
       <c r="G42" s="78">
-        <f>457553.1+712303.8</f>
-        <v>1169856.8999999999</v>
+        <v>473383.4</v>
       </c>
       <c r="H42" s="78">
-        <f>416776.5+708874.9</f>
-        <v>1125651.3999999999</v>
+        <v>465105.4</v>
       </c>
       <c r="I42" s="78">
-        <f>398306+664128.6</f>
-        <v>1062434.6000000001</v>
+        <v>409075.8</v>
       </c>
       <c r="J42" s="78">
-        <f>392067.2+600644.4</f>
-        <v>992711.60000000009</v>
+        <v>424893.9</v>
       </c>
       <c r="K42" s="78">
-        <f>448523.2+502084.9</f>
-        <v>950608.10000000009</v>
+        <v>496015.4</v>
       </c>
       <c r="L42" s="78">
-        <f>418864.6+531176.7</f>
-        <v>950041.29999999993</v>
+        <v>471149.5</v>
       </c>
       <c r="M42" s="78">
-        <f>474323.8+696834</f>
-        <v>1171157.8</v>
+        <v>506633.8</v>
       </c>
       <c r="N42" s="78">
-        <f>493831.2+675539.1</f>
-        <v>1169370.3</v>
+        <v>493831.2</v>
       </c>
       <c r="O42" s="78">
-        <v>0</v>
+        <v>547591.1</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>12044889.4</v>
+        <v>5613343.4999999991</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4176,45 +4159,57 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="78">
-        <v>426238</v>
+        <f>426238+750237.1</f>
+        <v>1176475.1000000001</v>
       </c>
       <c r="E43" s="78">
-        <v>401024</v>
+        <f>401024+676020.2</f>
+        <v>1077044.2</v>
       </c>
       <c r="F43" s="78">
-        <v>462176.1</v>
+        <f>462176.1+737362</f>
+        <v>1199538.1000000001</v>
       </c>
       <c r="G43" s="78">
-        <v>457553.1</v>
+        <f>457553.1+712303.8</f>
+        <v>1169856.8999999999</v>
       </c>
       <c r="H43" s="78">
-        <v>416776.5</v>
+        <f>416776.5+708874.9</f>
+        <v>1125651.3999999999</v>
       </c>
       <c r="I43" s="78">
-        <v>398306</v>
+        <f>398306+664128.6</f>
+        <v>1062434.6000000001</v>
       </c>
       <c r="J43" s="78">
-        <v>392067.2</v>
+        <f>392067.2+600644.4</f>
+        <v>992711.60000000009</v>
       </c>
       <c r="K43" s="78">
-        <v>448523.2</v>
+        <f>448523.2+502084.9</f>
+        <v>950608.10000000009</v>
       </c>
       <c r="L43" s="78">
-        <v>418760.8</v>
+        <f>418864.6+531176.7</f>
+        <v>950041.29999999993</v>
       </c>
       <c r="M43" s="78">
-        <v>474143.7</v>
+        <f>474323.8+696834</f>
+        <v>1171157.8</v>
       </c>
       <c r="N43" s="78">
-        <v>491988.3</v>
+        <f>491988.3+675539.1</f>
+        <v>1167527.3999999999</v>
       </c>
       <c r="O43" s="78">
-        <v>0</v>
+        <f>539494.1+609254.1</f>
+        <v>1148748.2</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="0"/>
-        <v>4787556.9000000004</v>
+        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
+        <v>13191794.699999999</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4250,18 +4245,18 @@
         <v>779197.4</v>
       </c>
       <c r="M44" s="78">
-        <v>812931.3</v>
+        <v>813135.1</v>
       </c>
       <c r="N44" s="78">
-        <v>830143.9</v>
+        <v>830344.8</v>
       </c>
       <c r="O44" s="78">
-        <v>0</v>
+        <v>933173.1</v>
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>8977861.1999999993</v>
+        <v>9911439</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4303,12 +4298,12 @@
         <v>253587.20000000001</v>
       </c>
       <c r="O45" s="80">
-        <v>0</v>
+        <v>228439.8</v>
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2784760.1</v>
+        <v>3013199.9</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4317,56 +4312,57 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:N46" si="1">SUM(D42:D45)</f>
-        <v>2674665.2000000002</v>
+        <f t="shared" ref="D46:O46" si="1">SUM(D42:D45)</f>
+        <v>2691769.4</v>
       </c>
       <c r="E46" s="89">
         <f t="shared" si="1"/>
-        <v>2432656</v>
+        <v>2457674.1999999997</v>
       </c>
       <c r="F46" s="89">
         <f t="shared" si="1"/>
-        <v>2756883.7</v>
+        <v>2750987.2</v>
       </c>
       <c r="G46" s="89">
         <f t="shared" si="1"/>
-        <v>2639555.2999999998</v>
+        <v>2655385.5999999996</v>
       </c>
       <c r="H46" s="89">
         <f t="shared" si="1"/>
-        <v>2636981.9000000004</v>
+        <v>2685310.8</v>
       </c>
       <c r="I46" s="89">
         <f t="shared" si="1"/>
-        <v>2535594.7000000002</v>
+        <v>2546364.5</v>
       </c>
       <c r="J46" s="89">
         <f t="shared" si="1"/>
-        <v>2508491</v>
+        <v>2541317.7000000002</v>
       </c>
       <c r="K46" s="89">
         <f t="shared" si="1"/>
-        <v>2521484.9</v>
+        <v>2568977.1</v>
       </c>
       <c r="L46" s="89">
         <f t="shared" si="1"/>
-        <v>2421351.6</v>
+        <v>2473740.2999999998</v>
       </c>
       <c r="M46" s="89">
         <f t="shared" si="1"/>
-        <v>2722313.5999999996</v>
+        <v>2755007.5</v>
       </c>
       <c r="N46" s="89">
         <f t="shared" si="1"/>
-        <v>2745089.7</v>
-      </c>
-      <c r="O46" s="78">
-        <v>0</v>
+        <v>2745290.6</v>
+      </c>
+      <c r="O46" s="89">
+        <f t="shared" si="1"/>
+        <v>2857952.1999999997</v>
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>28595067.599999998</v>
+        <v>31729777.100000001</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4392,56 +4388,57 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:N48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>4966633.7000000011</v>
+        <f t="shared" ref="D48:O48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>4983737.9000000004</v>
       </c>
       <c r="E48" s="89">
         <f t="shared" si="2"/>
-        <v>4499194.5999999996</v>
+        <v>4524212.8</v>
       </c>
       <c r="F48" s="89">
         <f t="shared" si="2"/>
-        <v>4969123.3000000007</v>
+        <v>4963226.8000000007</v>
       </c>
       <c r="G48" s="89">
         <f t="shared" si="2"/>
-        <v>4632947.7</v>
+        <v>4648778.8999999994</v>
       </c>
       <c r="H48" s="89">
         <f t="shared" si="2"/>
-        <v>4357849.7</v>
+        <v>4406217.6999999993</v>
       </c>
       <c r="I48" s="89">
         <f t="shared" si="2"/>
-        <v>4378502.5</v>
+        <v>4389495</v>
       </c>
       <c r="J48" s="89">
         <f t="shared" si="2"/>
-        <v>4598315.3</v>
+        <v>4630794.2</v>
       </c>
       <c r="K48" s="89">
         <f t="shared" si="2"/>
-        <v>4726067.2000000002</v>
+        <v>4773470.1000000006</v>
       </c>
       <c r="L48" s="89">
         <f t="shared" si="2"/>
-        <v>4487387</v>
+        <v>4539726.9000000004</v>
       </c>
       <c r="M48" s="89">
         <f t="shared" si="2"/>
-        <v>5074560.3</v>
+        <v>5107457.5999999996</v>
       </c>
       <c r="N48" s="89">
         <f t="shared" si="2"/>
-        <v>5152747.2</v>
-      </c>
-      <c r="O48" s="78">
-        <v>0</v>
+        <v>5180752.3000000007</v>
+      </c>
+      <c r="O48" s="89">
+        <f t="shared" si="2"/>
+        <v>5476577.1999999993</v>
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>51843328.5</v>
+        <v>57624447.400000006</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4466,45 +4463,44 @@
         <v>54</v>
       </c>
       <c r="D50" s="78">
-        <v>206336.1</v>
+        <v>205664.1</v>
       </c>
       <c r="E50" s="78">
-        <v>190509.1</v>
+        <v>189617.1</v>
       </c>
       <c r="F50" s="78">
-        <v>216507</v>
+        <v>210785</v>
       </c>
       <c r="G50" s="78">
-        <v>190389.5</v>
+        <v>183443.5</v>
       </c>
       <c r="H50" s="78">
-        <v>190088.2</v>
+        <v>187042.2</v>
       </c>
       <c r="I50" s="78">
-        <v>200935.8</v>
+        <v>196884.8</v>
       </c>
       <c r="J50" s="78">
-        <v>213838.8</v>
+        <v>209567.8</v>
       </c>
       <c r="K50" s="78">
-        <v>212218.2</v>
+        <v>201473.2</v>
       </c>
       <c r="L50" s="78">
-        <v>233762.9</v>
+        <v>228569.9</v>
       </c>
       <c r="M50" s="78">
-        <v>247240.3</v>
+        <v>241379.3</v>
       </c>
       <c r="N50" s="78">
         <v>245436.2</v>
       </c>
       <c r="O50" s="78">
-        <v>0</v>
+        <v>249577.9</v>
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>2347262.1</v>
+        <v>2549441</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4515,7 +4511,7 @@
         <v>81141.399999999994</v>
       </c>
       <c r="E51" s="78">
-        <v>91399.4</v>
+        <v>91434.4</v>
       </c>
       <c r="F51" s="78">
         <v>111325.1</v>
@@ -4527,13 +4523,13 @@
         <v>103284.6</v>
       </c>
       <c r="I51" s="78">
-        <v>90043</v>
+        <v>90034</v>
       </c>
       <c r="J51" s="78">
-        <v>96036.4</v>
+        <v>99001.4</v>
       </c>
       <c r="K51" s="78">
-        <v>104432.5</v>
+        <v>104547.5</v>
       </c>
       <c r="L51" s="78">
         <v>96851.7</v>
@@ -4545,12 +4541,11 @@
         <v>94108.5</v>
       </c>
       <c r="O51" s="78">
-        <v>0</v>
+        <v>103248.6</v>
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" si="3"/>
-        <v>1056277.5</v>
+        <v>1162632.1000000001</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4567,55 +4562,54 @@
         <v>323337.3</v>
       </c>
       <c r="G52" s="78">
-        <v>310960.2</v>
+        <v>310960.40000000002</v>
       </c>
       <c r="H52" s="78">
-        <v>276690.7</v>
+        <v>276698.8</v>
       </c>
       <c r="I52" s="78">
-        <v>287344.40000000002</v>
+        <v>287390.40000000002</v>
       </c>
       <c r="J52" s="78">
-        <v>312824.8</v>
+        <v>312752.8</v>
       </c>
       <c r="K52" s="78">
-        <v>320066.40000000002</v>
+        <v>320048</v>
       </c>
       <c r="L52" s="78">
-        <v>305352.09999999998</v>
+        <v>305339.2</v>
       </c>
       <c r="M52" s="78">
-        <v>344263</v>
+        <v>344263.8</v>
       </c>
       <c r="N52" s="78">
-        <v>337761.6</v>
+        <v>337677.8</v>
       </c>
       <c r="O52" s="78">
-        <v>0</v>
+        <v>369683.7</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <f t="shared" si="3"/>
-        <v>3435422.5999999996</v>
+        <v>3804974.3</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="99"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="98"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4623,44 +4617,44 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>10608650.9</v>
+        <v>10608656.9</v>
       </c>
       <c r="E54" s="83">
-        <v>10238355.9</v>
+        <v>10238356.4</v>
       </c>
       <c r="F54" s="83">
-        <v>10412171</v>
+        <v>10412179.1</v>
       </c>
       <c r="G54" s="83">
-        <v>10645827.800000001</v>
+        <v>10645827.5</v>
       </c>
       <c r="H54" s="83">
-        <v>9824214</v>
+        <v>9824246.9000000004</v>
       </c>
       <c r="I54" s="83">
-        <v>9120163.5</v>
+        <v>9120428.1999999993</v>
       </c>
       <c r="J54" s="83">
-        <v>9335298.4000000004</v>
+        <v>9335286.9000000004</v>
       </c>
       <c r="K54" s="83">
-        <v>9604206.8000000007</v>
+        <v>9604100.0999999996</v>
       </c>
       <c r="L54" s="83">
-        <v>9537074.9000000004</v>
+        <v>9536953.9000000004</v>
       </c>
       <c r="M54" s="83">
-        <v>9821292.5</v>
+        <v>9821446.5</v>
       </c>
       <c r="N54" s="83">
-        <v>9714933.5999999996</v>
+        <v>10555697.699999999</v>
       </c>
       <c r="O54" s="83">
-        <v>0</v>
+        <v>10858475.5</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9714933.5999999996</v>
+        <v>10858475.5</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4671,7 +4665,7 @@
         <v>-1178697.3</v>
       </c>
       <c r="E55" s="78">
-        <v>-47549.599999999999</v>
+        <v>-47550.9</v>
       </c>
       <c r="F55" s="78">
         <v>-44608.7</v>
@@ -4680,33 +4674,32 @@
         <v>-74222.3</v>
       </c>
       <c r="H55" s="78">
-        <v>6376.2</v>
+        <v>6377.2</v>
       </c>
       <c r="I55" s="78">
-        <v>-140687.70000000001</v>
+        <v>-140686.70000000001</v>
       </c>
       <c r="J55" s="78">
-        <v>-39545.4</v>
+        <v>-39543.4</v>
       </c>
       <c r="K55" s="78">
         <v>-10721.7</v>
       </c>
       <c r="L55" s="78">
-        <v>-110896.2</v>
+        <v>-110754.2</v>
       </c>
       <c r="M55" s="78">
-        <v>-121044.3</v>
+        <v>-120787.4</v>
       </c>
       <c r="N55" s="78">
-        <v>-107598.9</v>
+        <v>-55594.3</v>
       </c>
       <c r="O55" s="78">
-        <v>0</v>
+        <v>-94494</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <f>SUM(D55:O55)</f>
-        <v>-1869195.9</v>
+        <v>-1911283.6999999997</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4732,56 +4725,57 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:N57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>23036028.400000002</v>
+        <f t="shared" ref="D57:O57" si="3">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>23052574.599999998</v>
       </c>
       <c r="E57" s="89">
-        <f t="shared" si="4"/>
-        <v>21355743.599999994</v>
+        <f t="shared" si="3"/>
+        <v>21380368.5</v>
       </c>
       <c r="F57" s="89">
-        <f t="shared" si="4"/>
-        <v>23106697.099999998</v>
+        <f t="shared" si="3"/>
+        <v>23100878.600000001</v>
       </c>
       <c r="G57" s="89">
-        <f t="shared" si="4"/>
-        <v>20548726.799999997</v>
+        <f t="shared" si="3"/>
+        <v>20564339.899999995</v>
       </c>
       <c r="H57" s="89">
-        <f t="shared" si="4"/>
-        <v>21514136.999999996</v>
+        <f t="shared" si="3"/>
+        <v>21562769.799999997</v>
       </c>
       <c r="I57" s="89">
-        <f t="shared" si="4"/>
-        <v>21660199.200000003</v>
+        <f t="shared" si="3"/>
+        <v>21670680.100000001</v>
       </c>
       <c r="J57" s="89">
-        <f t="shared" si="4"/>
-        <v>22942732.100000001</v>
+        <f t="shared" si="3"/>
+        <v>22972000.100000001</v>
       </c>
       <c r="K57" s="89">
-        <f t="shared" si="4"/>
-        <v>22955650.699999999</v>
+        <f t="shared" si="3"/>
+        <v>23003372.200000007</v>
       </c>
       <c r="L57" s="89">
-        <f t="shared" si="4"/>
-        <v>22279738.300000004</v>
+        <f t="shared" si="3"/>
+        <v>22332270.900000002</v>
       </c>
       <c r="M57" s="89">
-        <f t="shared" si="4"/>
-        <v>22810017.800000001</v>
+        <f t="shared" si="3"/>
+        <v>22842571.100000001</v>
       </c>
       <c r="N57" s="89">
-        <f t="shared" si="4"/>
-        <v>23526329.699999999</v>
-      </c>
-      <c r="O57" s="78">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23519228.000000004</v>
+      </c>
+      <c r="O57" s="89">
+        <f t="shared" si="3"/>
+        <v>24879220.899999999</v>
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>245736000.69999999</v>
+        <v>270880274.69999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4803,7 +4797,7 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="95"/>
@@ -4943,11 +4937,11 @@
         <v>1566.4</v>
       </c>
       <c r="O63" s="90">
-        <v>0</v>
+        <v>843.69999999999993</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>87070.9</v>
+        <v>87914.599999999991</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4988,11 +4982,11 @@
         <v>2291610.5</v>
       </c>
       <c r="O64" s="90">
-        <v>0</v>
+        <v>2462549.6</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>24933236.199999999</v>
+        <v>27395785.800000001</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5018,7 +5012,7 @@
         <v>8387.7000000000007</v>
       </c>
       <c r="J65" s="90">
-        <v>9481.1</v>
+        <v>9484.4</v>
       </c>
       <c r="K65" s="90">
         <v>9788</v>
@@ -5030,14 +5024,14 @@
         <v>9476.9</v>
       </c>
       <c r="N65" s="90">
-        <v>12831.3</v>
+        <v>12875.3</v>
       </c>
       <c r="O65" s="90">
-        <v>0</v>
+        <v>11472.7</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>115142.2</v>
+        <v>126662.19999999998</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5048,7 +5042,7 @@
         <v>7600.5</v>
       </c>
       <c r="E66" s="90">
-        <v>26572.5</v>
+        <v>25897.5</v>
       </c>
       <c r="F66" s="90">
         <v>22641.599999999999</v>
@@ -5078,11 +5072,11 @@
         <v>33867.9</v>
       </c>
       <c r="O66" s="90">
-        <v>0</v>
+        <v>37950.699999999997</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>231417.49999999997</v>
+        <v>268693.19999999995</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5170,11 +5164,11 @@
         <v>-9683</v>
       </c>
       <c r="O68" s="90">
-        <v>0</v>
+        <v>-14003.2</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-251167.2</v>
+        <v>-265170.40000000002</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5204,23 +5198,23 @@
         <v>354147.1</v>
       </c>
       <c r="K69" s="90">
-        <v>388788.1</v>
+        <v>388794</v>
       </c>
       <c r="L69" s="90">
-        <v>265731.8</v>
+        <v>265784.8</v>
       </c>
       <c r="M69" s="90">
         <v>377260.3</v>
       </c>
       <c r="N69" s="90">
-        <v>245902.2</v>
+        <v>286183.5</v>
       </c>
       <c r="O69" s="90">
-        <v>0</v>
+        <v>453279.1</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>3588272.6</v>
+        <v>4081891.9</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5232,7 +5226,7 @@
         <v>2742765.3000000003</v>
       </c>
       <c r="E70" s="90">
-        <v>2574778.1</v>
+        <v>2574103.1</v>
       </c>
       <c r="F70" s="90">
         <v>2795519.9000000008</v>
@@ -5247,26 +5241,26 @@
         <v>2544707.6</v>
       </c>
       <c r="J70" s="90">
-        <v>2845000.4000000004</v>
+        <v>2845003.7</v>
       </c>
       <c r="K70" s="90">
-        <v>2867731.4</v>
+        <v>2867737.3</v>
       </c>
       <c r="L70" s="90">
-        <v>2464414.4</v>
+        <v>2464467.4</v>
       </c>
       <c r="M70" s="90">
         <v>2487305.6999999997</v>
       </c>
       <c r="N70" s="90">
-        <v>2576178.7999999998</v>
+        <v>2616504.0999999996</v>
       </c>
       <c r="O70" s="90">
-        <v>0</v>
+        <v>2952092.6000000006</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>28704058.899999999</v>
+        <v>31695864</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5323,14 +5317,14 @@
         <v>19932657.399999999</v>
       </c>
       <c r="N72" s="78">
-        <v>19832464.899999999</v>
+        <v>20176649.800000001</v>
       </c>
       <c r="O72" s="78">
-        <v>0</v>
+        <v>21336127.800000001</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>209713734.80000001</v>
+        <v>231394047.50000003</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5369,14 +5363,14 @@
         <v>642988.94838709675</v>
       </c>
       <c r="N73" s="78">
-        <v>661082.16333333333</v>
+        <v>672554.9933333334</v>
       </c>
       <c r="O73" s="78">
-        <v>0</v>
+        <v>688262.18709677423</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>627953.58834939252</v>
+        <v>633935.37407834094</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5403,56 +5397,56 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:N75" si="5">D57-(D70+D72)</f>
-        <v>736667.5</v>
+        <f t="shared" ref="D75:O75" si="4">D57-(D70+D72)</f>
+        <v>753213.69999999553</v>
       </c>
       <c r="E75" s="89">
-        <f t="shared" si="5"/>
-        <v>999767.49999999255</v>
+        <f t="shared" si="4"/>
+        <v>1025067.3999999985</v>
       </c>
       <c r="F75" s="89">
-        <f t="shared" si="5"/>
-        <v>918092.89999999478</v>
+        <f t="shared" si="4"/>
+        <v>912274.39999999851</v>
       </c>
       <c r="G75" s="89">
-        <f t="shared" si="5"/>
-        <v>604340.09999999776</v>
+        <f t="shared" si="4"/>
+        <v>619953.19999999553</v>
       </c>
       <c r="H75" s="89">
-        <f t="shared" si="5"/>
-        <v>721572.49999999627</v>
+        <f t="shared" si="4"/>
+        <v>770205.29999999702</v>
       </c>
       <c r="I75" s="89">
-        <f t="shared" si="5"/>
-        <v>557536.80000000075</v>
+        <f t="shared" si="4"/>
+        <v>568017.69999999925</v>
       </c>
       <c r="J75" s="89">
-        <f t="shared" si="5"/>
-        <v>452208.80000000447</v>
+        <f t="shared" si="4"/>
+        <v>481473.50000000373</v>
       </c>
       <c r="K75" s="89">
-        <f t="shared" si="5"/>
-        <v>448256</v>
+        <f t="shared" si="4"/>
+        <v>495971.60000000522</v>
       </c>
       <c r="L75" s="89">
-        <f t="shared" si="5"/>
-        <v>372024.20000000671</v>
+        <f t="shared" si="4"/>
+        <v>424503.80000000447</v>
       </c>
       <c r="M75" s="89">
-        <f t="shared" si="5"/>
-        <v>390054.70000000298</v>
+        <f t="shared" si="4"/>
+        <v>422608.00000000373</v>
       </c>
       <c r="N75" s="89">
-        <f t="shared" si="5"/>
-        <v>1117686</v>
-      </c>
-      <c r="O75" s="78">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>726074.10000000522</v>
+      </c>
+      <c r="O75" s="89">
+        <f t="shared" si="4"/>
+        <v>591000.49999999627</v>
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <f>SUM(D75:O75)</f>
-        <v>7318206.9999999963</v>
+        <v>-74785.200000006706</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5461,56 +5455,57 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:N76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>3.1978928277410869E-2</v>
-      </c>
-      <c r="E76" s="100">
-        <f t="shared" si="6"/>
-        <v>4.6814923363286347E-2</v>
-      </c>
-      <c r="F76" s="100">
-        <f t="shared" si="6"/>
-        <v>3.9732762152319676E-2</v>
-      </c>
-      <c r="G76" s="100">
-        <f t="shared" si="6"/>
-        <v>2.941009951039876E-2</v>
-      </c>
-      <c r="H76" s="100">
-        <f t="shared" si="6"/>
-        <v>3.3539458264117049E-2</v>
-      </c>
-      <c r="I76" s="100">
-        <f t="shared" si="6"/>
-        <v>2.5740151087807202E-2</v>
-      </c>
-      <c r="J76" s="100">
-        <f t="shared" si="6"/>
-        <v>1.9710329093717852E-2</v>
-      </c>
-      <c r="K76" s="100">
-        <f t="shared" si="6"/>
-        <v>1.9527043944783495E-2</v>
-      </c>
-      <c r="L76" s="100">
-        <f t="shared" si="6"/>
-        <v>1.669787117741893E-2</v>
-      </c>
-      <c r="M76" s="100">
-        <f t="shared" si="6"/>
-        <v>1.710014886529387E-2</v>
-      </c>
-      <c r="N76" s="100">
-        <f t="shared" si="6"/>
-        <v>4.7507877950039953E-2</v>
-      </c>
-      <c r="O76" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="P76" s="101"/>
-      <c r="Q76" s="101">
-        <f>AVERAGE(D76:N76)</f>
-        <v>2.9796326698781274E-2</v>
+        <f t="shared" ref="D76:O76" si="5">IF(D57&gt;0,D75/D57,"")</f>
+        <v>3.2673734412294042E-2</v>
+      </c>
+      <c r="E76" s="99">
+        <f t="shared" si="5"/>
+        <v>4.7944327994159618E-2</v>
+      </c>
+      <c r="F76" s="99">
+        <f t="shared" si="5"/>
+        <v>3.9490896246690742E-2</v>
+      </c>
+      <c r="G76" s="99">
+        <f t="shared" si="5"/>
+        <v>3.0147002189941225E-2</v>
+      </c>
+      <c r="H76" s="99">
+        <f t="shared" si="5"/>
+        <v>3.5719219151520931E-2</v>
+      </c>
+      <c r="I76" s="99">
+        <f t="shared" si="5"/>
+        <v>2.6211346269653955E-2</v>
+      </c>
+      <c r="J76" s="99">
+        <f t="shared" si="5"/>
+        <v>2.0959145825530608E-2</v>
+      </c>
+      <c r="K76" s="99">
+        <f t="shared" si="5"/>
+        <v>2.1560821417305288E-2</v>
+      </c>
+      <c r="L76" s="99">
+        <f t="shared" si="5"/>
+        <v>1.9008537103139135E-2</v>
+      </c>
+      <c r="M76" s="99">
+        <f t="shared" si="5"/>
+        <v>1.8500894586249254E-2</v>
+      </c>
+      <c r="N76" s="99">
+        <f t="shared" si="5"/>
+        <v>3.0871510748567303E-2</v>
+      </c>
+      <c r="O76" s="99">
+        <f t="shared" si="5"/>
+        <v>2.3754783253682847E-2</v>
+      </c>
+      <c r="P76" s="100"/>
+      <c r="Q76" s="100">
+        <f>AVERAGE(D76:O76)</f>
+        <v>2.8903518266561252E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5536,56 +5531,57 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:N78" si="7">(D70+D72)+D75</f>
-        <v>23036028.400000002</v>
+        <f t="shared" ref="D78:O78" si="6">(D70+D72)+D75</f>
+        <v>23052574.599999998</v>
       </c>
       <c r="E78" s="89">
-        <f t="shared" si="7"/>
-        <v>21355743.599999994</v>
+        <f t="shared" si="6"/>
+        <v>21380368.5</v>
       </c>
       <c r="F78" s="89">
-        <f t="shared" si="7"/>
-        <v>23106697.099999998</v>
+        <f t="shared" si="6"/>
+        <v>23100878.600000001</v>
       </c>
       <c r="G78" s="89">
-        <f t="shared" si="7"/>
-        <v>20548726.799999997</v>
+        <f t="shared" si="6"/>
+        <v>20564339.899999995</v>
       </c>
       <c r="H78" s="89">
-        <f t="shared" si="7"/>
-        <v>21514136.999999996</v>
+        <f t="shared" si="6"/>
+        <v>21562769.799999997</v>
       </c>
       <c r="I78" s="89">
-        <f t="shared" si="7"/>
-        <v>21660199.200000003</v>
+        <f t="shared" si="6"/>
+        <v>21670680.100000001</v>
       </c>
       <c r="J78" s="89">
-        <f t="shared" si="7"/>
-        <v>22942732.100000001</v>
+        <f t="shared" si="6"/>
+        <v>22972000.100000001</v>
       </c>
       <c r="K78" s="89">
-        <f t="shared" si="7"/>
-        <v>22955650.699999999</v>
+        <f t="shared" si="6"/>
+        <v>23003372.200000007</v>
       </c>
       <c r="L78" s="89">
-        <f t="shared" si="7"/>
-        <v>22279738.300000004</v>
+        <f t="shared" si="6"/>
+        <v>22332270.900000002</v>
       </c>
       <c r="M78" s="89">
-        <f t="shared" si="7"/>
-        <v>22810017.800000001</v>
+        <f t="shared" si="6"/>
+        <v>22842571.100000001</v>
       </c>
       <c r="N78" s="89">
-        <f t="shared" si="7"/>
-        <v>23526329.699999999</v>
-      </c>
-      <c r="O78" s="78">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>23519228.000000004</v>
+      </c>
+      <c r="O78" s="89">
+        <f t="shared" si="6"/>
+        <v>24879220.899999999</v>
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>245736000.69999999</v>
+        <v>270880274.69999999</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2024\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F7299-C50D-4FE2-BAA6-7F355083FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024C06B-423E-4FA7-9037-BA09F24EBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="405" windowWidth="19200" windowHeight="20595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -473,10 +473,13 @@
     <t>Nonupgraded</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  29 January 2024</t>
+    <t xml:space="preserve"> Run Date:  26 February 2024</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1052,6 +1055,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1616,11 +1628,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2776,6 +2788,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Security Classification: Protected A</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2787,7 +2802,9 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2816,17 +2833,17 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2887,7 +2904,7 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1">
@@ -2901,51 +2918,51 @@
         <v>41</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="16">
-        <v>12051734.5</v>
+      <c r="D7" s="90">
+        <v>11037738.4</v>
       </c>
       <c r="E7" s="16">
-        <v>10608656.9</v>
+        <v>0</v>
       </c>
       <c r="F7" s="16">
-        <v>10238356.4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>10412179.1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
-        <v>10645666.6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>9842986.9000000004</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16">
-        <v>9120119.1999999993</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
-        <v>9335286.9000000004</v>
+        <v>0</v>
       </c>
       <c r="L7" s="16">
-        <v>9604100.0999999996</v>
+        <v>0</v>
       </c>
       <c r="M7" s="16">
-        <v>9536587.9000000004</v>
+        <v>0</v>
       </c>
       <c r="N7" s="16">
-        <v>9821430</v>
+        <v>0</v>
       </c>
       <c r="O7" s="16">
-        <v>10441559.5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8">
-        <v>12051734.5</v>
+      <c r="Q7" s="91">
+        <v>11037738.4</v>
       </c>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1">
       <c r="B8" s="50"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -2958,13 +2975,13 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="91"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1">
       <c r="B9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -2977,13 +2994,13 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="91"/>
     </row>
     <row r="10" spans="2:22">
       <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2996,51 +3013,52 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16">
-        <v>1423566.7</v>
+      <c r="D11" s="90">
+        <v>1471470.1</v>
       </c>
       <c r="E11" s="16">
-        <v>1293353.3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="16">
-        <v>1448709.4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>1421031.5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="16">
-        <v>1237228.1000000001</v>
+        <v>0</v>
       </c>
       <c r="I11" s="16">
-        <v>1274889.7</v>
+        <v>0</v>
       </c>
       <c r="J11" s="16">
-        <v>1432463.3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="16">
-        <v>1472688</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
-        <v>1412544.9</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>1484130</v>
+        <v>0</v>
       </c>
       <c r="N11" s="16">
-        <v>1477442.8</v>
+        <v>0</v>
       </c>
       <c r="O11" s="16">
-        <v>1569652.9</v>
+        <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8">
-        <v>16947700.600000001</v>
+      <c r="Q11" s="91">
+        <f>SUM(D11:O11)</f>
+        <v>1471470.1</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3048,185 +3066,189 @@
         <v>26</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="16">
-        <v>404878.1</v>
+      <c r="D12" s="90">
+        <v>345122.4</v>
       </c>
       <c r="E12" s="16">
-        <v>369551</v>
+        <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>428472.8</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>411459.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
-        <v>407205.8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="16">
-        <v>379304.2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16">
-        <v>402820.7</v>
+        <v>0</v>
       </c>
       <c r="K12" s="16">
-        <v>414243.4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="16">
-        <v>389529.59999999998</v>
+        <v>0</v>
       </c>
       <c r="M12" s="16">
-        <v>393257.5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="16">
-        <v>372077.7</v>
+        <v>0</v>
       </c>
       <c r="O12" s="16">
-        <v>373481.6</v>
+        <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8">
-        <v>4746281.8999999994</v>
+      <c r="Q12" s="91">
+        <f t="shared" ref="Q12:Q15" si="0">SUM(D12:O12)</f>
+        <v>345122.4</v>
       </c>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16">
-        <v>186049.8</v>
+      <c r="D13" s="90">
+        <v>158066.6</v>
       </c>
       <c r="E13" s="16">
-        <v>173539.7</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>196655</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>183662.4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
-        <v>180690.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="16">
-        <v>167364</v>
+        <v>0</v>
       </c>
       <c r="J13" s="16">
-        <v>182128.4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="16">
-        <v>179207.4</v>
+        <v>0</v>
       </c>
       <c r="L13" s="16">
-        <v>168980.9</v>
+        <v>0</v>
       </c>
       <c r="M13" s="16">
-        <v>170940.7</v>
+        <v>0</v>
       </c>
       <c r="N13" s="16">
-        <v>164230.5</v>
+        <v>0</v>
       </c>
       <c r="O13" s="16">
-        <v>167166.29999999999</v>
+        <v>0</v>
       </c>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8">
-        <v>2120615.5999999996</v>
+      <c r="Q13" s="91">
+        <f t="shared" si="0"/>
+        <v>158066.6</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="76">
-        <v>528794.6</v>
+      <c r="D14" s="102">
+        <v>527555.80000000005</v>
       </c>
       <c r="E14" s="76">
-        <v>489928.9</v>
+        <v>0</v>
       </c>
       <c r="F14" s="76">
-        <v>533540.30000000005</v>
+        <v>0</v>
       </c>
       <c r="G14" s="75">
-        <v>519398.40000000002</v>
+        <v>0</v>
       </c>
       <c r="H14" s="75">
-        <v>527771.80000000005</v>
+        <v>0</v>
       </c>
       <c r="I14" s="75">
-        <v>497351.3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="75">
-        <v>522782.6</v>
+        <v>0</v>
       </c>
       <c r="K14" s="75">
-        <v>521629.2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="75">
-        <v>516912.4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="75">
-        <v>552316.80000000005</v>
+        <v>0</v>
       </c>
       <c r="N14" s="75">
-        <v>540177.69999999995</v>
+        <v>0</v>
       </c>
       <c r="O14" s="75">
-        <v>562546</v>
+        <v>0</v>
       </c>
       <c r="P14" s="76"/>
-      <c r="Q14" s="76">
-        <v>6313150</v>
+      <c r="Q14" s="102">
+        <f t="shared" si="0"/>
+        <v>527555.80000000005</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
       <c r="B15" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="16">
-        <v>2543289.1999999997</v>
+      <c r="D15" s="90">
+        <v>2502214.9000000004</v>
       </c>
       <c r="E15" s="16">
-        <v>2326372.9</v>
+        <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>2607377.5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>2535551.7999999998</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
-        <v>2352896.2000000002</v>
+        <v>0</v>
       </c>
       <c r="I15" s="16">
-        <v>2318909.1999999997</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16">
-        <v>2540195</v>
+        <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>2587768</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16">
-        <v>2487967.7999999998</v>
+        <v>0</v>
       </c>
       <c r="M15" s="16">
-        <v>2600645</v>
+        <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>2553928.7000000002</v>
+        <v>0</v>
       </c>
       <c r="O15" s="16">
-        <v>2672846.7999999998</v>
+        <v>0</v>
       </c>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8">
-        <v>30127748.100000001</v>
+      <c r="Q15" s="91">
+        <f t="shared" si="0"/>
+        <v>2502214.9000000004</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
       <c r="B16" s="55"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -3239,56 +3261,57 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="91"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="16">
-        <v>344370.3</v>
+      <c r="D17" s="90">
+        <v>343100.3</v>
       </c>
       <c r="E17" s="16">
-        <v>313595.7</v>
+        <v>0</v>
       </c>
       <c r="F17" s="16">
-        <v>345841.1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>324524.3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="16">
-        <v>345172.8</v>
+        <v>0</v>
       </c>
       <c r="I17" s="16">
-        <v>346371</v>
+        <v>0</v>
       </c>
       <c r="J17" s="16">
-        <v>356397.7</v>
+        <v>0</v>
       </c>
       <c r="K17" s="16">
-        <v>369531.1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="16">
-        <v>325222.7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="16">
-        <v>354102.5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>326511.3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="16">
-        <v>359904.9</v>
+        <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8">
-        <v>4111545.4</v>
+      <c r="Q17" s="91">
+        <f>SUM(D17:O17)</f>
+        <v>343100.3</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="55"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -3301,13 +3324,13 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="91"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -3320,13 +3343,13 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -3339,52 +3362,53 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="91"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="77" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="16">
-        <v>8750623.1999999993</v>
+      <c r="D21" s="90">
+        <v>8981196.5999999996</v>
       </c>
       <c r="E21" s="16">
-        <v>7921053.4000000004</v>
+        <v>0</v>
       </c>
       <c r="F21" s="16">
-        <v>8754261.1999999993</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>8000311.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="16">
-        <v>8309973.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="16">
-        <v>8347277</v>
+        <v>0</v>
       </c>
       <c r="J21" s="16">
-        <v>8761486.0999999996</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>8915063.1999999993</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
-        <v>8457306.1999999993</v>
+        <v>0</v>
       </c>
       <c r="M21" s="16">
-        <v>8859718.0999999996</v>
+        <v>0</v>
       </c>
       <c r="N21" s="16">
-        <v>8743403.8000000007</v>
+        <v>0</v>
       </c>
       <c r="O21" s="16">
-        <v>9261149.4000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8">
-        <v>103081626.59999999</v>
+      <c r="Q21" s="91">
+        <f t="shared" ref="Q21:Q26" si="1">SUM(D21:O21)</f>
+        <v>8981196.5999999996</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3392,45 +3416,46 @@
         <v>60</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="16">
-        <v>7625703.7999999998</v>
+      <c r="D22" s="90">
+        <v>8037413.5</v>
       </c>
       <c r="E22" s="16">
-        <v>7386819</v>
+        <v>0</v>
       </c>
       <c r="F22" s="16">
-        <v>8282575.0999999996</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16">
-        <v>6969510.5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>6778601</v>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
-        <v>7183500.4000000004</v>
+        <v>0</v>
       </c>
       <c r="J22" s="16">
-        <v>8647322</v>
+        <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>8359987.7999999998</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>7936822</v>
+        <v>0</v>
       </c>
       <c r="M22" s="16">
-        <v>7740608.7999999998</v>
+        <v>0</v>
       </c>
       <c r="N22" s="16">
-        <v>9273824.9000000004</v>
+        <v>0</v>
       </c>
       <c r="O22" s="16">
-        <v>9417692.5</v>
+        <v>0</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8">
-        <v>95602967.799999997</v>
+      <c r="Q22" s="91">
+        <f t="shared" si="1"/>
+        <v>8037413.5</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3438,45 +3463,46 @@
         <v>61</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="16">
-        <v>-6537809.9000000004</v>
+      <c r="D23" s="90">
+        <v>-7387521.0999999996</v>
       </c>
       <c r="E23" s="16">
-        <v>-6588769.0999999996</v>
+        <v>0</v>
       </c>
       <c r="F23" s="16">
-        <v>-7344621.5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="16">
-        <v>-6365876.5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="16">
-        <v>-6196710.9000000004</v>
+        <v>0</v>
       </c>
       <c r="I23" s="16">
-        <v>-6390680.9000000004</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
-        <v>-7815239.7000000002</v>
+        <v>0</v>
       </c>
       <c r="K23" s="16">
-        <v>-7583414.9000000004</v>
+        <v>0</v>
       </c>
       <c r="L23" s="16">
-        <v>-5886775.7000000002</v>
+        <v>0</v>
       </c>
       <c r="M23" s="16">
-        <v>-5963581.7999999998</v>
+        <v>0</v>
       </c>
       <c r="N23" s="16">
-        <v>-7583438.5999999996</v>
+        <v>0</v>
       </c>
       <c r="O23" s="16">
-        <v>-7993566.0999999996</v>
+        <v>0</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8">
-        <v>-82250485.599999994</v>
+      <c r="Q23" s="91">
+        <f t="shared" si="1"/>
+        <v>-7387521.0999999996</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3484,140 +3510,143 @@
         <v>123</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="16">
-        <v>9838517.0999999996</v>
+      <c r="D24" s="90">
+        <v>9631089.0000000019</v>
       </c>
       <c r="E24" s="16">
-        <v>8719103.3000000007</v>
+        <v>0</v>
       </c>
       <c r="F24" s="16">
-        <v>9692214.799999997</v>
+        <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>8603945.5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>8891863.5999999996</v>
+        <v>0</v>
       </c>
       <c r="I24" s="16">
-        <v>9140096.5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="16">
-        <v>9593568.4000000022</v>
+        <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>9691636.0999999996</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
-        <v>10507352.5</v>
+        <v>0</v>
       </c>
       <c r="M24" s="16">
-        <v>10636745.099999998</v>
+        <v>0</v>
       </c>
       <c r="N24" s="16">
-        <v>10433790.100000003</v>
+        <v>0</v>
       </c>
       <c r="O24" s="16">
-        <v>10685275.799999999</v>
+        <v>0</v>
       </c>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8">
-        <v>116434108.79999998</v>
+      <c r="Q24" s="91">
+        <f t="shared" si="1"/>
+        <v>9631089.0000000019</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="42">
-        <v>5688913.4000000004</v>
+      <c r="D25" s="101">
+        <v>6287330.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>5748379.7000000002</v>
+        <v>0</v>
       </c>
       <c r="F25" s="42">
-        <v>6356097.2000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="42">
-        <v>5352757.5999999996</v>
+        <v>0</v>
       </c>
       <c r="H25" s="42">
-        <v>5305848.2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="42">
-        <v>5468245.5999999996</v>
+        <v>0</v>
       </c>
       <c r="J25" s="42">
-        <v>6727077.9000000004</v>
+        <v>0</v>
       </c>
       <c r="K25" s="42">
-        <v>6486570.5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="42">
-        <v>5146369.8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="42">
-        <v>5223621.3</v>
+        <v>0</v>
       </c>
       <c r="N25" s="42">
-        <v>6491330.0999999996</v>
+        <v>0</v>
       </c>
       <c r="O25" s="42">
-        <v>6918536.4000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="41">
-        <v>70913747.699999988</v>
+      <c r="Q25" s="104">
+        <f t="shared" si="1"/>
+        <v>6287330.2000000002</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="16">
-        <v>15527430.5</v>
+      <c r="D26" s="90">
+        <v>15918419.200000003</v>
       </c>
       <c r="E26" s="16">
-        <v>14467483</v>
+        <v>0</v>
       </c>
       <c r="F26" s="16">
-        <v>16048311.999999996</v>
+        <v>0</v>
       </c>
       <c r="G26" s="16">
-        <v>13956703.1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="16">
-        <v>14197711.800000001</v>
+        <v>0</v>
       </c>
       <c r="I26" s="16">
-        <v>14608342.1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="16">
-        <v>16320646.300000003</v>
+        <v>0</v>
       </c>
       <c r="K26" s="16">
-        <v>16178206.6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
-        <v>15653722.300000001</v>
+        <v>0</v>
       </c>
       <c r="M26" s="16">
-        <v>15860366.399999999</v>
+        <v>0</v>
       </c>
       <c r="N26" s="16">
-        <v>16925120.200000003</v>
+        <v>0</v>
       </c>
       <c r="O26" s="16">
-        <v>17603812.199999999</v>
+        <v>0</v>
       </c>
       <c r="P26" s="8"/>
-      <c r="Q26" s="8">
-        <v>187347856.49999997</v>
+      <c r="Q26" s="91">
+        <f t="shared" si="1"/>
+        <v>15918419.200000003</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="53"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -3630,57 +3659,58 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="104"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="16">
-        <v>18415090</v>
+      <c r="D28" s="90">
+        <v>18763734.400000002</v>
       </c>
       <c r="E28" s="16">
-        <v>17107451.599999998</v>
+        <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>19001530.599999998</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>16816779.199999999</v>
+        <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>16895780.800000001</v>
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>17273622.300000001</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16">
-        <v>19217239.000000004</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>19135505.700000003</v>
+        <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>18466912.800000001</v>
+        <v>0</v>
       </c>
       <c r="M28" s="16">
-        <v>18815113.899999999</v>
+        <v>0</v>
       </c>
       <c r="N28" s="16">
-        <v>19805560.200000003</v>
+        <v>0</v>
       </c>
       <c r="O28" s="16">
-        <v>20636563.899999999</v>
+        <v>0</v>
       </c>
       <c r="P28" s="8"/>
-      <c r="Q28" s="16">
-        <v>221587149.99999997</v>
+      <c r="Q28" s="90">
+        <f>SUM(D28:O28)</f>
+        <v>18763734.400000002</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="50"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -3693,13 +3723,13 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="91"/>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -3712,101 +3742,103 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="90"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16">
-        <v>1105017.8</v>
+      <c r="D31" s="90">
+        <v>1143090.2</v>
       </c>
       <c r="E31" s="16">
-        <v>1008284.8</v>
+        <v>0</v>
       </c>
       <c r="F31" s="16">
-        <v>1112139.1000000001</v>
+        <v>0</v>
       </c>
       <c r="G31" s="16">
-        <v>1085222.5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="16">
-        <v>906762.6</v>
+        <v>0</v>
       </c>
       <c r="I31" s="16">
-        <v>980636.7</v>
+        <v>0</v>
       </c>
       <c r="J31" s="16">
-        <v>1089920.6000000001</v>
+        <v>0</v>
       </c>
       <c r="K31" s="16">
-        <v>1134947</v>
+        <v>0</v>
       </c>
       <c r="L31" s="16">
-        <v>1081481.5</v>
+        <v>0</v>
       </c>
       <c r="M31" s="16">
-        <v>1210433.8999999999</v>
+        <v>0</v>
       </c>
       <c r="N31" s="16">
-        <v>1205724.8999999999</v>
+        <v>0</v>
       </c>
       <c r="O31" s="16">
-        <v>1310995.6000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8">
-        <v>13231567</v>
+      <c r="Q31" s="91">
+        <f t="shared" ref="Q31:Q32" si="2">SUM(D31:O31)</f>
+        <v>1143090.2</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="16">
-        <v>339290.4</v>
+      <c r="D32" s="90">
+        <v>366628</v>
       </c>
       <c r="E32" s="16">
-        <v>279995.2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="16">
-        <v>334806.40000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>308109.2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="16">
-        <v>270798.40000000002</v>
+        <v>0</v>
       </c>
       <c r="I32" s="16">
-        <v>322839</v>
+        <v>0</v>
       </c>
       <c r="J32" s="16">
-        <v>367462</v>
+        <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>366359.7</v>
+        <v>0</v>
       </c>
       <c r="L32" s="16">
-        <v>311858</v>
+        <v>0</v>
       </c>
       <c r="M32" s="16">
-        <v>399114.4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="16">
-        <v>388058.1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="16">
-        <v>383532.9</v>
+        <v>0</v>
       </c>
       <c r="P32" s="8"/>
-      <c r="Q32" s="16">
-        <v>4072223.7</v>
+      <c r="Q32" s="90">
+        <f t="shared" si="2"/>
+        <v>366628</v>
       </c>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="53"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -3819,52 +3851,53 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="16">
-        <v>12983.6</v>
+      <c r="D34" s="90">
+        <v>9768.7000000000007</v>
       </c>
       <c r="E34" s="16">
-        <v>10516</v>
+        <v>0</v>
       </c>
       <c r="F34" s="16">
-        <v>13221.2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>11167.7</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16">
-        <v>8180.6</v>
+        <v>0</v>
       </c>
       <c r="I34" s="16">
-        <v>9313.5</v>
+        <v>0</v>
       </c>
       <c r="J34" s="16">
-        <v>9926.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>9542.1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>8071.7</v>
+        <v>0</v>
       </c>
       <c r="M34" s="16">
-        <v>9301.6</v>
+        <v>0</v>
       </c>
       <c r="N34" s="16">
-        <v>9211.6</v>
+        <v>0</v>
       </c>
       <c r="O34" s="16">
-        <v>10541</v>
+        <v>0</v>
       </c>
       <c r="P34" s="8"/>
-      <c r="Q34" s="8">
-        <v>121977.30000000002</v>
+      <c r="Q34" s="91">
+        <f t="shared" ref="Q34:Q36" si="3">SUM(D34:O34)</f>
+        <v>9768.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3872,45 +3905,46 @@
         <v>51</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="16">
-        <v>7519.7</v>
+      <c r="D35" s="90">
+        <v>11409.6</v>
       </c>
       <c r="E35" s="16">
-        <v>8365</v>
+        <v>0</v>
       </c>
       <c r="F35" s="16">
-        <v>8932.6</v>
+        <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>8701.1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="16">
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="I35" s="16">
-        <v>5828.9</v>
+        <v>0</v>
       </c>
       <c r="J35" s="16">
-        <v>6956.4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>7014.6</v>
+        <v>0</v>
       </c>
       <c r="L35" s="16">
-        <v>7517.6</v>
+        <v>0</v>
       </c>
       <c r="M35" s="16">
-        <v>7639.8</v>
+        <v>0</v>
       </c>
       <c r="N35" s="16">
-        <v>8288.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="O35" s="16">
-        <v>8131.4</v>
+        <v>0</v>
       </c>
       <c r="P35" s="8"/>
-      <c r="Q35" s="8">
-        <v>91545.8</v>
+      <c r="Q35" s="91">
+        <f t="shared" si="3"/>
+        <v>11409.6</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3918,51 +3952,52 @@
         <v>52</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="16">
-        <v>549117.30000000005</v>
+      <c r="D36" s="90">
+        <v>520968.8</v>
       </c>
       <c r="E36" s="16">
-        <v>509498.1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="16">
-        <v>470234.6</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>315930.09999999998</v>
+        <v>0</v>
       </c>
       <c r="H36" s="16">
-        <v>291686</v>
+        <v>0</v>
       </c>
       <c r="I36" s="16">
-        <v>285224.90000000002</v>
+        <v>0</v>
       </c>
       <c r="J36" s="16">
-        <v>347971.3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>416137.8</v>
+        <v>0</v>
       </c>
       <c r="L36" s="16">
-        <v>387488.4</v>
+        <v>0</v>
       </c>
       <c r="M36" s="16">
-        <v>463755.9</v>
+        <v>0</v>
       </c>
       <c r="N36" s="16">
-        <v>553584.80000000005</v>
+        <v>0</v>
       </c>
       <c r="O36" s="16">
-        <v>609811.5</v>
+        <v>0</v>
       </c>
       <c r="P36" s="8"/>
-      <c r="Q36" s="8">
-        <v>5200440.6999999993</v>
+      <c r="Q36" s="91">
+        <f t="shared" si="3"/>
+        <v>520968.8</v>
       </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="53"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -3975,52 +4010,53 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="91"/>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="16">
-        <v>278017.59999999998</v>
+      <c r="D38" s="90">
+        <v>291010.40000000002</v>
       </c>
       <c r="E38" s="16">
-        <v>249832.7</v>
+        <v>0</v>
       </c>
       <c r="F38" s="16">
-        <v>272884.2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="16">
-        <v>264242.90000000002</v>
+        <v>0</v>
       </c>
       <c r="H38" s="16">
-        <v>236808.9</v>
+        <v>0</v>
       </c>
       <c r="I38" s="16">
-        <v>239270</v>
+        <v>0</v>
       </c>
       <c r="J38" s="16">
-        <v>267204.7</v>
+        <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>270481.2</v>
+        <v>0</v>
       </c>
       <c r="L38" s="16">
-        <v>269548.09999999998</v>
+        <v>0</v>
       </c>
       <c r="M38" s="16">
-        <v>262189.59999999998</v>
+        <v>0</v>
       </c>
       <c r="N38" s="16">
-        <v>270593.59999999998</v>
+        <v>0</v>
       </c>
       <c r="O38" s="16">
-        <v>295582.7</v>
+        <v>0</v>
       </c>
       <c r="P38" s="8"/>
-      <c r="Q38" s="8">
-        <v>3176656.2</v>
+      <c r="Q38" s="91">
+        <f t="shared" ref="Q38:Q39" si="4">SUM(D38:O38)</f>
+        <v>291010.40000000002</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4028,51 +4064,52 @@
         <v>35</v>
       </c>
       <c r="C39" s="17"/>
-      <c r="D39" s="16">
-        <v>22.1</v>
+      <c r="D39" s="90">
+        <v>22.8</v>
       </c>
       <c r="E39" s="16">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="F39" s="16">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="H39" s="16">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" s="16">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="J39" s="16">
-        <v>34.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="16">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="N39" s="16">
         <v>0</v>
       </c>
       <c r="O39" s="16">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="P39" s="8"/>
-      <c r="Q39" s="8">
-        <v>259.59999999999997</v>
+      <c r="Q39" s="91">
+        <f t="shared" si="4"/>
+        <v>22.8</v>
       </c>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="53"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -4085,14 +4122,14 @@
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="91"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4105,7 +4142,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="Q41" s="91"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="51" t="s">
@@ -4113,44 +4150,45 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="78">
-        <v>443342.2</v>
+        <v>468372.6</v>
       </c>
       <c r="E42" s="78">
-        <v>426042.2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="78">
-        <v>456279.6</v>
+        <v>0</v>
       </c>
       <c r="G42" s="78">
-        <v>473383.4</v>
+        <v>0</v>
       </c>
       <c r="H42" s="78">
-        <v>465105.4</v>
+        <v>0</v>
       </c>
       <c r="I42" s="78">
-        <v>409075.8</v>
+        <v>0</v>
       </c>
       <c r="J42" s="78">
-        <v>424893.9</v>
+        <v>0</v>
       </c>
       <c r="K42" s="78">
-        <v>496015.4</v>
+        <v>0</v>
       </c>
       <c r="L42" s="78">
-        <v>471149.5</v>
+        <v>0</v>
       </c>
       <c r="M42" s="78">
-        <v>506633.8</v>
+        <v>0</v>
       </c>
       <c r="N42" s="78">
-        <v>493831.2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="78">
-        <v>547591.1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>5613343.4999999991</v>
+        <f t="shared" ref="Q42:Q46" si="5">SUM(D42:O42)</f>
+        <v>468372.6</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4159,57 +4197,46 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="78">
-        <f>426238+750237.1</f>
-        <v>1176475.1000000001</v>
+        <f>545525.1+744323.3</f>
+        <v>1289848.3999999999</v>
       </c>
       <c r="E43" s="78">
-        <f>401024+676020.2</f>
-        <v>1077044.2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="78">
-        <f>462176.1+737362</f>
-        <v>1199538.1000000001</v>
+        <v>0</v>
       </c>
       <c r="G43" s="78">
-        <f>457553.1+712303.8</f>
-        <v>1169856.8999999999</v>
+        <v>0</v>
       </c>
       <c r="H43" s="78">
-        <f>416776.5+708874.9</f>
-        <v>1125651.3999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" s="78">
-        <f>398306+664128.6</f>
-        <v>1062434.6000000001</v>
+        <v>0</v>
       </c>
       <c r="J43" s="78">
-        <f>392067.2+600644.4</f>
-        <v>992711.60000000009</v>
+        <v>0</v>
       </c>
       <c r="K43" s="78">
-        <f>448523.2+502084.9</f>
-        <v>950608.10000000009</v>
+        <v>0</v>
       </c>
       <c r="L43" s="78">
-        <f>418864.6+531176.7</f>
-        <v>950041.29999999993</v>
+        <v>0</v>
       </c>
       <c r="M43" s="78">
-        <f>474323.8+696834</f>
-        <v>1171157.8</v>
+        <v>0</v>
       </c>
       <c r="N43" s="78">
-        <f>491988.3+675539.1</f>
-        <v>1167527.3999999999</v>
+        <v>0</v>
       </c>
       <c r="O43" s="78">
-        <f>539494.1+609254.1</f>
-        <v>1148748.2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
-        <v>13191794.699999999</v>
+        <f t="shared" si="5"/>
+        <v>1289848.3999999999</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4218,45 +4245,45 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="78">
-        <v>819751.5</v>
+        <v>925343.2</v>
       </c>
       <c r="E44" s="78">
-        <v>751511.2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="78">
-        <v>834580.1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="78">
-        <v>828365.9</v>
+        <v>0</v>
       </c>
       <c r="H44" s="78">
-        <v>872414.8</v>
+        <v>0</v>
       </c>
       <c r="I44" s="78">
-        <v>797641.8</v>
+        <v>0</v>
       </c>
       <c r="J44" s="78">
-        <v>832981.1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="78">
-        <v>818342.2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="78">
-        <v>779197.4</v>
+        <v>0</v>
       </c>
       <c r="M44" s="78">
-        <v>813135.1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="78">
-        <v>830344.8</v>
+        <v>0</v>
       </c>
       <c r="O44" s="78">
-        <v>933173.1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <f t="shared" si="0"/>
-        <v>9911439</v>
+        <f t="shared" si="5"/>
+        <v>925343.2</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4265,45 +4292,45 @@
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="80">
-        <v>252200.6</v>
+        <v>246929.6</v>
       </c>
       <c r="E45" s="80">
-        <v>203076.6</v>
+        <v>0</v>
       </c>
       <c r="F45" s="80">
-        <v>260589.4</v>
+        <v>0</v>
       </c>
       <c r="G45" s="80">
-        <v>183779.4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="80">
-        <v>222139.2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="80">
-        <v>277212.3</v>
+        <v>0</v>
       </c>
       <c r="J45" s="80">
-        <v>290731.09999999998</v>
+        <v>0</v>
       </c>
       <c r="K45" s="80">
-        <v>304011.40000000002</v>
+        <v>0</v>
       </c>
       <c r="L45" s="80">
-        <v>273352.09999999998</v>
+        <v>0</v>
       </c>
       <c r="M45" s="80">
-        <v>264080.8</v>
+        <v>0</v>
       </c>
       <c r="N45" s="80">
-        <v>253587.20000000001</v>
+        <v>0</v>
       </c>
       <c r="O45" s="80">
-        <v>228439.8</v>
+        <v>0</v>
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
-        <f t="shared" si="0"/>
-        <v>3013199.9</v>
+        <f t="shared" si="5"/>
+        <v>246929.6</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4312,57 +4339,46 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:O46" si="1">SUM(D42:D45)</f>
-        <v>2691769.4</v>
+        <f t="shared" ref="D46" si="6">SUM(D42:D45)</f>
+        <v>2930493.8000000003</v>
       </c>
       <c r="E46" s="89">
-        <f t="shared" si="1"/>
-        <v>2457674.1999999997</v>
+        <v>0</v>
       </c>
       <c r="F46" s="89">
-        <f t="shared" si="1"/>
-        <v>2750987.2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="89">
-        <f t="shared" si="1"/>
-        <v>2655385.5999999996</v>
+        <v>0</v>
       </c>
       <c r="H46" s="89">
-        <f t="shared" si="1"/>
-        <v>2685310.8</v>
+        <v>0</v>
       </c>
       <c r="I46" s="89">
-        <f t="shared" si="1"/>
-        <v>2546364.5</v>
+        <v>0</v>
       </c>
       <c r="J46" s="89">
-        <f t="shared" si="1"/>
-        <v>2541317.7000000002</v>
+        <v>0</v>
       </c>
       <c r="K46" s="89">
-        <f t="shared" si="1"/>
-        <v>2568977.1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="89">
-        <f t="shared" si="1"/>
-        <v>2473740.2999999998</v>
+        <v>0</v>
       </c>
       <c r="M46" s="89">
-        <f t="shared" si="1"/>
-        <v>2755007.5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="89">
-        <f t="shared" si="1"/>
-        <v>2745290.6</v>
+        <v>0</v>
       </c>
       <c r="O46" s="89">
-        <f t="shared" si="1"/>
-        <v>2857952.1999999997</v>
+        <v>0</v>
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <f t="shared" si="0"/>
-        <v>31729777.100000001</v>
+        <f t="shared" si="5"/>
+        <v>2930493.8000000003</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4388,57 +4404,46 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:O48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>4983737.9000000004</v>
+        <f t="shared" ref="D48" si="7">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5273392.3000000007</v>
       </c>
       <c r="E48" s="89">
-        <f t="shared" si="2"/>
-        <v>4524212.8</v>
+        <v>0</v>
       </c>
       <c r="F48" s="89">
-        <f t="shared" si="2"/>
-        <v>4963226.8000000007</v>
+        <v>0</v>
       </c>
       <c r="G48" s="89">
-        <f t="shared" si="2"/>
-        <v>4648778.8999999994</v>
+        <v>0</v>
       </c>
       <c r="H48" s="89">
-        <f t="shared" si="2"/>
-        <v>4406217.6999999993</v>
+        <v>0</v>
       </c>
       <c r="I48" s="89">
-        <f t="shared" si="2"/>
-        <v>4389495</v>
+        <v>0</v>
       </c>
       <c r="J48" s="89">
-        <f t="shared" si="2"/>
-        <v>4630794.2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="89">
-        <f t="shared" si="2"/>
-        <v>4773470.1000000006</v>
+        <v>0</v>
       </c>
       <c r="L48" s="89">
-        <f t="shared" si="2"/>
-        <v>4539726.9000000004</v>
+        <v>0</v>
       </c>
       <c r="M48" s="89">
-        <f t="shared" si="2"/>
-        <v>5107457.5999999996</v>
+        <v>0</v>
       </c>
       <c r="N48" s="89">
-        <f t="shared" si="2"/>
-        <v>5180752.3000000007</v>
+        <v>0</v>
       </c>
       <c r="O48" s="89">
-        <f t="shared" si="2"/>
-        <v>5476577.1999999993</v>
+        <v>0</v>
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>57624447.400000006</v>
+        <v>5273392.3000000007</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4463,44 +4468,45 @@
         <v>54</v>
       </c>
       <c r="D50" s="78">
-        <v>205664.1</v>
+        <v>205294.3</v>
       </c>
       <c r="E50" s="78">
-        <v>189617.1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="78">
-        <v>210785</v>
+        <v>0</v>
       </c>
       <c r="G50" s="78">
-        <v>183443.5</v>
+        <v>0</v>
       </c>
       <c r="H50" s="78">
-        <v>187042.2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="78">
-        <v>196884.8</v>
+        <v>0</v>
       </c>
       <c r="J50" s="78">
-        <v>209567.8</v>
+        <v>0</v>
       </c>
       <c r="K50" s="78">
-        <v>201473.2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="78">
-        <v>228569.9</v>
+        <v>0</v>
       </c>
       <c r="M50" s="78">
-        <v>241379.3</v>
+        <v>0</v>
       </c>
       <c r="N50" s="78">
-        <v>245436.2</v>
+        <v>0</v>
       </c>
       <c r="O50" s="78">
-        <v>249577.9</v>
+        <v>0</v>
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <v>2549441</v>
+        <f t="shared" ref="Q50:Q52" si="8">SUM(D50:O50)</f>
+        <v>205294.3</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4508,44 +4514,45 @@
         <v>22</v>
       </c>
       <c r="D51" s="78">
-        <v>81141.399999999994</v>
+        <v>97194.9</v>
       </c>
       <c r="E51" s="78">
-        <v>91434.4</v>
+        <v>0</v>
       </c>
       <c r="F51" s="78">
-        <v>111325.1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="78">
-        <v>98943.6</v>
+        <v>0</v>
       </c>
       <c r="H51" s="78">
-        <v>103284.6</v>
+        <v>0</v>
       </c>
       <c r="I51" s="78">
-        <v>90034</v>
+        <v>0</v>
       </c>
       <c r="J51" s="78">
-        <v>99001.4</v>
+        <v>0</v>
       </c>
       <c r="K51" s="78">
-        <v>104547.5</v>
+        <v>0</v>
       </c>
       <c r="L51" s="78">
-        <v>96851.7</v>
+        <v>0</v>
       </c>
       <c r="M51" s="78">
-        <v>88711.3</v>
+        <v>0</v>
       </c>
       <c r="N51" s="78">
-        <v>94108.5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="78">
-        <v>103248.6</v>
+        <v>0</v>
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <v>1162632.1000000001</v>
+        <f t="shared" si="8"/>
+        <v>97194.9</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4553,44 +4560,45 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>323828.09999999998</v>
+        <v>335928.2</v>
       </c>
       <c r="E52" s="78">
-        <v>292994</v>
+        <v>0</v>
       </c>
       <c r="F52" s="78">
-        <v>323337.3</v>
+        <v>0</v>
       </c>
       <c r="G52" s="78">
-        <v>310960.40000000002</v>
+        <v>0</v>
       </c>
       <c r="H52" s="78">
-        <v>276698.8</v>
+        <v>0</v>
       </c>
       <c r="I52" s="78">
-        <v>287390.40000000002</v>
+        <v>0</v>
       </c>
       <c r="J52" s="78">
-        <v>312752.8</v>
+        <v>0</v>
       </c>
       <c r="K52" s="78">
-        <v>320048</v>
+        <v>0</v>
       </c>
       <c r="L52" s="78">
-        <v>305339.2</v>
+        <v>0</v>
       </c>
       <c r="M52" s="78">
-        <v>344263.8</v>
+        <v>0</v>
       </c>
       <c r="N52" s="78">
-        <v>337677.8</v>
+        <v>0</v>
       </c>
       <c r="O52" s="78">
-        <v>369683.7</v>
+        <v>0</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <v>3804974.3</v>
+        <f t="shared" si="8"/>
+        <v>335928.2</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
@@ -4617,44 +4625,44 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>10608656.9</v>
+        <v>11443057.1</v>
       </c>
       <c r="E54" s="83">
-        <v>10238356.4</v>
+        <v>0</v>
       </c>
       <c r="F54" s="83">
-        <v>10412179.1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="83">
-        <v>10645827.5</v>
+        <v>0</v>
       </c>
       <c r="H54" s="83">
-        <v>9824246.9000000004</v>
+        <v>0</v>
       </c>
       <c r="I54" s="83">
-        <v>9120428.1999999993</v>
+        <v>0</v>
       </c>
       <c r="J54" s="83">
-        <v>9335286.9000000004</v>
+        <v>0</v>
       </c>
       <c r="K54" s="83">
-        <v>9604100.0999999996</v>
+        <v>0</v>
       </c>
       <c r="L54" s="83">
-        <v>9536953.9000000004</v>
+        <v>0</v>
       </c>
       <c r="M54" s="83">
-        <v>9821446.5</v>
+        <v>0</v>
       </c>
       <c r="N54" s="83">
-        <v>10555697.699999999</v>
+        <v>0</v>
       </c>
       <c r="O54" s="83">
-        <v>10858475.5</v>
+        <v>0</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>10858475.5</v>
+        <v>11443057.1</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4662,44 +4670,45 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-1178697.3</v>
+        <v>-84553.5</v>
       </c>
       <c r="E55" s="78">
-        <v>-47550.9</v>
+        <v>0</v>
       </c>
       <c r="F55" s="78">
-        <v>-44608.7</v>
+        <v>0</v>
       </c>
       <c r="G55" s="78">
-        <v>-74222.3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="78">
-        <v>6377.2</v>
+        <v>0</v>
       </c>
       <c r="I55" s="78">
-        <v>-140686.70000000001</v>
+        <v>0</v>
       </c>
       <c r="J55" s="78">
-        <v>-39543.4</v>
+        <v>0</v>
       </c>
       <c r="K55" s="78">
-        <v>-10721.7</v>
+        <v>0</v>
       </c>
       <c r="L55" s="78">
-        <v>-110754.2</v>
+        <v>0</v>
       </c>
       <c r="M55" s="78">
-        <v>-120787.4</v>
+        <v>0</v>
       </c>
       <c r="N55" s="78">
-        <v>-55594.3</v>
+        <v>0</v>
       </c>
       <c r="O55" s="78">
-        <v>-94494</v>
+        <v>0</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <v>-1911283.6999999997</v>
+        <f>SUM(D55:O55)</f>
+        <v>-84553.5</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4725,57 +4734,46 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:O57" si="3">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>23052574.599999998</v>
+        <f t="shared" ref="D57" si="9">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22908837.100000005</v>
       </c>
       <c r="E57" s="89">
-        <f t="shared" si="3"/>
-        <v>21380368.5</v>
+        <v>0</v>
       </c>
       <c r="F57" s="89">
-        <f t="shared" si="3"/>
-        <v>23100878.600000001</v>
+        <v>0</v>
       </c>
       <c r="G57" s="89">
-        <f t="shared" si="3"/>
-        <v>20564339.899999995</v>
+        <v>0</v>
       </c>
       <c r="H57" s="89">
-        <f t="shared" si="3"/>
-        <v>21562769.799999997</v>
+        <v>0</v>
       </c>
       <c r="I57" s="89">
-        <f t="shared" si="3"/>
-        <v>21670680.100000001</v>
+        <v>0</v>
       </c>
       <c r="J57" s="89">
-        <f t="shared" si="3"/>
-        <v>22972000.100000001</v>
+        <v>0</v>
       </c>
       <c r="K57" s="89">
-        <f t="shared" si="3"/>
-        <v>23003372.200000007</v>
+        <v>0</v>
       </c>
       <c r="L57" s="89">
-        <f t="shared" si="3"/>
-        <v>22332270.900000002</v>
+        <v>0</v>
       </c>
       <c r="M57" s="89">
-        <f t="shared" si="3"/>
-        <v>22842571.100000001</v>
+        <v>0</v>
       </c>
       <c r="N57" s="89">
-        <f t="shared" si="3"/>
-        <v>23519228.000000004</v>
+        <v>0</v>
       </c>
       <c r="O57" s="89">
-        <f t="shared" si="3"/>
-        <v>24879220.899999999</v>
+        <v>0</v>
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>270880274.69999999</v>
+        <v>22908837.100000005</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4797,7 +4795,7 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="95"/>
@@ -4856,8 +4854,8 @@
         <v>12</v>
       </c>
       <c r="P60" s="91"/>
-      <c r="Q60" s="96" t="s">
-        <v>127</v>
+      <c r="Q60" s="105" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1">
@@ -4904,44 +4902,45 @@
         <v>125</v>
       </c>
       <c r="D63" s="90">
-        <v>17016.600000000002</v>
+        <v>1014.6999999999999</v>
       </c>
       <c r="E63" s="90">
-        <v>39577</v>
+        <v>0</v>
       </c>
       <c r="F63" s="90">
-        <v>20585</v>
+        <v>0</v>
       </c>
       <c r="G63" s="90">
-        <v>949.80000000000007</v>
+        <v>0</v>
       </c>
       <c r="H63" s="90">
-        <v>493.9</v>
+        <v>0</v>
       </c>
       <c r="I63" s="90">
-        <v>1281.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="J63" s="90">
-        <v>1053.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="K63" s="90">
-        <v>1215.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="L63" s="90">
-        <v>1555.5</v>
+        <v>0</v>
       </c>
       <c r="M63" s="90">
-        <v>1775.8</v>
+        <v>0</v>
       </c>
       <c r="N63" s="90">
-        <v>1566.4</v>
+        <v>0</v>
       </c>
       <c r="O63" s="90">
-        <v>843.69999999999993</v>
+        <v>0</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>87914.599999999991</v>
+        <f t="shared" ref="Q63:Q70" si="10">SUM(D63:O63)</f>
+        <v>1014.6999999999999</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4949,44 +4948,45 @@
         <v>32</v>
       </c>
       <c r="D64" s="90">
-        <v>2411935.1</v>
+        <v>2363322.5</v>
       </c>
       <c r="E64" s="90">
-        <v>2187420.7999999998</v>
+        <v>0</v>
       </c>
       <c r="F64" s="90">
-        <v>2415398.2000000002</v>
+        <v>0</v>
       </c>
       <c r="G64" s="90">
-        <v>1992844.4</v>
+        <v>0</v>
       </c>
       <c r="H64" s="90">
-        <v>2047753.8</v>
+        <v>0</v>
       </c>
       <c r="I64" s="90">
-        <v>2308502.2999999998</v>
+        <v>0</v>
       </c>
       <c r="J64" s="90">
-        <v>2490874.7000000002</v>
+        <v>0</v>
       </c>
       <c r="K64" s="90">
-        <v>2467419.7000000002</v>
+        <v>0</v>
       </c>
       <c r="L64" s="90">
-        <v>2206891.7000000002</v>
+        <v>0</v>
       </c>
       <c r="M64" s="90">
-        <v>2112585</v>
+        <v>0</v>
       </c>
       <c r="N64" s="90">
-        <v>2291610.5</v>
+        <v>0</v>
       </c>
       <c r="O64" s="90">
-        <v>2462549.6</v>
+        <v>0</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>27395785.800000001</v>
+        <f t="shared" si="10"/>
+        <v>2363322.5</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4994,44 +4994,45 @@
         <v>53</v>
       </c>
       <c r="D65" s="90">
-        <v>9684.6</v>
+        <v>14556.2</v>
       </c>
       <c r="E65" s="90">
-        <v>11162</v>
+        <v>0</v>
       </c>
       <c r="F65" s="90">
-        <v>11588.7</v>
+        <v>0</v>
       </c>
       <c r="G65" s="90">
-        <v>10620.1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="90">
-        <v>8753.6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="90">
-        <v>8387.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="J65" s="90">
-        <v>9484.4</v>
+        <v>0</v>
       </c>
       <c r="K65" s="90">
-        <v>9788</v>
+        <v>0</v>
       </c>
       <c r="L65" s="90">
-        <v>13368.2</v>
+        <v>0</v>
       </c>
       <c r="M65" s="90">
-        <v>9476.9</v>
+        <v>0</v>
       </c>
       <c r="N65" s="90">
-        <v>12875.3</v>
+        <v>0</v>
       </c>
       <c r="O65" s="90">
-        <v>11472.7</v>
+        <v>0</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>126662.19999999998</v>
+        <f t="shared" si="10"/>
+        <v>14556.2</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5039,44 +5040,45 @@
         <v>39</v>
       </c>
       <c r="D66" s="90">
-        <v>7600.5</v>
+        <v>29177.7</v>
       </c>
       <c r="E66" s="90">
-        <v>25897.5</v>
+        <v>0</v>
       </c>
       <c r="F66" s="90">
-        <v>22641.599999999999</v>
+        <v>0</v>
       </c>
       <c r="G66" s="90">
-        <v>24431</v>
+        <v>0</v>
       </c>
       <c r="H66" s="90">
-        <v>32438.5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="90">
-        <v>12644.2</v>
+        <v>0</v>
       </c>
       <c r="J66" s="90">
-        <v>24201.200000000001</v>
+        <v>0</v>
       </c>
       <c r="K66" s="90">
-        <v>28391.4</v>
+        <v>0</v>
       </c>
       <c r="L66" s="90">
-        <v>6724.8</v>
+        <v>0</v>
       </c>
       <c r="M66" s="90">
-        <v>11903.9</v>
+        <v>0</v>
       </c>
       <c r="N66" s="90">
-        <v>33867.9</v>
+        <v>0</v>
       </c>
       <c r="O66" s="90">
-        <v>37950.699999999997</v>
+        <v>0</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>268693.19999999995</v>
+        <f t="shared" si="10"/>
+        <v>29177.7</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5112,17 +5114,18 @@
         <v>0</v>
       </c>
       <c r="M67" s="90">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N67" s="90">
-        <v>83.5</v>
+        <v>0</v>
       </c>
       <c r="O67" s="90">
         <v>0</v>
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>86.7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5131,44 +5134,45 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>3865</v>
+        <v>-27209.599999999999</v>
       </c>
       <c r="E68" s="90">
-        <v>-10608.4</v>
+        <v>0</v>
       </c>
       <c r="F68" s="90">
-        <v>-29376.799999999999</v>
+        <v>0</v>
       </c>
       <c r="G68" s="90">
-        <v>-20376.400000000001</v>
+        <v>0</v>
       </c>
       <c r="H68" s="90">
-        <v>-34365.599999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" s="90">
-        <v>-32436.2</v>
+        <v>0</v>
       </c>
       <c r="J68" s="90">
-        <v>-34757.599999999999</v>
+        <v>0</v>
       </c>
       <c r="K68" s="90">
-        <v>-27871.200000000001</v>
+        <v>0</v>
       </c>
       <c r="L68" s="90">
-        <v>-29857.599999999999</v>
+        <v>0</v>
       </c>
       <c r="M68" s="90">
-        <v>-25699.4</v>
+        <v>0</v>
       </c>
       <c r="N68" s="90">
-        <v>-9683</v>
+        <v>0</v>
       </c>
       <c r="O68" s="90">
-        <v>-14003.2</v>
+        <v>0</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-265170.40000000002</v>
+        <f t="shared" si="10"/>
+        <v>-27209.599999999999</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5177,44 +5181,45 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>292663.5</v>
+        <v>314784</v>
       </c>
       <c r="E69" s="90">
-        <v>320654.2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="90">
-        <v>354683.2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="90">
-        <v>370323.1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="90">
-        <v>371791.1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="90">
-        <v>246328</v>
+        <v>0</v>
       </c>
       <c r="J69" s="90">
-        <v>354147.1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="90">
-        <v>388794</v>
+        <v>0</v>
       </c>
       <c r="L69" s="90">
-        <v>265784.8</v>
+        <v>0</v>
       </c>
       <c r="M69" s="90">
-        <v>377260.3</v>
+        <v>0</v>
       </c>
       <c r="N69" s="90">
-        <v>286183.5</v>
+        <v>0</v>
       </c>
       <c r="O69" s="90">
-        <v>453279.1</v>
+        <v>0</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>4081891.9</v>
+        <f t="shared" si="10"/>
+        <v>314784</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5223,44 +5228,45 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2742765.3000000003</v>
+        <v>2695645.5000000005</v>
       </c>
       <c r="E70" s="90">
-        <v>2574103.1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="90">
-        <v>2795519.9000000008</v>
+        <v>0</v>
       </c>
       <c r="G70" s="90">
-        <v>2378792</v>
+        <v>0</v>
       </c>
       <c r="H70" s="90">
-        <v>2426865.2999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" s="90">
-        <v>2544707.6</v>
+        <v>0</v>
       </c>
       <c r="J70" s="90">
-        <v>2845003.7</v>
+        <v>0</v>
       </c>
       <c r="K70" s="90">
-        <v>2867737.3</v>
+        <v>0</v>
       </c>
       <c r="L70" s="90">
-        <v>2464467.4</v>
+        <v>0</v>
       </c>
       <c r="M70" s="90">
-        <v>2487305.6999999997</v>
+        <v>0</v>
       </c>
       <c r="N70" s="90">
-        <v>2616504.0999999996</v>
+        <v>0</v>
       </c>
       <c r="O70" s="90">
-        <v>2952092.6000000006</v>
+        <v>0</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>31695864</v>
+        <f t="shared" si="10"/>
+        <v>2695645.5000000005</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5287,44 +5293,45 @@
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="78">
-        <v>19556595.600000001</v>
+        <v>19679422.100000001</v>
       </c>
       <c r="E72" s="78">
-        <v>17781198</v>
+        <v>0</v>
       </c>
       <c r="F72" s="78">
-        <v>19393084.300000001</v>
+        <v>0</v>
       </c>
       <c r="G72" s="78">
-        <v>17565594.699999999</v>
+        <v>0</v>
       </c>
       <c r="H72" s="78">
-        <v>18365699.199999999</v>
+        <v>0</v>
       </c>
       <c r="I72" s="78">
-        <v>18557954.800000001</v>
+        <v>0</v>
       </c>
       <c r="J72" s="78">
-        <v>19645522.899999999</v>
+        <v>0</v>
       </c>
       <c r="K72" s="78">
-        <v>19639663.300000001</v>
+        <v>0</v>
       </c>
       <c r="L72" s="78">
-        <v>19443299.699999999</v>
+        <v>0</v>
       </c>
       <c r="M72" s="78">
-        <v>19932657.399999999</v>
+        <v>0</v>
       </c>
       <c r="N72" s="78">
-        <v>20176649.800000001</v>
+        <v>0</v>
       </c>
       <c r="O72" s="78">
-        <v>21336127.800000001</v>
+        <v>0</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>231394047.50000003</v>
+        <f>SUM(D72:O72)</f>
+        <v>19679422.100000001</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5333,44 +5340,44 @@
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="78">
-        <v>630857.92258064519</v>
+        <v>634820.06774193549</v>
       </c>
       <c r="E73" s="78">
-        <v>635042.78571428568</v>
+        <v>0</v>
       </c>
       <c r="F73" s="78">
-        <v>625583.36451612902</v>
+        <v>0</v>
       </c>
       <c r="G73" s="78">
-        <v>585519.82333333336</v>
+        <v>0</v>
       </c>
       <c r="H73" s="78">
-        <v>592441.90967741935</v>
+        <v>0</v>
       </c>
       <c r="I73" s="78">
-        <v>618598.4933333334</v>
+        <v>0</v>
       </c>
       <c r="J73" s="78">
-        <v>633726.54516129033</v>
+        <v>0</v>
       </c>
       <c r="K73" s="78">
-        <v>633537.52580645168</v>
+        <v>0</v>
       </c>
       <c r="L73" s="78">
-        <v>648109.99</v>
+        <v>0</v>
       </c>
       <c r="M73" s="78">
-        <v>642988.94838709675</v>
+        <v>0</v>
       </c>
       <c r="N73" s="78">
-        <v>672554.9933333334</v>
+        <v>0</v>
       </c>
       <c r="O73" s="78">
-        <v>688262.18709677423</v>
+        <v>0</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>633935.37407834094</v>
+        <v>634820.06774193549</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5397,56 +5404,46 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:O75" si="4">D57-(D70+D72)</f>
-        <v>753213.69999999553</v>
+        <f>D57-(D70+D72)</f>
+        <v>533769.50000000373</v>
       </c>
       <c r="E75" s="89">
-        <f t="shared" si="4"/>
-        <v>1025067.3999999985</v>
+        <v>0</v>
       </c>
       <c r="F75" s="89">
-        <f t="shared" si="4"/>
-        <v>912274.39999999851</v>
+        <v>0</v>
       </c>
       <c r="G75" s="89">
-        <f t="shared" si="4"/>
-        <v>619953.19999999553</v>
+        <v>0</v>
       </c>
       <c r="H75" s="89">
-        <f t="shared" si="4"/>
-        <v>770205.29999999702</v>
+        <v>0</v>
       </c>
       <c r="I75" s="89">
-        <f t="shared" si="4"/>
-        <v>568017.69999999925</v>
+        <v>0</v>
       </c>
       <c r="J75" s="89">
-        <f t="shared" si="4"/>
-        <v>481473.50000000373</v>
+        <v>0</v>
       </c>
       <c r="K75" s="89">
-        <f t="shared" si="4"/>
-        <v>495971.60000000522</v>
+        <v>0</v>
       </c>
       <c r="L75" s="89">
-        <f t="shared" si="4"/>
-        <v>424503.80000000447</v>
+        <v>0</v>
       </c>
       <c r="M75" s="89">
-        <f t="shared" si="4"/>
-        <v>422608.00000000373</v>
+        <v>0</v>
       </c>
       <c r="N75" s="89">
-        <f t="shared" si="4"/>
-        <v>726074.10000000522</v>
+        <v>0</v>
       </c>
       <c r="O75" s="89">
-        <f t="shared" si="4"/>
-        <v>591000.49999999627</v>
+        <v>0</v>
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <v>-74785.200000006706</v>
+        <f>SUM(D75:O75)</f>
+        <v>533769.50000000373</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5455,57 +5452,46 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:O76" si="5">IF(D57&gt;0,D75/D57,"")</f>
-        <v>3.2673734412294042E-2</v>
-      </c>
-      <c r="E76" s="99">
-        <f t="shared" si="5"/>
-        <v>4.7944327994159618E-2</v>
-      </c>
-      <c r="F76" s="99">
-        <f t="shared" si="5"/>
-        <v>3.9490896246690742E-2</v>
-      </c>
-      <c r="G76" s="99">
-        <f t="shared" si="5"/>
-        <v>3.0147002189941225E-2</v>
-      </c>
-      <c r="H76" s="99">
-        <f t="shared" si="5"/>
-        <v>3.5719219151520931E-2</v>
-      </c>
-      <c r="I76" s="99">
-        <f t="shared" si="5"/>
-        <v>2.6211346269653955E-2</v>
-      </c>
-      <c r="J76" s="99">
-        <f t="shared" si="5"/>
-        <v>2.0959145825530608E-2</v>
-      </c>
-      <c r="K76" s="99">
-        <f t="shared" si="5"/>
-        <v>2.1560821417305288E-2</v>
-      </c>
-      <c r="L76" s="99">
-        <f t="shared" si="5"/>
-        <v>1.9008537103139135E-2</v>
-      </c>
-      <c r="M76" s="99">
-        <f t="shared" si="5"/>
-        <v>1.8500894586249254E-2</v>
-      </c>
-      <c r="N76" s="99">
-        <f t="shared" si="5"/>
-        <v>3.0871510748567303E-2</v>
-      </c>
-      <c r="O76" s="99">
-        <f t="shared" si="5"/>
-        <v>2.3754783253682847E-2</v>
+        <f t="shared" ref="D76" si="11">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.3299720438450522E-2</v>
+      </c>
+      <c r="E76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="K76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="L76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="M76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="N76" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="O76" s="99" t="s">
+        <v>129</v>
       </c>
       <c r="P76" s="100"/>
       <c r="Q76" s="100">
         <f>AVERAGE(D76:O76)</f>
-        <v>2.8903518266561252E-2</v>
+        <v>2.3299720438450522E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5531,57 +5517,46 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:O78" si="6">(D70+D72)+D75</f>
-        <v>23052574.599999998</v>
+        <f t="shared" ref="D78" si="12">(D70+D72)+D75</f>
+        <v>22908837.100000005</v>
       </c>
       <c r="E78" s="89">
-        <f t="shared" si="6"/>
-        <v>21380368.5</v>
+        <v>0</v>
       </c>
       <c r="F78" s="89">
-        <f t="shared" si="6"/>
-        <v>23100878.600000001</v>
+        <v>0</v>
       </c>
       <c r="G78" s="89">
-        <f t="shared" si="6"/>
-        <v>20564339.899999995</v>
+        <v>0</v>
       </c>
       <c r="H78" s="89">
-        <f t="shared" si="6"/>
-        <v>21562769.799999997</v>
+        <v>0</v>
       </c>
       <c r="I78" s="89">
-        <f t="shared" si="6"/>
-        <v>21670680.100000001</v>
+        <v>0</v>
       </c>
       <c r="J78" s="89">
-        <f t="shared" si="6"/>
-        <v>22972000.100000001</v>
+        <v>0</v>
       </c>
       <c r="K78" s="89">
-        <f t="shared" si="6"/>
-        <v>23003372.200000007</v>
+        <v>0</v>
       </c>
       <c r="L78" s="89">
-        <f t="shared" si="6"/>
-        <v>22332270.900000002</v>
+        <v>0</v>
       </c>
       <c r="M78" s="89">
-        <f t="shared" si="6"/>
-        <v>22842571.100000001</v>
+        <v>0</v>
       </c>
       <c r="N78" s="89">
-        <f t="shared" si="6"/>
-        <v>23519228.000000004</v>
+        <v>0</v>
       </c>
       <c r="O78" s="89">
-        <f t="shared" si="6"/>
-        <v>24879220.899999999</v>
+        <v>0</v>
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>270880274.69999999</v>
+        <v>22908837.100000005</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5604,7 +5579,7 @@
     </row>
     <row r="80" spans="2:17">
       <c r="B80" s="50"/>
-      <c r="D80" s="16"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -5616,13 +5591,13 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
-      <c r="Q80" s="8"/>
+      <c r="Q80" s="91"/>
     </row>
     <row r="81" spans="2:17">
       <c r="B81" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="16"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -5634,7 +5609,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
-      <c r="Q81" s="16"/>
+      <c r="Q81" s="90"/>
     </row>
     <row r="82" spans="2:17">
       <c r="B82" s="64" t="s">
@@ -5645,13 +5620,13 @@
       <c r="B83" t="s">
         <v>118</v>
       </c>
+      <c r="D83" s="90"/>
+      <c r="Q83" s="91"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="23" t="s">
-        <v>119</v>
-      </c>
+      <c r="B84" s="23"/>
       <c r="C84" s="24"/>
-      <c r="D84" s="12"/>
+      <c r="D84" s="103"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5663,12 +5638,11 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
-      <c r="Q84" s="8"/>
+      <c r="Q84" s="103"/>
     </row>
     <row r="85" spans="2:17">
       <c r="B85" s="23"/>
       <c r="C85" s="24"/>
-      <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -5680,10 +5654,15 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
-      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="D86" s="12"/>
+      <c r="Q86" s="91"/>
     </row>
     <row r="87" spans="2:17" ht="15.75">
       <c r="B87" s="35"/>
+      <c r="D87" s="12"/>
+      <c r="Q87" s="91"/>
     </row>
     <row r="88" spans="2:17" ht="15.75">
       <c r="B88" s="35"/>
@@ -5697,6 +5676,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.64" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Security Classification: Protected A</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\CS\AS\INFOSERV\Products\Active\ST3 Alberta Energy Resource Industries Monthly Statistics\2024\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024C06B-423E-4FA7-9037-BA09F24EBE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58A6E8-A992-4830-852D-EEE4F6074A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -473,13 +473,13 @@
     <t>Nonupgraded</t>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  26 February 2024</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Run Date:  26 April 2024</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,16 +1041,6 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,6 +1056,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1165,7 +1166,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:colOff>1694180</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>18051</xdr:rowOff>
     </xdr:to>
@@ -1628,11 +1629,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2802,8 +2803,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2833,17 +2834,17 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2904,7 +2905,7 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1">
@@ -2919,13 +2920,13 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11037738.4</v>
+        <v>11068791.199999999</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>11473850.199999999</v>
       </c>
       <c r="F7" s="16">
-        <v>0</v>
+        <v>11132028.699999999</v>
       </c>
       <c r="G7" s="16">
         <v>0</v>
@@ -2956,7 +2957,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11037738.4</v>
+        <v>11068791.199999999</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3000,7 +3001,7 @@
       <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -3013,20 +3014,20 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="104"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="77" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1471470.1</v>
+        <v>1445338.9</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>1444196.6</v>
       </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>1617390.2</v>
       </c>
       <c r="G11" s="16">
         <v>0</v>
@@ -3057,8 +3058,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <f>SUM(D11:O11)</f>
-        <v>1471470.1</v>
+        <v>4506925.7</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3067,13 +3067,13 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>345122.4</v>
+        <v>357096.5</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>348020.9</v>
       </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>367434.8</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -3104,8 +3104,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <f t="shared" ref="Q12:Q15" si="0">SUM(D12:O12)</f>
-        <v>345122.4</v>
+        <v>1072552.2</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3113,13 +3112,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>158066.6</v>
+        <v>165823.79999999999</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>158709.1</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>164705.60000000001</v>
       </c>
       <c r="G13" s="16">
         <v>0</v>
@@ -3150,22 +3149,21 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <f t="shared" si="0"/>
-        <v>158066.6</v>
+        <v>489238.5</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="102">
-        <v>527555.80000000005</v>
+      <c r="D14" s="98">
+        <v>534832.9</v>
       </c>
       <c r="E14" s="76">
-        <v>0</v>
+        <v>518201</v>
       </c>
       <c r="F14" s="76">
-        <v>0</v>
+        <v>554325.6</v>
       </c>
       <c r="G14" s="75">
         <v>0</v>
@@ -3195,9 +3193,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="76"/>
-      <c r="Q14" s="102">
-        <f t="shared" si="0"/>
-        <v>527555.80000000005</v>
+      <c r="Q14" s="98">
+        <v>1607359.5</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3205,13 +3202,13 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2502214.9000000004</v>
+        <v>2503092.1</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>2469127.6</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>2703856.2</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -3242,8 +3239,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <f t="shared" si="0"/>
-        <v>2502214.9000000004</v>
+        <v>7676075.9000000004</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3268,13 +3264,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>343100.3</v>
+        <v>341176.5</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>349640.4</v>
       </c>
       <c r="F17" s="16">
-        <v>0</v>
+        <v>368546.7</v>
       </c>
       <c r="G17" s="16">
         <v>0</v>
@@ -3305,8 +3301,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <f>SUM(D17:O17)</f>
-        <v>343100.3</v>
+        <v>1059363.6000000001</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3370,13 +3365,13 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8981196.5999999996</v>
+        <v>8981456.5999999996</v>
       </c>
       <c r="E21" s="16">
-        <v>0</v>
+        <v>8550622.5999999996</v>
       </c>
       <c r="F21" s="16">
-        <v>0</v>
+        <v>9146322</v>
       </c>
       <c r="G21" s="16">
         <v>0</v>
@@ -3407,8 +3402,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <f t="shared" ref="Q21:Q26" si="1">SUM(D21:O21)</f>
-        <v>8981196.5999999996</v>
+        <v>26678401.199999999</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3417,13 +3411,13 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="90">
-        <v>8037413.5</v>
+        <v>8042151.5</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>7804241.2999999998</v>
       </c>
       <c r="F22" s="16">
-        <v>0</v>
+        <v>8731224</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -3454,8 +3448,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <f t="shared" si="1"/>
-        <v>8037413.5</v>
+        <v>24577616.800000001</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3467,10 +3460,10 @@
         <v>-7387521.0999999996</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>-6907211.4000000004</v>
       </c>
       <c r="F23" s="16">
-        <v>0</v>
+        <v>-7417269.5</v>
       </c>
       <c r="G23" s="16">
         <v>0</v>
@@ -3501,8 +3494,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <f t="shared" si="1"/>
-        <v>-7387521.0999999996</v>
+        <v>-21712002</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3511,13 +3503,13 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9631089.0000000019</v>
+        <v>9636087.0000000019</v>
       </c>
       <c r="E24" s="16">
-        <v>0</v>
+        <v>9447652.4999999981</v>
       </c>
       <c r="F24" s="16">
-        <v>0</v>
+        <v>10460276.5</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -3548,22 +3540,21 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <f t="shared" si="1"/>
-        <v>9631089.0000000019</v>
+        <v>29544016</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="101">
+      <c r="D25" s="97">
         <v>6287330.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>0</v>
+        <v>5971343.5</v>
       </c>
       <c r="F25" s="42">
-        <v>0</v>
+        <v>6380942.0999999996</v>
       </c>
       <c r="G25" s="42">
         <v>0</v>
@@ -3593,9 +3584,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="104">
-        <f t="shared" si="1"/>
-        <v>6287330.2000000002</v>
+      <c r="Q25" s="100">
+        <v>18639615.799999997</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3603,13 +3593,13 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15918419.200000003</v>
+        <v>15923417.200000003</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>15418995.999999998</v>
       </c>
       <c r="F26" s="16">
-        <v>0</v>
+        <v>16841218.600000001</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -3640,13 +3630,12 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <f t="shared" si="1"/>
-        <v>15918419.200000003</v>
+        <v>48183631.799999997</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="53"/>
-      <c r="D27" s="101"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -3659,7 +3648,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="104"/>
+      <c r="Q27" s="100"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="50" t="s">
@@ -3667,13 +3656,13 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18763734.400000002</v>
+        <v>18767685.800000004</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>18237763.999999996</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>19913621.5</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -3704,8 +3693,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <f>SUM(D28:O28)</f>
-        <v>18763734.400000002</v>
+        <v>56919071.299999997</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3749,13 +3737,13 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1143090.2</v>
+        <v>1143088</v>
       </c>
       <c r="E31" s="16">
-        <v>0</v>
+        <v>1050685.1000000001</v>
       </c>
       <c r="F31" s="16">
-        <v>0</v>
+        <v>1185649.8999999999</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
@@ -3786,8 +3774,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <f t="shared" ref="Q31:Q32" si="2">SUM(D31:O31)</f>
-        <v>1143090.2</v>
+        <v>3379423</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3795,13 +3782,13 @@
         <v>48</v>
       </c>
       <c r="D32" s="90">
-        <v>366628</v>
+        <v>366625.4</v>
       </c>
       <c r="E32" s="16">
-        <v>0</v>
+        <v>347699.4</v>
       </c>
       <c r="F32" s="16">
-        <v>0</v>
+        <v>361596.8</v>
       </c>
       <c r="G32" s="16">
         <v>0</v>
@@ -3832,8 +3819,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <f t="shared" si="2"/>
-        <v>366628</v>
+        <v>1075921.6000000001</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3859,13 +3845,13 @@
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="90">
-        <v>9768.7000000000007</v>
+        <v>9768.4</v>
       </c>
       <c r="E34" s="16">
-        <v>0</v>
+        <v>9343.4</v>
       </c>
       <c r="F34" s="16">
-        <v>0</v>
+        <v>10074.5</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
@@ -3896,8 +3882,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <f t="shared" ref="Q34:Q36" si="3">SUM(D34:O34)</f>
-        <v>9768.7000000000007</v>
+        <v>29186.3</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3906,13 +3891,13 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="90">
-        <v>11409.6</v>
+        <v>11409.9</v>
       </c>
       <c r="E35" s="16">
-        <v>0</v>
+        <v>8201.7999999999993</v>
       </c>
       <c r="F35" s="16">
-        <v>0</v>
+        <v>10701</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -3943,8 +3928,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <f t="shared" si="3"/>
-        <v>11409.6</v>
+        <v>30312.699999999997</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3953,13 +3937,13 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>520968.8</v>
+        <v>520252.4</v>
       </c>
       <c r="E36" s="16">
-        <v>0</v>
+        <v>517158.3</v>
       </c>
       <c r="F36" s="16">
-        <v>0</v>
+        <v>399386.3</v>
       </c>
       <c r="G36" s="16">
         <v>0</v>
@@ -3990,8 +3974,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <f t="shared" si="3"/>
-        <v>520968.8</v>
+        <v>1436797</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4018,13 +4001,13 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>291010.40000000002</v>
+        <v>291701.90000000002</v>
       </c>
       <c r="E38" s="16">
-        <v>0</v>
+        <v>278557.7</v>
       </c>
       <c r="F38" s="16">
-        <v>0</v>
+        <v>287784.59999999998</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -4055,8 +4038,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <f t="shared" ref="Q38:Q39" si="4">SUM(D38:O38)</f>
-        <v>291010.40000000002</v>
+        <v>858044.20000000007</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4068,10 +4050,10 @@
         <v>22.8</v>
       </c>
       <c r="E39" s="16">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="F39" s="16">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G39" s="16">
         <v>0</v>
@@ -4102,8 +4084,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <f t="shared" si="4"/>
-        <v>22.8</v>
+        <v>84.9</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4153,10 +4134,10 @@
         <v>468372.6</v>
       </c>
       <c r="E42" s="78">
-        <v>0</v>
+        <v>434674.9</v>
       </c>
       <c r="F42" s="78">
-        <v>0</v>
+        <v>434005.2</v>
       </c>
       <c r="G42" s="78">
         <v>0</v>
@@ -4187,8 +4168,8 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="5">SUM(D42:O42)</f>
-        <v>468372.6</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>1337052.7</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4201,10 +4182,12 @@
         <v>1289848.3999999999</v>
       </c>
       <c r="E43" s="78">
-        <v>0</v>
+        <f>502541.5+530856.6</f>
+        <v>1033398.1</v>
       </c>
       <c r="F43" s="78">
-        <v>0</v>
+        <f>518330.1+603208.4</f>
+        <v>1121538.5</v>
       </c>
       <c r="G43" s="78">
         <v>0</v>
@@ -4235,8 +4218,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="5"/>
-        <v>1289848.3999999999</v>
+        <f t="shared" si="0"/>
+        <v>3444785</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4245,13 +4228,13 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="78">
-        <v>925343.2</v>
+        <v>925132.80000000005</v>
       </c>
       <c r="E44" s="78">
-        <v>0</v>
+        <v>850417.8</v>
       </c>
       <c r="F44" s="78">
-        <v>0</v>
+        <v>920690.5</v>
       </c>
       <c r="G44" s="78">
         <v>0</v>
@@ -4282,8 +4265,8 @@
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <f t="shared" si="5"/>
-        <v>925343.2</v>
+        <f t="shared" si="0"/>
+        <v>2696241.1</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4295,10 +4278,10 @@
         <v>246929.6</v>
       </c>
       <c r="E45" s="80">
-        <v>0</v>
+        <v>270623.40000000002</v>
       </c>
       <c r="F45" s="80">
-        <v>0</v>
+        <v>281953.90000000002</v>
       </c>
       <c r="G45" s="80">
         <v>0</v>
@@ -4329,8 +4312,8 @@
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
-        <f t="shared" si="5"/>
-        <v>246929.6</v>
+        <f t="shared" si="0"/>
+        <v>799506.9</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4339,14 +4322,16 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46" si="6">SUM(D42:D45)</f>
-        <v>2930493.8000000003</v>
+        <f t="shared" ref="D46:F46" si="1">SUM(D42:D45)</f>
+        <v>2930283.4</v>
       </c>
       <c r="E46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2589114.1999999997</v>
       </c>
       <c r="F46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2758188.1</v>
       </c>
       <c r="G46" s="89">
         <v>0</v>
@@ -4377,8 +4362,8 @@
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <f t="shared" si="5"/>
-        <v>2930493.8000000003</v>
+        <f t="shared" si="0"/>
+        <v>8277585.6999999993</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4404,14 +4389,16 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48" si="7">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5273392.3000000007</v>
+        <f t="shared" ref="D48:F48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5273152.1999999993</v>
       </c>
       <c r="E48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4800798.5</v>
       </c>
       <c r="F48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5013404.7</v>
       </c>
       <c r="G48" s="89">
         <v>0</v>
@@ -4443,7 +4430,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>5273392.3000000007</v>
+        <v>15087355.399999999</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4468,13 +4455,13 @@
         <v>54</v>
       </c>
       <c r="D50" s="78">
-        <v>205294.3</v>
+        <v>209032.3</v>
       </c>
       <c r="E50" s="78">
-        <v>0</v>
+        <v>204328.4</v>
       </c>
       <c r="F50" s="78">
-        <v>0</v>
+        <v>219941.2</v>
       </c>
       <c r="G50" s="78">
         <v>0</v>
@@ -4505,8 +4492,8 @@
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f t="shared" ref="Q50:Q52" si="8">SUM(D50:O50)</f>
-        <v>205294.3</v>
+        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
+        <v>633301.89999999991</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4517,10 +4504,10 @@
         <v>97194.9</v>
       </c>
       <c r="E51" s="78">
-        <v>0</v>
+        <v>100123.4</v>
       </c>
       <c r="F51" s="78">
-        <v>0</v>
+        <v>101695.5</v>
       </c>
       <c r="G51" s="78">
         <v>0</v>
@@ -4551,8 +4538,8 @@
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" si="8"/>
-        <v>97194.9</v>
+        <f t="shared" si="3"/>
+        <v>299013.8</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4560,13 +4547,13 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>335928.2</v>
+        <v>336233</v>
       </c>
       <c r="E52" s="78">
-        <v>0</v>
+        <v>310324</v>
       </c>
       <c r="F52" s="78">
-        <v>0</v>
+        <v>341457.5</v>
       </c>
       <c r="G52" s="78">
         <v>0</v>
@@ -4597,27 +4584,27 @@
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <f t="shared" si="8"/>
-        <v>335928.2</v>
+        <f t="shared" si="3"/>
+        <v>988014.5</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="98"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="105"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4625,13 +4612,13 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11443057.1</v>
+        <v>11473879.300000001</v>
       </c>
       <c r="E54" s="83">
-        <v>0</v>
+        <v>11193158.300000001</v>
       </c>
       <c r="F54" s="83">
-        <v>0</v>
+        <v>11510093</v>
       </c>
       <c r="G54" s="83">
         <v>0</v>
@@ -4662,7 +4649,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>11443057.1</v>
+        <v>11510093</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4670,13 +4657,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-84553.5</v>
+        <v>-84051.3</v>
       </c>
       <c r="E55" s="78">
-        <v>0</v>
+        <v>-27853.4</v>
       </c>
       <c r="F55" s="78">
-        <v>0</v>
+        <v>-61593</v>
       </c>
       <c r="G55" s="78">
         <v>0</v>
@@ -4708,7 +4695,7 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-84553.5</v>
+        <v>-173497.7</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4734,14 +4721,16 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57" si="9">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22908837.100000005</v>
+        <f t="shared" ref="D57:F57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22909238.400000002</v>
       </c>
       <c r="E57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22676625.199999996</v>
       </c>
       <c r="F57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>23824274.699999999</v>
       </c>
       <c r="G57" s="89">
         <v>0</v>
@@ -4773,7 +4762,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>22908837.100000005</v>
+        <v>69410138.299999997</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4795,23 +4784,23 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="96" t="s">
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="107" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4853,9 +4842,9 @@
       <c r="O60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="105" t="s">
-        <v>128</v>
+      <c r="P60" s="103"/>
+      <c r="Q60" s="101" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1">
@@ -4905,10 +4894,10 @@
         <v>1014.6999999999999</v>
       </c>
       <c r="E63" s="90">
-        <v>0</v>
+        <v>841.8</v>
       </c>
       <c r="F63" s="90">
-        <v>0</v>
+        <v>139.4</v>
       </c>
       <c r="G63" s="90">
         <v>0</v>
@@ -4939,8 +4928,8 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <f t="shared" ref="Q63:Q70" si="10">SUM(D63:O63)</f>
-        <v>1014.6999999999999</v>
+        <f t="shared" ref="Q63:Q70" si="5">SUM(D63:O63)</f>
+        <v>1995.9</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4951,10 +4940,10 @@
         <v>2363322.5</v>
       </c>
       <c r="E64" s="90">
-        <v>0</v>
+        <v>2337596</v>
       </c>
       <c r="F64" s="90">
-        <v>0</v>
+        <v>1538190.7</v>
       </c>
       <c r="G64" s="90">
         <v>0</v>
@@ -4985,8 +4974,8 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <f t="shared" si="10"/>
-        <v>2363322.5</v>
+        <f t="shared" si="5"/>
+        <v>6239109.2000000002</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4994,13 +4983,13 @@
         <v>53</v>
       </c>
       <c r="D65" s="90">
-        <v>14556.2</v>
+        <v>14561.1</v>
       </c>
       <c r="E65" s="90">
-        <v>0</v>
+        <v>12653.9</v>
       </c>
       <c r="F65" s="90">
-        <v>0</v>
+        <v>15496.7</v>
       </c>
       <c r="G65" s="90">
         <v>0</v>
@@ -5031,8 +5020,8 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <f t="shared" si="10"/>
-        <v>14556.2</v>
+        <f t="shared" si="5"/>
+        <v>42711.7</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5043,10 +5032,10 @@
         <v>29177.7</v>
       </c>
       <c r="E66" s="90">
-        <v>0</v>
+        <v>15831.6</v>
       </c>
       <c r="F66" s="90">
-        <v>0</v>
+        <v>27199.3</v>
       </c>
       <c r="G66" s="90">
         <v>0</v>
@@ -5077,8 +5066,8 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <f t="shared" si="10"/>
-        <v>29177.7</v>
+        <f t="shared" si="5"/>
+        <v>72208.600000000006</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5124,7 +5113,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5134,13 +5123,13 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-27209.599999999999</v>
+        <v>-27126.5</v>
       </c>
       <c r="E68" s="90">
-        <v>0</v>
+        <v>-12542.2</v>
       </c>
       <c r="F68" s="90">
-        <v>0</v>
+        <v>1698.6</v>
       </c>
       <c r="G68" s="90">
         <v>0</v>
@@ -5171,8 +5160,8 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <f t="shared" si="10"/>
-        <v>-27209.599999999999</v>
+        <f t="shared" si="5"/>
+        <v>-37970.1</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5181,13 +5170,13 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>314784</v>
+        <v>313080.8</v>
       </c>
       <c r="E69" s="90">
-        <v>0</v>
+        <v>343517.6</v>
       </c>
       <c r="F69" s="90">
-        <v>0</v>
+        <v>406384.2</v>
       </c>
       <c r="G69" s="90">
         <v>0</v>
@@ -5218,8 +5207,8 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <f t="shared" si="10"/>
-        <v>314784</v>
+        <f t="shared" si="5"/>
+        <v>1062982.5999999999</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5228,13 +5217,13 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2695645.5000000005</v>
+        <v>2694030.3000000003</v>
       </c>
       <c r="E70" s="90">
-        <v>0</v>
+        <v>2697898.6999999997</v>
       </c>
       <c r="F70" s="90">
-        <v>0</v>
+        <v>1989108.9</v>
       </c>
       <c r="G70" s="90">
         <v>0</v>
@@ -5265,8 +5254,8 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <f t="shared" si="10"/>
-        <v>2695645.5000000005</v>
+        <f t="shared" si="5"/>
+        <v>7381037.9000000004</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5293,13 +5282,13 @@
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="78">
-        <v>19679422.100000001</v>
+        <v>19679347</v>
       </c>
       <c r="E72" s="78">
-        <v>0</v>
+        <v>19364424.800000001</v>
       </c>
       <c r="F72" s="78">
-        <v>0</v>
+        <v>20505244.399999999</v>
       </c>
       <c r="G72" s="78">
         <v>0</v>
@@ -5331,7 +5320,7 @@
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
         <f>SUM(D72:O72)</f>
-        <v>19679422.100000001</v>
+        <v>59549016.199999996</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5340,13 +5329,13 @@
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="78">
-        <v>634820.06774193549</v>
+        <v>634817.6451612903</v>
       </c>
       <c r="E73" s="78">
-        <v>0</v>
+        <v>691586.6</v>
       </c>
       <c r="F73" s="78">
-        <v>0</v>
+        <v>661459.49677419348</v>
       </c>
       <c r="G73" s="78">
         <v>0</v>
@@ -5377,7 +5366,8 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>634820.06774193549</v>
+        <f>AVERAGE(D73:F73)</f>
+        <v>662621.24731182784</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5405,13 +5395,15 @@
       <c r="C75" s="17"/>
       <c r="D75" s="89">
         <f>D57-(D70+D72)</f>
-        <v>533769.50000000373</v>
+        <v>535861.10000000149</v>
       </c>
       <c r="E75" s="89">
-        <v>0</v>
+        <f>E57-(E70+E72)</f>
+        <v>614301.69999999553</v>
       </c>
       <c r="F75" s="89">
-        <v>0</v>
+        <f>F57-(F70+F72)</f>
+        <v>1329921.4000000022</v>
       </c>
       <c r="G75" s="89">
         <v>0</v>
@@ -5443,7 +5435,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>533769.50000000373</v>
+        <v>2480084.1999999993</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5452,46 +5444,48 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76" si="11">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.3299720438450522E-2</v>
-      </c>
-      <c r="E76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="H76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="I76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="J76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="K76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="L76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="M76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="N76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="O76" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="100">
-        <f>AVERAGE(D76:O76)</f>
-        <v>2.3299720438450522E-2</v>
+        <f t="shared" ref="D76:F76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.3390611710601493E-2</v>
+      </c>
+      <c r="E76" s="94">
+        <f t="shared" si="6"/>
+        <v>2.7089643832892543E-2</v>
+      </c>
+      <c r="F76" s="94">
+        <f t="shared" si="6"/>
+        <v>5.5822114912064971E-2</v>
+      </c>
+      <c r="G76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="K76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="L76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="M76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="N76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="O76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="P76" s="96"/>
+      <c r="Q76" s="96">
+        <f>SUM(D76:O76)</f>
+        <v>0.10630237045555901</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5517,14 +5511,16 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78" si="12">(D70+D72)+D75</f>
-        <v>22908837.100000005</v>
+        <f t="shared" ref="D78:F78" si="7">(D70+D72)+D75</f>
+        <v>22909238.400000002</v>
       </c>
       <c r="E78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22676625.199999996</v>
       </c>
       <c r="F78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>23824274.699999999</v>
       </c>
       <c r="G78" s="89">
         <v>0</v>
@@ -5556,7 +5552,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>22908837.100000005</v>
+        <v>69410138.299999997</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5624,9 +5620,11 @@
       <c r="Q83" s="91"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="23"/>
+      <c r="B84" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="103"/>
+      <c r="D84" s="99"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5638,7 +5636,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
-      <c r="Q84" s="103"/>
+      <c r="Q84" s="99"/>
     </row>
     <row r="85" spans="2:17">
       <c r="B85" s="23"/>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58A6E8-A992-4830-852D-EEE4F6074A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116FFA7-C393-40F1-AFFC-8B52D279699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  26 April 2024</t>
+    <t xml:space="preserve"> Run Date:  30 September 2024</t>
   </si>
 </sst>
 </file>
@@ -1054,19 +1054,19 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1629,11 +1629,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2803,8 +2803,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2834,11 +2834,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2920,28 +2920,28 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11068791.199999999</v>
+        <v>11069630.4</v>
       </c>
       <c r="E7" s="16">
-        <v>11473850.199999999</v>
+        <v>11473724.699999999</v>
       </c>
       <c r="F7" s="16">
-        <v>11132028.699999999</v>
+        <v>11193240.6</v>
       </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>11562464</v>
       </c>
       <c r="H7" s="16">
-        <v>0</v>
+        <v>11971523.9</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>11336293.9</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
+        <v>9995917.6999999993</v>
       </c>
       <c r="K7" s="16">
-        <v>0</v>
+        <v>9556127.4000000004</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11068791.199999999</v>
+        <v>11069630.4</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3021,28 +3021,28 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1445338.9</v>
+        <v>1399010.7</v>
       </c>
       <c r="E11" s="16">
-        <v>1444196.6</v>
+        <v>1375787.1</v>
       </c>
       <c r="F11" s="16">
-        <v>1617390.2</v>
+        <v>1527906.6</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
+        <v>1505743.9</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>1533268.2</v>
       </c>
       <c r="I11" s="16">
-        <v>0</v>
+        <v>1442404.9</v>
       </c>
       <c r="J11" s="16">
-        <v>0</v>
+        <v>1490609.9</v>
       </c>
       <c r="K11" s="16">
-        <v>0</v>
+        <v>1532941.2</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>4506925.7</v>
+        <v>11807672.5</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3067,28 +3067,28 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>357096.5</v>
+        <v>377186.1</v>
       </c>
       <c r="E12" s="16">
-        <v>348020.9</v>
+        <v>372372.7</v>
       </c>
       <c r="F12" s="16">
-        <v>367434.8</v>
+        <v>401620.5</v>
       </c>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>380551.3</v>
       </c>
       <c r="H12" s="16">
-        <v>0</v>
+        <v>374781.6</v>
       </c>
       <c r="I12" s="16">
-        <v>0</v>
+        <v>346997.1</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
+        <v>359770.7</v>
       </c>
       <c r="K12" s="16">
-        <v>0</v>
+        <v>356711.3</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>1072552.2</v>
+        <v>2969991.3000000003</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3112,28 +3112,28 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>165823.79999999999</v>
+        <v>168019.7</v>
       </c>
       <c r="E13" s="16">
-        <v>158709.1</v>
+        <v>165893.70000000001</v>
       </c>
       <c r="F13" s="16">
-        <v>164705.60000000001</v>
+        <v>171956.5</v>
       </c>
       <c r="G13" s="16">
-        <v>0</v>
+        <v>164094.5</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>165110</v>
       </c>
       <c r="I13" s="16">
-        <v>0</v>
+        <v>155451.79999999999</v>
       </c>
       <c r="J13" s="16">
-        <v>0</v>
+        <v>159288.6</v>
       </c>
       <c r="K13" s="16">
-        <v>0</v>
+        <v>162374.1</v>
       </c>
       <c r="L13" s="16">
         <v>0</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>489238.5</v>
+        <v>1312188.9000000001</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3157,28 +3157,28 @@
         <v>122</v>
       </c>
       <c r="D14" s="98">
-        <v>534832.9</v>
+        <v>557222.19999999995</v>
       </c>
       <c r="E14" s="76">
-        <v>518201</v>
+        <v>550624.1</v>
       </c>
       <c r="F14" s="76">
-        <v>554325.6</v>
+        <v>595486.4</v>
       </c>
       <c r="G14" s="75">
-        <v>0</v>
+        <v>543793.19999999995</v>
       </c>
       <c r="H14" s="75">
-        <v>0</v>
+        <v>580012</v>
       </c>
       <c r="I14" s="75">
-        <v>0</v>
+        <v>576238.69999999995</v>
       </c>
       <c r="J14" s="75">
-        <v>0</v>
+        <v>576066</v>
       </c>
       <c r="K14" s="75">
-        <v>0</v>
+        <v>580166.69999999995</v>
       </c>
       <c r="L14" s="75">
         <v>0</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="98">
-        <v>1607359.5</v>
+        <v>4559609.3</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3202,28 +3202,28 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2503092.1</v>
+        <v>2501438.6999999997</v>
       </c>
       <c r="E15" s="16">
-        <v>2469127.6</v>
+        <v>2464677.6</v>
       </c>
       <c r="F15" s="16">
-        <v>2703856.2</v>
+        <v>2696970</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>2594182.9</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>2653171.7999999998</v>
       </c>
       <c r="I15" s="16">
-        <v>0</v>
+        <v>2521092.5</v>
       </c>
       <c r="J15" s="16">
-        <v>0</v>
+        <v>2585735.2000000002</v>
       </c>
       <c r="K15" s="16">
-        <v>0</v>
+        <v>2632193.2999999998</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>7676075.9000000004</v>
+        <v>20649462</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3264,28 +3264,28 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>341176.5</v>
+        <v>342096</v>
       </c>
       <c r="E17" s="16">
-        <v>349640.4</v>
+        <v>350064.2</v>
       </c>
       <c r="F17" s="16">
-        <v>368546.7</v>
+        <v>369077</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>358855.5</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>373644.9</v>
       </c>
       <c r="I17" s="16">
-        <v>0</v>
+        <v>382128.2</v>
       </c>
       <c r="J17" s="16">
-        <v>0</v>
+        <v>417673.1</v>
       </c>
       <c r="K17" s="16">
-        <v>0</v>
+        <v>465252.4</v>
       </c>
       <c r="L17" s="16">
         <v>0</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>1059363.6000000001</v>
+        <v>3058791.3000000003</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3365,28 +3365,28 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8981456.5999999996</v>
+        <v>8980375.5999999996</v>
       </c>
       <c r="E21" s="16">
-        <v>8550622.5999999996</v>
+        <v>8550508.1999999993</v>
       </c>
       <c r="F21" s="16">
-        <v>9146322</v>
+        <v>9147905</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>8753040.4000000004</v>
       </c>
       <c r="H21" s="16">
-        <v>0</v>
+        <v>9031221.3000000007</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
+        <v>8967800.4000000004</v>
       </c>
       <c r="J21" s="16">
-        <v>0</v>
+        <v>8996793.9000000004</v>
       </c>
       <c r="K21" s="16">
-        <v>0</v>
+        <v>8695778</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>26678401.199999999</v>
+        <v>71123422.799999997</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3420,19 +3420,19 @@
         <v>8731224</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>7943289</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>6859051</v>
       </c>
       <c r="I22" s="16">
-        <v>0</v>
+        <v>7639544</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>8723179.3000000007</v>
       </c>
       <c r="K22" s="16">
-        <v>0</v>
+        <v>9179551.0999999996</v>
       </c>
       <c r="L22" s="16">
         <v>0</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>24577616.800000001</v>
+        <v>64922231.199999996</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3466,19 +3466,19 @@
         <v>-7417269.5</v>
       </c>
       <c r="G23" s="16">
-        <v>0</v>
+        <v>-6785757.7000000002</v>
       </c>
       <c r="H23" s="16">
-        <v>0</v>
+        <v>-5809915.4000000004</v>
       </c>
       <c r="I23" s="16">
-        <v>0</v>
+        <v>-6633061.7999999998</v>
       </c>
       <c r="J23" s="16">
-        <v>0</v>
+        <v>-7523321.0999999996</v>
       </c>
       <c r="K23" s="16">
-        <v>0</v>
+        <v>-7828106.7000000002</v>
       </c>
       <c r="L23" s="16">
         <v>0</v>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-21712002</v>
+        <v>-56292164.700000003</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3503,28 +3503,28 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9636087.0000000019</v>
+        <v>9635006.0000000019</v>
       </c>
       <c r="E24" s="16">
-        <v>9447652.4999999981</v>
+        <v>9447538.0999999996</v>
       </c>
       <c r="F24" s="16">
-        <v>10460276.5</v>
+        <v>10461859.5</v>
       </c>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>9910571.6999999993</v>
       </c>
       <c r="H24" s="16">
-        <v>0</v>
+        <v>10080356.9</v>
       </c>
       <c r="I24" s="16">
-        <v>0</v>
+        <v>9974282.6000000015</v>
       </c>
       <c r="J24" s="16">
-        <v>0</v>
+        <v>10196652.100000003</v>
       </c>
       <c r="K24" s="16">
-        <v>0</v>
+        <v>10047222.400000002</v>
       </c>
       <c r="L24" s="16">
         <v>0</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>29544016</v>
+        <v>79753489.299999997</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3551,25 +3551,25 @@
         <v>6287330.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>5971343.5</v>
+        <v>5971247.5</v>
       </c>
       <c r="F25" s="42">
-        <v>6380942.0999999996</v>
+        <v>6380943.0999999996</v>
       </c>
       <c r="G25" s="42">
-        <v>0</v>
+        <v>5861143.7000000002</v>
       </c>
       <c r="H25" s="42">
-        <v>0</v>
+        <v>5040982.0999999996</v>
       </c>
       <c r="I25" s="42">
-        <v>0</v>
+        <v>5667102.5999999996</v>
       </c>
       <c r="J25" s="42">
-        <v>0</v>
+        <v>6537838.7999999998</v>
       </c>
       <c r="K25" s="42">
-        <v>0</v>
+        <v>6782035.7999999998</v>
       </c>
       <c r="L25" s="42">
         <v>0</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="100">
-        <v>18639615.799999997</v>
+        <v>48528623.79999999</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3593,28 +3593,28 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15923417.200000003</v>
+        <v>15922336.200000003</v>
       </c>
       <c r="E26" s="16">
-        <v>15418995.999999998</v>
+        <v>15418785.6</v>
       </c>
       <c r="F26" s="16">
-        <v>16841218.600000001</v>
+        <v>16842802.600000001</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>15771715.399999999</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>15121339</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>15641385.200000001</v>
       </c>
       <c r="J26" s="16">
-        <v>0</v>
+        <v>16734490.900000002</v>
       </c>
       <c r="K26" s="16">
-        <v>0</v>
+        <v>16829258.200000003</v>
       </c>
       <c r="L26" s="16">
         <v>0</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>48183631.799999997</v>
+        <v>128282113.09999999</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3656,28 +3656,28 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18767685.800000004</v>
+        <v>18765870.900000002</v>
       </c>
       <c r="E28" s="16">
-        <v>18237763.999999996</v>
+        <v>18233527.399999999</v>
       </c>
       <c r="F28" s="16">
-        <v>19913621.5</v>
+        <v>19908849.600000001</v>
       </c>
       <c r="G28" s="16">
-        <v>0</v>
+        <v>18724753.799999997</v>
       </c>
       <c r="H28" s="16">
-        <v>0</v>
+        <v>18148155.699999999</v>
       </c>
       <c r="I28" s="16">
-        <v>0</v>
+        <v>18544605.900000002</v>
       </c>
       <c r="J28" s="16">
-        <v>0</v>
+        <v>19737899.200000003</v>
       </c>
       <c r="K28" s="16">
-        <v>0</v>
+        <v>19926703.900000002</v>
       </c>
       <c r="L28" s="16">
         <v>0</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>56919071.299999997</v>
+        <v>151990366.40000001</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3737,28 +3737,28 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1143088</v>
+        <v>1143099.7</v>
       </c>
       <c r="E31" s="16">
-        <v>1050685.1000000001</v>
+        <v>1056621.6000000001</v>
       </c>
       <c r="F31" s="16">
-        <v>1185649.8999999999</v>
+        <v>1138990.6000000001</v>
       </c>
       <c r="G31" s="16">
-        <v>0</v>
+        <v>1138653.3999999999</v>
       </c>
       <c r="H31" s="16">
-        <v>0</v>
+        <v>1081144.3999999999</v>
       </c>
       <c r="I31" s="16">
-        <v>0</v>
+        <v>1075107.6000000001</v>
       </c>
       <c r="J31" s="16">
-        <v>0</v>
+        <v>1114238.1000000001</v>
       </c>
       <c r="K31" s="16">
-        <v>0</v>
+        <v>1147952.5</v>
       </c>
       <c r="L31" s="16">
         <v>0</v>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>3379423</v>
+        <v>8895807.8999999985</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3785,25 +3785,25 @@
         <v>366625.4</v>
       </c>
       <c r="E32" s="16">
-        <v>347699.4</v>
+        <v>345167.8</v>
       </c>
       <c r="F32" s="16">
-        <v>361596.8</v>
+        <v>358881.5</v>
       </c>
       <c r="G32" s="16">
-        <v>0</v>
+        <v>342393.2</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
+        <v>341831.9</v>
       </c>
       <c r="I32" s="16">
-        <v>0</v>
+        <v>359402.4</v>
       </c>
       <c r="J32" s="16">
-        <v>0</v>
+        <v>352381.3</v>
       </c>
       <c r="K32" s="16">
-        <v>0</v>
+        <v>404487.9</v>
       </c>
       <c r="L32" s="16">
         <v>0</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>1075921.6000000001</v>
+        <v>2871171.3999999994</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3848,25 +3848,25 @@
         <v>9768.4</v>
       </c>
       <c r="E34" s="16">
-        <v>9343.4</v>
+        <v>9370.7000000000007</v>
       </c>
       <c r="F34" s="16">
-        <v>10074.5</v>
+        <v>10426.6</v>
       </c>
       <c r="G34" s="16">
-        <v>0</v>
+        <v>11181.4</v>
       </c>
       <c r="H34" s="16">
-        <v>0</v>
+        <v>9941.2999999999993</v>
       </c>
       <c r="I34" s="16">
-        <v>0</v>
+        <v>9226.9</v>
       </c>
       <c r="J34" s="16">
-        <v>0</v>
+        <v>9404.7999999999993</v>
       </c>
       <c r="K34" s="16">
-        <v>0</v>
+        <v>8987.5</v>
       </c>
       <c r="L34" s="16">
         <v>0</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>29186.3</v>
+        <v>78307.599999999991</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3897,22 +3897,22 @@
         <v>8201.7999999999993</v>
       </c>
       <c r="F35" s="16">
-        <v>10701</v>
+        <v>10699.8</v>
       </c>
       <c r="G35" s="16">
-        <v>0</v>
+        <v>12392</v>
       </c>
       <c r="H35" s="16">
-        <v>0</v>
+        <v>9714.7999999999993</v>
       </c>
       <c r="I35" s="16">
-        <v>0</v>
+        <v>8489.9</v>
       </c>
       <c r="J35" s="16">
-        <v>0</v>
+        <v>10589.7</v>
       </c>
       <c r="K35" s="16">
-        <v>0</v>
+        <v>9965.7999999999993</v>
       </c>
       <c r="L35" s="16">
         <v>0</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>30312.699999999997</v>
+        <v>81463.700000000012</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3937,28 +3937,28 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>520252.4</v>
+        <v>520231.3</v>
       </c>
       <c r="E36" s="16">
-        <v>517158.3</v>
+        <v>517492.7</v>
       </c>
       <c r="F36" s="16">
-        <v>399386.3</v>
+        <v>558400.9</v>
       </c>
       <c r="G36" s="16">
-        <v>0</v>
+        <v>410538.5</v>
       </c>
       <c r="H36" s="16">
-        <v>0</v>
+        <v>464704.7</v>
       </c>
       <c r="I36" s="16">
-        <v>0</v>
+        <v>402996</v>
       </c>
       <c r="J36" s="16">
-        <v>0</v>
+        <v>381287.7</v>
       </c>
       <c r="K36" s="16">
-        <v>0</v>
+        <v>357288</v>
       </c>
       <c r="L36" s="16">
         <v>0</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>1436797</v>
+        <v>3612939.8000000003</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4001,28 +4001,28 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>291701.90000000002</v>
+        <v>291702</v>
       </c>
       <c r="E38" s="16">
-        <v>278557.7</v>
+        <v>278793.40000000002</v>
       </c>
       <c r="F38" s="16">
-        <v>287784.59999999998</v>
+        <v>288678.8</v>
       </c>
       <c r="G38" s="16">
-        <v>0</v>
+        <v>279346.7</v>
       </c>
       <c r="H38" s="16">
-        <v>0</v>
+        <v>243770.3</v>
       </c>
       <c r="I38" s="16">
-        <v>0</v>
+        <v>242941.6</v>
       </c>
       <c r="J38" s="16">
-        <v>0</v>
+        <v>252370.4</v>
       </c>
       <c r="K38" s="16">
-        <v>0</v>
+        <v>256890.3</v>
       </c>
       <c r="L38" s="16">
         <v>0</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>858044.20000000007</v>
+        <v>2134493.5</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4056,19 +4056,19 @@
         <v>23.5</v>
       </c>
       <c r="G39" s="16">
-        <v>0</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H39" s="16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J39" s="16">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K39" s="16">
-        <v>0</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="L39" s="16">
         <v>0</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>84.9</v>
+        <v>222.8</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4140,19 +4140,19 @@
         <v>434005.2</v>
       </c>
       <c r="G42" s="78">
-        <v>0</v>
+        <v>491324.2</v>
       </c>
       <c r="H42" s="78">
-        <v>0</v>
+        <v>454995.6</v>
       </c>
       <c r="I42" s="78">
-        <v>0</v>
+        <v>528424.80000000005</v>
       </c>
       <c r="J42" s="78">
-        <v>0</v>
+        <v>446142.7</v>
       </c>
       <c r="K42" s="78">
-        <v>0</v>
+        <v>461349.9</v>
       </c>
       <c r="L42" s="78">
         <v>0</v>
@@ -4168,8 +4168,7 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>1337052.7</v>
+        <v>3719289.9</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4186,23 +4185,28 @@
         <v>1033398.1</v>
       </c>
       <c r="F43" s="78">
-        <f>518330.1+603208.4</f>
-        <v>1121538.5</v>
+        <f>518173+603208.4</f>
+        <v>1121381.3999999999</v>
       </c>
       <c r="G43" s="78">
-        <v>0</v>
+        <f>503540.6+683035.5</f>
+        <v>1186576.1000000001</v>
       </c>
       <c r="H43" s="78">
-        <v>0</v>
+        <f>467485.3+665610.4</f>
+        <v>1133095.7</v>
       </c>
       <c r="I43" s="78">
-        <v>0</v>
+        <f>463296.9+648500.2</f>
+        <v>1111797.1000000001</v>
       </c>
       <c r="J43" s="78">
-        <v>0</v>
+        <f>445686+667519.7</f>
+        <v>1113205.7</v>
       </c>
       <c r="K43" s="78">
-        <v>0</v>
+        <f>496888.2+300328.9</f>
+        <v>797217.10000000009</v>
       </c>
       <c r="L43" s="78">
         <v>0</v>
@@ -4218,8 +4222,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="0"/>
-        <v>3444785</v>
+        <f>SUM(D43:O43)</f>
+        <v>8786519.6000000015</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4228,28 +4232,28 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="78">
-        <v>925132.80000000005</v>
+        <v>925167.5</v>
       </c>
       <c r="E44" s="78">
         <v>850417.8</v>
       </c>
       <c r="F44" s="78">
-        <v>920690.5</v>
+        <v>920936.7</v>
       </c>
       <c r="G44" s="78">
-        <v>0</v>
+        <v>911849.7</v>
       </c>
       <c r="H44" s="78">
-        <v>0</v>
+        <v>1040077.4</v>
       </c>
       <c r="I44" s="78">
-        <v>0</v>
+        <v>980545.7</v>
       </c>
       <c r="J44" s="78">
-        <v>0</v>
+        <v>865602</v>
       </c>
       <c r="K44" s="78">
-        <v>0</v>
+        <v>890768.3</v>
       </c>
       <c r="L44" s="78">
         <v>0</v>
@@ -4265,8 +4269,8 @@
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <f t="shared" si="0"/>
-        <v>2696241.1</v>
+        <f t="shared" ref="Q44:Q47" si="0">SUM(D44:O44)</f>
+        <v>7385365.1000000006</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4284,19 +4288,19 @@
         <v>281953.90000000002</v>
       </c>
       <c r="G45" s="80">
-        <v>0</v>
+        <v>255127.3</v>
       </c>
       <c r="H45" s="80">
-        <v>0</v>
+        <v>48090.8</v>
       </c>
       <c r="I45" s="80">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J45" s="80">
-        <v>0</v>
+        <v>256262.39999999999</v>
       </c>
       <c r="K45" s="80">
-        <v>0</v>
+        <v>324733.8</v>
       </c>
       <c r="L45" s="80">
         <v>0</v>
@@ -4313,7 +4317,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>799506.9</v>
+        <v>1683722.9</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4322,8 +4326,8 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:F46" si="1">SUM(D42:D45)</f>
-        <v>2930283.4</v>
+        <f t="shared" ref="D46:I46" si="1">SUM(D42:D45)</f>
+        <v>2930318.1</v>
       </c>
       <c r="E46" s="89">
         <f t="shared" si="1"/>
@@ -4331,22 +4335,27 @@
       </c>
       <c r="F46" s="89">
         <f t="shared" si="1"/>
-        <v>2758188.1</v>
+        <v>2758277.1999999997</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2844877.3</v>
       </c>
       <c r="H46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2676259.4999999995</v>
       </c>
       <c r="I46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2620769.3000000003</v>
       </c>
       <c r="J46" s="89">
-        <v>0</v>
+        <f>SUM(J42:J45)</f>
+        <v>2681212.7999999998</v>
       </c>
       <c r="K46" s="89">
-        <v>0</v>
+        <f>SUM(K42:K45)</f>
+        <v>2474069.0999999996</v>
       </c>
       <c r="L46" s="89">
         <v>0</v>
@@ -4362,8 +4371,8 @@
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <f t="shared" si="0"/>
-        <v>8277585.6999999993</v>
+        <f>SUM(D46:O46)</f>
+        <v>21574897.5</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4389,31 +4398,36 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:F48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5273152.1999999993</v>
+        <f t="shared" ref="D48:J48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5273177.5999999996</v>
       </c>
       <c r="E48" s="89">
         <f t="shared" si="2"/>
-        <v>4800798.5</v>
+        <v>4804800.8</v>
       </c>
       <c r="F48" s="89">
         <f t="shared" si="2"/>
-        <v>5013404.7</v>
+        <v>5124378.9000000004</v>
       </c>
       <c r="G48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5039399.3999999994</v>
       </c>
       <c r="H48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4827386.8999999994</v>
       </c>
       <c r="I48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4718958.7</v>
       </c>
       <c r="J48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4801495.1999999993</v>
       </c>
       <c r="K48" s="89">
-        <v>0</v>
+        <f>K31+K32+K34+K35+K36+K38+K39+K46</f>
+        <v>4659706.6999999993</v>
       </c>
       <c r="L48" s="89">
         <v>0</v>
@@ -4430,7 +4444,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>15087355.399999999</v>
+        <v>39249304.200000003</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4461,22 +4475,22 @@
         <v>204328.4</v>
       </c>
       <c r="F50" s="78">
-        <v>219941.2</v>
+        <v>219942.2</v>
       </c>
       <c r="G50" s="78">
-        <v>0</v>
+        <v>204296</v>
       </c>
       <c r="H50" s="78">
-        <v>0</v>
+        <v>215885.8</v>
       </c>
       <c r="I50" s="78">
-        <v>0</v>
+        <v>218397.6</v>
       </c>
       <c r="J50" s="78">
-        <v>0</v>
+        <v>234289.3</v>
       </c>
       <c r="K50" s="78">
-        <v>0</v>
+        <v>251912.9</v>
       </c>
       <c r="L50" s="78">
         <v>0</v>
@@ -4493,7 +4507,7 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>633301.89999999991</v>
+        <v>1758084.5</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4510,19 +4524,19 @@
         <v>101695.5</v>
       </c>
       <c r="G51" s="78">
-        <v>0</v>
+        <v>105542</v>
       </c>
       <c r="H51" s="78">
-        <v>0</v>
+        <v>102698.9</v>
       </c>
       <c r="I51" s="78">
-        <v>0</v>
+        <v>104330.8</v>
       </c>
       <c r="J51" s="78">
-        <v>0</v>
+        <v>111004.9</v>
       </c>
       <c r="K51" s="78">
-        <v>0</v>
+        <v>114591.6</v>
       </c>
       <c r="L51" s="78">
         <v>0</v>
@@ -4539,7 +4553,7 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>299013.8</v>
+        <v>837182</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4547,28 +4561,28 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>336233</v>
+        <v>336364.5</v>
       </c>
       <c r="E52" s="78">
-        <v>310324</v>
+        <v>311590.09999999998</v>
       </c>
       <c r="F52" s="78">
-        <v>341457.5</v>
+        <v>331826.3</v>
       </c>
       <c r="G52" s="78">
-        <v>0</v>
+        <v>327864</v>
       </c>
       <c r="H52" s="78">
-        <v>0</v>
+        <v>316785.90000000002</v>
       </c>
       <c r="I52" s="78">
-        <v>0</v>
+        <v>316823.7</v>
       </c>
       <c r="J52" s="78">
-        <v>0</v>
+        <v>326604.2</v>
       </c>
       <c r="K52" s="78">
-        <v>0</v>
+        <v>324705.8</v>
       </c>
       <c r="L52" s="78">
         <v>0</v>
@@ -4585,26 +4599,26 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>988014.5</v>
+        <v>2592564.4999999995</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="107"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4612,28 +4626,28 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11473879.300000001</v>
+        <v>11473724.699999999</v>
       </c>
       <c r="E54" s="83">
-        <v>11193158.300000001</v>
+        <v>11193240.6</v>
       </c>
       <c r="F54" s="83">
-        <v>11510093</v>
+        <v>11562464</v>
       </c>
       <c r="G54" s="83">
-        <v>0</v>
+        <v>11971600.5</v>
       </c>
       <c r="H54" s="83">
-        <v>0</v>
+        <v>11336293.9</v>
       </c>
       <c r="I54" s="83">
-        <v>0</v>
+        <v>9995917.6999999993</v>
       </c>
       <c r="J54" s="83">
-        <v>0</v>
+        <v>9556315.5999999996</v>
       </c>
       <c r="K54" s="83">
-        <v>0</v>
+        <v>9338099.9000000004</v>
       </c>
       <c r="L54" s="83">
         <v>0</v>
@@ -4649,7 +4663,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>11510093</v>
+        <v>9338099.9000000004</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4657,28 +4671,28 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-84051.3</v>
+        <v>-84054.7</v>
       </c>
       <c r="E55" s="78">
-        <v>-27853.4</v>
+        <v>-11039.3</v>
       </c>
       <c r="F55" s="78">
-        <v>-61593</v>
+        <v>-65083.3</v>
       </c>
       <c r="G55" s="78">
-        <v>0</v>
+        <v>-46575.3</v>
       </c>
       <c r="H55" s="78">
-        <v>0</v>
+        <v>-25272.7</v>
       </c>
       <c r="I55" s="78">
-        <v>0</v>
+        <v>-91748.7</v>
       </c>
       <c r="J55" s="78">
-        <v>0</v>
+        <v>-25383</v>
       </c>
       <c r="K55" s="78">
-        <v>0</v>
+        <v>-75431.899999999994</v>
       </c>
       <c r="L55" s="78">
         <v>0</v>
@@ -4695,7 +4709,7 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-173497.7</v>
+        <v>-424588.9</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4721,31 +4735,36 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:F57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22909238.400000002</v>
+        <f t="shared" ref="D57:K57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22908307.800000004</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22676625.199999996</v>
+        <v>22691731.099999998</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
-        <v>23824274.699999999</v>
+        <v>23945457.800000001</v>
       </c>
       <c r="G57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22670739.399999995</v>
       </c>
       <c r="H57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22950129.299999997</v>
       </c>
       <c r="I57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>23872640.000000004</v>
       </c>
       <c r="J57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24281715.100000001</v>
       </c>
       <c r="K57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24037795.900000002</v>
       </c>
       <c r="L57" s="89">
         <v>0</v>
@@ -4762,7 +4781,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>69410138.299999997</v>
+        <v>187358516.40000001</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4787,20 +4806,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="107" t="s">
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4842,7 +4861,7 @@
       <c r="O60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="103"/>
+      <c r="P60" s="102"/>
       <c r="Q60" s="101" t="s">
         <v>127</v>
       </c>
@@ -4900,19 +4919,19 @@
         <v>139.4</v>
       </c>
       <c r="G63" s="90">
-        <v>0</v>
+        <v>6037.1</v>
       </c>
       <c r="H63" s="90">
-        <v>0</v>
+        <v>8250</v>
       </c>
       <c r="I63" s="90">
-        <v>0</v>
+        <v>26492.799999999999</v>
       </c>
       <c r="J63" s="90">
-        <v>0</v>
+        <v>46944.6</v>
       </c>
       <c r="K63" s="90">
-        <v>0</v>
+        <v>29624.7</v>
       </c>
       <c r="L63" s="90">
         <v>0</v>
@@ -4928,8 +4947,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <f t="shared" ref="Q63:Q70" si="5">SUM(D63:O63)</f>
-        <v>1995.9</v>
+        <v>119345.09999999999</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4940,25 +4958,25 @@
         <v>2363322.5</v>
       </c>
       <c r="E64" s="90">
-        <v>2337596</v>
+        <v>2320766.5</v>
       </c>
       <c r="F64" s="90">
-        <v>1538190.7</v>
+        <v>2451048.7999999998</v>
       </c>
       <c r="G64" s="90">
-        <v>0</v>
+        <v>2195637.2999999998</v>
       </c>
       <c r="H64" s="90">
-        <v>0</v>
+        <v>2418312.2000000002</v>
       </c>
       <c r="I64" s="90">
-        <v>0</v>
+        <v>2518903.7000000002</v>
       </c>
       <c r="J64" s="90">
-        <v>0</v>
+        <v>2528214.2999999998</v>
       </c>
       <c r="K64" s="90">
-        <v>0</v>
+        <v>2488965.2999999998</v>
       </c>
       <c r="L64" s="90">
         <v>0</v>
@@ -4974,8 +4992,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <f t="shared" si="5"/>
-        <v>6239109.2000000002</v>
+        <v>19285170.600000001</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4989,22 +5006,22 @@
         <v>12653.9</v>
       </c>
       <c r="F65" s="90">
-        <v>15496.7</v>
+        <v>15518.7</v>
       </c>
       <c r="G65" s="90">
-        <v>0</v>
+        <v>19100.400000000001</v>
       </c>
       <c r="H65" s="90">
-        <v>0</v>
+        <v>14362.4</v>
       </c>
       <c r="I65" s="90">
-        <v>0</v>
+        <v>13415.2</v>
       </c>
       <c r="J65" s="90">
-        <v>0</v>
+        <v>15303.4</v>
       </c>
       <c r="K65" s="90">
-        <v>0</v>
+        <v>12953.6</v>
       </c>
       <c r="L65" s="90">
         <v>0</v>
@@ -5020,8 +5037,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <f t="shared" si="5"/>
-        <v>42711.7</v>
+        <v>117868.7</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5032,25 +5048,25 @@
         <v>29177.7</v>
       </c>
       <c r="E66" s="90">
-        <v>15831.6</v>
+        <v>15735.6</v>
       </c>
       <c r="F66" s="90">
         <v>27199.3</v>
       </c>
       <c r="G66" s="90">
-        <v>0</v>
+        <v>9860.6</v>
       </c>
       <c r="H66" s="90">
-        <v>0</v>
+        <v>14598</v>
       </c>
       <c r="I66" s="90">
-        <v>0</v>
+        <v>6653.4</v>
       </c>
       <c r="J66" s="90">
-        <v>0</v>
+        <v>15820.8</v>
       </c>
       <c r="K66" s="90">
-        <v>0</v>
+        <v>19193.7</v>
       </c>
       <c r="L66" s="90">
         <v>0</v>
@@ -5066,8 +5082,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <f t="shared" si="5"/>
-        <v>72208.600000000006</v>
+        <v>138239.1</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5088,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="90">
-        <v>0</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="I67" s="90">
         <v>0</v>
@@ -5113,8 +5128,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>149.80000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5123,28 +5137,28 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-27126.5</v>
+        <v>-22232.5</v>
       </c>
       <c r="E68" s="90">
-        <v>-12542.2</v>
+        <v>-12254</v>
       </c>
       <c r="F68" s="90">
-        <v>1698.6</v>
+        <v>1333.8</v>
       </c>
       <c r="G68" s="90">
-        <v>0</v>
+        <v>-2695</v>
       </c>
       <c r="H68" s="90">
-        <v>0</v>
+        <v>1664.8</v>
       </c>
       <c r="I68" s="90">
-        <v>0</v>
+        <v>-11435.4</v>
       </c>
       <c r="J68" s="90">
-        <v>0</v>
+        <v>37633</v>
       </c>
       <c r="K68" s="90">
-        <v>0</v>
+        <v>-3777.4</v>
       </c>
       <c r="L68" s="90">
         <v>0</v>
@@ -5160,8 +5174,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <f t="shared" si="5"/>
-        <v>-37970.1</v>
+        <v>-11762.699999999995</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5170,28 +5183,28 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>313080.8</v>
+        <v>312850.09999999998</v>
       </c>
       <c r="E69" s="90">
-        <v>343517.6</v>
+        <v>343173.9</v>
       </c>
       <c r="F69" s="90">
-        <v>406384.2</v>
+        <v>352053.8</v>
       </c>
       <c r="G69" s="90">
-        <v>0</v>
+        <v>303146.59999999998</v>
       </c>
       <c r="H69" s="90">
-        <v>0</v>
+        <v>345442.9</v>
       </c>
       <c r="I69" s="90">
-        <v>0</v>
+        <v>325838.2</v>
       </c>
       <c r="J69" s="90">
-        <v>0</v>
+        <v>303366.5</v>
       </c>
       <c r="K69" s="90">
-        <v>0</v>
+        <v>295615.90000000002</v>
       </c>
       <c r="L69" s="90">
         <v>0</v>
@@ -5207,8 +5220,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <f t="shared" si="5"/>
-        <v>1062982.5999999999</v>
+        <v>2581487.9</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5217,28 +5229,28 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2694030.3000000003</v>
+        <v>2698693.6000000006</v>
       </c>
       <c r="E70" s="90">
-        <v>2697898.6999999997</v>
+        <v>2680917.6999999997</v>
       </c>
       <c r="F70" s="90">
-        <v>1989108.9</v>
+        <v>2847293.7999999993</v>
       </c>
       <c r="G70" s="90">
-        <v>0</v>
+        <v>2531087</v>
       </c>
       <c r="H70" s="90">
-        <v>0</v>
+        <v>2802780.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>0</v>
+        <v>2879867.9000000004</v>
       </c>
       <c r="J70" s="90">
-        <v>0</v>
+        <v>2947282.5999999996</v>
       </c>
       <c r="K70" s="90">
-        <v>0</v>
+        <v>2842575.8000000003</v>
       </c>
       <c r="L70" s="90">
         <v>0</v>
@@ -5254,8 +5266,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <f t="shared" si="5"/>
-        <v>7381037.9000000004</v>
+        <v>22230498.5</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5291,19 +5302,19 @@
         <v>20505244.399999999</v>
       </c>
       <c r="G72" s="78">
-        <v>0</v>
+        <v>19434410.399999999</v>
       </c>
       <c r="H72" s="78">
-        <v>0</v>
+        <v>19356939.399999999</v>
       </c>
       <c r="I72" s="78">
-        <v>0</v>
+        <v>20395883.699999999</v>
       </c>
       <c r="J72" s="78">
-        <v>0</v>
+        <v>20667780.899999999</v>
       </c>
       <c r="K72" s="78">
-        <v>0</v>
+        <v>20978700.199999999</v>
       </c>
       <c r="L72" s="78">
         <v>0</v>
@@ -5319,8 +5330,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <f>SUM(D72:O72)</f>
-        <v>59549016.199999996</v>
+        <v>160382730.79999998</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5338,19 +5348,19 @@
         <v>661459.49677419348</v>
       </c>
       <c r="G73" s="78">
-        <v>0</v>
+        <v>647813.67999999993</v>
       </c>
       <c r="H73" s="78">
-        <v>0</v>
+        <v>624417.39999999991</v>
       </c>
       <c r="I73" s="78">
-        <v>0</v>
+        <v>679862.78999999992</v>
       </c>
       <c r="J73" s="78">
-        <v>0</v>
+        <v>666702.6096774193</v>
       </c>
       <c r="K73" s="78">
-        <v>0</v>
+        <v>676732.26451612904</v>
       </c>
       <c r="L73" s="78">
         <v>0</v>
@@ -5366,8 +5376,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <f>AVERAGE(D73:F73)</f>
-        <v>662621.24731182784</v>
+        <v>660424.06076612906</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5394,31 +5403,36 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f>D57-(D70+D72)</f>
-        <v>535861.10000000149</v>
+        <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
+        <v>530267.20000000298</v>
       </c>
       <c r="E75" s="89">
-        <f>E57-(E70+E72)</f>
-        <v>614301.69999999553</v>
+        <f t="shared" si="5"/>
+        <v>646388.59999999776</v>
       </c>
       <c r="F75" s="89">
-        <f>F57-(F70+F72)</f>
-        <v>1329921.4000000022</v>
+        <f t="shared" si="5"/>
+        <v>592919.60000000149</v>
       </c>
       <c r="G75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>705241.99999999627</v>
       </c>
       <c r="H75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>790409.79999999702</v>
       </c>
       <c r="I75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>596888.40000000224</v>
       </c>
       <c r="J75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>666651.60000000149</v>
       </c>
       <c r="K75" s="89">
-        <v>0</v>
+        <f>K57-(K70+K72)</f>
+        <v>216519.90000000224</v>
       </c>
       <c r="L75" s="89">
         <v>0</v>
@@ -5435,7 +5449,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>2480084.1999999993</v>
+        <v>4745287.1000000015</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5444,31 +5458,36 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:F76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.3390611710601493E-2</v>
+        <f t="shared" ref="D76:K76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.3147375381432706E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>2.7089643832892543E-2</v>
+        <v>2.8485645152035045E-2</v>
       </c>
       <c r="F76" s="94">
         <f t="shared" si="6"/>
-        <v>5.5822114912064971E-2</v>
-      </c>
-      <c r="G76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="J76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="K76" s="95" t="s">
-        <v>128</v>
+        <v>2.4761255556366997E-2</v>
+      </c>
+      <c r="G76" s="94">
+        <f t="shared" si="6"/>
+        <v>3.110802817485505E-2</v>
+      </c>
+      <c r="H76" s="94">
+        <f t="shared" si="6"/>
+        <v>3.4440320124906533E-2</v>
+      </c>
+      <c r="I76" s="94">
+        <f t="shared" si="6"/>
+        <v>2.5003032760515895E-2</v>
+      </c>
+      <c r="J76" s="94">
+        <f t="shared" si="6"/>
+        <v>2.7454881059863906E-2</v>
+      </c>
+      <c r="K76" s="94">
+        <f t="shared" si="6"/>
+        <v>9.0074772620896675E-3</v>
       </c>
       <c r="L76" s="95" t="s">
         <v>128</v>
@@ -5484,8 +5503,8 @@
       </c>
       <c r="P76" s="96"/>
       <c r="Q76" s="96">
-        <f>SUM(D76:O76)</f>
-        <v>0.10630237045555901</v>
+        <f>AVERAGE(D76:K76)</f>
+        <v>2.5426001934008225E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5511,31 +5530,36 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:F78" si="7">(D70+D72)+D75</f>
-        <v>22909238.400000002</v>
+        <f t="shared" ref="D78:K78" si="7">(D70+D72)+D75</f>
+        <v>22908307.800000004</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22676625.199999996</v>
+        <v>22691731.099999998</v>
       </c>
       <c r="F78" s="89">
         <f t="shared" si="7"/>
-        <v>23824274.699999999</v>
+        <v>23945457.800000001</v>
       </c>
       <c r="G78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22670739.399999995</v>
       </c>
       <c r="H78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22950129.299999997</v>
       </c>
       <c r="I78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>23872640.000000004</v>
       </c>
       <c r="J78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24281715.100000001</v>
       </c>
       <c r="K78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24037795.900000002</v>
       </c>
       <c r="L78" s="89">
         <v>0</v>
@@ -5552,7 +5576,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>69410138.299999997</v>
+        <v>187358516.40000001</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116FFA7-C393-40F1-AFFC-8B52D279699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C87332-8C0B-4FCA-96CD-3FC5623EB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  30 September 2024</t>
+    <t xml:space="preserve"> Run Date:  29 October 2024</t>
   </si>
 </sst>
 </file>
@@ -2803,8 +2803,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S79" sqref="S79"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2920,31 +2920,31 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11069630.4</v>
+        <v>11069640.300000001</v>
       </c>
       <c r="E7" s="16">
-        <v>11473724.699999999</v>
+        <v>11473732.4</v>
       </c>
       <c r="F7" s="16">
-        <v>11193240.6</v>
+        <v>11193247.1</v>
       </c>
       <c r="G7" s="16">
-        <v>11562464</v>
+        <v>11562469.6</v>
       </c>
       <c r="H7" s="16">
-        <v>11971523.9</v>
+        <v>11974216.4</v>
       </c>
       <c r="I7" s="16">
-        <v>11336293.9</v>
+        <v>11336654.1</v>
       </c>
       <c r="J7" s="16">
-        <v>9995917.6999999993</v>
+        <v>9995908.3000000007</v>
       </c>
       <c r="K7" s="16">
-        <v>9556127.4000000004</v>
+        <v>9556332.9000000004</v>
       </c>
       <c r="L7" s="16">
-        <v>0</v>
+        <v>9338469</v>
       </c>
       <c r="M7" s="16">
         <v>0</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11069630.4</v>
+        <v>11069640.300000001</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3021,31 +3021,31 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1399010.7</v>
+        <v>1397146.9</v>
       </c>
       <c r="E11" s="16">
-        <v>1375787.1</v>
+        <v>1372466.2</v>
       </c>
       <c r="F11" s="16">
-        <v>1527906.6</v>
+        <v>1522979.7</v>
       </c>
       <c r="G11" s="16">
-        <v>1505743.9</v>
+        <v>1499538.9</v>
       </c>
       <c r="H11" s="16">
-        <v>1533268.2</v>
+        <v>1523765.6</v>
       </c>
       <c r="I11" s="16">
-        <v>1442404.9</v>
+        <v>1430254.9</v>
       </c>
       <c r="J11" s="16">
-        <v>1490609.9</v>
+        <v>1479224.2</v>
       </c>
       <c r="K11" s="16">
-        <v>1532941.2</v>
+        <v>1523199.5</v>
       </c>
       <c r="L11" s="16">
-        <v>0</v>
+        <v>1458683.6</v>
       </c>
       <c r="M11" s="16">
         <v>0</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>11807672.5</v>
+        <v>13207259.499999998</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3067,31 +3067,31 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>377186.1</v>
+        <v>378121.6</v>
       </c>
       <c r="E12" s="16">
-        <v>372372.7</v>
+        <v>374020.3</v>
       </c>
       <c r="F12" s="16">
-        <v>401620.5</v>
+        <v>403213</v>
       </c>
       <c r="G12" s="16">
-        <v>380551.3</v>
+        <v>383108.4</v>
       </c>
       <c r="H12" s="16">
-        <v>374781.6</v>
+        <v>378659.7</v>
       </c>
       <c r="I12" s="16">
-        <v>346997.1</v>
+        <v>350605.7</v>
       </c>
       <c r="J12" s="16">
-        <v>359770.7</v>
+        <v>363384.6</v>
       </c>
       <c r="K12" s="16">
-        <v>356711.3</v>
+        <v>360284</v>
       </c>
       <c r="L12" s="16">
-        <v>0</v>
+        <v>336352.5</v>
       </c>
       <c r="M12" s="16">
         <v>0</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>2969991.3000000003</v>
+        <v>3327749.8</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3112,31 +3112,31 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>168019.7</v>
+        <v>169376.7</v>
       </c>
       <c r="E13" s="16">
-        <v>165893.70000000001</v>
+        <v>167371.5</v>
       </c>
       <c r="F13" s="16">
-        <v>171956.5</v>
+        <v>173848.2</v>
       </c>
       <c r="G13" s="16">
-        <v>164094.5</v>
+        <v>165525</v>
       </c>
       <c r="H13" s="16">
-        <v>165110</v>
+        <v>166536.70000000001</v>
       </c>
       <c r="I13" s="16">
-        <v>155451.79999999999</v>
+        <v>157420.70000000001</v>
       </c>
       <c r="J13" s="16">
-        <v>159288.6</v>
+        <v>161583.70000000001</v>
       </c>
       <c r="K13" s="16">
-        <v>162374.1</v>
+        <v>164560.29999999999</v>
       </c>
       <c r="L13" s="16">
-        <v>0</v>
+        <v>156184.70000000001</v>
       </c>
       <c r="M13" s="16">
         <v>0</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1312188.9000000001</v>
+        <v>1482407.5</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3157,31 +3157,31 @@
         <v>122</v>
       </c>
       <c r="D14" s="98">
-        <v>557222.19999999995</v>
+        <v>556793.5</v>
       </c>
       <c r="E14" s="76">
-        <v>550624.1</v>
+        <v>550819.6</v>
       </c>
       <c r="F14" s="76">
-        <v>595486.4</v>
+        <v>596929.1</v>
       </c>
       <c r="G14" s="75">
-        <v>543793.19999999995</v>
+        <v>546010.6</v>
       </c>
       <c r="H14" s="75">
-        <v>580012</v>
+        <v>584559.80000000005</v>
       </c>
       <c r="I14" s="75">
-        <v>576238.69999999995</v>
+        <v>582441.4</v>
       </c>
       <c r="J14" s="75">
-        <v>576066</v>
+        <v>581577.30000000005</v>
       </c>
       <c r="K14" s="75">
-        <v>580166.69999999995</v>
+        <v>583747.5</v>
       </c>
       <c r="L14" s="75">
-        <v>0</v>
+        <v>560201.6</v>
       </c>
       <c r="M14" s="75">
         <v>0</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="98">
-        <v>4559609.3</v>
+        <v>5143080.4000000004</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3202,7 +3202,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2501438.6999999997</v>
+        <v>2501438.7000000002</v>
       </c>
       <c r="E15" s="16">
         <v>2464677.6</v>
@@ -3214,19 +3214,19 @@
         <v>2594182.9</v>
       </c>
       <c r="H15" s="16">
-        <v>2653171.7999999998</v>
+        <v>2653521.7999999998</v>
       </c>
       <c r="I15" s="16">
-        <v>2521092.5</v>
+        <v>2520722.6999999997</v>
       </c>
       <c r="J15" s="16">
-        <v>2585735.2000000002</v>
+        <v>2585769.7999999998</v>
       </c>
       <c r="K15" s="16">
-        <v>2632193.2999999998</v>
+        <v>2631791.2999999998</v>
       </c>
       <c r="L15" s="16">
-        <v>0</v>
+        <v>2511422.4</v>
       </c>
       <c r="M15" s="16">
         <v>0</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>20649462</v>
+        <v>23160497.199999996</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3264,31 +3264,31 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>342096</v>
+        <v>342093.8</v>
       </c>
       <c r="E17" s="16">
-        <v>350064.2</v>
+        <v>350063</v>
       </c>
       <c r="F17" s="16">
-        <v>369077</v>
+        <v>369076.1</v>
       </c>
       <c r="G17" s="16">
         <v>358855.5</v>
       </c>
       <c r="H17" s="16">
-        <v>373644.9</v>
+        <v>373649.5</v>
       </c>
       <c r="I17" s="16">
-        <v>382128.2</v>
+        <v>382128.5</v>
       </c>
       <c r="J17" s="16">
-        <v>417673.1</v>
+        <v>417674.3</v>
       </c>
       <c r="K17" s="16">
-        <v>465252.4</v>
+        <v>465253.3</v>
       </c>
       <c r="L17" s="16">
-        <v>0</v>
+        <v>447000.3</v>
       </c>
       <c r="M17" s="16">
         <v>0</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>3058791.3000000003</v>
+        <v>3505794.2999999993</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3374,22 +3374,22 @@
         <v>9147905</v>
       </c>
       <c r="G21" s="16">
-        <v>8753040.4000000004</v>
+        <v>8755727.3000000007</v>
       </c>
       <c r="H21" s="16">
-        <v>9031221.3000000007</v>
+        <v>9028534.4000000004</v>
       </c>
       <c r="I21" s="16">
-        <v>8967800.4000000004</v>
+        <v>8967800.3000000007</v>
       </c>
       <c r="J21" s="16">
-        <v>8996793.9000000004</v>
+        <v>8996810.1999999993</v>
       </c>
       <c r="K21" s="16">
-        <v>8695778</v>
+        <v>8696007.5999999996</v>
       </c>
       <c r="L21" s="16">
-        <v>0</v>
+        <v>8089751</v>
       </c>
       <c r="M21" s="16">
         <v>0</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>71123422.799999997</v>
+        <v>79213419.599999994</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3435,7 +3435,7 @@
         <v>9179551.0999999996</v>
       </c>
       <c r="L22" s="16">
-        <v>0</v>
+        <v>8216111.5</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>64922231.199999996</v>
+        <v>73138342.699999988</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3481,7 +3481,7 @@
         <v>-7828106.7000000002</v>
       </c>
       <c r="L23" s="16">
-        <v>0</v>
+        <v>-6799572.9000000004</v>
       </c>
       <c r="M23" s="16">
         <v>0</v>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-56292164.700000003</v>
+        <v>-63091737.600000001</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3512,22 +3512,22 @@
         <v>10461859.5</v>
       </c>
       <c r="G24" s="16">
-        <v>9910571.6999999993</v>
+        <v>9913258.6000000015</v>
       </c>
       <c r="H24" s="16">
-        <v>10080356.9</v>
+        <v>10077670</v>
       </c>
       <c r="I24" s="16">
-        <v>9974282.6000000015</v>
+        <v>9974282.5</v>
       </c>
       <c r="J24" s="16">
-        <v>10196652.100000003</v>
+        <v>10196668.4</v>
       </c>
       <c r="K24" s="16">
-        <v>10047222.400000002</v>
+        <v>10047452</v>
       </c>
       <c r="L24" s="16">
-        <v>0</v>
+        <v>9506289.5999999996</v>
       </c>
       <c r="M24" s="16">
         <v>0</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>79753489.299999997</v>
+        <v>89260024.699999988</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3572,7 +3572,7 @@
         <v>6782035.7999999998</v>
       </c>
       <c r="L25" s="42">
-        <v>0</v>
+        <v>5750142</v>
       </c>
       <c r="M25" s="42">
         <v>0</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="100">
-        <v>48528623.79999999</v>
+        <v>54278765.79999999</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3602,22 +3602,22 @@
         <v>16842802.600000001</v>
       </c>
       <c r="G26" s="16">
-        <v>15771715.399999999</v>
+        <v>15774402.300000001</v>
       </c>
       <c r="H26" s="16">
-        <v>15121339</v>
+        <v>15118652.1</v>
       </c>
       <c r="I26" s="16">
-        <v>15641385.200000001</v>
+        <v>15641385.1</v>
       </c>
       <c r="J26" s="16">
-        <v>16734490.900000002</v>
+        <v>16734507.199999999</v>
       </c>
       <c r="K26" s="16">
-        <v>16829258.200000003</v>
+        <v>16829487.800000001</v>
       </c>
       <c r="L26" s="16">
-        <v>0</v>
+        <v>15256431.6</v>
       </c>
       <c r="M26" s="16">
         <v>0</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>128282113.09999999</v>
+        <v>143538790.49999997</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3656,31 +3656,31 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18765870.900000002</v>
+        <v>18765868.700000003</v>
       </c>
       <c r="E28" s="16">
-        <v>18233527.399999999</v>
+        <v>18233526.199999999</v>
       </c>
       <c r="F28" s="16">
-        <v>19908849.600000001</v>
+        <v>19908848.700000003</v>
       </c>
       <c r="G28" s="16">
-        <v>18724753.799999997</v>
+        <v>18727440.699999999</v>
       </c>
       <c r="H28" s="16">
-        <v>18148155.699999999</v>
+        <v>18145823.399999999</v>
       </c>
       <c r="I28" s="16">
-        <v>18544605.900000002</v>
+        <v>18544236.300000001</v>
       </c>
       <c r="J28" s="16">
-        <v>19737899.200000003</v>
+        <v>19737951.300000001</v>
       </c>
       <c r="K28" s="16">
-        <v>19926703.900000002</v>
+        <v>19926532.400000002</v>
       </c>
       <c r="L28" s="16">
-        <v>0</v>
+        <v>18214854.300000001</v>
       </c>
       <c r="M28" s="16">
         <v>0</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>151990366.40000001</v>
+        <v>170205081.99999997</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3755,13 +3755,13 @@
         <v>1075107.6000000001</v>
       </c>
       <c r="J31" s="16">
-        <v>1114238.1000000001</v>
+        <v>1117475.3</v>
       </c>
       <c r="K31" s="16">
-        <v>1147952.5</v>
+        <v>1147708.7</v>
       </c>
       <c r="L31" s="16">
-        <v>0</v>
+        <v>1052176.6000000001</v>
       </c>
       <c r="M31" s="16">
         <v>0</v>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>8895807.8999999985</v>
+        <v>9950977.8999999985</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3800,13 +3800,13 @@
         <v>359402.4</v>
       </c>
       <c r="J32" s="16">
-        <v>352381.3</v>
+        <v>349445.4</v>
       </c>
       <c r="K32" s="16">
         <v>404487.9</v>
       </c>
       <c r="L32" s="16">
-        <v>0</v>
+        <v>302999</v>
       </c>
       <c r="M32" s="16">
         <v>0</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>2871171.3999999994</v>
+        <v>3171234.4999999995</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3863,13 +3863,13 @@
         <v>9226.9</v>
       </c>
       <c r="J34" s="16">
-        <v>9404.7999999999993</v>
+        <v>9402</v>
       </c>
       <c r="K34" s="16">
-        <v>8987.5</v>
+        <v>9059</v>
       </c>
       <c r="L34" s="16">
-        <v>0</v>
+        <v>8950</v>
       </c>
       <c r="M34" s="16">
         <v>0</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>78307.599999999991</v>
+        <v>87326.299999999988</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3915,7 +3915,7 @@
         <v>9965.7999999999993</v>
       </c>
       <c r="L35" s="16">
-        <v>0</v>
+        <v>8618.6</v>
       </c>
       <c r="M35" s="16">
         <v>0</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>81463.700000000012</v>
+        <v>90082.300000000017</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3955,13 +3955,13 @@
         <v>402996</v>
       </c>
       <c r="J36" s="16">
-        <v>381287.7</v>
+        <v>381291.6</v>
       </c>
       <c r="K36" s="16">
-        <v>357288</v>
+        <v>357376.8</v>
       </c>
       <c r="L36" s="16">
-        <v>0</v>
+        <v>334335.5</v>
       </c>
       <c r="M36" s="16">
         <v>0</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>3612939.8000000003</v>
+        <v>3947368</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4022,10 +4022,10 @@
         <v>252370.4</v>
       </c>
       <c r="K38" s="16">
-        <v>256890.3</v>
+        <v>257247.3</v>
       </c>
       <c r="L38" s="16">
-        <v>0</v>
+        <v>248470.9</v>
       </c>
       <c r="M38" s="16">
         <v>0</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>2134493.5</v>
+        <v>2383321.4</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4068,7 +4068,7 @@
         <v>10.4</v>
       </c>
       <c r="K39" s="16">
-        <v>65.599999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="L39" s="16">
         <v>0</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>222.8</v>
+        <v>222.40000000000003</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4155,7 +4155,7 @@
         <v>461349.9</v>
       </c>
       <c r="L42" s="78">
-        <v>0</v>
+        <v>398956</v>
       </c>
       <c r="M42" s="78">
         <v>0</v>
@@ -4168,7 +4168,8 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>3719289.9</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>4118245.9</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4209,7 +4210,8 @@
         <v>797217.10000000009</v>
       </c>
       <c r="L43" s="78">
-        <v>0</v>
+        <f>473237.3+493795.2</f>
+        <v>967032.5</v>
       </c>
       <c r="M43" s="78">
         <v>0</v>
@@ -4222,8 +4224,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f>SUM(D43:O43)</f>
-        <v>8786519.6000000015</v>
+        <f t="shared" si="0"/>
+        <v>9753552.1000000015</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4256,7 +4258,7 @@
         <v>890768.3</v>
       </c>
       <c r="L44" s="78">
-        <v>0</v>
+        <v>815396</v>
       </c>
       <c r="M44" s="78">
         <v>0</v>
@@ -4269,8 +4271,8 @@
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <f t="shared" ref="Q44:Q47" si="0">SUM(D44:O44)</f>
-        <v>7385365.1000000006</v>
+        <f t="shared" si="0"/>
+        <v>8200761.1000000006</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4303,7 +4305,7 @@
         <v>324733.8</v>
       </c>
       <c r="L45" s="80">
-        <v>0</v>
+        <v>312188.90000000002</v>
       </c>
       <c r="M45" s="80">
         <v>0</v>
@@ -4317,7 +4319,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>1683722.9</v>
+        <v>1995911.7999999998</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4358,7 +4360,8 @@
         <v>2474069.0999999996</v>
       </c>
       <c r="L46" s="89">
-        <v>0</v>
+        <f>SUM(L42:L45)</f>
+        <v>2493573.4</v>
       </c>
       <c r="M46" s="89">
         <v>0</v>
@@ -4371,8 +4374,8 @@
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <f>SUM(D46:O46)</f>
-        <v>21574897.5</v>
+        <f t="shared" si="0"/>
+        <v>24068470.899999999</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4423,14 +4426,15 @@
       </c>
       <c r="J48" s="89">
         <f t="shared" si="2"/>
-        <v>4801495.1999999993</v>
+        <v>4801797.5999999996</v>
       </c>
       <c r="K48" s="89">
         <f>K31+K32+K34+K35+K36+K38+K39+K46</f>
-        <v>4659706.6999999993</v>
+        <v>4659979.8</v>
       </c>
       <c r="L48" s="89">
-        <v>0</v>
+        <f>L31+L32+L34+L35+L36+L38+L39+L46</f>
+        <v>4449124</v>
       </c>
       <c r="M48" s="89">
         <v>0</v>
@@ -4444,7 +4448,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>39249304.200000003</v>
+        <v>43699003.699999996</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4493,7 +4497,7 @@
         <v>251912.9</v>
       </c>
       <c r="L50" s="78">
-        <v>0</v>
+        <v>209762.8</v>
       </c>
       <c r="M50" s="78">
         <v>0</v>
@@ -4507,7 +4511,7 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>1758084.5</v>
+        <v>1967847.3</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4539,7 +4543,7 @@
         <v>114591.6</v>
       </c>
       <c r="L51" s="78">
-        <v>0</v>
+        <v>109548.2</v>
       </c>
       <c r="M51" s="78">
         <v>0</v>
@@ -4553,7 +4557,7 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>837182</v>
+        <v>946730.2</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4579,13 +4583,13 @@
         <v>316823.7</v>
       </c>
       <c r="J52" s="78">
-        <v>326604.2</v>
+        <v>327273.3</v>
       </c>
       <c r="K52" s="78">
-        <v>324705.8</v>
+        <v>324655.40000000002</v>
       </c>
       <c r="L52" s="78">
-        <v>0</v>
+        <v>296855</v>
       </c>
       <c r="M52" s="78">
         <v>0</v>
@@ -4599,7 +4603,7 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>2592564.4999999995</v>
+        <v>2890038.1999999997</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
@@ -4626,31 +4630,31 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11473724.699999999</v>
+        <v>11473732.4</v>
       </c>
       <c r="E54" s="83">
-        <v>11193240.6</v>
+        <v>11193247.1</v>
       </c>
       <c r="F54" s="83">
-        <v>11562464</v>
+        <v>11562469.6</v>
       </c>
       <c r="G54" s="83">
-        <v>11971600.5</v>
+        <v>11974293</v>
       </c>
       <c r="H54" s="83">
-        <v>11336293.9</v>
+        <v>11336654.1</v>
       </c>
       <c r="I54" s="83">
-        <v>9995917.6999999993</v>
+        <v>9995908.3000000007</v>
       </c>
       <c r="J54" s="83">
-        <v>9556315.5999999996</v>
+        <v>9556358.3000000007</v>
       </c>
       <c r="K54" s="83">
-        <v>9338099.9000000004</v>
+        <v>9339246.4000000004</v>
       </c>
       <c r="L54" s="83">
-        <v>0</v>
+        <v>8823440.1999999993</v>
       </c>
       <c r="M54" s="83">
         <v>0</v>
@@ -4663,7 +4667,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9338099.9000000004</v>
+        <v>8823440.1999999993</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4677,25 +4681,25 @@
         <v>-11039.3</v>
       </c>
       <c r="F55" s="78">
-        <v>-65083.3</v>
+        <v>-64840.3</v>
       </c>
       <c r="G55" s="78">
-        <v>-46575.3</v>
+        <v>-46445.9</v>
       </c>
       <c r="H55" s="78">
-        <v>-25272.7</v>
+        <v>-25071.7</v>
       </c>
       <c r="I55" s="78">
-        <v>-91748.7</v>
+        <v>-91735.5</v>
       </c>
       <c r="J55" s="78">
-        <v>-25383</v>
+        <v>-25394.9</v>
       </c>
       <c r="K55" s="78">
-        <v>-75431.899999999994</v>
+        <v>-74360.7</v>
       </c>
       <c r="L55" s="78">
-        <v>0</v>
+        <v>-46196.4</v>
       </c>
       <c r="M55" s="78">
         <v>0</v>
@@ -4709,7 +4713,7 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-424588.9</v>
+        <v>-469139.40000000008</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4735,39 +4739,40 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:K57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <f t="shared" ref="D57:L57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
         <v>22908307.800000004</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22691731.099999998</v>
+        <v>22691731.100000001</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
-        <v>23945457.800000001</v>
+        <v>23945700.800000001</v>
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22670739.399999995</v>
+        <v>22670868.799999997</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22950129.299999997</v>
+        <v>22950330.299999997</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
-        <v>23872640.000000004</v>
+        <v>23872653.199999996</v>
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>24281715.100000001</v>
+        <v>24281336.5</v>
       </c>
       <c r="K57" s="89">
         <f t="shared" si="4"/>
-        <v>24037795.900000002</v>
+        <v>24038078.100000005</v>
       </c>
       <c r="L57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22516644.700000003</v>
       </c>
       <c r="M57" s="89">
         <v>0</v>
@@ -4781,7 +4786,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>187358516.40000001</v>
+        <v>209875651.30000001</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4934,7 +4939,7 @@
         <v>29624.7</v>
       </c>
       <c r="L63" s="90">
-        <v>0</v>
+        <v>37391.599999999999</v>
       </c>
       <c r="M63" s="90">
         <v>0</v>
@@ -4947,7 +4952,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>119345.09999999999</v>
+        <v>156736.69999999998</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4979,7 +4984,7 @@
         <v>2488965.2999999998</v>
       </c>
       <c r="L64" s="90">
-        <v>0</v>
+        <v>2202255.4</v>
       </c>
       <c r="M64" s="90">
         <v>0</v>
@@ -4992,7 +4997,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>19285170.600000001</v>
+        <v>21487426</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5006,25 +5011,25 @@
         <v>12653.9</v>
       </c>
       <c r="F65" s="90">
-        <v>15518.7</v>
+        <v>15761.7</v>
       </c>
       <c r="G65" s="90">
-        <v>19100.400000000001</v>
+        <v>19229.8</v>
       </c>
       <c r="H65" s="90">
-        <v>14362.4</v>
+        <v>14563.4</v>
       </c>
       <c r="I65" s="90">
-        <v>13415.2</v>
+        <v>13428.4</v>
       </c>
       <c r="J65" s="90">
-        <v>15303.4</v>
+        <v>15598.4</v>
       </c>
       <c r="K65" s="90">
-        <v>12953.6</v>
+        <v>13148.4</v>
       </c>
       <c r="L65" s="90">
-        <v>0</v>
+        <v>12454.9</v>
       </c>
       <c r="M65" s="90">
         <v>0</v>
@@ -5037,7 +5042,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>117868.7</v>
+        <v>131399.99999999997</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5069,7 +5074,7 @@
         <v>19193.7</v>
       </c>
       <c r="L66" s="90">
-        <v>0</v>
+        <v>5052.3999999999996</v>
       </c>
       <c r="M66" s="90">
         <v>0</v>
@@ -5082,7 +5087,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>138239.1</v>
+        <v>143291.5</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5115,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="90">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="M67" s="90">
         <v>0</v>
@@ -5128,7 +5133,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>149.80000000000001</v>
+        <v>172.3</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5158,10 +5163,10 @@
         <v>37633</v>
       </c>
       <c r="K68" s="90">
-        <v>-3777.4</v>
+        <v>-3767.4</v>
       </c>
       <c r="L68" s="90">
-        <v>0</v>
+        <v>14884.8</v>
       </c>
       <c r="M68" s="90">
         <v>0</v>
@@ -5174,7 +5179,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-11762.699999999995</v>
+        <v>3132.100000000004</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5201,13 +5206,13 @@
         <v>325838.2</v>
       </c>
       <c r="J69" s="90">
-        <v>303366.5</v>
+        <v>303362</v>
       </c>
       <c r="K69" s="90">
-        <v>295615.90000000002</v>
+        <v>295664.90000000002</v>
       </c>
       <c r="L69" s="90">
-        <v>0</v>
+        <v>331176.5</v>
       </c>
       <c r="M69" s="90">
         <v>0</v>
@@ -5220,7 +5225,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>2581487.9</v>
+        <v>2912708.9</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5235,25 +5240,25 @@
         <v>2680917.6999999997</v>
       </c>
       <c r="F70" s="90">
-        <v>2847293.7999999993</v>
+        <v>2847536.7999999993</v>
       </c>
       <c r="G70" s="90">
-        <v>2531087</v>
+        <v>2531216.4</v>
       </c>
       <c r="H70" s="90">
-        <v>2802780.0999999996</v>
+        <v>2802981.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>2879867.9000000004</v>
+        <v>2879881.1</v>
       </c>
       <c r="J70" s="90">
-        <v>2947282.5999999996</v>
+        <v>2947573.0999999996</v>
       </c>
       <c r="K70" s="90">
-        <v>2842575.8000000003</v>
+        <v>2842829.6</v>
       </c>
       <c r="L70" s="90">
-        <v>0</v>
+        <v>2603238.0999999996</v>
       </c>
       <c r="M70" s="90">
         <v>0</v>
@@ -5266,7 +5271,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>22230498.5</v>
+        <v>24834867.5</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5314,10 +5319,10 @@
         <v>20667780.899999999</v>
       </c>
       <c r="K72" s="78">
-        <v>20978700.199999999</v>
+        <v>20978759.199999999</v>
       </c>
       <c r="L72" s="78">
-        <v>0</v>
+        <v>19539930.199999999</v>
       </c>
       <c r="M72" s="78">
         <v>0</v>
@@ -5330,7 +5335,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>160382730.79999998</v>
+        <v>179922719.99999997</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5360,10 +5365,10 @@
         <v>666702.6096774193</v>
       </c>
       <c r="K73" s="78">
-        <v>676732.26451612904</v>
+        <v>676734.16774193547</v>
       </c>
       <c r="L73" s="78">
-        <v>0</v>
+        <v>651331.0066666666</v>
       </c>
       <c r="M73" s="78">
         <v>0</v>
@@ -5376,7 +5381,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>660424.06076612906</v>
+        <v>659413.93289127841</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5408,7 +5413,7 @@
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>646388.59999999776</v>
+        <v>646388.60000000149</v>
       </c>
       <c r="F75" s="89">
         <f t="shared" si="5"/>
@@ -5416,7 +5421,7 @@
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>705241.99999999627</v>
+        <v>705242</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
@@ -5424,18 +5429,19 @@
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
-        <v>596888.40000000224</v>
+        <v>596888.39999999478</v>
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>666651.60000000149</v>
+        <v>665982.5</v>
       </c>
       <c r="K75" s="89">
         <f>K57-(K70+K72)</f>
-        <v>216519.90000000224</v>
+        <v>216489.30000000447</v>
       </c>
       <c r="L75" s="89">
-        <v>0</v>
+        <f>L57-(L70+L72)</f>
+        <v>373476.40000000596</v>
       </c>
       <c r="M75" s="89">
         <v>0</v>
@@ -5449,7 +5455,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>4745287.1000000015</v>
+        <v>5118063.8000000082</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5458,39 +5464,40 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:K76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <f t="shared" ref="D76:L76" si="6">IF(D57&gt;0,D75/D57,"")</f>
         <v>2.3147375381432706E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>2.8485645152035045E-2</v>
+        <v>2.8485645152035204E-2</v>
       </c>
       <c r="F76" s="94">
         <f t="shared" si="6"/>
-        <v>2.4761255556366997E-2</v>
+        <v>2.4761004280150427E-2</v>
       </c>
       <c r="G76" s="94">
         <f t="shared" si="6"/>
-        <v>3.110802817485505E-2</v>
+        <v>3.1107850617529052E-2</v>
       </c>
       <c r="H76" s="94">
         <f t="shared" si="6"/>
-        <v>3.4440320124906533E-2</v>
+        <v>3.4440018495071383E-2</v>
       </c>
       <c r="I76" s="94">
         <f t="shared" si="6"/>
-        <v>2.5003032760515895E-2</v>
+        <v>2.5003018935490375E-2</v>
       </c>
       <c r="J76" s="94">
         <f t="shared" si="6"/>
-        <v>2.7454881059863906E-2</v>
+        <v>2.7427752998686872E-2</v>
       </c>
       <c r="K76" s="94">
         <f t="shared" si="6"/>
-        <v>9.0074772620896675E-3</v>
-      </c>
-      <c r="L76" s="95" t="s">
-        <v>128</v>
+        <v>9.0060985366381859E-3</v>
+      </c>
+      <c r="L76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.6586680874349183E-2</v>
       </c>
       <c r="M76" s="95" t="s">
         <v>128</v>
@@ -5503,8 +5510,8 @@
       </c>
       <c r="P76" s="96"/>
       <c r="Q76" s="96">
-        <f>AVERAGE(D76:K76)</f>
-        <v>2.5426001934008225E-2</v>
+        <f>AVERAGE(D76:O76)</f>
+        <v>2.444060503015371E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5530,39 +5537,40 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:K78" si="7">(D70+D72)+D75</f>
+        <f t="shared" ref="D78:L78" si="7">(D70+D72)+D75</f>
         <v>22908307.800000004</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22691731.099999998</v>
+        <v>22691731.100000001</v>
       </c>
       <c r="F78" s="89">
         <f t="shared" si="7"/>
-        <v>23945457.800000001</v>
+        <v>23945700.800000001</v>
       </c>
       <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>22670739.399999995</v>
+        <v>22670868.799999997</v>
       </c>
       <c r="H78" s="89">
         <f t="shared" si="7"/>
-        <v>22950129.299999997</v>
+        <v>22950330.299999997</v>
       </c>
       <c r="I78" s="89">
         <f t="shared" si="7"/>
-        <v>23872640.000000004</v>
+        <v>23872653.199999996</v>
       </c>
       <c r="J78" s="89">
         <f t="shared" si="7"/>
-        <v>24281715.100000001</v>
+        <v>24281336.5</v>
       </c>
       <c r="K78" s="89">
         <f t="shared" si="7"/>
-        <v>24037795.900000002</v>
+        <v>24038078.100000005</v>
       </c>
       <c r="L78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22516644.700000003</v>
       </c>
       <c r="M78" s="89">
         <v>0</v>
@@ -5576,7 +5584,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>187358516.40000001</v>
+        <v>209875651.30000001</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C87332-8C0B-4FCA-96CD-3FC5623EB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9FB3A-B76D-44DD-9028-C1426588A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19215" yWindow="390" windowWidth="19230" windowHeight="20610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 October 2024</t>
+    <t xml:space="preserve"> Run Date:  28 November 2024</t>
   </si>
 </sst>
 </file>
@@ -1055,18 +1055,18 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1629,11 +1629,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2803,9 +2803,7 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2834,11 +2832,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2920,34 +2918,34 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11069640.300000001</v>
+        <v>11069615.800000001</v>
       </c>
       <c r="E7" s="16">
-        <v>11473732.4</v>
+        <v>11473628.699999999</v>
       </c>
       <c r="F7" s="16">
-        <v>11193247.1</v>
+        <v>11193143.4</v>
       </c>
       <c r="G7" s="16">
-        <v>11562469.6</v>
+        <v>11564623.800000001</v>
       </c>
       <c r="H7" s="16">
-        <v>11974216.4</v>
+        <v>11974097.800000001</v>
       </c>
       <c r="I7" s="16">
-        <v>11336654.1</v>
+        <v>11336755.4</v>
       </c>
       <c r="J7" s="16">
-        <v>9995908.3000000007</v>
+        <v>9996117</v>
       </c>
       <c r="K7" s="16">
-        <v>9556332.9000000004</v>
+        <v>9556647.6999999993</v>
       </c>
       <c r="L7" s="16">
-        <v>9338469</v>
+        <v>9339342.8000000007</v>
       </c>
       <c r="M7" s="16">
-        <v>0</v>
+        <v>8812857.8000000007</v>
       </c>
       <c r="N7" s="16">
         <v>0</v>
@@ -2957,7 +2955,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11069640.300000001</v>
+        <v>11069615.800000001</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3021,34 +3019,34 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1397146.9</v>
+        <v>1395495</v>
       </c>
       <c r="E11" s="16">
-        <v>1372466.2</v>
+        <v>1371023.8</v>
       </c>
       <c r="F11" s="16">
-        <v>1522979.7</v>
+        <v>1519289.2</v>
       </c>
       <c r="G11" s="16">
-        <v>1499538.9</v>
+        <v>1491409</v>
       </c>
       <c r="H11" s="16">
-        <v>1523765.6</v>
+        <v>1511789.7</v>
       </c>
       <c r="I11" s="16">
-        <v>1430254.9</v>
+        <v>1414710</v>
       </c>
       <c r="J11" s="16">
-        <v>1479224.2</v>
+        <v>1461900.7</v>
       </c>
       <c r="K11" s="16">
-        <v>1523199.5</v>
+        <v>1507688.2</v>
       </c>
       <c r="L11" s="16">
-        <v>1458683.6</v>
+        <v>1446086.7</v>
       </c>
       <c r="M11" s="16">
-        <v>0</v>
+        <v>1580533.7</v>
       </c>
       <c r="N11" s="16">
         <v>0</v>
@@ -3058,7 +3056,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>13207259.499999998</v>
+        <v>14699925.999999996</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3067,34 +3065,34 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>378121.6</v>
+        <v>378139.6</v>
       </c>
       <c r="E12" s="16">
-        <v>374020.3</v>
+        <v>374038.7</v>
       </c>
       <c r="F12" s="16">
-        <v>403213</v>
+        <v>403269.4</v>
       </c>
       <c r="G12" s="16">
-        <v>383108.4</v>
+        <v>383621.3</v>
       </c>
       <c r="H12" s="16">
-        <v>378659.7</v>
+        <v>380166.6</v>
       </c>
       <c r="I12" s="16">
-        <v>350605.7</v>
+        <v>351869.1</v>
       </c>
       <c r="J12" s="16">
-        <v>363384.6</v>
+        <v>364664.9</v>
       </c>
       <c r="K12" s="16">
-        <v>360284</v>
+        <v>360561.3</v>
       </c>
       <c r="L12" s="16">
-        <v>336352.5</v>
+        <v>336442.8</v>
       </c>
       <c r="M12" s="16">
-        <v>0</v>
+        <v>345080.4</v>
       </c>
       <c r="N12" s="16">
         <v>0</v>
@@ -3104,7 +3102,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>3327749.8</v>
+        <v>3677854.0999999996</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3118,28 +3116,28 @@
         <v>167371.5</v>
       </c>
       <c r="F13" s="16">
-        <v>173848.2</v>
+        <v>173879.5</v>
       </c>
       <c r="G13" s="16">
-        <v>165525</v>
+        <v>165676.5</v>
       </c>
       <c r="H13" s="16">
-        <v>166536.70000000001</v>
+        <v>167912</v>
       </c>
       <c r="I13" s="16">
-        <v>157420.70000000001</v>
+        <v>162470.5</v>
       </c>
       <c r="J13" s="16">
-        <v>161583.70000000001</v>
+        <v>167171.20000000001</v>
       </c>
       <c r="K13" s="16">
-        <v>164560.29999999999</v>
+        <v>170517</v>
       </c>
       <c r="L13" s="16">
-        <v>156184.70000000001</v>
+        <v>161109.70000000001</v>
       </c>
       <c r="M13" s="16">
-        <v>0</v>
+        <v>171698.8</v>
       </c>
       <c r="N13" s="16">
         <v>0</v>
@@ -3149,7 +3147,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1482407.5</v>
+        <v>1677183.4</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3157,34 +3155,34 @@
         <v>122</v>
       </c>
       <c r="D14" s="98">
-        <v>556793.5</v>
+        <v>557655</v>
       </c>
       <c r="E14" s="76">
-        <v>550819.6</v>
+        <v>551608.80000000005</v>
       </c>
       <c r="F14" s="76">
-        <v>596929.1</v>
+        <v>599845.19999999995</v>
       </c>
       <c r="G14" s="75">
-        <v>546010.6</v>
+        <v>552758.80000000005</v>
       </c>
       <c r="H14" s="75">
-        <v>584559.80000000005</v>
+        <v>593024.1</v>
       </c>
       <c r="I14" s="75">
-        <v>582441.4</v>
+        <v>591290.9</v>
       </c>
       <c r="J14" s="75">
-        <v>581577.30000000005</v>
+        <v>590706.30000000005</v>
       </c>
       <c r="K14" s="75">
-        <v>583747.5</v>
+        <v>591612.4</v>
       </c>
       <c r="L14" s="75">
-        <v>560201.6</v>
+        <v>566773.4</v>
       </c>
       <c r="M14" s="75">
-        <v>0</v>
+        <v>585559.4</v>
       </c>
       <c r="N14" s="75">
         <v>0</v>
@@ -3194,7 +3192,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="98">
-        <v>5143080.4000000004</v>
+        <v>5780834.3000000007</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3202,34 +3200,34 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2501438.7000000002</v>
+        <v>2500666.2999999998</v>
       </c>
       <c r="E15" s="16">
-        <v>2464677.6</v>
+        <v>2464042.7999999998</v>
       </c>
       <c r="F15" s="16">
-        <v>2696970</v>
+        <v>2696283.3</v>
       </c>
       <c r="G15" s="16">
-        <v>2594182.9</v>
+        <v>2593465.6</v>
       </c>
       <c r="H15" s="16">
-        <v>2653521.7999999998</v>
+        <v>2652892.4</v>
       </c>
       <c r="I15" s="16">
-        <v>2520722.6999999997</v>
+        <v>2520340.5</v>
       </c>
       <c r="J15" s="16">
-        <v>2585769.7999999998</v>
+        <v>2584443.1</v>
       </c>
       <c r="K15" s="16">
-        <v>2631791.2999999998</v>
+        <v>2630378.9</v>
       </c>
       <c r="L15" s="16">
-        <v>2511422.4</v>
+        <v>2510412.6</v>
       </c>
       <c r="M15" s="16">
-        <v>0</v>
+        <v>2682872.2999999998</v>
       </c>
       <c r="N15" s="16">
         <v>0</v>
@@ -3239,7 +3237,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>23160497.199999996</v>
+        <v>25835797.799999993</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3267,31 +3265,31 @@
         <v>342093.8</v>
       </c>
       <c r="E17" s="16">
-        <v>350063</v>
+        <v>349935.7</v>
       </c>
       <c r="F17" s="16">
-        <v>369076.1</v>
+        <v>369039.5</v>
       </c>
       <c r="G17" s="16">
-        <v>358855.5</v>
+        <v>358789.8</v>
       </c>
       <c r="H17" s="16">
-        <v>373649.5</v>
+        <v>373634.1</v>
       </c>
       <c r="I17" s="16">
-        <v>382128.5</v>
+        <v>381956.2</v>
       </c>
       <c r="J17" s="16">
-        <v>417674.3</v>
+        <v>418071.7</v>
       </c>
       <c r="K17" s="16">
-        <v>465253.3</v>
+        <v>465592.3</v>
       </c>
       <c r="L17" s="16">
-        <v>447000.3</v>
+        <v>447348.3</v>
       </c>
       <c r="M17" s="16">
-        <v>0</v>
+        <v>522005.8</v>
       </c>
       <c r="N17" s="16">
         <v>0</v>
@@ -3301,7 +3299,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>3505794.2999999993</v>
+        <v>4028467.1999999997</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3365,34 +3363,34 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8980375.5999999996</v>
+        <v>8981089</v>
       </c>
       <c r="E21" s="16">
-        <v>8550508.1999999993</v>
+        <v>8551143</v>
       </c>
       <c r="F21" s="16">
-        <v>9147905</v>
+        <v>9148576.8000000007</v>
       </c>
       <c r="G21" s="16">
-        <v>8755727.3000000007</v>
+        <v>8756444.5999999996</v>
       </c>
       <c r="H21" s="16">
-        <v>9028534.4000000004</v>
+        <v>9029078.5</v>
       </c>
       <c r="I21" s="16">
-        <v>8967800.3000000007</v>
+        <v>8968153.8000000007</v>
       </c>
       <c r="J21" s="16">
-        <v>8996810.1999999993</v>
+        <v>8997696.5</v>
       </c>
       <c r="K21" s="16">
-        <v>8696007.5999999996</v>
+        <v>8696906.3000000007</v>
       </c>
       <c r="L21" s="16">
-        <v>8089751</v>
+        <v>8090861</v>
       </c>
       <c r="M21" s="16">
-        <v>0</v>
+        <v>9466024.3000000007</v>
       </c>
       <c r="N21" s="16">
         <v>0</v>
@@ -3402,7 +3400,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>79213419.599999994</v>
+        <v>88685973.799999997</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3435,10 +3433,10 @@
         <v>9179551.0999999996</v>
       </c>
       <c r="L22" s="16">
-        <v>8216111.5</v>
+        <v>8214263.5</v>
       </c>
       <c r="M22" s="16">
-        <v>0</v>
+        <v>8634719.9000000004</v>
       </c>
       <c r="N22" s="16">
         <v>0</v>
@@ -3448,7 +3446,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>73138342.699999988</v>
+        <v>81771214.599999994</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3484,7 +3482,7 @@
         <v>-6799572.9000000004</v>
       </c>
       <c r="M23" s="16">
-        <v>0</v>
+        <v>-6889054.5999999996</v>
       </c>
       <c r="N23" s="16">
         <v>0</v>
@@ -3494,7 +3492,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-63091737.600000001</v>
+        <v>-69980792.200000003</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3503,34 +3501,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9635006.0000000019</v>
+        <v>9635719.4000000004</v>
       </c>
       <c r="E24" s="16">
-        <v>9447538.0999999996</v>
+        <v>9448172.9000000004</v>
       </c>
       <c r="F24" s="16">
-        <v>10461859.5</v>
+        <v>10462531.300000001</v>
       </c>
       <c r="G24" s="16">
-        <v>9913258.6000000015</v>
+        <v>9913975.8999999985</v>
       </c>
       <c r="H24" s="16">
-        <v>10077670</v>
+        <v>10078214.1</v>
       </c>
       <c r="I24" s="16">
-        <v>9974282.5</v>
+        <v>9974636</v>
       </c>
       <c r="J24" s="16">
-        <v>10196668.4</v>
+        <v>10197554.700000001</v>
       </c>
       <c r="K24" s="16">
-        <v>10047452</v>
+        <v>10048350.699999999</v>
       </c>
       <c r="L24" s="16">
-        <v>9506289.5999999996</v>
+        <v>9505551.5999999996</v>
       </c>
       <c r="M24" s="16">
-        <v>0</v>
+        <v>11211689.600000003</v>
       </c>
       <c r="N24" s="16">
         <v>0</v>
@@ -3540,7 +3538,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>89260024.699999988</v>
+        <v>100476396.19999997</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3575,7 +3573,7 @@
         <v>5750142</v>
       </c>
       <c r="M25" s="42">
-        <v>0</v>
+        <v>6165886.2999999998</v>
       </c>
       <c r="N25" s="42">
         <v>0</v>
@@ -3585,7 +3583,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="100">
-        <v>54278765.79999999</v>
+        <v>60444652.099999987</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3593,34 +3591,34 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15922336.200000003</v>
+        <v>15923049.600000001</v>
       </c>
       <c r="E26" s="16">
-        <v>15418785.6</v>
+        <v>15419420.4</v>
       </c>
       <c r="F26" s="16">
-        <v>16842802.600000001</v>
+        <v>16843474.399999999</v>
       </c>
       <c r="G26" s="16">
-        <v>15774402.300000001</v>
+        <v>15775119.599999998</v>
       </c>
       <c r="H26" s="16">
-        <v>15118652.1</v>
+        <v>15119196.199999999</v>
       </c>
       <c r="I26" s="16">
-        <v>15641385.1</v>
+        <v>15641738.6</v>
       </c>
       <c r="J26" s="16">
-        <v>16734507.199999999</v>
+        <v>16735393.5</v>
       </c>
       <c r="K26" s="16">
-        <v>16829487.800000001</v>
+        <v>16830386.5</v>
       </c>
       <c r="L26" s="16">
-        <v>15256431.6</v>
+        <v>15255693.6</v>
       </c>
       <c r="M26" s="16">
-        <v>0</v>
+        <v>17377575.900000002</v>
       </c>
       <c r="N26" s="16">
         <v>0</v>
@@ -3630,7 +3628,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>143538790.49999997</v>
+        <v>160921048.29999995</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3656,34 +3654,34 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18765868.700000003</v>
+        <v>18765809.700000003</v>
       </c>
       <c r="E28" s="16">
-        <v>18233526.199999999</v>
+        <v>18233398.899999999</v>
       </c>
       <c r="F28" s="16">
-        <v>19908848.700000003</v>
+        <v>19908797.199999999</v>
       </c>
       <c r="G28" s="16">
-        <v>18727440.699999999</v>
+        <v>18727375</v>
       </c>
       <c r="H28" s="16">
-        <v>18145823.399999999</v>
+        <v>18145722.699999999</v>
       </c>
       <c r="I28" s="16">
-        <v>18544236.300000001</v>
+        <v>18544035.300000001</v>
       </c>
       <c r="J28" s="16">
-        <v>19737951.300000001</v>
+        <v>19737908.300000001</v>
       </c>
       <c r="K28" s="16">
-        <v>19926532.400000002</v>
+        <v>19926357.699999999</v>
       </c>
       <c r="L28" s="16">
-        <v>18214854.300000001</v>
+        <v>18213454.5</v>
       </c>
       <c r="M28" s="16">
-        <v>0</v>
+        <v>20582454.000000004</v>
       </c>
       <c r="N28" s="16">
         <v>0</v>
@@ -3693,7 +3691,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>170205081.99999997</v>
+        <v>190785313.29999992</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3758,13 +3756,13 @@
         <v>1117475.3</v>
       </c>
       <c r="K31" s="16">
-        <v>1147708.7</v>
+        <v>1147708.3999999999</v>
       </c>
       <c r="L31" s="16">
-        <v>1052176.6000000001</v>
+        <v>1052252.8</v>
       </c>
       <c r="M31" s="16">
-        <v>0</v>
+        <v>1181416.3999999999</v>
       </c>
       <c r="N31" s="16">
         <v>0</v>
@@ -3774,7 +3772,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>9950977.8999999985</v>
+        <v>11132470.199999999</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3806,10 +3804,10 @@
         <v>404487.9</v>
       </c>
       <c r="L32" s="16">
-        <v>302999</v>
+        <v>302667.59999999998</v>
       </c>
       <c r="M32" s="16">
-        <v>0</v>
+        <v>371349</v>
       </c>
       <c r="N32" s="16">
         <v>0</v>
@@ -3819,7 +3817,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>3171234.4999999995</v>
+        <v>3542252.0999999996</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3872,7 +3870,7 @@
         <v>8950</v>
       </c>
       <c r="M34" s="16">
-        <v>0</v>
+        <v>9699.2999999999993</v>
       </c>
       <c r="N34" s="16">
         <v>0</v>
@@ -3882,7 +3880,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>87326.299999999988</v>
+        <v>97025.599999999991</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3918,7 +3916,7 @@
         <v>8618.6</v>
       </c>
       <c r="M35" s="16">
-        <v>0</v>
+        <v>8701.5</v>
       </c>
       <c r="N35" s="16">
         <v>0</v>
@@ -3928,7 +3926,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>90082.300000000017</v>
+        <v>98783.800000000017</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3940,31 +3938,31 @@
         <v>520231.3</v>
       </c>
       <c r="E36" s="16">
-        <v>517492.7</v>
+        <v>517649.8</v>
       </c>
       <c r="F36" s="16">
-        <v>558400.9</v>
+        <v>558407.69999999995</v>
       </c>
       <c r="G36" s="16">
-        <v>410538.5</v>
+        <v>410604.2</v>
       </c>
       <c r="H36" s="16">
-        <v>464704.7</v>
+        <v>464720.1</v>
       </c>
       <c r="I36" s="16">
-        <v>402996</v>
+        <v>403213.8</v>
       </c>
       <c r="J36" s="16">
-        <v>381291.6</v>
+        <v>381350.9</v>
       </c>
       <c r="K36" s="16">
-        <v>357376.8</v>
+        <v>357474.2</v>
       </c>
       <c r="L36" s="16">
-        <v>334335.5</v>
+        <v>333881.2</v>
       </c>
       <c r="M36" s="16">
-        <v>0</v>
+        <v>532411</v>
       </c>
       <c r="N36" s="16">
         <v>0</v>
@@ -3974,7 +3972,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>3947368</v>
+        <v>4479944.1999999993</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4025,10 +4023,10 @@
         <v>257247.3</v>
       </c>
       <c r="L38" s="16">
-        <v>248470.9</v>
+        <v>248918.39999999999</v>
       </c>
       <c r="M38" s="16">
-        <v>0</v>
+        <v>249740.7</v>
       </c>
       <c r="N38" s="16">
         <v>0</v>
@@ -4038,7 +4036,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>2383321.4</v>
+        <v>2633509.6</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4074,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="16">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N39" s="16">
         <v>0</v>
@@ -4084,7 +4082,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>222.40000000000003</v>
+        <v>231.70000000000005</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4158,7 +4156,7 @@
         <v>398956</v>
       </c>
       <c r="M42" s="78">
-        <v>0</v>
+        <v>503050.3</v>
       </c>
       <c r="N42" s="78">
         <v>0</v>
@@ -4168,8 +4166,7 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>4118245.9</v>
+        <v>4621296.2</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4214,7 +4211,8 @@
         <v>967032.5</v>
       </c>
       <c r="M43" s="78">
-        <v>0</v>
+        <f>482906.3+547074.4</f>
+        <v>1029980.7</v>
       </c>
       <c r="N43" s="78">
         <v>0</v>
@@ -4224,8 +4222,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="0"/>
-        <v>9753552.1000000015</v>
+        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
+        <v>10783532.800000001</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4240,10 +4238,10 @@
         <v>850417.8</v>
       </c>
       <c r="F44" s="78">
-        <v>920936.7</v>
+        <v>923209.5</v>
       </c>
       <c r="G44" s="78">
-        <v>911849.7</v>
+        <v>912184.3</v>
       </c>
       <c r="H44" s="78">
         <v>1040077.4</v>
@@ -4258,10 +4256,10 @@
         <v>890768.3</v>
       </c>
       <c r="L44" s="78">
-        <v>815396</v>
+        <v>815108.7</v>
       </c>
       <c r="M44" s="78">
-        <v>0</v>
+        <v>876742.9</v>
       </c>
       <c r="N44" s="78">
         <v>0</v>
@@ -4272,7 +4270,7 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>8200761.1000000006</v>
+        <v>9079824.0999999996</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4308,7 +4306,7 @@
         <v>312188.90000000002</v>
       </c>
       <c r="M45" s="80">
-        <v>0</v>
+        <v>315794</v>
       </c>
       <c r="N45" s="80">
         <v>0</v>
@@ -4319,7 +4317,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>1995911.7999999998</v>
+        <v>2311705.7999999998</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4337,11 +4335,11 @@
       </c>
       <c r="F46" s="89">
         <f t="shared" si="1"/>
-        <v>2758277.1999999997</v>
+        <v>2760549.9999999995</v>
       </c>
       <c r="G46" s="89">
         <f t="shared" si="1"/>
-        <v>2844877.3</v>
+        <v>2845211.9</v>
       </c>
       <c r="H46" s="89">
         <f t="shared" si="1"/>
@@ -4361,10 +4359,11 @@
       </c>
       <c r="L46" s="89">
         <f>SUM(L42:L45)</f>
-        <v>2493573.4</v>
+        <v>2493286.1</v>
       </c>
       <c r="M46" s="89">
-        <v>0</v>
+        <f>SUM(M42:M45)</f>
+        <v>2725567.9</v>
       </c>
       <c r="N46" s="89">
         <v>0</v>
@@ -4375,7 +4374,7 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>24068470.899999999</v>
+        <v>26796358.899999999</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4406,38 +4405,39 @@
       </c>
       <c r="E48" s="89">
         <f t="shared" si="2"/>
-        <v>4804800.8</v>
+        <v>4804957.9000000004</v>
       </c>
       <c r="F48" s="89">
         <f t="shared" si="2"/>
-        <v>5124378.9000000004</v>
+        <v>5126658.5</v>
       </c>
       <c r="G48" s="89">
         <f t="shared" si="2"/>
-        <v>5039399.3999999994</v>
+        <v>5039799.6999999993</v>
       </c>
       <c r="H48" s="89">
         <f t="shared" si="2"/>
-        <v>4827386.8999999994</v>
+        <v>4827402.2999999989</v>
       </c>
       <c r="I48" s="89">
         <f t="shared" si="2"/>
-        <v>4718958.7</v>
+        <v>4719176.5</v>
       </c>
       <c r="J48" s="89">
         <f t="shared" si="2"/>
-        <v>4801797.5999999996</v>
+        <v>4801856.9000000004</v>
       </c>
       <c r="K48" s="89">
         <f>K31+K32+K34+K35+K36+K38+K39+K46</f>
-        <v>4659979.8</v>
+        <v>4660076.8999999994</v>
       </c>
       <c r="L48" s="89">
         <f>L31+L32+L34+L35+L36+L38+L39+L46</f>
-        <v>4449124</v>
+        <v>4448574.7</v>
       </c>
       <c r="M48" s="89">
-        <v>0</v>
+        <f>M31+M32+M34+M35+M36+M38+M39+M46</f>
+        <v>5078895.0999999996</v>
       </c>
       <c r="N48" s="89">
         <v>0</v>
@@ -4448,7 +4448,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>43699003.699999996</v>
+        <v>48780576.100000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4497,10 +4497,10 @@
         <v>251912.9</v>
       </c>
       <c r="L50" s="78">
-        <v>209762.8</v>
+        <v>209657.8</v>
       </c>
       <c r="M50" s="78">
-        <v>0</v>
+        <v>242991.2</v>
       </c>
       <c r="N50" s="78">
         <v>0</v>
@@ -4511,7 +4511,7 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>1967847.3</v>
+        <v>2210733.5</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4546,7 +4546,7 @@
         <v>109548.2</v>
       </c>
       <c r="M51" s="78">
-        <v>0</v>
+        <v>108993.8</v>
       </c>
       <c r="N51" s="78">
         <v>0</v>
@@ -4557,7 +4557,7 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>946730.2</v>
+        <v>1055724</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4586,13 +4586,13 @@
         <v>327273.3</v>
       </c>
       <c r="K52" s="78">
-        <v>324655.40000000002</v>
+        <v>324655.3</v>
       </c>
       <c r="L52" s="78">
-        <v>296855</v>
+        <v>296851.7</v>
       </c>
       <c r="M52" s="78">
-        <v>0</v>
+        <v>339961.3</v>
       </c>
       <c r="N52" s="78">
         <v>0</v>
@@ -4603,26 +4603,26 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>2890038.1999999997</v>
+        <v>3229996.0999999996</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="105"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4630,34 +4630,34 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11473732.4</v>
+        <v>11473628.699999999</v>
       </c>
       <c r="E54" s="83">
-        <v>11193247.1</v>
+        <v>11193143.4</v>
       </c>
       <c r="F54" s="83">
-        <v>11562469.6</v>
+        <v>11564623.800000001</v>
       </c>
       <c r="G54" s="83">
-        <v>11974293</v>
+        <v>11974174.4</v>
       </c>
       <c r="H54" s="83">
-        <v>11336654.1</v>
+        <v>11336755.4</v>
       </c>
       <c r="I54" s="83">
-        <v>9995908.3000000007</v>
+        <v>9996117</v>
       </c>
       <c r="J54" s="83">
-        <v>9556358.3000000007</v>
+        <v>9556673.0999999996</v>
       </c>
       <c r="K54" s="83">
-        <v>9339246.4000000004</v>
+        <v>9339342.8000000007</v>
       </c>
       <c r="L54" s="83">
-        <v>8823440.1999999993</v>
+        <v>8825319.5999999996</v>
       </c>
       <c r="M54" s="83">
-        <v>0</v>
+        <v>9314928.9000000004</v>
       </c>
       <c r="N54" s="83">
         <v>0</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>8823440.1999999993</v>
+        <v>9314928.9000000004</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4684,25 +4684,25 @@
         <v>-64840.3</v>
       </c>
       <c r="G55" s="78">
-        <v>-46445.9</v>
+        <v>-49053.3</v>
       </c>
       <c r="H55" s="78">
-        <v>-25071.7</v>
+        <v>-25376.9</v>
       </c>
       <c r="I55" s="78">
-        <v>-91735.5</v>
+        <v>-91868.1</v>
       </c>
       <c r="J55" s="78">
-        <v>-25394.9</v>
+        <v>-25461.5</v>
       </c>
       <c r="K55" s="78">
-        <v>-74360.7</v>
+        <v>-74204.3</v>
       </c>
       <c r="L55" s="78">
-        <v>-46196.4</v>
+        <v>-46036.6</v>
       </c>
       <c r="M55" s="78">
-        <v>0</v>
+        <v>-54404.2</v>
       </c>
       <c r="N55" s="78">
         <v>0</v>
@@ -4713,7 +4713,7 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-469139.40000000008</v>
+        <v>-526339.19999999995</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4739,43 +4739,44 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:L57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22908307.800000004</v>
+        <f t="shared" ref="D57:M57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22908328.000000007</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22691731.100000001</v>
+        <v>22691760.899999995</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
-        <v>23945700.800000001</v>
+        <v>23945670.999999996</v>
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22670868.799999997</v>
+        <v>22670868.800000001</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22950330.299999997</v>
+        <v>22949719.899999999</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
-        <v>23872653.199999996</v>
+        <v>23872430</v>
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>24281336.5</v>
+        <v>24281180.100000001</v>
       </c>
       <c r="K57" s="89">
         <f t="shared" si="4"/>
-        <v>24038078.100000005</v>
+        <v>24038375.399999995</v>
       </c>
       <c r="L57" s="89">
         <f t="shared" si="4"/>
-        <v>22516644.700000003</v>
+        <v>22513958.099999998</v>
       </c>
       <c r="M57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24412927.5</v>
       </c>
       <c r="N57" s="89">
         <v>0</v>
@@ -4786,7 +4787,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>209875651.30000001</v>
+        <v>234285219.69999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4811,20 +4812,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="104" t="s">
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="107" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4942,7 +4943,7 @@
         <v>37391.599999999999</v>
       </c>
       <c r="M63" s="90">
-        <v>0</v>
+        <v>47051.199999999997</v>
       </c>
       <c r="N63" s="90">
         <v>0</v>
@@ -4952,7 +4953,8 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>156736.69999999998</v>
+        <f>SUM(D63:O63)</f>
+        <v>203787.89999999997</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4987,7 +4989,7 @@
         <v>2202255.4</v>
       </c>
       <c r="M64" s="90">
-        <v>0</v>
+        <v>2510764.2000000002</v>
       </c>
       <c r="N64" s="90">
         <v>0</v>
@@ -4997,7 +4999,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>21487426</v>
+        <v>23998190.199999999</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5029,10 +5031,10 @@
         <v>13148.4</v>
       </c>
       <c r="L65" s="90">
-        <v>12454.9</v>
+        <v>12455.6</v>
       </c>
       <c r="M65" s="90">
-        <v>0</v>
+        <v>11903.1</v>
       </c>
       <c r="N65" s="90">
         <v>0</v>
@@ -5042,7 +5044,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>131399.99999999997</v>
+        <v>143303.79999999999</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5077,7 +5079,7 @@
         <v>5052.3999999999996</v>
       </c>
       <c r="M66" s="90">
-        <v>0</v>
+        <v>25466.2</v>
       </c>
       <c r="N66" s="90">
         <v>0</v>
@@ -5087,7 +5089,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>143291.5</v>
+        <v>168757.7</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5117,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="90">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L67" s="90">
-        <v>22.5</v>
+        <v>39.5</v>
       </c>
       <c r="M67" s="90">
         <v>0</v>
@@ -5133,7 +5135,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>172.3</v>
+        <v>206.3</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5145,10 +5147,10 @@
         <v>-22232.5</v>
       </c>
       <c r="E68" s="90">
-        <v>-12254</v>
+        <v>-12313.6</v>
       </c>
       <c r="F68" s="90">
-        <v>1333.8</v>
+        <v>1393.4</v>
       </c>
       <c r="G68" s="90">
         <v>-2695</v>
@@ -5157,19 +5159,19 @@
         <v>1664.8</v>
       </c>
       <c r="I68" s="90">
-        <v>-11435.4</v>
+        <v>-11519.4</v>
       </c>
       <c r="J68" s="90">
-        <v>37633</v>
+        <v>37679.4</v>
       </c>
       <c r="K68" s="90">
-        <v>-3767.4</v>
+        <v>-3702.8</v>
       </c>
       <c r="L68" s="90">
-        <v>14884.8</v>
+        <v>16061</v>
       </c>
       <c r="M68" s="90">
-        <v>0</v>
+        <v>-2505</v>
       </c>
       <c r="N68" s="90">
         <v>0</v>
@@ -5179,7 +5181,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>3132.100000000004</v>
+        <v>1830.3000000000065</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5188,7 +5190,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>312850.09999999998</v>
+        <v>312870.3</v>
       </c>
       <c r="E69" s="90">
         <v>343173.9</v>
@@ -5212,10 +5214,10 @@
         <v>295664.90000000002</v>
       </c>
       <c r="L69" s="90">
-        <v>331176.5</v>
+        <v>331103.90000000002</v>
       </c>
       <c r="M69" s="90">
-        <v>0</v>
+        <v>373202.9</v>
       </c>
       <c r="N69" s="90">
         <v>0</v>
@@ -5225,7 +5227,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>2912708.9</v>
+        <v>3285859.4</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5234,13 +5236,13 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2698693.6000000006</v>
+        <v>2698713.8000000003</v>
       </c>
       <c r="E70" s="90">
-        <v>2680917.6999999997</v>
+        <v>2680858.0999999996</v>
       </c>
       <c r="F70" s="90">
-        <v>2847536.7999999993</v>
+        <v>2847596.3999999994</v>
       </c>
       <c r="G70" s="90">
         <v>2531216.4</v>
@@ -5249,19 +5251,19 @@
         <v>2802981.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>2879881.1</v>
+        <v>2879797.1</v>
       </c>
       <c r="J70" s="90">
-        <v>2947573.0999999996</v>
+        <v>2947619.4999999995</v>
       </c>
       <c r="K70" s="90">
-        <v>2842829.6</v>
+        <v>2842911.2</v>
       </c>
       <c r="L70" s="90">
-        <v>2603238.0999999996</v>
+        <v>2604359.4</v>
       </c>
       <c r="M70" s="90">
-        <v>0</v>
+        <v>2965882.6000000006</v>
       </c>
       <c r="N70" s="90">
         <v>0</v>
@@ -5271,7 +5273,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>24834867.5</v>
+        <v>27801935.599999998</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5319,13 +5321,13 @@
         <v>20667780.899999999</v>
       </c>
       <c r="K72" s="78">
-        <v>20978759.199999999</v>
+        <v>20978758.899999999</v>
       </c>
       <c r="L72" s="78">
-        <v>19539930.199999999</v>
+        <v>19539871.100000001</v>
       </c>
       <c r="M72" s="78">
-        <v>0</v>
+        <v>20704508.100000001</v>
       </c>
       <c r="N72" s="78">
         <v>0</v>
@@ -5335,7 +5337,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>179922719.99999997</v>
+        <v>200627168.69999999</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5365,13 +5367,13 @@
         <v>666702.6096774193</v>
       </c>
       <c r="K73" s="78">
-        <v>676734.16774193547</v>
+        <v>676734.15806451603</v>
       </c>
       <c r="L73" s="78">
-        <v>651331.0066666666</v>
+        <v>651329.03666666674</v>
       </c>
       <c r="M73" s="78">
-        <v>0</v>
+        <v>667887.35806451621</v>
       </c>
       <c r="N73" s="78">
         <v>0</v>
@@ -5381,7 +5383,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>659413.93289127841</v>
+        <v>660261.07744086033</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5409,42 +5411,43 @@
       <c r="C75" s="17"/>
       <c r="D75" s="89">
         <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
-        <v>530267.20000000298</v>
+        <v>530267.20000000671</v>
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>646388.60000000149</v>
+        <v>646477.99999999627</v>
       </c>
       <c r="F75" s="89">
         <f t="shared" si="5"/>
-        <v>592919.60000000149</v>
+        <v>592830.19999999925</v>
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>705242</v>
+        <v>705242.00000000373</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
-        <v>790409.79999999702</v>
+        <v>789799.39999999851</v>
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
-        <v>596888.39999999478</v>
+        <v>596749.19999999925</v>
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>665982.5</v>
+        <v>665779.70000000298</v>
       </c>
       <c r="K75" s="89">
         <f>K57-(K70+K72)</f>
-        <v>216489.30000000447</v>
+        <v>216705.29999999702</v>
       </c>
       <c r="L75" s="89">
         <f>L57-(L70+L72)</f>
-        <v>373476.40000000596</v>
+        <v>369727.59999999776</v>
       </c>
       <c r="M75" s="89">
-        <v>0</v>
+        <f>M57-(M70+M72)</f>
+        <v>742536.79999999702</v>
       </c>
       <c r="N75" s="89">
         <v>0</v>
@@ -5455,7 +5458,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>5118063.8000000082</v>
+        <v>5856115.3999999985</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5464,43 +5467,44 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:L76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.3147375381432706E-2</v>
+        <f t="shared" ref="D76:M76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.3147354970646766E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>2.8485645152035204E-2</v>
+        <v>2.8489547499154041E-2</v>
       </c>
       <c r="F76" s="94">
         <f t="shared" si="6"/>
-        <v>2.4761004280150427E-2</v>
+        <v>2.4757301643374259E-2</v>
       </c>
       <c r="G76" s="94">
         <f t="shared" si="6"/>
-        <v>3.1107850617529052E-2</v>
+        <v>3.1107850617529211E-2</v>
       </c>
       <c r="H76" s="94">
         <f t="shared" si="6"/>
-        <v>3.4440018495071383E-2</v>
+        <v>3.4414337231192027E-2</v>
       </c>
       <c r="I76" s="94">
         <f t="shared" si="6"/>
-        <v>2.5003018935490375E-2</v>
+        <v>2.4997421711991583E-2</v>
       </c>
       <c r="J76" s="94">
         <f t="shared" si="6"/>
-        <v>2.7427752998686872E-2</v>
+        <v>2.7419577518804489E-2</v>
       </c>
       <c r="K76" s="94">
         <f t="shared" si="6"/>
-        <v>9.0060985366381859E-3</v>
+        <v>9.0149727838927524E-3</v>
       </c>
       <c r="L76" s="94">
         <f t="shared" si="6"/>
-        <v>1.6586680874349183E-2</v>
-      </c>
-      <c r="M76" s="95" t="s">
-        <v>128</v>
+        <v>1.6422150132721344E-2</v>
+      </c>
+      <c r="M76" s="94">
+        <f t="shared" si="6"/>
+        <v>3.0415721342718811E-2</v>
       </c>
       <c r="N76" s="95" t="s">
         <v>128</v>
@@ -5511,7 +5515,7 @@
       <c r="P76" s="96"/>
       <c r="Q76" s="96">
         <f>AVERAGE(D76:O76)</f>
-        <v>2.444060503015371E-2</v>
+        <v>2.5018623545202533E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5537,43 +5541,44 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:L78" si="7">(D70+D72)+D75</f>
-        <v>22908307.800000004</v>
+        <f t="shared" ref="D78:M78" si="7">(D70+D72)+D75</f>
+        <v>22908328.000000007</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22691731.100000001</v>
+        <v>22691760.899999995</v>
       </c>
       <c r="F78" s="89">
         <f t="shared" si="7"/>
-        <v>23945700.800000001</v>
+        <v>23945670.999999996</v>
       </c>
       <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>22670868.799999997</v>
+        <v>22670868.800000001</v>
       </c>
       <c r="H78" s="89">
         <f t="shared" si="7"/>
-        <v>22950330.299999997</v>
+        <v>22949719.899999999</v>
       </c>
       <c r="I78" s="89">
         <f t="shared" si="7"/>
-        <v>23872653.199999996</v>
+        <v>23872430</v>
       </c>
       <c r="J78" s="89">
         <f t="shared" si="7"/>
-        <v>24281336.5</v>
+        <v>24281180.100000001</v>
       </c>
       <c r="K78" s="89">
         <f t="shared" si="7"/>
-        <v>24038078.100000005</v>
+        <v>24038375.399999995</v>
       </c>
       <c r="L78" s="89">
         <f t="shared" si="7"/>
-        <v>22516644.700000003</v>
+        <v>22513958.099999998</v>
       </c>
       <c r="M78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24412927.5</v>
       </c>
       <c r="N78" s="89">
         <v>0</v>
@@ -5584,7 +5589,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>209875651.30000001</v>
+        <v>234285219.69999999</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9FB3A-B76D-44DD-9028-C1426588A76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2585A0-033C-44EB-8944-06F1D092FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="390" windowWidth="19230" windowHeight="20610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  28 November 2024</t>
+    <t xml:space="preserve"> Run Date:  08 January 2025</t>
   </si>
 </sst>
 </file>
@@ -487,12 +487,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.00_)"/>
-    <numFmt numFmtId="168" formatCode="0____"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.00_)"/>
+    <numFmt numFmtId="167" formatCode="0____"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -805,14 +805,14 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="40" fontId="13" fillId="0" borderId="0">
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="17" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -848,23 +848,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,7 +892,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,15 +912,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,13 +966,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -981,8 +981,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -995,78 +995,78 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1629,11 +1629,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2803,7 +2803,9 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2832,11 +2834,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2918,44 +2920,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11069615.800000001</v>
+        <v>11068972.4</v>
       </c>
       <c r="E7" s="16">
-        <v>11473628.699999999</v>
+        <v>11472978.6</v>
       </c>
       <c r="F7" s="16">
-        <v>11193143.4</v>
+        <v>11192500.699999999</v>
       </c>
       <c r="G7" s="16">
-        <v>11564623.800000001</v>
+        <v>11563981.1</v>
       </c>
       <c r="H7" s="16">
-        <v>11974097.800000001</v>
+        <v>11973464.5</v>
       </c>
       <c r="I7" s="16">
-        <v>11336755.4</v>
+        <v>11336122.1</v>
       </c>
       <c r="J7" s="16">
-        <v>9996117</v>
+        <v>9995439.1999999993</v>
       </c>
       <c r="K7" s="16">
-        <v>9556647.6999999993</v>
+        <v>9555982</v>
       </c>
       <c r="L7" s="16">
-        <v>9339342.8000000007</v>
+        <v>9338677.3000000007</v>
       </c>
       <c r="M7" s="16">
-        <v>8812857.8000000007</v>
+        <v>8823105.5</v>
       </c>
       <c r="N7" s="16">
-        <v>0</v>
+        <v>9329322.8000000007</v>
       </c>
       <c r="O7" s="16">
         <v>0</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11069615.800000001</v>
+        <v>11068972.4</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3019,44 +3021,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1395495</v>
+        <v>1395263.9</v>
       </c>
       <c r="E11" s="16">
-        <v>1371023.8</v>
+        <v>1370486.9</v>
       </c>
       <c r="F11" s="16">
-        <v>1519289.2</v>
+        <v>1518758.3</v>
       </c>
       <c r="G11" s="16">
-        <v>1491409</v>
+        <v>1486937.7</v>
       </c>
       <c r="H11" s="16">
-        <v>1511789.7</v>
+        <v>1502758.9</v>
       </c>
       <c r="I11" s="16">
-        <v>1414710</v>
+        <v>1401386.9</v>
       </c>
       <c r="J11" s="16">
-        <v>1461900.7</v>
+        <v>1439028.2</v>
       </c>
       <c r="K11" s="16">
-        <v>1507688.2</v>
+        <v>1478600.9</v>
       </c>
       <c r="L11" s="16">
-        <v>1446086.7</v>
+        <v>1418469</v>
       </c>
       <c r="M11" s="16">
-        <v>1580533.7</v>
+        <v>1557156.1</v>
       </c>
       <c r="N11" s="16">
-        <v>0</v>
+        <v>1582450.7</v>
       </c>
       <c r="O11" s="16">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>14699925.999999996</v>
+        <v>16151297.499999998</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3065,44 +3067,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>378139.6</v>
+        <v>377242.1</v>
       </c>
       <c r="E12" s="16">
-        <v>374038.7</v>
+        <v>373212.8</v>
       </c>
       <c r="F12" s="16">
-        <v>403269.4</v>
+        <v>402303.1</v>
       </c>
       <c r="G12" s="16">
-        <v>383621.3</v>
+        <v>382734.8</v>
       </c>
       <c r="H12" s="16">
-        <v>380166.6</v>
+        <v>379371.7</v>
       </c>
       <c r="I12" s="16">
-        <v>351869.1</v>
+        <v>352250.9</v>
       </c>
       <c r="J12" s="16">
-        <v>364664.9</v>
+        <v>369290.9</v>
       </c>
       <c r="K12" s="16">
-        <v>360561.3</v>
+        <v>368487.1</v>
       </c>
       <c r="L12" s="16">
-        <v>336442.8</v>
+        <v>347422.2</v>
       </c>
       <c r="M12" s="16">
-        <v>345080.4</v>
+        <v>357973.4</v>
       </c>
       <c r="N12" s="16">
-        <v>0</v>
+        <v>334054.2</v>
       </c>
       <c r="O12" s="16">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>3677854.0999999996</v>
+        <v>4044343.2</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3110,44 +3112,44 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>169376.7</v>
+        <v>170892.1</v>
       </c>
       <c r="E13" s="16">
-        <v>167371.5</v>
+        <v>169057.7</v>
       </c>
       <c r="F13" s="16">
-        <v>173879.5</v>
+        <v>175537.4</v>
       </c>
       <c r="G13" s="16">
-        <v>165676.5</v>
+        <v>169995.4</v>
       </c>
       <c r="H13" s="16">
-        <v>167912</v>
+        <v>172535</v>
       </c>
       <c r="I13" s="16">
-        <v>162470.5</v>
+        <v>166581.20000000001</v>
       </c>
       <c r="J13" s="16">
-        <v>167171.20000000001</v>
+        <v>172866.3</v>
       </c>
       <c r="K13" s="16">
-        <v>170517</v>
+        <v>175062.39999999999</v>
       </c>
       <c r="L13" s="16">
-        <v>161109.70000000001</v>
+        <v>164621</v>
       </c>
       <c r="M13" s="16">
-        <v>171698.8</v>
+        <v>174912.1</v>
       </c>
       <c r="N13" s="16">
-        <v>0</v>
+        <v>169761.8</v>
       </c>
       <c r="O13" s="16">
         <v>0</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1677183.4</v>
+        <v>1881822.4000000001</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3155,44 +3157,44 @@
         <v>122</v>
       </c>
       <c r="D14" s="98">
-        <v>557655</v>
+        <v>557261.5</v>
       </c>
       <c r="E14" s="76">
-        <v>551608.80000000005</v>
+        <v>551285.4</v>
       </c>
       <c r="F14" s="76">
-        <v>599845.19999999995</v>
+        <v>599684.5</v>
       </c>
       <c r="G14" s="75">
-        <v>552758.80000000005</v>
+        <v>556465.19999999995</v>
       </c>
       <c r="H14" s="75">
-        <v>593024.1</v>
+        <v>599279.4</v>
       </c>
       <c r="I14" s="75">
-        <v>591290.9</v>
+        <v>601092.19999999995</v>
       </c>
       <c r="J14" s="75">
-        <v>590706.30000000005</v>
+        <v>603831.5</v>
       </c>
       <c r="K14" s="75">
-        <v>591612.4</v>
+        <v>608784.9</v>
       </c>
       <c r="L14" s="75">
-        <v>566773.4</v>
+        <v>580328.19999999995</v>
       </c>
       <c r="M14" s="75">
-        <v>585559.4</v>
+        <v>595364.6</v>
       </c>
       <c r="N14" s="75">
-        <v>0</v>
+        <v>567442.69999999995</v>
       </c>
       <c r="O14" s="75">
         <v>0</v>
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="98">
-        <v>5780834.3000000007</v>
+        <v>6420820.0999999996</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3200,7 +3202,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2500666.2999999998</v>
+        <v>2500659.6</v>
       </c>
       <c r="E15" s="16">
         <v>2464042.7999999998</v>
@@ -3209,35 +3211,35 @@
         <v>2696283.3</v>
       </c>
       <c r="G15" s="16">
-        <v>2593465.6</v>
+        <v>2596133.0999999996</v>
       </c>
       <c r="H15" s="16">
-        <v>2652892.4</v>
+        <v>2653945</v>
       </c>
       <c r="I15" s="16">
-        <v>2520340.5</v>
+        <v>2521311.1999999997</v>
       </c>
       <c r="J15" s="16">
-        <v>2584443.1</v>
+        <v>2585016.9000000004</v>
       </c>
       <c r="K15" s="16">
-        <v>2630378.9</v>
+        <v>2630935.2999999998</v>
       </c>
       <c r="L15" s="16">
-        <v>2510412.6</v>
+        <v>2510840.4</v>
       </c>
       <c r="M15" s="16">
-        <v>2682872.2999999998</v>
+        <v>2685406.2</v>
       </c>
       <c r="N15" s="16">
-        <v>0</v>
+        <v>2653709.4</v>
       </c>
       <c r="O15" s="16">
         <v>0</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>25835797.799999993</v>
+        <v>28498283.199999996</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3271,35 +3273,35 @@
         <v>369039.5</v>
       </c>
       <c r="G17" s="16">
-        <v>358789.8</v>
+        <v>356131.7</v>
       </c>
       <c r="H17" s="16">
-        <v>373634.1</v>
+        <v>372740.4</v>
       </c>
       <c r="I17" s="16">
-        <v>381956.2</v>
+        <v>380985.5</v>
       </c>
       <c r="J17" s="16">
-        <v>418071.7</v>
+        <v>417510</v>
       </c>
       <c r="K17" s="16">
-        <v>465592.3</v>
+        <v>465081.3</v>
       </c>
       <c r="L17" s="16">
-        <v>447348.3</v>
+        <v>446851.5</v>
       </c>
       <c r="M17" s="16">
-        <v>522005.8</v>
+        <v>519989.1</v>
       </c>
       <c r="N17" s="16">
-        <v>0</v>
+        <v>482419.4</v>
       </c>
       <c r="O17" s="16">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>4028467.1999999997</v>
+        <v>4502777.9000000004</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3363,7 +3365,7 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8981089</v>
+        <v>8981579.5</v>
       </c>
       <c r="E21" s="16">
         <v>8551143</v>
@@ -3390,17 +3392,17 @@
         <v>8090861</v>
       </c>
       <c r="M21" s="16">
-        <v>9466024.3000000007</v>
+        <v>9468692.9000000004</v>
       </c>
       <c r="N21" s="16">
-        <v>0</v>
+        <v>9192967</v>
       </c>
       <c r="O21" s="16">
         <v>0</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>88685973.799999997</v>
+        <v>97882099.900000006</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3433,20 +3435,20 @@
         <v>9179551.0999999996</v>
       </c>
       <c r="L22" s="16">
-        <v>8214263.5</v>
+        <v>8217059.5</v>
       </c>
       <c r="M22" s="16">
-        <v>8634719.9000000004</v>
+        <v>8637409.5999999996</v>
       </c>
       <c r="N22" s="16">
-        <v>0</v>
+        <v>8764965</v>
       </c>
       <c r="O22" s="16">
         <v>0</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>81771214.599999994</v>
+        <v>90541665.299999982</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3482,17 +3484,17 @@
         <v>-6799572.9000000004</v>
       </c>
       <c r="M23" s="16">
-        <v>-6889054.5999999996</v>
+        <v>-7031438</v>
       </c>
       <c r="N23" s="16">
-        <v>0</v>
+        <v>-7613567.5999999996</v>
       </c>
       <c r="O23" s="16">
         <v>0</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-69980792.200000003</v>
+        <v>-77736743.199999988</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3501,7 +3503,7 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9635719.4000000004</v>
+        <v>9636209.9000000004</v>
       </c>
       <c r="E24" s="16">
         <v>9448172.9000000004</v>
@@ -3525,20 +3527,20 @@
         <v>10048350.699999999</v>
       </c>
       <c r="L24" s="16">
-        <v>9505551.5999999996</v>
+        <v>9508347.5999999996</v>
       </c>
       <c r="M24" s="16">
-        <v>11211689.600000003</v>
+        <v>11074664.5</v>
       </c>
       <c r="N24" s="16">
-        <v>0</v>
+        <v>10344364.4</v>
       </c>
       <c r="O24" s="16">
         <v>0</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>100476396.19999997</v>
+        <v>110687022</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3576,14 +3578,14 @@
         <v>6165886.2999999998</v>
       </c>
       <c r="N25" s="42">
-        <v>0</v>
+        <v>6537105.5999999996</v>
       </c>
       <c r="O25" s="42">
         <v>0</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="100">
-        <v>60444652.099999987</v>
+        <v>66981757.699999988</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3591,7 +3593,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15923049.600000001</v>
+        <v>15923540.100000001</v>
       </c>
       <c r="E26" s="16">
         <v>15419420.4</v>
@@ -3615,20 +3617,20 @@
         <v>16830386.5</v>
       </c>
       <c r="L26" s="16">
-        <v>15255693.6</v>
+        <v>15258489.6</v>
       </c>
       <c r="M26" s="16">
-        <v>17377575.900000002</v>
+        <v>17240550.800000001</v>
       </c>
       <c r="N26" s="16">
-        <v>0</v>
+        <v>16881470</v>
       </c>
       <c r="O26" s="16">
         <v>0</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>160921048.29999995</v>
+        <v>177668779.69999999</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3654,7 +3656,7 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18765809.700000003</v>
+        <v>18766293.500000004</v>
       </c>
       <c r="E28" s="16">
         <v>18233398.899999999</v>
@@ -3663,35 +3665,35 @@
         <v>19908797.199999999</v>
       </c>
       <c r="G28" s="16">
-        <v>18727375</v>
+        <v>18727384.399999995</v>
       </c>
       <c r="H28" s="16">
-        <v>18145722.699999999</v>
+        <v>18145881.599999998</v>
       </c>
       <c r="I28" s="16">
         <v>18544035.300000001</v>
       </c>
       <c r="J28" s="16">
-        <v>19737908.300000001</v>
+        <v>19737920.399999999</v>
       </c>
       <c r="K28" s="16">
-        <v>19926357.699999999</v>
+        <v>19926403.100000001</v>
       </c>
       <c r="L28" s="16">
-        <v>18213454.5</v>
+        <v>18216181.5</v>
       </c>
       <c r="M28" s="16">
-        <v>20582454.000000004</v>
+        <v>20445946.100000001</v>
       </c>
       <c r="N28" s="16">
-        <v>0</v>
+        <v>20017598.799999997</v>
       </c>
       <c r="O28" s="16">
         <v>0</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>190785313.29999992</v>
+        <v>210669840.79999998</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3747,7 +3749,7 @@
         <v>1138653.3999999999</v>
       </c>
       <c r="H31" s="16">
-        <v>1081144.3999999999</v>
+        <v>1080985.5</v>
       </c>
       <c r="I31" s="16">
         <v>1075107.6000000001</v>
@@ -3762,17 +3764,17 @@
         <v>1052252.8</v>
       </c>
       <c r="M31" s="16">
-        <v>1181416.3999999999</v>
+        <v>1181058.1000000001</v>
       </c>
       <c r="N31" s="16">
-        <v>0</v>
+        <v>1202967.5</v>
       </c>
       <c r="O31" s="16">
         <v>0</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>11132470.199999999</v>
+        <v>12334920.5</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3810,14 +3812,14 @@
         <v>371349</v>
       </c>
       <c r="N32" s="16">
-        <v>0</v>
+        <v>382015.7</v>
       </c>
       <c r="O32" s="16">
         <v>0</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>3542252.0999999996</v>
+        <v>3924267.8</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3873,14 +3875,14 @@
         <v>9699.2999999999993</v>
       </c>
       <c r="N34" s="16">
-        <v>0</v>
+        <v>9769.5</v>
       </c>
       <c r="O34" s="16">
         <v>0</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>97025.599999999991</v>
+        <v>106795.09999999999</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3919,14 +3921,14 @@
         <v>8701.5</v>
       </c>
       <c r="N35" s="16">
-        <v>0</v>
+        <v>8886.4</v>
       </c>
       <c r="O35" s="16">
         <v>0</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>98783.800000000017</v>
+        <v>107670.20000000001</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3959,20 +3961,20 @@
         <v>357474.2</v>
       </c>
       <c r="L36" s="16">
-        <v>333881.2</v>
+        <v>333841</v>
       </c>
       <c r="M36" s="16">
-        <v>532411</v>
+        <v>532329.4</v>
       </c>
       <c r="N36" s="16">
-        <v>0</v>
+        <v>580688.5</v>
       </c>
       <c r="O36" s="16">
         <v>0</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>4479944.1999999993</v>
+        <v>5060510.8999999994</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4026,17 +4028,17 @@
         <v>248918.39999999999</v>
       </c>
       <c r="M38" s="16">
-        <v>249740.7</v>
+        <v>249859.4</v>
       </c>
       <c r="N38" s="16">
-        <v>0</v>
+        <v>242493.1</v>
       </c>
       <c r="O38" s="16">
         <v>0</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>2633509.6</v>
+        <v>2876121.4</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4072,17 +4074,17 @@
         <v>0</v>
       </c>
       <c r="M39" s="16">
-        <v>9.3000000000000007</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="N39" s="16">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="O39" s="16">
         <v>0</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>231.70000000000005</v>
+        <v>348.90000000000009</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4159,14 +4161,15 @@
         <v>503050.3</v>
       </c>
       <c r="N42" s="78">
-        <v>0</v>
+        <v>360104.9</v>
       </c>
       <c r="O42" s="78">
         <v>0</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>4621296.2</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>4981401.1000000006</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4215,15 +4218,16 @@
         <v>1029980.7</v>
       </c>
       <c r="N43" s="78">
-        <v>0</v>
+        <f>520882.2+592947.1</f>
+        <v>1113829.3</v>
       </c>
       <c r="O43" s="78">
         <v>0</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
-        <v>10783532.800000001</v>
+        <f t="shared" si="0"/>
+        <v>11897362.100000001</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4262,7 +4266,7 @@
         <v>876742.9</v>
       </c>
       <c r="N44" s="78">
-        <v>0</v>
+        <v>847047</v>
       </c>
       <c r="O44" s="78">
         <v>0</v>
@@ -4270,7 +4274,7 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>9079824.0999999996</v>
+        <v>9926871.0999999996</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4309,7 +4313,7 @@
         <v>315794</v>
       </c>
       <c r="N45" s="80">
-        <v>0</v>
+        <v>263055.90000000002</v>
       </c>
       <c r="O45" s="80">
         <v>0</v>
@@ -4317,7 +4321,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2311705.7999999998</v>
+        <v>2574761.6999999997</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4366,7 +4370,8 @@
         <v>2725567.9</v>
       </c>
       <c r="N46" s="89">
-        <v>0</v>
+        <f>SUM(N42:N45)</f>
+        <v>2584037.1</v>
       </c>
       <c r="O46" s="89">
         <v>0</v>
@@ -4374,7 +4379,7 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>26796358.899999999</v>
+        <v>29380396</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4417,7 +4422,7 @@
       </c>
       <c r="H48" s="89">
         <f t="shared" si="2"/>
-        <v>4827402.2999999989</v>
+        <v>4827243.3999999994</v>
       </c>
       <c r="I48" s="89">
         <f t="shared" si="2"/>
@@ -4433,14 +4438,15 @@
       </c>
       <c r="L48" s="89">
         <f>L31+L32+L34+L35+L36+L38+L39+L46</f>
-        <v>4448574.7</v>
+        <v>4448534.5</v>
       </c>
       <c r="M48" s="89">
         <f>M31+M32+M34+M35+M36+M38+M39+M46</f>
-        <v>5078895.0999999996</v>
+        <v>5078632.5</v>
       </c>
       <c r="N48" s="89">
-        <v>0</v>
+        <f>N31+N32+N34+N35+N36+N38+N39+N46</f>
+        <v>5010916.4000000004</v>
       </c>
       <c r="O48" s="89">
         <v>0</v>
@@ -4448,7 +4454,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>48780576.100000001</v>
+        <v>53791030.799999997</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4497,13 +4503,13 @@
         <v>251912.9</v>
       </c>
       <c r="L50" s="78">
-        <v>209657.8</v>
+        <v>209761.8</v>
       </c>
       <c r="M50" s="78">
-        <v>242991.2</v>
+        <v>243025.7</v>
       </c>
       <c r="N50" s="78">
-        <v>0</v>
+        <v>237439.9</v>
       </c>
       <c r="O50" s="78">
         <v>0</v>
@@ -4511,7 +4517,7 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>2210733.5</v>
+        <v>2448311.9</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4549,7 +4555,7 @@
         <v>108993.8</v>
       </c>
       <c r="N51" s="78">
-        <v>0</v>
+        <v>109746.5</v>
       </c>
       <c r="O51" s="78">
         <v>0</v>
@@ -4557,7 +4563,7 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>1055724</v>
+        <v>1165470.5</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4565,7 +4571,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>336364.5</v>
+        <v>336855</v>
       </c>
       <c r="E52" s="78">
         <v>311590.09999999998</v>
@@ -4577,7 +4583,7 @@
         <v>327864</v>
       </c>
       <c r="H52" s="78">
-        <v>316785.90000000002</v>
+        <v>316753</v>
       </c>
       <c r="I52" s="78">
         <v>316823.7</v>
@@ -4592,10 +4598,10 @@
         <v>296851.7</v>
       </c>
       <c r="M52" s="78">
-        <v>339961.3</v>
+        <v>339882.4</v>
       </c>
       <c r="N52" s="78">
-        <v>0</v>
+        <v>341037.5</v>
       </c>
       <c r="O52" s="78">
         <v>0</v>
@@ -4603,26 +4609,26 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>3229996.0999999996</v>
+        <v>3571412.3</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="107"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4630,44 +4636,44 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11473628.699999999</v>
+        <v>11472978.6</v>
       </c>
       <c r="E54" s="83">
-        <v>11193143.4</v>
+        <v>11192500.699999999</v>
       </c>
       <c r="F54" s="83">
-        <v>11564623.800000001</v>
+        <v>11563981.1</v>
       </c>
       <c r="G54" s="83">
-        <v>11974174.4</v>
+        <v>11973541.1</v>
       </c>
       <c r="H54" s="83">
-        <v>11336755.4</v>
+        <v>11336122.1</v>
       </c>
       <c r="I54" s="83">
-        <v>9996117</v>
+        <v>9995439.1999999993</v>
       </c>
       <c r="J54" s="83">
-        <v>9556673.0999999996</v>
+        <v>9556007.4000000004</v>
       </c>
       <c r="K54" s="83">
-        <v>9339342.8000000007</v>
+        <v>9338677.3000000007</v>
       </c>
       <c r="L54" s="83">
-        <v>8825319.5999999996</v>
+        <v>8824698.9000000004</v>
       </c>
       <c r="M54" s="83">
-        <v>9314928.9000000004</v>
+        <v>9330498.0999999996</v>
       </c>
       <c r="N54" s="83">
-        <v>0</v>
+        <v>9418098.6999999993</v>
       </c>
       <c r="O54" s="83">
         <v>0</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9314928.9000000004</v>
+        <v>9418098.6999999993</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4678,7 +4684,7 @@
         <v>-84054.7</v>
       </c>
       <c r="E55" s="78">
-        <v>-11039.3</v>
+        <v>-11031.9</v>
       </c>
       <c r="F55" s="78">
         <v>-64840.3</v>
@@ -4690,30 +4696,29 @@
         <v>-25376.9</v>
       </c>
       <c r="I55" s="78">
-        <v>-91868.1</v>
+        <v>-91912.6</v>
       </c>
       <c r="J55" s="78">
         <v>-25461.5</v>
       </c>
       <c r="K55" s="78">
-        <v>-74204.3</v>
+        <v>-74159.100000000006</v>
       </c>
       <c r="L55" s="78">
-        <v>-46036.6</v>
+        <v>-46136.6</v>
       </c>
       <c r="M55" s="78">
-        <v>-54404.2</v>
+        <v>-55263.3</v>
       </c>
       <c r="N55" s="78">
-        <v>0</v>
+        <v>-65664.7</v>
       </c>
       <c r="O55" s="78">
         <v>0</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <f>SUM(D55:O55)</f>
-        <v>-526339.19999999995</v>
+        <v>-592954.9</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4739,12 +4744,12 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:M57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22908328.000000007</v>
+        <f t="shared" ref="D57:N57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22908328.000000004</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22691760.899999995</v>
+        <v>22691760.899999999</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
@@ -4752,11 +4757,11 @@
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22670868.800000001</v>
+        <v>22670868.799999993</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22949719.899999999</v>
+        <v>22949752.800000001</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
@@ -4764,22 +4769,23 @@
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>24281180.100000001</v>
+        <v>24281180.099999994</v>
       </c>
       <c r="K57" s="89">
         <f t="shared" si="4"/>
-        <v>24038375.399999995</v>
+        <v>24038465.799999997</v>
       </c>
       <c r="L57" s="89">
         <f t="shared" si="4"/>
-        <v>22513958.099999998</v>
+        <v>22516396.099999998</v>
       </c>
       <c r="M57" s="89">
         <f t="shared" si="4"/>
-        <v>24412927.5</v>
+        <v>24270020.800000001</v>
       </c>
       <c r="N57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24185850.699999999</v>
       </c>
       <c r="O57" s="89">
         <v>0</v>
@@ -4787,7 +4793,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>234285219.69999999</v>
+        <v>258330724.99999997</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4812,20 +4818,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="107" t="s">
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4946,15 +4952,14 @@
         <v>47051.199999999997</v>
       </c>
       <c r="N63" s="90">
-        <v>0</v>
+        <v>52690.3</v>
       </c>
       <c r="O63" s="90">
         <v>0</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <f>SUM(D63:O63)</f>
-        <v>203787.89999999997</v>
+        <v>256478.19999999995</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4992,14 +4997,14 @@
         <v>2510764.2000000002</v>
       </c>
       <c r="N64" s="90">
-        <v>0</v>
+        <v>2527477.4</v>
       </c>
       <c r="O64" s="90">
         <v>0</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>23998190.199999999</v>
+        <v>26525667.599999998</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5034,17 +5039,17 @@
         <v>12455.6</v>
       </c>
       <c r="M65" s="90">
-        <v>11903.1</v>
+        <v>11904.8</v>
       </c>
       <c r="N65" s="90">
-        <v>0</v>
+        <v>10453.6</v>
       </c>
       <c r="O65" s="90">
         <v>0</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>143303.79999999999</v>
+        <v>153759.09999999998</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5082,14 +5087,14 @@
         <v>25466.2</v>
       </c>
       <c r="N66" s="90">
-        <v>0</v>
+        <v>10899.7</v>
       </c>
       <c r="O66" s="90">
         <v>0</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>168757.7</v>
+        <v>179657.40000000002</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5128,14 +5133,14 @@
         <v>0</v>
       </c>
       <c r="N67" s="90">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="O67" s="90">
         <v>0</v>
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>206.3</v>
+        <v>396.3</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5168,20 +5173,20 @@
         <v>-3702.8</v>
       </c>
       <c r="L68" s="90">
-        <v>16061</v>
+        <v>16169</v>
       </c>
       <c r="M68" s="90">
-        <v>-2505</v>
+        <v>-2596</v>
       </c>
       <c r="N68" s="90">
-        <v>0</v>
+        <v>10453.799999999999</v>
       </c>
       <c r="O68" s="90">
         <v>0</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>1830.3000000000065</v>
+        <v>12301.100000000006</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5217,17 +5222,17 @@
         <v>331103.90000000002</v>
       </c>
       <c r="M69" s="90">
-        <v>373202.9</v>
+        <v>373413</v>
       </c>
       <c r="N69" s="90">
-        <v>0</v>
+        <v>357123.2</v>
       </c>
       <c r="O69" s="90">
         <v>0</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>3285859.4</v>
+        <v>3643192.7</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5260,20 +5265,20 @@
         <v>2842911.2</v>
       </c>
       <c r="L70" s="90">
-        <v>2604359.4</v>
+        <v>2604467.4</v>
       </c>
       <c r="M70" s="90">
-        <v>2965882.6000000006</v>
+        <v>2966003.4000000004</v>
       </c>
       <c r="N70" s="90">
-        <v>0</v>
+        <v>2969288</v>
       </c>
       <c r="O70" s="90">
         <v>0</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>27801935.599999998</v>
+        <v>30771452.399999999</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5327,17 +5332,17 @@
         <v>19539871.100000001</v>
       </c>
       <c r="M72" s="78">
-        <v>20704508.100000001</v>
+        <v>20704031</v>
       </c>
       <c r="N72" s="78">
-        <v>0</v>
+        <v>20796351.5</v>
       </c>
       <c r="O72" s="78">
         <v>0</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>200627168.69999999</v>
+        <v>221423043.09999999</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5373,17 +5378,17 @@
         <v>651329.03666666674</v>
       </c>
       <c r="M73" s="78">
-        <v>667887.35806451621</v>
+        <v>667871.96774193551</v>
       </c>
       <c r="N73" s="78">
-        <v>0</v>
+        <v>693211.71666666667</v>
       </c>
       <c r="O73" s="78">
         <v>0</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>660261.07744086033</v>
+        <v>663255.19097751717</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5411,11 +5416,11 @@
       <c r="C75" s="17"/>
       <c r="D75" s="89">
         <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
-        <v>530267.20000000671</v>
+        <v>530267.20000000298</v>
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>646477.99999999627</v>
+        <v>646478</v>
       </c>
       <c r="F75" s="89">
         <f t="shared" si="5"/>
@@ -5423,11 +5428,11 @@
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>705242.00000000373</v>
+        <v>705241.99999999627</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
-        <v>789799.39999999851</v>
+        <v>789832.30000000075</v>
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
@@ -5435,22 +5440,23 @@
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>665779.70000000298</v>
+        <v>665779.69999999553</v>
       </c>
       <c r="K75" s="89">
         <f>K57-(K70+K72)</f>
-        <v>216705.29999999702</v>
+        <v>216795.69999999925</v>
       </c>
       <c r="L75" s="89">
         <f>L57-(L70+L72)</f>
-        <v>369727.59999999776</v>
+        <v>372057.59999999776</v>
       </c>
       <c r="M75" s="89">
         <f>M57-(M70+M72)</f>
-        <v>742536.79999999702</v>
+        <v>599986.40000000224</v>
       </c>
       <c r="N75" s="89">
-        <v>0</v>
+        <f>N57-(N70+N72)</f>
+        <v>420211.19999999925</v>
       </c>
       <c r="O75" s="89">
         <v>0</v>
@@ -5458,7 +5464,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>5856115.3999999985</v>
+        <v>6136229.4999999925</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5467,12 +5473,12 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:M76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.3147354970646766E-2</v>
+        <f t="shared" ref="D76:N76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.314735497064661E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>2.8489547499154041E-2</v>
+        <v>2.8489547499154198E-2</v>
       </c>
       <c r="F76" s="94">
         <f t="shared" si="6"/>
@@ -5480,11 +5486,11 @@
       </c>
       <c r="G76" s="94">
         <f t="shared" si="6"/>
-        <v>3.1107850617529211E-2</v>
+        <v>3.1107850617528892E-2</v>
       </c>
       <c r="H76" s="94">
         <f t="shared" si="6"/>
-        <v>3.4414337231192027E-2</v>
+        <v>3.4415721462585896E-2</v>
       </c>
       <c r="I76" s="94">
         <f t="shared" si="6"/>
@@ -5492,22 +5498,23 @@
       </c>
       <c r="J76" s="94">
         <f t="shared" si="6"/>
-        <v>2.7419577518804489E-2</v>
+        <v>2.7419577518804191E-2</v>
       </c>
       <c r="K76" s="94">
         <f t="shared" si="6"/>
-        <v>9.0149727838927524E-3</v>
+        <v>9.0186995211649183E-3</v>
       </c>
       <c r="L76" s="94">
         <f t="shared" si="6"/>
-        <v>1.6422150132721344E-2</v>
+        <v>1.65238521452373E-2</v>
       </c>
       <c r="M76" s="94">
         <f t="shared" si="6"/>
-        <v>3.0415721342718811E-2</v>
-      </c>
-      <c r="N76" s="95" t="s">
-        <v>128</v>
+        <v>2.4721297313432967E-2</v>
+      </c>
+      <c r="N76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.737425758606867E-2</v>
       </c>
       <c r="O76" s="95" t="s">
         <v>128</v>
@@ -5515,7 +5522,7 @@
       <c r="P76" s="96"/>
       <c r="Q76" s="96">
         <f>AVERAGE(D76:O76)</f>
-        <v>2.5018623545202533E-2</v>
+        <v>2.3815716544544504E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5541,12 +5548,12 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:M78" si="7">(D70+D72)+D75</f>
-        <v>22908328.000000007</v>
+        <f t="shared" ref="D78:N78" si="7">(D70+D72)+D75</f>
+        <v>22908328.000000004</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22691760.899999995</v>
+        <v>22691760.899999999</v>
       </c>
       <c r="F78" s="89">
         <f t="shared" si="7"/>
@@ -5554,11 +5561,11 @@
       </c>
       <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>22670868.800000001</v>
+        <v>22670868.799999993</v>
       </c>
       <c r="H78" s="89">
         <f t="shared" si="7"/>
-        <v>22949719.899999999</v>
+        <v>22949752.800000001</v>
       </c>
       <c r="I78" s="89">
         <f t="shared" si="7"/>
@@ -5566,22 +5573,23 @@
       </c>
       <c r="J78" s="89">
         <f t="shared" si="7"/>
-        <v>24281180.100000001</v>
+        <v>24281180.099999994</v>
       </c>
       <c r="K78" s="89">
         <f t="shared" si="7"/>
-        <v>24038375.399999995</v>
+        <v>24038465.799999997</v>
       </c>
       <c r="L78" s="89">
         <f t="shared" si="7"/>
-        <v>22513958.099999998</v>
+        <v>22516396.099999998</v>
       </c>
       <c r="M78" s="89">
         <f t="shared" si="7"/>
-        <v>24412927.5</v>
+        <v>24270020.800000001</v>
       </c>
       <c r="N78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24185850.699999999</v>
       </c>
       <c r="O78" s="89">
         <v>0</v>
@@ -5589,7 +5597,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>234285219.69999999</v>
+        <v>258330724.99999997</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2585A0-033C-44EB-8944-06F1D092FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97E367-A285-4625-B2E8-46C0CCF96AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="129">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -476,10 +476,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  08 January 2025</t>
+    <t xml:space="preserve"> Run Date:  28 January 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +832,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1040,9 +1037,6 @@
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,11 +1623,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2804,7 +2798,7 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+      <selection activeCell="T76" sqref="T76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2834,17 +2828,17 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2938,22 +2932,22 @@
         <v>11336122.1</v>
       </c>
       <c r="J7" s="16">
-        <v>9995439.1999999993</v>
+        <v>9995439.4000000004</v>
       </c>
       <c r="K7" s="16">
-        <v>9555982</v>
+        <v>9555982.4000000004</v>
       </c>
       <c r="L7" s="16">
-        <v>9338677.3000000007</v>
+        <v>9338680.1999999993</v>
       </c>
       <c r="M7" s="16">
-        <v>8823105.5</v>
+        <v>8823109</v>
       </c>
       <c r="N7" s="16">
-        <v>9329322.8000000007</v>
+        <v>9330200.5999999996</v>
       </c>
       <c r="O7" s="16">
-        <v>0</v>
+        <v>9418367.5999999996</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
@@ -3001,7 +2995,7 @@
       <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -3014,7 +3008,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="100"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="77" t="s">
@@ -3027,38 +3021,38 @@
         <v>1370486.9</v>
       </c>
       <c r="F11" s="16">
-        <v>1518758.3</v>
+        <v>1518401.8</v>
       </c>
       <c r="G11" s="16">
-        <v>1486937.7</v>
+        <v>1485868.7</v>
       </c>
       <c r="H11" s="16">
-        <v>1502758.9</v>
+        <v>1501773.6</v>
       </c>
       <c r="I11" s="16">
-        <v>1401386.9</v>
+        <v>1400640.3</v>
       </c>
       <c r="J11" s="16">
-        <v>1439028.2</v>
+        <v>1438515.8</v>
       </c>
       <c r="K11" s="16">
-        <v>1478600.9</v>
+        <v>1478316.4</v>
       </c>
       <c r="L11" s="16">
-        <v>1418469</v>
+        <v>1418717.2</v>
       </c>
       <c r="M11" s="16">
-        <v>1557156.1</v>
+        <v>1559696.6</v>
       </c>
       <c r="N11" s="16">
-        <v>1582450.7</v>
+        <v>1593741.9</v>
       </c>
       <c r="O11" s="16">
-        <v>0</v>
+        <v>1664083.7</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>16151297.499999998</v>
+        <v>17825506.800000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3091,20 +3085,20 @@
         <v>368487.1</v>
       </c>
       <c r="L12" s="16">
-        <v>347422.2</v>
+        <v>347008.6</v>
       </c>
       <c r="M12" s="16">
-        <v>357973.4</v>
+        <v>356470.3</v>
       </c>
       <c r="N12" s="16">
-        <v>334054.2</v>
+        <v>334456.3</v>
       </c>
       <c r="O12" s="16">
-        <v>0</v>
+        <v>339943.8</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>4044343.2</v>
+        <v>4382772.3999999994</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3130,33 +3124,33 @@
         <v>166581.20000000001</v>
       </c>
       <c r="J13" s="16">
-        <v>172866.3</v>
+        <v>172711.5</v>
       </c>
       <c r="K13" s="16">
-        <v>175062.39999999999</v>
+        <v>174742.8</v>
       </c>
       <c r="L13" s="16">
-        <v>164621</v>
+        <v>164235.1</v>
       </c>
       <c r="M13" s="16">
-        <v>174912.1</v>
+        <v>174223.6</v>
       </c>
       <c r="N13" s="16">
-        <v>169761.8</v>
+        <v>167121</v>
       </c>
       <c r="O13" s="16">
-        <v>0</v>
+        <v>164482.70000000001</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1881822.4000000001</v>
+        <v>2042115.5000000002</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <v>557261.5</v>
       </c>
       <c r="E14" s="76">
@@ -3184,17 +3178,17 @@
         <v>580328.19999999995</v>
       </c>
       <c r="M14" s="75">
-        <v>595364.6</v>
+        <v>594503.4</v>
       </c>
       <c r="N14" s="75">
-        <v>567442.69999999995</v>
+        <v>561714.9</v>
       </c>
       <c r="O14" s="75">
-        <v>0</v>
+        <v>580626.9</v>
       </c>
       <c r="P14" s="76"/>
-      <c r="Q14" s="98">
-        <v>6420820.0999999996</v>
+      <c r="Q14" s="97">
+        <v>6994858.0000000009</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3208,38 +3202,38 @@
         <v>2464042.7999999998</v>
       </c>
       <c r="F15" s="16">
-        <v>2696283.3</v>
+        <v>2695926.8</v>
       </c>
       <c r="G15" s="16">
-        <v>2596133.0999999996</v>
+        <v>2595064.0999999996</v>
       </c>
       <c r="H15" s="16">
-        <v>2653945</v>
+        <v>2652959.7000000002</v>
       </c>
       <c r="I15" s="16">
-        <v>2521311.1999999997</v>
+        <v>2520564.6</v>
       </c>
       <c r="J15" s="16">
-        <v>2585016.9000000004</v>
+        <v>2584349.7000000002</v>
       </c>
       <c r="K15" s="16">
-        <v>2630935.2999999998</v>
+        <v>2630331.2000000002</v>
       </c>
       <c r="L15" s="16">
-        <v>2510840.4</v>
+        <v>2510289.0999999996</v>
       </c>
       <c r="M15" s="16">
-        <v>2685406.2</v>
+        <v>2684893.9000000004</v>
       </c>
       <c r="N15" s="16">
-        <v>2653709.4</v>
+        <v>2657034.1</v>
       </c>
       <c r="O15" s="16">
-        <v>0</v>
+        <v>2749137.1</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>28498283.199999996</v>
+        <v>31245252.699999999</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3270,38 +3264,38 @@
         <v>349935.7</v>
       </c>
       <c r="F17" s="16">
-        <v>369039.5</v>
+        <v>369396</v>
       </c>
       <c r="G17" s="16">
-        <v>356131.7</v>
+        <v>357200.7</v>
       </c>
       <c r="H17" s="16">
-        <v>372740.4</v>
+        <v>373725.7</v>
       </c>
       <c r="I17" s="16">
-        <v>380985.5</v>
+        <v>381731.6</v>
       </c>
       <c r="J17" s="16">
-        <v>417510</v>
+        <v>418177.2</v>
       </c>
       <c r="K17" s="16">
-        <v>465081.3</v>
+        <v>465687.9</v>
       </c>
       <c r="L17" s="16">
-        <v>446851.5</v>
+        <v>447401.6</v>
       </c>
       <c r="M17" s="16">
-        <v>519989.1</v>
+        <v>520502.2</v>
       </c>
       <c r="N17" s="16">
-        <v>482419.4</v>
+        <v>482946.2</v>
       </c>
       <c r="O17" s="16">
-        <v>0</v>
+        <v>461167.4</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>4502777.9000000004</v>
+        <v>4969966.0000000009</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3365,16 +3359,16 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8981579.5</v>
+        <v>8981603.8000000007</v>
       </c>
       <c r="E21" s="16">
-        <v>8551143</v>
+        <v>8551144.6999999993</v>
       </c>
       <c r="F21" s="16">
-        <v>9148576.8000000007</v>
+        <v>9148577.6999999993</v>
       </c>
       <c r="G21" s="16">
-        <v>8756444.5999999996</v>
+        <v>8756447.4000000004</v>
       </c>
       <c r="H21" s="16">
         <v>9029078.5</v>
@@ -3383,26 +3377,26 @@
         <v>8968153.8000000007</v>
       </c>
       <c r="J21" s="16">
-        <v>8997696.5</v>
+        <v>9007407.3000000007</v>
       </c>
       <c r="K21" s="16">
-        <v>8696906.3000000007</v>
+        <v>8697910.1999999993</v>
       </c>
       <c r="L21" s="16">
-        <v>8090861</v>
+        <v>8092360.5</v>
       </c>
       <c r="M21" s="16">
-        <v>9468692.9000000004</v>
+        <v>9468693.1999999993</v>
       </c>
       <c r="N21" s="16">
-        <v>9192967</v>
+        <v>9192889.8000000007</v>
       </c>
       <c r="O21" s="16">
-        <v>0</v>
+        <v>9631010.9000000004</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>97882099.900000006</v>
+        <v>107525277.80000001</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3444,11 +3438,11 @@
         <v>8764965</v>
       </c>
       <c r="O22" s="16">
-        <v>0</v>
+        <v>9221431.4000000004</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>90541665.299999982</v>
+        <v>99763096.699999988</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3490,11 +3484,11 @@
         <v>-7613567.5999999996</v>
       </c>
       <c r="O23" s="16">
-        <v>0</v>
+        <v>-8091277.4000000004</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-77736743.199999988</v>
+        <v>-85828020.599999994</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3503,16 +3497,16 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9636209.9000000004</v>
+        <v>9636234.2000000011</v>
       </c>
       <c r="E24" s="16">
-        <v>9448172.9000000004</v>
+        <v>9448174.5999999996</v>
       </c>
       <c r="F24" s="16">
-        <v>10462531.300000001</v>
+        <v>10462532.199999999</v>
       </c>
       <c r="G24" s="16">
-        <v>9913975.8999999985</v>
+        <v>9913978.6999999993</v>
       </c>
       <c r="H24" s="16">
         <v>10078214.1</v>
@@ -3521,33 +3515,33 @@
         <v>9974636</v>
       </c>
       <c r="J24" s="16">
-        <v>10197554.700000001</v>
+        <v>10207265.500000002</v>
       </c>
       <c r="K24" s="16">
-        <v>10048350.699999999</v>
+        <v>10049354.599999998</v>
       </c>
       <c r="L24" s="16">
-        <v>9508347.5999999996</v>
+        <v>9509847.0999999996</v>
       </c>
       <c r="M24" s="16">
-        <v>11074664.5</v>
+        <v>11074664.799999997</v>
       </c>
       <c r="N24" s="16">
-        <v>10344364.4</v>
+        <v>10344287.200000001</v>
       </c>
       <c r="O24" s="16">
-        <v>0</v>
+        <v>10761164.9</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>110687022</v>
+        <v>121460353.90000001</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="96">
         <v>6287330.2000000002</v>
       </c>
       <c r="E25" s="42">
@@ -3581,11 +3575,11 @@
         <v>6537105.5999999996</v>
       </c>
       <c r="O25" s="42">
-        <v>0</v>
+        <v>7005342.9000000004</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="100">
-        <v>66981757.699999988</v>
+      <c r="Q25" s="99">
+        <v>73987100.599999994</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3593,16 +3587,16 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15923540.100000001</v>
+        <v>15923564.400000002</v>
       </c>
       <c r="E26" s="16">
-        <v>15419420.4</v>
+        <v>15419422.1</v>
       </c>
       <c r="F26" s="16">
-        <v>16843474.399999999</v>
+        <v>16843475.299999997</v>
       </c>
       <c r="G26" s="16">
-        <v>15775119.599999998</v>
+        <v>15775122.399999999</v>
       </c>
       <c r="H26" s="16">
         <v>15119196.199999999</v>
@@ -3611,31 +3605,31 @@
         <v>15641738.6</v>
       </c>
       <c r="J26" s="16">
-        <v>16735393.5</v>
+        <v>16745104.300000001</v>
       </c>
       <c r="K26" s="16">
-        <v>16830386.5</v>
+        <v>16831390.399999999</v>
       </c>
       <c r="L26" s="16">
-        <v>15258489.6</v>
+        <v>15259989.1</v>
       </c>
       <c r="M26" s="16">
-        <v>17240550.800000001</v>
+        <v>17240551.099999998</v>
       </c>
       <c r="N26" s="16">
-        <v>16881470</v>
+        <v>16881392.800000001</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>17766507.800000001</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>177668779.69999999</v>
+        <v>195447454.5</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="53"/>
-      <c r="D27" s="97"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -3648,7 +3642,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="100"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="50" t="s">
@@ -3656,44 +3650,44 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18766293.500000004</v>
+        <v>18766317.800000004</v>
       </c>
       <c r="E28" s="16">
-        <v>18233398.899999999</v>
+        <v>18233400.599999998</v>
       </c>
       <c r="F28" s="16">
-        <v>19908797.199999999</v>
+        <v>19908798.099999998</v>
       </c>
       <c r="G28" s="16">
-        <v>18727384.399999995</v>
+        <v>18727387.199999999</v>
       </c>
       <c r="H28" s="16">
         <v>18145881.599999998</v>
       </c>
       <c r="I28" s="16">
-        <v>18544035.300000001</v>
+        <v>18544034.800000001</v>
       </c>
       <c r="J28" s="16">
-        <v>19737920.399999999</v>
+        <v>19747631.199999999</v>
       </c>
       <c r="K28" s="16">
-        <v>19926403.100000001</v>
+        <v>19927409.499999996</v>
       </c>
       <c r="L28" s="16">
-        <v>18216181.5</v>
+        <v>18217679.800000001</v>
       </c>
       <c r="M28" s="16">
-        <v>20445946.100000001</v>
+        <v>20445947.199999999</v>
       </c>
       <c r="N28" s="16">
-        <v>20017598.799999997</v>
+        <v>20021373.100000001</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>20976812.300000001</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>210669840.79999998</v>
+        <v>231662673.19999999</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3764,17 +3758,17 @@
         <v>1052252.8</v>
       </c>
       <c r="M31" s="16">
-        <v>1181058.1000000001</v>
+        <v>1181062.5</v>
       </c>
       <c r="N31" s="16">
-        <v>1202967.5</v>
+        <v>1202890.1000000001</v>
       </c>
       <c r="O31" s="16">
-        <v>0</v>
+        <v>1237734.7</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>12334920.5</v>
+        <v>13572582.199999999</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3815,11 +3809,11 @@
         <v>382015.7</v>
       </c>
       <c r="O32" s="16">
-        <v>0</v>
+        <v>391511.5</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>3924267.8</v>
+        <v>4315779.3</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3878,11 +3872,11 @@
         <v>9769.5</v>
       </c>
       <c r="O34" s="16">
-        <v>0</v>
+        <v>11624</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>106795.09999999999</v>
+        <v>118419.09999999999</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3924,11 +3918,11 @@
         <v>8886.4</v>
       </c>
       <c r="O35" s="16">
-        <v>0</v>
+        <v>6559.4</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>107670.20000000001</v>
+        <v>114229.6</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3964,17 +3958,17 @@
         <v>333841</v>
       </c>
       <c r="M36" s="16">
-        <v>532329.4</v>
+        <v>532325.30000000005</v>
       </c>
       <c r="N36" s="16">
-        <v>580688.5</v>
+        <v>580688.69999999995</v>
       </c>
       <c r="O36" s="16">
-        <v>0</v>
+        <v>552236.4</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>5060510.8999999994</v>
+        <v>5612743.4000000004</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4001,44 +3995,44 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>291702</v>
+        <v>291677.2</v>
       </c>
       <c r="E38" s="16">
-        <v>278793.40000000002</v>
+        <v>278791.5</v>
       </c>
       <c r="F38" s="16">
-        <v>288678.8</v>
+        <v>288677.8</v>
       </c>
       <c r="G38" s="16">
-        <v>279346.7</v>
+        <v>279343.8</v>
       </c>
       <c r="H38" s="16">
-        <v>243770.3</v>
+        <v>243769.60000000001</v>
       </c>
       <c r="I38" s="16">
         <v>242941.6</v>
       </c>
       <c r="J38" s="16">
-        <v>252370.4</v>
+        <v>252168.4</v>
       </c>
       <c r="K38" s="16">
-        <v>257247.3</v>
+        <v>256219.9</v>
       </c>
       <c r="L38" s="16">
-        <v>248918.39999999999</v>
+        <v>247383.9</v>
       </c>
       <c r="M38" s="16">
-        <v>249859.4</v>
+        <v>249859.1</v>
       </c>
       <c r="N38" s="16">
-        <v>242493.1</v>
+        <v>243707.9</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>269411.20000000001</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>2876121.4</v>
+        <v>3143951.9000000004</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4080,11 +4074,11 @@
         <v>58.6</v>
       </c>
       <c r="O39" s="16">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>348.90000000000009</v>
+        <v>375.50000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4164,12 +4158,12 @@
         <v>360104.9</v>
       </c>
       <c r="O42" s="78">
-        <v>0</v>
+        <v>492731.5</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
         <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>4981401.1000000006</v>
+        <v>5474132.6000000006</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4222,12 +4216,13 @@
         <v>1113829.3</v>
       </c>
       <c r="O43" s="78">
-        <v>0</v>
+        <f>622706.4+574465.3</f>
+        <v>1197171.7000000002</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
         <f t="shared" si="0"/>
-        <v>11897362.100000001</v>
+        <v>13094533.800000001</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4269,12 +4264,12 @@
         <v>847047</v>
       </c>
       <c r="O44" s="78">
-        <v>0</v>
+        <v>924555.9</v>
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>9926871.0999999996</v>
+        <v>10851427</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4316,12 +4311,12 @@
         <v>263055.90000000002</v>
       </c>
       <c r="O45" s="80">
-        <v>0</v>
+        <v>206670</v>
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2574761.6999999997</v>
+        <v>2781431.6999999997</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4354,32 +4349,33 @@
         <v>2620769.3000000003</v>
       </c>
       <c r="J46" s="89">
-        <f>SUM(J42:J45)</f>
+        <f t="shared" ref="J46:O46" si="2">SUM(J42:J45)</f>
         <v>2681212.7999999998</v>
       </c>
       <c r="K46" s="89">
-        <f>SUM(K42:K45)</f>
+        <f t="shared" si="2"/>
         <v>2474069.0999999996</v>
       </c>
       <c r="L46" s="89">
-        <f>SUM(L42:L45)</f>
+        <f t="shared" si="2"/>
         <v>2493286.1</v>
       </c>
       <c r="M46" s="89">
-        <f>SUM(M42:M45)</f>
+        <f t="shared" si="2"/>
         <v>2725567.9</v>
       </c>
       <c r="N46" s="89">
-        <f>SUM(N42:N45)</f>
+        <f t="shared" si="2"/>
         <v>2584037.1</v>
       </c>
       <c r="O46" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2821129.1</v>
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>29380396</v>
+        <v>32201525.100000001</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4405,40 +4401,40 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:J48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5273177.5999999996</v>
+        <f t="shared" ref="D48:J48" si="3">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5273152.8</v>
       </c>
       <c r="E48" s="89">
-        <f t="shared" si="2"/>
-        <v>4804957.9000000004</v>
+        <f t="shared" si="3"/>
+        <v>4804956</v>
       </c>
       <c r="F48" s="89">
-        <f t="shared" si="2"/>
-        <v>5126658.5</v>
+        <f t="shared" si="3"/>
+        <v>5126657.5</v>
       </c>
       <c r="G48" s="89">
-        <f t="shared" si="2"/>
-        <v>5039799.6999999993</v>
+        <f t="shared" si="3"/>
+        <v>5039796.7999999989</v>
       </c>
       <c r="H48" s="89">
-        <f t="shared" si="2"/>
-        <v>4827243.3999999994</v>
+        <f t="shared" si="3"/>
+        <v>4827242.6999999993</v>
       </c>
       <c r="I48" s="89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4719176.5</v>
       </c>
       <c r="J48" s="89">
-        <f t="shared" si="2"/>
-        <v>4801856.9000000004</v>
+        <f t="shared" si="3"/>
+        <v>4801654.9000000004</v>
       </c>
       <c r="K48" s="89">
         <f>K31+K32+K34+K35+K36+K38+K39+K46</f>
-        <v>4660076.8999999994</v>
+        <v>4659049.5</v>
       </c>
       <c r="L48" s="89">
         <f>L31+L32+L34+L35+L36+L38+L39+L46</f>
-        <v>4448534.5</v>
+        <v>4447000</v>
       </c>
       <c r="M48" s="89">
         <f>M31+M32+M34+M35+M36+M38+M39+M46</f>
@@ -4446,15 +4442,16 @@
       </c>
       <c r="N48" s="89">
         <f>N31+N32+N34+N35+N36+N38+N39+N46</f>
-        <v>5010916.4000000004</v>
+        <v>5012054</v>
       </c>
       <c r="O48" s="89">
-        <v>0</v>
+        <f>O31+O32+O34+O35+O36+O38+O39+O46</f>
+        <v>5290232.9000000004</v>
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>53791030.799999997</v>
+        <v>59079606.100000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4512,12 +4509,12 @@
         <v>237439.9</v>
       </c>
       <c r="O50" s="78">
-        <v>0</v>
+        <v>237905.2</v>
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>2448311.9</v>
+        <f>SUM(D50:O50)</f>
+        <v>2686217.1</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4558,12 +4555,12 @@
         <v>109746.5</v>
       </c>
       <c r="O51" s="78">
-        <v>0</v>
+        <v>113050.7</v>
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" si="3"/>
-        <v>1165470.5</v>
+        <f>SUM(D51:O51)</f>
+        <v>1278521.2</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4571,64 +4568,64 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>336855</v>
+        <v>336854.5</v>
       </c>
       <c r="E52" s="78">
-        <v>311590.09999999998</v>
+        <v>311589.90000000002</v>
       </c>
       <c r="F52" s="78">
-        <v>331826.3</v>
+        <v>331826.2</v>
       </c>
       <c r="G52" s="78">
-        <v>327864</v>
+        <v>327863.90000000002</v>
       </c>
       <c r="H52" s="78">
-        <v>316753</v>
+        <v>316752.3</v>
       </c>
       <c r="I52" s="78">
         <v>316823.7</v>
       </c>
       <c r="J52" s="78">
-        <v>327273.3</v>
+        <v>325935</v>
       </c>
       <c r="K52" s="78">
-        <v>324655.3</v>
+        <v>324631.8</v>
       </c>
       <c r="L52" s="78">
-        <v>296851.7</v>
+        <v>296816.7</v>
       </c>
       <c r="M52" s="78">
-        <v>339882.4</v>
+        <v>339883.3</v>
       </c>
       <c r="N52" s="78">
-        <v>341037.5</v>
+        <v>341022.4</v>
       </c>
       <c r="O52" s="78">
-        <v>0</v>
+        <v>357315.5</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <f t="shared" si="3"/>
-        <v>3571412.3</v>
+        <f>SUM(D52:O52)</f>
+        <v>3927315.1999999997</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="106"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4651,29 +4648,29 @@
         <v>11336122.1</v>
       </c>
       <c r="I54" s="83">
-        <v>9995439.1999999993</v>
+        <v>9995439.4000000004</v>
       </c>
       <c r="J54" s="83">
-        <v>9556007.4000000004</v>
+        <v>9556007.8000000007</v>
       </c>
       <c r="K54" s="83">
-        <v>9338677.3000000007</v>
+        <v>9338680.1999999993</v>
       </c>
       <c r="L54" s="83">
-        <v>8824698.9000000004</v>
+        <v>8824702.4000000004</v>
       </c>
       <c r="M54" s="83">
-        <v>9330498.0999999996</v>
+        <v>9330502.6999999993</v>
       </c>
       <c r="N54" s="83">
-        <v>9418098.6999999993</v>
+        <v>9418838.0999999996</v>
       </c>
       <c r="O54" s="83">
-        <v>0</v>
+        <v>9507102.6999999993</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9418098.6999999993</v>
+        <v>9507102.6999999993</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4711,14 +4708,15 @@
         <v>-55263.3</v>
       </c>
       <c r="N55" s="78">
-        <v>-65664.7</v>
+        <v>-62436.2</v>
       </c>
       <c r="O55" s="78">
-        <v>0</v>
+        <v>-89535.2</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <v>-592954.9</v>
+        <f>SUM(D55:O55)</f>
+        <v>-679261.6</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4744,12 +4742,12 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:N57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22908328.000000004</v>
+        <f t="shared" ref="D57:O57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>22908328.000000007</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22691760.899999999</v>
+        <v>22691760.900000002</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
@@ -4757,43 +4755,44 @@
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22670868.799999993</v>
+        <v>22670868.800000001</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22949752.800000001</v>
+        <v>22949752.799999997</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
-        <v>23872430</v>
+        <v>23872429.299999997</v>
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>24281180.099999994</v>
+        <v>24292027.000000004</v>
       </c>
       <c r="K57" s="89">
         <f t="shared" si="4"/>
-        <v>24038465.799999997</v>
+        <v>24038465.799999993</v>
       </c>
       <c r="L57" s="89">
         <f t="shared" si="4"/>
-        <v>22516396.099999998</v>
+        <v>22516394.300000001</v>
       </c>
       <c r="M57" s="89">
         <f t="shared" si="4"/>
-        <v>24270020.800000001</v>
+        <v>24270019.899999999</v>
       </c>
       <c r="N57" s="89">
         <f t="shared" si="4"/>
-        <v>24185850.699999999</v>
+        <v>24194144.600000001</v>
       </c>
       <c r="O57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>25380503.500000004</v>
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>258330724.99999997</v>
+        <v>283730365.90000004</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4815,23 +4814,23 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="104" t="s">
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="103" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4873,8 +4872,8 @@
       <c r="O60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="102"/>
-      <c r="Q60" s="101" t="s">
+      <c r="P60" s="101"/>
+      <c r="Q60" s="100" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4955,11 +4954,11 @@
         <v>52690.3</v>
       </c>
       <c r="O63" s="90">
-        <v>0</v>
+        <v>51696.4</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>256478.19999999995</v>
+        <v>308174.59999999998</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5000,11 +4999,11 @@
         <v>2527477.4</v>
       </c>
       <c r="O64" s="90">
-        <v>0</v>
+        <v>2513825.7999999998</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>26525667.599999998</v>
+        <v>29039493.399999999</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5042,14 +5041,14 @@
         <v>11904.8</v>
       </c>
       <c r="N65" s="90">
-        <v>10453.6</v>
+        <v>10453.1</v>
       </c>
       <c r="O65" s="90">
-        <v>0</v>
+        <v>8086.3</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>153759.09999999998</v>
+        <v>161844.89999999997</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5090,11 +5089,11 @@
         <v>10899.7</v>
       </c>
       <c r="O66" s="90">
-        <v>0</v>
+        <v>7595.9</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>179657.40000000002</v>
+        <v>187253.30000000002</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5164,29 +5163,29 @@
         <v>1664.8</v>
       </c>
       <c r="I68" s="90">
-        <v>-11519.4</v>
+        <v>-11518</v>
       </c>
       <c r="J68" s="90">
-        <v>37679.4</v>
+        <v>15979.8</v>
       </c>
       <c r="K68" s="90">
         <v>-3702.8</v>
       </c>
       <c r="L68" s="90">
-        <v>16169</v>
+        <v>16172.6</v>
       </c>
       <c r="M68" s="90">
         <v>-2596</v>
       </c>
       <c r="N68" s="90">
-        <v>10453.799999999999</v>
+        <v>10437.799999999999</v>
       </c>
       <c r="O68" s="90">
-        <v>0</v>
+        <v>-8662.7999999999993</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>12301.100000000006</v>
+        <v>-18072.299999999996</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5225,14 +5224,14 @@
         <v>373413</v>
       </c>
       <c r="N69" s="90">
-        <v>357123.2</v>
+        <v>357104.1</v>
       </c>
       <c r="O69" s="90">
-        <v>0</v>
+        <v>331212</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>3643192.7</v>
+        <v>3974385.6</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5256,29 +5255,29 @@
         <v>2802981.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>2879797.1</v>
+        <v>2879798.5</v>
       </c>
       <c r="J70" s="90">
-        <v>2947619.4999999995</v>
+        <v>2925919.8999999994</v>
       </c>
       <c r="K70" s="90">
         <v>2842911.2</v>
       </c>
       <c r="L70" s="90">
-        <v>2604467.4</v>
+        <v>2604471</v>
       </c>
       <c r="M70" s="90">
         <v>2966003.4000000004</v>
       </c>
       <c r="N70" s="90">
-        <v>2969288</v>
+        <v>2969252.4</v>
       </c>
       <c r="O70" s="90">
-        <v>0</v>
+        <v>2903753.5999999996</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>30771452.399999999</v>
+        <v>33653475.799999997</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5338,11 +5337,11 @@
         <v>20796351.5</v>
       </c>
       <c r="O72" s="78">
-        <v>0</v>
+        <v>22023989.600000001</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>221423043.09999999</v>
+        <v>243447032.69999999</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5384,11 +5383,11 @@
         <v>693211.71666666667</v>
       </c>
       <c r="O73" s="78">
-        <v>0</v>
+        <v>710451.27741935488</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>663255.19097751717</v>
+        <v>667188.19818100368</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5416,11 +5415,11 @@
       <c r="C75" s="17"/>
       <c r="D75" s="89">
         <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
-        <v>530267.20000000298</v>
+        <v>530267.20000000671</v>
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>646478</v>
+        <v>646478.00000000373</v>
       </c>
       <c r="F75" s="89">
         <f t="shared" si="5"/>
@@ -5428,43 +5427,44 @@
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>705241.99999999627</v>
+        <v>705242.00000000373</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
-        <v>789832.30000000075</v>
+        <v>789832.29999999702</v>
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
-        <v>596749.19999999925</v>
+        <v>596747.09999999776</v>
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>665779.69999999553</v>
+        <v>698326.20000000671</v>
       </c>
       <c r="K75" s="89">
         <f>K57-(K70+K72)</f>
-        <v>216795.69999999925</v>
+        <v>216795.69999999553</v>
       </c>
       <c r="L75" s="89">
         <f>L57-(L70+L72)</f>
-        <v>372057.59999999776</v>
+        <v>372052.19999999925</v>
       </c>
       <c r="M75" s="89">
         <f>M57-(M70+M72)</f>
-        <v>599986.40000000224</v>
+        <v>599985.5</v>
       </c>
       <c r="N75" s="89">
         <f>N57-(N70+N72)</f>
-        <v>420211.19999999925</v>
+        <v>428540.70000000298</v>
       </c>
       <c r="O75" s="89">
-        <v>0</v>
+        <f>O57-(O70+O72)</f>
+        <v>452760.30000000075</v>
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>6136229.4999999925</v>
+        <v>6629857.4000000134</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5473,12 +5473,12 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:N76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.314735497064661E-2</v>
+        <f t="shared" ref="D76:P76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>2.3147354970646766E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>2.8489547499154198E-2</v>
+        <v>2.8489547499154357E-2</v>
       </c>
       <c r="F76" s="94">
         <f t="shared" si="6"/>
@@ -5486,43 +5486,47 @@
       </c>
       <c r="G76" s="94">
         <f t="shared" si="6"/>
-        <v>3.1107850617528892E-2</v>
+        <v>3.1107850617529211E-2</v>
       </c>
       <c r="H76" s="94">
         <f t="shared" si="6"/>
-        <v>3.4415721462585896E-2</v>
+        <v>3.4415721462585737E-2</v>
       </c>
       <c r="I76" s="94">
         <f t="shared" si="6"/>
-        <v>2.4997421711991583E-2</v>
+        <v>2.4997334477392205E-2</v>
       </c>
       <c r="J76" s="94">
         <f t="shared" si="6"/>
-        <v>2.7419577518804191E-2</v>
+        <v>2.8747135840084755E-2</v>
       </c>
       <c r="K76" s="94">
         <f t="shared" si="6"/>
-        <v>9.0186995211649183E-3</v>
+        <v>9.0186995211647657E-3</v>
       </c>
       <c r="L76" s="94">
         <f t="shared" si="6"/>
-        <v>1.65238521452373E-2</v>
+        <v>1.6523613640928258E-2</v>
       </c>
       <c r="M76" s="94">
         <f t="shared" si="6"/>
-        <v>2.4721297313432967E-2</v>
+        <v>2.4721261147379613E-2</v>
       </c>
       <c r="N76" s="94">
         <f t="shared" si="6"/>
-        <v>1.737425758606867E-2</v>
-      </c>
-      <c r="O76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="P76" s="96"/>
-      <c r="Q76" s="96">
+        <v>1.7712579100647476E-2</v>
+      </c>
+      <c r="O76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.7838901422897329E-2</v>
+      </c>
+      <c r="P76" s="94" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q76" s="95">
         <f>AVERAGE(D76:O76)</f>
-        <v>2.3815716544544504E-2</v>
+        <v>2.3456441778648727E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5548,12 +5552,12 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:N78" si="7">(D70+D72)+D75</f>
-        <v>22908328.000000004</v>
+        <f t="shared" ref="D78:O78" si="7">(D70+D72)+D75</f>
+        <v>22908328.000000007</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22691760.899999999</v>
+        <v>22691760.900000002</v>
       </c>
       <c r="F78" s="89">
         <f t="shared" si="7"/>
@@ -5561,43 +5565,44 @@
       </c>
       <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>22670868.799999993</v>
+        <v>22670868.800000001</v>
       </c>
       <c r="H78" s="89">
         <f t="shared" si="7"/>
-        <v>22949752.800000001</v>
+        <v>22949752.799999997</v>
       </c>
       <c r="I78" s="89">
         <f t="shared" si="7"/>
-        <v>23872430</v>
+        <v>23872429.299999997</v>
       </c>
       <c r="J78" s="89">
         <f t="shared" si="7"/>
-        <v>24281180.099999994</v>
+        <v>24292027.000000004</v>
       </c>
       <c r="K78" s="89">
         <f t="shared" si="7"/>
-        <v>24038465.799999997</v>
+        <v>24038465.799999993</v>
       </c>
       <c r="L78" s="89">
         <f t="shared" si="7"/>
-        <v>22516396.099999998</v>
+        <v>22516394.300000001</v>
       </c>
       <c r="M78" s="89">
         <f t="shared" si="7"/>
-        <v>24270020.800000001</v>
+        <v>24270019.899999999</v>
       </c>
       <c r="N78" s="89">
         <f t="shared" si="7"/>
-        <v>24185850.699999999</v>
+        <v>24194144.600000001</v>
       </c>
       <c r="O78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>25380503.500000004</v>
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>258330724.99999997</v>
+        <v>283730365.90000004</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5669,7 +5674,7 @@
         <v>119</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="99"/>
+      <c r="D84" s="98"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5681,7 +5686,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
-      <c r="Q84" s="99"/>
+      <c r="Q84" s="98"/>
     </row>
     <row r="85" spans="2:17">
       <c r="B85" s="23"/>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97E367-A285-4625-B2E8-46C0CCF96AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC65021-6E48-426C-AADC-5BEFC5584C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -473,10 +473,13 @@
     <t>Nonupgraded</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run Date:  28 January 2025</t>
+    <t xml:space="preserve"> Run Date:  27 February 2025</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2797,8 +2800,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75:Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,7 +2841,7 @@
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2899,7 +2902,7 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1">
@@ -2914,44 +2917,44 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>11068972.4</v>
+        <v>9506769.3000000007</v>
       </c>
       <c r="E7" s="16">
-        <v>11472978.6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="16">
-        <v>11192500.699999999</v>
+        <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>11563981.1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="16">
-        <v>11973464.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>11336122.1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16">
-        <v>9995439.4000000004</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
-        <v>9555982.4000000004</v>
+        <v>0</v>
       </c>
       <c r="L7" s="16">
-        <v>9338680.1999999993</v>
+        <v>0</v>
       </c>
       <c r="M7" s="16">
-        <v>8823109</v>
+        <v>0</v>
       </c>
       <c r="N7" s="16">
-        <v>9330200.5999999996</v>
+        <v>0</v>
       </c>
       <c r="O7" s="16">
-        <v>9418367.5999999996</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>11068972.4</v>
+        <v>9506769.3000000007</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3015,44 +3018,44 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1395263.9</v>
+        <v>1621194.5</v>
       </c>
       <c r="E11" s="16">
-        <v>1370486.9</v>
+        <v>0</v>
       </c>
       <c r="F11" s="16">
-        <v>1518401.8</v>
+        <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>1485868.7</v>
+        <v>0</v>
       </c>
       <c r="H11" s="16">
-        <v>1501773.6</v>
+        <v>0</v>
       </c>
       <c r="I11" s="16">
-        <v>1400640.3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="16">
-        <v>1438515.8</v>
+        <v>0</v>
       </c>
       <c r="K11" s="16">
-        <v>1478316.4</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
-        <v>1418717.2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
-        <v>1559696.6</v>
+        <v>0</v>
       </c>
       <c r="N11" s="16">
-        <v>1593741.9</v>
+        <v>0</v>
       </c>
       <c r="O11" s="16">
-        <v>1664083.7</v>
+        <v>0</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>17825506.800000001</v>
+        <v>1621194.5</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3061,44 +3064,44 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>377242.1</v>
+        <v>340993</v>
       </c>
       <c r="E12" s="16">
-        <v>373212.8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>402303.1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>382734.8</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16">
-        <v>379371.7</v>
+        <v>0</v>
       </c>
       <c r="I12" s="16">
-        <v>352250.9</v>
+        <v>0</v>
       </c>
       <c r="J12" s="16">
-        <v>369290.9</v>
+        <v>0</v>
       </c>
       <c r="K12" s="16">
-        <v>368487.1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="16">
-        <v>347008.6</v>
+        <v>0</v>
       </c>
       <c r="M12" s="16">
-        <v>356470.3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="16">
-        <v>334456.3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="16">
-        <v>339943.8</v>
+        <v>0</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>4382772.3999999994</v>
+        <v>340993</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3106,44 +3109,44 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>170892.1</v>
+        <v>160076.9</v>
       </c>
       <c r="E13" s="16">
-        <v>169057.7</v>
+        <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>175537.4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>169995.4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="16">
-        <v>172535</v>
+        <v>0</v>
       </c>
       <c r="I13" s="16">
-        <v>166581.20000000001</v>
+        <v>0</v>
       </c>
       <c r="J13" s="16">
-        <v>172711.5</v>
+        <v>0</v>
       </c>
       <c r="K13" s="16">
-        <v>174742.8</v>
+        <v>0</v>
       </c>
       <c r="L13" s="16">
-        <v>164235.1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="16">
-        <v>174223.6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="16">
-        <v>167121</v>
+        <v>0</v>
       </c>
       <c r="O13" s="16">
-        <v>164482.70000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>2042115.5000000002</v>
+        <v>160076.9</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3151,44 +3154,44 @@
         <v>122</v>
       </c>
       <c r="D14" s="97">
-        <v>557261.5</v>
+        <v>586106.1</v>
       </c>
       <c r="E14" s="76">
-        <v>551285.4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="76">
-        <v>599684.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="75">
-        <v>556465.19999999995</v>
+        <v>0</v>
       </c>
       <c r="H14" s="75">
-        <v>599279.4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="75">
-        <v>601092.19999999995</v>
+        <v>0</v>
       </c>
       <c r="J14" s="75">
-        <v>603831.5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="75">
-        <v>608784.9</v>
+        <v>0</v>
       </c>
       <c r="L14" s="75">
-        <v>580328.19999999995</v>
+        <v>0</v>
       </c>
       <c r="M14" s="75">
-        <v>594503.4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="75">
-        <v>561714.9</v>
+        <v>0</v>
       </c>
       <c r="O14" s="75">
-        <v>580626.9</v>
+        <v>0</v>
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="97">
-        <v>6994858.0000000009</v>
+        <v>586106.1</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3196,44 +3199,44 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2500659.6</v>
+        <v>2708370.5</v>
       </c>
       <c r="E15" s="16">
-        <v>2464042.7999999998</v>
+        <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>2695926.8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>2595064.0999999996</v>
+        <v>0</v>
       </c>
       <c r="H15" s="16">
-        <v>2652959.7000000002</v>
+        <v>0</v>
       </c>
       <c r="I15" s="16">
-        <v>2520564.6</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16">
-        <v>2584349.7000000002</v>
+        <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>2630331.2000000002</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16">
-        <v>2510289.0999999996</v>
+        <v>0</v>
       </c>
       <c r="M15" s="16">
-        <v>2684893.9000000004</v>
+        <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>2657034.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="16">
-        <v>2749137.1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>31245252.699999999</v>
+        <v>2708370.5</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3258,44 +3261,44 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>342093.8</v>
+        <v>415578</v>
       </c>
       <c r="E17" s="16">
-        <v>349935.7</v>
+        <v>0</v>
       </c>
       <c r="F17" s="16">
-        <v>369396</v>
+        <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>357200.7</v>
+        <v>0</v>
       </c>
       <c r="H17" s="16">
-        <v>373725.7</v>
+        <v>0</v>
       </c>
       <c r="I17" s="16">
-        <v>381731.6</v>
+        <v>0</v>
       </c>
       <c r="J17" s="16">
-        <v>418177.2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="16">
-        <v>465687.9</v>
+        <v>0</v>
       </c>
       <c r="L17" s="16">
-        <v>447401.6</v>
+        <v>0</v>
       </c>
       <c r="M17" s="16">
-        <v>520502.2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>482946.2</v>
+        <v>0</v>
       </c>
       <c r="O17" s="16">
-        <v>461167.4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>4969966.0000000009</v>
+        <v>415578</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3359,44 +3362,44 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>8981603.8000000007</v>
+        <v>9632950.3000000007</v>
       </c>
       <c r="E21" s="16">
-        <v>8551144.6999999993</v>
+        <v>0</v>
       </c>
       <c r="F21" s="16">
-        <v>9148577.6999999993</v>
+        <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>8756447.4000000004</v>
+        <v>0</v>
       </c>
       <c r="H21" s="16">
-        <v>9029078.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="16">
-        <v>8968153.8000000007</v>
+        <v>0</v>
       </c>
       <c r="J21" s="16">
-        <v>9007407.3000000007</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>8697910.1999999993</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
-        <v>8092360.5</v>
+        <v>0</v>
       </c>
       <c r="M21" s="16">
-        <v>9468693.1999999993</v>
+        <v>0</v>
       </c>
       <c r="N21" s="16">
-        <v>9192889.8000000007</v>
+        <v>0</v>
       </c>
       <c r="O21" s="16">
-        <v>9631010.9000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>107525277.80000001</v>
+        <v>9632950.3000000007</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3405,44 +3408,44 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="90">
-        <v>8042151.5</v>
+        <v>8943212.4000000004</v>
       </c>
       <c r="E22" s="16">
-        <v>7804241.2999999998</v>
+        <v>0</v>
       </c>
       <c r="F22" s="16">
-        <v>8731224</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16">
-        <v>7943289</v>
+        <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>6859051</v>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
-        <v>7639544</v>
+        <v>0</v>
       </c>
       <c r="J22" s="16">
-        <v>8723179.3000000007</v>
+        <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>9179551.0999999996</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>8217059.5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="16">
-        <v>8637409.5999999996</v>
+        <v>0</v>
       </c>
       <c r="N22" s="16">
-        <v>8764965</v>
+        <v>0</v>
       </c>
       <c r="O22" s="16">
-        <v>9221431.4000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>99763096.699999988</v>
+        <v>8943212.4000000004</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3451,44 +3454,44 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="90">
-        <v>-7387521.0999999996</v>
+        <v>-8085028.2999999998</v>
       </c>
       <c r="E23" s="16">
-        <v>-6907211.4000000004</v>
+        <v>0</v>
       </c>
       <c r="F23" s="16">
-        <v>-7417269.5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="16">
-        <v>-6785757.7000000002</v>
+        <v>0</v>
       </c>
       <c r="H23" s="16">
-        <v>-5809915.4000000004</v>
+        <v>0</v>
       </c>
       <c r="I23" s="16">
-        <v>-6633061.7999999998</v>
+        <v>0</v>
       </c>
       <c r="J23" s="16">
-        <v>-7523321.0999999996</v>
+        <v>0</v>
       </c>
       <c r="K23" s="16">
-        <v>-7828106.7000000002</v>
+        <v>0</v>
       </c>
       <c r="L23" s="16">
-        <v>-6799572.9000000004</v>
+        <v>0</v>
       </c>
       <c r="M23" s="16">
-        <v>-7031438</v>
+        <v>0</v>
       </c>
       <c r="N23" s="16">
-        <v>-7613567.5999999996</v>
+        <v>0</v>
       </c>
       <c r="O23" s="16">
-        <v>-8091277.4000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-85828020.599999994</v>
+        <v>-8085028.2999999998</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3497,44 +3500,44 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>9636234.2000000011</v>
+        <v>10491134.400000002</v>
       </c>
       <c r="E24" s="16">
-        <v>9448174.5999999996</v>
+        <v>0</v>
       </c>
       <c r="F24" s="16">
-        <v>10462532.199999999</v>
+        <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>9913978.6999999993</v>
+        <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>10078214.1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="16">
-        <v>9974636</v>
+        <v>0</v>
       </c>
       <c r="J24" s="16">
-        <v>10207265.500000002</v>
+        <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>10049354.599999998</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
-        <v>9509847.0999999996</v>
+        <v>0</v>
       </c>
       <c r="M24" s="16">
-        <v>11074664.799999997</v>
+        <v>0</v>
       </c>
       <c r="N24" s="16">
-        <v>10344287.200000001</v>
+        <v>0</v>
       </c>
       <c r="O24" s="16">
-        <v>10761164.9</v>
+        <v>0</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>121460353.90000001</v>
+        <v>10491134.400000002</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3542,44 +3545,44 @@
         <v>28</v>
       </c>
       <c r="D25" s="96">
-        <v>6287330.2000000002</v>
+        <v>7041322.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>5971247.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="42">
-        <v>6380943.0999999996</v>
+        <v>0</v>
       </c>
       <c r="G25" s="42">
-        <v>5861143.7000000002</v>
+        <v>0</v>
       </c>
       <c r="H25" s="42">
-        <v>5040982.0999999996</v>
+        <v>0</v>
       </c>
       <c r="I25" s="42">
-        <v>5667102.5999999996</v>
+        <v>0</v>
       </c>
       <c r="J25" s="42">
-        <v>6537838.7999999998</v>
+        <v>0</v>
       </c>
       <c r="K25" s="42">
-        <v>6782035.7999999998</v>
+        <v>0</v>
       </c>
       <c r="L25" s="42">
-        <v>5750142</v>
+        <v>0</v>
       </c>
       <c r="M25" s="42">
-        <v>6165886.2999999998</v>
+        <v>0</v>
       </c>
       <c r="N25" s="42">
-        <v>6537105.5999999996</v>
+        <v>0</v>
       </c>
       <c r="O25" s="42">
-        <v>7005342.9000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="99">
-        <v>73987100.599999994</v>
+        <v>7041322.2000000002</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3587,44 +3590,44 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>15923564.400000002</v>
+        <v>17532456.600000001</v>
       </c>
       <c r="E26" s="16">
-        <v>15419422.1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="16">
-        <v>16843475.299999997</v>
+        <v>0</v>
       </c>
       <c r="G26" s="16">
-        <v>15775122.399999999</v>
+        <v>0</v>
       </c>
       <c r="H26" s="16">
-        <v>15119196.199999999</v>
+        <v>0</v>
       </c>
       <c r="I26" s="16">
-        <v>15641738.6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="16">
-        <v>16745104.300000001</v>
+        <v>0</v>
       </c>
       <c r="K26" s="16">
-        <v>16831390.399999999</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
-        <v>15259989.1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="16">
-        <v>17240551.099999998</v>
+        <v>0</v>
       </c>
       <c r="N26" s="16">
-        <v>16881392.800000001</v>
+        <v>0</v>
       </c>
       <c r="O26" s="16">
-        <v>17766507.800000001</v>
+        <v>0</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>195447454.5</v>
+        <v>17532456.600000001</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3650,44 +3653,44 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>18766317.800000004</v>
+        <v>20656405.100000001</v>
       </c>
       <c r="E28" s="16">
-        <v>18233400.599999998</v>
+        <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>19908798.099999998</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>18727387.199999999</v>
+        <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>18145881.599999998</v>
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <v>18544034.800000001</v>
+        <v>0</v>
       </c>
       <c r="J28" s="16">
-        <v>19747631.199999999</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>19927409.499999996</v>
+        <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>18217679.800000001</v>
+        <v>0</v>
       </c>
       <c r="M28" s="16">
-        <v>20445947.199999999</v>
+        <v>0</v>
       </c>
       <c r="N28" s="16">
-        <v>20021373.100000001</v>
+        <v>0</v>
       </c>
       <c r="O28" s="16">
-        <v>20976812.300000001</v>
+        <v>0</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>231662673.19999999</v>
+        <v>20656405.100000001</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3731,44 +3734,44 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1143099.7</v>
+        <v>1251358.1000000001</v>
       </c>
       <c r="E31" s="16">
-        <v>1056621.6000000001</v>
+        <v>0</v>
       </c>
       <c r="F31" s="16">
-        <v>1138990.6000000001</v>
+        <v>0</v>
       </c>
       <c r="G31" s="16">
-        <v>1138653.3999999999</v>
+        <v>0</v>
       </c>
       <c r="H31" s="16">
-        <v>1080985.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="16">
-        <v>1075107.6000000001</v>
+        <v>0</v>
       </c>
       <c r="J31" s="16">
-        <v>1117475.3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="16">
-        <v>1147708.3999999999</v>
+        <v>0</v>
       </c>
       <c r="L31" s="16">
-        <v>1052252.8</v>
+        <v>0</v>
       </c>
       <c r="M31" s="16">
-        <v>1181062.5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="16">
-        <v>1202890.1000000001</v>
+        <v>0</v>
       </c>
       <c r="O31" s="16">
-        <v>1237734.7</v>
+        <v>0</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>13572582.199999999</v>
+        <v>1251358.1000000001</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3776,44 +3779,44 @@
         <v>48</v>
       </c>
       <c r="D32" s="90">
-        <v>366625.4</v>
+        <v>392655.1</v>
       </c>
       <c r="E32" s="16">
-        <v>345167.8</v>
+        <v>0</v>
       </c>
       <c r="F32" s="16">
-        <v>358881.5</v>
+        <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>342393.2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="16">
-        <v>341831.9</v>
+        <v>0</v>
       </c>
       <c r="I32" s="16">
-        <v>359402.4</v>
+        <v>0</v>
       </c>
       <c r="J32" s="16">
-        <v>349445.4</v>
+        <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>404487.9</v>
+        <v>0</v>
       </c>
       <c r="L32" s="16">
-        <v>302667.59999999998</v>
+        <v>0</v>
       </c>
       <c r="M32" s="16">
-        <v>371349</v>
+        <v>0</v>
       </c>
       <c r="N32" s="16">
-        <v>382015.7</v>
+        <v>0</v>
       </c>
       <c r="O32" s="16">
-        <v>391511.5</v>
+        <v>0</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>4315779.3</v>
+        <v>392655.1</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3839,44 +3842,44 @@
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="90">
-        <v>9768.4</v>
+        <v>11064.9</v>
       </c>
       <c r="E34" s="16">
-        <v>9370.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="F34" s="16">
-        <v>10426.6</v>
+        <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>11181.4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16">
-        <v>9941.2999999999993</v>
+        <v>0</v>
       </c>
       <c r="I34" s="16">
-        <v>9226.9</v>
+        <v>0</v>
       </c>
       <c r="J34" s="16">
-        <v>9402</v>
+        <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>9059</v>
+        <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>8950</v>
+        <v>0</v>
       </c>
       <c r="M34" s="16">
-        <v>9699.2999999999993</v>
+        <v>0</v>
       </c>
       <c r="N34" s="16">
-        <v>9769.5</v>
+        <v>0</v>
       </c>
       <c r="O34" s="16">
-        <v>11624</v>
+        <v>0</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>118419.09999999999</v>
+        <v>11064.9</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3885,44 +3888,44 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="90">
-        <v>11409.9</v>
+        <v>7685.1</v>
       </c>
       <c r="E35" s="16">
-        <v>8201.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="F35" s="16">
-        <v>10699.8</v>
+        <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>12392</v>
+        <v>0</v>
       </c>
       <c r="H35" s="16">
-        <v>9714.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="I35" s="16">
-        <v>8489.9</v>
+        <v>0</v>
       </c>
       <c r="J35" s="16">
-        <v>10589.7</v>
+        <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>9965.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="L35" s="16">
-        <v>8618.6</v>
+        <v>0</v>
       </c>
       <c r="M35" s="16">
-        <v>8701.5</v>
+        <v>0</v>
       </c>
       <c r="N35" s="16">
-        <v>8886.4</v>
+        <v>0</v>
       </c>
       <c r="O35" s="16">
-        <v>6559.4</v>
+        <v>0</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>114229.6</v>
+        <v>7685.1</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3931,44 +3934,44 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>520231.3</v>
+        <v>563891.19999999995</v>
       </c>
       <c r="E36" s="16">
-        <v>517649.8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="16">
-        <v>558407.69999999995</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>410604.2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="16">
-        <v>464720.1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="16">
-        <v>403213.8</v>
+        <v>0</v>
       </c>
       <c r="J36" s="16">
-        <v>381350.9</v>
+        <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>357474.2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="16">
-        <v>333841</v>
+        <v>0</v>
       </c>
       <c r="M36" s="16">
-        <v>532325.30000000005</v>
+        <v>0</v>
       </c>
       <c r="N36" s="16">
-        <v>580688.69999999995</v>
+        <v>0</v>
       </c>
       <c r="O36" s="16">
-        <v>552236.4</v>
+        <v>0</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>5612743.4000000004</v>
+        <v>563891.19999999995</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -3995,44 +3998,44 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>291677.2</v>
+        <v>280523.5</v>
       </c>
       <c r="E38" s="16">
-        <v>278791.5</v>
+        <v>0</v>
       </c>
       <c r="F38" s="16">
-        <v>288677.8</v>
+        <v>0</v>
       </c>
       <c r="G38" s="16">
-        <v>279343.8</v>
+        <v>0</v>
       </c>
       <c r="H38" s="16">
-        <v>243769.60000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" s="16">
-        <v>242941.6</v>
+        <v>0</v>
       </c>
       <c r="J38" s="16">
-        <v>252168.4</v>
+        <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>256219.9</v>
+        <v>0</v>
       </c>
       <c r="L38" s="16">
-        <v>247383.9</v>
+        <v>0</v>
       </c>
       <c r="M38" s="16">
-        <v>249859.1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="16">
-        <v>243707.9</v>
+        <v>0</v>
       </c>
       <c r="O38" s="16">
-        <v>269411.20000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>3143951.9000000004</v>
+        <v>280523.5</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4041,44 +4044,44 @@
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="90">
-        <v>22.8</v>
+        <v>23.9</v>
       </c>
       <c r="E39" s="16">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="F39" s="16">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="H39" s="16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I39" s="16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J39" s="16">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <v>0</v>
       </c>
       <c r="M39" s="16">
-        <v>67.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="N39" s="16">
-        <v>58.6</v>
+        <v>0</v>
       </c>
       <c r="O39" s="16">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>375.50000000000011</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4125,45 +4128,45 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="78">
-        <v>468372.6</v>
+        <v>486366.8</v>
       </c>
       <c r="E42" s="78">
-        <v>434674.9</v>
+        <v>0</v>
       </c>
       <c r="F42" s="78">
-        <v>434005.2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="78">
-        <v>491324.2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="78">
-        <v>454995.6</v>
+        <v>0</v>
       </c>
       <c r="I42" s="78">
-        <v>528424.80000000005</v>
+        <v>0</v>
       </c>
       <c r="J42" s="78">
-        <v>446142.7</v>
+        <v>0</v>
       </c>
       <c r="K42" s="78">
-        <v>461349.9</v>
+        <v>0</v>
       </c>
       <c r="L42" s="78">
-        <v>398956</v>
+        <v>0</v>
       </c>
       <c r="M42" s="78">
-        <v>503050.3</v>
+        <v>0</v>
       </c>
       <c r="N42" s="78">
-        <v>360104.9</v>
+        <v>0</v>
       </c>
       <c r="O42" s="78">
-        <v>492731.5</v>
+        <v>0</v>
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
         <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>5474132.6000000006</v>
+        <v>486366.8</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4172,57 +4175,46 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="78">
-        <f>545525.1+744323.3</f>
-        <v>1289848.3999999999</v>
+        <f>545525.1+612469.9</f>
+        <v>1157995</v>
       </c>
       <c r="E43" s="78">
-        <f>502541.5+530856.6</f>
-        <v>1033398.1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="78">
-        <f>518173+603208.4</f>
-        <v>1121381.3999999999</v>
+        <v>0</v>
       </c>
       <c r="G43" s="78">
-        <f>503540.6+683035.5</f>
-        <v>1186576.1000000001</v>
+        <v>0</v>
       </c>
       <c r="H43" s="78">
-        <f>467485.3+665610.4</f>
-        <v>1133095.7</v>
+        <v>0</v>
       </c>
       <c r="I43" s="78">
-        <f>463296.9+648500.2</f>
-        <v>1111797.1000000001</v>
+        <v>0</v>
       </c>
       <c r="J43" s="78">
-        <f>445686+667519.7</f>
-        <v>1113205.7</v>
+        <v>0</v>
       </c>
       <c r="K43" s="78">
-        <f>496888.2+300328.9</f>
-        <v>797217.10000000009</v>
+        <v>0</v>
       </c>
       <c r="L43" s="78">
-        <f>473237.3+493795.2</f>
-        <v>967032.5</v>
+        <v>0</v>
       </c>
       <c r="M43" s="78">
-        <f>482906.3+547074.4</f>
-        <v>1029980.7</v>
+        <v>0</v>
       </c>
       <c r="N43" s="78">
-        <f>520882.2+592947.1</f>
-        <v>1113829.3</v>
+        <v>0</v>
       </c>
       <c r="O43" s="78">
-        <f>622706.4+574465.3</f>
-        <v>1197171.7000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
         <f t="shared" si="0"/>
-        <v>13094533.800000001</v>
+        <v>1157995</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4231,45 +4223,45 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="78">
-        <v>925167.5</v>
+        <v>911490.1</v>
       </c>
       <c r="E44" s="78">
-        <v>850417.8</v>
+        <v>0</v>
       </c>
       <c r="F44" s="78">
-        <v>923209.5</v>
+        <v>0</v>
       </c>
       <c r="G44" s="78">
-        <v>912184.3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="78">
-        <v>1040077.4</v>
+        <v>0</v>
       </c>
       <c r="I44" s="78">
-        <v>980545.7</v>
+        <v>0</v>
       </c>
       <c r="J44" s="78">
-        <v>865602</v>
+        <v>0</v>
       </c>
       <c r="K44" s="78">
-        <v>890768.3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="78">
-        <v>815108.7</v>
+        <v>0</v>
       </c>
       <c r="M44" s="78">
-        <v>876742.9</v>
+        <v>0</v>
       </c>
       <c r="N44" s="78">
-        <v>847047</v>
+        <v>0</v>
       </c>
       <c r="O44" s="78">
-        <v>924555.9</v>
+        <v>0</v>
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>10851427</v>
+        <v>911490.1</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4278,45 +4270,45 @@
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="80">
-        <v>246929.6</v>
+        <v>295695.40000000002</v>
       </c>
       <c r="E45" s="80">
-        <v>270623.40000000002</v>
+        <v>0</v>
       </c>
       <c r="F45" s="80">
-        <v>281953.90000000002</v>
+        <v>0</v>
       </c>
       <c r="G45" s="80">
-        <v>255127.3</v>
+        <v>0</v>
       </c>
       <c r="H45" s="80">
-        <v>48090.8</v>
+        <v>0</v>
       </c>
       <c r="I45" s="80">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J45" s="80">
-        <v>256262.39999999999</v>
+        <v>0</v>
       </c>
       <c r="K45" s="80">
-        <v>324733.8</v>
+        <v>0</v>
       </c>
       <c r="L45" s="80">
-        <v>312188.90000000002</v>
+        <v>0</v>
       </c>
       <c r="M45" s="80">
-        <v>315794</v>
+        <v>0</v>
       </c>
       <c r="N45" s="80">
-        <v>263055.90000000002</v>
+        <v>0</v>
       </c>
       <c r="O45" s="80">
-        <v>206670</v>
+        <v>0</v>
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2781431.6999999997</v>
+        <v>295695.40000000002</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4325,57 +4317,46 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:I46" si="1">SUM(D42:D45)</f>
-        <v>2930318.1</v>
+        <f t="shared" ref="D46" si="1">SUM(D42:D45)</f>
+        <v>2851547.3</v>
       </c>
       <c r="E46" s="89">
-        <f t="shared" si="1"/>
-        <v>2589114.1999999997</v>
+        <v>0</v>
       </c>
       <c r="F46" s="89">
-        <f t="shared" si="1"/>
-        <v>2760549.9999999995</v>
+        <v>0</v>
       </c>
       <c r="G46" s="89">
-        <f t="shared" si="1"/>
-        <v>2845211.9</v>
+        <v>0</v>
       </c>
       <c r="H46" s="89">
-        <f t="shared" si="1"/>
-        <v>2676259.4999999995</v>
+        <v>0</v>
       </c>
       <c r="I46" s="89">
-        <f t="shared" si="1"/>
-        <v>2620769.3000000003</v>
+        <v>0</v>
       </c>
       <c r="J46" s="89">
-        <f t="shared" ref="J46:O46" si="2">SUM(J42:J45)</f>
-        <v>2681212.7999999998</v>
+        <v>0</v>
       </c>
       <c r="K46" s="89">
-        <f t="shared" si="2"/>
-        <v>2474069.0999999996</v>
+        <v>0</v>
       </c>
       <c r="L46" s="89">
-        <f t="shared" si="2"/>
-        <v>2493286.1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="89">
-        <f t="shared" si="2"/>
-        <v>2725567.9</v>
+        <v>0</v>
       </c>
       <c r="N46" s="89">
-        <f t="shared" si="2"/>
-        <v>2584037.1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="89">
-        <f t="shared" si="2"/>
-        <v>2821129.1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>32201525.100000001</v>
+        <v>2851547.3</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4401,57 +4382,46 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:J48" si="3">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5273152.8</v>
+        <f t="shared" ref="D48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5358749.0999999996</v>
       </c>
       <c r="E48" s="89">
-        <f t="shared" si="3"/>
-        <v>4804956</v>
+        <v>0</v>
       </c>
       <c r="F48" s="89">
-        <f t="shared" si="3"/>
-        <v>5126657.5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="89">
-        <f t="shared" si="3"/>
-        <v>5039796.7999999989</v>
+        <v>0</v>
       </c>
       <c r="H48" s="89">
-        <f t="shared" si="3"/>
-        <v>4827242.6999999993</v>
+        <v>0</v>
       </c>
       <c r="I48" s="89">
-        <f t="shared" si="3"/>
-        <v>4719176.5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="89">
-        <f t="shared" si="3"/>
-        <v>4801654.9000000004</v>
+        <v>0</v>
       </c>
       <c r="K48" s="89">
-        <f>K31+K32+K34+K35+K36+K38+K39+K46</f>
-        <v>4659049.5</v>
+        <v>0</v>
       </c>
       <c r="L48" s="89">
-        <f>L31+L32+L34+L35+L36+L38+L39+L46</f>
-        <v>4447000</v>
+        <v>0</v>
       </c>
       <c r="M48" s="89">
-        <f>M31+M32+M34+M35+M36+M38+M39+M46</f>
-        <v>5078632.5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="89">
-        <f>N31+N32+N34+N35+N36+N38+N39+N46</f>
-        <v>5012054</v>
+        <v>0</v>
       </c>
       <c r="O48" s="89">
-        <f>O31+O32+O34+O35+O36+O38+O39+O46</f>
-        <v>5290232.9000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>59079606.100000001</v>
+        <v>5358749.0999999996</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4476,45 +4446,45 @@
         <v>54</v>
       </c>
       <c r="D50" s="78">
-        <v>209032.3</v>
+        <v>222825.7</v>
       </c>
       <c r="E50" s="78">
-        <v>204328.4</v>
+        <v>0</v>
       </c>
       <c r="F50" s="78">
-        <v>219942.2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="78">
-        <v>204296</v>
+        <v>0</v>
       </c>
       <c r="H50" s="78">
-        <v>215885.8</v>
+        <v>0</v>
       </c>
       <c r="I50" s="78">
-        <v>218397.6</v>
+        <v>0</v>
       </c>
       <c r="J50" s="78">
-        <v>234289.3</v>
+        <v>0</v>
       </c>
       <c r="K50" s="78">
-        <v>251912.9</v>
+        <v>0</v>
       </c>
       <c r="L50" s="78">
-        <v>209761.8</v>
+        <v>0</v>
       </c>
       <c r="M50" s="78">
-        <v>243025.7</v>
+        <v>0</v>
       </c>
       <c r="N50" s="78">
-        <v>237439.9</v>
+        <v>0</v>
       </c>
       <c r="O50" s="78">
-        <v>237905.2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f>SUM(D50:O50)</f>
-        <v>2686217.1</v>
+        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
+        <v>222825.7</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4522,45 +4492,45 @@
         <v>22</v>
       </c>
       <c r="D51" s="78">
-        <v>97194.9</v>
+        <v>121720.8</v>
       </c>
       <c r="E51" s="78">
-        <v>100123.4</v>
+        <v>0</v>
       </c>
       <c r="F51" s="78">
-        <v>101695.5</v>
+        <v>0</v>
       </c>
       <c r="G51" s="78">
-        <v>105542</v>
+        <v>0</v>
       </c>
       <c r="H51" s="78">
-        <v>102698.9</v>
+        <v>0</v>
       </c>
       <c r="I51" s="78">
-        <v>104330.8</v>
+        <v>0</v>
       </c>
       <c r="J51" s="78">
-        <v>111004.9</v>
+        <v>0</v>
       </c>
       <c r="K51" s="78">
-        <v>114591.6</v>
+        <v>0</v>
       </c>
       <c r="L51" s="78">
-        <v>109548.2</v>
+        <v>0</v>
       </c>
       <c r="M51" s="78">
-        <v>108993.8</v>
+        <v>0</v>
       </c>
       <c r="N51" s="78">
-        <v>109746.5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="78">
-        <v>113050.7</v>
+        <v>0</v>
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f>SUM(D51:O51)</f>
-        <v>1278521.2</v>
+        <f t="shared" si="3"/>
+        <v>121720.8</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4568,45 +4538,45 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>336854.5</v>
+        <v>358524.4</v>
       </c>
       <c r="E52" s="78">
-        <v>311589.90000000002</v>
+        <v>0</v>
       </c>
       <c r="F52" s="78">
-        <v>331826.2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="78">
-        <v>327863.90000000002</v>
+        <v>0</v>
       </c>
       <c r="H52" s="78">
-        <v>316752.3</v>
+        <v>0</v>
       </c>
       <c r="I52" s="78">
-        <v>316823.7</v>
+        <v>0</v>
       </c>
       <c r="J52" s="78">
-        <v>325935</v>
+        <v>0</v>
       </c>
       <c r="K52" s="78">
-        <v>324631.8</v>
+        <v>0</v>
       </c>
       <c r="L52" s="78">
-        <v>296816.7</v>
+        <v>0</v>
       </c>
       <c r="M52" s="78">
-        <v>339883.3</v>
+        <v>0</v>
       </c>
       <c r="N52" s="78">
-        <v>341022.4</v>
+        <v>0</v>
       </c>
       <c r="O52" s="78">
-        <v>357315.5</v>
+        <v>0</v>
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <f>SUM(D52:O52)</f>
-        <v>3927315.1999999997</v>
+        <f t="shared" si="3"/>
+        <v>358524.4</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
@@ -4633,44 +4603,44 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>11472978.6</v>
+        <v>9474355.5</v>
       </c>
       <c r="E54" s="83">
-        <v>11192500.699999999</v>
+        <v>0</v>
       </c>
       <c r="F54" s="83">
-        <v>11563981.1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="83">
-        <v>11973541.1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="83">
-        <v>11336122.1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="83">
-        <v>9995439.4000000004</v>
+        <v>0</v>
       </c>
       <c r="J54" s="83">
-        <v>9556007.8000000007</v>
+        <v>0</v>
       </c>
       <c r="K54" s="83">
-        <v>9338680.1999999993</v>
+        <v>0</v>
       </c>
       <c r="L54" s="83">
-        <v>8824702.4000000004</v>
+        <v>0</v>
       </c>
       <c r="M54" s="83">
-        <v>9330502.6999999993</v>
+        <v>0</v>
       </c>
       <c r="N54" s="83">
-        <v>9418838.0999999996</v>
+        <v>0</v>
       </c>
       <c r="O54" s="83">
-        <v>9507102.6999999993</v>
+        <v>0</v>
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9507102.6999999993</v>
+        <v>9474355.5</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4678,45 +4648,45 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-84054.7</v>
+        <v>-64015.4</v>
       </c>
       <c r="E55" s="78">
-        <v>-11031.9</v>
+        <v>0</v>
       </c>
       <c r="F55" s="78">
-        <v>-64840.3</v>
+        <v>0</v>
       </c>
       <c r="G55" s="78">
-        <v>-49053.3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="78">
-        <v>-25376.9</v>
+        <v>0</v>
       </c>
       <c r="I55" s="78">
-        <v>-91912.6</v>
+        <v>0</v>
       </c>
       <c r="J55" s="78">
-        <v>-25461.5</v>
+        <v>0</v>
       </c>
       <c r="K55" s="78">
-        <v>-74159.100000000006</v>
+        <v>0</v>
       </c>
       <c r="L55" s="78">
-        <v>-46136.6</v>
+        <v>0</v>
       </c>
       <c r="M55" s="78">
-        <v>-55263.3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="78">
-        <v>-62436.2</v>
+        <v>0</v>
       </c>
       <c r="O55" s="78">
-        <v>-89535.2</v>
+        <v>0</v>
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-679261.6</v>
+        <v>-64015.4</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4742,57 +4712,46 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:O57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>22908328.000000007</v>
+        <f t="shared" ref="D57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>25280481.700000007</v>
       </c>
       <c r="E57" s="89">
-        <f t="shared" si="4"/>
-        <v>22691760.900000002</v>
+        <v>0</v>
       </c>
       <c r="F57" s="89">
-        <f t="shared" si="4"/>
-        <v>23945670.999999996</v>
+        <v>0</v>
       </c>
       <c r="G57" s="89">
-        <f t="shared" si="4"/>
-        <v>22670868.800000001</v>
+        <v>0</v>
       </c>
       <c r="H57" s="89">
-        <f t="shared" si="4"/>
-        <v>22949752.799999997</v>
+        <v>0</v>
       </c>
       <c r="I57" s="89">
-        <f t="shared" si="4"/>
-        <v>23872429.299999997</v>
+        <v>0</v>
       </c>
       <c r="J57" s="89">
-        <f t="shared" si="4"/>
-        <v>24292027.000000004</v>
+        <v>0</v>
       </c>
       <c r="K57" s="89">
-        <f t="shared" si="4"/>
-        <v>24038465.799999993</v>
+        <v>0</v>
       </c>
       <c r="L57" s="89">
-        <f t="shared" si="4"/>
-        <v>22516394.300000001</v>
+        <v>0</v>
       </c>
       <c r="M57" s="89">
-        <f t="shared" si="4"/>
-        <v>24270019.899999999</v>
+        <v>0</v>
       </c>
       <c r="N57" s="89">
-        <f t="shared" si="4"/>
-        <v>24194144.600000001</v>
+        <v>0</v>
       </c>
       <c r="O57" s="89">
-        <f t="shared" si="4"/>
-        <v>25380503.500000004</v>
+        <v>0</v>
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>283730365.90000004</v>
+        <v>25280481.700000007</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4814,7 +4773,7 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="102"/>
@@ -4874,7 +4833,7 @@
       </c>
       <c r="P60" s="101"/>
       <c r="Q60" s="100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1">
@@ -4921,44 +4880,44 @@
         <v>125</v>
       </c>
       <c r="D63" s="90">
-        <v>1014.6999999999999</v>
+        <v>68129.5</v>
       </c>
       <c r="E63" s="90">
-        <v>841.8</v>
+        <v>0</v>
       </c>
       <c r="F63" s="90">
-        <v>139.4</v>
+        <v>0</v>
       </c>
       <c r="G63" s="90">
-        <v>6037.1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="90">
-        <v>8250</v>
+        <v>0</v>
       </c>
       <c r="I63" s="90">
-        <v>26492.799999999999</v>
+        <v>0</v>
       </c>
       <c r="J63" s="90">
-        <v>46944.6</v>
+        <v>0</v>
       </c>
       <c r="K63" s="90">
-        <v>29624.7</v>
+        <v>0</v>
       </c>
       <c r="L63" s="90">
-        <v>37391.599999999999</v>
+        <v>0</v>
       </c>
       <c r="M63" s="90">
-        <v>47051.199999999997</v>
+        <v>0</v>
       </c>
       <c r="N63" s="90">
-        <v>52690.3</v>
+        <v>0</v>
       </c>
       <c r="O63" s="90">
-        <v>51696.4</v>
+        <v>0</v>
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>308174.59999999998</v>
+        <v>68129.5</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4966,44 +4925,44 @@
         <v>32</v>
       </c>
       <c r="D64" s="90">
-        <v>2363322.5</v>
+        <v>2519528.2000000002</v>
       </c>
       <c r="E64" s="90">
-        <v>2320766.5</v>
+        <v>0</v>
       </c>
       <c r="F64" s="90">
-        <v>2451048.7999999998</v>
+        <v>0</v>
       </c>
       <c r="G64" s="90">
-        <v>2195637.2999999998</v>
+        <v>0</v>
       </c>
       <c r="H64" s="90">
-        <v>2418312.2000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" s="90">
-        <v>2518903.7000000002</v>
+        <v>0</v>
       </c>
       <c r="J64" s="90">
-        <v>2528214.2999999998</v>
+        <v>0</v>
       </c>
       <c r="K64" s="90">
-        <v>2488965.2999999998</v>
+        <v>0</v>
       </c>
       <c r="L64" s="90">
-        <v>2202255.4</v>
+        <v>0</v>
       </c>
       <c r="M64" s="90">
-        <v>2510764.2000000002</v>
+        <v>0</v>
       </c>
       <c r="N64" s="90">
-        <v>2527477.4</v>
+        <v>0</v>
       </c>
       <c r="O64" s="90">
-        <v>2513825.7999999998</v>
+        <v>0</v>
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>29039493.399999999</v>
+        <v>2519528.2000000002</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5011,44 +4970,44 @@
         <v>53</v>
       </c>
       <c r="D65" s="90">
-        <v>14561.1</v>
+        <v>11271.3</v>
       </c>
       <c r="E65" s="90">
-        <v>12653.9</v>
+        <v>0</v>
       </c>
       <c r="F65" s="90">
-        <v>15761.7</v>
+        <v>0</v>
       </c>
       <c r="G65" s="90">
-        <v>19229.8</v>
+        <v>0</v>
       </c>
       <c r="H65" s="90">
-        <v>14563.4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="90">
-        <v>13428.4</v>
+        <v>0</v>
       </c>
       <c r="J65" s="90">
-        <v>15598.4</v>
+        <v>0</v>
       </c>
       <c r="K65" s="90">
-        <v>13148.4</v>
+        <v>0</v>
       </c>
       <c r="L65" s="90">
-        <v>12455.6</v>
+        <v>0</v>
       </c>
       <c r="M65" s="90">
-        <v>11904.8</v>
+        <v>0</v>
       </c>
       <c r="N65" s="90">
-        <v>10453.1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="90">
-        <v>8086.3</v>
+        <v>0</v>
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>161844.89999999997</v>
+        <v>11271.3</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5056,44 +5015,44 @@
         <v>39</v>
       </c>
       <c r="D66" s="90">
-        <v>29177.7</v>
+        <v>15518.6</v>
       </c>
       <c r="E66" s="90">
-        <v>15735.6</v>
+        <v>0</v>
       </c>
       <c r="F66" s="90">
-        <v>27199.3</v>
+        <v>0</v>
       </c>
       <c r="G66" s="90">
-        <v>9860.6</v>
+        <v>0</v>
       </c>
       <c r="H66" s="90">
-        <v>14598</v>
+        <v>0</v>
       </c>
       <c r="I66" s="90">
-        <v>6653.4</v>
+        <v>0</v>
       </c>
       <c r="J66" s="90">
-        <v>15820.8</v>
+        <v>0</v>
       </c>
       <c r="K66" s="90">
-        <v>19193.7</v>
+        <v>0</v>
       </c>
       <c r="L66" s="90">
-        <v>5052.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="M66" s="90">
-        <v>25466.2</v>
+        <v>0</v>
       </c>
       <c r="N66" s="90">
-        <v>10899.7</v>
+        <v>0</v>
       </c>
       <c r="O66" s="90">
-        <v>7595.9</v>
+        <v>0</v>
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>187253.30000000002</v>
+        <v>15518.6</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5114,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="90">
-        <v>149.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" s="90">
         <v>0</v>
@@ -5123,23 +5082,23 @@
         <v>0</v>
       </c>
       <c r="K67" s="90">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L67" s="90">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="M67" s="90">
         <v>0</v>
       </c>
       <c r="N67" s="90">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="O67" s="90">
         <v>0</v>
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>396.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5148,44 +5107,44 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-22232.5</v>
+        <v>-10549</v>
       </c>
       <c r="E68" s="90">
-        <v>-12313.6</v>
+        <v>0</v>
       </c>
       <c r="F68" s="90">
-        <v>1393.4</v>
+        <v>0</v>
       </c>
       <c r="G68" s="90">
-        <v>-2695</v>
+        <v>0</v>
       </c>
       <c r="H68" s="90">
-        <v>1664.8</v>
+        <v>0</v>
       </c>
       <c r="I68" s="90">
-        <v>-11518</v>
+        <v>0</v>
       </c>
       <c r="J68" s="90">
-        <v>15979.8</v>
+        <v>0</v>
       </c>
       <c r="K68" s="90">
-        <v>-3702.8</v>
+        <v>0</v>
       </c>
       <c r="L68" s="90">
-        <v>16172.6</v>
+        <v>0</v>
       </c>
       <c r="M68" s="90">
-        <v>-2596</v>
+        <v>0</v>
       </c>
       <c r="N68" s="90">
-        <v>10437.799999999999</v>
+        <v>0</v>
       </c>
       <c r="O68" s="90">
-        <v>-8662.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-18072.299999999996</v>
+        <v>-10549</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5194,44 +5153,44 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>312870.3</v>
+        <v>347313.9</v>
       </c>
       <c r="E69" s="90">
-        <v>343173.9</v>
+        <v>0</v>
       </c>
       <c r="F69" s="90">
-        <v>352053.8</v>
+        <v>0</v>
       </c>
       <c r="G69" s="90">
-        <v>303146.59999999998</v>
+        <v>0</v>
       </c>
       <c r="H69" s="90">
-        <v>345442.9</v>
+        <v>0</v>
       </c>
       <c r="I69" s="90">
-        <v>325838.2</v>
+        <v>0</v>
       </c>
       <c r="J69" s="90">
-        <v>303362</v>
+        <v>0</v>
       </c>
       <c r="K69" s="90">
-        <v>295664.90000000002</v>
+        <v>0</v>
       </c>
       <c r="L69" s="90">
-        <v>331103.90000000002</v>
+        <v>0</v>
       </c>
       <c r="M69" s="90">
-        <v>373413</v>
+        <v>0</v>
       </c>
       <c r="N69" s="90">
-        <v>357104.1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="90">
-        <v>331212</v>
+        <v>0</v>
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>3974385.6</v>
+        <v>347313.9</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5240,44 +5199,44 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2698713.8000000003</v>
+        <v>2951212.5</v>
       </c>
       <c r="E70" s="90">
-        <v>2680858.0999999996</v>
+        <v>0</v>
       </c>
       <c r="F70" s="90">
-        <v>2847596.3999999994</v>
+        <v>0</v>
       </c>
       <c r="G70" s="90">
-        <v>2531216.4</v>
+        <v>0</v>
       </c>
       <c r="H70" s="90">
-        <v>2802981.0999999996</v>
+        <v>0</v>
       </c>
       <c r="I70" s="90">
-        <v>2879798.5</v>
+        <v>0</v>
       </c>
       <c r="J70" s="90">
-        <v>2925919.8999999994</v>
+        <v>0</v>
       </c>
       <c r="K70" s="90">
-        <v>2842911.2</v>
+        <v>0</v>
       </c>
       <c r="L70" s="90">
-        <v>2604471</v>
+        <v>0</v>
       </c>
       <c r="M70" s="90">
-        <v>2966003.4000000004</v>
+        <v>0</v>
       </c>
       <c r="N70" s="90">
-        <v>2969252.4</v>
+        <v>0</v>
       </c>
       <c r="O70" s="90">
-        <v>2903753.5999999996</v>
+        <v>0</v>
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>33653475.799999997</v>
+        <v>2951212.5</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5304,44 +5263,44 @@
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="78">
-        <v>19679347</v>
+        <v>21929776.5</v>
       </c>
       <c r="E72" s="78">
-        <v>19364424.800000001</v>
+        <v>0</v>
       </c>
       <c r="F72" s="78">
-        <v>20505244.399999999</v>
+        <v>0</v>
       </c>
       <c r="G72" s="78">
-        <v>19434410.399999999</v>
+        <v>0</v>
       </c>
       <c r="H72" s="78">
-        <v>19356939.399999999</v>
+        <v>0</v>
       </c>
       <c r="I72" s="78">
-        <v>20395883.699999999</v>
+        <v>0</v>
       </c>
       <c r="J72" s="78">
-        <v>20667780.899999999</v>
+        <v>0</v>
       </c>
       <c r="K72" s="78">
-        <v>20978758.899999999</v>
+        <v>0</v>
       </c>
       <c r="L72" s="78">
-        <v>19539871.100000001</v>
+        <v>0</v>
       </c>
       <c r="M72" s="78">
-        <v>20704031</v>
+        <v>0</v>
       </c>
       <c r="N72" s="78">
-        <v>20796351.5</v>
+        <v>0</v>
       </c>
       <c r="O72" s="78">
-        <v>22023989.600000001</v>
+        <v>0</v>
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>243447032.69999999</v>
+        <v>21929776.5</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5350,44 +5309,44 @@
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="78">
-        <v>634817.6451612903</v>
+        <v>707412.1451612903</v>
       </c>
       <c r="E73" s="78">
-        <v>691586.6</v>
+        <v>0</v>
       </c>
       <c r="F73" s="78">
-        <v>661459.49677419348</v>
+        <v>0</v>
       </c>
       <c r="G73" s="78">
-        <v>647813.67999999993</v>
+        <v>0</v>
       </c>
       <c r="H73" s="78">
-        <v>624417.39999999991</v>
+        <v>0</v>
       </c>
       <c r="I73" s="78">
-        <v>679862.78999999992</v>
+        <v>0</v>
       </c>
       <c r="J73" s="78">
-        <v>666702.6096774193</v>
+        <v>0</v>
       </c>
       <c r="K73" s="78">
-        <v>676734.15806451603</v>
+        <v>0</v>
       </c>
       <c r="L73" s="78">
-        <v>651329.03666666674</v>
+        <v>0</v>
       </c>
       <c r="M73" s="78">
-        <v>667871.96774193551</v>
+        <v>0</v>
       </c>
       <c r="N73" s="78">
-        <v>693211.71666666667</v>
+        <v>0</v>
       </c>
       <c r="O73" s="78">
-        <v>710451.27741935488</v>
+        <v>0</v>
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>667188.19818100368</v>
+        <v>707412.1451612903</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5414,57 +5373,46 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
-        <v>530267.20000000671</v>
+        <f>D57-(D70+D72)</f>
+        <v>399492.70000000671</v>
       </c>
       <c r="E75" s="89">
-        <f t="shared" si="5"/>
-        <v>646478.00000000373</v>
+        <v>0</v>
       </c>
       <c r="F75" s="89">
-        <f t="shared" si="5"/>
-        <v>592830.19999999925</v>
+        <v>0</v>
       </c>
       <c r="G75" s="89">
-        <f t="shared" si="5"/>
-        <v>705242.00000000373</v>
+        <v>0</v>
       </c>
       <c r="H75" s="89">
-        <f t="shared" si="5"/>
-        <v>789832.29999999702</v>
+        <v>0</v>
       </c>
       <c r="I75" s="89">
-        <f t="shared" si="5"/>
-        <v>596747.09999999776</v>
+        <v>0</v>
       </c>
       <c r="J75" s="89">
-        <f t="shared" si="5"/>
-        <v>698326.20000000671</v>
+        <v>0</v>
       </c>
       <c r="K75" s="89">
-        <f>K57-(K70+K72)</f>
-        <v>216795.69999999553</v>
+        <v>0</v>
       </c>
       <c r="L75" s="89">
-        <f>L57-(L70+L72)</f>
-        <v>372052.19999999925</v>
+        <v>0</v>
       </c>
       <c r="M75" s="89">
-        <f>M57-(M70+M72)</f>
-        <v>599985.5</v>
+        <v>0</v>
       </c>
       <c r="N75" s="89">
-        <f>N57-(N70+N72)</f>
-        <v>428540.70000000298</v>
+        <v>0</v>
       </c>
       <c r="O75" s="89">
-        <f>O57-(O70+O72)</f>
-        <v>452760.30000000075</v>
+        <v>0</v>
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <f>SUM(D75:O75)</f>
-        <v>6629857.4000000134</v>
+        <f>D75</f>
+        <v>399492.70000000671</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5473,60 +5421,46 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:P76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>2.3147354970646766E-2</v>
-      </c>
-      <c r="E76" s="94">
-        <f t="shared" si="6"/>
-        <v>2.8489547499154357E-2</v>
-      </c>
-      <c r="F76" s="94">
-        <f t="shared" si="6"/>
-        <v>2.4757301643374259E-2</v>
-      </c>
-      <c r="G76" s="94">
-        <f t="shared" si="6"/>
-        <v>3.1107850617529211E-2</v>
-      </c>
-      <c r="H76" s="94">
-        <f t="shared" si="6"/>
-        <v>3.4415721462585737E-2</v>
-      </c>
-      <c r="I76" s="94">
-        <f t="shared" si="6"/>
-        <v>2.4997334477392205E-2</v>
-      </c>
-      <c r="J76" s="94">
-        <f t="shared" si="6"/>
-        <v>2.8747135840084755E-2</v>
-      </c>
-      <c r="K76" s="94">
-        <f t="shared" si="6"/>
-        <v>9.0186995211647657E-3</v>
-      </c>
-      <c r="L76" s="94">
-        <f t="shared" si="6"/>
-        <v>1.6523613640928258E-2</v>
-      </c>
-      <c r="M76" s="94">
-        <f t="shared" si="6"/>
-        <v>2.4721261147379613E-2</v>
-      </c>
-      <c r="N76" s="94">
-        <f t="shared" si="6"/>
-        <v>1.7712579100647476E-2</v>
-      </c>
-      <c r="O76" s="94">
-        <f t="shared" si="6"/>
-        <v>1.7838901422897329E-2</v>
-      </c>
-      <c r="P76" s="94" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+        <f>IF(D57&gt;0,D75/D57,"")</f>
+        <v>1.5802416454746848E-2</v>
+      </c>
+      <c r="E76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="K76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="L76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="M76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="N76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="O76" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="P76" s="94"/>
       <c r="Q76" s="95">
-        <f>AVERAGE(D76:O76)</f>
-        <v>2.3456441778648727E-2</v>
+        <f>D76</f>
+        <v>1.5802416454746848E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5552,57 +5486,46 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:O78" si="7">(D70+D72)+D75</f>
-        <v>22908328.000000007</v>
+        <f>(D70+D72)+D75</f>
+        <v>25280481.700000007</v>
       </c>
       <c r="E78" s="89">
-        <f t="shared" si="7"/>
-        <v>22691760.900000002</v>
+        <v>0</v>
       </c>
       <c r="F78" s="89">
-        <f t="shared" si="7"/>
-        <v>23945670.999999996</v>
+        <v>0</v>
       </c>
       <c r="G78" s="89">
-        <f t="shared" si="7"/>
-        <v>22670868.800000001</v>
+        <v>0</v>
       </c>
       <c r="H78" s="89">
-        <f t="shared" si="7"/>
-        <v>22949752.799999997</v>
+        <v>0</v>
       </c>
       <c r="I78" s="89">
-        <f t="shared" si="7"/>
-        <v>23872429.299999997</v>
+        <v>0</v>
       </c>
       <c r="J78" s="89">
-        <f t="shared" si="7"/>
-        <v>24292027.000000004</v>
+        <v>0</v>
       </c>
       <c r="K78" s="89">
-        <f t="shared" si="7"/>
-        <v>24038465.799999993</v>
+        <v>0</v>
       </c>
       <c r="L78" s="89">
-        <f t="shared" si="7"/>
-        <v>22516394.300000001</v>
+        <v>0</v>
       </c>
       <c r="M78" s="89">
-        <f t="shared" si="7"/>
-        <v>24270019.899999999</v>
+        <v>0</v>
       </c>
       <c r="N78" s="89">
-        <f t="shared" si="7"/>
-        <v>24194144.600000001</v>
+        <v>0</v>
       </c>
       <c r="O78" s="89">
-        <f t="shared" si="7"/>
-        <v>25380503.500000004</v>
+        <v>0</v>
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <f>SUM(D78:O78)</f>
-        <v>283730365.90000004</v>
+        <f>D78</f>
+        <v>25280481.700000007</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC65021-6E48-426C-AADC-5BEFC5584C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9DBC5-60EC-499C-AC40-7935B775D2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -473,13 +473,13 @@
     <t>Nonupgraded</t>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 February 2025</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Run Date:  27 March 2025</t>
   </si>
 </sst>
 </file>
@@ -1503,17 +1503,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="15" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="1.5546875" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1">
+    <row r="56" spans="1:19" ht="15" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="17"/>
       <c r="D56" s="69"/>
@@ -2506,7 +2506,7 @@
       <c r="O56" s="25"/>
       <c r="Q56" s="25"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickTop="1">
+    <row r="57" spans="1:19" ht="15" thickTop="1">
       <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="15.75" thickBot="1">
+    <row r="77" spans="2:17" ht="15" thickBot="1">
       <c r="B77" s="50"/>
       <c r="C77" s="19"/>
       <c r="D77" s="69"/>
@@ -2745,7 +2745,7 @@
       <c r="O77" s="25"/>
       <c r="Q77" s="25"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" thickTop="1">
+    <row r="78" spans="2:17" ht="15" thickTop="1">
       <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
@@ -2800,20 +2800,20 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="4" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -2841,7 +2841,7 @@
     </row>
     <row r="4" spans="2:22" ht="22.5" customHeight="1">
       <c r="B4" s="47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="1"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1">
@@ -2917,10 +2917,10 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>9506769.3000000007</v>
+        <v>9506707.1999999993</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>9473659.1999999993</v>
       </c>
       <c r="F7" s="16">
         <v>0</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>9506769.3000000007</v>
+        <v>9506707.1999999993</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3018,10 +3018,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1621194.5</v>
+        <v>1601564.8</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>1465971.7</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>1621194.5</v>
+        <v>3067536.5</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3064,10 +3064,10 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>340993</v>
+        <v>344961.5</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>302829.7</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>340993</v>
+        <v>647791.19999999995</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3109,10 +3109,10 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>160076.9</v>
+        <v>164192.29999999999</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>147188.5</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>160076.9</v>
+        <v>311380.8</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3154,10 +3154,10 @@
         <v>122</v>
       </c>
       <c r="D14" s="97">
-        <v>586106.1</v>
+        <v>599266</v>
       </c>
       <c r="E14" s="76">
-        <v>0</v>
+        <v>532858.5</v>
       </c>
       <c r="F14" s="76">
         <v>0</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="97">
-        <v>586106.1</v>
+        <v>1132124.5</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3199,10 +3199,10 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2708370.5</v>
+        <v>2709984.6</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>2448848.4</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>2708370.5</v>
+        <v>5158833</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3261,10 +3261,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>415578</v>
+        <v>413869</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>357353.5</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>415578</v>
+        <v>771222.5</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3362,10 +3362,10 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>9632950.3000000007</v>
+        <v>9632915</v>
       </c>
       <c r="E21" s="16">
-        <v>0</v>
+        <v>8586615</v>
       </c>
       <c r="F21" s="16">
         <v>0</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>9632950.3000000007</v>
+        <v>18219530</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3408,10 +3408,10 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="90">
-        <v>8943212.4000000004</v>
+        <v>8942975.4000000004</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>7374578.2999999998</v>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>8943212.4000000004</v>
+        <v>16317553.699999999</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3457,7 +3457,7 @@
         <v>-8085028.2999999998</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>-6874941.5999999996</v>
       </c>
       <c r="F23" s="16">
         <v>0</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-8085028.2999999998</v>
+        <v>-14959969.899999999</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3500,10 +3500,10 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>10491134.400000002</v>
+        <v>10490862.099999998</v>
       </c>
       <c r="E24" s="16">
-        <v>0</v>
+        <v>9086251.7000000011</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>10491134.400000002</v>
+        <v>19577113.800000004</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3545,10 +3545,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="96">
-        <v>7041322.2000000002</v>
+        <v>7041567.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>0</v>
+        <v>5987298.2000000002</v>
       </c>
       <c r="F25" s="42">
         <v>0</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="99">
-        <v>7041322.2000000002</v>
+        <v>13028865.4</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3590,10 +3590,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>17532456.600000001</v>
+        <v>17532429.299999997</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>15073549.900000002</v>
       </c>
       <c r="F26" s="16">
         <v>0</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>17532456.600000001</v>
+        <v>32605979.200000003</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3653,10 +3653,10 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>20656405.100000001</v>
+        <v>20656282.899999999</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>17879751.800000001</v>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>20656405.100000001</v>
+        <v>38536034.700000003</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3734,10 +3734,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1251358.1000000001</v>
+        <v>1243246.8</v>
       </c>
       <c r="E31" s="16">
-        <v>0</v>
+        <v>1069998.2</v>
       </c>
       <c r="F31" s="16">
         <v>0</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>1251358.1000000001</v>
+        <v>2313245</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3779,10 +3779,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="90">
-        <v>392655.1</v>
+        <v>392640.5</v>
       </c>
       <c r="E32" s="16">
-        <v>0</v>
+        <v>341167.9</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>392655.1</v>
+        <v>733808.4</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3842,10 +3842,10 @@
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="90">
-        <v>11064.9</v>
+        <v>11063.1</v>
       </c>
       <c r="E34" s="16">
-        <v>0</v>
+        <v>10132.1</v>
       </c>
       <c r="F34" s="16">
         <v>0</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>11064.9</v>
+        <v>21195.200000000001</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3891,7 +3891,7 @@
         <v>7685.1</v>
       </c>
       <c r="E35" s="16">
-        <v>0</v>
+        <v>6828.7</v>
       </c>
       <c r="F35" s="16">
         <v>0</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>7685.1</v>
+        <v>14513.8</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3934,10 +3934,10 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>563891.19999999995</v>
+        <v>563893.19999999995</v>
       </c>
       <c r="E36" s="16">
-        <v>0</v>
+        <v>467945</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>563891.19999999995</v>
+        <v>1031838.2</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -3998,10 +3998,10 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>280523.5</v>
+        <v>280566.5</v>
       </c>
       <c r="E38" s="16">
-        <v>0</v>
+        <v>243325.1</v>
       </c>
       <c r="F38" s="16">
         <v>0</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>280523.5</v>
+        <v>523891.6</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4047,7 +4047,7 @@
         <v>23.9</v>
       </c>
       <c r="E39" s="16">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>23.9</v>
+        <v>96.699999999999989</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4131,7 +4131,7 @@
         <v>486366.8</v>
       </c>
       <c r="E42" s="78">
-        <v>0</v>
+        <v>404814.4</v>
       </c>
       <c r="F42" s="78">
         <v>0</v>
@@ -4165,8 +4165,7 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>486366.8</v>
+        <v>891181.2</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4179,7 +4178,8 @@
         <v>1157995</v>
       </c>
       <c r="E43" s="78">
-        <v>0</v>
+        <f>550137+548662.1</f>
+        <v>1098799.1000000001</v>
       </c>
       <c r="F43" s="78">
         <v>0</v>
@@ -4213,8 +4213,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="0"/>
-        <v>1157995</v>
+        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
+        <v>2256794.1</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4226,7 +4226,7 @@
         <v>911490.1</v>
       </c>
       <c r="E44" s="78">
-        <v>0</v>
+        <v>799614.7</v>
       </c>
       <c r="F44" s="78">
         <v>0</v>
@@ -4261,7 +4261,7 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>911490.1</v>
+        <v>1711104.7999999998</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4273,7 +4273,7 @@
         <v>295695.40000000002</v>
       </c>
       <c r="E45" s="80">
-        <v>0</v>
+        <v>244069</v>
       </c>
       <c r="F45" s="80">
         <v>0</v>
@@ -4308,7 +4308,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>295695.40000000002</v>
+        <v>539764.4</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4317,11 +4317,12 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46" si="1">SUM(D42:D45)</f>
+        <f t="shared" ref="D46:E46" si="1">SUM(D42:D45)</f>
         <v>2851547.3</v>
       </c>
       <c r="E46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2547297.2000000002</v>
       </c>
       <c r="F46" s="89">
         <v>0</v>
@@ -4356,7 +4357,7 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>2851547.3</v>
+        <v>5398844.5</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4382,11 +4383,12 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5358749.0999999996</v>
+        <f t="shared" ref="D48:E48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5350666.4000000004</v>
       </c>
       <c r="E48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4686767</v>
       </c>
       <c r="F48" s="89">
         <v>0</v>
@@ -4421,7 +4423,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>5358749.0999999996</v>
+        <v>10037433.4</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4449,7 +4451,7 @@
         <v>222825.7</v>
       </c>
       <c r="E50" s="78">
-        <v>0</v>
+        <v>174659.1</v>
       </c>
       <c r="F50" s="78">
         <v>0</v>
@@ -4483,8 +4485,8 @@
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>222825.7</v>
+        <f>SUM(D50:O50)</f>
+        <v>397484.80000000005</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4495,7 +4497,7 @@
         <v>121720.8</v>
       </c>
       <c r="E51" s="78">
-        <v>0</v>
+        <v>112925.1</v>
       </c>
       <c r="F51" s="78">
         <v>0</v>
@@ -4529,8 +4531,8 @@
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" si="3"/>
-        <v>121720.8</v>
+        <f t="shared" ref="Q51:Q52" si="3">SUM(D51:O51)</f>
+        <v>234645.90000000002</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4538,10 +4540,10 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>358524.4</v>
+        <v>356829.7</v>
       </c>
       <c r="E52" s="78">
-        <v>0</v>
+        <v>315438.09999999998</v>
       </c>
       <c r="F52" s="78">
         <v>0</v>
@@ -4576,7 +4578,7 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>358524.4</v>
+        <v>672267.8</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
@@ -4603,10 +4605,10 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>9474355.5</v>
+        <v>9473936.4000000004</v>
       </c>
       <c r="E54" s="83">
-        <v>0</v>
+        <v>8863618.9000000004</v>
       </c>
       <c r="F54" s="83">
         <v>0</v>
@@ -4640,7 +4642,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9474355.5</v>
+        <v>8863618.9000000004</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4648,10 +4650,10 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-64015.4</v>
+        <v>-242912.2</v>
       </c>
       <c r="E55" s="78">
-        <v>0</v>
+        <v>-141651</v>
       </c>
       <c r="F55" s="78">
         <v>0</v>
@@ -4686,10 +4688,10 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-64015.4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="15.75" thickBot="1">
+        <v>-384563.20000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="18"/>
       <c r="D56" s="85"/>
@@ -4707,16 +4709,17 @@
       <c r="P56" s="86"/>
       <c r="Q56" s="86"/>
     </row>
-    <row r="57" spans="2:17" ht="15.75" thickTop="1">
+    <row r="57" spans="2:17" ht="15" thickTop="1">
       <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>25280481.700000007</v>
+        <f t="shared" ref="D57:E57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>25095431.699999996</v>
       </c>
       <c r="E57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>22431885.800000001</v>
       </c>
       <c r="F57" s="89">
         <v>0</v>
@@ -4751,7 +4754,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>25280481.700000007</v>
+        <v>47527317.5</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4773,7 +4776,7 @@
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="102"/>
@@ -4793,7 +4796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.75">
+    <row r="60" spans="2:17" ht="15.6">
       <c r="B60" s="48"/>
       <c r="D60" s="92" t="s">
         <v>1</v>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="P60" s="101"/>
       <c r="Q60" s="100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1">
@@ -4883,7 +4886,7 @@
         <v>68129.5</v>
       </c>
       <c r="E63" s="90">
-        <v>0</v>
+        <v>31851.1</v>
       </c>
       <c r="F63" s="90">
         <v>0</v>
@@ -4917,7 +4920,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>68129.5</v>
+        <v>99980.6</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4928,7 +4931,7 @@
         <v>2519528.2000000002</v>
       </c>
       <c r="E64" s="90">
-        <v>0</v>
+        <v>2335461.5</v>
       </c>
       <c r="F64" s="90">
         <v>0</v>
@@ -4962,7 +4965,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>2519528.2000000002</v>
+        <v>4854989.7</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4973,7 +4976,7 @@
         <v>11271.3</v>
       </c>
       <c r="E65" s="90">
-        <v>0</v>
+        <v>8492.6</v>
       </c>
       <c r="F65" s="90">
         <v>0</v>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>11271.3</v>
+        <v>19763.900000000001</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5015,10 +5018,10 @@
         <v>39</v>
       </c>
       <c r="D66" s="90">
-        <v>15518.6</v>
+        <v>15763.6</v>
       </c>
       <c r="E66" s="90">
-        <v>0</v>
+        <v>16730.7</v>
       </c>
       <c r="F66" s="90">
         <v>0</v>
@@ -5052,7 +5055,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>15518.6</v>
+        <v>32494.300000000003</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5107,10 +5110,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-10549</v>
+        <v>-10575.6</v>
       </c>
       <c r="E68" s="90">
-        <v>0</v>
+        <v>20713.400000000001</v>
       </c>
       <c r="F68" s="90">
         <v>0</v>
@@ -5144,7 +5147,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>-10549</v>
+        <v>10137.800000000001</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5153,10 +5156,10 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="90">
-        <v>347313.9</v>
+        <v>347243.9</v>
       </c>
       <c r="E69" s="90">
-        <v>0</v>
+        <v>276145.3</v>
       </c>
       <c r="F69" s="90">
         <v>0</v>
@@ -5190,7 +5193,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>347313.9</v>
+        <v>623389.19999999995</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5199,10 +5202,10 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2951212.5</v>
+        <v>2951360.9</v>
       </c>
       <c r="E70" s="90">
-        <v>0</v>
+        <v>2689394.6</v>
       </c>
       <c r="F70" s="90">
         <v>0</v>
@@ -5236,7 +5239,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>2951212.5</v>
+        <v>5640755.5</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5263,10 +5266,10 @@
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="78">
-        <v>21929776.5</v>
+        <v>21763599.5</v>
       </c>
       <c r="E72" s="78">
-        <v>0</v>
+        <v>19448383.100000001</v>
       </c>
       <c r="F72" s="78">
         <v>0</v>
@@ -5300,7 +5303,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>21929776.5</v>
+        <v>41211982.600000001</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5309,10 +5312,10 @@
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="78">
-        <v>707412.1451612903</v>
+        <v>702051.59677419357</v>
       </c>
       <c r="E73" s="78">
-        <v>0</v>
+        <v>694585.11071428575</v>
       </c>
       <c r="F73" s="78">
         <v>0</v>
@@ -5346,7 +5349,8 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>707412.1451612903</v>
+        <f>AVERAGE(D73:O73)</f>
+        <v>116386.39229070662</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5373,11 +5377,12 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f>D57-(D70+D72)</f>
-        <v>399492.70000000671</v>
+        <f t="shared" ref="D75:E75" si="5">D57-(D70+D72)</f>
+        <v>380471.29999999702</v>
       </c>
       <c r="E75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>294108.09999999776</v>
       </c>
       <c r="F75" s="89">
         <v>0</v>
@@ -5411,8 +5416,8 @@
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <f>D75</f>
-        <v>399492.70000000671</v>
+        <f>SUM(D75:O75)</f>
+        <v>674579.39999999478</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5421,49 +5426,50 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f>IF(D57&gt;0,D75/D57,"")</f>
-        <v>1.5802416454746848E-2</v>
-      </c>
-      <c r="E76" s="94" t="s">
-        <v>129</v>
+        <f t="shared" ref="D76:E76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>1.5160978481991888E-2</v>
+      </c>
+      <c r="E76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.3111162504224132E-2</v>
       </c>
       <c r="F76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O76" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P76" s="94"/>
       <c r="Q76" s="95">
-        <f>D76</f>
-        <v>1.5802416454746848E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" ht="15.75" thickBot="1">
+        <f>AVERAGE(D76:O76)</f>
+        <v>1.413607049310801E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="15" thickBot="1">
       <c r="B77" s="50"/>
       <c r="C77" s="26"/>
       <c r="D77" s="87"/>
@@ -5481,16 +5487,17 @@
       <c r="P77" s="79"/>
       <c r="Q77" s="88"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" thickTop="1">
+    <row r="78" spans="2:17" ht="15" thickTop="1">
       <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f>(D70+D72)+D75</f>
-        <v>25280481.700000007</v>
+        <f t="shared" ref="D78:E78" si="7">(D70+D72)+D75</f>
+        <v>25095431.699999996</v>
       </c>
       <c r="E78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>22431885.800000001</v>
       </c>
       <c r="F78" s="89">
         <v>0</v>
@@ -5524,8 +5531,8 @@
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <f>D78</f>
-        <v>25280481.700000007</v>
+        <f>SUM(D78:O78)</f>
+        <v>47527317.5</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5630,15 +5637,15 @@
       <c r="D86" s="12"/>
       <c r="Q86" s="91"/>
     </row>
-    <row r="87" spans="2:17" ht="15.75">
+    <row r="87" spans="2:17" ht="15.6">
       <c r="B87" s="35"/>
       <c r="D87" s="12"/>
       <c r="Q87" s="91"/>
     </row>
-    <row r="88" spans="2:17" ht="15.75">
+    <row r="88" spans="2:17" ht="15.6">
       <c r="B88" s="35"/>
     </row>
-    <row r="89" spans="2:17" ht="15.75">
+    <row r="89" spans="2:17" ht="15.6">
       <c r="B89" s="35"/>
     </row>
   </sheetData>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9DBC5-60EC-499C-AC40-7935B775D2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A49D5B-C35E-4EF0-A567-2E071D44B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 March 2025</t>
+    <t xml:space="preserve"> Run Date:  28 April 2025</t>
   </si>
 </sst>
 </file>
@@ -1503,17 +1503,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="15" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" thickBot="1">
+    <row r="56" spans="1:19" ht="15.75" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="17"/>
       <c r="D56" s="69"/>
@@ -2506,7 +2506,7 @@
       <c r="O56" s="25"/>
       <c r="Q56" s="25"/>
     </row>
-    <row r="57" spans="1:19" ht="15" thickTop="1">
+    <row r="57" spans="1:19" ht="15.75" thickTop="1">
       <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="15" thickBot="1">
+    <row r="77" spans="2:17" ht="15.75" thickBot="1">
       <c r="B77" s="50"/>
       <c r="C77" s="19"/>
       <c r="D77" s="69"/>
@@ -2745,7 +2745,7 @@
       <c r="O77" s="25"/>
       <c r="Q77" s="25"/>
     </row>
-    <row r="78" spans="2:17" ht="15" thickTop="1">
+    <row r="78" spans="2:17" ht="15.75" thickTop="1">
       <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
@@ -2800,20 +2800,20 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75:Q78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.5546875" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="4" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -2917,13 +2917,13 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>9506707.1999999993</v>
+        <v>9506655</v>
       </c>
       <c r="E7" s="16">
-        <v>9473659.1999999993</v>
+        <v>9473819.8000000007</v>
       </c>
       <c r="F7" s="16">
-        <v>0</v>
+        <v>8542752.5999999996</v>
       </c>
       <c r="G7" s="16">
         <v>0</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>9506707.1999999993</v>
+        <v>9506655</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1601564.8</v>
+        <v>1582847.5</v>
       </c>
       <c r="E11" s="16">
-        <v>1465971.7</v>
+        <v>1448289.5</v>
       </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>1694687.9</v>
       </c>
       <c r="G11" s="16">
         <v>0</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>3067536.5</v>
+        <v>4725824.9000000004</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3064,13 +3064,13 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>344961.5</v>
+        <v>347900.5</v>
       </c>
       <c r="E12" s="16">
-        <v>302829.7</v>
+        <v>307732.8</v>
       </c>
       <c r="F12" s="16">
-        <v>0</v>
+        <v>347514.2</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>647791.19999999995</v>
+        <v>1003147.5</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3109,13 +3109,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>164192.29999999999</v>
+        <v>165494.9</v>
       </c>
       <c r="E13" s="16">
-        <v>147188.5</v>
+        <v>148119.29999999999</v>
       </c>
       <c r="F13" s="16">
-        <v>0</v>
+        <v>168204.7</v>
       </c>
       <c r="G13" s="16">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>311380.8</v>
+        <v>481818.89999999997</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3154,13 +3154,13 @@
         <v>122</v>
       </c>
       <c r="D14" s="97">
-        <v>599266</v>
+        <v>613885.6</v>
       </c>
       <c r="E14" s="76">
-        <v>532858.5</v>
+        <v>545817</v>
       </c>
       <c r="F14" s="76">
-        <v>0</v>
+        <v>598747.30000000005</v>
       </c>
       <c r="G14" s="75">
         <v>0</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="97">
-        <v>1132124.5</v>
+        <v>1758449.9000000001</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3199,13 +3199,13 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2709984.6</v>
+        <v>2710128.5</v>
       </c>
       <c r="E15" s="16">
-        <v>2448848.4</v>
+        <v>2449958.6</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>2809154.0999999996</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>5158833</v>
+        <v>7969241.2000000011</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3261,13 +3261,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>413869</v>
+        <v>413914.5</v>
       </c>
       <c r="E17" s="16">
-        <v>357353.5</v>
+        <v>357432.9</v>
       </c>
       <c r="F17" s="16">
-        <v>0</v>
+        <v>392124.4</v>
       </c>
       <c r="G17" s="16">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>771222.5</v>
+        <v>1163471.8</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3362,13 +3362,13 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="90">
-        <v>9632915</v>
+        <v>9632904.5999999996</v>
       </c>
       <c r="E21" s="16">
-        <v>8586615</v>
+        <v>8586573.8000000007</v>
       </c>
       <c r="F21" s="16">
-        <v>0</v>
+        <v>9674889.3000000007</v>
       </c>
       <c r="G21" s="16">
         <v>0</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>18219530</v>
+        <v>27894367.699999999</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3411,10 +3411,10 @@
         <v>8942975.4000000004</v>
       </c>
       <c r="E22" s="16">
-        <v>7374578.2999999998</v>
+        <v>7374643.2999999998</v>
       </c>
       <c r="F22" s="16">
-        <v>0</v>
+        <v>8814790.6999999993</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>16317553.699999999</v>
+        <v>25132409.399999999</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3460,7 +3460,7 @@
         <v>-6874941.5999999996</v>
       </c>
       <c r="F23" s="16">
-        <v>0</v>
+        <v>-6073582.4000000004</v>
       </c>
       <c r="G23" s="16">
         <v>0</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-14959969.899999999</v>
+        <v>-21033552.299999997</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3500,13 +3500,13 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="90">
-        <v>10490862.099999998</v>
+        <v>10490851.699999999</v>
       </c>
       <c r="E24" s="16">
-        <v>9086251.7000000011</v>
+        <v>9086275.5000000019</v>
       </c>
       <c r="F24" s="16">
-        <v>0</v>
+        <v>12416097.6</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>19577113.800000004</v>
+        <v>31993224.799999997</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3548,10 +3548,10 @@
         <v>7041567.2000000002</v>
       </c>
       <c r="E25" s="42">
-        <v>5987298.2000000002</v>
+        <v>5987292.2000000002</v>
       </c>
       <c r="F25" s="42">
-        <v>0</v>
+        <v>5013348.3</v>
       </c>
       <c r="G25" s="42">
         <v>0</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="99">
-        <v>13028865.4</v>
+        <v>18042207.699999999</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3590,13 +3590,13 @@
         <v>46</v>
       </c>
       <c r="D26" s="90">
-        <v>17532429.299999997</v>
+        <v>17532418.899999999</v>
       </c>
       <c r="E26" s="16">
-        <v>15073549.900000002</v>
+        <v>15073567.700000003</v>
       </c>
       <c r="F26" s="16">
-        <v>0</v>
+        <v>17429445.899999999</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>32605979.200000003</v>
+        <v>50035432.5</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3653,13 +3653,13 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>20656282.899999999</v>
+        <v>20656461.899999999</v>
       </c>
       <c r="E28" s="16">
-        <v>17879751.800000001</v>
+        <v>17880959.200000003</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>20630724.399999999</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>38536034.700000003</v>
+        <v>59168145.5</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3734,13 +3734,13 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1243246.8</v>
+        <v>1243092.6000000001</v>
       </c>
       <c r="E31" s="16">
-        <v>1069998.2</v>
+        <v>1071506.3999999999</v>
       </c>
       <c r="F31" s="16">
-        <v>0</v>
+        <v>1276025.2</v>
       </c>
       <c r="G31" s="16">
         <v>0</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>2313245</v>
+        <v>3590624.2</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3785,7 +3785,7 @@
         <v>341167.9</v>
       </c>
       <c r="F32" s="16">
-        <v>0</v>
+        <v>384891.6</v>
       </c>
       <c r="G32" s="16">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>733808.4</v>
+        <v>1118700</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3845,10 +3845,10 @@
         <v>11063.1</v>
       </c>
       <c r="E34" s="16">
-        <v>10132.1</v>
+        <v>9839.6</v>
       </c>
       <c r="F34" s="16">
-        <v>0</v>
+        <v>11378.9</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>21195.200000000001</v>
+        <v>32281.599999999999</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3894,7 +3894,7 @@
         <v>6828.7</v>
       </c>
       <c r="F35" s="16">
-        <v>0</v>
+        <v>11412.3</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>14513.8</v>
+        <v>25926.1</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3937,10 +3937,10 @@
         <v>563893.19999999995</v>
       </c>
       <c r="E36" s="16">
-        <v>467945</v>
+        <v>466223.5</v>
       </c>
       <c r="F36" s="16">
-        <v>0</v>
+        <v>574558.4</v>
       </c>
       <c r="G36" s="16">
         <v>0</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>1031838.2</v>
+        <v>1604675.1</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -3998,13 +3998,13 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="90">
-        <v>280566.5</v>
+        <v>280568.8</v>
       </c>
       <c r="E38" s="16">
-        <v>243325.1</v>
+        <v>244717.5</v>
       </c>
       <c r="F38" s="16">
-        <v>0</v>
+        <v>290996.2</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>523891.6</v>
+        <v>816282.5</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4050,7 +4050,7 @@
         <v>72.8</v>
       </c>
       <c r="F39" s="16">
-        <v>0</v>
+        <v>51.9</v>
       </c>
       <c r="G39" s="16">
         <v>0</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>96.699999999999989</v>
+        <v>148.6</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4134,7 +4134,7 @@
         <v>404814.4</v>
       </c>
       <c r="F42" s="78">
-        <v>0</v>
+        <v>424953.5</v>
       </c>
       <c r="G42" s="78">
         <v>0</v>
@@ -4165,7 +4165,8 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>891181.2</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>1316134.7</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4182,7 +4183,8 @@
         <v>1098799.1000000001</v>
       </c>
       <c r="F43" s="78">
-        <v>0</v>
+        <f>566495.6+582720</f>
+        <v>1149215.6000000001</v>
       </c>
       <c r="G43" s="78">
         <v>0</v>
@@ -4213,8 +4215,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" ref="Q43:Q47" si="0">SUM(D43:O43)</f>
-        <v>2256794.1</v>
+        <f t="shared" si="0"/>
+        <v>3406009.7</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4229,7 +4231,7 @@
         <v>799614.7</v>
       </c>
       <c r="F44" s="78">
-        <v>0</v>
+        <v>910303.4</v>
       </c>
       <c r="G44" s="78">
         <v>0</v>
@@ -4261,7 +4263,7 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>1711104.7999999998</v>
+        <v>2621408.1999999997</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4276,7 +4278,7 @@
         <v>244069</v>
       </c>
       <c r="F45" s="80">
-        <v>0</v>
+        <v>335457.90000000002</v>
       </c>
       <c r="G45" s="80">
         <v>0</v>
@@ -4308,7 +4310,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>539764.4</v>
+        <v>875222.3</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4317,7 +4319,7 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:E46" si="1">SUM(D42:D45)</f>
+        <f t="shared" ref="D46:F46" si="1">SUM(D42:D45)</f>
         <v>2851547.3</v>
       </c>
       <c r="E46" s="89">
@@ -4325,7 +4327,8 @@
         <v>2547297.2000000002</v>
       </c>
       <c r="F46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2819930.4</v>
       </c>
       <c r="G46" s="89">
         <v>0</v>
@@ -4357,7 +4360,7 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>5398844.5</v>
+        <v>8218774.9000000004</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4383,15 +4386,16 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:E48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5350666.4000000004</v>
+        <f t="shared" ref="D48:F48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5350514.5</v>
       </c>
       <c r="E48" s="89">
         <f t="shared" si="2"/>
-        <v>4686767</v>
+        <v>4687653.5999999996</v>
       </c>
       <c r="F48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5369244.9000000004</v>
       </c>
       <c r="G48" s="89">
         <v>0</v>
@@ -4423,7 +4427,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>10037433.4</v>
+        <v>15407413</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4448,13 +4452,13 @@
         <v>54</v>
       </c>
       <c r="D50" s="78">
-        <v>222825.7</v>
+        <v>222824.7</v>
       </c>
       <c r="E50" s="78">
-        <v>174659.1</v>
+        <v>174768.1</v>
       </c>
       <c r="F50" s="78">
-        <v>0</v>
+        <v>215046.8</v>
       </c>
       <c r="G50" s="78">
         <v>0</v>
@@ -4485,8 +4489,8 @@
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f>SUM(D50:O50)</f>
-        <v>397484.80000000005</v>
+        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
+        <v>612639.60000000009</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4494,13 +4498,13 @@
         <v>22</v>
       </c>
       <c r="D51" s="78">
-        <v>121720.8</v>
+        <v>124236.8</v>
       </c>
       <c r="E51" s="78">
-        <v>112925.1</v>
+        <v>115913.1</v>
       </c>
       <c r="F51" s="78">
-        <v>0</v>
+        <v>121794.8</v>
       </c>
       <c r="G51" s="78">
         <v>0</v>
@@ -4531,8 +4535,8 @@
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" ref="Q51:Q52" si="3">SUM(D51:O51)</f>
-        <v>234645.90000000002</v>
+        <f t="shared" si="3"/>
+        <v>361944.7</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4540,13 +4544,13 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>356829.7</v>
+        <v>356789.8</v>
       </c>
       <c r="E52" s="78">
-        <v>315438.09999999998</v>
+        <v>315688.3</v>
       </c>
       <c r="F52" s="78">
-        <v>0</v>
+        <v>370741.4</v>
       </c>
       <c r="G52" s="78">
         <v>0</v>
@@ -4578,7 +4582,7 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>672267.8</v>
+        <v>1043219.5</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
@@ -4605,13 +4609,13 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>9473936.4000000004</v>
+        <v>9473919.5</v>
       </c>
       <c r="E54" s="83">
-        <v>8863618.9000000004</v>
+        <v>8863692.4000000004</v>
       </c>
       <c r="F54" s="83">
-        <v>0</v>
+        <v>8788273.5</v>
       </c>
       <c r="G54" s="83">
         <v>0</v>
@@ -4642,7 +4646,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>8863618.9000000004</v>
+        <v>8788273.5</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4650,13 +4654,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-242912.2</v>
+        <v>-242912.3</v>
       </c>
       <c r="E55" s="78">
-        <v>-141651</v>
+        <v>-139681.70000000001</v>
       </c>
       <c r="F55" s="78">
-        <v>0</v>
+        <v>403492.4</v>
       </c>
       <c r="G55" s="78">
         <v>0</v>
@@ -4688,10 +4692,10 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-384563.20000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="15" thickBot="1">
+        <v>20898.400000000023</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="18"/>
       <c r="D56" s="85"/>
@@ -4709,20 +4713,21 @@
       <c r="P56" s="86"/>
       <c r="Q56" s="86"/>
     </row>
-    <row r="57" spans="2:17" ht="15" thickTop="1">
+    <row r="57" spans="2:17" ht="15.75" thickTop="1">
       <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:E57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>25095431.699999996</v>
+        <f t="shared" ref="D57:F57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>25092948.299999997</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22431885.800000001</v>
+        <v>22432689.000000004</v>
       </c>
       <c r="F57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>25450357.799999997</v>
       </c>
       <c r="G57" s="89">
         <v>0</v>
@@ -4754,7 +4759,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>47527317.5</v>
+        <v>72975995.099999994</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4796,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.6">
+    <row r="60" spans="2:17" ht="15.75">
       <c r="B60" s="48"/>
       <c r="D60" s="92" t="s">
         <v>1</v>
@@ -4889,7 +4894,7 @@
         <v>31851.1</v>
       </c>
       <c r="F63" s="90">
-        <v>0</v>
+        <v>69757.399999999994</v>
       </c>
       <c r="G63" s="90">
         <v>0</v>
@@ -4920,7 +4925,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>99980.6</v>
+        <v>169738</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4934,7 +4939,7 @@
         <v>2335461.5</v>
       </c>
       <c r="F64" s="90">
-        <v>0</v>
+        <v>2517299.4</v>
       </c>
       <c r="G64" s="90">
         <v>0</v>
@@ -4965,7 +4970,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>4854989.7</v>
+        <v>7372289.0999999996</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4973,13 +4978,13 @@
         <v>53</v>
       </c>
       <c r="D65" s="90">
-        <v>11271.3</v>
+        <v>11271.4</v>
       </c>
       <c r="E65" s="90">
         <v>8492.6</v>
       </c>
       <c r="F65" s="90">
-        <v>0</v>
+        <v>14430</v>
       </c>
       <c r="G65" s="90">
         <v>0</v>
@@ -5010,7 +5015,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>19763.900000000001</v>
+        <v>34194</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5024,7 +5029,7 @@
         <v>16730.7</v>
       </c>
       <c r="F66" s="90">
-        <v>0</v>
+        <v>15053.5</v>
       </c>
       <c r="G66" s="90">
         <v>0</v>
@@ -5055,7 +5060,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>32494.300000000003</v>
+        <v>47547.8</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5070,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="90">
-        <v>0</v>
+        <v>110.3</v>
       </c>
       <c r="G67" s="90">
         <v>0</v>
@@ -5101,7 +5106,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>0</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5110,13 +5115,13 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-10575.6</v>
+        <v>-10575.2</v>
       </c>
       <c r="E68" s="90">
-        <v>20713.400000000001</v>
+        <v>20681.400000000001</v>
       </c>
       <c r="F68" s="90">
-        <v>0</v>
+        <v>-1097.2</v>
       </c>
       <c r="G68" s="90">
         <v>0</v>
@@ -5147,7 +5152,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>10137.800000000001</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5159,10 +5164,10 @@
         <v>347243.9</v>
       </c>
       <c r="E69" s="90">
-        <v>276145.3</v>
+        <v>276205.40000000002</v>
       </c>
       <c r="F69" s="90">
-        <v>0</v>
+        <v>343276.4</v>
       </c>
       <c r="G69" s="90">
         <v>0</v>
@@ -5193,7 +5198,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>623389.19999999995</v>
+        <v>966725.70000000007</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5202,13 +5207,13 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2951360.9</v>
+        <v>2951361.4</v>
       </c>
       <c r="E70" s="90">
-        <v>2689394.6</v>
+        <v>2689422.7</v>
       </c>
       <c r="F70" s="90">
-        <v>0</v>
+        <v>2958829.7999999993</v>
       </c>
       <c r="G70" s="90">
         <v>0</v>
@@ -5239,7 +5244,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>5640755.5</v>
+        <v>8599613.8999999985</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5269,10 +5274,10 @@
         <v>21763599.5</v>
       </c>
       <c r="E72" s="78">
-        <v>19448383.100000001</v>
+        <v>19591067.100000001</v>
       </c>
       <c r="F72" s="78">
-        <v>0</v>
+        <v>21577914.399999999</v>
       </c>
       <c r="G72" s="78">
         <v>0</v>
@@ -5303,7 +5308,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>41211982.600000001</v>
+        <v>62932581</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5315,10 +5320,10 @@
         <v>702051.59677419357</v>
       </c>
       <c r="E73" s="78">
-        <v>694585.11071428575</v>
+        <v>699680.96785714291</v>
       </c>
       <c r="F73" s="78">
-        <v>0</v>
+        <v>696061.7548387096</v>
       </c>
       <c r="G73" s="78">
         <v>0</v>
@@ -5349,8 +5354,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <f>AVERAGE(D73:O73)</f>
-        <v>116386.39229070662</v>
+        <v>699264.77315668203</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5377,15 +5381,16 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:E75" si="5">D57-(D70+D72)</f>
-        <v>380471.29999999702</v>
+        <f t="shared" ref="D75:F75" si="5">D57-(D70+D72)</f>
+        <v>377987.39999999851</v>
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>294108.09999999776</v>
+        <v>152199.20000000298</v>
       </c>
       <c r="F75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>913613.59999999776</v>
       </c>
       <c r="G75" s="89">
         <v>0</v>
@@ -5417,7 +5422,7 @@
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
         <f>SUM(D75:O75)</f>
-        <v>674579.39999999478</v>
+        <v>1443800.1999999993</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5426,15 +5431,16 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:E76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>1.5160978481991888E-2</v>
+        <f t="shared" ref="D76:F76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>1.5063490964909793E-2</v>
       </c>
       <c r="E76" s="94">
         <f t="shared" si="6"/>
-        <v>1.3111162504224132E-2</v>
-      </c>
-      <c r="F76" s="94" t="s">
-        <v>128</v>
+        <v>6.784706015404705E-3</v>
+      </c>
+      <c r="F76" s="94">
+        <f t="shared" si="6"/>
+        <v>3.5897868594994678E-2</v>
       </c>
       <c r="G76" s="94" t="s">
         <v>128</v>
@@ -5466,10 +5472,10 @@
       <c r="P76" s="94"/>
       <c r="Q76" s="95">
         <f>AVERAGE(D76:O76)</f>
-        <v>1.413607049310801E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" ht="15" thickBot="1">
+        <v>1.9248688525103058E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="15.75" thickBot="1">
       <c r="B77" s="50"/>
       <c r="C77" s="26"/>
       <c r="D77" s="87"/>
@@ -5487,20 +5493,21 @@
       <c r="P77" s="79"/>
       <c r="Q77" s="88"/>
     </row>
-    <row r="78" spans="2:17" ht="15" thickTop="1">
+    <row r="78" spans="2:17" ht="15.75" thickTop="1">
       <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:E78" si="7">(D70+D72)+D75</f>
-        <v>25095431.699999996</v>
+        <f t="shared" ref="D78:F78" si="7">(D70+D72)+D75</f>
+        <v>25092948.299999997</v>
       </c>
       <c r="E78" s="89">
         <f t="shared" si="7"/>
-        <v>22431885.800000001</v>
+        <v>22432689.000000004</v>
       </c>
       <c r="F78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>25450357.799999997</v>
       </c>
       <c r="G78" s="89">
         <v>0</v>
@@ -5532,7 +5539,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f>SUM(D78:O78)</f>
-        <v>47527317.5</v>
+        <v>72975995.099999994</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5637,15 +5644,15 @@
       <c r="D86" s="12"/>
       <c r="Q86" s="91"/>
     </row>
-    <row r="87" spans="2:17" ht="15.6">
+    <row r="87" spans="2:17" ht="15.75">
       <c r="B87" s="35"/>
       <c r="D87" s="12"/>
       <c r="Q87" s="91"/>
     </row>
-    <row r="88" spans="2:17" ht="15.6">
+    <row r="88" spans="2:17" ht="15.75">
       <c r="B88" s="35"/>
     </row>
-    <row r="89" spans="2:17" ht="15.6">
+    <row r="89" spans="2:17" ht="15.75">
       <c r="B89" s="35"/>
     </row>
   </sheetData>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eub.gov.ab.ca\CalFsrv\share0\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A49D5B-C35E-4EF0-A567-2E071D44B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856CE12-27A1-44B6-A56D-C40BE190D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2940" windowWidth="21600" windowHeight="10650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  28 April 2025</t>
+    <t xml:space="preserve"> Run Date:  29 July 2025</t>
   </si>
 </sst>
 </file>
@@ -487,12 +487,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_)"/>
-    <numFmt numFmtId="167" formatCode="0____"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.00_)"/>
+    <numFmt numFmtId="168" formatCode="0____"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -805,14 +805,14 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="40" fontId="13" fillId="0" borderId="0">
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="17" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -848,23 +848,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,7 +892,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,15 +912,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,13 +966,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -981,8 +981,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -995,63 +995,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1060,10 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1626,11 +1626,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2800,8 +2800,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:Q78"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2831,11 +2831,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>9506655</v>
+        <v>9506598</v>
       </c>
       <c r="E7" s="16">
-        <v>9473819.8000000007</v>
+        <v>9473799.9000000004</v>
       </c>
       <c r="F7" s="16">
-        <v>8542752.5999999996</v>
+        <v>8863606.3000000007</v>
       </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>9166837.3000000007</v>
       </c>
       <c r="H7" s="16">
-        <v>0</v>
+        <v>10019694.4</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>9437852.5999999996</v>
       </c>
       <c r="J7" s="16">
         <v>0</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>9506655</v>
+        <v>9506598</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3018,22 +3018,22 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1582847.5</v>
+        <v>1524538.4</v>
       </c>
       <c r="E11" s="16">
-        <v>1448289.5</v>
+        <v>1394865.1</v>
       </c>
       <c r="F11" s="16">
-        <v>1694687.9</v>
+        <v>1627739.4</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
+        <v>1596329.4</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>1608253.5</v>
       </c>
       <c r="I11" s="16">
-        <v>0</v>
+        <v>1545285.8</v>
       </c>
       <c r="J11" s="16">
         <v>0</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>4725824.9000000004</v>
+        <v>9297011.6000000015</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3064,22 +3064,22 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>347900.5</v>
+        <v>370010</v>
       </c>
       <c r="E12" s="16">
-        <v>307732.8</v>
+        <v>324940.79999999999</v>
       </c>
       <c r="F12" s="16">
-        <v>347514.2</v>
+        <v>370805.3</v>
       </c>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>363028.3</v>
       </c>
       <c r="H12" s="16">
-        <v>0</v>
+        <v>363259.9</v>
       </c>
       <c r="I12" s="16">
-        <v>0</v>
+        <v>333382.40000000002</v>
       </c>
       <c r="J12" s="16">
         <v>0</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>1003147.5</v>
+        <v>2125426.7000000002</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3109,22 +3109,22 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>165494.9</v>
+        <v>169594.5</v>
       </c>
       <c r="E13" s="16">
-        <v>148119.29999999999</v>
+        <v>151254.29999999999</v>
       </c>
       <c r="F13" s="16">
-        <v>168204.7</v>
+        <v>171935.5</v>
       </c>
       <c r="G13" s="16">
-        <v>0</v>
+        <v>161818.29999999999</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>165151.70000000001</v>
       </c>
       <c r="I13" s="16">
-        <v>0</v>
+        <v>157909.79999999999</v>
       </c>
       <c r="J13" s="16">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>481818.89999999997</v>
+        <v>977664.10000000009</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3154,22 +3154,22 @@
         <v>122</v>
       </c>
       <c r="D14" s="97">
-        <v>613885.6</v>
+        <v>645954.5</v>
       </c>
       <c r="E14" s="76">
-        <v>545817</v>
+        <v>578615</v>
       </c>
       <c r="F14" s="76">
-        <v>598747.30000000005</v>
+        <v>638467.1</v>
       </c>
       <c r="G14" s="75">
-        <v>0</v>
+        <v>612962.30000000005</v>
       </c>
       <c r="H14" s="75">
-        <v>0</v>
+        <v>620296.69999999995</v>
       </c>
       <c r="I14" s="75">
-        <v>0</v>
+        <v>606565.80000000005</v>
       </c>
       <c r="J14" s="75">
         <v>0</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="97">
-        <v>1758449.9000000001</v>
+        <v>3702861.4000000004</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3199,22 +3199,22 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2710128.5</v>
+        <v>2710097.4</v>
       </c>
       <c r="E15" s="16">
-        <v>2449958.6</v>
+        <v>2449675.2000000002</v>
       </c>
       <c r="F15" s="16">
-        <v>2809154.0999999996</v>
+        <v>2808947.3000000003</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>2734138.3</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>2756961.8</v>
       </c>
       <c r="I15" s="16">
-        <v>0</v>
+        <v>2643143.8000000003</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>7969241.2000000011</v>
+        <v>16102963.800000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3261,22 +3261,22 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>413914.5</v>
+        <v>413767.6</v>
       </c>
       <c r="E17" s="16">
-        <v>357432.9</v>
+        <v>357469.6</v>
       </c>
       <c r="F17" s="16">
-        <v>392124.4</v>
+        <v>392222.9</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>420454.7</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>441560.6</v>
       </c>
       <c r="I17" s="16">
-        <v>0</v>
+        <v>386046.8</v>
       </c>
       <c r="J17" s="16">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>1163471.8</v>
+        <v>2411522.1999999997</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3368,16 +3368,16 @@
         <v>8586573.8000000007</v>
       </c>
       <c r="F21" s="16">
-        <v>9674889.3000000007</v>
+        <v>9674675.1999999993</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>9111057.1999999993</v>
       </c>
       <c r="H21" s="16">
-        <v>0</v>
+        <v>8860121.3000000007</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
+        <v>8770133.1999999993</v>
       </c>
       <c r="J21" s="16">
         <v>0</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>27894367.699999999</v>
+        <v>54635465.299999997</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3417,13 +3417,13 @@
         <v>8814790.6999999993</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>7802331.9000000004</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>6619318</v>
       </c>
       <c r="I22" s="16">
-        <v>0</v>
+        <v>8448607.8000000007</v>
       </c>
       <c r="J22" s="16">
         <v>0</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>25132409.399999999</v>
+        <v>48002667.099999994</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3460,16 +3460,16 @@
         <v>-6874941.5999999996</v>
       </c>
       <c r="F23" s="16">
-        <v>-6073582.4000000004</v>
+        <v>-7772361</v>
       </c>
       <c r="G23" s="16">
-        <v>0</v>
+        <v>-6629495.7999999998</v>
       </c>
       <c r="H23" s="16">
-        <v>0</v>
+        <v>-5503172.9000000004</v>
       </c>
       <c r="I23" s="16">
-        <v>0</v>
+        <v>-6572086.0999999996</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-21033552.299999997</v>
+        <v>-41437085.700000003</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3506,16 +3506,16 @@
         <v>9086275.5000000019</v>
       </c>
       <c r="F24" s="16">
-        <v>12416097.6</v>
+        <v>10717104.899999999</v>
       </c>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>10283893.300000001</v>
       </c>
       <c r="H24" s="16">
-        <v>0</v>
+        <v>9976266.4000000004</v>
       </c>
       <c r="I24" s="16">
-        <v>0</v>
+        <v>10646654.9</v>
       </c>
       <c r="J24" s="16">
         <v>0</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>31993224.799999997</v>
+        <v>61201046.699999988</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3551,16 +3551,16 @@
         <v>5987292.2000000002</v>
       </c>
       <c r="F25" s="42">
-        <v>5013348.3</v>
+        <v>6742676.0999999996</v>
       </c>
       <c r="G25" s="42">
-        <v>0</v>
+        <v>5647824.0999999996</v>
       </c>
       <c r="H25" s="42">
-        <v>0</v>
+        <v>4600579.5999999996</v>
       </c>
       <c r="I25" s="42">
-        <v>0</v>
+        <v>5698414.5</v>
       </c>
       <c r="J25" s="42">
         <v>0</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="99">
-        <v>18042207.699999999</v>
+        <v>35718353.700000003</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3596,16 +3596,16 @@
         <v>15073567.700000003</v>
       </c>
       <c r="F26" s="16">
-        <v>17429445.899999999</v>
+        <v>17459781</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>15931717.4</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>14576846</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>16345069.4</v>
       </c>
       <c r="J26" s="16">
         <v>0</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>50035432.5</v>
+        <v>96919400.399999991</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3653,22 +3653,22 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>20656461.899999999</v>
+        <v>20656283.899999999</v>
       </c>
       <c r="E28" s="16">
-        <v>17880959.200000003</v>
+        <v>17880712.500000004</v>
       </c>
       <c r="F28" s="16">
-        <v>20630724.399999999</v>
+        <v>20660951.199999999</v>
       </c>
       <c r="G28" s="16">
-        <v>0</v>
+        <v>19086310.399999999</v>
       </c>
       <c r="H28" s="16">
-        <v>0</v>
+        <v>17775368.400000002</v>
       </c>
       <c r="I28" s="16">
-        <v>0</v>
+        <v>19374260</v>
       </c>
       <c r="J28" s="16">
         <v>0</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>59168145.5</v>
+        <v>115433886.39999999</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3734,22 +3734,22 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1243092.6000000001</v>
+        <v>1243091</v>
       </c>
       <c r="E31" s="16">
-        <v>1071506.3999999999</v>
+        <v>1071466.1000000001</v>
       </c>
       <c r="F31" s="16">
-        <v>1276025.2</v>
+        <v>1274686.8999999999</v>
       </c>
       <c r="G31" s="16">
-        <v>0</v>
+        <v>1189741.8</v>
       </c>
       <c r="H31" s="16">
-        <v>0</v>
+        <v>1206795.8</v>
       </c>
       <c r="I31" s="16">
-        <v>0</v>
+        <v>1127360.8</v>
       </c>
       <c r="J31" s="16">
         <v>0</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>3590624.2</v>
+        <v>7113142.3999999994</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3788,13 +3788,13 @@
         <v>384891.6</v>
       </c>
       <c r="G32" s="16">
-        <v>0</v>
+        <v>373030.6</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
+        <v>363016.5</v>
       </c>
       <c r="I32" s="16">
-        <v>0</v>
+        <v>325942.40000000002</v>
       </c>
       <c r="J32" s="16">
         <v>0</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>1118700</v>
+        <v>2180689.5</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3848,16 +3848,16 @@
         <v>9839.6</v>
       </c>
       <c r="F34" s="16">
-        <v>11378.9</v>
+        <v>10997.5</v>
       </c>
       <c r="G34" s="16">
-        <v>0</v>
+        <v>11388.1</v>
       </c>
       <c r="H34" s="16">
-        <v>0</v>
+        <v>10958.3</v>
       </c>
       <c r="I34" s="16">
-        <v>0</v>
+        <v>9398.5</v>
       </c>
       <c r="J34" s="16">
         <v>0</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>32281.599999999999</v>
+        <v>63645.100000000006</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3897,13 +3897,13 @@
         <v>11412.3</v>
       </c>
       <c r="G35" s="16">
-        <v>0</v>
+        <v>10763.4</v>
       </c>
       <c r="H35" s="16">
-        <v>0</v>
+        <v>7623.8</v>
       </c>
       <c r="I35" s="16">
-        <v>0</v>
+        <v>10365.799999999999</v>
       </c>
       <c r="J35" s="16">
         <v>0</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>25926.1</v>
+        <v>54679.100000000006</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3934,22 +3934,22 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>563893.19999999995</v>
+        <v>564149.80000000005</v>
       </c>
       <c r="E36" s="16">
-        <v>466223.5</v>
+        <v>466259.8</v>
       </c>
       <c r="F36" s="16">
-        <v>574558.4</v>
+        <v>574571.4</v>
       </c>
       <c r="G36" s="16">
-        <v>0</v>
+        <v>424637.2</v>
       </c>
       <c r="H36" s="16">
-        <v>0</v>
+        <v>298022.5</v>
       </c>
       <c r="I36" s="16">
-        <v>0</v>
+        <v>346930.1</v>
       </c>
       <c r="J36" s="16">
         <v>0</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>1604675.1</v>
+        <v>2674570.8000000003</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4004,16 +4004,16 @@
         <v>244717.5</v>
       </c>
       <c r="F38" s="16">
-        <v>290996.2</v>
+        <v>291235.7</v>
       </c>
       <c r="G38" s="16">
-        <v>0</v>
+        <v>270068.3</v>
       </c>
       <c r="H38" s="16">
-        <v>0</v>
+        <v>214673.2</v>
       </c>
       <c r="I38" s="16">
-        <v>0</v>
+        <v>204350.4</v>
       </c>
       <c r="J38" s="16">
         <v>0</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>816282.5</v>
+        <v>1505613.9</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4053,13 +4053,13 @@
         <v>51.9</v>
       </c>
       <c r="G39" s="16">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="H39" s="16">
-        <v>0</v>
+        <v>82.2</v>
       </c>
       <c r="I39" s="16">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J39" s="16">
         <v>0</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>148.6</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4137,13 +4137,13 @@
         <v>424953.5</v>
       </c>
       <c r="G42" s="78">
-        <v>0</v>
+        <v>486286.3</v>
       </c>
       <c r="H42" s="78">
-        <v>0</v>
+        <v>527931.4</v>
       </c>
       <c r="I42" s="78">
-        <v>0</v>
+        <v>459063.2</v>
       </c>
       <c r="J42" s="78">
         <v>0</v>
@@ -4165,8 +4165,7 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>1316134.7</v>
+        <v>2789415.6</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4175,25 +4174,22 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="78">
-        <f>545525.1+612469.9</f>
         <v>1157995</v>
       </c>
       <c r="E43" s="78">
-        <f>550137+548662.1</f>
         <v>1098799.1000000001</v>
       </c>
       <c r="F43" s="78">
-        <f>566495.6+582720</f>
         <v>1149215.6000000001</v>
       </c>
       <c r="G43" s="78">
-        <v>0</v>
+        <v>1176069</v>
       </c>
       <c r="H43" s="78">
-        <v>0</v>
+        <v>1260869.7</v>
       </c>
       <c r="I43" s="78">
-        <v>0</v>
+        <v>1109572.7</v>
       </c>
       <c r="J43" s="78">
         <v>0</v>
@@ -4215,8 +4211,7 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <f t="shared" si="0"/>
-        <v>3406009.7</v>
+        <v>6952521.0999999996</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4225,22 +4220,22 @@
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="78">
-        <v>911490.1</v>
+        <v>911629.3</v>
       </c>
       <c r="E44" s="78">
-        <v>799614.7</v>
+        <v>799705.2</v>
       </c>
       <c r="F44" s="78">
-        <v>910303.4</v>
+        <v>910397.8</v>
       </c>
       <c r="G44" s="78">
-        <v>0</v>
+        <v>891385.3</v>
       </c>
       <c r="H44" s="78">
-        <v>0</v>
+        <v>769001</v>
       </c>
       <c r="I44" s="78">
-        <v>0</v>
+        <v>732303.1</v>
       </c>
       <c r="J44" s="78">
         <v>0</v>
@@ -4262,8 +4257,7 @@
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <f t="shared" si="0"/>
-        <v>2621408.1999999997</v>
+        <v>5014421.6999999993</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4281,13 +4275,13 @@
         <v>335457.90000000002</v>
       </c>
       <c r="G45" s="80">
-        <v>0</v>
+        <v>257566.2</v>
       </c>
       <c r="H45" s="80">
-        <v>0</v>
+        <v>320994.2</v>
       </c>
       <c r="I45" s="80">
-        <v>0</v>
+        <v>353975.6</v>
       </c>
       <c r="J45" s="80">
         <v>0</v>
@@ -4309,8 +4303,7 @@
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
-        <f t="shared" si="0"/>
-        <v>875222.3</v>
+        <v>1807758.2999999998</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4319,25 +4312,22 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:F46" si="1">SUM(D42:D45)</f>
-        <v>2851547.3</v>
+        <v>2851686.5</v>
       </c>
       <c r="E46" s="89">
-        <f t="shared" si="1"/>
-        <v>2547297.2000000002</v>
+        <v>2547387.7000000002</v>
       </c>
       <c r="F46" s="89">
-        <f t="shared" si="1"/>
-        <v>2819930.4</v>
+        <v>2820024.8</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>2811306.8</v>
       </c>
       <c r="H46" s="89">
-        <v>0</v>
+        <v>2878796.3</v>
       </c>
       <c r="I46" s="89">
-        <v>0</v>
+        <v>2654914.6</v>
       </c>
       <c r="J46" s="89">
         <v>0</v>
@@ -4359,8 +4349,7 @@
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <f t="shared" si="0"/>
-        <v>8218774.9000000004</v>
+        <v>16564116.699999999</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4386,25 +4375,22 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:F48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5350514.5</v>
+        <v>5350908.7</v>
       </c>
       <c r="E48" s="89">
-        <f t="shared" si="2"/>
-        <v>4687653.5999999996</v>
+        <v>4687740.0999999996</v>
       </c>
       <c r="F48" s="89">
-        <f t="shared" si="2"/>
-        <v>5369244.9000000004</v>
+        <v>5367872.0999999996</v>
       </c>
       <c r="G48" s="89">
-        <v>0</v>
+        <v>5091043.7</v>
       </c>
       <c r="H48" s="89">
-        <v>0</v>
+        <v>4979968.5999999996</v>
       </c>
       <c r="I48" s="89">
-        <v>0</v>
+        <v>4679289.0999999996</v>
       </c>
       <c r="J48" s="89">
         <v>0</v>
@@ -4426,8 +4412,7 @@
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
-        <f>SUM(D48:O48)</f>
-        <v>15407413</v>
+        <v>30156822.300000001</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4461,13 +4446,13 @@
         <v>215046.8</v>
       </c>
       <c r="G50" s="78">
-        <v>0</v>
+        <v>189681.1</v>
       </c>
       <c r="H50" s="78">
-        <v>0</v>
+        <v>172020.8</v>
       </c>
       <c r="I50" s="78">
-        <v>0</v>
+        <v>248140.7</v>
       </c>
       <c r="J50" s="78">
         <v>0</v>
@@ -4489,8 +4474,7 @@
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>612639.60000000009</v>
+        <v>1222482.2</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4501,19 +4485,19 @@
         <v>124236.8</v>
       </c>
       <c r="E51" s="78">
-        <v>115913.1</v>
+        <v>116058.3</v>
       </c>
       <c r="F51" s="78">
         <v>121794.8</v>
       </c>
       <c r="G51" s="78">
-        <v>0</v>
+        <v>106269.2</v>
       </c>
       <c r="H51" s="78">
-        <v>0</v>
+        <v>116208.9</v>
       </c>
       <c r="I51" s="78">
-        <v>0</v>
+        <v>110066.6</v>
       </c>
       <c r="J51" s="78">
         <v>0</v>
@@ -4535,8 +4519,7 @@
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <f t="shared" si="3"/>
-        <v>361944.7</v>
+        <v>694634.6</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4544,22 +4527,22 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>356789.8</v>
+        <v>356815.3</v>
       </c>
       <c r="E52" s="78">
-        <v>315688.3</v>
+        <v>315710.5</v>
       </c>
       <c r="F52" s="78">
-        <v>370741.4</v>
+        <v>370577.6</v>
       </c>
       <c r="G52" s="78">
-        <v>0</v>
+        <v>346866.3</v>
       </c>
       <c r="H52" s="78">
-        <v>0</v>
+        <v>340015.4</v>
       </c>
       <c r="I52" s="78">
-        <v>0</v>
+        <v>333959.7</v>
       </c>
       <c r="J52" s="78">
         <v>0</v>
@@ -4581,27 +4564,26 @@
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <f t="shared" si="3"/>
-        <v>1043219.5</v>
+        <v>2063944.8</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="106"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="103"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4609,22 +4591,22 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>9473919.5</v>
+        <v>9473899.5999999996</v>
       </c>
       <c r="E54" s="83">
-        <v>8863692.4000000004</v>
+        <v>8863606.3000000007</v>
       </c>
       <c r="F54" s="83">
-        <v>8788273.5</v>
+        <v>9169358.4000000004</v>
       </c>
       <c r="G54" s="83">
-        <v>0</v>
+        <v>10019771.1</v>
       </c>
       <c r="H54" s="83">
-        <v>0</v>
+        <v>9476708.6999999993</v>
       </c>
       <c r="I54" s="83">
-        <v>0</v>
+        <v>9412626.1999999993</v>
       </c>
       <c r="J54" s="83">
         <v>0</v>
@@ -4646,7 +4628,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>8788273.5</v>
+        <v>9412626.1999999993</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4654,22 +4636,22 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-242912.3</v>
+        <v>-243034.2</v>
       </c>
       <c r="E55" s="78">
-        <v>-139681.70000000001</v>
+        <v>-139906.9</v>
       </c>
       <c r="F55" s="78">
-        <v>403492.4</v>
+        <v>-142304</v>
       </c>
       <c r="G55" s="78">
-        <v>0</v>
+        <v>-87939.8</v>
       </c>
       <c r="H55" s="78">
-        <v>0</v>
+        <v>-338343.7</v>
       </c>
       <c r="I55" s="78">
-        <v>0</v>
+        <v>-318616.09999999998</v>
       </c>
       <c r="J55" s="78">
         <v>0</v>
@@ -4691,8 +4673,7 @@
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <f>SUM(D55:O55)</f>
-        <v>20898.400000000023</v>
+        <v>-1270144.7000000002</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4718,25 +4699,22 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:F57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>25092948.299999997</v>
+        <v>25092980</v>
       </c>
       <c r="E57" s="89">
-        <f t="shared" si="4"/>
-        <v>22432689.000000004</v>
+        <v>22432202.399999999</v>
       </c>
       <c r="F57" s="89">
-        <f t="shared" si="4"/>
-        <v>25450357.799999997</v>
+        <v>24873348</v>
       </c>
       <c r="G57" s="89">
-        <v>0</v>
+        <v>22593663.899999999</v>
       </c>
       <c r="H57" s="89">
-        <v>0</v>
+        <v>22331733.899999999</v>
       </c>
       <c r="I57" s="89">
-        <v>0</v>
+        <v>23067992.399999999</v>
       </c>
       <c r="J57" s="89">
         <v>0</v>
@@ -4758,8 +4736,7 @@
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
-        <f>SUM(D57:O57)</f>
-        <v>72975995.099999994</v>
+        <v>140391920.59999999</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4784,20 +4761,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="102"/>
-      <c r="K59" s="102"/>
-      <c r="L59" s="102"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="102"/>
-      <c r="O59" s="102"/>
-      <c r="P59" s="102"/>
-      <c r="Q59" s="103" t="s">
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="105" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4897,13 +4874,13 @@
         <v>69757.399999999994</v>
       </c>
       <c r="G63" s="90">
-        <v>0</v>
+        <v>38272</v>
       </c>
       <c r="H63" s="90">
-        <v>0</v>
+        <v>39155.9</v>
       </c>
       <c r="I63" s="90">
-        <v>0</v>
+        <v>60933.7</v>
       </c>
       <c r="J63" s="90">
         <v>0</v>
@@ -4925,7 +4902,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>169738</v>
+        <v>308099.59999999998</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4942,13 +4919,13 @@
         <v>2517299.4</v>
       </c>
       <c r="G64" s="90">
-        <v>0</v>
+        <v>2118283.4</v>
       </c>
       <c r="H64" s="90">
-        <v>0</v>
+        <v>1988167.4</v>
       </c>
       <c r="I64" s="90">
-        <v>0</v>
+        <v>2219706</v>
       </c>
       <c r="J64" s="90">
         <v>0</v>
@@ -4970,7 +4947,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>7372289.0999999996</v>
+        <v>13698445.9</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4978,22 +4955,22 @@
         <v>53</v>
       </c>
       <c r="D65" s="90">
-        <v>11271.4</v>
+        <v>11309</v>
       </c>
       <c r="E65" s="90">
-        <v>8492.6</v>
+        <v>8492.7000000000007</v>
       </c>
       <c r="F65" s="90">
-        <v>14430</v>
+        <v>14432.6</v>
       </c>
       <c r="G65" s="90">
-        <v>0</v>
+        <v>15261.8</v>
       </c>
       <c r="H65" s="90">
-        <v>0</v>
+        <v>11089.6</v>
       </c>
       <c r="I65" s="90">
-        <v>0</v>
+        <v>11993</v>
       </c>
       <c r="J65" s="90">
         <v>0</v>
@@ -5015,7 +4992,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>34194</v>
+        <v>72578.700000000012</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5032,13 +5009,13 @@
         <v>15053.5</v>
       </c>
       <c r="G66" s="90">
-        <v>0</v>
+        <v>18091.8</v>
       </c>
       <c r="H66" s="90">
-        <v>0</v>
+        <v>19963.8</v>
       </c>
       <c r="I66" s="90">
-        <v>0</v>
+        <v>13665.6</v>
       </c>
       <c r="J66" s="90">
         <v>0</v>
@@ -5060,7 +5037,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>47547.8</v>
+        <v>99269.000000000015</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5078,13 +5055,13 @@
         <v>110.3</v>
       </c>
       <c r="G67" s="90">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="H67" s="90">
         <v>0</v>
       </c>
       <c r="I67" s="90">
-        <v>0</v>
+        <v>338.9</v>
       </c>
       <c r="J67" s="90">
         <v>0</v>
@@ -5106,7 +5083,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>110.3</v>
+        <v>672.2</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5115,22 +5092,22 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="90">
-        <v>-10575.2</v>
+        <v>-10715.4</v>
       </c>
       <c r="E68" s="90">
-        <v>20681.400000000001</v>
+        <v>20780.8</v>
       </c>
       <c r="F68" s="90">
-        <v>-1097.2</v>
+        <v>-1006.6</v>
       </c>
       <c r="G68" s="90">
-        <v>0</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="H68" s="90">
-        <v>0</v>
+        <v>11810.4</v>
       </c>
       <c r="I68" s="90">
-        <v>0</v>
+        <v>13105.2</v>
       </c>
       <c r="J68" s="90">
         <v>0</v>
@@ -5152,7 +5129,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>9009</v>
+        <v>35142</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5167,16 +5144,16 @@
         <v>276205.40000000002</v>
       </c>
       <c r="F69" s="90">
-        <v>343276.4</v>
+        <v>341193.9</v>
       </c>
       <c r="G69" s="90">
-        <v>0</v>
+        <v>312016.59999999998</v>
       </c>
       <c r="H69" s="90">
-        <v>0</v>
+        <v>175192</v>
       </c>
       <c r="I69" s="90">
-        <v>0</v>
+        <v>206102.6</v>
       </c>
       <c r="J69" s="90">
         <v>0</v>
@@ -5198,7 +5175,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>966725.70000000007</v>
+        <v>1657954.4000000001</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5207,22 +5184,22 @@
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="90">
-        <v>2951361.4</v>
+        <v>2951258.8000000003</v>
       </c>
       <c r="E70" s="90">
-        <v>2689422.7</v>
+        <v>2689522.2</v>
       </c>
       <c r="F70" s="90">
-        <v>2958829.7999999993</v>
+        <v>2956840.4999999995</v>
       </c>
       <c r="G70" s="90">
-        <v>0</v>
+        <v>2503316.1999999997</v>
       </c>
       <c r="H70" s="90">
-        <v>0</v>
+        <v>2245379.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>0</v>
+        <v>2525845.0000000005</v>
       </c>
       <c r="J70" s="90">
         <v>0</v>
@@ -5244,7 +5221,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>8599613.8999999985</v>
+        <v>15872161.799999999</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5280,13 +5257,13 @@
         <v>21577914.399999999</v>
       </c>
       <c r="G72" s="78">
-        <v>0</v>
+        <v>19669729.300000001</v>
       </c>
       <c r="H72" s="78">
-        <v>0</v>
+        <v>19906583.100000001</v>
       </c>
       <c r="I72" s="78">
-        <v>0</v>
+        <v>20283093.100000001</v>
       </c>
       <c r="J72" s="78">
         <v>0</v>
@@ -5308,7 +5285,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>62932581</v>
+        <v>122791986.5</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5326,13 +5303,13 @@
         <v>696061.7548387096</v>
       </c>
       <c r="G73" s="78">
-        <v>0</v>
+        <v>655657.64333333331</v>
       </c>
       <c r="H73" s="78">
-        <v>0</v>
+        <v>642147.84193548397</v>
       </c>
       <c r="I73" s="78">
-        <v>0</v>
+        <v>676103.10333333339</v>
       </c>
       <c r="J73" s="78">
         <v>0</v>
@@ -5354,7 +5331,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>699264.77315668203</v>
+        <v>678617.15134536615</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5381,25 +5358,22 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:F75" si="5">D57-(D70+D72)</f>
-        <v>377987.39999999851</v>
+        <v>378121.7</v>
       </c>
       <c r="E75" s="89">
-        <f t="shared" si="5"/>
-        <v>152199.20000000298</v>
+        <v>151613.1</v>
       </c>
       <c r="F75" s="89">
-        <f t="shared" si="5"/>
-        <v>913613.59999999776</v>
+        <v>338593.1</v>
       </c>
       <c r="G75" s="89">
-        <v>0</v>
+        <v>420618.4</v>
       </c>
       <c r="H75" s="89">
-        <v>0</v>
+        <v>179771.7</v>
       </c>
       <c r="I75" s="89">
-        <v>0</v>
+        <v>259054.3</v>
       </c>
       <c r="J75" s="89">
         <v>0</v>
@@ -5421,8 +5395,7 @@
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="79">
-        <f>SUM(D75:O75)</f>
-        <v>1443800.1999999993</v>
+        <v>1727772.3</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5431,25 +5404,22 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:F76" si="6">IF(D57&gt;0,D75/D57,"")</f>
-        <v>1.5063490964909793E-2</v>
+        <v>-5.664141253135831E-3</v>
       </c>
       <c r="E76" s="94">
-        <f t="shared" si="6"/>
-        <v>6.784706015404705E-3</v>
+        <v>-1.8147938447986213E-2</v>
       </c>
       <c r="F76" s="94">
-        <f t="shared" si="6"/>
-        <v>3.5897868594994678E-2</v>
-      </c>
-      <c r="G76" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="94" t="s">
-        <v>128</v>
+        <v>-1.0054176002127407E-2</v>
+      </c>
+      <c r="G76" s="94">
+        <v>-9.5774431002311582E-3</v>
+      </c>
+      <c r="H76" s="94">
+        <v>-2.3483407604001957E-2</v>
+      </c>
+      <c r="I76" s="94">
+        <v>-1.5572053579000338E-2</v>
       </c>
       <c r="J76" s="94" t="s">
         <v>128</v>
@@ -5471,8 +5441,7 @@
       </c>
       <c r="P76" s="94"/>
       <c r="Q76" s="95">
-        <f>AVERAGE(D76:O76)</f>
-        <v>1.9248688525103058E-2</v>
+        <v>-1.3513925313701844E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5498,25 +5467,22 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:F78" si="7">(D70+D72)+D75</f>
-        <v>25092948.299999997</v>
+        <v>25092980</v>
       </c>
       <c r="E78" s="89">
-        <f t="shared" si="7"/>
-        <v>22432689.000000004</v>
+        <v>22432202.399999999</v>
       </c>
       <c r="F78" s="89">
-        <f t="shared" si="7"/>
-        <v>25450357.799999997</v>
+        <v>24873348</v>
       </c>
       <c r="G78" s="89">
-        <v>0</v>
+        <v>22593663.899999999</v>
       </c>
       <c r="H78" s="89">
-        <v>0</v>
+        <v>22331733.899999999</v>
       </c>
       <c r="I78" s="89">
-        <v>0</v>
+        <v>23067992.399999999</v>
       </c>
       <c r="J78" s="89">
         <v>0</v>
@@ -5538,8 +5504,7 @@
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <f>SUM(D78:O78)</f>
-        <v>72975995.099999994</v>
+        <v>140391920.59999999</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eub.gov.ab.ca\CalFsrv\share0\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856CE12-27A1-44B6-A56D-C40BE190D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C0C97-C174-4715-A086-734B74CE3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2940" windowWidth="21600" windowHeight="10650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 July 2025</t>
+    <t xml:space="preserve"> Run Date:  27 August 2025</t>
   </si>
 </sst>
 </file>
@@ -487,12 +487,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.00_)"/>
-    <numFmt numFmtId="168" formatCode="0____"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.00_)"/>
+    <numFmt numFmtId="167" formatCode="0____"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -805,14 +805,14 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="40" fontId="13" fillId="0" borderId="0">
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="17" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -835,7 +835,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,23 +848,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,7 +892,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,15 +912,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -929,13 +929,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,13 +966,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -981,8 +981,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -995,67 +995,62 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1064,6 +1059,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1626,11 +1625,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2800,8 +2799,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U83" sqref="U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2831,11 +2830,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2917,25 +2916,25 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>9506598</v>
+        <v>9506571</v>
       </c>
       <c r="E7" s="16">
-        <v>9473799.9000000004</v>
+        <v>9473738.9000000004</v>
       </c>
       <c r="F7" s="16">
-        <v>8863606.3000000007</v>
+        <v>8863545.5</v>
       </c>
       <c r="G7" s="16">
-        <v>9166837.3000000007</v>
+        <v>9166791.4000000004</v>
       </c>
       <c r="H7" s="16">
-        <v>10019694.4</v>
+        <v>10019633.6</v>
       </c>
       <c r="I7" s="16">
-        <v>9437852.5999999996</v>
+        <v>9475438.1999999993</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
+        <v>9440406.9000000004</v>
       </c>
       <c r="K7" s="16">
         <v>0</v>
@@ -2954,7 +2953,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>9506598</v>
+        <v>9506571</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -2998,7 +2997,7 @@
       <c r="B10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -3011,32 +3010,32 @@
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="99"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="77" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1524538.4</v>
+        <v>1524421.9</v>
       </c>
       <c r="E11" s="16">
-        <v>1394865.1</v>
+        <v>1393874.4</v>
       </c>
       <c r="F11" s="16">
-        <v>1627739.4</v>
+        <v>1625796.3</v>
       </c>
       <c r="G11" s="16">
-        <v>1596329.4</v>
+        <v>1593530</v>
       </c>
       <c r="H11" s="16">
-        <v>1608253.5</v>
+        <v>1605052.6</v>
       </c>
       <c r="I11" s="16">
-        <v>1545285.8</v>
+        <v>1541860.5</v>
       </c>
       <c r="J11" s="16">
-        <v>0</v>
+        <v>1618906.7</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
@@ -3055,7 +3054,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>9297011.6000000015</v>
+        <v>10903442.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3064,25 +3063,25 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>370010</v>
+        <v>369815.1</v>
       </c>
       <c r="E12" s="16">
-        <v>324940.79999999999</v>
+        <v>324823.59999999998</v>
       </c>
       <c r="F12" s="16">
-        <v>370805.3</v>
+        <v>370660</v>
       </c>
       <c r="G12" s="16">
-        <v>363028.3</v>
+        <v>362937.9</v>
       </c>
       <c r="H12" s="16">
-        <v>363259.9</v>
+        <v>363155.5</v>
       </c>
       <c r="I12" s="16">
-        <v>333382.40000000002</v>
+        <v>333301.90000000002</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
+        <v>340669.6</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
@@ -3101,7 +3100,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>2125426.7000000002</v>
+        <v>2465363.6</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3109,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>169594.5</v>
+        <v>169595</v>
       </c>
       <c r="E13" s="16">
         <v>151254.29999999999</v>
@@ -3127,7 +3126,7 @@
         <v>157909.79999999999</v>
       </c>
       <c r="J13" s="16">
-        <v>0</v>
+        <v>163225.29999999999</v>
       </c>
       <c r="K13" s="16">
         <v>0</v>
@@ -3146,33 +3145,33 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>977664.10000000009</v>
+        <v>1140889.9000000001</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="97">
-        <v>645954.5</v>
+      <c r="D14" s="96">
+        <v>646012.1</v>
       </c>
       <c r="E14" s="76">
-        <v>578615</v>
+        <v>579544.19999999995</v>
       </c>
       <c r="F14" s="76">
-        <v>638467.1</v>
+        <v>640506.6</v>
       </c>
       <c r="G14" s="75">
-        <v>612962.30000000005</v>
+        <v>615746.69999999995</v>
       </c>
       <c r="H14" s="75">
-        <v>620296.69999999995</v>
+        <v>623395</v>
       </c>
       <c r="I14" s="75">
-        <v>606565.80000000005</v>
+        <v>609895.80000000005</v>
       </c>
       <c r="J14" s="75">
-        <v>0</v>
+        <v>621219.19999999995</v>
       </c>
       <c r="K14" s="75">
         <v>0</v>
@@ -3190,8 +3189,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="76"/>
-      <c r="Q14" s="97">
-        <v>3702861.4000000004</v>
+      <c r="Q14" s="96">
+        <v>4336319.5999999996</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3199,25 +3198,25 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2710097.4</v>
+        <v>2709844.1</v>
       </c>
       <c r="E15" s="16">
-        <v>2449675.2000000002</v>
+        <v>2449496.5</v>
       </c>
       <c r="F15" s="16">
-        <v>2808947.3000000003</v>
+        <v>2808898.4</v>
       </c>
       <c r="G15" s="16">
-        <v>2734138.3</v>
+        <v>2734032.8999999994</v>
       </c>
       <c r="H15" s="16">
-        <v>2756961.8</v>
+        <v>2756754.8000000003</v>
       </c>
       <c r="I15" s="16">
-        <v>2643143.8000000003</v>
+        <v>2642968</v>
       </c>
       <c r="J15" s="16">
-        <v>0</v>
+        <v>2744020.8</v>
       </c>
       <c r="K15" s="16">
         <v>0</v>
@@ -3236,7 +3235,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>16102963.800000001</v>
+        <v>18846015.5</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3261,25 +3260,25 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>413767.6</v>
+        <v>413986.9</v>
       </c>
       <c r="E17" s="16">
-        <v>357469.6</v>
+        <v>357649</v>
       </c>
       <c r="F17" s="16">
-        <v>392222.9</v>
+        <v>392289.2</v>
       </c>
       <c r="G17" s="16">
-        <v>420454.7</v>
+        <v>420545.2</v>
       </c>
       <c r="H17" s="16">
-        <v>441560.6</v>
+        <v>441746.6</v>
       </c>
       <c r="I17" s="16">
-        <v>386046.8</v>
+        <v>386212.3</v>
       </c>
       <c r="J17" s="16">
-        <v>0</v>
+        <v>420804.3</v>
       </c>
       <c r="K17" s="16">
         <v>0</v>
@@ -3298,7 +3297,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>2411522.1999999997</v>
+        <v>2833233.4999999995</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3374,13 +3373,13 @@
         <v>9111057.1999999993</v>
       </c>
       <c r="H21" s="16">
-        <v>8860121.3000000007</v>
+        <v>8858743.1999999993</v>
       </c>
       <c r="I21" s="16">
-        <v>8770133.1999999993</v>
+        <v>8756491.1999999993</v>
       </c>
       <c r="J21" s="16">
-        <v>0</v>
+        <v>9733483.6999999993</v>
       </c>
       <c r="K21" s="16">
         <v>0</v>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>54635465.299999997</v>
+        <v>64353928.900000006</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3426,7 +3425,7 @@
         <v>8448607.8000000007</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>9343725.8000000007</v>
       </c>
       <c r="K22" s="16">
         <v>0</v>
@@ -3445,7 +3444,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>48002667.099999994</v>
+        <v>57346392.899999991</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3472,7 +3471,7 @@
         <v>-6572086.0999999996</v>
       </c>
       <c r="J23" s="16">
-        <v>0</v>
+        <v>-7692217.0999999996</v>
       </c>
       <c r="K23" s="16">
         <v>0</v>
@@ -3491,7 +3490,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-41437085.700000003</v>
+        <v>-49129302.800000004</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3512,13 +3511,13 @@
         <v>10283893.300000001</v>
       </c>
       <c r="H24" s="16">
-        <v>9976266.4000000004</v>
+        <v>9974888.2999999989</v>
       </c>
       <c r="I24" s="16">
-        <v>10646654.9</v>
+        <v>10633012.9</v>
       </c>
       <c r="J24" s="16">
-        <v>0</v>
+        <v>11384992.4</v>
       </c>
       <c r="K24" s="16">
         <v>0</v>
@@ -3537,14 +3536,14 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>61201046.699999988</v>
+        <v>72571019</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="95">
         <v>7041567.2000000002</v>
       </c>
       <c r="E25" s="42">
@@ -3563,7 +3562,7 @@
         <v>5698414.5</v>
       </c>
       <c r="J25" s="42">
-        <v>0</v>
+        <v>6717339</v>
       </c>
       <c r="K25" s="42">
         <v>0</v>
@@ -3581,8 +3580,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="8"/>
-      <c r="Q25" s="99">
-        <v>35718353.700000003</v>
+      <c r="Q25" s="98">
+        <v>42435692.700000003</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3602,13 +3601,13 @@
         <v>15931717.4</v>
       </c>
       <c r="H26" s="16">
-        <v>14576846</v>
+        <v>14575467.899999999</v>
       </c>
       <c r="I26" s="16">
-        <v>16345069.4</v>
+        <v>16331427.4</v>
       </c>
       <c r="J26" s="16">
-        <v>0</v>
+        <v>18102331.399999999</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -3627,12 +3626,12 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>96919400.399999991</v>
+        <v>115006711.7</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="53"/>
-      <c r="D27" s="96"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -3645,7 +3644,7 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="99"/>
+      <c r="Q27" s="98"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="50" t="s">
@@ -3653,25 +3652,25 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>20656283.899999999</v>
+        <v>20656249.899999999</v>
       </c>
       <c r="E28" s="16">
-        <v>17880712.500000004</v>
+        <v>17880713.200000003</v>
       </c>
       <c r="F28" s="16">
-        <v>20660951.199999999</v>
+        <v>20660968.599999998</v>
       </c>
       <c r="G28" s="16">
-        <v>19086310.399999999</v>
+        <v>19086295.5</v>
       </c>
       <c r="H28" s="16">
-        <v>17775368.400000002</v>
+        <v>17773969.300000001</v>
       </c>
       <c r="I28" s="16">
-        <v>19374260</v>
+        <v>19360607.699999999</v>
       </c>
       <c r="J28" s="16">
-        <v>0</v>
+        <v>21267156.5</v>
       </c>
       <c r="K28" s="16">
         <v>0</v>
@@ -3690,7 +3689,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>115433886.39999999</v>
+        <v>136685960.69999999</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3734,25 +3733,25 @@
         <v>49</v>
       </c>
       <c r="D31" s="90">
-        <v>1243091</v>
+        <v>1243178.2</v>
       </c>
       <c r="E31" s="16">
-        <v>1071466.1000000001</v>
+        <v>1071631.7</v>
       </c>
       <c r="F31" s="16">
-        <v>1274686.8999999999</v>
+        <v>1275097.8</v>
       </c>
       <c r="G31" s="16">
-        <v>1189741.8</v>
+        <v>1190197.7</v>
       </c>
       <c r="H31" s="16">
-        <v>1206795.8</v>
+        <v>1206878.8</v>
       </c>
       <c r="I31" s="16">
-        <v>1127360.8</v>
+        <v>1127341.1000000001</v>
       </c>
       <c r="J31" s="16">
-        <v>0</v>
+        <v>1239318.7</v>
       </c>
       <c r="K31" s="16">
         <v>0</v>
@@ -3771,7 +3770,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>7113142.3999999994</v>
+        <v>8353644.0000000009</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3797,7 +3796,7 @@
         <v>325942.40000000002</v>
       </c>
       <c r="J32" s="16">
-        <v>0</v>
+        <v>395262.9</v>
       </c>
       <c r="K32" s="16">
         <v>0</v>
@@ -3816,7 +3815,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>2180689.5</v>
+        <v>2575952.4</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3857,10 +3856,10 @@
         <v>10958.3</v>
       </c>
       <c r="I34" s="16">
-        <v>9398.5</v>
+        <v>9398.4</v>
       </c>
       <c r="J34" s="16">
-        <v>0</v>
+        <v>10289.299999999999</v>
       </c>
       <c r="K34" s="16">
         <v>0</v>
@@ -3879,7 +3878,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>63645.100000000006</v>
+        <v>73934.3</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3903,10 +3902,10 @@
         <v>7623.8</v>
       </c>
       <c r="I35" s="16">
-        <v>10365.799999999999</v>
+        <v>10400.1</v>
       </c>
       <c r="J35" s="16">
-        <v>0</v>
+        <v>8522.5</v>
       </c>
       <c r="K35" s="16">
         <v>0</v>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>54679.100000000006</v>
+        <v>63235.9</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3934,7 +3933,7 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>564149.80000000005</v>
+        <v>564170.30000000005</v>
       </c>
       <c r="E36" s="16">
         <v>466259.8</v>
@@ -3946,13 +3945,13 @@
         <v>424637.2</v>
       </c>
       <c r="H36" s="16">
-        <v>298022.5</v>
+        <v>298525.09999999998</v>
       </c>
       <c r="I36" s="16">
-        <v>346930.1</v>
+        <v>346894.5</v>
       </c>
       <c r="J36" s="16">
-        <v>0</v>
+        <v>446907.1</v>
       </c>
       <c r="K36" s="16">
         <v>0</v>
@@ -3971,7 +3970,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>2674570.8000000003</v>
+        <v>3121965.4</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4010,13 +4009,13 @@
         <v>270068.3</v>
       </c>
       <c r="H38" s="16">
-        <v>214673.2</v>
+        <v>214731.2</v>
       </c>
       <c r="I38" s="16">
-        <v>204350.4</v>
+        <v>213097.8</v>
       </c>
       <c r="J38" s="16">
-        <v>0</v>
+        <v>240844.7</v>
       </c>
       <c r="K38" s="16">
         <v>0</v>
@@ -4035,7 +4034,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>1505613.9</v>
+        <v>1755264</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4062,7 +4061,7 @@
         <v>26.5</v>
       </c>
       <c r="J39" s="16">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="K39" s="16">
         <v>0</v>
@@ -4081,7 +4080,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>364.8</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4146,7 +4145,7 @@
         <v>459063.2</v>
       </c>
       <c r="J42" s="78">
-        <v>0</v>
+        <v>434041.8</v>
       </c>
       <c r="K42" s="78">
         <v>0</v>
@@ -4165,7 +4164,8 @@
       </c>
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
-        <v>2789415.6</v>
+        <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
+        <v>3223457.4</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4174,25 +4174,32 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="78">
+        <f>545525.1+612469.9</f>
         <v>1157995</v>
       </c>
       <c r="E43" s="78">
+        <f>550137+548662.1</f>
         <v>1098799.1000000001</v>
       </c>
       <c r="F43" s="78">
+        <f>566495.6+582720</f>
         <v>1149215.6000000001</v>
       </c>
       <c r="G43" s="78">
+        <f>545193.8+630875.2</f>
         <v>1176069</v>
       </c>
       <c r="H43" s="78">
+        <f>573030.5+687839.2</f>
         <v>1260869.7</v>
       </c>
       <c r="I43" s="78">
+        <f>500782.5+608790.2</f>
         <v>1109572.7</v>
       </c>
       <c r="J43" s="78">
-        <v>0</v>
+        <f>521888+728810.7</f>
+        <v>1250698.7</v>
       </c>
       <c r="K43" s="78">
         <v>0</v>
@@ -4211,7 +4218,8 @@
       </c>
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
-        <v>6952521.0999999996</v>
+        <f t="shared" si="0"/>
+        <v>8203219.8000000007</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4238,7 +4246,7 @@
         <v>732303.1</v>
       </c>
       <c r="J44" s="78">
-        <v>0</v>
+        <v>784413</v>
       </c>
       <c r="K44" s="78">
         <v>0</v>
@@ -4257,7 +4265,8 @@
       </c>
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
-        <v>5014421.6999999993</v>
+        <f t="shared" si="0"/>
+        <v>5798834.6999999993</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4284,7 +4293,7 @@
         <v>353975.6</v>
       </c>
       <c r="J45" s="80">
-        <v>0</v>
+        <v>345885.9</v>
       </c>
       <c r="K45" s="80">
         <v>0</v>
@@ -4303,7 +4312,8 @@
       </c>
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
-        <v>1807758.2999999998</v>
+        <f t="shared" si="0"/>
+        <v>2153644.1999999997</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4312,25 +4322,32 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="89">
+        <f t="shared" ref="D46:J46" si="1">SUM(D42:D45)</f>
         <v>2851686.5</v>
       </c>
       <c r="E46" s="89">
+        <f t="shared" si="1"/>
         <v>2547387.7000000002</v>
       </c>
       <c r="F46" s="89">
-        <v>2820024.8</v>
+        <f t="shared" si="1"/>
+        <v>2820024.8000000003</v>
       </c>
       <c r="G46" s="89">
-        <v>2811306.8</v>
+        <f t="shared" si="1"/>
+        <v>2811306.8000000003</v>
       </c>
       <c r="H46" s="89">
-        <v>2878796.3</v>
+        <f t="shared" si="1"/>
+        <v>2878796.3000000003</v>
       </c>
       <c r="I46" s="89">
+        <f t="shared" si="1"/>
         <v>2654914.6</v>
       </c>
       <c r="J46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2815039.4</v>
       </c>
       <c r="K46" s="89">
         <v>0</v>
@@ -4349,7 +4366,8 @@
       </c>
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
-        <v>16564116.699999999</v>
+        <f t="shared" si="0"/>
+        <v>19379156.100000001</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4375,25 +4393,32 @@
         <v>58</v>
       </c>
       <c r="D48" s="89">
-        <v>5350908.7</v>
+        <f t="shared" ref="D48:J48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5351016.4000000004</v>
       </c>
       <c r="E48" s="89">
-        <v>4687740.0999999996</v>
+        <f t="shared" si="2"/>
+        <v>4687905.7</v>
       </c>
       <c r="F48" s="89">
-        <v>5367872.0999999996</v>
+        <f t="shared" si="2"/>
+        <v>5368283</v>
       </c>
       <c r="G48" s="89">
-        <v>5091043.7</v>
+        <f t="shared" si="2"/>
+        <v>5091499.5999999996</v>
       </c>
       <c r="H48" s="89">
-        <v>4979968.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>4980612.2000000011</v>
       </c>
       <c r="I48" s="89">
-        <v>4679289.0999999996</v>
+        <f t="shared" si="2"/>
+        <v>4688015.4000000004</v>
       </c>
       <c r="J48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5156230.8000000007</v>
       </c>
       <c r="K48" s="89">
         <v>0</v>
@@ -4412,7 +4437,8 @@
       </c>
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
-        <v>30156822.300000001</v>
+        <f>SUM(D48:O48)</f>
+        <v>35323563.100000009</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4455,7 +4481,7 @@
         <v>248140.7</v>
       </c>
       <c r="J50" s="78">
-        <v>0</v>
+        <v>243337.3</v>
       </c>
       <c r="K50" s="78">
         <v>0</v>
@@ -4474,7 +4500,8 @@
       </c>
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
-        <v>1222482.2</v>
+        <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
+        <v>1465819.5</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4500,7 +4527,7 @@
         <v>110066.6</v>
       </c>
       <c r="J51" s="78">
-        <v>0</v>
+        <v>114577.9</v>
       </c>
       <c r="K51" s="78">
         <v>0</v>
@@ -4519,7 +4546,8 @@
       </c>
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
-        <v>694634.6</v>
+        <f t="shared" si="3"/>
+        <v>809212.5</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4527,25 +4555,25 @@
         <v>17</v>
       </c>
       <c r="D52" s="78">
-        <v>356815.3</v>
+        <v>356833.3</v>
       </c>
       <c r="E52" s="78">
-        <v>315710.5</v>
+        <v>315744.7</v>
       </c>
       <c r="F52" s="78">
-        <v>370577.6</v>
+        <v>370662.5</v>
       </c>
       <c r="G52" s="78">
-        <v>346866.3</v>
+        <v>346960.5</v>
       </c>
       <c r="H52" s="78">
-        <v>340015.4</v>
+        <v>340063.4</v>
       </c>
       <c r="I52" s="78">
-        <v>333959.7</v>
+        <v>320355.8</v>
       </c>
       <c r="J52" s="78">
-        <v>0</v>
+        <v>360035.3</v>
       </c>
       <c r="K52" s="78">
         <v>0</v>
@@ -4564,26 +4592,27 @@
       </c>
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
-        <v>2063944.8</v>
+        <f t="shared" si="3"/>
+        <v>2410655.5</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="102"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="103"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="105"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="50" t="s">
@@ -4591,25 +4620,25 @@
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="83">
-        <v>9473899.5999999996</v>
+        <v>9473838.5999999996</v>
       </c>
       <c r="E54" s="83">
-        <v>8863606.3000000007</v>
+        <v>8863545.5</v>
       </c>
       <c r="F54" s="83">
-        <v>9169358.4000000004</v>
+        <v>9169312.5</v>
       </c>
       <c r="G54" s="83">
-        <v>10019771.1</v>
+        <v>10019710.300000001</v>
       </c>
       <c r="H54" s="83">
-        <v>9476708.6999999993</v>
+        <v>9475803.5</v>
       </c>
       <c r="I54" s="83">
-        <v>9412626.1999999993</v>
+        <v>9440507.8000000007</v>
       </c>
       <c r="J54" s="83">
-        <v>0</v>
+        <v>9659621.0999999996</v>
       </c>
       <c r="K54" s="83">
         <v>0</v>
@@ -4628,7 +4657,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9412626.1999999993</v>
+        <v>9659621.0999999996</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4636,25 +4665,25 @@
         <v>50</v>
       </c>
       <c r="D55" s="78">
-        <v>-243034.2</v>
+        <v>-242926.5</v>
       </c>
       <c r="E55" s="78">
-        <v>-139906.9</v>
+        <v>-139740.79999999999</v>
       </c>
       <c r="F55" s="78">
-        <v>-142304</v>
+        <v>-141887.6</v>
       </c>
       <c r="G55" s="78">
-        <v>-87939.8</v>
+        <v>-87483.9</v>
       </c>
       <c r="H55" s="78">
-        <v>-338343.7</v>
+        <v>-338286</v>
       </c>
       <c r="I55" s="78">
-        <v>-318616.09999999998</v>
+        <v>-312108.90000000002</v>
       </c>
       <c r="J55" s="78">
-        <v>0</v>
+        <v>-560506.80000000005</v>
       </c>
       <c r="K55" s="78">
         <v>0</v>
@@ -4673,7 +4702,8 @@
       </c>
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
-        <v>-1270144.7000000002</v>
+        <f>SUM(D55:O55)</f>
+        <v>-1822940.5000000002</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
@@ -4699,25 +4729,32 @@
         <v>31</v>
       </c>
       <c r="D57" s="89">
-        <v>25092980</v>
+        <f t="shared" ref="D57:J57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>25093177.399999995</v>
       </c>
       <c r="E57" s="89">
-        <v>22432202.399999999</v>
+        <f t="shared" si="4"/>
+        <v>22432500.400000002</v>
       </c>
       <c r="F57" s="89">
-        <v>24873348</v>
+        <f t="shared" si="4"/>
+        <v>24874092.899999995</v>
       </c>
       <c r="G57" s="89">
-        <v>22593663.899999999</v>
+        <f t="shared" si="4"/>
+        <v>22594481.500000004</v>
       </c>
       <c r="H57" s="89">
-        <v>22331733.899999999</v>
+        <f t="shared" si="4"/>
+        <v>22331832.5</v>
       </c>
       <c r="I57" s="89">
-        <v>23067992.399999999</v>
+        <f t="shared" si="4"/>
+        <v>23092881.5</v>
       </c>
       <c r="J57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24925715.800000001</v>
       </c>
       <c r="K57" s="89">
         <v>0</v>
@@ -4736,7 +4773,8 @@
       </c>
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
-        <v>140391920.59999999</v>
+        <f>SUM(D57:O57)</f>
+        <v>165344682</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4761,20 +4799,20 @@
         <v>129</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="105" t="s">
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="102" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4816,8 +4854,8 @@
       <c r="O60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="100" t="s">
+      <c r="P60" s="100"/>
+      <c r="Q60" s="99" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4883,7 +4921,7 @@
         <v>60933.7</v>
       </c>
       <c r="J63" s="90">
-        <v>0</v>
+        <v>72597</v>
       </c>
       <c r="K63" s="90">
         <v>0</v>
@@ -4902,7 +4940,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>308099.59999999998</v>
+        <v>380696.6</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4925,10 +4963,10 @@
         <v>1988167.4</v>
       </c>
       <c r="I64" s="90">
-        <v>2219706</v>
+        <v>2219657.5</v>
       </c>
       <c r="J64" s="90">
-        <v>0</v>
+        <v>2567045.2000000002</v>
       </c>
       <c r="K64" s="90">
         <v>0</v>
@@ -4947,7 +4985,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>13698445.9</v>
+        <v>16265442.600000001</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -4973,7 +5011,7 @@
         <v>11993</v>
       </c>
       <c r="J65" s="90">
-        <v>0</v>
+        <v>9735.2000000000007</v>
       </c>
       <c r="K65" s="90">
         <v>0</v>
@@ -4992,7 +5030,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>72578.700000000012</v>
+        <v>82313.900000000009</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5018,7 +5056,7 @@
         <v>13665.6</v>
       </c>
       <c r="J66" s="90">
-        <v>0</v>
+        <v>15916.7</v>
       </c>
       <c r="K66" s="90">
         <v>0</v>
@@ -5037,7 +5075,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>99269.000000000015</v>
+        <v>115185.70000000001</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5052,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="90">
-        <v>110.3</v>
+        <v>107.3</v>
       </c>
       <c r="G67" s="90">
         <v>223</v>
@@ -5083,7 +5121,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>672.2</v>
+        <v>669.2</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5107,10 +5145,10 @@
         <v>11810.4</v>
       </c>
       <c r="I68" s="90">
-        <v>13105.2</v>
+        <v>13063.4</v>
       </c>
       <c r="J68" s="90">
-        <v>0</v>
+        <v>7563.4</v>
       </c>
       <c r="K68" s="90">
         <v>0</v>
@@ -5129,7 +5167,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>35142</v>
+        <v>42663.6</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5153,10 +5191,10 @@
         <v>175192</v>
       </c>
       <c r="I69" s="90">
-        <v>206102.6</v>
+        <v>206088.9</v>
       </c>
       <c r="J69" s="90">
-        <v>0</v>
+        <v>351865.7</v>
       </c>
       <c r="K69" s="90">
         <v>0</v>
@@ -5175,7 +5213,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>1657954.4000000001</v>
+        <v>2009806.4</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5190,7 +5228,7 @@
         <v>2689522.2</v>
       </c>
       <c r="F70" s="90">
-        <v>2956840.4999999995</v>
+        <v>2956837.4999999995</v>
       </c>
       <c r="G70" s="90">
         <v>2503316.1999999997</v>
@@ -5199,10 +5237,10 @@
         <v>2245379.0999999996</v>
       </c>
       <c r="I70" s="90">
-        <v>2525845.0000000005</v>
+        <v>2525741</v>
       </c>
       <c r="J70" s="90">
-        <v>0</v>
+        <v>3024723.2000000007</v>
       </c>
       <c r="K70" s="90">
         <v>0</v>
@@ -5221,7 +5259,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>15872161.799999999</v>
+        <v>18896778</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5266,7 +5304,7 @@
         <v>20283093.100000001</v>
       </c>
       <c r="J72" s="78">
-        <v>0</v>
+        <v>21727628.600000001</v>
       </c>
       <c r="K72" s="78">
         <v>0</v>
@@ -5285,7 +5323,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>122791986.5</v>
+        <v>144519615.09999999</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5312,7 +5350,7 @@
         <v>676103.10333333339</v>
       </c>
       <c r="J73" s="78">
-        <v>0</v>
+        <v>700891.2451612904</v>
       </c>
       <c r="K73" s="78">
         <v>0</v>
@@ -5331,7 +5369,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>678617.15134536615</v>
+        <v>681799.16474764107</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5358,25 +5396,32 @@
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="89">
-        <v>378121.7</v>
+        <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
+        <v>378319.09999999404</v>
       </c>
       <c r="E75" s="89">
-        <v>151613.1</v>
+        <f t="shared" si="5"/>
+        <v>151911.10000000149</v>
       </c>
       <c r="F75" s="89">
-        <v>338593.1</v>
+        <f t="shared" si="5"/>
+        <v>339340.99999999627</v>
       </c>
       <c r="G75" s="89">
-        <v>420618.4</v>
+        <f t="shared" si="5"/>
+        <v>421436.00000000373</v>
       </c>
       <c r="H75" s="89">
-        <v>179771.7</v>
+        <f t="shared" si="5"/>
+        <v>179870.29999999702</v>
       </c>
       <c r="I75" s="89">
-        <v>259054.3</v>
+        <f t="shared" si="5"/>
+        <v>284047.39999999851</v>
       </c>
       <c r="J75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>173364</v>
       </c>
       <c r="K75" s="89">
         <v>0</v>
@@ -5394,8 +5439,9 @@
         <v>0</v>
       </c>
       <c r="P75" s="79"/>
-      <c r="Q75" s="79">
-        <v>1727772.3</v>
+      <c r="Q75" s="91">
+        <f t="shared" ref="Q75" si="6">SUM(D75:O75)</f>
+        <v>1928288.8999999911</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5404,25 +5450,32 @@
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="94">
-        <v>-5.664141253135831E-3</v>
+        <f t="shared" ref="D76:J76" si="7">IF(D57&gt;0,D75/D57,"")</f>
+        <v>1.5076572168178037E-2</v>
       </c>
       <c r="E76" s="94">
-        <v>-1.8147938447986213E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.7719200843077429E-3</v>
       </c>
       <c r="F76" s="94">
-        <v>-1.0054176002127407E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3642346732571557E-2</v>
       </c>
       <c r="G76" s="94">
-        <v>-9.5774431002311582E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.865216513156116E-2</v>
       </c>
       <c r="H76" s="94">
-        <v>-2.3483407604001957E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.0544352999243132E-3</v>
       </c>
       <c r="I76" s="94">
-        <v>-1.5572053579000338E-2</v>
-      </c>
-      <c r="J76" s="94" t="s">
-        <v>128</v>
+        <f t="shared" si="7"/>
+        <v>1.2300214678709476E-2</v>
+      </c>
+      <c r="J76" s="94">
+        <f t="shared" si="7"/>
+        <v>6.9552265375664758E-3</v>
       </c>
       <c r="K76" s="94" t="s">
         <v>128</v>
@@ -5440,8 +5493,9 @@
         <v>128</v>
       </c>
       <c r="P76" s="94"/>
-      <c r="Q76" s="95">
-        <v>-1.3513925313701844E-2</v>
+      <c r="Q76" s="79">
+        <f>AVERAGE(D76:J76)</f>
+        <v>1.1636125804688395E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
@@ -5467,25 +5521,32 @@
         <v>36</v>
       </c>
       <c r="D78" s="89">
-        <v>25092980</v>
+        <f t="shared" ref="D78:J78" si="8">(D70+D72)+D75</f>
+        <v>25093177.399999995</v>
       </c>
       <c r="E78" s="89">
-        <v>22432202.399999999</v>
+        <f t="shared" si="8"/>
+        <v>22432500.400000002</v>
       </c>
       <c r="F78" s="89">
-        <v>24873348</v>
+        <f t="shared" si="8"/>
+        <v>24874092.899999995</v>
       </c>
       <c r="G78" s="89">
-        <v>22593663.899999999</v>
+        <f t="shared" si="8"/>
+        <v>22594481.500000004</v>
       </c>
       <c r="H78" s="89">
-        <v>22331733.899999999</v>
+        <f t="shared" si="8"/>
+        <v>22331832.5</v>
       </c>
       <c r="I78" s="89">
-        <v>23067992.399999999</v>
+        <f t="shared" si="8"/>
+        <v>23092881.5</v>
       </c>
       <c r="J78" s="89">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>24925715.800000001</v>
       </c>
       <c r="K78" s="89">
         <v>0</v>
@@ -5504,7 +5565,8 @@
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <v>140391920.59999999</v>
+        <f t="shared" ref="Q78" si="9">SUM(D78:O78)</f>
+        <v>165344682</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5576,7 +5638,7 @@
         <v>119</v>
       </c>
       <c r="C84" s="24"/>
-      <c r="D84" s="98"/>
+      <c r="D84" s="97"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5588,7 +5650,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
-      <c r="Q84" s="98"/>
+      <c r="Q84" s="97"/>
     </row>
     <row r="85" spans="2:17">
       <c r="B85" s="23"/>

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C0C97-C174-4715-A086-734B74CE3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33123248-81E2-4597-85DC-4CF0D36E1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 August 2025</t>
+    <t xml:space="preserve"> Run Date:  29 September 2025</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1060,9 +1060,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2799,8 +2825,8 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U83" sqref="U83"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2931,13 +2957,13 @@
         <v>10019633.6</v>
       </c>
       <c r="I7" s="16">
-        <v>9475438.1999999993</v>
+        <v>9475291.0999999996</v>
       </c>
       <c r="J7" s="16">
-        <v>9440406.9000000004</v>
+        <v>9440331</v>
       </c>
       <c r="K7" s="16">
-        <v>0</v>
+        <v>9658540.9000000004</v>
       </c>
       <c r="L7" s="16">
         <v>0</v>
@@ -3017,28 +3043,28 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1524421.9</v>
+        <v>1509585.2</v>
       </c>
       <c r="E11" s="16">
-        <v>1393874.4</v>
+        <v>1380161.3</v>
       </c>
       <c r="F11" s="16">
-        <v>1625796.3</v>
+        <v>1610983.8</v>
       </c>
       <c r="G11" s="16">
-        <v>1593530</v>
+        <v>1580846.6</v>
       </c>
       <c r="H11" s="16">
-        <v>1605052.6</v>
+        <v>1591702.8</v>
       </c>
       <c r="I11" s="16">
-        <v>1541860.5</v>
+        <v>1529687</v>
       </c>
       <c r="J11" s="16">
-        <v>1618906.7</v>
+        <v>1603536.7</v>
       </c>
       <c r="K11" s="16">
-        <v>0</v>
+        <v>1612964.7</v>
       </c>
       <c r="L11" s="16">
         <v>0</v>
@@ -3054,7 +3080,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>10903442.399999999</v>
+        <v>12419468.099999998</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3063,28 +3089,28 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>369815.1</v>
+        <v>370768.7</v>
       </c>
       <c r="E12" s="16">
-        <v>324823.59999999998</v>
+        <v>326324.7</v>
       </c>
       <c r="F12" s="16">
-        <v>370660</v>
+        <v>373911.1</v>
       </c>
       <c r="G12" s="16">
-        <v>362937.9</v>
+        <v>364404</v>
       </c>
       <c r="H12" s="16">
-        <v>363155.5</v>
+        <v>364641.4</v>
       </c>
       <c r="I12" s="16">
-        <v>333301.90000000002</v>
+        <v>335147.3</v>
       </c>
       <c r="J12" s="16">
-        <v>340669.6</v>
+        <v>345637.7</v>
       </c>
       <c r="K12" s="16">
-        <v>0</v>
+        <v>342890.1</v>
       </c>
       <c r="L12" s="16">
         <v>0</v>
@@ -3100,7 +3126,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>2465363.6</v>
+        <v>2823725</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3108,28 +3134,28 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>169595</v>
+        <v>176605</v>
       </c>
       <c r="E13" s="16">
-        <v>151254.29999999999</v>
+        <v>158419.29999999999</v>
       </c>
       <c r="F13" s="16">
-        <v>171935.5</v>
+        <v>180707.7</v>
       </c>
       <c r="G13" s="16">
-        <v>161818.29999999999</v>
+        <v>170798.3</v>
       </c>
       <c r="H13" s="16">
-        <v>165151.70000000001</v>
+        <v>174432.6</v>
       </c>
       <c r="I13" s="16">
-        <v>157909.79999999999</v>
+        <v>165404.1</v>
       </c>
       <c r="J13" s="16">
-        <v>163225.29999999999</v>
+        <v>169128.2</v>
       </c>
       <c r="K13" s="16">
-        <v>0</v>
+        <v>167855.6</v>
       </c>
       <c r="L13" s="16">
         <v>0</v>
@@ -3145,7 +3171,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1140889.9000000001</v>
+        <v>1363350.8</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3153,28 +3179,28 @@
         <v>122</v>
       </c>
       <c r="D14" s="96">
-        <v>646012.1</v>
+        <v>652606.19999999995</v>
       </c>
       <c r="E14" s="76">
-        <v>579544.19999999995</v>
+        <v>584438.19999999995</v>
       </c>
       <c r="F14" s="76">
-        <v>640506.6</v>
+        <v>643410.1</v>
       </c>
       <c r="G14" s="75">
-        <v>615746.69999999995</v>
+        <v>617613.30000000005</v>
       </c>
       <c r="H14" s="75">
-        <v>623395</v>
+        <v>625842.19999999995</v>
       </c>
       <c r="I14" s="75">
-        <v>609895.80000000005</v>
+        <v>612662.1</v>
       </c>
       <c r="J14" s="75">
-        <v>621219.19999999995</v>
+        <v>625691</v>
       </c>
       <c r="K14" s="75">
-        <v>0</v>
+        <v>622640</v>
       </c>
       <c r="L14" s="75">
         <v>0</v>
@@ -3190,7 +3216,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="96">
-        <v>4336319.5999999996</v>
+        <v>4984903.0999999996</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3198,28 +3224,28 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2709844.1</v>
+        <v>2709565.0999999996</v>
       </c>
       <c r="E15" s="16">
-        <v>2449496.5</v>
+        <v>2449343.5</v>
       </c>
       <c r="F15" s="16">
-        <v>2808898.4</v>
+        <v>2809012.7</v>
       </c>
       <c r="G15" s="16">
-        <v>2734032.8999999994</v>
+        <v>2733662.2</v>
       </c>
       <c r="H15" s="16">
-        <v>2756754.8000000003</v>
+        <v>2756619</v>
       </c>
       <c r="I15" s="16">
-        <v>2642968</v>
+        <v>2642900.5</v>
       </c>
       <c r="J15" s="16">
-        <v>2744020.8</v>
+        <v>2743993.6</v>
       </c>
       <c r="K15" s="16">
-        <v>0</v>
+        <v>2746350.4</v>
       </c>
       <c r="L15" s="16">
         <v>0</v>
@@ -3235,7 +3261,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>18846015.5</v>
+        <v>21591447</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3260,28 +3286,28 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>413986.9</v>
+        <v>414167.9</v>
       </c>
       <c r="E17" s="16">
-        <v>357649</v>
+        <v>357802</v>
       </c>
       <c r="F17" s="16">
-        <v>392289.2</v>
+        <v>393849</v>
       </c>
       <c r="G17" s="16">
-        <v>420545.2</v>
+        <v>420819.7</v>
       </c>
       <c r="H17" s="16">
-        <v>441746.6</v>
+        <v>441749.7</v>
       </c>
       <c r="I17" s="16">
-        <v>386212.3</v>
+        <v>386349.2</v>
       </c>
       <c r="J17" s="16">
-        <v>420804.3</v>
+        <v>420933.5</v>
       </c>
       <c r="K17" s="16">
-        <v>0</v>
+        <v>437157.9</v>
       </c>
       <c r="L17" s="16">
         <v>0</v>
@@ -3297,7 +3323,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>2833233.4999999995</v>
+        <v>3272828.9</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3379,10 +3405,10 @@
         <v>8756491.1999999993</v>
       </c>
       <c r="J21" s="16">
-        <v>9733483.6999999993</v>
+        <v>9732681.4000000004</v>
       </c>
       <c r="K21" s="16">
-        <v>0</v>
+        <v>9668723.8000000007</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
@@ -3398,7 +3424,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>64353928.900000006</v>
+        <v>74021850.400000006</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3425,10 +3451,10 @@
         <v>8448607.8000000007</v>
       </c>
       <c r="J22" s="16">
-        <v>9343725.8000000007</v>
+        <v>9342586.8000000007</v>
       </c>
       <c r="K22" s="16">
-        <v>0</v>
+        <v>9088365.5</v>
       </c>
       <c r="L22" s="16">
         <v>0</v>
@@ -3444,7 +3470,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>57346392.899999991</v>
+        <v>66433619.399999991</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3474,7 +3500,7 @@
         <v>-7692217.0999999996</v>
       </c>
       <c r="K23" s="16">
-        <v>0</v>
+        <v>-7791409.0999999996</v>
       </c>
       <c r="L23" s="16">
         <v>0</v>
@@ -3490,7 +3516,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-49129302.800000004</v>
+        <v>-56920711.900000006</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3517,10 +3543,10 @@
         <v>10633012.9</v>
       </c>
       <c r="J24" s="16">
-        <v>11384992.4</v>
+        <v>11383051.100000003</v>
       </c>
       <c r="K24" s="16">
-        <v>0</v>
+        <v>10965680.200000001</v>
       </c>
       <c r="L24" s="16">
         <v>0</v>
@@ -3536,7 +3562,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>72571019</v>
+        <v>83534757.900000006</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3562,10 +3588,10 @@
         <v>5698414.5</v>
       </c>
       <c r="J25" s="42">
-        <v>6717339</v>
+        <v>6714940.2999999998</v>
       </c>
       <c r="K25" s="42">
-        <v>0</v>
+        <v>6697996.7000000002</v>
       </c>
       <c r="L25" s="42">
         <v>0</v>
@@ -3581,7 +3607,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="98">
-        <v>42435692.700000003</v>
+        <v>49131290.700000003</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3607,10 +3633,10 @@
         <v>16331427.4</v>
       </c>
       <c r="J26" s="16">
-        <v>18102331.399999999</v>
+        <v>18097991.400000002</v>
       </c>
       <c r="K26" s="16">
-        <v>0</v>
+        <v>17663676.900000002</v>
       </c>
       <c r="L26" s="16">
         <v>0</v>
@@ -3626,7 +3652,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>115006711.7</v>
+        <v>132666048.60000001</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3652,28 +3678,28 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="90">
-        <v>20656249.899999999</v>
+        <v>20656151.899999999</v>
       </c>
       <c r="E28" s="16">
         <v>17880713.200000003</v>
       </c>
       <c r="F28" s="16">
-        <v>20660968.599999998</v>
+        <v>20662642.699999999</v>
       </c>
       <c r="G28" s="16">
-        <v>19086295.5</v>
+        <v>19086199.300000001</v>
       </c>
       <c r="H28" s="16">
-        <v>17773969.300000001</v>
+        <v>17773836.599999998</v>
       </c>
       <c r="I28" s="16">
-        <v>19360607.699999999</v>
+        <v>19360677.099999998</v>
       </c>
       <c r="J28" s="16">
-        <v>21267156.5</v>
+        <v>21262918.500000004</v>
       </c>
       <c r="K28" s="16">
-        <v>0</v>
+        <v>20847185.199999999</v>
       </c>
       <c r="L28" s="16">
         <v>0</v>
@@ -3689,7 +3715,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>136685960.69999999</v>
+        <v>157530324.50000003</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3736,25 +3762,25 @@
         <v>1243178.2</v>
       </c>
       <c r="E31" s="16">
-        <v>1071631.7</v>
+        <v>1071663.1000000001</v>
       </c>
       <c r="F31" s="16">
-        <v>1275097.8</v>
+        <v>1273290.8999999999</v>
       </c>
       <c r="G31" s="16">
-        <v>1190197.7</v>
+        <v>1190294.5</v>
       </c>
       <c r="H31" s="16">
         <v>1206878.8</v>
       </c>
       <c r="I31" s="16">
-        <v>1127341.1000000001</v>
+        <v>1127290.7</v>
       </c>
       <c r="J31" s="16">
-        <v>1239318.7</v>
+        <v>1240310</v>
       </c>
       <c r="K31" s="16">
-        <v>0</v>
+        <v>1269251.3999999999</v>
       </c>
       <c r="L31" s="16">
         <v>0</v>
@@ -3770,7 +3796,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>8353644.0000000009</v>
+        <v>9622157.5999999996</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3799,7 +3825,7 @@
         <v>395262.9</v>
       </c>
       <c r="K32" s="16">
-        <v>0</v>
+        <v>399002.2</v>
       </c>
       <c r="L32" s="16">
         <v>0</v>
@@ -3815,7 +3841,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>2575952.4</v>
+        <v>2974954.6</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3862,7 +3888,7 @@
         <v>10289.299999999999</v>
       </c>
       <c r="K34" s="16">
-        <v>0</v>
+        <v>10489.1</v>
       </c>
       <c r="L34" s="16">
         <v>0</v>
@@ -3878,7 +3904,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>73934.3</v>
+        <v>84423.400000000009</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3908,7 +3934,7 @@
         <v>8522.5</v>
       </c>
       <c r="K35" s="16">
-        <v>0</v>
+        <v>10253.1</v>
       </c>
       <c r="L35" s="16">
         <v>0</v>
@@ -3924,7 +3950,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>63235.9</v>
+        <v>73489</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3933,28 +3959,28 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="90">
-        <v>564170.30000000005</v>
+        <v>564268.30000000005</v>
       </c>
       <c r="E36" s="16">
         <v>466259.8</v>
       </c>
       <c r="F36" s="16">
-        <v>574571.4</v>
+        <v>574571</v>
       </c>
       <c r="G36" s="16">
         <v>424637.2</v>
       </c>
       <c r="H36" s="16">
-        <v>298525.09999999998</v>
+        <v>298514.59999999998</v>
       </c>
       <c r="I36" s="16">
-        <v>346894.5</v>
+        <v>346895.7</v>
       </c>
       <c r="J36" s="16">
-        <v>446907.1</v>
+        <v>447301</v>
       </c>
       <c r="K36" s="16">
-        <v>0</v>
+        <v>359054</v>
       </c>
       <c r="L36" s="16">
         <v>0</v>
@@ -3970,7 +3996,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>3121965.4</v>
+        <v>3481501.6</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4018,7 +4044,7 @@
         <v>240844.7</v>
       </c>
       <c r="K38" s="16">
-        <v>0</v>
+        <v>245892.7</v>
       </c>
       <c r="L38" s="16">
         <v>0</v>
@@ -4034,7 +4060,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>1755264</v>
+        <v>2001156.7</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4064,7 +4090,7 @@
         <v>46.2</v>
       </c>
       <c r="K39" s="16">
-        <v>0</v>
+        <v>107.8</v>
       </c>
       <c r="L39" s="16">
         <v>0</v>
@@ -4080,7 +4106,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>411</v>
+        <v>518.79999999999995</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4102,30 +4128,30 @@
       <c r="Q40" s="91"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="90"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="8"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="91"/>
       <c r="Q41" s="91"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="78">
         <v>486366.8</v>
       </c>
@@ -4148,7 +4174,7 @@
         <v>434041.8</v>
       </c>
       <c r="K42" s="78">
-        <v>0</v>
+        <v>453726.7</v>
       </c>
       <c r="L42" s="78">
         <v>0</v>
@@ -4165,14 +4191,14 @@
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
         <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>3223457.4</v>
+        <v>3677184.1</v>
       </c>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="78">
         <f>545525.1+612469.9</f>
         <v>1157995</v>
@@ -4202,7 +4228,8 @@
         <v>1250698.7</v>
       </c>
       <c r="K43" s="78">
-        <v>0</v>
+        <f>508726.8+556568.3</f>
+        <v>1065295.1000000001</v>
       </c>
       <c r="L43" s="78">
         <v>0</v>
@@ -4219,14 +4246,14 @@
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
         <f t="shared" si="0"/>
-        <v>8203219.8000000007</v>
+        <v>9268514.9000000004</v>
       </c>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="78">
         <v>911629.3</v>
       </c>
@@ -4249,7 +4276,7 @@
         <v>784413</v>
       </c>
       <c r="K44" s="78">
-        <v>0</v>
+        <v>835101.3</v>
       </c>
       <c r="L44" s="78">
         <v>0</v>
@@ -4266,14 +4293,14 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>5798834.6999999993</v>
+        <v>6633935.9999999991</v>
       </c>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="80">
         <v>295695.40000000002</v>
       </c>
@@ -4296,7 +4323,7 @@
         <v>345885.9</v>
       </c>
       <c r="K45" s="80">
-        <v>0</v>
+        <v>258939.8</v>
       </c>
       <c r="L45" s="80">
         <v>0</v>
@@ -4313,16 +4340,16 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2153644.1999999997</v>
+        <v>2412583.9999999995</v>
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:J46" si="1">SUM(D42:D45)</f>
+        <f t="shared" ref="D46:K46" si="1">SUM(D42:D45)</f>
         <v>2851686.5</v>
       </c>
       <c r="E46" s="89">
@@ -4350,7 +4377,8 @@
         <v>2815039.4</v>
       </c>
       <c r="K46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2613062.9</v>
       </c>
       <c r="L46" s="89">
         <v>0</v>
@@ -4367,12 +4395,12 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>19379156.100000001</v>
+        <v>21992219</v>
       </c>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="50"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="78"/>
       <c r="E47" s="78"/>
       <c r="F47" s="78"/>
@@ -4389,39 +4417,41 @@
       <c r="Q47" s="79"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="109" t="s">
         <v>58</v>
       </c>
+      <c r="C48" s="110"/>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:J48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
-        <v>5351016.4000000004</v>
+        <f t="shared" ref="D48:K48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <v>5351114.4000000004</v>
       </c>
       <c r="E48" s="89">
         <f t="shared" si="2"/>
-        <v>4687905.7</v>
+        <v>4687937.0999999996</v>
       </c>
       <c r="F48" s="89">
         <f t="shared" si="2"/>
-        <v>5368283</v>
+        <v>5366475.7</v>
       </c>
       <c r="G48" s="89">
         <f t="shared" si="2"/>
-        <v>5091499.5999999996</v>
+        <v>5091596.4000000004</v>
       </c>
       <c r="H48" s="89">
         <f t="shared" si="2"/>
-        <v>4980612.2000000011</v>
+        <v>4980601.7000000011</v>
       </c>
       <c r="I48" s="89">
         <f t="shared" si="2"/>
-        <v>4688015.4000000004</v>
+        <v>4687966.2</v>
       </c>
       <c r="J48" s="89">
         <f t="shared" si="2"/>
-        <v>5156230.8000000007</v>
+        <v>5157616</v>
       </c>
       <c r="K48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4907113.1999999993</v>
       </c>
       <c r="L48" s="89">
         <v>0</v>
@@ -4438,11 +4468,12 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>35323563.100000009</v>
+        <v>40230420.700000003</v>
       </c>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="50"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
@@ -4459,9 +4490,10 @@
       <c r="Q49" s="82"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="111" t="s">
         <v>54</v>
       </c>
+      <c r="C50" s="110"/>
       <c r="D50" s="78">
         <v>222824.7</v>
       </c>
@@ -4484,7 +4516,7 @@
         <v>243337.3</v>
       </c>
       <c r="K50" s="78">
-        <v>0</v>
+        <v>251478.39999999999</v>
       </c>
       <c r="L50" s="78">
         <v>0</v>
@@ -4501,13 +4533,14 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>1465819.5</v>
+        <v>1717297.9</v>
       </c>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="109" t="s">
         <v>22</v>
       </c>
+      <c r="C51" s="110"/>
       <c r="D51" s="78">
         <v>124236.8</v>
       </c>
@@ -4530,7 +4563,7 @@
         <v>114577.9</v>
       </c>
       <c r="K51" s="78">
-        <v>0</v>
+        <v>109729.4</v>
       </c>
       <c r="L51" s="78">
         <v>0</v>
@@ -4547,36 +4580,37 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>809212.5</v>
+        <v>918941.9</v>
       </c>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="109" t="s">
         <v>17</v>
       </c>
+      <c r="C52" s="110"/>
       <c r="D52" s="78">
         <v>356833.3</v>
       </c>
       <c r="E52" s="78">
-        <v>315744.7</v>
+        <v>315751.2</v>
       </c>
       <c r="F52" s="78">
-        <v>370662.5</v>
+        <v>370289</v>
       </c>
       <c r="G52" s="78">
-        <v>346960.5</v>
+        <v>346980.5</v>
       </c>
       <c r="H52" s="78">
         <v>340063.4</v>
       </c>
       <c r="I52" s="78">
-        <v>320355.8</v>
+        <v>320348.40000000002</v>
       </c>
       <c r="J52" s="78">
-        <v>360035.3</v>
+        <v>360221</v>
       </c>
       <c r="K52" s="78">
-        <v>0</v>
+        <v>360082.1</v>
       </c>
       <c r="L52" s="78">
         <v>0</v>
@@ -4593,32 +4627,32 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>2410655.5</v>
+        <v>2770568.9</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
-      <c r="B53" s="50"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="104"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="105"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="113"/>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="83">
         <v>9473838.5999999996</v>
       </c>
@@ -4632,16 +4666,16 @@
         <v>10019710.300000001</v>
       </c>
       <c r="H54" s="83">
-        <v>9475803.5</v>
+        <v>9475656.4000000004</v>
       </c>
       <c r="I54" s="83">
-        <v>9440507.8000000007</v>
+        <v>9440331</v>
       </c>
       <c r="J54" s="83">
-        <v>9659621.0999999996</v>
+        <v>9658823.3000000007</v>
       </c>
       <c r="K54" s="83">
-        <v>0</v>
+        <v>9453492.6999999993</v>
       </c>
       <c r="L54" s="83">
         <v>0</v>
@@ -4657,36 +4691,37 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9659621.0999999996</v>
+        <v>9453492.6999999993</v>
       </c>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="109" t="s">
         <v>50</v>
       </c>
+      <c r="C55" s="110"/>
       <c r="D55" s="78">
-        <v>-242926.5</v>
+        <v>-242925.5</v>
       </c>
       <c r="E55" s="78">
         <v>-139740.79999999999</v>
       </c>
       <c r="F55" s="78">
-        <v>-141887.6</v>
+        <v>-141888.6</v>
       </c>
       <c r="G55" s="78">
         <v>-87483.9</v>
       </c>
       <c r="H55" s="78">
-        <v>-338286</v>
+        <v>-338287</v>
       </c>
       <c r="I55" s="78">
-        <v>-312108.90000000002</v>
+        <v>-312058.5</v>
       </c>
       <c r="J55" s="78">
-        <v>-560506.80000000005</v>
+        <v>-289288</v>
       </c>
       <c r="K55" s="78">
-        <v>0</v>
+        <v>-314447.8</v>
       </c>
       <c r="L55" s="78">
         <v>0</v>
@@ -4703,12 +4738,12 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-1822940.5000000002</v>
+        <v>-1866120.1</v>
       </c>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B56" s="50"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="108"/>
       <c r="D56" s="85"/>
       <c r="E56" s="85"/>
       <c r="F56" s="85"/>
@@ -4725,39 +4760,41 @@
       <c r="Q56" s="86"/>
     </row>
     <row r="57" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="115" t="s">
         <v>31</v>
       </c>
+      <c r="C57" s="110"/>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:J57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
-        <v>25093177.399999995</v>
+        <f t="shared" ref="D57:K57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <v>25093178.399999995</v>
       </c>
       <c r="E57" s="89">
         <f t="shared" si="4"/>
-        <v>22432500.400000002</v>
+        <v>22432525.300000001</v>
       </c>
       <c r="F57" s="89">
         <f t="shared" si="4"/>
-        <v>24874092.899999995</v>
+        <v>24874332.199999996</v>
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22594481.500000004</v>
+        <v>22594462.100000005</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22331832.5</v>
+        <v>22331835.399999995</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
-        <v>23092881.5</v>
+        <v>23092989.199999999</v>
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>24925715.800000001</v>
+        <v>25194618.000000004</v>
       </c>
       <c r="K57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24923608.900000002</v>
       </c>
       <c r="L57" s="89">
         <v>0</v>
@@ -4774,7 +4811,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>165344682</v>
+        <v>190537549.5</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4924,7 +4961,7 @@
         <v>72597</v>
       </c>
       <c r="K63" s="90">
-        <v>0</v>
+        <v>50432.9</v>
       </c>
       <c r="L63" s="90">
         <v>0</v>
@@ -4940,7 +4977,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>380696.6</v>
+        <v>431129.5</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -4969,7 +5006,7 @@
         <v>2567045.2000000002</v>
       </c>
       <c r="K64" s="90">
-        <v>0</v>
+        <v>2556409</v>
       </c>
       <c r="L64" s="90">
         <v>0</v>
@@ -4985,7 +5022,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>16265442.600000001</v>
+        <v>18821851.600000001</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5011,10 +5048,10 @@
         <v>11993</v>
       </c>
       <c r="J65" s="90">
-        <v>9735.2000000000007</v>
+        <v>9755.1</v>
       </c>
       <c r="K65" s="90">
-        <v>0</v>
+        <v>12737.5</v>
       </c>
       <c r="L65" s="90">
         <v>0</v>
@@ -5030,7 +5067,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>82313.900000000009</v>
+        <v>95071.300000000017</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5059,7 +5096,7 @@
         <v>15916.7</v>
       </c>
       <c r="K66" s="90">
-        <v>0</v>
+        <v>20032.7</v>
       </c>
       <c r="L66" s="90">
         <v>0</v>
@@ -5075,7 +5112,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>115185.70000000001</v>
+        <v>135218.40000000002</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5105,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="90">
-        <v>0</v>
+        <v>216.6</v>
       </c>
       <c r="L67" s="90">
         <v>0</v>
@@ -5121,7 +5158,7 @@
       </c>
       <c r="P67" s="91"/>
       <c r="Q67" s="93">
-        <v>669.2</v>
+        <v>885.80000000000007</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1">
@@ -5133,25 +5170,25 @@
         <v>-10715.4</v>
       </c>
       <c r="E68" s="90">
-        <v>20780.8</v>
+        <v>20718</v>
       </c>
       <c r="F68" s="90">
-        <v>-1006.6</v>
+        <v>-740.2</v>
       </c>
       <c r="G68" s="90">
-        <v>1167.5999999999999</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="H68" s="90">
-        <v>11810.4</v>
+        <v>11802.6</v>
       </c>
       <c r="I68" s="90">
-        <v>13063.4</v>
+        <v>12868.8</v>
       </c>
       <c r="J68" s="90">
-        <v>7563.4</v>
+        <v>7324.2</v>
       </c>
       <c r="K68" s="90">
-        <v>0</v>
+        <v>-8581</v>
       </c>
       <c r="L68" s="90">
         <v>0</v>
@@ -5167,7 +5204,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>42663.6</v>
+        <v>33843.399999999994</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5194,10 +5231,10 @@
         <v>206088.9</v>
       </c>
       <c r="J69" s="90">
-        <v>351865.7</v>
+        <v>351316.4</v>
       </c>
       <c r="K69" s="90">
-        <v>0</v>
+        <v>326971.5</v>
       </c>
       <c r="L69" s="90">
         <v>0</v>
@@ -5213,7 +5250,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>2009806.4</v>
+        <v>2336228.6</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5225,25 +5262,25 @@
         <v>2951258.8000000003</v>
       </c>
       <c r="E70" s="90">
-        <v>2689522.2</v>
+        <v>2689459.4000000004</v>
       </c>
       <c r="F70" s="90">
-        <v>2956837.4999999995</v>
+        <v>2957103.8999999994</v>
       </c>
       <c r="G70" s="90">
-        <v>2503316.1999999997</v>
+        <v>2503314.9999999995</v>
       </c>
       <c r="H70" s="90">
-        <v>2245379.0999999996</v>
+        <v>2245371.2999999998</v>
       </c>
       <c r="I70" s="90">
-        <v>2525741</v>
+        <v>2525546.4</v>
       </c>
       <c r="J70" s="90">
-        <v>3024723.2000000007</v>
+        <v>3023954.6000000006</v>
       </c>
       <c r="K70" s="90">
-        <v>0</v>
+        <v>2958219.2</v>
       </c>
       <c r="L70" s="90">
         <v>0</v>
@@ -5259,7 +5296,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>18896778</v>
+        <v>21854228.600000001</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5307,7 +5344,7 @@
         <v>21727628.600000001</v>
       </c>
       <c r="K72" s="78">
-        <v>0</v>
+        <v>21920104.800000001</v>
       </c>
       <c r="L72" s="78">
         <v>0</v>
@@ -5323,7 +5360,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>144519615.09999999</v>
+        <v>166439719.90000001</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5353,7 +5390,7 @@
         <v>700891.2451612904</v>
       </c>
       <c r="K73" s="78">
-        <v>0</v>
+        <v>707100.15483870974</v>
       </c>
       <c r="L73" s="78">
         <v>0</v>
@@ -5369,7 +5406,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>681799.16474764107</v>
+        <v>684961.78850902466</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5394,37 +5431,38 @@
       <c r="B75" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="106"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:J75" si="5">D57-(D70+D72)</f>
-        <v>378319.09999999404</v>
+        <f t="shared" ref="D75:K75" si="5">D57-(D70+D72)</f>
+        <v>378320.09999999404</v>
       </c>
       <c r="E75" s="89">
         <f t="shared" si="5"/>
-        <v>151911.10000000149</v>
+        <v>151998.80000000075</v>
       </c>
       <c r="F75" s="89">
         <f t="shared" si="5"/>
-        <v>339340.99999999627</v>
+        <v>339313.89999999851</v>
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>421436.00000000373</v>
+        <v>421417.80000000447</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
-        <v>179870.29999999702</v>
+        <v>179880.99999999255</v>
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
-        <v>284047.39999999851</v>
+        <v>284349.69999999925</v>
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>173364</v>
+        <v>443034.80000000075</v>
       </c>
       <c r="K75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>45284.900000002235</v>
       </c>
       <c r="L75" s="89">
         <v>0</v>
@@ -5440,45 +5478,46 @@
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="91">
-        <f t="shared" ref="Q75" si="6">SUM(D75:O75)</f>
-        <v>1928288.8999999911</v>
+        <f>SUM(D75:K75)</f>
+        <v>2243600.9999999925</v>
       </c>
     </row>
     <row r="76" spans="2:17">
       <c r="B76" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="18"/>
+      <c r="C76" s="108"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:J76" si="7">IF(D57&gt;0,D75/D57,"")</f>
-        <v>1.5076572168178037E-2</v>
+        <f t="shared" ref="D76:K76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <v>1.5076611418822659E-2</v>
       </c>
       <c r="E76" s="94">
-        <f t="shared" si="7"/>
-        <v>6.7719200843077429E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.7758220693949576E-3</v>
       </c>
       <c r="F76" s="94">
-        <f t="shared" si="7"/>
-        <v>1.3642346732571557E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.3641126011817056E-2</v>
       </c>
       <c r="G76" s="94">
-        <f t="shared" si="7"/>
-        <v>1.865216513156116E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.8651375639520285E-2</v>
       </c>
       <c r="H76" s="94">
-        <f t="shared" si="7"/>
-        <v>8.0544352999243132E-3</v>
+        <f t="shared" si="6"/>
+        <v>8.0549133905936186E-3</v>
       </c>
       <c r="I76" s="94">
-        <f t="shared" si="7"/>
-        <v>1.2300214678709476E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.2313247866586248E-2</v>
       </c>
       <c r="J76" s="94">
-        <f t="shared" si="7"/>
-        <v>6.9552265375664758E-3</v>
-      </c>
-      <c r="K76" s="94" t="s">
-        <v>128</v>
+        <f t="shared" si="6"/>
+        <v>1.7584501578868976E-2</v>
+      </c>
+      <c r="K76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.8169479460898711E-3</v>
       </c>
       <c r="L76" s="94" t="s">
         <v>128</v>
@@ -5494,12 +5533,12 @@
       </c>
       <c r="P76" s="94"/>
       <c r="Q76" s="79">
-        <f>AVERAGE(D76:J76)</f>
-        <v>1.1636125804688395E-2</v>
+        <f>AVERAGE(D76:K76)</f>
+        <v>1.1739318240211708E-2</v>
       </c>
     </row>
     <row r="77" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B77" s="50"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="26"/>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -5517,39 +5556,41 @@
       <c r="Q77" s="88"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="115" t="s">
         <v>36</v>
       </c>
+      <c r="C78" s="110"/>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:J78" si="8">(D70+D72)+D75</f>
-        <v>25093177.399999995</v>
+        <f t="shared" ref="D78:K78" si="7">(D70+D72)+D75</f>
+        <v>25093178.399999995</v>
       </c>
       <c r="E78" s="89">
-        <f t="shared" si="8"/>
-        <v>22432500.400000002</v>
+        <f t="shared" si="7"/>
+        <v>22432525.300000001</v>
       </c>
       <c r="F78" s="89">
-        <f t="shared" si="8"/>
-        <v>24874092.899999995</v>
+        <f t="shared" si="7"/>
+        <v>24874332.199999996</v>
       </c>
       <c r="G78" s="89">
-        <f t="shared" si="8"/>
-        <v>22594481.500000004</v>
+        <f t="shared" si="7"/>
+        <v>22594462.100000005</v>
       </c>
       <c r="H78" s="89">
-        <f t="shared" si="8"/>
-        <v>22331832.5</v>
+        <f t="shared" si="7"/>
+        <v>22331835.399999995</v>
       </c>
       <c r="I78" s="89">
-        <f t="shared" si="8"/>
-        <v>23092881.5</v>
+        <f t="shared" si="7"/>
+        <v>23092989.199999999</v>
       </c>
       <c r="J78" s="89">
-        <f t="shared" si="8"/>
-        <v>24925715.800000001</v>
+        <f t="shared" si="7"/>
+        <v>25194618.000000004</v>
       </c>
       <c r="K78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>24923608.900000002</v>
       </c>
       <c r="L78" s="89">
         <v>0</v>
@@ -5565,8 +5606,8 @@
       </c>
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
-        <f t="shared" ref="Q78" si="9">SUM(D78:O78)</f>
-        <v>165344682</v>
+        <f t="shared" ref="Q78" si="8">SUM(D78:O78)</f>
+        <v>190537549.5</v>
       </c>
     </row>
     <row r="79" spans="2:17">

--- a/Oil_current.xlsx
+++ b/Oil_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33123248-81E2-4597-85DC-4CF0D36E1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5589DE-3C88-46D9-B3A8-428A11D4D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="21" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>Reporting Adjustment</t>
   </si>
@@ -479,7 +479,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  29 September 2025</t>
+    <t xml:space="preserve"> Run Date:  27 October 2025</t>
   </si>
 </sst>
 </file>
@@ -1057,11 +1057,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
@@ -1528,17 +1528,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="15" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="1.5546875" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -1651,11 +1651,11 @@
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="34"/>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -2514,7 +2514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1">
+    <row r="56" spans="1:19" ht="15" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="17"/>
       <c r="D56" s="69"/>
@@ -2531,7 +2531,7 @@
       <c r="O56" s="25"/>
       <c r="Q56" s="25"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickTop="1">
+    <row r="57" spans="1:19" ht="15" thickTop="1">
       <c r="B57" s="59" t="s">
         <v>31</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="2:17" ht="15.75" thickBot="1">
+    <row r="77" spans="2:17" ht="15" thickBot="1">
       <c r="B77" s="50"/>
       <c r="C77" s="19"/>
       <c r="D77" s="69"/>
@@ -2770,7 +2770,7 @@
       <c r="O77" s="25"/>
       <c r="Q77" s="25"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" thickTop="1">
+    <row r="78" spans="2:17" ht="15" thickTop="1">
       <c r="B78" s="59" t="s">
         <v>36</v>
       </c>
@@ -2825,20 +2825,20 @@
   </sheetPr>
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:Q78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="4" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -2856,11 +2856,11 @@
     </row>
     <row r="3" spans="2:22" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="G3" s="33"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="34"/>
       <c r="Q3"/>
     </row>
@@ -2942,31 +2942,31 @@
       </c>
       <c r="C7"/>
       <c r="D7" s="90">
-        <v>9506571</v>
+        <v>9506619.9000000004</v>
       </c>
       <c r="E7" s="16">
-        <v>9473738.9000000004</v>
+        <v>9473787.8000000007</v>
       </c>
       <c r="F7" s="16">
-        <v>8863545.5</v>
+        <v>8863594.4000000004</v>
       </c>
       <c r="G7" s="16">
-        <v>9166791.4000000004</v>
+        <v>9166840.3000000007</v>
       </c>
       <c r="H7" s="16">
-        <v>10019633.6</v>
+        <v>10019682.5</v>
       </c>
       <c r="I7" s="16">
-        <v>9475291.0999999996</v>
+        <v>9475340</v>
       </c>
       <c r="J7" s="16">
-        <v>9440331</v>
+        <v>9440385.8000000007</v>
       </c>
       <c r="K7" s="16">
-        <v>9658540.9000000004</v>
+        <v>9658687.3000000007</v>
       </c>
       <c r="L7" s="16">
-        <v>0</v>
+        <v>9453096.6999999993</v>
       </c>
       <c r="M7" s="16">
         <v>0</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="91">
-        <v>9506571</v>
+        <v>9506619.9000000004</v>
       </c>
       <c r="V7" s="16"/>
     </row>
@@ -3043,31 +3043,31 @@
         <v>25</v>
       </c>
       <c r="D11" s="90">
-        <v>1509585.2</v>
+        <v>1504352</v>
       </c>
       <c r="E11" s="16">
-        <v>1380161.3</v>
+        <v>1373031.9</v>
       </c>
       <c r="F11" s="16">
-        <v>1610983.8</v>
+        <v>1595942.9</v>
       </c>
       <c r="G11" s="16">
-        <v>1580846.6</v>
+        <v>1568974.1</v>
       </c>
       <c r="H11" s="16">
-        <v>1591702.8</v>
+        <v>1579879.1</v>
       </c>
       <c r="I11" s="16">
-        <v>1529687</v>
+        <v>1518130.7</v>
       </c>
       <c r="J11" s="16">
-        <v>1603536.7</v>
+        <v>1592509.6</v>
       </c>
       <c r="K11" s="16">
-        <v>1612964.7</v>
+        <v>1602644.6</v>
       </c>
       <c r="L11" s="16">
-        <v>0</v>
+        <v>1526191.3</v>
       </c>
       <c r="M11" s="16">
         <v>0</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="91">
-        <v>12419468.099999998</v>
+        <v>13861656.199999999</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1">
@@ -3089,31 +3089,31 @@
       </c>
       <c r="C12"/>
       <c r="D12" s="90">
-        <v>370768.7</v>
+        <v>374350.5</v>
       </c>
       <c r="E12" s="16">
-        <v>326324.7</v>
+        <v>331222</v>
       </c>
       <c r="F12" s="16">
-        <v>373911.1</v>
+        <v>382820.3</v>
       </c>
       <c r="G12" s="16">
-        <v>364404</v>
+        <v>372022</v>
       </c>
       <c r="H12" s="16">
-        <v>364641.4</v>
+        <v>371738.7</v>
       </c>
       <c r="I12" s="16">
-        <v>335147.3</v>
+        <v>341204</v>
       </c>
       <c r="J12" s="16">
-        <v>345637.7</v>
+        <v>349883</v>
       </c>
       <c r="K12" s="16">
-        <v>342890.1</v>
+        <v>346225</v>
       </c>
       <c r="L12" s="16">
-        <v>0</v>
+        <v>334003.90000000002</v>
       </c>
       <c r="M12" s="16">
         <v>0</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="91">
-        <v>2823725</v>
+        <v>3203469.4</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -3134,31 +3134,31 @@
         <v>27</v>
       </c>
       <c r="D13" s="90">
-        <v>176605</v>
+        <v>177680.7</v>
       </c>
       <c r="E13" s="16">
-        <v>158419.29999999999</v>
+        <v>159687.20000000001</v>
       </c>
       <c r="F13" s="16">
-        <v>180707.7</v>
+        <v>185699.20000000001</v>
       </c>
       <c r="G13" s="16">
-        <v>170798.3</v>
+        <v>173536.9</v>
       </c>
       <c r="H13" s="16">
-        <v>174432.6</v>
+        <v>177153.9</v>
       </c>
       <c r="I13" s="16">
-        <v>165404.1</v>
+        <v>167331.9</v>
       </c>
       <c r="J13" s="16">
-        <v>169128.2</v>
+        <v>172315.1</v>
       </c>
       <c r="K13" s="16">
-        <v>167855.6</v>
+        <v>171103.5</v>
       </c>
       <c r="L13" s="16">
-        <v>0</v>
+        <v>162637.70000000001</v>
       </c>
       <c r="M13" s="16">
         <v>0</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="91">
-        <v>1363350.8</v>
+        <v>1547146.1</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -3179,31 +3179,31 @@
         <v>122</v>
       </c>
       <c r="D14" s="96">
-        <v>652606.19999999995</v>
+        <v>652795.6</v>
       </c>
       <c r="E14" s="76">
-        <v>584438.19999999995</v>
+        <v>585014</v>
       </c>
       <c r="F14" s="76">
-        <v>643410.1</v>
+        <v>644159.5</v>
       </c>
       <c r="G14" s="75">
-        <v>617613.30000000005</v>
+        <v>618855.5</v>
       </c>
       <c r="H14" s="75">
-        <v>625842.19999999995</v>
+        <v>627495.4</v>
       </c>
       <c r="I14" s="75">
-        <v>612662.1</v>
+        <v>615875.1</v>
       </c>
       <c r="J14" s="75">
-        <v>625691</v>
+        <v>628878.6</v>
       </c>
       <c r="K14" s="75">
-        <v>622640</v>
+        <v>626441.4</v>
       </c>
       <c r="L14" s="75">
-        <v>0</v>
+        <v>613825.5</v>
       </c>
       <c r="M14" s="75">
         <v>0</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="P14" s="76"/>
       <c r="Q14" s="96">
-        <v>4984903.0999999996</v>
+        <v>5613340.6000000006</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="1" customFormat="1">
@@ -3224,31 +3224,31 @@
         <v>114</v>
       </c>
       <c r="D15" s="90">
-        <v>2709565.0999999996</v>
+        <v>2709178.8</v>
       </c>
       <c r="E15" s="16">
-        <v>2449343.5</v>
+        <v>2448955.0999999996</v>
       </c>
       <c r="F15" s="16">
-        <v>2809012.7</v>
+        <v>2808621.9</v>
       </c>
       <c r="G15" s="16">
-        <v>2733662.2</v>
+        <v>2733388.5</v>
       </c>
       <c r="H15" s="16">
-        <v>2756619</v>
+        <v>2756267.1</v>
       </c>
       <c r="I15" s="16">
-        <v>2642900.5</v>
+        <v>2642541.6999999997</v>
       </c>
       <c r="J15" s="16">
-        <v>2743993.6</v>
+        <v>2743586.3000000003</v>
       </c>
       <c r="K15" s="16">
-        <v>2746350.4</v>
+        <v>2746414.5</v>
       </c>
       <c r="L15" s="16">
-        <v>0</v>
+        <v>2636658.4000000004</v>
       </c>
       <c r="M15" s="16">
         <v>0</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="91">
-        <v>21591447</v>
+        <v>24225612.300000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1">
@@ -3286,31 +3286,31 @@
         <v>30</v>
       </c>
       <c r="D17" s="90">
-        <v>414167.9</v>
+        <v>414554.2</v>
       </c>
       <c r="E17" s="16">
-        <v>357802</v>
+        <v>358190.4</v>
       </c>
       <c r="F17" s="16">
-        <v>393849</v>
+        <v>394239.8</v>
       </c>
       <c r="G17" s="16">
-        <v>420819.7</v>
+        <v>421093.4</v>
       </c>
       <c r="H17" s="16">
-        <v>441749.7</v>
+        <v>442105.1</v>
       </c>
       <c r="I17" s="16">
-        <v>386349.2</v>
+        <v>386714.1</v>
       </c>
       <c r="J17" s="16">
-        <v>420933.5</v>
+        <v>421275.9</v>
       </c>
       <c r="K17" s="16">
-        <v>437157.9</v>
+        <v>437192.7</v>
       </c>
       <c r="L17" s="16">
-        <v>0</v>
+        <v>426853.5</v>
       </c>
       <c r="M17" s="16">
         <v>0</v>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="91">
-        <v>3272828.9</v>
+        <v>3702219.1000000006</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -3408,10 +3408,10 @@
         <v>9732681.4000000004</v>
       </c>
       <c r="K21" s="16">
-        <v>9668723.8000000007</v>
+        <v>9668690.4000000004</v>
       </c>
       <c r="L21" s="16">
-        <v>0</v>
+        <v>9193391.6999999993</v>
       </c>
       <c r="M21" s="16">
         <v>0</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="91">
-        <v>74021850.400000006</v>
+        <v>83215208.700000003</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -3457,7 +3457,7 @@
         <v>9088365.5</v>
       </c>
       <c r="L22" s="16">
-        <v>0</v>
+        <v>8879617.8000000007</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="91">
-        <v>66433619.399999991</v>
+        <v>75313237.199999988</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -3503,7 +3503,7 @@
         <v>-7791409.0999999996</v>
       </c>
       <c r="L23" s="16">
-        <v>0</v>
+        <v>-7285570.7999999998</v>
       </c>
       <c r="M23" s="16">
         <v>0</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="91">
-        <v>-56920711.900000006</v>
+        <v>-64206282.700000003</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -3546,10 +3546,10 @@
         <v>11383051.100000003</v>
       </c>
       <c r="K24" s="16">
-        <v>10965680.200000001</v>
+        <v>10965646.799999999</v>
       </c>
       <c r="L24" s="16">
-        <v>0</v>
+        <v>10787438.699999999</v>
       </c>
       <c r="M24" s="16">
         <v>0</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="91">
-        <v>83534757.900000006</v>
+        <v>94322163.199999973</v>
       </c>
     </row>
     <row r="25" spans="2:17">
@@ -3594,7 +3594,7 @@
         <v>6697996.7000000002</v>
       </c>
       <c r="L25" s="42">
-        <v>0</v>
+        <v>6241019.2000000002</v>
       </c>
       <c r="M25" s="42">
         <v>0</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="98">
-        <v>49131290.700000003</v>
+        <v>55372309.900000006</v>
       </c>
     </row>
     <row r="26" spans="2:17">
@@ -3636,10 +3636,10 @@
         <v>18097991.400000002</v>
       </c>
       <c r="K26" s="16">
-        <v>17663676.900000002</v>
+        <v>17663643.5</v>
       </c>
       <c r="L26" s="16">
-        <v>0</v>
+        <v>17028457.899999999</v>
       </c>
       <c r="M26" s="16">
         <v>0</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="91">
-        <v>132666048.60000001</v>
+        <v>149694473.09999996</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3687,22 +3687,22 @@
         <v>20662642.699999999</v>
       </c>
       <c r="G28" s="16">
-        <v>19086199.300000001</v>
+        <v>19086199.299999997</v>
       </c>
       <c r="H28" s="16">
-        <v>17773836.599999998</v>
+        <v>17773840.100000001</v>
       </c>
       <c r="I28" s="16">
-        <v>19360677.099999998</v>
+        <v>19360683.200000003</v>
       </c>
       <c r="J28" s="16">
-        <v>21262918.500000004</v>
+        <v>21262853.600000001</v>
       </c>
       <c r="K28" s="16">
-        <v>20847185.199999999</v>
+        <v>20847250.699999999</v>
       </c>
       <c r="L28" s="16">
-        <v>0</v>
+        <v>20091969.799999997</v>
       </c>
       <c r="M28" s="16">
         <v>0</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="90">
-        <v>157530324.50000003</v>
+        <v>177622304.49999997</v>
       </c>
     </row>
     <row r="29" spans="2:17">
@@ -3777,13 +3777,13 @@
         <v>1127290.7</v>
       </c>
       <c r="J31" s="16">
-        <v>1240310</v>
+        <v>1240310.2</v>
       </c>
       <c r="K31" s="16">
-        <v>1269251.3999999999</v>
+        <v>1269226.3999999999</v>
       </c>
       <c r="L31" s="16">
-        <v>0</v>
+        <v>1267545.6000000001</v>
       </c>
       <c r="M31" s="16">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="91">
-        <v>9622157.5999999996</v>
+        <v>10889678.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -3828,7 +3828,7 @@
         <v>399002.2</v>
       </c>
       <c r="L32" s="16">
-        <v>0</v>
+        <v>360140.3</v>
       </c>
       <c r="M32" s="16">
         <v>0</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="90">
-        <v>2974954.6</v>
+        <v>3335094.9</v>
       </c>
     </row>
     <row r="33" spans="2:17">
@@ -3891,7 +3891,7 @@
         <v>10489.1</v>
       </c>
       <c r="L34" s="16">
-        <v>0</v>
+        <v>9211.2000000000007</v>
       </c>
       <c r="M34" s="16">
         <v>0</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="91">
-        <v>84423.400000000009</v>
+        <v>93634.6</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3937,7 +3937,7 @@
         <v>10253.1</v>
       </c>
       <c r="L35" s="16">
-        <v>0</v>
+        <v>13283</v>
       </c>
       <c r="M35" s="16">
         <v>0</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="91">
-        <v>73489</v>
+        <v>86772</v>
       </c>
     </row>
     <row r="36" spans="2:17">
@@ -3971,19 +3971,19 @@
         <v>424637.2</v>
       </c>
       <c r="H36" s="16">
-        <v>298514.59999999998</v>
+        <v>298511.09999999998</v>
       </c>
       <c r="I36" s="16">
-        <v>346895.7</v>
+        <v>346895.6</v>
       </c>
       <c r="J36" s="16">
         <v>447301</v>
       </c>
       <c r="K36" s="16">
-        <v>359054</v>
+        <v>359056.3</v>
       </c>
       <c r="L36" s="16">
-        <v>0</v>
+        <v>459452.4</v>
       </c>
       <c r="M36" s="16">
         <v>0</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="91">
-        <v>3481501.6</v>
+        <v>3940952.6999999997</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -4044,10 +4044,10 @@
         <v>240844.7</v>
       </c>
       <c r="K38" s="16">
-        <v>245892.7</v>
+        <v>245963.3</v>
       </c>
       <c r="L38" s="16">
-        <v>0</v>
+        <v>245857.6</v>
       </c>
       <c r="M38" s="16">
         <v>0</v>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="91">
-        <v>2001156.7</v>
+        <v>2247084.9</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -4093,7 +4093,7 @@
         <v>107.8</v>
       </c>
       <c r="L39" s="16">
-        <v>0</v>
+        <v>209.4</v>
       </c>
       <c r="M39" s="16">
         <v>0</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="91">
-        <v>518.79999999999995</v>
+        <v>728.19999999999993</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -4177,7 +4177,7 @@
         <v>453726.7</v>
       </c>
       <c r="L42" s="78">
-        <v>0</v>
+        <v>261476.4</v>
       </c>
       <c r="M42" s="78">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       <c r="P42" s="79"/>
       <c r="Q42" s="79">
         <f t="shared" ref="Q42:Q46" si="0">SUM(D42:O42)</f>
-        <v>3677184.1</v>
+        <v>3938660.5</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -4232,7 +4232,8 @@
         <v>1065295.1000000001</v>
       </c>
       <c r="L43" s="78">
-        <v>0</v>
+        <f>493931+540104.7</f>
+        <v>1034035.7</v>
       </c>
       <c r="M43" s="78">
         <v>0</v>
@@ -4246,7 +4247,7 @@
       <c r="P43" s="79"/>
       <c r="Q43" s="79">
         <f t="shared" si="0"/>
-        <v>9268514.9000000004</v>
+        <v>10302550.6</v>
       </c>
     </row>
     <row r="44" spans="2:17">
@@ -4279,7 +4280,7 @@
         <v>835101.3</v>
       </c>
       <c r="L44" s="78">
-        <v>0</v>
+        <v>729109.6</v>
       </c>
       <c r="M44" s="78">
         <v>0</v>
@@ -4293,7 +4294,7 @@
       <c r="P44" s="79"/>
       <c r="Q44" s="79">
         <f t="shared" si="0"/>
-        <v>6633935.9999999991</v>
+        <v>7363045.5999999987</v>
       </c>
     </row>
     <row r="45" spans="2:17">
@@ -4326,7 +4327,7 @@
         <v>258939.8</v>
       </c>
       <c r="L45" s="80">
-        <v>0</v>
+        <v>310743.59999999998</v>
       </c>
       <c r="M45" s="80">
         <v>0</v>
@@ -4340,7 +4341,7 @@
       <c r="P45" s="80"/>
       <c r="Q45" s="80">
         <f t="shared" si="0"/>
-        <v>2412583.9999999995</v>
+        <v>2723327.5999999996</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -4349,7 +4350,7 @@
       </c>
       <c r="C46" s="106"/>
       <c r="D46" s="89">
-        <f t="shared" ref="D46:K46" si="1">SUM(D42:D45)</f>
+        <f t="shared" ref="D46:L46" si="1">SUM(D42:D45)</f>
         <v>2851686.5</v>
       </c>
       <c r="E46" s="89">
@@ -4381,7 +4382,8 @@
         <v>2613062.9</v>
       </c>
       <c r="L46" s="89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2335365.2999999998</v>
       </c>
       <c r="M46" s="89">
         <v>0</v>
@@ -4395,7 +4397,7 @@
       <c r="P46" s="79"/>
       <c r="Q46" s="79">
         <f t="shared" si="0"/>
-        <v>21992219</v>
+        <v>24327584.300000001</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -4422,7 +4424,7 @@
       </c>
       <c r="C48" s="110"/>
       <c r="D48" s="89">
-        <f t="shared" ref="D48:K48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
+        <f t="shared" ref="D48:L48" si="2">D31+D32+D34+D35+D36+D38+D39+D46</f>
         <v>5351114.4000000004</v>
       </c>
       <c r="E48" s="89">
@@ -4439,22 +4441,23 @@
       </c>
       <c r="H48" s="89">
         <f t="shared" si="2"/>
-        <v>4980601.7000000011</v>
+        <v>4980598.2000000011</v>
       </c>
       <c r="I48" s="89">
         <f t="shared" si="2"/>
-        <v>4687966.2</v>
+        <v>4687966.1000000006</v>
       </c>
       <c r="J48" s="89">
         <f t="shared" si="2"/>
-        <v>5157616</v>
+        <v>5157616.2000000011</v>
       </c>
       <c r="K48" s="89">
         <f t="shared" si="2"/>
-        <v>4907113.1999999993</v>
+        <v>4907161.0999999996</v>
       </c>
       <c r="L48" s="89">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4691064.8</v>
       </c>
       <c r="M48" s="89">
         <v>0</v>
@@ -4468,7 +4471,7 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="79">
         <f>SUM(D48:O48)</f>
-        <v>40230420.700000003</v>
+        <v>44921530.000000007</v>
       </c>
     </row>
     <row r="49" spans="2:17">
@@ -4519,7 +4522,7 @@
         <v>251478.39999999999</v>
       </c>
       <c r="L50" s="78">
-        <v>0</v>
+        <v>231730.9</v>
       </c>
       <c r="M50" s="78">
         <v>0</v>
@@ -4533,7 +4536,7 @@
       <c r="P50" s="79"/>
       <c r="Q50" s="79">
         <f t="shared" ref="Q50:Q52" si="3">SUM(D50:O50)</f>
-        <v>1717297.9</v>
+        <v>1949028.7999999998</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -4566,7 +4569,7 @@
         <v>109729.4</v>
       </c>
       <c r="L51" s="78">
-        <v>0</v>
+        <v>114977.7</v>
       </c>
       <c r="M51" s="78">
         <v>0</v>
@@ -4580,7 +4583,7 @@
       <c r="P51" s="79"/>
       <c r="Q51" s="79">
         <f t="shared" si="3"/>
-        <v>918941.9</v>
+        <v>1033919.6</v>
       </c>
     </row>
     <row r="52" spans="2:17">
@@ -4607,13 +4610,13 @@
         <v>320348.40000000002</v>
       </c>
       <c r="J52" s="78">
-        <v>360221</v>
+        <v>360221.1</v>
       </c>
       <c r="K52" s="78">
-        <v>360082.1</v>
+        <v>360029.7</v>
       </c>
       <c r="L52" s="78">
-        <v>0</v>
+        <v>355535.7</v>
       </c>
       <c r="M52" s="78">
         <v>0</v>
@@ -4627,12 +4630,12 @@
       <c r="P52" s="78"/>
       <c r="Q52" s="78">
         <f t="shared" si="3"/>
-        <v>2770568.9</v>
+        <v>3126052.3000000003</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="14.25" customHeight="1">
       <c r="B53" s="109"/>
-      <c r="C53" s="104"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="112"/>
       <c r="E53" s="112"/>
       <c r="F53" s="112"/>
@@ -4654,31 +4657,31 @@
       </c>
       <c r="C54" s="114"/>
       <c r="D54" s="83">
-        <v>9473838.5999999996</v>
+        <v>9473887.5</v>
       </c>
       <c r="E54" s="83">
-        <v>8863545.5</v>
+        <v>8863594.4000000004</v>
       </c>
       <c r="F54" s="83">
-        <v>9169312.5</v>
+        <v>9169361.4000000004</v>
       </c>
       <c r="G54" s="83">
-        <v>10019710.300000001</v>
+        <v>10019759.199999999</v>
       </c>
       <c r="H54" s="83">
-        <v>9475656.4000000004</v>
+        <v>9475705.3000000007</v>
       </c>
       <c r="I54" s="83">
-        <v>9440331</v>
+        <v>9440385.8000000007</v>
       </c>
       <c r="J54" s="83">
-        <v>9658823.3000000007</v>
+        <v>9658787.3000000007</v>
       </c>
       <c r="K54" s="83">
-        <v>9453492.6999999993</v>
+        <v>9453248.9000000004</v>
       </c>
       <c r="L54" s="83">
-        <v>0</v>
+        <v>9897857.0999999996</v>
       </c>
       <c r="M54" s="83">
         <v>0</v>
@@ -4691,7 +4694,7 @@
       </c>
       <c r="P54" s="83"/>
       <c r="Q54" s="84">
-        <v>9453492.6999999993</v>
+        <v>9897857.0999999996</v>
       </c>
     </row>
     <row r="55" spans="2:17">
@@ -4718,13 +4721,13 @@
         <v>-312058.5</v>
       </c>
       <c r="J55" s="78">
-        <v>-289288</v>
+        <v>-289314.09999999998</v>
       </c>
       <c r="K55" s="78">
-        <v>-314447.8</v>
+        <v>-314447.40000000002</v>
       </c>
       <c r="L55" s="78">
-        <v>0</v>
+        <v>-353196.1</v>
       </c>
       <c r="M55" s="78">
         <v>0</v>
@@ -4738,10 +4741,10 @@
       <c r="P55" s="79"/>
       <c r="Q55" s="79">
         <f>SUM(D55:O55)</f>
-        <v>-1866120.1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="15.75" thickBot="1">
+        <v>-2219341.9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15" thickBot="1">
       <c r="B56" s="109"/>
       <c r="C56" s="108"/>
       <c r="D56" s="85"/>
@@ -4759,13 +4762,13 @@
       <c r="P56" s="86"/>
       <c r="Q56" s="86"/>
     </row>
-    <row r="57" spans="2:17" ht="15.75" thickTop="1">
+    <row r="57" spans="2:17" ht="15" thickTop="1">
       <c r="B57" s="115" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="110"/>
       <c r="D57" s="89">
-        <f t="shared" ref="D57:K57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
+        <f t="shared" ref="D57:L57" si="4">D7-D54+(D28+D48)-(D50+D51+D52)+D55</f>
         <v>25093178.399999995</v>
       </c>
       <c r="E57" s="89">
@@ -4778,26 +4781,27 @@
       </c>
       <c r="G57" s="89">
         <f t="shared" si="4"/>
-        <v>22594462.100000005</v>
+        <v>22594462.099999998</v>
       </c>
       <c r="H57" s="89">
         <f t="shared" si="4"/>
-        <v>22331835.399999995</v>
+        <v>22331835.400000002</v>
       </c>
       <c r="I57" s="89">
         <f t="shared" si="4"/>
-        <v>23092989.199999999</v>
+        <v>23092989.300000004</v>
       </c>
       <c r="J57" s="89">
         <f t="shared" si="4"/>
-        <v>25194618.000000004</v>
+        <v>25194617.900000002</v>
       </c>
       <c r="K57" s="89">
         <f t="shared" si="4"/>
-        <v>24923608.900000002</v>
+        <v>24924165.299999997</v>
       </c>
       <c r="L57" s="89">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>23282833.799999993</v>
       </c>
       <c r="M57" s="89">
         <v>0</v>
@@ -4811,7 +4815,7 @@
       <c r="P57" s="79"/>
       <c r="Q57" s="79">
         <f>SUM(D57:O57)</f>
-        <v>190537549.5</v>
+        <v>213820939.69999996</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -4853,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.75">
+    <row r="60" spans="2:17" ht="15.6">
       <c r="B60" s="48"/>
       <c r="D60" s="92" t="s">
         <v>1</v>
@@ -4964,7 +4968,7 @@
         <v>50432.9</v>
       </c>
       <c r="L63" s="90">
-        <v>0</v>
+        <v>29883.9</v>
       </c>
       <c r="M63" s="90">
         <v>0</v>
@@ -4977,7 +4981,7 @@
       </c>
       <c r="P63" s="91"/>
       <c r="Q63" s="91">
-        <v>431129.5</v>
+        <v>461013.4</v>
       </c>
     </row>
     <row r="64" spans="2:17">
@@ -5009,7 +5013,7 @@
         <v>2556409</v>
       </c>
       <c r="L64" s="90">
-        <v>0</v>
+        <v>2204194.6</v>
       </c>
       <c r="M64" s="90">
         <v>0</v>
@@ -5022,7 +5026,7 @@
       </c>
       <c r="P64" s="91"/>
       <c r="Q64" s="91">
-        <v>18821851.600000001</v>
+        <v>21026046.200000003</v>
       </c>
     </row>
     <row r="65" spans="2:17">
@@ -5054,7 +5058,7 @@
         <v>12737.5</v>
       </c>
       <c r="L65" s="90">
-        <v>0</v>
+        <v>12328.8</v>
       </c>
       <c r="M65" s="90">
         <v>0</v>
@@ -5067,7 +5071,7 @@
       </c>
       <c r="P65" s="91"/>
       <c r="Q65" s="91">
-        <v>95071.300000000017</v>
+        <v>107400.10000000002</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -5099,7 +5103,7 @@
         <v>20032.7</v>
       </c>
       <c r="L66" s="90">
-        <v>0</v>
+        <v>21388</v>
       </c>
       <c r="M66" s="90">
         <v>0</v>
@@ -5112,7 +5116,7 @@
       </c>
       <c r="P66" s="91"/>
       <c r="Q66" s="91">
-        <v>135218.40000000002</v>
+        <v>156606.40000000002</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1">
@@ -5182,16 +5186,16 @@
         <v>11802.6</v>
       </c>
       <c r="I68" s="90">
-        <v>12868.8</v>
+        <v>12868.6</v>
       </c>
       <c r="J68" s="90">
-        <v>7324.2</v>
+        <v>7326.2</v>
       </c>
       <c r="K68" s="90">
-        <v>-8581</v>
+        <v>-8589</v>
       </c>
       <c r="L68" s="90">
-        <v>0</v>
+        <v>-12098.5</v>
       </c>
       <c r="M68" s="90">
         <v>0</v>
@@ -5204,7 +5208,7 @@
       </c>
       <c r="P68" s="91"/>
       <c r="Q68" s="90">
-        <v>33843.399999999994</v>
+        <v>21738.699999999997</v>
       </c>
     </row>
     <row r="69" spans="2:17">
@@ -5231,13 +5235,13 @@
         <v>206088.9</v>
       </c>
       <c r="J69" s="90">
-        <v>351316.4</v>
+        <v>351317.4</v>
       </c>
       <c r="K69" s="90">
-        <v>326971.5</v>
+        <v>327118</v>
       </c>
       <c r="L69" s="90">
-        <v>0</v>
+        <v>345715.7</v>
       </c>
       <c r="M69" s="90">
         <v>0</v>
@@ -5250,7 +5254,7 @@
       </c>
       <c r="P69" s="91"/>
       <c r="Q69" s="91">
-        <v>2336228.6</v>
+        <v>2682091.8000000003</v>
       </c>
     </row>
     <row r="70" spans="2:17">
@@ -5274,16 +5278,16 @@
         <v>2245371.2999999998</v>
       </c>
       <c r="I70" s="90">
-        <v>2525546.4</v>
+        <v>2525546.2000000002</v>
       </c>
       <c r="J70" s="90">
-        <v>3023954.6000000006</v>
+        <v>3023957.6000000006</v>
       </c>
       <c r="K70" s="90">
-        <v>2958219.2</v>
+        <v>2958357.7</v>
       </c>
       <c r="L70" s="90">
-        <v>0</v>
+        <v>2601412.5</v>
       </c>
       <c r="M70" s="90">
         <v>0</v>
@@ -5296,7 +5300,7 @@
       </c>
       <c r="P70" s="91"/>
       <c r="Q70" s="91">
-        <v>21854228.600000001</v>
+        <v>24455782.400000002</v>
       </c>
     </row>
     <row r="71" spans="2:17">
@@ -5347,7 +5351,7 @@
         <v>21920104.800000001</v>
       </c>
       <c r="L72" s="78">
-        <v>0</v>
+        <v>20416525.699999999</v>
       </c>
       <c r="M72" s="78">
         <v>0</v>
@@ -5360,7 +5364,7 @@
       </c>
       <c r="P72" s="79"/>
       <c r="Q72" s="79">
-        <v>166439719.90000001</v>
+        <v>186856245.59999999</v>
       </c>
     </row>
     <row r="73" spans="2:17">
@@ -5393,7 +5397,7 @@
         <v>707100.15483870974</v>
       </c>
       <c r="L73" s="78">
-        <v>0</v>
+        <v>680550.85666666669</v>
       </c>
       <c r="M73" s="78">
         <v>0</v>
@@ -5406,7 +5410,7 @@
       </c>
       <c r="P73" s="79"/>
       <c r="Q73" s="79">
-        <v>684961.78850902466</v>
+        <v>684471.68497098482</v>
       </c>
     </row>
     <row r="74" spans="2:17">
@@ -5433,7 +5437,7 @@
       </c>
       <c r="C75" s="106"/>
       <c r="D75" s="89">
-        <f t="shared" ref="D75:K75" si="5">D57-(D70+D72)</f>
+        <f t="shared" ref="D75:L75" si="5">D57-(D70+D72)</f>
         <v>378320.09999999404</v>
       </c>
       <c r="E75" s="89">
@@ -5446,26 +5450,27 @@
       </c>
       <c r="G75" s="89">
         <f t="shared" si="5"/>
-        <v>421417.80000000447</v>
+        <v>421417.79999999702</v>
       </c>
       <c r="H75" s="89">
         <f t="shared" si="5"/>
-        <v>179880.99999999255</v>
+        <v>179881</v>
       </c>
       <c r="I75" s="89">
         <f t="shared" si="5"/>
-        <v>284349.69999999925</v>
+        <v>284350.00000000373</v>
       </c>
       <c r="J75" s="89">
         <f t="shared" si="5"/>
-        <v>443034.80000000075</v>
+        <v>443031.69999999925</v>
       </c>
       <c r="K75" s="89">
         <f t="shared" si="5"/>
-        <v>45284.900000002235</v>
+        <v>45702.79999999702</v>
       </c>
       <c r="L75" s="89">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>264895.59999999404</v>
       </c>
       <c r="M75" s="89">
         <v>0</v>
@@ -5478,8 +5483,8 @@
       </c>
       <c r="P75" s="79"/>
       <c r="Q75" s="91">
-        <f>SUM(D75:K75)</f>
-        <v>2243600.9999999925</v>
+        <f>SUM(D75:O75)</f>
+        <v>2508911.6999999844</v>
       </c>
     </row>
     <row r="76" spans="2:17">
@@ -5488,7 +5493,7 @@
       </c>
       <c r="C76" s="108"/>
       <c r="D76" s="94">
-        <f t="shared" ref="D76:K76" si="6">IF(D57&gt;0,D75/D57,"")</f>
+        <f t="shared" ref="D76:L76" si="6">IF(D57&gt;0,D75/D57,"")</f>
         <v>1.5076611418822659E-2</v>
       </c>
       <c r="E76" s="94">
@@ -5501,26 +5506,27 @@
       </c>
       <c r="G76" s="94">
         <f t="shared" si="6"/>
-        <v>1.8651375639520285E-2</v>
+        <v>1.8651375639519963E-2</v>
       </c>
       <c r="H76" s="94">
         <f t="shared" si="6"/>
-        <v>8.0549133905936186E-3</v>
+        <v>8.0549133905939499E-3</v>
       </c>
       <c r="I76" s="94">
         <f t="shared" si="6"/>
-        <v>1.2313247866586248E-2</v>
+        <v>1.231326080422181E-2</v>
       </c>
       <c r="J76" s="94">
         <f t="shared" si="6"/>
-        <v>1.7584501578868976E-2</v>
+        <v>1.7584378606511797E-2</v>
       </c>
       <c r="K76" s="94">
         <f t="shared" si="6"/>
-        <v>1.8169479460898711E-3</v>
-      </c>
-      <c r="L76" s="94" t="s">
-        <v>128</v>
+        <v>1.8336742454519439E-3</v>
+      </c>
+      <c r="L76" s="94">
+        <f t="shared" si="6"/>
+        <v>1.1377292054543383E-2</v>
       </c>
       <c r="M76" s="94" t="s">
         <v>128</v>
@@ -5533,11 +5539,11 @@
       </c>
       <c r="P76" s="94"/>
       <c r="Q76" s="79">
-        <f>AVERAGE(D76:K76)</f>
-        <v>1.1739318240211708E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" ht="15.75" thickBot="1">
+        <f>AVERAGE(D76:O76)</f>
+        <v>1.1700939360097503E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="15" thickBot="1">
       <c r="B77" s="109"/>
       <c r="C77" s="26"/>
       <c r="D77" s="87"/>
@@ -5555,13 +5561,13 @@
       <c r="P77" s="79"/>
       <c r="Q77" s="88"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" thickTop="1">
+    <row r="78" spans="2:17" ht="15" thickTop="1">
       <c r="B78" s="115" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="110"/>
       <c r="D78" s="89">
-        <f t="shared" ref="D78:K78" si="7">(D70+D72)+D75</f>
+        <f t="shared" ref="D78:L78" si="7">(D70+D72)+D75</f>
         <v>25093178.399999995</v>
       </c>
       <c r="E78" s="89">
@@ -5574,26 +5580,27 @@
       </c>
       <c r="G78" s="89">
         <f t="shared" si="7"/>
-        <v>22594462.100000005</v>
+        <v>22594462.099999998</v>
       </c>
       <c r="H78" s="89">
         <f t="shared" si="7"/>
-        <v>22331835.399999995</v>
+        <v>22331835.400000002</v>
       </c>
       <c r="I78" s="89">
         <f t="shared" si="7"/>
-        <v>23092989.199999999</v>
+        <v>23092989.300000004</v>
       </c>
       <c r="J78" s="89">
         <f t="shared" si="7"/>
-        <v>25194618.000000004</v>
+        <v>25194617.900000002</v>
       </c>
       <c r="K78" s="89">
         <f t="shared" si="7"/>
-        <v>24923608.900000002</v>
+        <v>24924165.299999997</v>
       </c>
       <c r="L78" s="89">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>23282833.799999993</v>
       </c>
       <c r="M78" s="89">
         <v>0</v>
@@ -5607,7 +5614,7 @@
       <c r="P78" s="79"/>
       <c r="Q78" s="79">
         <f t="shared" ref="Q78" si="8">SUM(D78:O78)</f>
-        <v>190537549.5</v>
+        <v>213820939.69999996</v>
       </c>
     </row>
     <row r="79" spans="2:17">
@@ -5712,15 +5719,15 @@
       <c r="D86" s="12"/>
       <c r="Q86" s="91"/>
     </row>
-    <row r="87" spans="2:17" ht="15.75">
+    <row r="87" spans="2:17" ht="15.6">
       <c r="B87" s="35"/>
       <c r="D87" s="12"/>
       <c r="Q87" s="91"/>
     </row>
-    <row r="88" spans="2:17" ht="15.75">
+    <row r="88" spans="2:17" ht="15.6">
       <c r="B88" s="35"/>
     </row>
-    <row r="89" spans="2:17" ht="15.75">
+    <row r="89" spans="2:17" ht="15.6">
       <c r="B89" s="35"/>
     </row>
   </sheetData>
